--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/010_設計標準/UI標準(画面).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/010_設計標準/UI標準(画面).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCC9419-55E6-4DB1-9132-5CC173AA4706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228DAAF0-2F1B-402C-9EA4-5FE913DBE97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="602">
   <si>
     <t>システム名</t>
   </si>
@@ -7084,6 +7084,22 @@
       <t>ホソク</t>
     </rPh>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ログイン画面ではメニュー領域の内容は非表示となる。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
@@ -8808,6 +8824,120 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -8844,186 +8974,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -9033,6 +9049,33 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9115,33 +9158,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9150,6 +9166,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9216,15 +9241,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9249,6 +9265,192 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9264,21 +9466,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9291,24 +9478,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9335,159 +9504,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -25221,57 +25237,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="438" t="s">
+      <c r="A1" s="410" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="430"/>
-      <c r="C1" s="430"/>
-      <c r="D1" s="431"/>
-      <c r="E1" s="432" t="s">
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
+      <c r="D1" s="403"/>
+      <c r="E1" s="404" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="433"/>
-      <c r="G1" s="433"/>
-      <c r="H1" s="433"/>
-      <c r="I1" s="433"/>
-      <c r="J1" s="433"/>
-      <c r="K1" s="433"/>
-      <c r="L1" s="433"/>
-      <c r="M1" s="433"/>
-      <c r="N1" s="434"/>
-      <c r="O1" s="439" t="s">
+      <c r="F1" s="405"/>
+      <c r="G1" s="405"/>
+      <c r="H1" s="405"/>
+      <c r="I1" s="405"/>
+      <c r="J1" s="405"/>
+      <c r="K1" s="405"/>
+      <c r="L1" s="405"/>
+      <c r="M1" s="405"/>
+      <c r="N1" s="406"/>
+      <c r="O1" s="411" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="440"/>
-      <c r="Q1" s="440"/>
-      <c r="R1" s="441"/>
-      <c r="S1" s="448" t="s">
+      <c r="P1" s="412"/>
+      <c r="Q1" s="412"/>
+      <c r="R1" s="413"/>
+      <c r="S1" s="420" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="449"/>
-      <c r="U1" s="449"/>
-      <c r="V1" s="449"/>
-      <c r="W1" s="449"/>
-      <c r="X1" s="449"/>
-      <c r="Y1" s="449"/>
-      <c r="Z1" s="450"/>
-      <c r="AA1" s="429" t="s">
+      <c r="T1" s="421"/>
+      <c r="U1" s="421"/>
+      <c r="V1" s="421"/>
+      <c r="W1" s="421"/>
+      <c r="X1" s="421"/>
+      <c r="Y1" s="421"/>
+      <c r="Z1" s="422"/>
+      <c r="AA1" s="401" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="431"/>
-      <c r="AC1" s="457" t="str">
+      <c r="AB1" s="403"/>
+      <c r="AC1" s="429" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="458"/>
-      <c r="AE1" s="458"/>
-      <c r="AF1" s="459"/>
-      <c r="AG1" s="423">
+      <c r="AD1" s="430"/>
+      <c r="AE1" s="430"/>
+      <c r="AF1" s="431"/>
+      <c r="AG1" s="395">
         <f>IF(D8="","",D8)</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="424"/>
-      <c r="AI1" s="425"/>
+      <c r="AH1" s="396"/>
+      <c r="AI1" s="397"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -25279,53 +25295,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="429" t="s">
+      <c r="A2" s="401" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="430"/>
-      <c r="C2" s="430"/>
-      <c r="D2" s="431"/>
-      <c r="E2" s="432" t="s">
+      <c r="B2" s="402"/>
+      <c r="C2" s="402"/>
+      <c r="D2" s="403"/>
+      <c r="E2" s="404" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="433"/>
-      <c r="G2" s="433"/>
-      <c r="H2" s="433"/>
-      <c r="I2" s="433"/>
-      <c r="J2" s="433"/>
-      <c r="K2" s="433"/>
-      <c r="L2" s="433"/>
-      <c r="M2" s="433"/>
-      <c r="N2" s="434"/>
-      <c r="O2" s="442"/>
-      <c r="P2" s="443"/>
-      <c r="Q2" s="443"/>
-      <c r="R2" s="444"/>
-      <c r="S2" s="451"/>
-      <c r="T2" s="452"/>
-      <c r="U2" s="452"/>
-      <c r="V2" s="452"/>
-      <c r="W2" s="452"/>
-      <c r="X2" s="452"/>
-      <c r="Y2" s="452"/>
-      <c r="Z2" s="453"/>
-      <c r="AA2" s="429" t="s">
+      <c r="F2" s="405"/>
+      <c r="G2" s="405"/>
+      <c r="H2" s="405"/>
+      <c r="I2" s="405"/>
+      <c r="J2" s="405"/>
+      <c r="K2" s="405"/>
+      <c r="L2" s="405"/>
+      <c r="M2" s="405"/>
+      <c r="N2" s="406"/>
+      <c r="O2" s="414"/>
+      <c r="P2" s="415"/>
+      <c r="Q2" s="415"/>
+      <c r="R2" s="416"/>
+      <c r="S2" s="423"/>
+      <c r="T2" s="424"/>
+      <c r="U2" s="424"/>
+      <c r="V2" s="424"/>
+      <c r="W2" s="424"/>
+      <c r="X2" s="424"/>
+      <c r="Y2" s="424"/>
+      <c r="Z2" s="425"/>
+      <c r="AA2" s="401" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="431"/>
-      <c r="AC2" s="435" t="str">
+      <c r="AB2" s="403"/>
+      <c r="AC2" s="407" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="436"/>
-      <c r="AE2" s="436"/>
-      <c r="AF2" s="437"/>
-      <c r="AG2" s="423" t="str">
+      <c r="AD2" s="408"/>
+      <c r="AE2" s="408"/>
+      <c r="AF2" s="409"/>
+      <c r="AG2" s="395" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="424"/>
-      <c r="AI2" s="425"/>
+      <c r="AH2" s="396"/>
+      <c r="AI2" s="397"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -25333,43 +25349,43 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="429" t="s">
+      <c r="A3" s="401" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="430"/>
-      <c r="C3" s="430"/>
-      <c r="D3" s="431"/>
-      <c r="E3" s="460"/>
-      <c r="F3" s="433"/>
-      <c r="G3" s="433"/>
-      <c r="H3" s="433"/>
-      <c r="I3" s="433"/>
-      <c r="J3" s="433"/>
-      <c r="K3" s="433"/>
-      <c r="L3" s="433"/>
-      <c r="M3" s="433"/>
-      <c r="N3" s="434"/>
-      <c r="O3" s="445"/>
-      <c r="P3" s="446"/>
-      <c r="Q3" s="446"/>
-      <c r="R3" s="447"/>
-      <c r="S3" s="454"/>
-      <c r="T3" s="455"/>
-      <c r="U3" s="455"/>
-      <c r="V3" s="455"/>
-      <c r="W3" s="455"/>
-      <c r="X3" s="455"/>
-      <c r="Y3" s="455"/>
-      <c r="Z3" s="456"/>
-      <c r="AA3" s="429"/>
-      <c r="AB3" s="431"/>
-      <c r="AC3" s="457"/>
-      <c r="AD3" s="458"/>
-      <c r="AE3" s="458"/>
-      <c r="AF3" s="459"/>
-      <c r="AG3" s="423"/>
-      <c r="AH3" s="424"/>
-      <c r="AI3" s="425"/>
+      <c r="B3" s="402"/>
+      <c r="C3" s="402"/>
+      <c r="D3" s="403"/>
+      <c r="E3" s="432"/>
+      <c r="F3" s="405"/>
+      <c r="G3" s="405"/>
+      <c r="H3" s="405"/>
+      <c r="I3" s="405"/>
+      <c r="J3" s="405"/>
+      <c r="K3" s="405"/>
+      <c r="L3" s="405"/>
+      <c r="M3" s="405"/>
+      <c r="N3" s="406"/>
+      <c r="O3" s="417"/>
+      <c r="P3" s="418"/>
+      <c r="Q3" s="418"/>
+      <c r="R3" s="419"/>
+      <c r="S3" s="426"/>
+      <c r="T3" s="427"/>
+      <c r="U3" s="427"/>
+      <c r="V3" s="427"/>
+      <c r="W3" s="427"/>
+      <c r="X3" s="427"/>
+      <c r="Y3" s="427"/>
+      <c r="Z3" s="428"/>
+      <c r="AA3" s="401"/>
+      <c r="AB3" s="403"/>
+      <c r="AC3" s="429"/>
+      <c r="AD3" s="430"/>
+      <c r="AE3" s="430"/>
+      <c r="AF3" s="431"/>
+      <c r="AG3" s="395"/>
+      <c r="AH3" s="396"/>
+      <c r="AI3" s="397"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -25406,1034 +25422,1190 @@
       <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="426" t="s">
+      <c r="B7" s="398" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="427"/>
-      <c r="D7" s="426" t="s">
+      <c r="C7" s="399"/>
+      <c r="D7" s="398" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="428"/>
-      <c r="F7" s="427"/>
-      <c r="G7" s="426" t="s">
+      <c r="E7" s="400"/>
+      <c r="F7" s="399"/>
+      <c r="G7" s="398" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="428"/>
-      <c r="I7" s="427"/>
-      <c r="J7" s="426" t="s">
+      <c r="H7" s="400"/>
+      <c r="I7" s="399"/>
+      <c r="J7" s="398" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="428"/>
-      <c r="L7" s="428"/>
-      <c r="M7" s="428"/>
-      <c r="N7" s="428"/>
-      <c r="O7" s="428"/>
-      <c r="P7" s="427"/>
-      <c r="Q7" s="426" t="s">
+      <c r="K7" s="400"/>
+      <c r="L7" s="400"/>
+      <c r="M7" s="400"/>
+      <c r="N7" s="400"/>
+      <c r="O7" s="400"/>
+      <c r="P7" s="399"/>
+      <c r="Q7" s="398" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="428"/>
-      <c r="S7" s="428"/>
-      <c r="T7" s="428"/>
-      <c r="U7" s="428"/>
-      <c r="V7" s="428"/>
-      <c r="W7" s="428"/>
-      <c r="X7" s="428"/>
-      <c r="Y7" s="428"/>
-      <c r="Z7" s="428"/>
-      <c r="AA7" s="428"/>
-      <c r="AB7" s="428"/>
-      <c r="AC7" s="428"/>
-      <c r="AD7" s="428"/>
-      <c r="AE7" s="427"/>
-      <c r="AF7" s="426" t="s">
+      <c r="R7" s="400"/>
+      <c r="S7" s="400"/>
+      <c r="T7" s="400"/>
+      <c r="U7" s="400"/>
+      <c r="V7" s="400"/>
+      <c r="W7" s="400"/>
+      <c r="X7" s="400"/>
+      <c r="Y7" s="400"/>
+      <c r="Z7" s="400"/>
+      <c r="AA7" s="400"/>
+      <c r="AB7" s="400"/>
+      <c r="AC7" s="400"/>
+      <c r="AD7" s="400"/>
+      <c r="AE7" s="399"/>
+      <c r="AF7" s="398" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="428"/>
-      <c r="AH7" s="428"/>
-      <c r="AI7" s="427"/>
+      <c r="AG7" s="400"/>
+      <c r="AH7" s="400"/>
+      <c r="AI7" s="399"/>
     </row>
     <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="140">
         <v>1</v>
       </c>
-      <c r="B8" s="408" t="s">
+      <c r="B8" s="445" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="409"/>
-      <c r="D8" s="410">
+      <c r="C8" s="446"/>
+      <c r="D8" s="447">
         <v>43620</v>
       </c>
-      <c r="E8" s="411"/>
-      <c r="F8" s="412"/>
-      <c r="G8" s="413" t="s">
+      <c r="E8" s="448"/>
+      <c r="F8" s="449"/>
+      <c r="G8" s="450" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="414"/>
-      <c r="I8" s="415"/>
-      <c r="J8" s="416" t="s">
+      <c r="H8" s="451"/>
+      <c r="I8" s="452"/>
+      <c r="J8" s="453" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="417"/>
-      <c r="L8" s="417"/>
-      <c r="M8" s="417"/>
-      <c r="N8" s="417"/>
-      <c r="O8" s="417"/>
-      <c r="P8" s="418"/>
-      <c r="Q8" s="419" t="s">
+      <c r="K8" s="454"/>
+      <c r="L8" s="454"/>
+      <c r="M8" s="454"/>
+      <c r="N8" s="454"/>
+      <c r="O8" s="454"/>
+      <c r="P8" s="455"/>
+      <c r="Q8" s="456" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="420"/>
-      <c r="S8" s="420"/>
-      <c r="T8" s="420"/>
-      <c r="U8" s="420"/>
-      <c r="V8" s="420"/>
-      <c r="W8" s="420"/>
-      <c r="X8" s="420"/>
-      <c r="Y8" s="420"/>
-      <c r="Z8" s="420"/>
-      <c r="AA8" s="420"/>
-      <c r="AB8" s="420"/>
-      <c r="AC8" s="420"/>
-      <c r="AD8" s="420"/>
-      <c r="AE8" s="421"/>
-      <c r="AF8" s="422" t="s">
+      <c r="R8" s="457"/>
+      <c r="S8" s="457"/>
+      <c r="T8" s="457"/>
+      <c r="U8" s="457"/>
+      <c r="V8" s="457"/>
+      <c r="W8" s="457"/>
+      <c r="X8" s="457"/>
+      <c r="Y8" s="457"/>
+      <c r="Z8" s="457"/>
+      <c r="AA8" s="457"/>
+      <c r="AB8" s="457"/>
+      <c r="AC8" s="457"/>
+      <c r="AD8" s="457"/>
+      <c r="AE8" s="458"/>
+      <c r="AF8" s="459" t="s">
         <v>496</v>
       </c>
-      <c r="AG8" s="417"/>
-      <c r="AH8" s="417"/>
-      <c r="AI8" s="418"/>
+      <c r="AG8" s="454"/>
+      <c r="AH8" s="454"/>
+      <c r="AI8" s="455"/>
     </row>
     <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="139"/>
-      <c r="B9" s="395"/>
-      <c r="C9" s="396"/>
-      <c r="D9" s="397"/>
-      <c r="E9" s="398"/>
-      <c r="F9" s="399"/>
-      <c r="G9" s="397"/>
-      <c r="H9" s="400"/>
-      <c r="I9" s="396"/>
-      <c r="J9" s="401"/>
-      <c r="K9" s="402"/>
-      <c r="L9" s="402"/>
-      <c r="M9" s="402"/>
-      <c r="N9" s="402"/>
-      <c r="O9" s="402"/>
-      <c r="P9" s="403"/>
-      <c r="Q9" s="404"/>
-      <c r="R9" s="405"/>
-      <c r="S9" s="405"/>
-      <c r="T9" s="405"/>
-      <c r="U9" s="405"/>
-      <c r="V9" s="405"/>
-      <c r="W9" s="405"/>
-      <c r="X9" s="405"/>
-      <c r="Y9" s="405"/>
-      <c r="Z9" s="405"/>
-      <c r="AA9" s="405"/>
-      <c r="AB9" s="405"/>
-      <c r="AC9" s="405"/>
-      <c r="AD9" s="405"/>
-      <c r="AE9" s="406"/>
-      <c r="AF9" s="401"/>
-      <c r="AG9" s="402"/>
-      <c r="AH9" s="402"/>
-      <c r="AI9" s="403"/>
+      <c r="B9" s="433"/>
+      <c r="C9" s="434"/>
+      <c r="D9" s="435"/>
+      <c r="E9" s="436"/>
+      <c r="F9" s="437"/>
+      <c r="G9" s="435"/>
+      <c r="H9" s="438"/>
+      <c r="I9" s="434"/>
+      <c r="J9" s="439"/>
+      <c r="K9" s="440"/>
+      <c r="L9" s="440"/>
+      <c r="M9" s="440"/>
+      <c r="N9" s="440"/>
+      <c r="O9" s="440"/>
+      <c r="P9" s="441"/>
+      <c r="Q9" s="442"/>
+      <c r="R9" s="443"/>
+      <c r="S9" s="443"/>
+      <c r="T9" s="443"/>
+      <c r="U9" s="443"/>
+      <c r="V9" s="443"/>
+      <c r="W9" s="443"/>
+      <c r="X9" s="443"/>
+      <c r="Y9" s="443"/>
+      <c r="Z9" s="443"/>
+      <c r="AA9" s="443"/>
+      <c r="AB9" s="443"/>
+      <c r="AC9" s="443"/>
+      <c r="AD9" s="443"/>
+      <c r="AE9" s="444"/>
+      <c r="AF9" s="439"/>
+      <c r="AG9" s="440"/>
+      <c r="AH9" s="440"/>
+      <c r="AI9" s="441"/>
     </row>
     <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="139"/>
-      <c r="B10" s="395"/>
-      <c r="C10" s="396"/>
-      <c r="D10" s="397"/>
-      <c r="E10" s="398"/>
-      <c r="F10" s="399"/>
-      <c r="G10" s="395"/>
-      <c r="H10" s="400"/>
-      <c r="I10" s="396"/>
-      <c r="J10" s="401"/>
-      <c r="K10" s="402"/>
-      <c r="L10" s="402"/>
-      <c r="M10" s="402"/>
-      <c r="N10" s="402"/>
-      <c r="O10" s="402"/>
-      <c r="P10" s="403"/>
-      <c r="Q10" s="404"/>
-      <c r="R10" s="405"/>
-      <c r="S10" s="405"/>
-      <c r="T10" s="405"/>
-      <c r="U10" s="405"/>
-      <c r="V10" s="405"/>
-      <c r="W10" s="405"/>
-      <c r="X10" s="405"/>
-      <c r="Y10" s="405"/>
-      <c r="Z10" s="405"/>
-      <c r="AA10" s="405"/>
-      <c r="AB10" s="405"/>
-      <c r="AC10" s="405"/>
-      <c r="AD10" s="405"/>
-      <c r="AE10" s="406"/>
-      <c r="AF10" s="401"/>
-      <c r="AG10" s="402"/>
-      <c r="AH10" s="402"/>
-      <c r="AI10" s="403"/>
+      <c r="B10" s="433"/>
+      <c r="C10" s="434"/>
+      <c r="D10" s="435"/>
+      <c r="E10" s="436"/>
+      <c r="F10" s="437"/>
+      <c r="G10" s="433"/>
+      <c r="H10" s="438"/>
+      <c r="I10" s="434"/>
+      <c r="J10" s="439"/>
+      <c r="K10" s="440"/>
+      <c r="L10" s="440"/>
+      <c r="M10" s="440"/>
+      <c r="N10" s="440"/>
+      <c r="O10" s="440"/>
+      <c r="P10" s="441"/>
+      <c r="Q10" s="442"/>
+      <c r="R10" s="443"/>
+      <c r="S10" s="443"/>
+      <c r="T10" s="443"/>
+      <c r="U10" s="443"/>
+      <c r="V10" s="443"/>
+      <c r="W10" s="443"/>
+      <c r="X10" s="443"/>
+      <c r="Y10" s="443"/>
+      <c r="Z10" s="443"/>
+      <c r="AA10" s="443"/>
+      <c r="AB10" s="443"/>
+      <c r="AC10" s="443"/>
+      <c r="AD10" s="443"/>
+      <c r="AE10" s="444"/>
+      <c r="AF10" s="439"/>
+      <c r="AG10" s="440"/>
+      <c r="AH10" s="440"/>
+      <c r="AI10" s="441"/>
     </row>
     <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="139"/>
-      <c r="B11" s="395"/>
-      <c r="C11" s="396"/>
-      <c r="D11" s="397"/>
-      <c r="E11" s="398"/>
-      <c r="F11" s="399"/>
-      <c r="G11" s="395"/>
-      <c r="H11" s="400"/>
-      <c r="I11" s="396"/>
-      <c r="J11" s="401"/>
-      <c r="K11" s="402"/>
-      <c r="L11" s="402"/>
-      <c r="M11" s="402"/>
-      <c r="N11" s="402"/>
-      <c r="O11" s="402"/>
-      <c r="P11" s="403"/>
-      <c r="Q11" s="404"/>
-      <c r="R11" s="405"/>
-      <c r="S11" s="405"/>
-      <c r="T11" s="405"/>
-      <c r="U11" s="405"/>
-      <c r="V11" s="405"/>
-      <c r="W11" s="405"/>
-      <c r="X11" s="405"/>
-      <c r="Y11" s="405"/>
-      <c r="Z11" s="405"/>
-      <c r="AA11" s="405"/>
-      <c r="AB11" s="405"/>
-      <c r="AC11" s="405"/>
-      <c r="AD11" s="405"/>
-      <c r="AE11" s="406"/>
-      <c r="AF11" s="401"/>
-      <c r="AG11" s="402"/>
-      <c r="AH11" s="402"/>
-      <c r="AI11" s="403"/>
+      <c r="B11" s="433"/>
+      <c r="C11" s="434"/>
+      <c r="D11" s="435"/>
+      <c r="E11" s="436"/>
+      <c r="F11" s="437"/>
+      <c r="G11" s="433"/>
+      <c r="H11" s="438"/>
+      <c r="I11" s="434"/>
+      <c r="J11" s="439"/>
+      <c r="K11" s="440"/>
+      <c r="L11" s="440"/>
+      <c r="M11" s="440"/>
+      <c r="N11" s="440"/>
+      <c r="O11" s="440"/>
+      <c r="P11" s="441"/>
+      <c r="Q11" s="442"/>
+      <c r="R11" s="443"/>
+      <c r="S11" s="443"/>
+      <c r="T11" s="443"/>
+      <c r="U11" s="443"/>
+      <c r="V11" s="443"/>
+      <c r="W11" s="443"/>
+      <c r="X11" s="443"/>
+      <c r="Y11" s="443"/>
+      <c r="Z11" s="443"/>
+      <c r="AA11" s="443"/>
+      <c r="AB11" s="443"/>
+      <c r="AC11" s="443"/>
+      <c r="AD11" s="443"/>
+      <c r="AE11" s="444"/>
+      <c r="AF11" s="439"/>
+      <c r="AG11" s="440"/>
+      <c r="AH11" s="440"/>
+      <c r="AI11" s="441"/>
     </row>
     <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="139"/>
-      <c r="B12" s="395"/>
-      <c r="C12" s="396"/>
-      <c r="D12" s="397"/>
-      <c r="E12" s="398"/>
-      <c r="F12" s="399"/>
-      <c r="G12" s="395"/>
-      <c r="H12" s="400"/>
-      <c r="I12" s="396"/>
-      <c r="J12" s="401"/>
-      <c r="K12" s="402"/>
-      <c r="L12" s="402"/>
-      <c r="M12" s="402"/>
-      <c r="N12" s="402"/>
-      <c r="O12" s="402"/>
-      <c r="P12" s="403"/>
-      <c r="Q12" s="404"/>
-      <c r="R12" s="405"/>
-      <c r="S12" s="405"/>
-      <c r="T12" s="405"/>
-      <c r="U12" s="405"/>
-      <c r="V12" s="405"/>
-      <c r="W12" s="405"/>
-      <c r="X12" s="405"/>
-      <c r="Y12" s="405"/>
-      <c r="Z12" s="405"/>
-      <c r="AA12" s="405"/>
-      <c r="AB12" s="405"/>
-      <c r="AC12" s="405"/>
-      <c r="AD12" s="405"/>
-      <c r="AE12" s="406"/>
-      <c r="AF12" s="401"/>
-      <c r="AG12" s="402"/>
-      <c r="AH12" s="402"/>
-      <c r="AI12" s="403"/>
+      <c r="B12" s="433"/>
+      <c r="C12" s="434"/>
+      <c r="D12" s="435"/>
+      <c r="E12" s="436"/>
+      <c r="F12" s="437"/>
+      <c r="G12" s="433"/>
+      <c r="H12" s="438"/>
+      <c r="I12" s="434"/>
+      <c r="J12" s="439"/>
+      <c r="K12" s="440"/>
+      <c r="L12" s="440"/>
+      <c r="M12" s="440"/>
+      <c r="N12" s="440"/>
+      <c r="O12" s="440"/>
+      <c r="P12" s="441"/>
+      <c r="Q12" s="442"/>
+      <c r="R12" s="443"/>
+      <c r="S12" s="443"/>
+      <c r="T12" s="443"/>
+      <c r="U12" s="443"/>
+      <c r="V12" s="443"/>
+      <c r="W12" s="443"/>
+      <c r="X12" s="443"/>
+      <c r="Y12" s="443"/>
+      <c r="Z12" s="443"/>
+      <c r="AA12" s="443"/>
+      <c r="AB12" s="443"/>
+      <c r="AC12" s="443"/>
+      <c r="AD12" s="443"/>
+      <c r="AE12" s="444"/>
+      <c r="AF12" s="439"/>
+      <c r="AG12" s="440"/>
+      <c r="AH12" s="440"/>
+      <c r="AI12" s="441"/>
     </row>
     <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="139"/>
-      <c r="B13" s="395"/>
-      <c r="C13" s="396"/>
-      <c r="D13" s="397"/>
-      <c r="E13" s="398"/>
-      <c r="F13" s="399"/>
-      <c r="G13" s="395"/>
-      <c r="H13" s="400"/>
-      <c r="I13" s="396"/>
-      <c r="J13" s="401"/>
-      <c r="K13" s="402"/>
-      <c r="L13" s="402"/>
-      <c r="M13" s="402"/>
-      <c r="N13" s="402"/>
-      <c r="O13" s="402"/>
-      <c r="P13" s="403"/>
-      <c r="Q13" s="404"/>
-      <c r="R13" s="405"/>
-      <c r="S13" s="405"/>
-      <c r="T13" s="405"/>
-      <c r="U13" s="405"/>
-      <c r="V13" s="405"/>
-      <c r="W13" s="405"/>
-      <c r="X13" s="405"/>
-      <c r="Y13" s="405"/>
-      <c r="Z13" s="405"/>
-      <c r="AA13" s="405"/>
-      <c r="AB13" s="405"/>
-      <c r="AC13" s="405"/>
-      <c r="AD13" s="405"/>
-      <c r="AE13" s="406"/>
-      <c r="AF13" s="401"/>
-      <c r="AG13" s="402"/>
-      <c r="AH13" s="402"/>
-      <c r="AI13" s="403"/>
+      <c r="B13" s="433"/>
+      <c r="C13" s="434"/>
+      <c r="D13" s="435"/>
+      <c r="E13" s="436"/>
+      <c r="F13" s="437"/>
+      <c r="G13" s="433"/>
+      <c r="H13" s="438"/>
+      <c r="I13" s="434"/>
+      <c r="J13" s="439"/>
+      <c r="K13" s="440"/>
+      <c r="L13" s="440"/>
+      <c r="M13" s="440"/>
+      <c r="N13" s="440"/>
+      <c r="O13" s="440"/>
+      <c r="P13" s="441"/>
+      <c r="Q13" s="442"/>
+      <c r="R13" s="443"/>
+      <c r="S13" s="443"/>
+      <c r="T13" s="443"/>
+      <c r="U13" s="443"/>
+      <c r="V13" s="443"/>
+      <c r="W13" s="443"/>
+      <c r="X13" s="443"/>
+      <c r="Y13" s="443"/>
+      <c r="Z13" s="443"/>
+      <c r="AA13" s="443"/>
+      <c r="AB13" s="443"/>
+      <c r="AC13" s="443"/>
+      <c r="AD13" s="443"/>
+      <c r="AE13" s="444"/>
+      <c r="AF13" s="439"/>
+      <c r="AG13" s="440"/>
+      <c r="AH13" s="440"/>
+      <c r="AI13" s="441"/>
     </row>
     <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="139"/>
-      <c r="B14" s="395"/>
-      <c r="C14" s="396"/>
-      <c r="D14" s="397"/>
-      <c r="E14" s="398"/>
-      <c r="F14" s="399"/>
-      <c r="G14" s="395"/>
-      <c r="H14" s="400"/>
-      <c r="I14" s="396"/>
-      <c r="J14" s="401"/>
-      <c r="K14" s="402"/>
-      <c r="L14" s="402"/>
-      <c r="M14" s="402"/>
-      <c r="N14" s="402"/>
-      <c r="O14" s="402"/>
-      <c r="P14" s="403"/>
-      <c r="Q14" s="404"/>
-      <c r="R14" s="405"/>
-      <c r="S14" s="405"/>
-      <c r="T14" s="405"/>
-      <c r="U14" s="405"/>
-      <c r="V14" s="405"/>
-      <c r="W14" s="405"/>
-      <c r="X14" s="405"/>
-      <c r="Y14" s="405"/>
-      <c r="Z14" s="405"/>
-      <c r="AA14" s="405"/>
-      <c r="AB14" s="405"/>
-      <c r="AC14" s="405"/>
-      <c r="AD14" s="405"/>
-      <c r="AE14" s="406"/>
-      <c r="AF14" s="401"/>
-      <c r="AG14" s="402"/>
-      <c r="AH14" s="402"/>
-      <c r="AI14" s="403"/>
+      <c r="B14" s="433"/>
+      <c r="C14" s="434"/>
+      <c r="D14" s="435"/>
+      <c r="E14" s="436"/>
+      <c r="F14" s="437"/>
+      <c r="G14" s="433"/>
+      <c r="H14" s="438"/>
+      <c r="I14" s="434"/>
+      <c r="J14" s="439"/>
+      <c r="K14" s="440"/>
+      <c r="L14" s="440"/>
+      <c r="M14" s="440"/>
+      <c r="N14" s="440"/>
+      <c r="O14" s="440"/>
+      <c r="P14" s="441"/>
+      <c r="Q14" s="442"/>
+      <c r="R14" s="443"/>
+      <c r="S14" s="443"/>
+      <c r="T14" s="443"/>
+      <c r="U14" s="443"/>
+      <c r="V14" s="443"/>
+      <c r="W14" s="443"/>
+      <c r="X14" s="443"/>
+      <c r="Y14" s="443"/>
+      <c r="Z14" s="443"/>
+      <c r="AA14" s="443"/>
+      <c r="AB14" s="443"/>
+      <c r="AC14" s="443"/>
+      <c r="AD14" s="443"/>
+      <c r="AE14" s="444"/>
+      <c r="AF14" s="439"/>
+      <c r="AG14" s="440"/>
+      <c r="AH14" s="440"/>
+      <c r="AI14" s="441"/>
     </row>
     <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="139"/>
-      <c r="B15" s="395"/>
-      <c r="C15" s="396"/>
-      <c r="D15" s="397"/>
-      <c r="E15" s="398"/>
-      <c r="F15" s="399"/>
-      <c r="G15" s="395"/>
-      <c r="H15" s="400"/>
-      <c r="I15" s="396"/>
-      <c r="J15" s="401"/>
-      <c r="K15" s="402"/>
-      <c r="L15" s="402"/>
-      <c r="M15" s="402"/>
-      <c r="N15" s="402"/>
-      <c r="O15" s="402"/>
-      <c r="P15" s="403"/>
-      <c r="Q15" s="404"/>
-      <c r="R15" s="405"/>
-      <c r="S15" s="405"/>
-      <c r="T15" s="405"/>
-      <c r="U15" s="405"/>
-      <c r="V15" s="405"/>
-      <c r="W15" s="405"/>
-      <c r="X15" s="405"/>
-      <c r="Y15" s="405"/>
-      <c r="Z15" s="405"/>
-      <c r="AA15" s="405"/>
-      <c r="AB15" s="405"/>
-      <c r="AC15" s="405"/>
-      <c r="AD15" s="405"/>
-      <c r="AE15" s="406"/>
-      <c r="AF15" s="401"/>
-      <c r="AG15" s="402"/>
-      <c r="AH15" s="402"/>
-      <c r="AI15" s="403"/>
+      <c r="B15" s="433"/>
+      <c r="C15" s="434"/>
+      <c r="D15" s="435"/>
+      <c r="E15" s="436"/>
+      <c r="F15" s="437"/>
+      <c r="G15" s="433"/>
+      <c r="H15" s="438"/>
+      <c r="I15" s="434"/>
+      <c r="J15" s="439"/>
+      <c r="K15" s="440"/>
+      <c r="L15" s="440"/>
+      <c r="M15" s="440"/>
+      <c r="N15" s="440"/>
+      <c r="O15" s="440"/>
+      <c r="P15" s="441"/>
+      <c r="Q15" s="442"/>
+      <c r="R15" s="443"/>
+      <c r="S15" s="443"/>
+      <c r="T15" s="443"/>
+      <c r="U15" s="443"/>
+      <c r="V15" s="443"/>
+      <c r="W15" s="443"/>
+      <c r="X15" s="443"/>
+      <c r="Y15" s="443"/>
+      <c r="Z15" s="443"/>
+      <c r="AA15" s="443"/>
+      <c r="AB15" s="443"/>
+      <c r="AC15" s="443"/>
+      <c r="AD15" s="443"/>
+      <c r="AE15" s="444"/>
+      <c r="AF15" s="439"/>
+      <c r="AG15" s="440"/>
+      <c r="AH15" s="440"/>
+      <c r="AI15" s="441"/>
     </row>
     <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="139"/>
-      <c r="B16" s="395"/>
-      <c r="C16" s="396"/>
-      <c r="D16" s="397"/>
-      <c r="E16" s="398"/>
-      <c r="F16" s="399"/>
-      <c r="G16" s="395"/>
-      <c r="H16" s="400"/>
-      <c r="I16" s="396"/>
-      <c r="J16" s="401"/>
-      <c r="K16" s="402"/>
-      <c r="L16" s="402"/>
-      <c r="M16" s="402"/>
-      <c r="N16" s="402"/>
-      <c r="O16" s="402"/>
-      <c r="P16" s="403"/>
-      <c r="Q16" s="404"/>
-      <c r="R16" s="405"/>
-      <c r="S16" s="405"/>
-      <c r="T16" s="405"/>
-      <c r="U16" s="405"/>
-      <c r="V16" s="405"/>
-      <c r="W16" s="405"/>
-      <c r="X16" s="405"/>
-      <c r="Y16" s="405"/>
-      <c r="Z16" s="405"/>
-      <c r="AA16" s="405"/>
-      <c r="AB16" s="405"/>
-      <c r="AC16" s="405"/>
-      <c r="AD16" s="405"/>
-      <c r="AE16" s="406"/>
-      <c r="AF16" s="401"/>
-      <c r="AG16" s="402"/>
-      <c r="AH16" s="402"/>
-      <c r="AI16" s="403"/>
+      <c r="B16" s="433"/>
+      <c r="C16" s="434"/>
+      <c r="D16" s="435"/>
+      <c r="E16" s="436"/>
+      <c r="F16" s="437"/>
+      <c r="G16" s="433"/>
+      <c r="H16" s="438"/>
+      <c r="I16" s="434"/>
+      <c r="J16" s="439"/>
+      <c r="K16" s="440"/>
+      <c r="L16" s="440"/>
+      <c r="M16" s="440"/>
+      <c r="N16" s="440"/>
+      <c r="O16" s="440"/>
+      <c r="P16" s="441"/>
+      <c r="Q16" s="442"/>
+      <c r="R16" s="443"/>
+      <c r="S16" s="443"/>
+      <c r="T16" s="443"/>
+      <c r="U16" s="443"/>
+      <c r="V16" s="443"/>
+      <c r="W16" s="443"/>
+      <c r="X16" s="443"/>
+      <c r="Y16" s="443"/>
+      <c r="Z16" s="443"/>
+      <c r="AA16" s="443"/>
+      <c r="AB16" s="443"/>
+      <c r="AC16" s="443"/>
+      <c r="AD16" s="443"/>
+      <c r="AE16" s="444"/>
+      <c r="AF16" s="439"/>
+      <c r="AG16" s="440"/>
+      <c r="AH16" s="440"/>
+      <c r="AI16" s="441"/>
     </row>
     <row r="17" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="139"/>
-      <c r="B17" s="395"/>
-      <c r="C17" s="396"/>
-      <c r="D17" s="397"/>
-      <c r="E17" s="398"/>
-      <c r="F17" s="399"/>
-      <c r="G17" s="395"/>
-      <c r="H17" s="400"/>
-      <c r="I17" s="396"/>
-      <c r="J17" s="401"/>
-      <c r="K17" s="402"/>
-      <c r="L17" s="402"/>
-      <c r="M17" s="402"/>
-      <c r="N17" s="402"/>
-      <c r="O17" s="402"/>
-      <c r="P17" s="403"/>
-      <c r="Q17" s="404"/>
-      <c r="R17" s="405"/>
-      <c r="S17" s="405"/>
-      <c r="T17" s="405"/>
-      <c r="U17" s="405"/>
-      <c r="V17" s="405"/>
-      <c r="W17" s="405"/>
-      <c r="X17" s="405"/>
-      <c r="Y17" s="405"/>
-      <c r="Z17" s="405"/>
-      <c r="AA17" s="405"/>
-      <c r="AB17" s="405"/>
-      <c r="AC17" s="405"/>
-      <c r="AD17" s="405"/>
-      <c r="AE17" s="406"/>
-      <c r="AF17" s="401"/>
-      <c r="AG17" s="402"/>
-      <c r="AH17" s="402"/>
-      <c r="AI17" s="403"/>
+      <c r="B17" s="433"/>
+      <c r="C17" s="434"/>
+      <c r="D17" s="435"/>
+      <c r="E17" s="436"/>
+      <c r="F17" s="437"/>
+      <c r="G17" s="433"/>
+      <c r="H17" s="438"/>
+      <c r="I17" s="434"/>
+      <c r="J17" s="439"/>
+      <c r="K17" s="440"/>
+      <c r="L17" s="440"/>
+      <c r="M17" s="440"/>
+      <c r="N17" s="440"/>
+      <c r="O17" s="440"/>
+      <c r="P17" s="441"/>
+      <c r="Q17" s="442"/>
+      <c r="R17" s="443"/>
+      <c r="S17" s="443"/>
+      <c r="T17" s="443"/>
+      <c r="U17" s="443"/>
+      <c r="V17" s="443"/>
+      <c r="W17" s="443"/>
+      <c r="X17" s="443"/>
+      <c r="Y17" s="443"/>
+      <c r="Z17" s="443"/>
+      <c r="AA17" s="443"/>
+      <c r="AB17" s="443"/>
+      <c r="AC17" s="443"/>
+      <c r="AD17" s="443"/>
+      <c r="AE17" s="444"/>
+      <c r="AF17" s="439"/>
+      <c r="AG17" s="440"/>
+      <c r="AH17" s="440"/>
+      <c r="AI17" s="441"/>
     </row>
     <row r="18" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="139"/>
-      <c r="B18" s="395"/>
-      <c r="C18" s="396"/>
-      <c r="D18" s="397"/>
-      <c r="E18" s="398"/>
-      <c r="F18" s="399"/>
-      <c r="G18" s="395"/>
-      <c r="H18" s="400"/>
-      <c r="I18" s="396"/>
-      <c r="J18" s="401"/>
-      <c r="K18" s="402"/>
-      <c r="L18" s="402"/>
-      <c r="M18" s="402"/>
-      <c r="N18" s="402"/>
-      <c r="O18" s="402"/>
-      <c r="P18" s="403"/>
-      <c r="Q18" s="404"/>
-      <c r="R18" s="405"/>
-      <c r="S18" s="405"/>
-      <c r="T18" s="405"/>
-      <c r="U18" s="405"/>
-      <c r="V18" s="405"/>
-      <c r="W18" s="405"/>
-      <c r="X18" s="405"/>
-      <c r="Y18" s="405"/>
-      <c r="Z18" s="405"/>
-      <c r="AA18" s="405"/>
-      <c r="AB18" s="405"/>
-      <c r="AC18" s="405"/>
-      <c r="AD18" s="405"/>
-      <c r="AE18" s="406"/>
-      <c r="AF18" s="401"/>
-      <c r="AG18" s="402"/>
-      <c r="AH18" s="402"/>
-      <c r="AI18" s="403"/>
+      <c r="B18" s="433"/>
+      <c r="C18" s="434"/>
+      <c r="D18" s="435"/>
+      <c r="E18" s="436"/>
+      <c r="F18" s="437"/>
+      <c r="G18" s="433"/>
+      <c r="H18" s="438"/>
+      <c r="I18" s="434"/>
+      <c r="J18" s="439"/>
+      <c r="K18" s="440"/>
+      <c r="L18" s="440"/>
+      <c r="M18" s="440"/>
+      <c r="N18" s="440"/>
+      <c r="O18" s="440"/>
+      <c r="P18" s="441"/>
+      <c r="Q18" s="442"/>
+      <c r="R18" s="443"/>
+      <c r="S18" s="443"/>
+      <c r="T18" s="443"/>
+      <c r="U18" s="443"/>
+      <c r="V18" s="443"/>
+      <c r="W18" s="443"/>
+      <c r="X18" s="443"/>
+      <c r="Y18" s="443"/>
+      <c r="Z18" s="443"/>
+      <c r="AA18" s="443"/>
+      <c r="AB18" s="443"/>
+      <c r="AC18" s="443"/>
+      <c r="AD18" s="443"/>
+      <c r="AE18" s="444"/>
+      <c r="AF18" s="439"/>
+      <c r="AG18" s="440"/>
+      <c r="AH18" s="440"/>
+      <c r="AI18" s="441"/>
     </row>
     <row r="19" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="139"/>
-      <c r="B19" s="395"/>
-      <c r="C19" s="396"/>
-      <c r="D19" s="397"/>
-      <c r="E19" s="398"/>
-      <c r="F19" s="399"/>
-      <c r="G19" s="395"/>
-      <c r="H19" s="400"/>
-      <c r="I19" s="396"/>
-      <c r="J19" s="401"/>
-      <c r="K19" s="402"/>
-      <c r="L19" s="402"/>
-      <c r="M19" s="402"/>
-      <c r="N19" s="402"/>
-      <c r="O19" s="402"/>
-      <c r="P19" s="403"/>
-      <c r="Q19" s="404"/>
-      <c r="R19" s="405"/>
-      <c r="S19" s="405"/>
-      <c r="T19" s="405"/>
-      <c r="U19" s="405"/>
-      <c r="V19" s="405"/>
-      <c r="W19" s="405"/>
-      <c r="X19" s="405"/>
-      <c r="Y19" s="405"/>
-      <c r="Z19" s="405"/>
-      <c r="AA19" s="405"/>
-      <c r="AB19" s="405"/>
-      <c r="AC19" s="405"/>
-      <c r="AD19" s="405"/>
-      <c r="AE19" s="406"/>
-      <c r="AF19" s="401"/>
-      <c r="AG19" s="402"/>
-      <c r="AH19" s="402"/>
-      <c r="AI19" s="403"/>
+      <c r="B19" s="433"/>
+      <c r="C19" s="434"/>
+      <c r="D19" s="435"/>
+      <c r="E19" s="436"/>
+      <c r="F19" s="437"/>
+      <c r="G19" s="433"/>
+      <c r="H19" s="438"/>
+      <c r="I19" s="434"/>
+      <c r="J19" s="439"/>
+      <c r="K19" s="440"/>
+      <c r="L19" s="440"/>
+      <c r="M19" s="440"/>
+      <c r="N19" s="440"/>
+      <c r="O19" s="440"/>
+      <c r="P19" s="441"/>
+      <c r="Q19" s="442"/>
+      <c r="R19" s="443"/>
+      <c r="S19" s="443"/>
+      <c r="T19" s="443"/>
+      <c r="U19" s="443"/>
+      <c r="V19" s="443"/>
+      <c r="W19" s="443"/>
+      <c r="X19" s="443"/>
+      <c r="Y19" s="443"/>
+      <c r="Z19" s="443"/>
+      <c r="AA19" s="443"/>
+      <c r="AB19" s="443"/>
+      <c r="AC19" s="443"/>
+      <c r="AD19" s="443"/>
+      <c r="AE19" s="444"/>
+      <c r="AF19" s="439"/>
+      <c r="AG19" s="440"/>
+      <c r="AH19" s="440"/>
+      <c r="AI19" s="441"/>
     </row>
     <row r="20" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="139"/>
-      <c r="B20" s="395"/>
-      <c r="C20" s="396"/>
-      <c r="D20" s="397"/>
-      <c r="E20" s="398"/>
-      <c r="F20" s="399"/>
-      <c r="G20" s="395"/>
-      <c r="H20" s="400"/>
-      <c r="I20" s="396"/>
-      <c r="J20" s="401"/>
-      <c r="K20" s="402"/>
-      <c r="L20" s="402"/>
-      <c r="M20" s="402"/>
-      <c r="N20" s="402"/>
-      <c r="O20" s="402"/>
-      <c r="P20" s="403"/>
-      <c r="Q20" s="404"/>
-      <c r="R20" s="405"/>
-      <c r="S20" s="405"/>
-      <c r="T20" s="405"/>
-      <c r="U20" s="405"/>
-      <c r="V20" s="405"/>
-      <c r="W20" s="405"/>
-      <c r="X20" s="405"/>
-      <c r="Y20" s="405"/>
-      <c r="Z20" s="405"/>
-      <c r="AA20" s="405"/>
-      <c r="AB20" s="405"/>
-      <c r="AC20" s="405"/>
-      <c r="AD20" s="405"/>
-      <c r="AE20" s="406"/>
-      <c r="AF20" s="401"/>
-      <c r="AG20" s="402"/>
-      <c r="AH20" s="402"/>
-      <c r="AI20" s="403"/>
+      <c r="B20" s="433"/>
+      <c r="C20" s="434"/>
+      <c r="D20" s="435"/>
+      <c r="E20" s="436"/>
+      <c r="F20" s="437"/>
+      <c r="G20" s="433"/>
+      <c r="H20" s="438"/>
+      <c r="I20" s="434"/>
+      <c r="J20" s="439"/>
+      <c r="K20" s="440"/>
+      <c r="L20" s="440"/>
+      <c r="M20" s="440"/>
+      <c r="N20" s="440"/>
+      <c r="O20" s="440"/>
+      <c r="P20" s="441"/>
+      <c r="Q20" s="442"/>
+      <c r="R20" s="443"/>
+      <c r="S20" s="443"/>
+      <c r="T20" s="443"/>
+      <c r="U20" s="443"/>
+      <c r="V20" s="443"/>
+      <c r="W20" s="443"/>
+      <c r="X20" s="443"/>
+      <c r="Y20" s="443"/>
+      <c r="Z20" s="443"/>
+      <c r="AA20" s="443"/>
+      <c r="AB20" s="443"/>
+      <c r="AC20" s="443"/>
+      <c r="AD20" s="443"/>
+      <c r="AE20" s="444"/>
+      <c r="AF20" s="439"/>
+      <c r="AG20" s="440"/>
+      <c r="AH20" s="440"/>
+      <c r="AI20" s="441"/>
     </row>
     <row r="21" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="139"/>
-      <c r="B21" s="395"/>
-      <c r="C21" s="396"/>
-      <c r="D21" s="397"/>
-      <c r="E21" s="398"/>
-      <c r="F21" s="399"/>
-      <c r="G21" s="395"/>
-      <c r="H21" s="400"/>
-      <c r="I21" s="396"/>
-      <c r="J21" s="401"/>
-      <c r="K21" s="402"/>
-      <c r="L21" s="402"/>
-      <c r="M21" s="402"/>
-      <c r="N21" s="402"/>
-      <c r="O21" s="402"/>
-      <c r="P21" s="403"/>
-      <c r="Q21" s="404"/>
-      <c r="R21" s="405"/>
-      <c r="S21" s="405"/>
-      <c r="T21" s="405"/>
-      <c r="U21" s="405"/>
-      <c r="V21" s="405"/>
-      <c r="W21" s="405"/>
-      <c r="X21" s="405"/>
-      <c r="Y21" s="405"/>
-      <c r="Z21" s="405"/>
-      <c r="AA21" s="405"/>
-      <c r="AB21" s="405"/>
-      <c r="AC21" s="405"/>
-      <c r="AD21" s="405"/>
-      <c r="AE21" s="406"/>
-      <c r="AF21" s="401"/>
-      <c r="AG21" s="402"/>
-      <c r="AH21" s="402"/>
-      <c r="AI21" s="403"/>
+      <c r="B21" s="433"/>
+      <c r="C21" s="434"/>
+      <c r="D21" s="435"/>
+      <c r="E21" s="436"/>
+      <c r="F21" s="437"/>
+      <c r="G21" s="433"/>
+      <c r="H21" s="438"/>
+      <c r="I21" s="434"/>
+      <c r="J21" s="439"/>
+      <c r="K21" s="440"/>
+      <c r="L21" s="440"/>
+      <c r="M21" s="440"/>
+      <c r="N21" s="440"/>
+      <c r="O21" s="440"/>
+      <c r="P21" s="441"/>
+      <c r="Q21" s="442"/>
+      <c r="R21" s="443"/>
+      <c r="S21" s="443"/>
+      <c r="T21" s="443"/>
+      <c r="U21" s="443"/>
+      <c r="V21" s="443"/>
+      <c r="W21" s="443"/>
+      <c r="X21" s="443"/>
+      <c r="Y21" s="443"/>
+      <c r="Z21" s="443"/>
+      <c r="AA21" s="443"/>
+      <c r="AB21" s="443"/>
+      <c r="AC21" s="443"/>
+      <c r="AD21" s="443"/>
+      <c r="AE21" s="444"/>
+      <c r="AF21" s="439"/>
+      <c r="AG21" s="440"/>
+      <c r="AH21" s="440"/>
+      <c r="AI21" s="441"/>
     </row>
     <row r="22" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="139"/>
-      <c r="B22" s="395"/>
-      <c r="C22" s="396"/>
-      <c r="D22" s="397"/>
-      <c r="E22" s="398"/>
-      <c r="F22" s="399"/>
-      <c r="G22" s="395"/>
-      <c r="H22" s="400"/>
-      <c r="I22" s="396"/>
-      <c r="J22" s="401"/>
-      <c r="K22" s="402"/>
-      <c r="L22" s="402"/>
-      <c r="M22" s="402"/>
-      <c r="N22" s="402"/>
-      <c r="O22" s="402"/>
-      <c r="P22" s="403"/>
-      <c r="Q22" s="404"/>
-      <c r="R22" s="405"/>
-      <c r="S22" s="405"/>
-      <c r="T22" s="405"/>
-      <c r="U22" s="405"/>
-      <c r="V22" s="405"/>
-      <c r="W22" s="405"/>
-      <c r="X22" s="405"/>
-      <c r="Y22" s="405"/>
-      <c r="Z22" s="405"/>
-      <c r="AA22" s="405"/>
-      <c r="AB22" s="405"/>
-      <c r="AC22" s="405"/>
-      <c r="AD22" s="405"/>
-      <c r="AE22" s="406"/>
-      <c r="AF22" s="401"/>
-      <c r="AG22" s="402"/>
-      <c r="AH22" s="402"/>
-      <c r="AI22" s="403"/>
+      <c r="B22" s="433"/>
+      <c r="C22" s="434"/>
+      <c r="D22" s="435"/>
+      <c r="E22" s="436"/>
+      <c r="F22" s="437"/>
+      <c r="G22" s="433"/>
+      <c r="H22" s="438"/>
+      <c r="I22" s="434"/>
+      <c r="J22" s="439"/>
+      <c r="K22" s="440"/>
+      <c r="L22" s="440"/>
+      <c r="M22" s="440"/>
+      <c r="N22" s="440"/>
+      <c r="O22" s="440"/>
+      <c r="P22" s="441"/>
+      <c r="Q22" s="442"/>
+      <c r="R22" s="443"/>
+      <c r="S22" s="443"/>
+      <c r="T22" s="443"/>
+      <c r="U22" s="443"/>
+      <c r="V22" s="443"/>
+      <c r="W22" s="443"/>
+      <c r="X22" s="443"/>
+      <c r="Y22" s="443"/>
+      <c r="Z22" s="443"/>
+      <c r="AA22" s="443"/>
+      <c r="AB22" s="443"/>
+      <c r="AC22" s="443"/>
+      <c r="AD22" s="443"/>
+      <c r="AE22" s="444"/>
+      <c r="AF22" s="439"/>
+      <c r="AG22" s="440"/>
+      <c r="AH22" s="440"/>
+      <c r="AI22" s="441"/>
     </row>
     <row r="23" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="139"/>
-      <c r="B23" s="395"/>
-      <c r="C23" s="396"/>
-      <c r="D23" s="397"/>
-      <c r="E23" s="398"/>
-      <c r="F23" s="399"/>
-      <c r="G23" s="395"/>
-      <c r="H23" s="400"/>
-      <c r="I23" s="396"/>
-      <c r="J23" s="401"/>
-      <c r="K23" s="402"/>
-      <c r="L23" s="402"/>
-      <c r="M23" s="402"/>
-      <c r="N23" s="402"/>
-      <c r="O23" s="402"/>
-      <c r="P23" s="403"/>
-      <c r="Q23" s="404"/>
-      <c r="R23" s="405"/>
-      <c r="S23" s="405"/>
-      <c r="T23" s="405"/>
-      <c r="U23" s="405"/>
-      <c r="V23" s="405"/>
-      <c r="W23" s="405"/>
-      <c r="X23" s="405"/>
-      <c r="Y23" s="405"/>
-      <c r="Z23" s="405"/>
-      <c r="AA23" s="405"/>
-      <c r="AB23" s="405"/>
-      <c r="AC23" s="405"/>
-      <c r="AD23" s="405"/>
-      <c r="AE23" s="406"/>
-      <c r="AF23" s="401"/>
-      <c r="AG23" s="402"/>
-      <c r="AH23" s="402"/>
-      <c r="AI23" s="403"/>
+      <c r="B23" s="433"/>
+      <c r="C23" s="434"/>
+      <c r="D23" s="435"/>
+      <c r="E23" s="436"/>
+      <c r="F23" s="437"/>
+      <c r="G23" s="433"/>
+      <c r="H23" s="438"/>
+      <c r="I23" s="434"/>
+      <c r="J23" s="439"/>
+      <c r="K23" s="440"/>
+      <c r="L23" s="440"/>
+      <c r="M23" s="440"/>
+      <c r="N23" s="440"/>
+      <c r="O23" s="440"/>
+      <c r="P23" s="441"/>
+      <c r="Q23" s="442"/>
+      <c r="R23" s="443"/>
+      <c r="S23" s="443"/>
+      <c r="T23" s="443"/>
+      <c r="U23" s="443"/>
+      <c r="V23" s="443"/>
+      <c r="W23" s="443"/>
+      <c r="X23" s="443"/>
+      <c r="Y23" s="443"/>
+      <c r="Z23" s="443"/>
+      <c r="AA23" s="443"/>
+      <c r="AB23" s="443"/>
+      <c r="AC23" s="443"/>
+      <c r="AD23" s="443"/>
+      <c r="AE23" s="444"/>
+      <c r="AF23" s="439"/>
+      <c r="AG23" s="440"/>
+      <c r="AH23" s="440"/>
+      <c r="AI23" s="441"/>
     </row>
     <row r="24" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="139"/>
-      <c r="B24" s="395"/>
-      <c r="C24" s="396"/>
-      <c r="D24" s="397"/>
-      <c r="E24" s="398"/>
-      <c r="F24" s="399"/>
-      <c r="G24" s="395"/>
-      <c r="H24" s="400"/>
-      <c r="I24" s="396"/>
-      <c r="J24" s="401"/>
-      <c r="K24" s="402"/>
-      <c r="L24" s="402"/>
-      <c r="M24" s="402"/>
-      <c r="N24" s="402"/>
-      <c r="O24" s="402"/>
-      <c r="P24" s="403"/>
-      <c r="Q24" s="404"/>
-      <c r="R24" s="405"/>
-      <c r="S24" s="405"/>
-      <c r="T24" s="405"/>
-      <c r="U24" s="405"/>
-      <c r="V24" s="405"/>
-      <c r="W24" s="405"/>
-      <c r="X24" s="405"/>
-      <c r="Y24" s="405"/>
-      <c r="Z24" s="405"/>
-      <c r="AA24" s="405"/>
-      <c r="AB24" s="405"/>
-      <c r="AC24" s="405"/>
-      <c r="AD24" s="405"/>
-      <c r="AE24" s="406"/>
-      <c r="AF24" s="401"/>
-      <c r="AG24" s="402"/>
-      <c r="AH24" s="402"/>
-      <c r="AI24" s="403"/>
+      <c r="B24" s="433"/>
+      <c r="C24" s="434"/>
+      <c r="D24" s="435"/>
+      <c r="E24" s="436"/>
+      <c r="F24" s="437"/>
+      <c r="G24" s="433"/>
+      <c r="H24" s="438"/>
+      <c r="I24" s="434"/>
+      <c r="J24" s="439"/>
+      <c r="K24" s="440"/>
+      <c r="L24" s="440"/>
+      <c r="M24" s="440"/>
+      <c r="N24" s="440"/>
+      <c r="O24" s="440"/>
+      <c r="P24" s="441"/>
+      <c r="Q24" s="442"/>
+      <c r="R24" s="443"/>
+      <c r="S24" s="443"/>
+      <c r="T24" s="443"/>
+      <c r="U24" s="443"/>
+      <c r="V24" s="443"/>
+      <c r="W24" s="443"/>
+      <c r="X24" s="443"/>
+      <c r="Y24" s="443"/>
+      <c r="Z24" s="443"/>
+      <c r="AA24" s="443"/>
+      <c r="AB24" s="443"/>
+      <c r="AC24" s="443"/>
+      <c r="AD24" s="443"/>
+      <c r="AE24" s="444"/>
+      <c r="AF24" s="439"/>
+      <c r="AG24" s="440"/>
+      <c r="AH24" s="440"/>
+      <c r="AI24" s="441"/>
     </row>
     <row r="25" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="139"/>
-      <c r="B25" s="395"/>
-      <c r="C25" s="396"/>
-      <c r="D25" s="397"/>
-      <c r="E25" s="398"/>
-      <c r="F25" s="399"/>
-      <c r="G25" s="395"/>
-      <c r="H25" s="400"/>
-      <c r="I25" s="396"/>
-      <c r="J25" s="401"/>
-      <c r="K25" s="402"/>
-      <c r="L25" s="402"/>
-      <c r="M25" s="402"/>
-      <c r="N25" s="402"/>
-      <c r="O25" s="402"/>
-      <c r="P25" s="403"/>
-      <c r="Q25" s="404"/>
-      <c r="R25" s="405"/>
-      <c r="S25" s="405"/>
-      <c r="T25" s="405"/>
-      <c r="U25" s="405"/>
-      <c r="V25" s="405"/>
-      <c r="W25" s="405"/>
-      <c r="X25" s="405"/>
-      <c r="Y25" s="405"/>
-      <c r="Z25" s="405"/>
-      <c r="AA25" s="405"/>
-      <c r="AB25" s="405"/>
-      <c r="AC25" s="405"/>
-      <c r="AD25" s="405"/>
-      <c r="AE25" s="406"/>
-      <c r="AF25" s="401"/>
-      <c r="AG25" s="402"/>
-      <c r="AH25" s="402"/>
-      <c r="AI25" s="403"/>
+      <c r="B25" s="433"/>
+      <c r="C25" s="434"/>
+      <c r="D25" s="435"/>
+      <c r="E25" s="436"/>
+      <c r="F25" s="437"/>
+      <c r="G25" s="433"/>
+      <c r="H25" s="438"/>
+      <c r="I25" s="434"/>
+      <c r="J25" s="439"/>
+      <c r="K25" s="440"/>
+      <c r="L25" s="440"/>
+      <c r="M25" s="440"/>
+      <c r="N25" s="440"/>
+      <c r="O25" s="440"/>
+      <c r="P25" s="441"/>
+      <c r="Q25" s="442"/>
+      <c r="R25" s="443"/>
+      <c r="S25" s="443"/>
+      <c r="T25" s="443"/>
+      <c r="U25" s="443"/>
+      <c r="V25" s="443"/>
+      <c r="W25" s="443"/>
+      <c r="X25" s="443"/>
+      <c r="Y25" s="443"/>
+      <c r="Z25" s="443"/>
+      <c r="AA25" s="443"/>
+      <c r="AB25" s="443"/>
+      <c r="AC25" s="443"/>
+      <c r="AD25" s="443"/>
+      <c r="AE25" s="444"/>
+      <c r="AF25" s="439"/>
+      <c r="AG25" s="440"/>
+      <c r="AH25" s="440"/>
+      <c r="AI25" s="441"/>
     </row>
     <row r="26" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="139"/>
-      <c r="B26" s="395"/>
-      <c r="C26" s="396"/>
-      <c r="D26" s="397"/>
-      <c r="E26" s="398"/>
-      <c r="F26" s="399"/>
-      <c r="G26" s="395"/>
-      <c r="H26" s="400"/>
-      <c r="I26" s="396"/>
-      <c r="J26" s="401"/>
-      <c r="K26" s="402"/>
-      <c r="L26" s="402"/>
-      <c r="M26" s="402"/>
-      <c r="N26" s="402"/>
-      <c r="O26" s="402"/>
-      <c r="P26" s="403"/>
-      <c r="Q26" s="404"/>
-      <c r="R26" s="405"/>
-      <c r="S26" s="405"/>
-      <c r="T26" s="405"/>
-      <c r="U26" s="405"/>
-      <c r="V26" s="405"/>
-      <c r="W26" s="405"/>
-      <c r="X26" s="405"/>
-      <c r="Y26" s="405"/>
-      <c r="Z26" s="405"/>
-      <c r="AA26" s="405"/>
-      <c r="AB26" s="405"/>
-      <c r="AC26" s="405"/>
-      <c r="AD26" s="405"/>
-      <c r="AE26" s="406"/>
-      <c r="AF26" s="401"/>
-      <c r="AG26" s="402"/>
-      <c r="AH26" s="402"/>
-      <c r="AI26" s="403"/>
+      <c r="B26" s="433"/>
+      <c r="C26" s="434"/>
+      <c r="D26" s="435"/>
+      <c r="E26" s="436"/>
+      <c r="F26" s="437"/>
+      <c r="G26" s="433"/>
+      <c r="H26" s="438"/>
+      <c r="I26" s="434"/>
+      <c r="J26" s="439"/>
+      <c r="K26" s="440"/>
+      <c r="L26" s="440"/>
+      <c r="M26" s="440"/>
+      <c r="N26" s="440"/>
+      <c r="O26" s="440"/>
+      <c r="P26" s="441"/>
+      <c r="Q26" s="442"/>
+      <c r="R26" s="443"/>
+      <c r="S26" s="443"/>
+      <c r="T26" s="443"/>
+      <c r="U26" s="443"/>
+      <c r="V26" s="443"/>
+      <c r="W26" s="443"/>
+      <c r="X26" s="443"/>
+      <c r="Y26" s="443"/>
+      <c r="Z26" s="443"/>
+      <c r="AA26" s="443"/>
+      <c r="AB26" s="443"/>
+      <c r="AC26" s="443"/>
+      <c r="AD26" s="443"/>
+      <c r="AE26" s="444"/>
+      <c r="AF26" s="439"/>
+      <c r="AG26" s="440"/>
+      <c r="AH26" s="440"/>
+      <c r="AI26" s="441"/>
     </row>
     <row r="27" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="139"/>
-      <c r="B27" s="395"/>
-      <c r="C27" s="396"/>
-      <c r="D27" s="397"/>
-      <c r="E27" s="398"/>
-      <c r="F27" s="399"/>
-      <c r="G27" s="395"/>
-      <c r="H27" s="400"/>
-      <c r="I27" s="396"/>
-      <c r="J27" s="401"/>
-      <c r="K27" s="402"/>
-      <c r="L27" s="402"/>
-      <c r="M27" s="402"/>
-      <c r="N27" s="402"/>
-      <c r="O27" s="402"/>
-      <c r="P27" s="403"/>
-      <c r="Q27" s="404"/>
-      <c r="R27" s="405"/>
-      <c r="S27" s="405"/>
-      <c r="T27" s="405"/>
-      <c r="U27" s="405"/>
-      <c r="V27" s="405"/>
-      <c r="W27" s="405"/>
-      <c r="X27" s="405"/>
-      <c r="Y27" s="405"/>
-      <c r="Z27" s="405"/>
-      <c r="AA27" s="405"/>
-      <c r="AB27" s="405"/>
-      <c r="AC27" s="405"/>
-      <c r="AD27" s="405"/>
-      <c r="AE27" s="406"/>
-      <c r="AF27" s="401"/>
-      <c r="AG27" s="402"/>
-      <c r="AH27" s="402"/>
-      <c r="AI27" s="403"/>
+      <c r="B27" s="433"/>
+      <c r="C27" s="434"/>
+      <c r="D27" s="435"/>
+      <c r="E27" s="436"/>
+      <c r="F27" s="437"/>
+      <c r="G27" s="433"/>
+      <c r="H27" s="438"/>
+      <c r="I27" s="434"/>
+      <c r="J27" s="439"/>
+      <c r="K27" s="440"/>
+      <c r="L27" s="440"/>
+      <c r="M27" s="440"/>
+      <c r="N27" s="440"/>
+      <c r="O27" s="440"/>
+      <c r="P27" s="441"/>
+      <c r="Q27" s="442"/>
+      <c r="R27" s="443"/>
+      <c r="S27" s="443"/>
+      <c r="T27" s="443"/>
+      <c r="U27" s="443"/>
+      <c r="V27" s="443"/>
+      <c r="W27" s="443"/>
+      <c r="X27" s="443"/>
+      <c r="Y27" s="443"/>
+      <c r="Z27" s="443"/>
+      <c r="AA27" s="443"/>
+      <c r="AB27" s="443"/>
+      <c r="AC27" s="443"/>
+      <c r="AD27" s="443"/>
+      <c r="AE27" s="444"/>
+      <c r="AF27" s="439"/>
+      <c r="AG27" s="440"/>
+      <c r="AH27" s="440"/>
+      <c r="AI27" s="441"/>
     </row>
     <row r="28" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="139"/>
-      <c r="B28" s="395"/>
-      <c r="C28" s="396"/>
-      <c r="D28" s="397"/>
-      <c r="E28" s="398"/>
-      <c r="F28" s="399"/>
-      <c r="G28" s="395"/>
-      <c r="H28" s="400"/>
-      <c r="I28" s="396"/>
-      <c r="J28" s="401"/>
-      <c r="K28" s="402"/>
-      <c r="L28" s="402"/>
-      <c r="M28" s="402"/>
-      <c r="N28" s="402"/>
-      <c r="O28" s="402"/>
-      <c r="P28" s="403"/>
-      <c r="Q28" s="404"/>
-      <c r="R28" s="405"/>
-      <c r="S28" s="405"/>
-      <c r="T28" s="405"/>
-      <c r="U28" s="405"/>
-      <c r="V28" s="405"/>
-      <c r="W28" s="405"/>
-      <c r="X28" s="405"/>
-      <c r="Y28" s="405"/>
-      <c r="Z28" s="405"/>
-      <c r="AA28" s="405"/>
-      <c r="AB28" s="405"/>
-      <c r="AC28" s="405"/>
-      <c r="AD28" s="405"/>
-      <c r="AE28" s="406"/>
-      <c r="AF28" s="401"/>
-      <c r="AG28" s="402"/>
-      <c r="AH28" s="402"/>
-      <c r="AI28" s="403"/>
+      <c r="B28" s="433"/>
+      <c r="C28" s="434"/>
+      <c r="D28" s="435"/>
+      <c r="E28" s="436"/>
+      <c r="F28" s="437"/>
+      <c r="G28" s="433"/>
+      <c r="H28" s="438"/>
+      <c r="I28" s="434"/>
+      <c r="J28" s="439"/>
+      <c r="K28" s="440"/>
+      <c r="L28" s="440"/>
+      <c r="M28" s="440"/>
+      <c r="N28" s="440"/>
+      <c r="O28" s="440"/>
+      <c r="P28" s="441"/>
+      <c r="Q28" s="442"/>
+      <c r="R28" s="443"/>
+      <c r="S28" s="443"/>
+      <c r="T28" s="443"/>
+      <c r="U28" s="443"/>
+      <c r="V28" s="443"/>
+      <c r="W28" s="443"/>
+      <c r="X28" s="443"/>
+      <c r="Y28" s="443"/>
+      <c r="Z28" s="443"/>
+      <c r="AA28" s="443"/>
+      <c r="AB28" s="443"/>
+      <c r="AC28" s="443"/>
+      <c r="AD28" s="443"/>
+      <c r="AE28" s="444"/>
+      <c r="AF28" s="439"/>
+      <c r="AG28" s="440"/>
+      <c r="AH28" s="440"/>
+      <c r="AI28" s="441"/>
     </row>
     <row r="29" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="139"/>
-      <c r="B29" s="395"/>
-      <c r="C29" s="396"/>
-      <c r="D29" s="397"/>
-      <c r="E29" s="398"/>
-      <c r="F29" s="399"/>
-      <c r="G29" s="395"/>
-      <c r="H29" s="400"/>
-      <c r="I29" s="396"/>
-      <c r="J29" s="401"/>
-      <c r="K29" s="402"/>
-      <c r="L29" s="402"/>
-      <c r="M29" s="402"/>
-      <c r="N29" s="402"/>
-      <c r="O29" s="402"/>
-      <c r="P29" s="403"/>
-      <c r="Q29" s="404"/>
-      <c r="R29" s="405"/>
-      <c r="S29" s="405"/>
-      <c r="T29" s="405"/>
-      <c r="U29" s="405"/>
-      <c r="V29" s="405"/>
-      <c r="W29" s="405"/>
-      <c r="X29" s="405"/>
-      <c r="Y29" s="405"/>
-      <c r="Z29" s="405"/>
-      <c r="AA29" s="405"/>
-      <c r="AB29" s="405"/>
-      <c r="AC29" s="405"/>
-      <c r="AD29" s="405"/>
-      <c r="AE29" s="406"/>
-      <c r="AF29" s="401"/>
-      <c r="AG29" s="402"/>
-      <c r="AH29" s="402"/>
-      <c r="AI29" s="403"/>
+      <c r="B29" s="433"/>
+      <c r="C29" s="434"/>
+      <c r="D29" s="435"/>
+      <c r="E29" s="436"/>
+      <c r="F29" s="437"/>
+      <c r="G29" s="433"/>
+      <c r="H29" s="438"/>
+      <c r="I29" s="434"/>
+      <c r="J29" s="439"/>
+      <c r="K29" s="440"/>
+      <c r="L29" s="440"/>
+      <c r="M29" s="440"/>
+      <c r="N29" s="440"/>
+      <c r="O29" s="440"/>
+      <c r="P29" s="441"/>
+      <c r="Q29" s="442"/>
+      <c r="R29" s="443"/>
+      <c r="S29" s="443"/>
+      <c r="T29" s="443"/>
+      <c r="U29" s="443"/>
+      <c r="V29" s="443"/>
+      <c r="W29" s="443"/>
+      <c r="X29" s="443"/>
+      <c r="Y29" s="443"/>
+      <c r="Z29" s="443"/>
+      <c r="AA29" s="443"/>
+      <c r="AB29" s="443"/>
+      <c r="AC29" s="443"/>
+      <c r="AD29" s="443"/>
+      <c r="AE29" s="444"/>
+      <c r="AF29" s="439"/>
+      <c r="AG29" s="440"/>
+      <c r="AH29" s="440"/>
+      <c r="AI29" s="441"/>
     </row>
     <row r="30" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="139"/>
-      <c r="B30" s="395"/>
-      <c r="C30" s="396"/>
-      <c r="D30" s="397"/>
-      <c r="E30" s="398"/>
-      <c r="F30" s="399"/>
-      <c r="G30" s="395"/>
-      <c r="H30" s="400"/>
-      <c r="I30" s="396"/>
-      <c r="J30" s="401"/>
-      <c r="K30" s="402"/>
-      <c r="L30" s="402"/>
-      <c r="M30" s="402"/>
-      <c r="N30" s="402"/>
-      <c r="O30" s="402"/>
-      <c r="P30" s="403"/>
-      <c r="Q30" s="404"/>
-      <c r="R30" s="405"/>
-      <c r="S30" s="405"/>
-      <c r="T30" s="405"/>
-      <c r="U30" s="405"/>
-      <c r="V30" s="405"/>
-      <c r="W30" s="405"/>
-      <c r="X30" s="405"/>
-      <c r="Y30" s="405"/>
-      <c r="Z30" s="405"/>
-      <c r="AA30" s="405"/>
-      <c r="AB30" s="405"/>
-      <c r="AC30" s="405"/>
-      <c r="AD30" s="405"/>
-      <c r="AE30" s="406"/>
-      <c r="AF30" s="401"/>
-      <c r="AG30" s="402"/>
-      <c r="AH30" s="402"/>
-      <c r="AI30" s="403"/>
+      <c r="B30" s="433"/>
+      <c r="C30" s="434"/>
+      <c r="D30" s="435"/>
+      <c r="E30" s="436"/>
+      <c r="F30" s="437"/>
+      <c r="G30" s="433"/>
+      <c r="H30" s="438"/>
+      <c r="I30" s="434"/>
+      <c r="J30" s="439"/>
+      <c r="K30" s="440"/>
+      <c r="L30" s="440"/>
+      <c r="M30" s="440"/>
+      <c r="N30" s="440"/>
+      <c r="O30" s="440"/>
+      <c r="P30" s="441"/>
+      <c r="Q30" s="442"/>
+      <c r="R30" s="443"/>
+      <c r="S30" s="443"/>
+      <c r="T30" s="443"/>
+      <c r="U30" s="443"/>
+      <c r="V30" s="443"/>
+      <c r="W30" s="443"/>
+      <c r="X30" s="443"/>
+      <c r="Y30" s="443"/>
+      <c r="Z30" s="443"/>
+      <c r="AA30" s="443"/>
+      <c r="AB30" s="443"/>
+      <c r="AC30" s="443"/>
+      <c r="AD30" s="443"/>
+      <c r="AE30" s="444"/>
+      <c r="AF30" s="439"/>
+      <c r="AG30" s="440"/>
+      <c r="AH30" s="440"/>
+      <c r="AI30" s="441"/>
     </row>
     <row r="31" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="139"/>
-      <c r="B31" s="395"/>
-      <c r="C31" s="396"/>
-      <c r="D31" s="397"/>
-      <c r="E31" s="398"/>
-      <c r="F31" s="399"/>
-      <c r="G31" s="395"/>
-      <c r="H31" s="400"/>
-      <c r="I31" s="396"/>
-      <c r="J31" s="401"/>
-      <c r="K31" s="402"/>
-      <c r="L31" s="402"/>
-      <c r="M31" s="402"/>
-      <c r="N31" s="402"/>
-      <c r="O31" s="402"/>
-      <c r="P31" s="403"/>
-      <c r="Q31" s="404"/>
-      <c r="R31" s="405"/>
-      <c r="S31" s="405"/>
-      <c r="T31" s="405"/>
-      <c r="U31" s="405"/>
-      <c r="V31" s="405"/>
-      <c r="W31" s="405"/>
-      <c r="X31" s="405"/>
-      <c r="Y31" s="405"/>
-      <c r="Z31" s="405"/>
-      <c r="AA31" s="405"/>
-      <c r="AB31" s="405"/>
-      <c r="AC31" s="405"/>
-      <c r="AD31" s="405"/>
-      <c r="AE31" s="406"/>
-      <c r="AF31" s="401"/>
-      <c r="AG31" s="402"/>
-      <c r="AH31" s="402"/>
-      <c r="AI31" s="403"/>
+      <c r="B31" s="433"/>
+      <c r="C31" s="434"/>
+      <c r="D31" s="435"/>
+      <c r="E31" s="436"/>
+      <c r="F31" s="437"/>
+      <c r="G31" s="433"/>
+      <c r="H31" s="438"/>
+      <c r="I31" s="434"/>
+      <c r="J31" s="439"/>
+      <c r="K31" s="440"/>
+      <c r="L31" s="440"/>
+      <c r="M31" s="440"/>
+      <c r="N31" s="440"/>
+      <c r="O31" s="440"/>
+      <c r="P31" s="441"/>
+      <c r="Q31" s="442"/>
+      <c r="R31" s="443"/>
+      <c r="S31" s="443"/>
+      <c r="T31" s="443"/>
+      <c r="U31" s="443"/>
+      <c r="V31" s="443"/>
+      <c r="W31" s="443"/>
+      <c r="X31" s="443"/>
+      <c r="Y31" s="443"/>
+      <c r="Z31" s="443"/>
+      <c r="AA31" s="443"/>
+      <c r="AB31" s="443"/>
+      <c r="AC31" s="443"/>
+      <c r="AD31" s="443"/>
+      <c r="AE31" s="444"/>
+      <c r="AF31" s="439"/>
+      <c r="AG31" s="440"/>
+      <c r="AH31" s="440"/>
+      <c r="AI31" s="441"/>
     </row>
     <row r="32" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="139"/>
-      <c r="B32" s="395"/>
-      <c r="C32" s="396"/>
-      <c r="D32" s="397"/>
-      <c r="E32" s="398"/>
-      <c r="F32" s="399"/>
-      <c r="G32" s="395"/>
-      <c r="H32" s="400"/>
-      <c r="I32" s="396"/>
-      <c r="J32" s="401"/>
-      <c r="K32" s="407"/>
-      <c r="L32" s="402"/>
-      <c r="M32" s="402"/>
-      <c r="N32" s="402"/>
-      <c r="O32" s="402"/>
-      <c r="P32" s="403"/>
-      <c r="Q32" s="404"/>
-      <c r="R32" s="405"/>
-      <c r="S32" s="405"/>
-      <c r="T32" s="405"/>
-      <c r="U32" s="405"/>
-      <c r="V32" s="405"/>
-      <c r="W32" s="405"/>
-      <c r="X32" s="405"/>
-      <c r="Y32" s="405"/>
-      <c r="Z32" s="405"/>
-      <c r="AA32" s="405"/>
-      <c r="AB32" s="405"/>
-      <c r="AC32" s="405"/>
-      <c r="AD32" s="405"/>
-      <c r="AE32" s="406"/>
-      <c r="AF32" s="401"/>
-      <c r="AG32" s="402"/>
-      <c r="AH32" s="402"/>
-      <c r="AI32" s="403"/>
+      <c r="B32" s="433"/>
+      <c r="C32" s="434"/>
+      <c r="D32" s="435"/>
+      <c r="E32" s="436"/>
+      <c r="F32" s="437"/>
+      <c r="G32" s="433"/>
+      <c r="H32" s="438"/>
+      <c r="I32" s="434"/>
+      <c r="J32" s="439"/>
+      <c r="K32" s="460"/>
+      <c r="L32" s="440"/>
+      <c r="M32" s="440"/>
+      <c r="N32" s="440"/>
+      <c r="O32" s="440"/>
+      <c r="P32" s="441"/>
+      <c r="Q32" s="442"/>
+      <c r="R32" s="443"/>
+      <c r="S32" s="443"/>
+      <c r="T32" s="443"/>
+      <c r="U32" s="443"/>
+      <c r="V32" s="443"/>
+      <c r="W32" s="443"/>
+      <c r="X32" s="443"/>
+      <c r="Y32" s="443"/>
+      <c r="Z32" s="443"/>
+      <c r="AA32" s="443"/>
+      <c r="AB32" s="443"/>
+      <c r="AC32" s="443"/>
+      <c r="AD32" s="443"/>
+      <c r="AE32" s="444"/>
+      <c r="AF32" s="439"/>
+      <c r="AG32" s="440"/>
+      <c r="AH32" s="440"/>
+      <c r="AI32" s="441"/>
     </row>
     <row r="33" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="139"/>
-      <c r="B33" s="395"/>
-      <c r="C33" s="396"/>
-      <c r="D33" s="397"/>
-      <c r="E33" s="398"/>
-      <c r="F33" s="399"/>
-      <c r="G33" s="395"/>
-      <c r="H33" s="400"/>
-      <c r="I33" s="396"/>
-      <c r="J33" s="401"/>
-      <c r="K33" s="402"/>
-      <c r="L33" s="402"/>
-      <c r="M33" s="402"/>
-      <c r="N33" s="402"/>
-      <c r="O33" s="402"/>
-      <c r="P33" s="403"/>
-      <c r="Q33" s="404"/>
-      <c r="R33" s="405"/>
-      <c r="S33" s="405"/>
-      <c r="T33" s="405"/>
-      <c r="U33" s="405"/>
-      <c r="V33" s="405"/>
-      <c r="W33" s="405"/>
-      <c r="X33" s="405"/>
-      <c r="Y33" s="405"/>
-      <c r="Z33" s="405"/>
-      <c r="AA33" s="405"/>
-      <c r="AB33" s="405"/>
-      <c r="AC33" s="405"/>
-      <c r="AD33" s="405"/>
-      <c r="AE33" s="406"/>
-      <c r="AF33" s="401"/>
-      <c r="AG33" s="402"/>
-      <c r="AH33" s="402"/>
-      <c r="AI33" s="403"/>
+      <c r="B33" s="433"/>
+      <c r="C33" s="434"/>
+      <c r="D33" s="435"/>
+      <c r="E33" s="436"/>
+      <c r="F33" s="437"/>
+      <c r="G33" s="433"/>
+      <c r="H33" s="438"/>
+      <c r="I33" s="434"/>
+      <c r="J33" s="439"/>
+      <c r="K33" s="440"/>
+      <c r="L33" s="440"/>
+      <c r="M33" s="440"/>
+      <c r="N33" s="440"/>
+      <c r="O33" s="440"/>
+      <c r="P33" s="441"/>
+      <c r="Q33" s="442"/>
+      <c r="R33" s="443"/>
+      <c r="S33" s="443"/>
+      <c r="T33" s="443"/>
+      <c r="U33" s="443"/>
+      <c r="V33" s="443"/>
+      <c r="W33" s="443"/>
+      <c r="X33" s="443"/>
+      <c r="Y33" s="443"/>
+      <c r="Z33" s="443"/>
+      <c r="AA33" s="443"/>
+      <c r="AB33" s="443"/>
+      <c r="AC33" s="443"/>
+      <c r="AD33" s="443"/>
+      <c r="AE33" s="444"/>
+      <c r="AF33" s="439"/>
+      <c r="AG33" s="440"/>
+      <c r="AH33" s="440"/>
+      <c r="AI33" s="441"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -26457,162 +26629,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -26769,163 +26785,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="429" t="s">
+      <c r="A1" s="401" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="430"/>
-      <c r="C1" s="430"/>
-      <c r="D1" s="431"/>
-      <c r="E1" s="460" t="str">
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
+      <c r="D1" s="403"/>
+      <c r="E1" s="432" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="433"/>
-      <c r="G1" s="433"/>
-      <c r="H1" s="433"/>
-      <c r="I1" s="433"/>
-      <c r="J1" s="433"/>
-      <c r="K1" s="433"/>
-      <c r="L1" s="433"/>
-      <c r="M1" s="433"/>
-      <c r="N1" s="434"/>
-      <c r="O1" s="439" t="s">
+      <c r="F1" s="405"/>
+      <c r="G1" s="405"/>
+      <c r="H1" s="405"/>
+      <c r="I1" s="405"/>
+      <c r="J1" s="405"/>
+      <c r="K1" s="405"/>
+      <c r="L1" s="405"/>
+      <c r="M1" s="405"/>
+      <c r="N1" s="406"/>
+      <c r="O1" s="411" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="440"/>
-      <c r="Q1" s="440"/>
-      <c r="R1" s="441"/>
-      <c r="S1" s="461" t="str">
+      <c r="P1" s="412"/>
+      <c r="Q1" s="412"/>
+      <c r="R1" s="413"/>
+      <c r="S1" s="466" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="449"/>
-      <c r="U1" s="449"/>
-      <c r="V1" s="449"/>
-      <c r="W1" s="449"/>
-      <c r="X1" s="449"/>
-      <c r="Y1" s="449"/>
-      <c r="Z1" s="450"/>
-      <c r="AA1" s="462" t="s">
+      <c r="T1" s="421"/>
+      <c r="U1" s="421"/>
+      <c r="V1" s="421"/>
+      <c r="W1" s="421"/>
+      <c r="X1" s="421"/>
+      <c r="Y1" s="421"/>
+      <c r="Z1" s="422"/>
+      <c r="AA1" s="464" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="463"/>
-      <c r="AC1" s="457" t="str">
+      <c r="AB1" s="465"/>
+      <c r="AC1" s="429" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="458"/>
-      <c r="AE1" s="458"/>
-      <c r="AF1" s="459"/>
-      <c r="AG1" s="464">
+      <c r="AD1" s="430"/>
+      <c r="AE1" s="430"/>
+      <c r="AF1" s="431"/>
+      <c r="AG1" s="461">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="465"/>
-      <c r="AI1" s="466"/>
+      <c r="AH1" s="462"/>
+      <c r="AI1" s="463"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="141"/>
     </row>
     <row r="2" spans="1:53" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="429" t="s">
+      <c r="A2" s="401" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="430"/>
-      <c r="C2" s="430"/>
-      <c r="D2" s="431"/>
-      <c r="E2" s="460" t="str">
+      <c r="B2" s="402"/>
+      <c r="C2" s="402"/>
+      <c r="D2" s="403"/>
+      <c r="E2" s="432" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="433"/>
-      <c r="G2" s="433"/>
-      <c r="H2" s="433"/>
-      <c r="I2" s="433"/>
-      <c r="J2" s="433"/>
-      <c r="K2" s="433"/>
-      <c r="L2" s="433"/>
-      <c r="M2" s="433"/>
-      <c r="N2" s="434"/>
-      <c r="O2" s="442"/>
-      <c r="P2" s="443"/>
-      <c r="Q2" s="443"/>
-      <c r="R2" s="444"/>
-      <c r="S2" s="451"/>
-      <c r="T2" s="452"/>
-      <c r="U2" s="452"/>
-      <c r="V2" s="452"/>
-      <c r="W2" s="452"/>
-      <c r="X2" s="452"/>
-      <c r="Y2" s="452"/>
-      <c r="Z2" s="453"/>
-      <c r="AA2" s="462" t="s">
+      <c r="F2" s="405"/>
+      <c r="G2" s="405"/>
+      <c r="H2" s="405"/>
+      <c r="I2" s="405"/>
+      <c r="J2" s="405"/>
+      <c r="K2" s="405"/>
+      <c r="L2" s="405"/>
+      <c r="M2" s="405"/>
+      <c r="N2" s="406"/>
+      <c r="O2" s="414"/>
+      <c r="P2" s="415"/>
+      <c r="Q2" s="415"/>
+      <c r="R2" s="416"/>
+      <c r="S2" s="423"/>
+      <c r="T2" s="424"/>
+      <c r="U2" s="424"/>
+      <c r="V2" s="424"/>
+      <c r="W2" s="424"/>
+      <c r="X2" s="424"/>
+      <c r="Y2" s="424"/>
+      <c r="Z2" s="425"/>
+      <c r="AA2" s="464" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="463"/>
-      <c r="AC2" s="457" t="str">
+      <c r="AB2" s="465"/>
+      <c r="AC2" s="429" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="458"/>
-      <c r="AE2" s="458"/>
-      <c r="AF2" s="459"/>
-      <c r="AG2" s="464" t="str">
+      <c r="AD2" s="430"/>
+      <c r="AE2" s="430"/>
+      <c r="AF2" s="431"/>
+      <c r="AG2" s="461" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="465"/>
-      <c r="AI2" s="466"/>
+      <c r="AH2" s="462"/>
+      <c r="AI2" s="463"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
     </row>
     <row r="3" spans="1:53" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="429" t="s">
+      <c r="A3" s="401" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="430"/>
-      <c r="C3" s="430"/>
-      <c r="D3" s="431"/>
-      <c r="E3" s="460" t="str">
+      <c r="B3" s="402"/>
+      <c r="C3" s="402"/>
+      <c r="D3" s="403"/>
+      <c r="E3" s="432" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="433"/>
-      <c r="G3" s="433"/>
-      <c r="H3" s="433"/>
-      <c r="I3" s="433"/>
-      <c r="J3" s="433"/>
-      <c r="K3" s="433"/>
-      <c r="L3" s="433"/>
-      <c r="M3" s="433"/>
-      <c r="N3" s="434"/>
-      <c r="O3" s="445"/>
-      <c r="P3" s="446"/>
-      <c r="Q3" s="446"/>
-      <c r="R3" s="447"/>
-      <c r="S3" s="454"/>
-      <c r="T3" s="455"/>
-      <c r="U3" s="455"/>
-      <c r="V3" s="455"/>
-      <c r="W3" s="455"/>
-      <c r="X3" s="455"/>
-      <c r="Y3" s="455"/>
-      <c r="Z3" s="456"/>
-      <c r="AA3" s="462"/>
-      <c r="AB3" s="463"/>
-      <c r="AC3" s="457" t="str">
+      <c r="F3" s="405"/>
+      <c r="G3" s="405"/>
+      <c r="H3" s="405"/>
+      <c r="I3" s="405"/>
+      <c r="J3" s="405"/>
+      <c r="K3" s="405"/>
+      <c r="L3" s="405"/>
+      <c r="M3" s="405"/>
+      <c r="N3" s="406"/>
+      <c r="O3" s="417"/>
+      <c r="P3" s="418"/>
+      <c r="Q3" s="418"/>
+      <c r="R3" s="419"/>
+      <c r="S3" s="426"/>
+      <c r="T3" s="427"/>
+      <c r="U3" s="427"/>
+      <c r="V3" s="427"/>
+      <c r="W3" s="427"/>
+      <c r="X3" s="427"/>
+      <c r="Y3" s="427"/>
+      <c r="Z3" s="428"/>
+      <c r="AA3" s="464"/>
+      <c r="AB3" s="465"/>
+      <c r="AC3" s="429" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="458"/>
-      <c r="AE3" s="458"/>
-      <c r="AF3" s="459"/>
-      <c r="AG3" s="464" t="str">
+      <c r="AD3" s="430"/>
+      <c r="AE3" s="430"/>
+      <c r="AF3" s="431"/>
+      <c r="AG3" s="461" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="465"/>
-      <c r="AI3" s="466"/>
+      <c r="AH3" s="462"/>
+      <c r="AI3" s="463"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -29975,14 +29991,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -29992,6 +30000,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -30019,53 +30035,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="470" t="s">
+      <c r="A1" s="479" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="471"/>
-      <c r="C1" s="471"/>
-      <c r="D1" s="472"/>
-      <c r="E1" s="473" t="str">
+      <c r="B1" s="480"/>
+      <c r="C1" s="480"/>
+      <c r="D1" s="481"/>
+      <c r="E1" s="482" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="474"/>
-      <c r="G1" s="474"/>
-      <c r="H1" s="474"/>
-      <c r="I1" s="474"/>
-      <c r="J1" s="474"/>
-      <c r="K1" s="474"/>
-      <c r="L1" s="474"/>
-      <c r="M1" s="474"/>
-      <c r="N1" s="475"/>
-      <c r="O1" s="479" t="s">
+      <c r="F1" s="483"/>
+      <c r="G1" s="483"/>
+      <c r="H1" s="483"/>
+      <c r="I1" s="483"/>
+      <c r="J1" s="483"/>
+      <c r="K1" s="483"/>
+      <c r="L1" s="483"/>
+      <c r="M1" s="483"/>
+      <c r="N1" s="484"/>
+      <c r="O1" s="488" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="480"/>
-      <c r="Q1" s="480"/>
-      <c r="R1" s="481"/>
-      <c r="S1" s="488" t="str">
+      <c r="P1" s="489"/>
+      <c r="Q1" s="489"/>
+      <c r="R1" s="490"/>
+      <c r="S1" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="489"/>
-      <c r="U1" s="489"/>
-      <c r="V1" s="489"/>
-      <c r="W1" s="489"/>
-      <c r="X1" s="489"/>
-      <c r="Y1" s="489"/>
-      <c r="Z1" s="490"/>
-      <c r="AA1" s="470" t="s">
+      <c r="T1" s="498"/>
+      <c r="U1" s="498"/>
+      <c r="V1" s="498"/>
+      <c r="W1" s="498"/>
+      <c r="X1" s="498"/>
+      <c r="Y1" s="498"/>
+      <c r="Z1" s="499"/>
+      <c r="AA1" s="479" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="472"/>
-      <c r="AC1" s="476" t="str">
+      <c r="AB1" s="481"/>
+      <c r="AC1" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="477"/>
-      <c r="AE1" s="477"/>
-      <c r="AF1" s="478"/>
+      <c r="AD1" s="486"/>
+      <c r="AE1" s="486"/>
+      <c r="AF1" s="487"/>
       <c r="AG1" s="467">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
@@ -30078,48 +30094,48 @@
       <c r="AP1" s="18"/>
     </row>
     <row r="2" spans="1:42" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="470" t="s">
+      <c r="A2" s="479" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="471"/>
-      <c r="C2" s="471"/>
-      <c r="D2" s="472"/>
-      <c r="E2" s="473" t="str">
+      <c r="B2" s="480"/>
+      <c r="C2" s="480"/>
+      <c r="D2" s="481"/>
+      <c r="E2" s="482" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="474"/>
-      <c r="G2" s="474"/>
-      <c r="H2" s="474"/>
-      <c r="I2" s="474"/>
-      <c r="J2" s="474"/>
-      <c r="K2" s="474"/>
-      <c r="L2" s="474"/>
-      <c r="M2" s="474"/>
-      <c r="N2" s="475"/>
-      <c r="O2" s="482"/>
-      <c r="P2" s="483"/>
-      <c r="Q2" s="483"/>
-      <c r="R2" s="484"/>
-      <c r="S2" s="491"/>
-      <c r="T2" s="492"/>
-      <c r="U2" s="492"/>
-      <c r="V2" s="492"/>
-      <c r="W2" s="492"/>
-      <c r="X2" s="492"/>
-      <c r="Y2" s="492"/>
-      <c r="Z2" s="493"/>
-      <c r="AA2" s="470" t="s">
+      <c r="F2" s="483"/>
+      <c r="G2" s="483"/>
+      <c r="H2" s="483"/>
+      <c r="I2" s="483"/>
+      <c r="J2" s="483"/>
+      <c r="K2" s="483"/>
+      <c r="L2" s="483"/>
+      <c r="M2" s="483"/>
+      <c r="N2" s="484"/>
+      <c r="O2" s="491"/>
+      <c r="P2" s="492"/>
+      <c r="Q2" s="492"/>
+      <c r="R2" s="493"/>
+      <c r="S2" s="500"/>
+      <c r="T2" s="501"/>
+      <c r="U2" s="501"/>
+      <c r="V2" s="501"/>
+      <c r="W2" s="501"/>
+      <c r="X2" s="501"/>
+      <c r="Y2" s="501"/>
+      <c r="Z2" s="502"/>
+      <c r="AA2" s="479" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="472"/>
-      <c r="AC2" s="476" t="str">
+      <c r="AB2" s="481"/>
+      <c r="AC2" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="477"/>
-      <c r="AE2" s="477"/>
-      <c r="AF2" s="478"/>
+      <c r="AD2" s="486"/>
+      <c r="AE2" s="486"/>
+      <c r="AF2" s="487"/>
       <c r="AG2" s="467" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -30132,46 +30148,46 @@
       <c r="AP2" s="18"/>
     </row>
     <row r="3" spans="1:42" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="470" t="s">
+      <c r="A3" s="479" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="471"/>
-      <c r="C3" s="471"/>
-      <c r="D3" s="472"/>
-      <c r="E3" s="473" t="str">
+      <c r="B3" s="480"/>
+      <c r="C3" s="480"/>
+      <c r="D3" s="481"/>
+      <c r="E3" s="482" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="474"/>
-      <c r="G3" s="474"/>
-      <c r="H3" s="474"/>
-      <c r="I3" s="474"/>
-      <c r="J3" s="474"/>
-      <c r="K3" s="474"/>
-      <c r="L3" s="474"/>
-      <c r="M3" s="474"/>
-      <c r="N3" s="475"/>
-      <c r="O3" s="485"/>
-      <c r="P3" s="486"/>
-      <c r="Q3" s="486"/>
-      <c r="R3" s="487"/>
-      <c r="S3" s="494"/>
-      <c r="T3" s="495"/>
-      <c r="U3" s="495"/>
-      <c r="V3" s="495"/>
-      <c r="W3" s="495"/>
-      <c r="X3" s="495"/>
-      <c r="Y3" s="495"/>
-      <c r="Z3" s="496"/>
-      <c r="AA3" s="470"/>
-      <c r="AB3" s="472"/>
-      <c r="AC3" s="476" t="str">
+      <c r="F3" s="483"/>
+      <c r="G3" s="483"/>
+      <c r="H3" s="483"/>
+      <c r="I3" s="483"/>
+      <c r="J3" s="483"/>
+      <c r="K3" s="483"/>
+      <c r="L3" s="483"/>
+      <c r="M3" s="483"/>
+      <c r="N3" s="484"/>
+      <c r="O3" s="494"/>
+      <c r="P3" s="495"/>
+      <c r="Q3" s="495"/>
+      <c r="R3" s="496"/>
+      <c r="S3" s="503"/>
+      <c r="T3" s="504"/>
+      <c r="U3" s="504"/>
+      <c r="V3" s="504"/>
+      <c r="W3" s="504"/>
+      <c r="X3" s="504"/>
+      <c r="Y3" s="504"/>
+      <c r="Z3" s="505"/>
+      <c r="AA3" s="479"/>
+      <c r="AB3" s="481"/>
+      <c r="AC3" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="477"/>
-      <c r="AE3" s="477"/>
-      <c r="AF3" s="478"/>
+      <c r="AD3" s="486"/>
+      <c r="AE3" s="486"/>
+      <c r="AF3" s="487"/>
       <c r="AG3" s="467" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -30228,81 +30244,76 @@
       <c r="C14" s="138"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="D15" s="497" t="s">
+      <c r="D15" s="470" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="498"/>
-      <c r="F15" s="498"/>
-      <c r="G15" s="498"/>
-      <c r="H15" s="498"/>
-      <c r="I15" s="498"/>
-      <c r="J15" s="499"/>
-      <c r="K15" s="497" t="s">
+      <c r="E15" s="471"/>
+      <c r="F15" s="471"/>
+      <c r="G15" s="471"/>
+      <c r="H15" s="471"/>
+      <c r="I15" s="471"/>
+      <c r="J15" s="472"/>
+      <c r="K15" s="470" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="498"/>
-      <c r="M15" s="498"/>
-      <c r="N15" s="498"/>
-      <c r="O15" s="498"/>
-      <c r="P15" s="498"/>
-      <c r="Q15" s="498"/>
-      <c r="R15" s="498"/>
-      <c r="S15" s="498"/>
-      <c r="T15" s="498"/>
-      <c r="U15" s="498"/>
-      <c r="V15" s="498"/>
-      <c r="W15" s="498"/>
-      <c r="X15" s="498"/>
-      <c r="Y15" s="498"/>
-      <c r="Z15" s="498"/>
-      <c r="AA15" s="498"/>
-      <c r="AB15" s="498"/>
-      <c r="AC15" s="498"/>
-      <c r="AD15" s="499"/>
+      <c r="L15" s="471"/>
+      <c r="M15" s="471"/>
+      <c r="N15" s="471"/>
+      <c r="O15" s="471"/>
+      <c r="P15" s="471"/>
+      <c r="Q15" s="471"/>
+      <c r="R15" s="471"/>
+      <c r="S15" s="471"/>
+      <c r="T15" s="471"/>
+      <c r="U15" s="471"/>
+      <c r="V15" s="471"/>
+      <c r="W15" s="471"/>
+      <c r="X15" s="471"/>
+      <c r="Y15" s="471"/>
+      <c r="Z15" s="471"/>
+      <c r="AA15" s="471"/>
+      <c r="AB15" s="471"/>
+      <c r="AC15" s="471"/>
+      <c r="AD15" s="472"/>
     </row>
     <row r="16" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="503" t="s">
+      <c r="D16" s="476" t="s">
         <v>198</v>
       </c>
-      <c r="E16" s="504"/>
-      <c r="F16" s="504"/>
-      <c r="G16" s="504"/>
-      <c r="H16" s="504"/>
-      <c r="I16" s="504"/>
-      <c r="J16" s="505"/>
-      <c r="K16" s="500" t="s">
+      <c r="E16" s="477"/>
+      <c r="F16" s="477"/>
+      <c r="G16" s="477"/>
+      <c r="H16" s="477"/>
+      <c r="I16" s="477"/>
+      <c r="J16" s="478"/>
+      <c r="K16" s="473" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="501"/>
-      <c r="M16" s="501"/>
-      <c r="N16" s="501"/>
-      <c r="O16" s="501"/>
-      <c r="P16" s="501"/>
-      <c r="Q16" s="501"/>
-      <c r="R16" s="501"/>
-      <c r="S16" s="501"/>
-      <c r="T16" s="501"/>
-      <c r="U16" s="501"/>
-      <c r="V16" s="501"/>
-      <c r="W16" s="501"/>
-      <c r="X16" s="501"/>
-      <c r="Y16" s="501"/>
-      <c r="Z16" s="501"/>
-      <c r="AA16" s="501"/>
-      <c r="AB16" s="501"/>
-      <c r="AC16" s="501"/>
-      <c r="AD16" s="502"/>
+      <c r="L16" s="474"/>
+      <c r="M16" s="474"/>
+      <c r="N16" s="474"/>
+      <c r="O16" s="474"/>
+      <c r="P16" s="474"/>
+      <c r="Q16" s="474"/>
+      <c r="R16" s="474"/>
+      <c r="S16" s="474"/>
+      <c r="T16" s="474"/>
+      <c r="U16" s="474"/>
+      <c r="V16" s="474"/>
+      <c r="W16" s="474"/>
+      <c r="X16" s="474"/>
+      <c r="Y16" s="474"/>
+      <c r="Z16" s="474"/>
+      <c r="AA16" s="474"/>
+      <c r="AB16" s="474"/>
+      <c r="AC16" s="474"/>
+      <c r="AD16" s="475"/>
     </row>
     <row r="21" spans="3:3" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C21" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="K15:AD15"/>
-    <mergeCell ref="K16:AD16"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D16:J16"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
@@ -30319,6 +30330,11 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="K15:AD15"/>
+    <mergeCell ref="K16:AD16"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -30348,165 +30364,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="470" t="s">
+      <c r="A1" s="479" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="471"/>
-      <c r="C1" s="471"/>
-      <c r="D1" s="472"/>
-      <c r="E1" s="473" t="str">
+      <c r="B1" s="480"/>
+      <c r="C1" s="480"/>
+      <c r="D1" s="481"/>
+      <c r="E1" s="482" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="474"/>
-      <c r="G1" s="474"/>
-      <c r="H1" s="474"/>
-      <c r="I1" s="474"/>
-      <c r="J1" s="474"/>
-      <c r="K1" s="474"/>
-      <c r="L1" s="474"/>
-      <c r="M1" s="474"/>
-      <c r="N1" s="475"/>
-      <c r="O1" s="479" t="s">
+      <c r="F1" s="483"/>
+      <c r="G1" s="483"/>
+      <c r="H1" s="483"/>
+      <c r="I1" s="483"/>
+      <c r="J1" s="483"/>
+      <c r="K1" s="483"/>
+      <c r="L1" s="483"/>
+      <c r="M1" s="483"/>
+      <c r="N1" s="484"/>
+      <c r="O1" s="488" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="480"/>
-      <c r="Q1" s="480"/>
-      <c r="R1" s="481"/>
-      <c r="S1" s="488" t="str">
+      <c r="P1" s="489"/>
+      <c r="Q1" s="489"/>
+      <c r="R1" s="490"/>
+      <c r="S1" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="489"/>
-      <c r="U1" s="489"/>
-      <c r="V1" s="489"/>
-      <c r="W1" s="489"/>
-      <c r="X1" s="489"/>
-      <c r="Y1" s="489"/>
-      <c r="Z1" s="490"/>
-      <c r="AA1" s="470" t="s">
+      <c r="T1" s="498"/>
+      <c r="U1" s="498"/>
+      <c r="V1" s="498"/>
+      <c r="W1" s="498"/>
+      <c r="X1" s="498"/>
+      <c r="Y1" s="498"/>
+      <c r="Z1" s="499"/>
+      <c r="AA1" s="479" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="472"/>
-      <c r="AC1" s="476" t="str">
+      <c r="AB1" s="481"/>
+      <c r="AC1" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="477"/>
-      <c r="AE1" s="477"/>
-      <c r="AF1" s="478"/>
-      <c r="AG1" s="531">
+      <c r="AD1" s="486"/>
+      <c r="AE1" s="486"/>
+      <c r="AF1" s="487"/>
+      <c r="AG1" s="509">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="532"/>
-      <c r="AI1" s="533"/>
+      <c r="AH1" s="510"/>
+      <c r="AI1" s="511"/>
       <c r="AJ1" s="49"/>
       <c r="AN1" s="47"/>
       <c r="AO1" s="47"/>
       <c r="AP1" s="47"/>
     </row>
     <row r="2" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="470" t="s">
+      <c r="A2" s="479" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="471"/>
-      <c r="C2" s="471"/>
-      <c r="D2" s="472"/>
-      <c r="E2" s="473" t="str">
+      <c r="B2" s="480"/>
+      <c r="C2" s="480"/>
+      <c r="D2" s="481"/>
+      <c r="E2" s="482" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="474"/>
-      <c r="G2" s="474"/>
-      <c r="H2" s="474"/>
-      <c r="I2" s="474"/>
-      <c r="J2" s="474"/>
-      <c r="K2" s="474"/>
-      <c r="L2" s="474"/>
-      <c r="M2" s="474"/>
-      <c r="N2" s="475"/>
-      <c r="O2" s="482"/>
-      <c r="P2" s="483"/>
-      <c r="Q2" s="483"/>
-      <c r="R2" s="484"/>
-      <c r="S2" s="491"/>
-      <c r="T2" s="492"/>
-      <c r="U2" s="492"/>
-      <c r="V2" s="492"/>
-      <c r="W2" s="492"/>
-      <c r="X2" s="492"/>
-      <c r="Y2" s="492"/>
-      <c r="Z2" s="493"/>
-      <c r="AA2" s="470" t="s">
+      <c r="F2" s="483"/>
+      <c r="G2" s="483"/>
+      <c r="H2" s="483"/>
+      <c r="I2" s="483"/>
+      <c r="J2" s="483"/>
+      <c r="K2" s="483"/>
+      <c r="L2" s="483"/>
+      <c r="M2" s="483"/>
+      <c r="N2" s="484"/>
+      <c r="O2" s="491"/>
+      <c r="P2" s="492"/>
+      <c r="Q2" s="492"/>
+      <c r="R2" s="493"/>
+      <c r="S2" s="500"/>
+      <c r="T2" s="501"/>
+      <c r="U2" s="501"/>
+      <c r="V2" s="501"/>
+      <c r="W2" s="501"/>
+      <c r="X2" s="501"/>
+      <c r="Y2" s="501"/>
+      <c r="Z2" s="502"/>
+      <c r="AA2" s="479" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="472"/>
-      <c r="AC2" s="476" t="str">
+      <c r="AB2" s="481"/>
+      <c r="AC2" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="477"/>
-      <c r="AE2" s="477"/>
-      <c r="AF2" s="478"/>
-      <c r="AG2" s="531" t="str">
+      <c r="AD2" s="486"/>
+      <c r="AE2" s="486"/>
+      <c r="AF2" s="487"/>
+      <c r="AG2" s="509" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="532"/>
-      <c r="AI2" s="533"/>
+      <c r="AH2" s="510"/>
+      <c r="AI2" s="511"/>
       <c r="AJ2" s="49"/>
       <c r="AN2" s="47"/>
       <c r="AO2" s="47"/>
       <c r="AP2" s="47"/>
     </row>
     <row r="3" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="470" t="s">
+      <c r="A3" s="479" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="471"/>
-      <c r="C3" s="471"/>
-      <c r="D3" s="472"/>
-      <c r="E3" s="473" t="str">
+      <c r="B3" s="480"/>
+      <c r="C3" s="480"/>
+      <c r="D3" s="481"/>
+      <c r="E3" s="482" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="474"/>
-      <c r="G3" s="474"/>
-      <c r="H3" s="474"/>
-      <c r="I3" s="474"/>
-      <c r="J3" s="474"/>
-      <c r="K3" s="474"/>
-      <c r="L3" s="474"/>
-      <c r="M3" s="474"/>
-      <c r="N3" s="475"/>
-      <c r="O3" s="485"/>
-      <c r="P3" s="486"/>
-      <c r="Q3" s="486"/>
-      <c r="R3" s="487"/>
-      <c r="S3" s="494"/>
-      <c r="T3" s="495"/>
-      <c r="U3" s="495"/>
-      <c r="V3" s="495"/>
-      <c r="W3" s="495"/>
-      <c r="X3" s="495"/>
-      <c r="Y3" s="495"/>
-      <c r="Z3" s="496"/>
-      <c r="AA3" s="470"/>
-      <c r="AB3" s="472"/>
-      <c r="AC3" s="476" t="str">
+      <c r="F3" s="483"/>
+      <c r="G3" s="483"/>
+      <c r="H3" s="483"/>
+      <c r="I3" s="483"/>
+      <c r="J3" s="483"/>
+      <c r="K3" s="483"/>
+      <c r="L3" s="483"/>
+      <c r="M3" s="483"/>
+      <c r="N3" s="484"/>
+      <c r="O3" s="494"/>
+      <c r="P3" s="495"/>
+      <c r="Q3" s="495"/>
+      <c r="R3" s="496"/>
+      <c r="S3" s="503"/>
+      <c r="T3" s="504"/>
+      <c r="U3" s="504"/>
+      <c r="V3" s="504"/>
+      <c r="W3" s="504"/>
+      <c r="X3" s="504"/>
+      <c r="Y3" s="504"/>
+      <c r="Z3" s="505"/>
+      <c r="AA3" s="479"/>
+      <c r="AB3" s="481"/>
+      <c r="AC3" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="477"/>
-      <c r="AE3" s="477"/>
-      <c r="AF3" s="478"/>
-      <c r="AG3" s="531" t="str">
+      <c r="AD3" s="486"/>
+      <c r="AE3" s="486"/>
+      <c r="AF3" s="487"/>
+      <c r="AG3" s="509" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="532"/>
-      <c r="AI3" s="533"/>
+      <c r="AH3" s="510"/>
+      <c r="AI3" s="511"/>
       <c r="AJ3" s="49"/>
       <c r="AN3" s="47"/>
       <c r="AO3" s="47"/>
@@ -30706,12 +30722,12 @@
     </row>
     <row r="21" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D21" s="138"/>
-      <c r="F21" s="509" t="s">
+      <c r="F21" s="512" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="510"/>
-      <c r="H21" s="510"/>
-      <c r="I21" s="511"/>
+      <c r="G21" s="513"/>
+      <c r="H21" s="513"/>
+      <c r="I21" s="514"/>
       <c r="J21" s="101" t="s">
         <v>25</v>
       </c>
@@ -32275,11 +32291,11 @@
       <c r="H61" s="507"/>
       <c r="I61" s="507"/>
       <c r="J61" s="508"/>
-      <c r="K61" s="497" t="s">
+      <c r="K61" s="470" t="s">
         <v>69</v>
       </c>
-      <c r="L61" s="498"/>
-      <c r="M61" s="499"/>
+      <c r="L61" s="471"/>
+      <c r="M61" s="472"/>
       <c r="N61" s="101" t="s">
         <v>167</v>
       </c>
@@ -32322,17 +32338,17 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="32"/>
-      <c r="G62" s="512" t="s">
+      <c r="G62" s="515" t="s">
         <v>547</v>
       </c>
-      <c r="H62" s="513"/>
-      <c r="I62" s="513"/>
-      <c r="J62" s="514"/>
-      <c r="K62" s="512" t="s">
+      <c r="H62" s="516"/>
+      <c r="I62" s="516"/>
+      <c r="J62" s="517"/>
+      <c r="K62" s="515" t="s">
         <v>498</v>
       </c>
-      <c r="L62" s="513"/>
-      <c r="M62" s="514"/>
+      <c r="L62" s="516"/>
+      <c r="M62" s="517"/>
       <c r="N62" s="137" t="s">
         <v>302</v>
       </c>
@@ -32375,13 +32391,13 @@
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
       <c r="F63" s="32"/>
-      <c r="G63" s="515"/>
-      <c r="H63" s="516"/>
-      <c r="I63" s="516"/>
-      <c r="J63" s="517"/>
-      <c r="K63" s="521"/>
-      <c r="L63" s="516"/>
-      <c r="M63" s="517"/>
+      <c r="G63" s="518"/>
+      <c r="H63" s="519"/>
+      <c r="I63" s="519"/>
+      <c r="J63" s="520"/>
+      <c r="K63" s="524"/>
+      <c r="L63" s="519"/>
+      <c r="M63" s="520"/>
       <c r="N63" s="174" t="s">
         <v>303</v>
       </c>
@@ -32424,13 +32440,13 @@
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="32"/>
-      <c r="G64" s="515"/>
-      <c r="H64" s="516"/>
-      <c r="I64" s="516"/>
-      <c r="J64" s="517"/>
-      <c r="K64" s="515"/>
-      <c r="L64" s="516"/>
-      <c r="M64" s="517"/>
+      <c r="G64" s="518"/>
+      <c r="H64" s="519"/>
+      <c r="I64" s="519"/>
+      <c r="J64" s="520"/>
+      <c r="K64" s="518"/>
+      <c r="L64" s="519"/>
+      <c r="M64" s="520"/>
       <c r="N64" s="174" t="s">
         <v>290</v>
       </c>
@@ -32473,13 +32489,13 @@
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
       <c r="F65" s="32"/>
-      <c r="G65" s="515"/>
-      <c r="H65" s="516"/>
-      <c r="I65" s="516"/>
-      <c r="J65" s="517"/>
-      <c r="K65" s="515"/>
-      <c r="L65" s="516"/>
-      <c r="M65" s="517"/>
+      <c r="G65" s="518"/>
+      <c r="H65" s="519"/>
+      <c r="I65" s="519"/>
+      <c r="J65" s="520"/>
+      <c r="K65" s="518"/>
+      <c r="L65" s="519"/>
+      <c r="M65" s="520"/>
       <c r="N65" s="174" t="s">
         <v>291</v>
       </c>
@@ -32522,13 +32538,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="33"/>
-      <c r="G66" s="518"/>
-      <c r="H66" s="519"/>
-      <c r="I66" s="519"/>
-      <c r="J66" s="520"/>
-      <c r="K66" s="518"/>
-      <c r="L66" s="519"/>
-      <c r="M66" s="520"/>
+      <c r="G66" s="521"/>
+      <c r="H66" s="522"/>
+      <c r="I66" s="522"/>
+      <c r="J66" s="523"/>
+      <c r="K66" s="521"/>
+      <c r="L66" s="522"/>
+      <c r="M66" s="523"/>
       <c r="N66" s="176"/>
       <c r="O66" s="177"/>
       <c r="P66" s="177"/>
@@ -32569,17 +32585,17 @@
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="33"/>
-      <c r="G67" s="522" t="s">
+      <c r="G67" s="525" t="s">
         <v>548</v>
       </c>
-      <c r="H67" s="523"/>
-      <c r="I67" s="523"/>
-      <c r="J67" s="524"/>
-      <c r="K67" s="512" t="s">
+      <c r="H67" s="526"/>
+      <c r="I67" s="526"/>
+      <c r="J67" s="527"/>
+      <c r="K67" s="515" t="s">
         <v>549</v>
       </c>
-      <c r="L67" s="513"/>
-      <c r="M67" s="514"/>
+      <c r="L67" s="516"/>
+      <c r="M67" s="517"/>
       <c r="N67" s="293" t="s">
         <v>550</v>
       </c>
@@ -32621,13 +32637,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="33"/>
-      <c r="G68" s="525"/>
-      <c r="H68" s="526"/>
-      <c r="I68" s="526"/>
-      <c r="J68" s="527"/>
-      <c r="K68" s="521"/>
-      <c r="L68" s="516"/>
-      <c r="M68" s="517"/>
+      <c r="G68" s="528"/>
+      <c r="H68" s="529"/>
+      <c r="I68" s="529"/>
+      <c r="J68" s="530"/>
+      <c r="K68" s="524"/>
+      <c r="L68" s="519"/>
+      <c r="M68" s="520"/>
       <c r="N68" s="174" t="s">
         <v>551</v>
       </c>
@@ -32669,13 +32685,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="33"/>
-      <c r="G69" s="525"/>
-      <c r="H69" s="526"/>
-      <c r="I69" s="526"/>
-      <c r="J69" s="527"/>
-      <c r="K69" s="515"/>
-      <c r="L69" s="516"/>
-      <c r="M69" s="517"/>
+      <c r="G69" s="528"/>
+      <c r="H69" s="529"/>
+      <c r="I69" s="529"/>
+      <c r="J69" s="530"/>
+      <c r="K69" s="518"/>
+      <c r="L69" s="519"/>
+      <c r="M69" s="520"/>
       <c r="N69" s="174" t="s">
         <v>291</v>
       </c>
@@ -32717,13 +32733,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="33"/>
-      <c r="G70" s="528"/>
-      <c r="H70" s="529"/>
-      <c r="I70" s="529"/>
-      <c r="J70" s="530"/>
-      <c r="K70" s="518"/>
-      <c r="L70" s="519"/>
-      <c r="M70" s="520"/>
+      <c r="G70" s="531"/>
+      <c r="H70" s="532"/>
+      <c r="I70" s="532"/>
+      <c r="J70" s="533"/>
+      <c r="K70" s="521"/>
+      <c r="L70" s="522"/>
+      <c r="M70" s="523"/>
       <c r="N70" s="176"/>
       <c r="O70" s="177"/>
       <c r="P70" s="177"/>
@@ -33170,11 +33186,11 @@
       <c r="H85" s="507"/>
       <c r="I85" s="507"/>
       <c r="J85" s="508"/>
-      <c r="K85" s="497" t="s">
+      <c r="K85" s="470" t="s">
         <v>69</v>
       </c>
-      <c r="L85" s="498"/>
-      <c r="M85" s="499"/>
+      <c r="L85" s="471"/>
+      <c r="M85" s="472"/>
       <c r="N85" s="336" t="s">
         <v>167</v>
       </c>
@@ -33459,11 +33475,11 @@
       <c r="H99" s="507"/>
       <c r="I99" s="507"/>
       <c r="J99" s="508"/>
-      <c r="K99" s="497" t="s">
+      <c r="K99" s="470" t="s">
         <v>69</v>
       </c>
-      <c r="L99" s="498"/>
-      <c r="M99" s="499"/>
+      <c r="L99" s="471"/>
+      <c r="M99" s="472"/>
       <c r="N99" s="373" t="s">
         <v>167</v>
       </c>
@@ -33637,6 +33653,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="G62:J66"/>
+    <mergeCell ref="K62:M66"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="G67:J70"/>
+    <mergeCell ref="K67:M70"/>
     <mergeCell ref="G99:J99"/>
     <mergeCell ref="K99:M99"/>
     <mergeCell ref="AG3:AI3"/>
@@ -33653,18 +33681,6 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="G62:J66"/>
-    <mergeCell ref="K62:M66"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="G67:J70"/>
-    <mergeCell ref="K67:M70"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -33700,165 +33716,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="470" t="s">
+      <c r="A1" s="479" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="471"/>
-      <c r="C1" s="471"/>
-      <c r="D1" s="472"/>
-      <c r="E1" s="473" t="str">
+      <c r="B1" s="480"/>
+      <c r="C1" s="480"/>
+      <c r="D1" s="481"/>
+      <c r="E1" s="482" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="474"/>
-      <c r="G1" s="474"/>
-      <c r="H1" s="474"/>
-      <c r="I1" s="474"/>
-      <c r="J1" s="474"/>
-      <c r="K1" s="474"/>
-      <c r="L1" s="474"/>
-      <c r="M1" s="474"/>
-      <c r="N1" s="475"/>
+      <c r="F1" s="483"/>
+      <c r="G1" s="483"/>
+      <c r="H1" s="483"/>
+      <c r="I1" s="483"/>
+      <c r="J1" s="483"/>
+      <c r="K1" s="483"/>
+      <c r="L1" s="483"/>
+      <c r="M1" s="483"/>
+      <c r="N1" s="484"/>
       <c r="O1" s="534" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="480"/>
-      <c r="Q1" s="480"/>
+      <c r="P1" s="489"/>
+      <c r="Q1" s="489"/>
       <c r="R1" s="535"/>
       <c r="S1" s="536" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="489"/>
-      <c r="U1" s="489"/>
-      <c r="V1" s="489"/>
-      <c r="W1" s="489"/>
-      <c r="X1" s="489"/>
-      <c r="Y1" s="489"/>
+      <c r="T1" s="498"/>
+      <c r="U1" s="498"/>
+      <c r="V1" s="498"/>
+      <c r="W1" s="498"/>
+      <c r="X1" s="498"/>
+      <c r="Y1" s="498"/>
       <c r="Z1" s="537"/>
-      <c r="AA1" s="470" t="s">
+      <c r="AA1" s="479" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="472"/>
-      <c r="AC1" s="476" t="str">
+      <c r="AB1" s="481"/>
+      <c r="AC1" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="477"/>
-      <c r="AE1" s="477"/>
-      <c r="AF1" s="478"/>
-      <c r="AG1" s="531">
+      <c r="AD1" s="486"/>
+      <c r="AE1" s="486"/>
+      <c r="AF1" s="487"/>
+      <c r="AG1" s="509">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="532"/>
-      <c r="AI1" s="533"/>
+      <c r="AH1" s="510"/>
+      <c r="AI1" s="511"/>
       <c r="AJ1" s="49"/>
       <c r="AN1" s="47"/>
       <c r="AO1" s="47"/>
       <c r="AP1" s="47"/>
     </row>
     <row r="2" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="470" t="s">
+      <c r="A2" s="479" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="471"/>
-      <c r="C2" s="471"/>
-      <c r="D2" s="472"/>
-      <c r="E2" s="473" t="str">
+      <c r="B2" s="480"/>
+      <c r="C2" s="480"/>
+      <c r="D2" s="481"/>
+      <c r="E2" s="482" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="474"/>
-      <c r="G2" s="474"/>
-      <c r="H2" s="474"/>
-      <c r="I2" s="474"/>
-      <c r="J2" s="474"/>
-      <c r="K2" s="474"/>
-      <c r="L2" s="474"/>
-      <c r="M2" s="474"/>
-      <c r="N2" s="475"/>
-      <c r="O2" s="482"/>
-      <c r="P2" s="483"/>
-      <c r="Q2" s="483"/>
-      <c r="R2" s="484"/>
-      <c r="S2" s="491"/>
-      <c r="T2" s="492"/>
-      <c r="U2" s="492"/>
-      <c r="V2" s="492"/>
-      <c r="W2" s="492"/>
-      <c r="X2" s="492"/>
-      <c r="Y2" s="492"/>
-      <c r="Z2" s="493"/>
-      <c r="AA2" s="470" t="s">
+      <c r="F2" s="483"/>
+      <c r="G2" s="483"/>
+      <c r="H2" s="483"/>
+      <c r="I2" s="483"/>
+      <c r="J2" s="483"/>
+      <c r="K2" s="483"/>
+      <c r="L2" s="483"/>
+      <c r="M2" s="483"/>
+      <c r="N2" s="484"/>
+      <c r="O2" s="491"/>
+      <c r="P2" s="492"/>
+      <c r="Q2" s="492"/>
+      <c r="R2" s="493"/>
+      <c r="S2" s="500"/>
+      <c r="T2" s="501"/>
+      <c r="U2" s="501"/>
+      <c r="V2" s="501"/>
+      <c r="W2" s="501"/>
+      <c r="X2" s="501"/>
+      <c r="Y2" s="501"/>
+      <c r="Z2" s="502"/>
+      <c r="AA2" s="479" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="472"/>
-      <c r="AC2" s="476" t="str">
+      <c r="AB2" s="481"/>
+      <c r="AC2" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="477"/>
-      <c r="AE2" s="477"/>
-      <c r="AF2" s="478"/>
-      <c r="AG2" s="531" t="str">
+      <c r="AD2" s="486"/>
+      <c r="AE2" s="486"/>
+      <c r="AF2" s="487"/>
+      <c r="AG2" s="509" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="532"/>
-      <c r="AI2" s="533"/>
+      <c r="AH2" s="510"/>
+      <c r="AI2" s="511"/>
       <c r="AJ2" s="49"/>
       <c r="AN2" s="47"/>
       <c r="AO2" s="47"/>
       <c r="AP2" s="47"/>
     </row>
     <row r="3" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="470" t="s">
+      <c r="A3" s="479" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="471"/>
-      <c r="C3" s="471"/>
-      <c r="D3" s="472"/>
-      <c r="E3" s="473" t="str">
+      <c r="B3" s="480"/>
+      <c r="C3" s="480"/>
+      <c r="D3" s="481"/>
+      <c r="E3" s="482" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="474"/>
-      <c r="G3" s="474"/>
-      <c r="H3" s="474"/>
-      <c r="I3" s="474"/>
-      <c r="J3" s="474"/>
-      <c r="K3" s="474"/>
-      <c r="L3" s="474"/>
-      <c r="M3" s="474"/>
-      <c r="N3" s="475"/>
-      <c r="O3" s="485"/>
-      <c r="P3" s="486"/>
-      <c r="Q3" s="486"/>
-      <c r="R3" s="487"/>
-      <c r="S3" s="494"/>
-      <c r="T3" s="495"/>
-      <c r="U3" s="495"/>
-      <c r="V3" s="495"/>
-      <c r="W3" s="495"/>
-      <c r="X3" s="495"/>
-      <c r="Y3" s="495"/>
-      <c r="Z3" s="496"/>
-      <c r="AA3" s="470"/>
-      <c r="AB3" s="472"/>
-      <c r="AC3" s="476" t="str">
+      <c r="F3" s="483"/>
+      <c r="G3" s="483"/>
+      <c r="H3" s="483"/>
+      <c r="I3" s="483"/>
+      <c r="J3" s="483"/>
+      <c r="K3" s="483"/>
+      <c r="L3" s="483"/>
+      <c r="M3" s="483"/>
+      <c r="N3" s="484"/>
+      <c r="O3" s="494"/>
+      <c r="P3" s="495"/>
+      <c r="Q3" s="495"/>
+      <c r="R3" s="496"/>
+      <c r="S3" s="503"/>
+      <c r="T3" s="504"/>
+      <c r="U3" s="504"/>
+      <c r="V3" s="504"/>
+      <c r="W3" s="504"/>
+      <c r="X3" s="504"/>
+      <c r="Y3" s="504"/>
+      <c r="Z3" s="505"/>
+      <c r="AA3" s="479"/>
+      <c r="AB3" s="481"/>
+      <c r="AC3" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="477"/>
-      <c r="AE3" s="477"/>
-      <c r="AF3" s="478"/>
-      <c r="AG3" s="531" t="str">
+      <c r="AD3" s="486"/>
+      <c r="AE3" s="486"/>
+      <c r="AF3" s="487"/>
+      <c r="AG3" s="509" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="532"/>
-      <c r="AI3" s="533"/>
+      <c r="AH3" s="510"/>
+      <c r="AI3" s="511"/>
       <c r="AJ3" s="49"/>
       <c r="AN3" s="47"/>
       <c r="AO3" s="47"/>
@@ -36369,6 +36385,11 @@
     <row r="335" spans="5:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T14:AG14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:S14"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -36384,11 +36405,6 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="T14:AG14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="K14:S14"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -36435,157 +36451,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="470" t="s">
+      <c r="A1" s="479" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="471"/>
-      <c r="C1" s="471"/>
-      <c r="D1" s="472"/>
-      <c r="E1" s="473" t="str">
+      <c r="B1" s="480"/>
+      <c r="C1" s="480"/>
+      <c r="D1" s="481"/>
+      <c r="E1" s="482" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="474"/>
-      <c r="G1" s="474"/>
-      <c r="H1" s="474"/>
-      <c r="I1" s="474"/>
-      <c r="J1" s="474"/>
-      <c r="K1" s="474"/>
-      <c r="L1" s="474"/>
-      <c r="M1" s="474"/>
-      <c r="N1" s="475"/>
-      <c r="O1" s="479" t="s">
+      <c r="F1" s="483"/>
+      <c r="G1" s="483"/>
+      <c r="H1" s="483"/>
+      <c r="I1" s="483"/>
+      <c r="J1" s="483"/>
+      <c r="K1" s="483"/>
+      <c r="L1" s="483"/>
+      <c r="M1" s="483"/>
+      <c r="N1" s="484"/>
+      <c r="O1" s="488" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="480"/>
-      <c r="Q1" s="480"/>
-      <c r="R1" s="481"/>
-      <c r="S1" s="488" t="str">
+      <c r="P1" s="489"/>
+      <c r="Q1" s="489"/>
+      <c r="R1" s="490"/>
+      <c r="S1" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="489"/>
-      <c r="U1" s="489"/>
-      <c r="V1" s="489"/>
-      <c r="W1" s="489"/>
-      <c r="X1" s="489"/>
-      <c r="Y1" s="489"/>
-      <c r="Z1" s="490"/>
-      <c r="AA1" s="470" t="s">
+      <c r="T1" s="498"/>
+      <c r="U1" s="498"/>
+      <c r="V1" s="498"/>
+      <c r="W1" s="498"/>
+      <c r="X1" s="498"/>
+      <c r="Y1" s="498"/>
+      <c r="Z1" s="499"/>
+      <c r="AA1" s="479" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="472"/>
-      <c r="AC1" s="476" t="str">
+      <c r="AB1" s="481"/>
+      <c r="AC1" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="477"/>
-      <c r="AE1" s="477"/>
-      <c r="AF1" s="478"/>
-      <c r="AG1" s="531">
+      <c r="AD1" s="486"/>
+      <c r="AE1" s="486"/>
+      <c r="AF1" s="487"/>
+      <c r="AG1" s="509">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="532"/>
-      <c r="AI1" s="533"/>
+      <c r="AH1" s="510"/>
+      <c r="AI1" s="511"/>
     </row>
     <row r="2" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="470" t="s">
+      <c r="A2" s="479" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="471"/>
-      <c r="C2" s="471"/>
-      <c r="D2" s="472"/>
-      <c r="E2" s="473" t="str">
+      <c r="B2" s="480"/>
+      <c r="C2" s="480"/>
+      <c r="D2" s="481"/>
+      <c r="E2" s="482" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="474"/>
-      <c r="G2" s="474"/>
-      <c r="H2" s="474"/>
-      <c r="I2" s="474"/>
-      <c r="J2" s="474"/>
-      <c r="K2" s="474"/>
-      <c r="L2" s="474"/>
-      <c r="M2" s="474"/>
-      <c r="N2" s="475"/>
-      <c r="O2" s="482"/>
-      <c r="P2" s="483"/>
-      <c r="Q2" s="483"/>
-      <c r="R2" s="484"/>
-      <c r="S2" s="491"/>
-      <c r="T2" s="492"/>
-      <c r="U2" s="492"/>
-      <c r="V2" s="492"/>
-      <c r="W2" s="492"/>
-      <c r="X2" s="492"/>
-      <c r="Y2" s="492"/>
-      <c r="Z2" s="493"/>
-      <c r="AA2" s="470" t="s">
+      <c r="F2" s="483"/>
+      <c r="G2" s="483"/>
+      <c r="H2" s="483"/>
+      <c r="I2" s="483"/>
+      <c r="J2" s="483"/>
+      <c r="K2" s="483"/>
+      <c r="L2" s="483"/>
+      <c r="M2" s="483"/>
+      <c r="N2" s="484"/>
+      <c r="O2" s="491"/>
+      <c r="P2" s="492"/>
+      <c r="Q2" s="492"/>
+      <c r="R2" s="493"/>
+      <c r="S2" s="500"/>
+      <c r="T2" s="501"/>
+      <c r="U2" s="501"/>
+      <c r="V2" s="501"/>
+      <c r="W2" s="501"/>
+      <c r="X2" s="501"/>
+      <c r="Y2" s="501"/>
+      <c r="Z2" s="502"/>
+      <c r="AA2" s="479" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="472"/>
-      <c r="AC2" s="476" t="str">
+      <c r="AB2" s="481"/>
+      <c r="AC2" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="477"/>
-      <c r="AE2" s="477"/>
-      <c r="AF2" s="478"/>
-      <c r="AG2" s="531" t="str">
+      <c r="AD2" s="486"/>
+      <c r="AE2" s="486"/>
+      <c r="AF2" s="487"/>
+      <c r="AG2" s="509" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="532"/>
-      <c r="AI2" s="533"/>
+      <c r="AH2" s="510"/>
+      <c r="AI2" s="511"/>
     </row>
     <row r="3" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="470" t="s">
+      <c r="A3" s="479" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="471"/>
-      <c r="C3" s="471"/>
-      <c r="D3" s="472"/>
-      <c r="E3" s="473" t="str">
+      <c r="B3" s="480"/>
+      <c r="C3" s="480"/>
+      <c r="D3" s="481"/>
+      <c r="E3" s="482" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="474"/>
-      <c r="G3" s="474"/>
-      <c r="H3" s="474"/>
-      <c r="I3" s="474"/>
-      <c r="J3" s="474"/>
-      <c r="K3" s="474"/>
-      <c r="L3" s="474"/>
-      <c r="M3" s="474"/>
-      <c r="N3" s="475"/>
-      <c r="O3" s="485"/>
-      <c r="P3" s="486"/>
-      <c r="Q3" s="486"/>
-      <c r="R3" s="487"/>
-      <c r="S3" s="494"/>
-      <c r="T3" s="495"/>
-      <c r="U3" s="495"/>
-      <c r="V3" s="495"/>
-      <c r="W3" s="495"/>
-      <c r="X3" s="495"/>
-      <c r="Y3" s="495"/>
-      <c r="Z3" s="496"/>
-      <c r="AA3" s="470"/>
-      <c r="AB3" s="472"/>
-      <c r="AC3" s="476" t="str">
+      <c r="F3" s="483"/>
+      <c r="G3" s="483"/>
+      <c r="H3" s="483"/>
+      <c r="I3" s="483"/>
+      <c r="J3" s="483"/>
+      <c r="K3" s="483"/>
+      <c r="L3" s="483"/>
+      <c r="M3" s="483"/>
+      <c r="N3" s="484"/>
+      <c r="O3" s="494"/>
+      <c r="P3" s="495"/>
+      <c r="Q3" s="495"/>
+      <c r="R3" s="496"/>
+      <c r="S3" s="503"/>
+      <c r="T3" s="504"/>
+      <c r="U3" s="504"/>
+      <c r="V3" s="504"/>
+      <c r="W3" s="504"/>
+      <c r="X3" s="504"/>
+      <c r="Y3" s="504"/>
+      <c r="Z3" s="505"/>
+      <c r="AA3" s="479"/>
+      <c r="AB3" s="481"/>
+      <c r="AC3" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="477"/>
-      <c r="AE3" s="477"/>
-      <c r="AF3" s="478"/>
-      <c r="AG3" s="531" t="str">
+      <c r="AD3" s="486"/>
+      <c r="AE3" s="486"/>
+      <c r="AF3" s="487"/>
+      <c r="AG3" s="509" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="532"/>
-      <c r="AI3" s="533"/>
+      <c r="AH3" s="510"/>
+      <c r="AI3" s="511"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B5" s="36" t="s">
@@ -38263,7 +38279,9 @@
       <c r="I127" s="352"/>
       <c r="J127" s="352"/>
       <c r="K127" s="353"/>
-      <c r="L127" s="309"/>
+      <c r="L127" s="309" t="s">
+        <v>601</v>
+      </c>
       <c r="M127" s="309"/>
       <c r="N127" s="309"/>
       <c r="O127" s="309"/>
@@ -39219,12 +39237,12 @@
     <row r="200" spans="5:35" s="67" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
@@ -39233,12 +39251,12 @@
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -39279,165 +39297,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="429" t="s">
+      <c r="A1" s="401" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="430"/>
-      <c r="C1" s="430"/>
-      <c r="D1" s="431"/>
-      <c r="E1" s="460" t="str">
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
+      <c r="D1" s="403"/>
+      <c r="E1" s="432" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="433"/>
-      <c r="G1" s="433"/>
-      <c r="H1" s="433"/>
-      <c r="I1" s="433"/>
-      <c r="J1" s="433"/>
-      <c r="K1" s="433"/>
-      <c r="L1" s="433"/>
-      <c r="M1" s="433"/>
-      <c r="N1" s="434"/>
-      <c r="O1" s="479" t="s">
+      <c r="F1" s="405"/>
+      <c r="G1" s="405"/>
+      <c r="H1" s="405"/>
+      <c r="I1" s="405"/>
+      <c r="J1" s="405"/>
+      <c r="K1" s="405"/>
+      <c r="L1" s="405"/>
+      <c r="M1" s="405"/>
+      <c r="N1" s="406"/>
+      <c r="O1" s="488" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="480"/>
-      <c r="Q1" s="480"/>
-      <c r="R1" s="481"/>
-      <c r="S1" s="488" t="str">
+      <c r="P1" s="489"/>
+      <c r="Q1" s="489"/>
+      <c r="R1" s="490"/>
+      <c r="S1" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="489"/>
-      <c r="U1" s="489"/>
-      <c r="V1" s="489"/>
-      <c r="W1" s="489"/>
-      <c r="X1" s="489"/>
-      <c r="Y1" s="489"/>
-      <c r="Z1" s="490"/>
-      <c r="AA1" s="429" t="s">
+      <c r="T1" s="498"/>
+      <c r="U1" s="498"/>
+      <c r="V1" s="498"/>
+      <c r="W1" s="498"/>
+      <c r="X1" s="498"/>
+      <c r="Y1" s="498"/>
+      <c r="Z1" s="499"/>
+      <c r="AA1" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="431"/>
-      <c r="AC1" s="457" t="str">
+      <c r="AB1" s="403"/>
+      <c r="AC1" s="429" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="458"/>
-      <c r="AE1" s="458"/>
-      <c r="AF1" s="459"/>
-      <c r="AG1" s="599">
+      <c r="AD1" s="430"/>
+      <c r="AE1" s="430"/>
+      <c r="AF1" s="431"/>
+      <c r="AG1" s="580">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="600"/>
-      <c r="AI1" s="601"/>
+      <c r="AH1" s="581"/>
+      <c r="AI1" s="582"/>
       <c r="AJ1" s="49"/>
       <c r="AN1" s="85"/>
       <c r="AO1" s="85"/>
       <c r="AP1" s="85"/>
     </row>
     <row r="2" spans="1:42" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="429" t="s">
+      <c r="A2" s="401" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="430"/>
-      <c r="C2" s="430"/>
-      <c r="D2" s="431"/>
-      <c r="E2" s="460" t="str">
+      <c r="B2" s="402"/>
+      <c r="C2" s="402"/>
+      <c r="D2" s="403"/>
+      <c r="E2" s="432" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="433"/>
-      <c r="G2" s="433"/>
-      <c r="H2" s="433"/>
-      <c r="I2" s="433"/>
-      <c r="J2" s="433"/>
-      <c r="K2" s="433"/>
-      <c r="L2" s="433"/>
-      <c r="M2" s="433"/>
-      <c r="N2" s="434"/>
-      <c r="O2" s="482"/>
-      <c r="P2" s="483"/>
-      <c r="Q2" s="483"/>
-      <c r="R2" s="484"/>
-      <c r="S2" s="491"/>
-      <c r="T2" s="492"/>
-      <c r="U2" s="492"/>
-      <c r="V2" s="492"/>
-      <c r="W2" s="492"/>
-      <c r="X2" s="492"/>
-      <c r="Y2" s="492"/>
-      <c r="Z2" s="493"/>
-      <c r="AA2" s="429" t="s">
+      <c r="F2" s="405"/>
+      <c r="G2" s="405"/>
+      <c r="H2" s="405"/>
+      <c r="I2" s="405"/>
+      <c r="J2" s="405"/>
+      <c r="K2" s="405"/>
+      <c r="L2" s="405"/>
+      <c r="M2" s="405"/>
+      <c r="N2" s="406"/>
+      <c r="O2" s="491"/>
+      <c r="P2" s="492"/>
+      <c r="Q2" s="492"/>
+      <c r="R2" s="493"/>
+      <c r="S2" s="500"/>
+      <c r="T2" s="501"/>
+      <c r="U2" s="501"/>
+      <c r="V2" s="501"/>
+      <c r="W2" s="501"/>
+      <c r="X2" s="501"/>
+      <c r="Y2" s="501"/>
+      <c r="Z2" s="502"/>
+      <c r="AA2" s="401" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="431"/>
-      <c r="AC2" s="457" t="str">
+      <c r="AB2" s="403"/>
+      <c r="AC2" s="429" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="458"/>
-      <c r="AE2" s="458"/>
-      <c r="AF2" s="459"/>
-      <c r="AG2" s="599" t="str">
+      <c r="AD2" s="430"/>
+      <c r="AE2" s="430"/>
+      <c r="AF2" s="431"/>
+      <c r="AG2" s="580" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="600"/>
-      <c r="AI2" s="601"/>
+      <c r="AH2" s="581"/>
+      <c r="AI2" s="582"/>
       <c r="AJ2" s="49"/>
       <c r="AN2" s="85"/>
       <c r="AO2" s="85"/>
       <c r="AP2" s="85"/>
     </row>
     <row r="3" spans="1:42" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="429" t="s">
+      <c r="A3" s="401" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="430"/>
-      <c r="C3" s="430"/>
-      <c r="D3" s="431"/>
-      <c r="E3" s="460" t="str">
+      <c r="B3" s="402"/>
+      <c r="C3" s="402"/>
+      <c r="D3" s="403"/>
+      <c r="E3" s="432" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="433"/>
-      <c r="G3" s="433"/>
-      <c r="H3" s="433"/>
-      <c r="I3" s="433"/>
-      <c r="J3" s="433"/>
-      <c r="K3" s="433"/>
-      <c r="L3" s="433"/>
-      <c r="M3" s="433"/>
-      <c r="N3" s="434"/>
-      <c r="O3" s="485"/>
-      <c r="P3" s="486"/>
-      <c r="Q3" s="486"/>
-      <c r="R3" s="487"/>
-      <c r="S3" s="494"/>
-      <c r="T3" s="495"/>
-      <c r="U3" s="495"/>
-      <c r="V3" s="495"/>
-      <c r="W3" s="495"/>
-      <c r="X3" s="495"/>
-      <c r="Y3" s="495"/>
-      <c r="Z3" s="496"/>
-      <c r="AA3" s="429"/>
-      <c r="AB3" s="431"/>
-      <c r="AC3" s="457" t="str">
+      <c r="F3" s="405"/>
+      <c r="G3" s="405"/>
+      <c r="H3" s="405"/>
+      <c r="I3" s="405"/>
+      <c r="J3" s="405"/>
+      <c r="K3" s="405"/>
+      <c r="L3" s="405"/>
+      <c r="M3" s="405"/>
+      <c r="N3" s="406"/>
+      <c r="O3" s="494"/>
+      <c r="P3" s="495"/>
+      <c r="Q3" s="495"/>
+      <c r="R3" s="496"/>
+      <c r="S3" s="503"/>
+      <c r="T3" s="504"/>
+      <c r="U3" s="504"/>
+      <c r="V3" s="504"/>
+      <c r="W3" s="504"/>
+      <c r="X3" s="504"/>
+      <c r="Y3" s="504"/>
+      <c r="Z3" s="505"/>
+      <c r="AA3" s="401"/>
+      <c r="AB3" s="403"/>
+      <c r="AC3" s="429" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="458"/>
-      <c r="AE3" s="458"/>
-      <c r="AF3" s="459"/>
-      <c r="AG3" s="599" t="str">
+      <c r="AD3" s="430"/>
+      <c r="AE3" s="430"/>
+      <c r="AF3" s="431"/>
+      <c r="AG3" s="580" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="600"/>
-      <c r="AI3" s="601"/>
+      <c r="AH3" s="581"/>
+      <c r="AI3" s="582"/>
       <c r="AJ3" s="49"/>
       <c r="AN3" s="85"/>
       <c r="AO3" s="85"/>
@@ -40132,745 +40150,745 @@
     </row>
     <row r="151" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="152" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D152" s="497" t="s">
+      <c r="D152" s="470" t="s">
         <v>239</v>
       </c>
-      <c r="E152" s="579"/>
-      <c r="F152" s="579"/>
-      <c r="G152" s="579"/>
-      <c r="H152" s="579"/>
-      <c r="I152" s="579"/>
-      <c r="J152" s="580"/>
-      <c r="K152" s="613" t="s">
+      <c r="E152" s="548"/>
+      <c r="F152" s="548"/>
+      <c r="G152" s="548"/>
+      <c r="H152" s="548"/>
+      <c r="I152" s="548"/>
+      <c r="J152" s="549"/>
+      <c r="K152" s="558" t="s">
         <v>52</v>
       </c>
-      <c r="L152" s="604"/>
-      <c r="M152" s="604"/>
-      <c r="N152" s="604"/>
-      <c r="O152" s="604"/>
-      <c r="P152" s="604"/>
-      <c r="Q152" s="604"/>
-      <c r="R152" s="604"/>
-      <c r="S152" s="604" t="s">
+      <c r="L152" s="559"/>
+      <c r="M152" s="559"/>
+      <c r="N152" s="559"/>
+      <c r="O152" s="559"/>
+      <c r="P152" s="559"/>
+      <c r="Q152" s="559"/>
+      <c r="R152" s="559"/>
+      <c r="S152" s="559" t="s">
         <v>51</v>
       </c>
-      <c r="T152" s="604"/>
-      <c r="U152" s="604"/>
-      <c r="V152" s="604"/>
-      <c r="W152" s="604"/>
-      <c r="X152" s="604"/>
-      <c r="Y152" s="604"/>
-      <c r="Z152" s="604"/>
-      <c r="AA152" s="604"/>
-      <c r="AB152" s="604"/>
-      <c r="AC152" s="604"/>
-      <c r="AD152" s="604"/>
-      <c r="AE152" s="604"/>
-      <c r="AF152" s="604"/>
-      <c r="AG152" s="604"/>
-      <c r="AH152" s="604"/>
+      <c r="T152" s="559"/>
+      <c r="U152" s="559"/>
+      <c r="V152" s="559"/>
+      <c r="W152" s="559"/>
+      <c r="X152" s="559"/>
+      <c r="Y152" s="559"/>
+      <c r="Z152" s="559"/>
+      <c r="AA152" s="559"/>
+      <c r="AB152" s="559"/>
+      <c r="AC152" s="559"/>
+      <c r="AD152" s="559"/>
+      <c r="AE152" s="559"/>
+      <c r="AF152" s="559"/>
+      <c r="AG152" s="559"/>
+      <c r="AH152" s="559"/>
     </row>
     <row r="153" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D153" s="500" t="s">
+      <c r="D153" s="473" t="s">
         <v>53</v>
       </c>
-      <c r="E153" s="501"/>
-      <c r="F153" s="501"/>
-      <c r="G153" s="501"/>
-      <c r="H153" s="501"/>
-      <c r="I153" s="501"/>
-      <c r="J153" s="502"/>
-      <c r="K153" s="605" t="s">
+      <c r="E153" s="474"/>
+      <c r="F153" s="474"/>
+      <c r="G153" s="474"/>
+      <c r="H153" s="474"/>
+      <c r="I153" s="474"/>
+      <c r="J153" s="475"/>
+      <c r="K153" s="556" t="s">
         <v>75</v>
       </c>
-      <c r="L153" s="606"/>
-      <c r="M153" s="606"/>
-      <c r="N153" s="606"/>
-      <c r="O153" s="606"/>
-      <c r="P153" s="606"/>
-      <c r="Q153" s="606"/>
-      <c r="R153" s="606"/>
-      <c r="S153" s="598" t="s">
+      <c r="L153" s="557"/>
+      <c r="M153" s="557"/>
+      <c r="N153" s="557"/>
+      <c r="O153" s="557"/>
+      <c r="P153" s="557"/>
+      <c r="Q153" s="557"/>
+      <c r="R153" s="557"/>
+      <c r="S153" s="579" t="s">
         <v>209</v>
       </c>
-      <c r="T153" s="598"/>
-      <c r="U153" s="598"/>
-      <c r="V153" s="598"/>
-      <c r="W153" s="598"/>
-      <c r="X153" s="598"/>
-      <c r="Y153" s="598"/>
-      <c r="Z153" s="598"/>
-      <c r="AA153" s="598"/>
-      <c r="AB153" s="598"/>
-      <c r="AC153" s="598"/>
-      <c r="AD153" s="598"/>
-      <c r="AE153" s="598"/>
-      <c r="AF153" s="598"/>
-      <c r="AG153" s="598"/>
-      <c r="AH153" s="598"/>
+      <c r="T153" s="579"/>
+      <c r="U153" s="579"/>
+      <c r="V153" s="579"/>
+      <c r="W153" s="579"/>
+      <c r="X153" s="579"/>
+      <c r="Y153" s="579"/>
+      <c r="Z153" s="579"/>
+      <c r="AA153" s="579"/>
+      <c r="AB153" s="579"/>
+      <c r="AC153" s="579"/>
+      <c r="AD153" s="579"/>
+      <c r="AE153" s="579"/>
+      <c r="AF153" s="579"/>
+      <c r="AG153" s="579"/>
+      <c r="AH153" s="579"/>
     </row>
     <row r="154" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D154" s="561" t="s">
+      <c r="D154" s="550" t="s">
         <v>223</v>
       </c>
-      <c r="E154" s="617"/>
-      <c r="F154" s="617"/>
-      <c r="G154" s="617"/>
-      <c r="H154" s="617"/>
-      <c r="I154" s="617"/>
-      <c r="J154" s="618"/>
-      <c r="K154" s="605" t="s">
+      <c r="E154" s="551"/>
+      <c r="F154" s="551"/>
+      <c r="G154" s="551"/>
+      <c r="H154" s="551"/>
+      <c r="I154" s="551"/>
+      <c r="J154" s="552"/>
+      <c r="K154" s="556" t="s">
         <v>75</v>
       </c>
-      <c r="L154" s="606"/>
-      <c r="M154" s="606"/>
-      <c r="N154" s="606"/>
-      <c r="O154" s="606"/>
-      <c r="P154" s="606"/>
-      <c r="Q154" s="606"/>
-      <c r="R154" s="606"/>
-      <c r="S154" s="598" t="s">
+      <c r="L154" s="557"/>
+      <c r="M154" s="557"/>
+      <c r="N154" s="557"/>
+      <c r="O154" s="557"/>
+      <c r="P154" s="557"/>
+      <c r="Q154" s="557"/>
+      <c r="R154" s="557"/>
+      <c r="S154" s="579" t="s">
         <v>210</v>
       </c>
-      <c r="T154" s="598"/>
-      <c r="U154" s="598"/>
-      <c r="V154" s="598"/>
-      <c r="W154" s="598"/>
-      <c r="X154" s="598"/>
-      <c r="Y154" s="598"/>
-      <c r="Z154" s="598"/>
-      <c r="AA154" s="598"/>
-      <c r="AB154" s="598"/>
-      <c r="AC154" s="598"/>
-      <c r="AD154" s="598"/>
-      <c r="AE154" s="598"/>
-      <c r="AF154" s="598"/>
-      <c r="AG154" s="598"/>
-      <c r="AH154" s="598"/>
+      <c r="T154" s="579"/>
+      <c r="U154" s="579"/>
+      <c r="V154" s="579"/>
+      <c r="W154" s="579"/>
+      <c r="X154" s="579"/>
+      <c r="Y154" s="579"/>
+      <c r="Z154" s="579"/>
+      <c r="AA154" s="579"/>
+      <c r="AB154" s="579"/>
+      <c r="AC154" s="579"/>
+      <c r="AD154" s="579"/>
+      <c r="AE154" s="579"/>
+      <c r="AF154" s="579"/>
+      <c r="AG154" s="579"/>
+      <c r="AH154" s="579"/>
     </row>
     <row r="155" spans="3:34" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D155" s="616" t="s">
+      <c r="D155" s="544" t="s">
         <v>234</v>
       </c>
-      <c r="E155" s="504"/>
-      <c r="F155" s="504"/>
-      <c r="G155" s="504"/>
-      <c r="H155" s="504"/>
-      <c r="I155" s="504"/>
-      <c r="J155" s="505"/>
-      <c r="K155" s="619" t="s">
+      <c r="E155" s="477"/>
+      <c r="F155" s="477"/>
+      <c r="G155" s="477"/>
+      <c r="H155" s="477"/>
+      <c r="I155" s="477"/>
+      <c r="J155" s="478"/>
+      <c r="K155" s="553" t="s">
         <v>235</v>
       </c>
-      <c r="L155" s="620"/>
-      <c r="M155" s="620"/>
-      <c r="N155" s="620"/>
-      <c r="O155" s="620"/>
-      <c r="P155" s="620"/>
-      <c r="Q155" s="620"/>
-      <c r="R155" s="621"/>
-      <c r="S155" s="607" t="s">
+      <c r="L155" s="554"/>
+      <c r="M155" s="554"/>
+      <c r="N155" s="554"/>
+      <c r="O155" s="554"/>
+      <c r="P155" s="554"/>
+      <c r="Q155" s="554"/>
+      <c r="R155" s="555"/>
+      <c r="S155" s="572" t="s">
         <v>236</v>
       </c>
-      <c r="T155" s="608"/>
-      <c r="U155" s="608"/>
-      <c r="V155" s="608"/>
-      <c r="W155" s="608"/>
-      <c r="X155" s="608"/>
-      <c r="Y155" s="608"/>
-      <c r="Z155" s="608"/>
-      <c r="AA155" s="608"/>
-      <c r="AB155" s="608"/>
-      <c r="AC155" s="608"/>
-      <c r="AD155" s="608"/>
-      <c r="AE155" s="608"/>
-      <c r="AF155" s="608"/>
-      <c r="AG155" s="608"/>
-      <c r="AH155" s="609"/>
+      <c r="T155" s="586"/>
+      <c r="U155" s="586"/>
+      <c r="V155" s="586"/>
+      <c r="W155" s="586"/>
+      <c r="X155" s="586"/>
+      <c r="Y155" s="586"/>
+      <c r="Z155" s="586"/>
+      <c r="AA155" s="586"/>
+      <c r="AB155" s="586"/>
+      <c r="AC155" s="586"/>
+      <c r="AD155" s="586"/>
+      <c r="AE155" s="586"/>
+      <c r="AF155" s="586"/>
+      <c r="AG155" s="586"/>
+      <c r="AH155" s="587"/>
     </row>
     <row r="156" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D156" s="614"/>
-      <c r="E156" s="573" t="s">
+      <c r="D156" s="542"/>
+      <c r="E156" s="545" t="s">
         <v>238</v>
       </c>
-      <c r="F156" s="576"/>
-      <c r="G156" s="576"/>
-      <c r="H156" s="576"/>
-      <c r="I156" s="576"/>
-      <c r="J156" s="577"/>
-      <c r="K156" s="602" t="s">
+      <c r="F156" s="546"/>
+      <c r="G156" s="546"/>
+      <c r="H156" s="546"/>
+      <c r="I156" s="546"/>
+      <c r="J156" s="547"/>
+      <c r="K156" s="584" t="s">
         <v>241</v>
       </c>
-      <c r="L156" s="603"/>
-      <c r="M156" s="603"/>
-      <c r="N156" s="603"/>
-      <c r="O156" s="603"/>
-      <c r="P156" s="603"/>
-      <c r="Q156" s="603"/>
-      <c r="R156" s="603"/>
-      <c r="S156" s="598" t="s">
+      <c r="L156" s="585"/>
+      <c r="M156" s="585"/>
+      <c r="N156" s="585"/>
+      <c r="O156" s="585"/>
+      <c r="P156" s="585"/>
+      <c r="Q156" s="585"/>
+      <c r="R156" s="585"/>
+      <c r="S156" s="579" t="s">
         <v>146</v>
       </c>
-      <c r="T156" s="598"/>
-      <c r="U156" s="598"/>
-      <c r="V156" s="598"/>
-      <c r="W156" s="598"/>
-      <c r="X156" s="598"/>
-      <c r="Y156" s="598"/>
-      <c r="Z156" s="598"/>
-      <c r="AA156" s="598"/>
-      <c r="AB156" s="598"/>
-      <c r="AC156" s="598"/>
-      <c r="AD156" s="598"/>
-      <c r="AE156" s="598"/>
-      <c r="AF156" s="598"/>
-      <c r="AG156" s="598"/>
-      <c r="AH156" s="598"/>
+      <c r="T156" s="579"/>
+      <c r="U156" s="579"/>
+      <c r="V156" s="579"/>
+      <c r="W156" s="579"/>
+      <c r="X156" s="579"/>
+      <c r="Y156" s="579"/>
+      <c r="Z156" s="579"/>
+      <c r="AA156" s="579"/>
+      <c r="AB156" s="579"/>
+      <c r="AC156" s="579"/>
+      <c r="AD156" s="579"/>
+      <c r="AE156" s="579"/>
+      <c r="AF156" s="579"/>
+      <c r="AG156" s="579"/>
+      <c r="AH156" s="579"/>
     </row>
     <row r="157" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D157" s="614"/>
-      <c r="E157" s="573"/>
-      <c r="F157" s="576"/>
-      <c r="G157" s="576"/>
-      <c r="H157" s="576"/>
-      <c r="I157" s="576"/>
-      <c r="J157" s="577"/>
-      <c r="K157" s="605" t="s">
+      <c r="D157" s="542"/>
+      <c r="E157" s="545"/>
+      <c r="F157" s="546"/>
+      <c r="G157" s="546"/>
+      <c r="H157" s="546"/>
+      <c r="I157" s="546"/>
+      <c r="J157" s="547"/>
+      <c r="K157" s="556" t="s">
         <v>201</v>
       </c>
-      <c r="L157" s="603"/>
-      <c r="M157" s="603"/>
-      <c r="N157" s="603"/>
-      <c r="O157" s="603"/>
-      <c r="P157" s="603"/>
-      <c r="Q157" s="603"/>
-      <c r="R157" s="603"/>
-      <c r="S157" s="598" t="s">
+      <c r="L157" s="585"/>
+      <c r="M157" s="585"/>
+      <c r="N157" s="585"/>
+      <c r="O157" s="585"/>
+      <c r="P157" s="585"/>
+      <c r="Q157" s="585"/>
+      <c r="R157" s="585"/>
+      <c r="S157" s="579" t="s">
         <v>70</v>
       </c>
-      <c r="T157" s="598"/>
-      <c r="U157" s="598"/>
-      <c r="V157" s="598"/>
-      <c r="W157" s="598"/>
-      <c r="X157" s="598"/>
-      <c r="Y157" s="598"/>
-      <c r="Z157" s="598"/>
-      <c r="AA157" s="598"/>
-      <c r="AB157" s="598"/>
-      <c r="AC157" s="598"/>
-      <c r="AD157" s="598"/>
-      <c r="AE157" s="598"/>
-      <c r="AF157" s="598"/>
-      <c r="AG157" s="598"/>
-      <c r="AH157" s="598"/>
+      <c r="T157" s="579"/>
+      <c r="U157" s="579"/>
+      <c r="V157" s="579"/>
+      <c r="W157" s="579"/>
+      <c r="X157" s="579"/>
+      <c r="Y157" s="579"/>
+      <c r="Z157" s="579"/>
+      <c r="AA157" s="579"/>
+      <c r="AB157" s="579"/>
+      <c r="AC157" s="579"/>
+      <c r="AD157" s="579"/>
+      <c r="AE157" s="579"/>
+      <c r="AF157" s="579"/>
+      <c r="AG157" s="579"/>
+      <c r="AH157" s="579"/>
     </row>
     <row r="158" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D158" s="614"/>
-      <c r="E158" s="573"/>
-      <c r="F158" s="576"/>
-      <c r="G158" s="576"/>
-      <c r="H158" s="576"/>
-      <c r="I158" s="576"/>
-      <c r="J158" s="577"/>
-      <c r="K158" s="603"/>
-      <c r="L158" s="603"/>
-      <c r="M158" s="603"/>
-      <c r="N158" s="603"/>
-      <c r="O158" s="603"/>
-      <c r="P158" s="603"/>
-      <c r="Q158" s="603"/>
-      <c r="R158" s="603"/>
-      <c r="S158" s="598"/>
-      <c r="T158" s="598"/>
-      <c r="U158" s="598"/>
-      <c r="V158" s="598"/>
-      <c r="W158" s="598"/>
-      <c r="X158" s="598"/>
-      <c r="Y158" s="598"/>
-      <c r="Z158" s="598"/>
-      <c r="AA158" s="598"/>
-      <c r="AB158" s="598"/>
-      <c r="AC158" s="598"/>
-      <c r="AD158" s="598"/>
-      <c r="AE158" s="598"/>
-      <c r="AF158" s="598"/>
-      <c r="AG158" s="598"/>
-      <c r="AH158" s="598"/>
+      <c r="D158" s="542"/>
+      <c r="E158" s="545"/>
+      <c r="F158" s="546"/>
+      <c r="G158" s="546"/>
+      <c r="H158" s="546"/>
+      <c r="I158" s="546"/>
+      <c r="J158" s="547"/>
+      <c r="K158" s="585"/>
+      <c r="L158" s="585"/>
+      <c r="M158" s="585"/>
+      <c r="N158" s="585"/>
+      <c r="O158" s="585"/>
+      <c r="P158" s="585"/>
+      <c r="Q158" s="585"/>
+      <c r="R158" s="585"/>
+      <c r="S158" s="579"/>
+      <c r="T158" s="579"/>
+      <c r="U158" s="579"/>
+      <c r="V158" s="579"/>
+      <c r="W158" s="579"/>
+      <c r="X158" s="579"/>
+      <c r="Y158" s="579"/>
+      <c r="Z158" s="579"/>
+      <c r="AA158" s="579"/>
+      <c r="AB158" s="579"/>
+      <c r="AC158" s="579"/>
+      <c r="AD158" s="579"/>
+      <c r="AE158" s="579"/>
+      <c r="AF158" s="579"/>
+      <c r="AG158" s="579"/>
+      <c r="AH158" s="579"/>
     </row>
     <row r="159" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D159" s="614"/>
-      <c r="E159" s="573"/>
-      <c r="F159" s="576"/>
-      <c r="G159" s="576"/>
-      <c r="H159" s="576"/>
-      <c r="I159" s="576"/>
-      <c r="J159" s="577"/>
-      <c r="K159" s="603"/>
-      <c r="L159" s="603"/>
-      <c r="M159" s="603"/>
-      <c r="N159" s="603"/>
-      <c r="O159" s="603"/>
-      <c r="P159" s="603"/>
-      <c r="Q159" s="603"/>
-      <c r="R159" s="603"/>
-      <c r="S159" s="598"/>
-      <c r="T159" s="598"/>
-      <c r="U159" s="598"/>
-      <c r="V159" s="598"/>
-      <c r="W159" s="598"/>
-      <c r="X159" s="598"/>
-      <c r="Y159" s="598"/>
-      <c r="Z159" s="598"/>
-      <c r="AA159" s="598"/>
-      <c r="AB159" s="598"/>
-      <c r="AC159" s="598"/>
-      <c r="AD159" s="598"/>
-      <c r="AE159" s="598"/>
-      <c r="AF159" s="598"/>
-      <c r="AG159" s="598"/>
-      <c r="AH159" s="598"/>
+      <c r="D159" s="542"/>
+      <c r="E159" s="545"/>
+      <c r="F159" s="546"/>
+      <c r="G159" s="546"/>
+      <c r="H159" s="546"/>
+      <c r="I159" s="546"/>
+      <c r="J159" s="547"/>
+      <c r="K159" s="585"/>
+      <c r="L159" s="585"/>
+      <c r="M159" s="585"/>
+      <c r="N159" s="585"/>
+      <c r="O159" s="585"/>
+      <c r="P159" s="585"/>
+      <c r="Q159" s="585"/>
+      <c r="R159" s="585"/>
+      <c r="S159" s="579"/>
+      <c r="T159" s="579"/>
+      <c r="U159" s="579"/>
+      <c r="V159" s="579"/>
+      <c r="W159" s="579"/>
+      <c r="X159" s="579"/>
+      <c r="Y159" s="579"/>
+      <c r="Z159" s="579"/>
+      <c r="AA159" s="579"/>
+      <c r="AB159" s="579"/>
+      <c r="AC159" s="579"/>
+      <c r="AD159" s="579"/>
+      <c r="AE159" s="579"/>
+      <c r="AF159" s="579"/>
+      <c r="AG159" s="579"/>
+      <c r="AH159" s="579"/>
     </row>
     <row r="160" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D160" s="614"/>
-      <c r="E160" s="573"/>
-      <c r="F160" s="576"/>
-      <c r="G160" s="576"/>
-      <c r="H160" s="576"/>
-      <c r="I160" s="576"/>
-      <c r="J160" s="577"/>
-      <c r="K160" s="603"/>
-      <c r="L160" s="603"/>
-      <c r="M160" s="603"/>
-      <c r="N160" s="603"/>
-      <c r="O160" s="603"/>
-      <c r="P160" s="603"/>
-      <c r="Q160" s="603"/>
-      <c r="R160" s="603"/>
-      <c r="S160" s="598"/>
-      <c r="T160" s="598"/>
-      <c r="U160" s="598"/>
-      <c r="V160" s="598"/>
-      <c r="W160" s="598"/>
-      <c r="X160" s="598"/>
-      <c r="Y160" s="598"/>
-      <c r="Z160" s="598"/>
-      <c r="AA160" s="598"/>
-      <c r="AB160" s="598"/>
-      <c r="AC160" s="598"/>
-      <c r="AD160" s="598"/>
-      <c r="AE160" s="598"/>
-      <c r="AF160" s="598"/>
-      <c r="AG160" s="598"/>
-      <c r="AH160" s="598"/>
+      <c r="D160" s="542"/>
+      <c r="E160" s="545"/>
+      <c r="F160" s="546"/>
+      <c r="G160" s="546"/>
+      <c r="H160" s="546"/>
+      <c r="I160" s="546"/>
+      <c r="J160" s="547"/>
+      <c r="K160" s="585"/>
+      <c r="L160" s="585"/>
+      <c r="M160" s="585"/>
+      <c r="N160" s="585"/>
+      <c r="O160" s="585"/>
+      <c r="P160" s="585"/>
+      <c r="Q160" s="585"/>
+      <c r="R160" s="585"/>
+      <c r="S160" s="579"/>
+      <c r="T160" s="579"/>
+      <c r="U160" s="579"/>
+      <c r="V160" s="579"/>
+      <c r="W160" s="579"/>
+      <c r="X160" s="579"/>
+      <c r="Y160" s="579"/>
+      <c r="Z160" s="579"/>
+      <c r="AA160" s="579"/>
+      <c r="AB160" s="579"/>
+      <c r="AC160" s="579"/>
+      <c r="AD160" s="579"/>
+      <c r="AE160" s="579"/>
+      <c r="AF160" s="579"/>
+      <c r="AG160" s="579"/>
+      <c r="AH160" s="579"/>
     </row>
     <row r="161" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D161" s="614"/>
-      <c r="E161" s="573"/>
-      <c r="F161" s="576"/>
-      <c r="G161" s="576"/>
-      <c r="H161" s="576"/>
-      <c r="I161" s="576"/>
-      <c r="J161" s="577"/>
-      <c r="K161" s="603"/>
-      <c r="L161" s="603"/>
-      <c r="M161" s="603"/>
-      <c r="N161" s="603"/>
-      <c r="O161" s="603"/>
-      <c r="P161" s="603"/>
-      <c r="Q161" s="603"/>
-      <c r="R161" s="603"/>
-      <c r="S161" s="598"/>
-      <c r="T161" s="598"/>
-      <c r="U161" s="598"/>
-      <c r="V161" s="598"/>
-      <c r="W161" s="598"/>
-      <c r="X161" s="598"/>
-      <c r="Y161" s="598"/>
-      <c r="Z161" s="598"/>
-      <c r="AA161" s="598"/>
-      <c r="AB161" s="598"/>
-      <c r="AC161" s="598"/>
-      <c r="AD161" s="598"/>
-      <c r="AE161" s="598"/>
-      <c r="AF161" s="598"/>
-      <c r="AG161" s="598"/>
-      <c r="AH161" s="598"/>
+      <c r="D161" s="542"/>
+      <c r="E161" s="545"/>
+      <c r="F161" s="546"/>
+      <c r="G161" s="546"/>
+      <c r="H161" s="546"/>
+      <c r="I161" s="546"/>
+      <c r="J161" s="547"/>
+      <c r="K161" s="585"/>
+      <c r="L161" s="585"/>
+      <c r="M161" s="585"/>
+      <c r="N161" s="585"/>
+      <c r="O161" s="585"/>
+      <c r="P161" s="585"/>
+      <c r="Q161" s="585"/>
+      <c r="R161" s="585"/>
+      <c r="S161" s="579"/>
+      <c r="T161" s="579"/>
+      <c r="U161" s="579"/>
+      <c r="V161" s="579"/>
+      <c r="W161" s="579"/>
+      <c r="X161" s="579"/>
+      <c r="Y161" s="579"/>
+      <c r="Z161" s="579"/>
+      <c r="AA161" s="579"/>
+      <c r="AB161" s="579"/>
+      <c r="AC161" s="579"/>
+      <c r="AD161" s="579"/>
+      <c r="AE161" s="579"/>
+      <c r="AF161" s="579"/>
+      <c r="AG161" s="579"/>
+      <c r="AH161" s="579"/>
     </row>
     <row r="162" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D162" s="614"/>
-      <c r="E162" s="573"/>
-      <c r="F162" s="576"/>
-      <c r="G162" s="576"/>
-      <c r="H162" s="576"/>
-      <c r="I162" s="576"/>
-      <c r="J162" s="577"/>
-      <c r="K162" s="605" t="s">
+      <c r="D162" s="542"/>
+      <c r="E162" s="545"/>
+      <c r="F162" s="546"/>
+      <c r="G162" s="546"/>
+      <c r="H162" s="546"/>
+      <c r="I162" s="546"/>
+      <c r="J162" s="547"/>
+      <c r="K162" s="556" t="s">
         <v>240</v>
       </c>
-      <c r="L162" s="606"/>
-      <c r="M162" s="606"/>
-      <c r="N162" s="606"/>
-      <c r="O162" s="606"/>
-      <c r="P162" s="606"/>
-      <c r="Q162" s="606"/>
-      <c r="R162" s="606"/>
-      <c r="S162" s="590" t="s">
+      <c r="L162" s="557"/>
+      <c r="M162" s="557"/>
+      <c r="N162" s="557"/>
+      <c r="O162" s="557"/>
+      <c r="P162" s="557"/>
+      <c r="Q162" s="557"/>
+      <c r="R162" s="557"/>
+      <c r="S162" s="583" t="s">
         <v>211</v>
       </c>
-      <c r="T162" s="598"/>
-      <c r="U162" s="598"/>
-      <c r="V162" s="598"/>
-      <c r="W162" s="598"/>
-      <c r="X162" s="598"/>
-      <c r="Y162" s="598"/>
-      <c r="Z162" s="598"/>
-      <c r="AA162" s="598"/>
-      <c r="AB162" s="598"/>
-      <c r="AC162" s="598"/>
-      <c r="AD162" s="598"/>
-      <c r="AE162" s="598"/>
-      <c r="AF162" s="598"/>
-      <c r="AG162" s="598"/>
-      <c r="AH162" s="598"/>
+      <c r="T162" s="579"/>
+      <c r="U162" s="579"/>
+      <c r="V162" s="579"/>
+      <c r="W162" s="579"/>
+      <c r="X162" s="579"/>
+      <c r="Y162" s="579"/>
+      <c r="Z162" s="579"/>
+      <c r="AA162" s="579"/>
+      <c r="AB162" s="579"/>
+      <c r="AC162" s="579"/>
+      <c r="AD162" s="579"/>
+      <c r="AE162" s="579"/>
+      <c r="AF162" s="579"/>
+      <c r="AG162" s="579"/>
+      <c r="AH162" s="579"/>
     </row>
     <row r="163" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D163" s="614"/>
-      <c r="E163" s="573"/>
-      <c r="F163" s="576"/>
-      <c r="G163" s="576"/>
-      <c r="H163" s="576"/>
-      <c r="I163" s="576"/>
-      <c r="J163" s="577"/>
-      <c r="K163" s="606"/>
-      <c r="L163" s="606"/>
-      <c r="M163" s="606"/>
-      <c r="N163" s="606"/>
-      <c r="O163" s="606"/>
-      <c r="P163" s="606"/>
-      <c r="Q163" s="606"/>
-      <c r="R163" s="606"/>
-      <c r="S163" s="598"/>
-      <c r="T163" s="598"/>
-      <c r="U163" s="598"/>
-      <c r="V163" s="598"/>
-      <c r="W163" s="598"/>
-      <c r="X163" s="598"/>
-      <c r="Y163" s="598"/>
-      <c r="Z163" s="598"/>
-      <c r="AA163" s="598"/>
-      <c r="AB163" s="598"/>
-      <c r="AC163" s="598"/>
-      <c r="AD163" s="598"/>
-      <c r="AE163" s="598"/>
-      <c r="AF163" s="598"/>
-      <c r="AG163" s="598"/>
-      <c r="AH163" s="598"/>
+      <c r="D163" s="542"/>
+      <c r="E163" s="545"/>
+      <c r="F163" s="546"/>
+      <c r="G163" s="546"/>
+      <c r="H163" s="546"/>
+      <c r="I163" s="546"/>
+      <c r="J163" s="547"/>
+      <c r="K163" s="557"/>
+      <c r="L163" s="557"/>
+      <c r="M163" s="557"/>
+      <c r="N163" s="557"/>
+      <c r="O163" s="557"/>
+      <c r="P163" s="557"/>
+      <c r="Q163" s="557"/>
+      <c r="R163" s="557"/>
+      <c r="S163" s="579"/>
+      <c r="T163" s="579"/>
+      <c r="U163" s="579"/>
+      <c r="V163" s="579"/>
+      <c r="W163" s="579"/>
+      <c r="X163" s="579"/>
+      <c r="Y163" s="579"/>
+      <c r="Z163" s="579"/>
+      <c r="AA163" s="579"/>
+      <c r="AB163" s="579"/>
+      <c r="AC163" s="579"/>
+      <c r="AD163" s="579"/>
+      <c r="AE163" s="579"/>
+      <c r="AF163" s="579"/>
+      <c r="AG163" s="579"/>
+      <c r="AH163" s="579"/>
     </row>
     <row r="164" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D164" s="614"/>
-      <c r="E164" s="573"/>
-      <c r="F164" s="576"/>
-      <c r="G164" s="576"/>
-      <c r="H164" s="576"/>
-      <c r="I164" s="576"/>
-      <c r="J164" s="577"/>
-      <c r="K164" s="605" t="s">
+      <c r="D164" s="542"/>
+      <c r="E164" s="545"/>
+      <c r="F164" s="546"/>
+      <c r="G164" s="546"/>
+      <c r="H164" s="546"/>
+      <c r="I164" s="546"/>
+      <c r="J164" s="547"/>
+      <c r="K164" s="556" t="s">
         <v>75</v>
       </c>
-      <c r="L164" s="606"/>
-      <c r="M164" s="606"/>
-      <c r="N164" s="606"/>
-      <c r="O164" s="606"/>
-      <c r="P164" s="606"/>
-      <c r="Q164" s="606"/>
-      <c r="R164" s="606"/>
-      <c r="S164" s="598" t="s">
+      <c r="L164" s="557"/>
+      <c r="M164" s="557"/>
+      <c r="N164" s="557"/>
+      <c r="O164" s="557"/>
+      <c r="P164" s="557"/>
+      <c r="Q164" s="557"/>
+      <c r="R164" s="557"/>
+      <c r="S164" s="579" t="s">
         <v>204</v>
       </c>
-      <c r="T164" s="598"/>
-      <c r="U164" s="598"/>
-      <c r="V164" s="598"/>
-      <c r="W164" s="598"/>
-      <c r="X164" s="598"/>
-      <c r="Y164" s="598"/>
-      <c r="Z164" s="598"/>
-      <c r="AA164" s="598"/>
-      <c r="AB164" s="598"/>
-      <c r="AC164" s="598"/>
-      <c r="AD164" s="598"/>
-      <c r="AE164" s="598"/>
-      <c r="AF164" s="598"/>
-      <c r="AG164" s="598"/>
-      <c r="AH164" s="598"/>
+      <c r="T164" s="579"/>
+      <c r="U164" s="579"/>
+      <c r="V164" s="579"/>
+      <c r="W164" s="579"/>
+      <c r="X164" s="579"/>
+      <c r="Y164" s="579"/>
+      <c r="Z164" s="579"/>
+      <c r="AA164" s="579"/>
+      <c r="AB164" s="579"/>
+      <c r="AC164" s="579"/>
+      <c r="AD164" s="579"/>
+      <c r="AE164" s="579"/>
+      <c r="AF164" s="579"/>
+      <c r="AG164" s="579"/>
+      <c r="AH164" s="579"/>
     </row>
     <row r="165" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D165" s="614"/>
-      <c r="E165" s="573" t="s">
+      <c r="D165" s="542"/>
+      <c r="E165" s="545" t="s">
         <v>237</v>
       </c>
-      <c r="F165" s="576"/>
-      <c r="G165" s="576"/>
-      <c r="H165" s="576"/>
-      <c r="I165" s="576"/>
-      <c r="J165" s="577"/>
-      <c r="K165" s="606" t="s">
+      <c r="F165" s="546"/>
+      <c r="G165" s="546"/>
+      <c r="H165" s="546"/>
+      <c r="I165" s="546"/>
+      <c r="J165" s="547"/>
+      <c r="K165" s="557" t="s">
         <v>71</v>
       </c>
-      <c r="L165" s="606"/>
-      <c r="M165" s="606"/>
-      <c r="N165" s="606"/>
-      <c r="O165" s="606"/>
-      <c r="P165" s="606"/>
-      <c r="Q165" s="606"/>
-      <c r="R165" s="606"/>
-      <c r="S165" s="589" t="s">
+      <c r="L165" s="557"/>
+      <c r="M165" s="557"/>
+      <c r="N165" s="557"/>
+      <c r="O165" s="557"/>
+      <c r="P165" s="557"/>
+      <c r="Q165" s="557"/>
+      <c r="R165" s="557"/>
+      <c r="S165" s="588" t="s">
         <v>202</v>
       </c>
-      <c r="T165" s="590"/>
-      <c r="U165" s="590"/>
-      <c r="V165" s="590"/>
-      <c r="W165" s="590"/>
-      <c r="X165" s="590"/>
-      <c r="Y165" s="590"/>
-      <c r="Z165" s="590"/>
-      <c r="AA165" s="590"/>
-      <c r="AB165" s="590"/>
-      <c r="AC165" s="590"/>
-      <c r="AD165" s="590"/>
-      <c r="AE165" s="590"/>
-      <c r="AF165" s="590"/>
-      <c r="AG165" s="590"/>
-      <c r="AH165" s="590"/>
+      <c r="T165" s="583"/>
+      <c r="U165" s="583"/>
+      <c r="V165" s="583"/>
+      <c r="W165" s="583"/>
+      <c r="X165" s="583"/>
+      <c r="Y165" s="583"/>
+      <c r="Z165" s="583"/>
+      <c r="AA165" s="583"/>
+      <c r="AB165" s="583"/>
+      <c r="AC165" s="583"/>
+      <c r="AD165" s="583"/>
+      <c r="AE165" s="583"/>
+      <c r="AF165" s="583"/>
+      <c r="AG165" s="583"/>
+      <c r="AH165" s="583"/>
     </row>
     <row r="166" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D166" s="614"/>
-      <c r="E166" s="573"/>
-      <c r="F166" s="576"/>
-      <c r="G166" s="576"/>
-      <c r="H166" s="576"/>
-      <c r="I166" s="576"/>
-      <c r="J166" s="577"/>
-      <c r="K166" s="606"/>
-      <c r="L166" s="606"/>
-      <c r="M166" s="606"/>
-      <c r="N166" s="606"/>
-      <c r="O166" s="606"/>
-      <c r="P166" s="606"/>
-      <c r="Q166" s="606"/>
-      <c r="R166" s="606"/>
-      <c r="S166" s="590"/>
-      <c r="T166" s="590"/>
-      <c r="U166" s="590"/>
-      <c r="V166" s="590"/>
-      <c r="W166" s="590"/>
-      <c r="X166" s="590"/>
-      <c r="Y166" s="590"/>
-      <c r="Z166" s="590"/>
-      <c r="AA166" s="590"/>
-      <c r="AB166" s="590"/>
-      <c r="AC166" s="590"/>
-      <c r="AD166" s="590"/>
-      <c r="AE166" s="590"/>
-      <c r="AF166" s="590"/>
-      <c r="AG166" s="590"/>
-      <c r="AH166" s="590"/>
+      <c r="D166" s="542"/>
+      <c r="E166" s="545"/>
+      <c r="F166" s="546"/>
+      <c r="G166" s="546"/>
+      <c r="H166" s="546"/>
+      <c r="I166" s="546"/>
+      <c r="J166" s="547"/>
+      <c r="K166" s="557"/>
+      <c r="L166" s="557"/>
+      <c r="M166" s="557"/>
+      <c r="N166" s="557"/>
+      <c r="O166" s="557"/>
+      <c r="P166" s="557"/>
+      <c r="Q166" s="557"/>
+      <c r="R166" s="557"/>
+      <c r="S166" s="583"/>
+      <c r="T166" s="583"/>
+      <c r="U166" s="583"/>
+      <c r="V166" s="583"/>
+      <c r="W166" s="583"/>
+      <c r="X166" s="583"/>
+      <c r="Y166" s="583"/>
+      <c r="Z166" s="583"/>
+      <c r="AA166" s="583"/>
+      <c r="AB166" s="583"/>
+      <c r="AC166" s="583"/>
+      <c r="AD166" s="583"/>
+      <c r="AE166" s="583"/>
+      <c r="AF166" s="583"/>
+      <c r="AG166" s="583"/>
+      <c r="AH166" s="583"/>
     </row>
     <row r="167" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D167" s="614"/>
-      <c r="E167" s="573"/>
-      <c r="F167" s="576"/>
-      <c r="G167" s="576"/>
-      <c r="H167" s="576"/>
-      <c r="I167" s="576"/>
-      <c r="J167" s="577"/>
-      <c r="K167" s="606"/>
-      <c r="L167" s="606"/>
-      <c r="M167" s="606"/>
-      <c r="N167" s="606"/>
-      <c r="O167" s="606"/>
-      <c r="P167" s="606"/>
-      <c r="Q167" s="606"/>
-      <c r="R167" s="606"/>
-      <c r="S167" s="590"/>
-      <c r="T167" s="590"/>
-      <c r="U167" s="590"/>
-      <c r="V167" s="590"/>
-      <c r="W167" s="590"/>
-      <c r="X167" s="590"/>
-      <c r="Y167" s="590"/>
-      <c r="Z167" s="590"/>
-      <c r="AA167" s="590"/>
-      <c r="AB167" s="590"/>
-      <c r="AC167" s="590"/>
-      <c r="AD167" s="590"/>
-      <c r="AE167" s="590"/>
-      <c r="AF167" s="590"/>
-      <c r="AG167" s="590"/>
-      <c r="AH167" s="590"/>
+      <c r="D167" s="542"/>
+      <c r="E167" s="545"/>
+      <c r="F167" s="546"/>
+      <c r="G167" s="546"/>
+      <c r="H167" s="546"/>
+      <c r="I167" s="546"/>
+      <c r="J167" s="547"/>
+      <c r="K167" s="557"/>
+      <c r="L167" s="557"/>
+      <c r="M167" s="557"/>
+      <c r="N167" s="557"/>
+      <c r="O167" s="557"/>
+      <c r="P167" s="557"/>
+      <c r="Q167" s="557"/>
+      <c r="R167" s="557"/>
+      <c r="S167" s="583"/>
+      <c r="T167" s="583"/>
+      <c r="U167" s="583"/>
+      <c r="V167" s="583"/>
+      <c r="W167" s="583"/>
+      <c r="X167" s="583"/>
+      <c r="Y167" s="583"/>
+      <c r="Z167" s="583"/>
+      <c r="AA167" s="583"/>
+      <c r="AB167" s="583"/>
+      <c r="AC167" s="583"/>
+      <c r="AD167" s="583"/>
+      <c r="AE167" s="583"/>
+      <c r="AF167" s="583"/>
+      <c r="AG167" s="583"/>
+      <c r="AH167" s="583"/>
     </row>
     <row r="168" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D168" s="614"/>
-      <c r="E168" s="573"/>
-      <c r="F168" s="576"/>
-      <c r="G168" s="576"/>
-      <c r="H168" s="576"/>
-      <c r="I168" s="576"/>
-      <c r="J168" s="577"/>
-      <c r="K168" s="606"/>
-      <c r="L168" s="606"/>
-      <c r="M168" s="606"/>
-      <c r="N168" s="606"/>
-      <c r="O168" s="606"/>
-      <c r="P168" s="606"/>
-      <c r="Q168" s="606"/>
-      <c r="R168" s="606"/>
-      <c r="S168" s="590"/>
-      <c r="T168" s="590"/>
-      <c r="U168" s="590"/>
-      <c r="V168" s="590"/>
-      <c r="W168" s="590"/>
-      <c r="X168" s="590"/>
-      <c r="Y168" s="590"/>
-      <c r="Z168" s="590"/>
-      <c r="AA168" s="590"/>
-      <c r="AB168" s="590"/>
-      <c r="AC168" s="590"/>
-      <c r="AD168" s="590"/>
-      <c r="AE168" s="590"/>
-      <c r="AF168" s="590"/>
-      <c r="AG168" s="590"/>
-      <c r="AH168" s="590"/>
+      <c r="D168" s="542"/>
+      <c r="E168" s="545"/>
+      <c r="F168" s="546"/>
+      <c r="G168" s="546"/>
+      <c r="H168" s="546"/>
+      <c r="I168" s="546"/>
+      <c r="J168" s="547"/>
+      <c r="K168" s="557"/>
+      <c r="L168" s="557"/>
+      <c r="M168" s="557"/>
+      <c r="N168" s="557"/>
+      <c r="O168" s="557"/>
+      <c r="P168" s="557"/>
+      <c r="Q168" s="557"/>
+      <c r="R168" s="557"/>
+      <c r="S168" s="583"/>
+      <c r="T168" s="583"/>
+      <c r="U168" s="583"/>
+      <c r="V168" s="583"/>
+      <c r="W168" s="583"/>
+      <c r="X168" s="583"/>
+      <c r="Y168" s="583"/>
+      <c r="Z168" s="583"/>
+      <c r="AA168" s="583"/>
+      <c r="AB168" s="583"/>
+      <c r="AC168" s="583"/>
+      <c r="AD168" s="583"/>
+      <c r="AE168" s="583"/>
+      <c r="AF168" s="583"/>
+      <c r="AG168" s="583"/>
+      <c r="AH168" s="583"/>
     </row>
     <row r="169" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D169" s="614"/>
-      <c r="E169" s="573"/>
-      <c r="F169" s="576"/>
-      <c r="G169" s="576"/>
-      <c r="H169" s="576"/>
-      <c r="I169" s="576"/>
-      <c r="J169" s="577"/>
-      <c r="K169" s="606"/>
-      <c r="L169" s="606"/>
-      <c r="M169" s="606"/>
-      <c r="N169" s="606"/>
-      <c r="O169" s="606"/>
-      <c r="P169" s="606"/>
-      <c r="Q169" s="606"/>
-      <c r="R169" s="606"/>
-      <c r="S169" s="590"/>
-      <c r="T169" s="590"/>
-      <c r="U169" s="590"/>
-      <c r="V169" s="590"/>
-      <c r="W169" s="590"/>
-      <c r="X169" s="590"/>
-      <c r="Y169" s="590"/>
-      <c r="Z169" s="590"/>
-      <c r="AA169" s="590"/>
-      <c r="AB169" s="590"/>
-      <c r="AC169" s="590"/>
-      <c r="AD169" s="590"/>
-      <c r="AE169" s="590"/>
-      <c r="AF169" s="590"/>
-      <c r="AG169" s="590"/>
-      <c r="AH169" s="590"/>
+      <c r="D169" s="542"/>
+      <c r="E169" s="545"/>
+      <c r="F169" s="546"/>
+      <c r="G169" s="546"/>
+      <c r="H169" s="546"/>
+      <c r="I169" s="546"/>
+      <c r="J169" s="547"/>
+      <c r="K169" s="557"/>
+      <c r="L169" s="557"/>
+      <c r="M169" s="557"/>
+      <c r="N169" s="557"/>
+      <c r="O169" s="557"/>
+      <c r="P169" s="557"/>
+      <c r="Q169" s="557"/>
+      <c r="R169" s="557"/>
+      <c r="S169" s="583"/>
+      <c r="T169" s="583"/>
+      <c r="U169" s="583"/>
+      <c r="V169" s="583"/>
+      <c r="W169" s="583"/>
+      <c r="X169" s="583"/>
+      <c r="Y169" s="583"/>
+      <c r="Z169" s="583"/>
+      <c r="AA169" s="583"/>
+      <c r="AB169" s="583"/>
+      <c r="AC169" s="583"/>
+      <c r="AD169" s="583"/>
+      <c r="AE169" s="583"/>
+      <c r="AF169" s="583"/>
+      <c r="AG169" s="583"/>
+      <c r="AH169" s="583"/>
     </row>
     <row r="170" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D170" s="614"/>
-      <c r="E170" s="573"/>
-      <c r="F170" s="576"/>
-      <c r="G170" s="576"/>
-      <c r="H170" s="576"/>
-      <c r="I170" s="576"/>
-      <c r="J170" s="577"/>
-      <c r="K170" s="606"/>
-      <c r="L170" s="606"/>
-      <c r="M170" s="606"/>
-      <c r="N170" s="606"/>
-      <c r="O170" s="606"/>
-      <c r="P170" s="606"/>
-      <c r="Q170" s="606"/>
-      <c r="R170" s="606"/>
-      <c r="S170" s="590"/>
-      <c r="T170" s="590"/>
-      <c r="U170" s="590"/>
-      <c r="V170" s="590"/>
-      <c r="W170" s="590"/>
-      <c r="X170" s="590"/>
-      <c r="Y170" s="590"/>
-      <c r="Z170" s="590"/>
-      <c r="AA170" s="590"/>
-      <c r="AB170" s="590"/>
-      <c r="AC170" s="590"/>
-      <c r="AD170" s="590"/>
-      <c r="AE170" s="590"/>
-      <c r="AF170" s="590"/>
-      <c r="AG170" s="590"/>
-      <c r="AH170" s="590"/>
+      <c r="D170" s="542"/>
+      <c r="E170" s="545"/>
+      <c r="F170" s="546"/>
+      <c r="G170" s="546"/>
+      <c r="H170" s="546"/>
+      <c r="I170" s="546"/>
+      <c r="J170" s="547"/>
+      <c r="K170" s="557"/>
+      <c r="L170" s="557"/>
+      <c r="M170" s="557"/>
+      <c r="N170" s="557"/>
+      <c r="O170" s="557"/>
+      <c r="P170" s="557"/>
+      <c r="Q170" s="557"/>
+      <c r="R170" s="557"/>
+      <c r="S170" s="583"/>
+      <c r="T170" s="583"/>
+      <c r="U170" s="583"/>
+      <c r="V170" s="583"/>
+      <c r="W170" s="583"/>
+      <c r="X170" s="583"/>
+      <c r="Y170" s="583"/>
+      <c r="Z170" s="583"/>
+      <c r="AA170" s="583"/>
+      <c r="AB170" s="583"/>
+      <c r="AC170" s="583"/>
+      <c r="AD170" s="583"/>
+      <c r="AE170" s="583"/>
+      <c r="AF170" s="583"/>
+      <c r="AG170" s="583"/>
+      <c r="AH170" s="583"/>
     </row>
     <row r="171" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D171" s="614"/>
-      <c r="E171" s="573"/>
-      <c r="F171" s="576"/>
-      <c r="G171" s="576"/>
-      <c r="H171" s="576"/>
-      <c r="I171" s="576"/>
-      <c r="J171" s="577"/>
-      <c r="K171" s="606"/>
-      <c r="L171" s="606"/>
-      <c r="M171" s="606"/>
-      <c r="N171" s="606"/>
-      <c r="O171" s="606"/>
-      <c r="P171" s="606"/>
-      <c r="Q171" s="606"/>
-      <c r="R171" s="606"/>
-      <c r="S171" s="590"/>
-      <c r="T171" s="590"/>
-      <c r="U171" s="590"/>
-      <c r="V171" s="590"/>
-      <c r="W171" s="590"/>
-      <c r="X171" s="590"/>
-      <c r="Y171" s="590"/>
-      <c r="Z171" s="590"/>
-      <c r="AA171" s="590"/>
-      <c r="AB171" s="590"/>
-      <c r="AC171" s="590"/>
-      <c r="AD171" s="590"/>
-      <c r="AE171" s="590"/>
-      <c r="AF171" s="590"/>
-      <c r="AG171" s="590"/>
-      <c r="AH171" s="590"/>
+      <c r="D171" s="542"/>
+      <c r="E171" s="545"/>
+      <c r="F171" s="546"/>
+      <c r="G171" s="546"/>
+      <c r="H171" s="546"/>
+      <c r="I171" s="546"/>
+      <c r="J171" s="547"/>
+      <c r="K171" s="557"/>
+      <c r="L171" s="557"/>
+      <c r="M171" s="557"/>
+      <c r="N171" s="557"/>
+      <c r="O171" s="557"/>
+      <c r="P171" s="557"/>
+      <c r="Q171" s="557"/>
+      <c r="R171" s="557"/>
+      <c r="S171" s="583"/>
+      <c r="T171" s="583"/>
+      <c r="U171" s="583"/>
+      <c r="V171" s="583"/>
+      <c r="W171" s="583"/>
+      <c r="X171" s="583"/>
+      <c r="Y171" s="583"/>
+      <c r="Z171" s="583"/>
+      <c r="AA171" s="583"/>
+      <c r="AB171" s="583"/>
+      <c r="AC171" s="583"/>
+      <c r="AD171" s="583"/>
+      <c r="AE171" s="583"/>
+      <c r="AF171" s="583"/>
+      <c r="AG171" s="583"/>
+      <c r="AH171" s="583"/>
     </row>
     <row r="172" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D172" s="615"/>
-      <c r="E172" s="573"/>
-      <c r="F172" s="576"/>
-      <c r="G172" s="576"/>
-      <c r="H172" s="576"/>
-      <c r="I172" s="576"/>
-      <c r="J172" s="577"/>
-      <c r="K172" s="606"/>
-      <c r="L172" s="606"/>
-      <c r="M172" s="606"/>
-      <c r="N172" s="606"/>
-      <c r="O172" s="606"/>
-      <c r="P172" s="606"/>
-      <c r="Q172" s="606"/>
-      <c r="R172" s="606"/>
-      <c r="S172" s="590"/>
-      <c r="T172" s="590"/>
-      <c r="U172" s="590"/>
-      <c r="V172" s="590"/>
-      <c r="W172" s="590"/>
-      <c r="X172" s="590"/>
-      <c r="Y172" s="590"/>
-      <c r="Z172" s="590"/>
-      <c r="AA172" s="590"/>
-      <c r="AB172" s="590"/>
-      <c r="AC172" s="590"/>
-      <c r="AD172" s="590"/>
-      <c r="AE172" s="590"/>
-      <c r="AF172" s="590"/>
-      <c r="AG172" s="590"/>
-      <c r="AH172" s="590"/>
+      <c r="D172" s="543"/>
+      <c r="E172" s="545"/>
+      <c r="F172" s="546"/>
+      <c r="G172" s="546"/>
+      <c r="H172" s="546"/>
+      <c r="I172" s="546"/>
+      <c r="J172" s="547"/>
+      <c r="K172" s="557"/>
+      <c r="L172" s="557"/>
+      <c r="M172" s="557"/>
+      <c r="N172" s="557"/>
+      <c r="O172" s="557"/>
+      <c r="P172" s="557"/>
+      <c r="Q172" s="557"/>
+      <c r="R172" s="557"/>
+      <c r="S172" s="583"/>
+      <c r="T172" s="583"/>
+      <c r="U172" s="583"/>
+      <c r="V172" s="583"/>
+      <c r="W172" s="583"/>
+      <c r="X172" s="583"/>
+      <c r="Y172" s="583"/>
+      <c r="Z172" s="583"/>
+      <c r="AA172" s="583"/>
+      <c r="AB172" s="583"/>
+      <c r="AC172" s="583"/>
+      <c r="AD172" s="583"/>
+      <c r="AE172" s="583"/>
+      <c r="AF172" s="583"/>
+      <c r="AG172" s="583"/>
+      <c r="AH172" s="583"/>
     </row>
     <row r="173" spans="1:34" s="91" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D173" s="89"/>
@@ -40979,837 +40997,837 @@
     </row>
     <row r="183" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="50"/>
-      <c r="F183" s="578" t="s">
+      <c r="F183" s="596" t="s">
         <v>44</v>
       </c>
-      <c r="G183" s="579"/>
-      <c r="H183" s="579"/>
-      <c r="I183" s="579"/>
-      <c r="J183" s="580"/>
-      <c r="K183" s="587" t="s">
+      <c r="G183" s="548"/>
+      <c r="H183" s="548"/>
+      <c r="I183" s="548"/>
+      <c r="J183" s="549"/>
+      <c r="K183" s="577" t="s">
         <v>30</v>
       </c>
-      <c r="L183" s="588"/>
-      <c r="M183" s="587" t="s">
+      <c r="L183" s="578"/>
+      <c r="M183" s="577" t="s">
         <v>46</v>
       </c>
-      <c r="N183" s="588"/>
-      <c r="O183" s="578" t="s">
+      <c r="N183" s="578"/>
+      <c r="O183" s="596" t="s">
         <v>45</v>
       </c>
-      <c r="P183" s="579"/>
-      <c r="Q183" s="579"/>
-      <c r="R183" s="579"/>
-      <c r="S183" s="579"/>
-      <c r="T183" s="579"/>
-      <c r="U183" s="579"/>
-      <c r="V183" s="579"/>
-      <c r="W183" s="579"/>
-      <c r="X183" s="579"/>
-      <c r="Y183" s="579"/>
-      <c r="Z183" s="579"/>
-      <c r="AA183" s="579"/>
-      <c r="AB183" s="579"/>
-      <c r="AC183" s="579"/>
-      <c r="AD183" s="579"/>
-      <c r="AE183" s="579"/>
-      <c r="AF183" s="579"/>
-      <c r="AG183" s="579"/>
-      <c r="AH183" s="580"/>
+      <c r="P183" s="548"/>
+      <c r="Q183" s="548"/>
+      <c r="R183" s="548"/>
+      <c r="S183" s="548"/>
+      <c r="T183" s="548"/>
+      <c r="U183" s="548"/>
+      <c r="V183" s="548"/>
+      <c r="W183" s="548"/>
+      <c r="X183" s="548"/>
+      <c r="Y183" s="548"/>
+      <c r="Z183" s="548"/>
+      <c r="AA183" s="548"/>
+      <c r="AB183" s="548"/>
+      <c r="AC183" s="548"/>
+      <c r="AD183" s="548"/>
+      <c r="AE183" s="548"/>
+      <c r="AF183" s="548"/>
+      <c r="AG183" s="548"/>
+      <c r="AH183" s="549"/>
     </row>
     <row r="184" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="50"/>
-      <c r="F184" s="561" t="s">
+      <c r="F184" s="550" t="s">
         <v>205</v>
       </c>
-      <c r="G184" s="501"/>
-      <c r="H184" s="501"/>
-      <c r="I184" s="501"/>
-      <c r="J184" s="502"/>
-      <c r="K184" s="581" t="s">
+      <c r="G184" s="474"/>
+      <c r="H184" s="474"/>
+      <c r="I184" s="474"/>
+      <c r="J184" s="475"/>
+      <c r="K184" s="576" t="s">
         <v>32</v>
       </c>
-      <c r="L184" s="514"/>
-      <c r="M184" s="607" t="s">
+      <c r="L184" s="517"/>
+      <c r="M184" s="572" t="s">
         <v>221</v>
       </c>
-      <c r="N184" s="610"/>
-      <c r="O184" s="503" t="s">
+      <c r="N184" s="573"/>
+      <c r="O184" s="476" t="s">
         <v>226</v>
       </c>
-      <c r="P184" s="595"/>
-      <c r="Q184" s="595"/>
-      <c r="R184" s="595"/>
-      <c r="S184" s="595"/>
-      <c r="T184" s="595"/>
-      <c r="U184" s="595"/>
-      <c r="V184" s="595"/>
-      <c r="W184" s="595"/>
-      <c r="X184" s="595"/>
-      <c r="Y184" s="595"/>
-      <c r="Z184" s="595"/>
-      <c r="AA184" s="595"/>
-      <c r="AB184" s="595"/>
-      <c r="AC184" s="595"/>
-      <c r="AD184" s="595"/>
-      <c r="AE184" s="595"/>
-      <c r="AF184" s="595"/>
-      <c r="AG184" s="595"/>
-      <c r="AH184" s="596"/>
+      <c r="P184" s="597"/>
+      <c r="Q184" s="597"/>
+      <c r="R184" s="597"/>
+      <c r="S184" s="597"/>
+      <c r="T184" s="597"/>
+      <c r="U184" s="597"/>
+      <c r="V184" s="597"/>
+      <c r="W184" s="597"/>
+      <c r="X184" s="597"/>
+      <c r="Y184" s="597"/>
+      <c r="Z184" s="597"/>
+      <c r="AA184" s="597"/>
+      <c r="AB184" s="597"/>
+      <c r="AC184" s="597"/>
+      <c r="AD184" s="597"/>
+      <c r="AE184" s="597"/>
+      <c r="AF184" s="597"/>
+      <c r="AG184" s="597"/>
+      <c r="AH184" s="598"/>
     </row>
     <row r="185" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="50"/>
-      <c r="F185" s="512" t="s">
+      <c r="F185" s="515" t="s">
         <v>222</v>
       </c>
-      <c r="G185" s="513"/>
-      <c r="H185" s="513"/>
-      <c r="I185" s="513"/>
-      <c r="J185" s="514"/>
-      <c r="K185" s="581" t="s">
+      <c r="G185" s="516"/>
+      <c r="H185" s="516"/>
+      <c r="I185" s="516"/>
+      <c r="J185" s="517"/>
+      <c r="K185" s="576" t="s">
         <v>47</v>
       </c>
-      <c r="L185" s="514"/>
-      <c r="M185" s="522" t="s">
+      <c r="L185" s="517"/>
+      <c r="M185" s="525" t="s">
         <v>248</v>
       </c>
-      <c r="N185" s="611"/>
-      <c r="O185" s="512" t="s">
+      <c r="N185" s="574"/>
+      <c r="O185" s="515" t="s">
         <v>225</v>
       </c>
-      <c r="P185" s="513"/>
-      <c r="Q185" s="513"/>
-      <c r="R185" s="513"/>
-      <c r="S185" s="513"/>
-      <c r="T185" s="513"/>
-      <c r="U185" s="513"/>
-      <c r="V185" s="513"/>
-      <c r="W185" s="513"/>
-      <c r="X185" s="513"/>
-      <c r="Y185" s="513"/>
-      <c r="Z185" s="513"/>
-      <c r="AA185" s="513"/>
-      <c r="AB185" s="513"/>
-      <c r="AC185" s="513"/>
-      <c r="AD185" s="513"/>
-      <c r="AE185" s="513"/>
-      <c r="AF185" s="513"/>
-      <c r="AG185" s="513"/>
-      <c r="AH185" s="514"/>
+      <c r="P185" s="516"/>
+      <c r="Q185" s="516"/>
+      <c r="R185" s="516"/>
+      <c r="S185" s="516"/>
+      <c r="T185" s="516"/>
+      <c r="U185" s="516"/>
+      <c r="V185" s="516"/>
+      <c r="W185" s="516"/>
+      <c r="X185" s="516"/>
+      <c r="Y185" s="516"/>
+      <c r="Z185" s="516"/>
+      <c r="AA185" s="516"/>
+      <c r="AB185" s="516"/>
+      <c r="AC185" s="516"/>
+      <c r="AD185" s="516"/>
+      <c r="AE185" s="516"/>
+      <c r="AF185" s="516"/>
+      <c r="AG185" s="516"/>
+      <c r="AH185" s="517"/>
     </row>
     <row r="186" spans="1:34" s="94" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="50"/>
-      <c r="F186" s="521"/>
-      <c r="G186" s="516"/>
-      <c r="H186" s="516"/>
-      <c r="I186" s="516"/>
-      <c r="J186" s="517"/>
-      <c r="K186" s="515"/>
-      <c r="L186" s="517"/>
-      <c r="M186" s="612"/>
-      <c r="N186" s="584"/>
-      <c r="O186" s="521"/>
-      <c r="P186" s="516"/>
-      <c r="Q186" s="516"/>
-      <c r="R186" s="516"/>
-      <c r="S186" s="516"/>
-      <c r="T186" s="516"/>
-      <c r="U186" s="516"/>
-      <c r="V186" s="516"/>
-      <c r="W186" s="516"/>
-      <c r="X186" s="516"/>
-      <c r="Y186" s="516"/>
-      <c r="Z186" s="516"/>
-      <c r="AA186" s="516"/>
-      <c r="AB186" s="516"/>
-      <c r="AC186" s="516"/>
-      <c r="AD186" s="516"/>
-      <c r="AE186" s="516"/>
-      <c r="AF186" s="516"/>
-      <c r="AG186" s="516"/>
-      <c r="AH186" s="517"/>
+      <c r="F186" s="524"/>
+      <c r="G186" s="519"/>
+      <c r="H186" s="519"/>
+      <c r="I186" s="519"/>
+      <c r="J186" s="520"/>
+      <c r="K186" s="518"/>
+      <c r="L186" s="520"/>
+      <c r="M186" s="575"/>
+      <c r="N186" s="564"/>
+      <c r="O186" s="524"/>
+      <c r="P186" s="519"/>
+      <c r="Q186" s="519"/>
+      <c r="R186" s="519"/>
+      <c r="S186" s="519"/>
+      <c r="T186" s="519"/>
+      <c r="U186" s="519"/>
+      <c r="V186" s="519"/>
+      <c r="W186" s="519"/>
+      <c r="X186" s="519"/>
+      <c r="Y186" s="519"/>
+      <c r="Z186" s="519"/>
+      <c r="AA186" s="519"/>
+      <c r="AB186" s="519"/>
+      <c r="AC186" s="519"/>
+      <c r="AD186" s="519"/>
+      <c r="AE186" s="519"/>
+      <c r="AF186" s="519"/>
+      <c r="AG186" s="519"/>
+      <c r="AH186" s="520"/>
     </row>
     <row r="187" spans="1:34" s="94" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="50"/>
-      <c r="F187" s="521"/>
-      <c r="G187" s="516"/>
-      <c r="H187" s="516"/>
-      <c r="I187" s="516"/>
-      <c r="J187" s="517"/>
-      <c r="K187" s="515"/>
-      <c r="L187" s="517"/>
-      <c r="M187" s="612"/>
-      <c r="N187" s="584"/>
-      <c r="O187" s="521"/>
-      <c r="P187" s="516"/>
-      <c r="Q187" s="516"/>
-      <c r="R187" s="516"/>
-      <c r="S187" s="516"/>
-      <c r="T187" s="516"/>
-      <c r="U187" s="516"/>
-      <c r="V187" s="516"/>
-      <c r="W187" s="516"/>
-      <c r="X187" s="516"/>
-      <c r="Y187" s="516"/>
-      <c r="Z187" s="516"/>
-      <c r="AA187" s="516"/>
-      <c r="AB187" s="516"/>
-      <c r="AC187" s="516"/>
-      <c r="AD187" s="516"/>
-      <c r="AE187" s="516"/>
-      <c r="AF187" s="516"/>
-      <c r="AG187" s="516"/>
-      <c r="AH187" s="517"/>
+      <c r="F187" s="524"/>
+      <c r="G187" s="519"/>
+      <c r="H187" s="519"/>
+      <c r="I187" s="519"/>
+      <c r="J187" s="520"/>
+      <c r="K187" s="518"/>
+      <c r="L187" s="520"/>
+      <c r="M187" s="575"/>
+      <c r="N187" s="564"/>
+      <c r="O187" s="524"/>
+      <c r="P187" s="519"/>
+      <c r="Q187" s="519"/>
+      <c r="R187" s="519"/>
+      <c r="S187" s="519"/>
+      <c r="T187" s="519"/>
+      <c r="U187" s="519"/>
+      <c r="V187" s="519"/>
+      <c r="W187" s="519"/>
+      <c r="X187" s="519"/>
+      <c r="Y187" s="519"/>
+      <c r="Z187" s="519"/>
+      <c r="AA187" s="519"/>
+      <c r="AB187" s="519"/>
+      <c r="AC187" s="519"/>
+      <c r="AD187" s="519"/>
+      <c r="AE187" s="519"/>
+      <c r="AF187" s="519"/>
+      <c r="AG187" s="519"/>
+      <c r="AH187" s="520"/>
     </row>
     <row r="188" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="50"/>
-      <c r="F188" s="518"/>
-      <c r="G188" s="519"/>
-      <c r="H188" s="519"/>
-      <c r="I188" s="519"/>
-      <c r="J188" s="520"/>
-      <c r="K188" s="518"/>
-      <c r="L188" s="520"/>
-      <c r="M188" s="558"/>
-      <c r="N188" s="560"/>
-      <c r="O188" s="518"/>
-      <c r="P188" s="519"/>
-      <c r="Q188" s="519"/>
-      <c r="R188" s="519"/>
-      <c r="S188" s="519"/>
-      <c r="T188" s="519"/>
-      <c r="U188" s="519"/>
-      <c r="V188" s="519"/>
-      <c r="W188" s="519"/>
-      <c r="X188" s="519"/>
-      <c r="Y188" s="519"/>
-      <c r="Z188" s="519"/>
-      <c r="AA188" s="519"/>
-      <c r="AB188" s="519"/>
-      <c r="AC188" s="519"/>
-      <c r="AD188" s="519"/>
-      <c r="AE188" s="519"/>
-      <c r="AF188" s="519"/>
-      <c r="AG188" s="519"/>
-      <c r="AH188" s="520"/>
+      <c r="F188" s="521"/>
+      <c r="G188" s="522"/>
+      <c r="H188" s="522"/>
+      <c r="I188" s="522"/>
+      <c r="J188" s="523"/>
+      <c r="K188" s="521"/>
+      <c r="L188" s="523"/>
+      <c r="M188" s="565"/>
+      <c r="N188" s="567"/>
+      <c r="O188" s="521"/>
+      <c r="P188" s="522"/>
+      <c r="Q188" s="522"/>
+      <c r="R188" s="522"/>
+      <c r="S188" s="522"/>
+      <c r="T188" s="522"/>
+      <c r="U188" s="522"/>
+      <c r="V188" s="522"/>
+      <c r="W188" s="522"/>
+      <c r="X188" s="522"/>
+      <c r="Y188" s="522"/>
+      <c r="Z188" s="522"/>
+      <c r="AA188" s="522"/>
+      <c r="AB188" s="522"/>
+      <c r="AC188" s="522"/>
+      <c r="AD188" s="522"/>
+      <c r="AE188" s="522"/>
+      <c r="AF188" s="522"/>
+      <c r="AG188" s="522"/>
+      <c r="AH188" s="523"/>
     </row>
     <row r="189" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="50"/>
-      <c r="F189" s="581" t="s">
+      <c r="F189" s="576" t="s">
         <v>48</v>
       </c>
-      <c r="G189" s="513"/>
-      <c r="H189" s="513"/>
-      <c r="I189" s="513"/>
-      <c r="J189" s="514"/>
-      <c r="K189" s="581" t="s">
+      <c r="G189" s="516"/>
+      <c r="H189" s="516"/>
+      <c r="I189" s="516"/>
+      <c r="J189" s="517"/>
+      <c r="K189" s="576" t="s">
         <v>47</v>
       </c>
-      <c r="L189" s="514"/>
-      <c r="M189" s="581" t="s">
+      <c r="L189" s="517"/>
+      <c r="M189" s="576" t="s">
         <v>49</v>
       </c>
-      <c r="N189" s="611"/>
-      <c r="O189" s="522" t="s">
+      <c r="N189" s="574"/>
+      <c r="O189" s="525" t="s">
         <v>229</v>
       </c>
-      <c r="P189" s="556"/>
-      <c r="Q189" s="556"/>
-      <c r="R189" s="556"/>
-      <c r="S189" s="556"/>
-      <c r="T189" s="556"/>
-      <c r="U189" s="556"/>
-      <c r="V189" s="556"/>
-      <c r="W189" s="556"/>
-      <c r="X189" s="556"/>
-      <c r="Y189" s="556"/>
-      <c r="Z189" s="556"/>
-      <c r="AA189" s="556"/>
-      <c r="AB189" s="556"/>
-      <c r="AC189" s="556"/>
-      <c r="AD189" s="556"/>
-      <c r="AE189" s="556"/>
-      <c r="AF189" s="556"/>
-      <c r="AG189" s="556"/>
-      <c r="AH189" s="557"/>
+      <c r="P189" s="560"/>
+      <c r="Q189" s="560"/>
+      <c r="R189" s="560"/>
+      <c r="S189" s="560"/>
+      <c r="T189" s="560"/>
+      <c r="U189" s="560"/>
+      <c r="V189" s="560"/>
+      <c r="W189" s="560"/>
+      <c r="X189" s="560"/>
+      <c r="Y189" s="560"/>
+      <c r="Z189" s="560"/>
+      <c r="AA189" s="560"/>
+      <c r="AB189" s="560"/>
+      <c r="AC189" s="560"/>
+      <c r="AD189" s="560"/>
+      <c r="AE189" s="560"/>
+      <c r="AF189" s="560"/>
+      <c r="AG189" s="560"/>
+      <c r="AH189" s="561"/>
     </row>
     <row r="190" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="50"/>
-      <c r="F190" s="512" t="s">
+      <c r="F190" s="515" t="s">
         <v>206</v>
       </c>
-      <c r="G190" s="513"/>
-      <c r="H190" s="513"/>
-      <c r="I190" s="513"/>
-      <c r="J190" s="514"/>
-      <c r="K190" s="581" t="s">
+      <c r="G190" s="516"/>
+      <c r="H190" s="516"/>
+      <c r="I190" s="516"/>
+      <c r="J190" s="517"/>
+      <c r="K190" s="576" t="s">
         <v>47</v>
       </c>
-      <c r="L190" s="514"/>
-      <c r="M190" s="581" t="s">
+      <c r="L190" s="517"/>
+      <c r="M190" s="576" t="s">
         <v>76</v>
       </c>
-      <c r="N190" s="611"/>
-      <c r="O190" s="522" t="s">
+      <c r="N190" s="574"/>
+      <c r="O190" s="525" t="s">
         <v>230</v>
       </c>
-      <c r="P190" s="556"/>
-      <c r="Q190" s="556"/>
-      <c r="R190" s="556"/>
-      <c r="S190" s="556"/>
-      <c r="T190" s="556"/>
-      <c r="U190" s="556"/>
-      <c r="V190" s="556"/>
-      <c r="W190" s="556"/>
-      <c r="X190" s="556"/>
-      <c r="Y190" s="556"/>
-      <c r="Z190" s="556"/>
-      <c r="AA190" s="556"/>
-      <c r="AB190" s="556"/>
-      <c r="AC190" s="556"/>
-      <c r="AD190" s="556"/>
-      <c r="AE190" s="556"/>
-      <c r="AF190" s="556"/>
-      <c r="AG190" s="556"/>
-      <c r="AH190" s="557"/>
+      <c r="P190" s="560"/>
+      <c r="Q190" s="560"/>
+      <c r="R190" s="560"/>
+      <c r="S190" s="560"/>
+      <c r="T190" s="560"/>
+      <c r="U190" s="560"/>
+      <c r="V190" s="560"/>
+      <c r="W190" s="560"/>
+      <c r="X190" s="560"/>
+      <c r="Y190" s="560"/>
+      <c r="Z190" s="560"/>
+      <c r="AA190" s="560"/>
+      <c r="AB190" s="560"/>
+      <c r="AC190" s="560"/>
+      <c r="AD190" s="560"/>
+      <c r="AE190" s="560"/>
+      <c r="AF190" s="560"/>
+      <c r="AG190" s="560"/>
+      <c r="AH190" s="561"/>
     </row>
     <row r="191" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="50"/>
-      <c r="F191" s="582"/>
-      <c r="G191" s="583"/>
-      <c r="H191" s="583"/>
-      <c r="I191" s="583"/>
-      <c r="J191" s="584"/>
-      <c r="K191" s="515"/>
-      <c r="L191" s="517"/>
-      <c r="M191" s="582"/>
-      <c r="N191" s="584"/>
-      <c r="O191" s="582"/>
-      <c r="P191" s="583"/>
-      <c r="Q191" s="583"/>
-      <c r="R191" s="583"/>
-      <c r="S191" s="583"/>
-      <c r="T191" s="583"/>
-      <c r="U191" s="583"/>
-      <c r="V191" s="583"/>
-      <c r="W191" s="583"/>
-      <c r="X191" s="583"/>
-      <c r="Y191" s="583"/>
-      <c r="Z191" s="583"/>
-      <c r="AA191" s="583"/>
-      <c r="AB191" s="583"/>
-      <c r="AC191" s="583"/>
-      <c r="AD191" s="583"/>
-      <c r="AE191" s="583"/>
-      <c r="AF191" s="583"/>
-      <c r="AG191" s="583"/>
-      <c r="AH191" s="584"/>
+      <c r="F191" s="562"/>
+      <c r="G191" s="563"/>
+      <c r="H191" s="563"/>
+      <c r="I191" s="563"/>
+      <c r="J191" s="564"/>
+      <c r="K191" s="518"/>
+      <c r="L191" s="520"/>
+      <c r="M191" s="562"/>
+      <c r="N191" s="564"/>
+      <c r="O191" s="562"/>
+      <c r="P191" s="563"/>
+      <c r="Q191" s="563"/>
+      <c r="R191" s="563"/>
+      <c r="S191" s="563"/>
+      <c r="T191" s="563"/>
+      <c r="U191" s="563"/>
+      <c r="V191" s="563"/>
+      <c r="W191" s="563"/>
+      <c r="X191" s="563"/>
+      <c r="Y191" s="563"/>
+      <c r="Z191" s="563"/>
+      <c r="AA191" s="563"/>
+      <c r="AB191" s="563"/>
+      <c r="AC191" s="563"/>
+      <c r="AD191" s="563"/>
+      <c r="AE191" s="563"/>
+      <c r="AF191" s="563"/>
+      <c r="AG191" s="563"/>
+      <c r="AH191" s="564"/>
     </row>
     <row r="192" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="50"/>
-      <c r="F192" s="582"/>
-      <c r="G192" s="583"/>
-      <c r="H192" s="583"/>
-      <c r="I192" s="583"/>
-      <c r="J192" s="584"/>
-      <c r="K192" s="515"/>
-      <c r="L192" s="517"/>
-      <c r="M192" s="582"/>
-      <c r="N192" s="584"/>
-      <c r="O192" s="582"/>
-      <c r="P192" s="583"/>
-      <c r="Q192" s="583"/>
-      <c r="R192" s="583"/>
-      <c r="S192" s="583"/>
-      <c r="T192" s="583"/>
-      <c r="U192" s="583"/>
-      <c r="V192" s="583"/>
-      <c r="W192" s="583"/>
-      <c r="X192" s="583"/>
-      <c r="Y192" s="583"/>
-      <c r="Z192" s="583"/>
-      <c r="AA192" s="583"/>
-      <c r="AB192" s="583"/>
-      <c r="AC192" s="583"/>
-      <c r="AD192" s="583"/>
-      <c r="AE192" s="583"/>
-      <c r="AF192" s="583"/>
-      <c r="AG192" s="583"/>
-      <c r="AH192" s="584"/>
+      <c r="F192" s="562"/>
+      <c r="G192" s="563"/>
+      <c r="H192" s="563"/>
+      <c r="I192" s="563"/>
+      <c r="J192" s="564"/>
+      <c r="K192" s="518"/>
+      <c r="L192" s="520"/>
+      <c r="M192" s="562"/>
+      <c r="N192" s="564"/>
+      <c r="O192" s="562"/>
+      <c r="P192" s="563"/>
+      <c r="Q192" s="563"/>
+      <c r="R192" s="563"/>
+      <c r="S192" s="563"/>
+      <c r="T192" s="563"/>
+      <c r="U192" s="563"/>
+      <c r="V192" s="563"/>
+      <c r="W192" s="563"/>
+      <c r="X192" s="563"/>
+      <c r="Y192" s="563"/>
+      <c r="Z192" s="563"/>
+      <c r="AA192" s="563"/>
+      <c r="AB192" s="563"/>
+      <c r="AC192" s="563"/>
+      <c r="AD192" s="563"/>
+      <c r="AE192" s="563"/>
+      <c r="AF192" s="563"/>
+      <c r="AG192" s="563"/>
+      <c r="AH192" s="564"/>
     </row>
     <row r="193" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="50"/>
-      <c r="F193" s="558"/>
-      <c r="G193" s="559"/>
-      <c r="H193" s="559"/>
-      <c r="I193" s="559"/>
-      <c r="J193" s="560"/>
-      <c r="K193" s="518"/>
-      <c r="L193" s="520"/>
-      <c r="M193" s="558"/>
-      <c r="N193" s="560"/>
-      <c r="O193" s="558"/>
-      <c r="P193" s="559"/>
-      <c r="Q193" s="559"/>
-      <c r="R193" s="559"/>
-      <c r="S193" s="559"/>
-      <c r="T193" s="559"/>
-      <c r="U193" s="559"/>
-      <c r="V193" s="559"/>
-      <c r="W193" s="559"/>
-      <c r="X193" s="559"/>
-      <c r="Y193" s="559"/>
-      <c r="Z193" s="559"/>
-      <c r="AA193" s="559"/>
-      <c r="AB193" s="559"/>
-      <c r="AC193" s="559"/>
-      <c r="AD193" s="559"/>
-      <c r="AE193" s="559"/>
-      <c r="AF193" s="559"/>
-      <c r="AG193" s="559"/>
-      <c r="AH193" s="560"/>
+      <c r="F193" s="565"/>
+      <c r="G193" s="566"/>
+      <c r="H193" s="566"/>
+      <c r="I193" s="566"/>
+      <c r="J193" s="567"/>
+      <c r="K193" s="521"/>
+      <c r="L193" s="523"/>
+      <c r="M193" s="565"/>
+      <c r="N193" s="567"/>
+      <c r="O193" s="565"/>
+      <c r="P193" s="566"/>
+      <c r="Q193" s="566"/>
+      <c r="R193" s="566"/>
+      <c r="S193" s="566"/>
+      <c r="T193" s="566"/>
+      <c r="U193" s="566"/>
+      <c r="V193" s="566"/>
+      <c r="W193" s="566"/>
+      <c r="X193" s="566"/>
+      <c r="Y193" s="566"/>
+      <c r="Z193" s="566"/>
+      <c r="AA193" s="566"/>
+      <c r="AB193" s="566"/>
+      <c r="AC193" s="566"/>
+      <c r="AD193" s="566"/>
+      <c r="AE193" s="566"/>
+      <c r="AF193" s="566"/>
+      <c r="AG193" s="566"/>
+      <c r="AH193" s="567"/>
     </row>
     <row r="194" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="50"/>
-      <c r="F194" s="581" t="s">
+      <c r="F194" s="576" t="s">
         <v>38</v>
       </c>
-      <c r="G194" s="513"/>
-      <c r="H194" s="513"/>
-      <c r="I194" s="513"/>
-      <c r="J194" s="514"/>
-      <c r="K194" s="581" t="s">
+      <c r="G194" s="516"/>
+      <c r="H194" s="516"/>
+      <c r="I194" s="516"/>
+      <c r="J194" s="517"/>
+      <c r="K194" s="576" t="s">
         <v>35</v>
       </c>
-      <c r="L194" s="514"/>
-      <c r="M194" s="581" t="s">
+      <c r="L194" s="517"/>
+      <c r="M194" s="576" t="s">
         <v>49</v>
       </c>
-      <c r="N194" s="611"/>
-      <c r="O194" s="522" t="s">
+      <c r="N194" s="574"/>
+      <c r="O194" s="525" t="s">
         <v>374</v>
       </c>
-      <c r="P194" s="556"/>
-      <c r="Q194" s="556"/>
-      <c r="R194" s="556"/>
-      <c r="S194" s="556"/>
-      <c r="T194" s="556"/>
-      <c r="U194" s="556"/>
-      <c r="V194" s="556"/>
-      <c r="W194" s="556"/>
-      <c r="X194" s="556"/>
-      <c r="Y194" s="556"/>
-      <c r="Z194" s="556"/>
-      <c r="AA194" s="556"/>
-      <c r="AB194" s="556"/>
-      <c r="AC194" s="556"/>
-      <c r="AD194" s="556"/>
-      <c r="AE194" s="556"/>
-      <c r="AF194" s="556"/>
-      <c r="AG194" s="556"/>
-      <c r="AH194" s="557"/>
+      <c r="P194" s="560"/>
+      <c r="Q194" s="560"/>
+      <c r="R194" s="560"/>
+      <c r="S194" s="560"/>
+      <c r="T194" s="560"/>
+      <c r="U194" s="560"/>
+      <c r="V194" s="560"/>
+      <c r="W194" s="560"/>
+      <c r="X194" s="560"/>
+      <c r="Y194" s="560"/>
+      <c r="Z194" s="560"/>
+      <c r="AA194" s="560"/>
+      <c r="AB194" s="560"/>
+      <c r="AC194" s="560"/>
+      <c r="AD194" s="560"/>
+      <c r="AE194" s="560"/>
+      <c r="AF194" s="560"/>
+      <c r="AG194" s="560"/>
+      <c r="AH194" s="561"/>
     </row>
     <row r="195" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="50"/>
-      <c r="F195" s="558"/>
-      <c r="G195" s="559"/>
-      <c r="H195" s="559"/>
-      <c r="I195" s="559"/>
-      <c r="J195" s="560"/>
-      <c r="K195" s="518"/>
-      <c r="L195" s="520"/>
-      <c r="M195" s="558"/>
-      <c r="N195" s="560"/>
-      <c r="O195" s="558"/>
-      <c r="P195" s="559"/>
-      <c r="Q195" s="559"/>
-      <c r="R195" s="559"/>
-      <c r="S195" s="559"/>
-      <c r="T195" s="559"/>
-      <c r="U195" s="559"/>
-      <c r="V195" s="559"/>
-      <c r="W195" s="559"/>
-      <c r="X195" s="559"/>
-      <c r="Y195" s="559"/>
-      <c r="Z195" s="559"/>
-      <c r="AA195" s="559"/>
-      <c r="AB195" s="559"/>
-      <c r="AC195" s="559"/>
-      <c r="AD195" s="559"/>
-      <c r="AE195" s="559"/>
-      <c r="AF195" s="559"/>
-      <c r="AG195" s="559"/>
-      <c r="AH195" s="560"/>
+      <c r="F195" s="565"/>
+      <c r="G195" s="566"/>
+      <c r="H195" s="566"/>
+      <c r="I195" s="566"/>
+      <c r="J195" s="567"/>
+      <c r="K195" s="521"/>
+      <c r="L195" s="523"/>
+      <c r="M195" s="565"/>
+      <c r="N195" s="567"/>
+      <c r="O195" s="565"/>
+      <c r="P195" s="566"/>
+      <c r="Q195" s="566"/>
+      <c r="R195" s="566"/>
+      <c r="S195" s="566"/>
+      <c r="T195" s="566"/>
+      <c r="U195" s="566"/>
+      <c r="V195" s="566"/>
+      <c r="W195" s="566"/>
+      <c r="X195" s="566"/>
+      <c r="Y195" s="566"/>
+      <c r="Z195" s="566"/>
+      <c r="AA195" s="566"/>
+      <c r="AB195" s="566"/>
+      <c r="AC195" s="566"/>
+      <c r="AD195" s="566"/>
+      <c r="AE195" s="566"/>
+      <c r="AF195" s="566"/>
+      <c r="AG195" s="566"/>
+      <c r="AH195" s="567"/>
     </row>
     <row r="196" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="50"/>
-      <c r="F196" s="581" t="s">
+      <c r="F196" s="576" t="s">
         <v>39</v>
       </c>
-      <c r="G196" s="513"/>
-      <c r="H196" s="513"/>
-      <c r="I196" s="513"/>
-      <c r="J196" s="514"/>
-      <c r="K196" s="581" t="s">
+      <c r="G196" s="516"/>
+      <c r="H196" s="516"/>
+      <c r="I196" s="516"/>
+      <c r="J196" s="517"/>
+      <c r="K196" s="576" t="s">
         <v>35</v>
       </c>
-      <c r="L196" s="514"/>
-      <c r="M196" s="581" t="s">
+      <c r="L196" s="517"/>
+      <c r="M196" s="576" t="s">
         <v>81</v>
       </c>
-      <c r="N196" s="611"/>
-      <c r="O196" s="522" t="s">
+      <c r="N196" s="574"/>
+      <c r="O196" s="525" t="s">
         <v>373</v>
       </c>
-      <c r="P196" s="556"/>
-      <c r="Q196" s="556"/>
-      <c r="R196" s="556"/>
-      <c r="S196" s="556"/>
-      <c r="T196" s="556"/>
-      <c r="U196" s="556"/>
-      <c r="V196" s="556"/>
-      <c r="W196" s="556"/>
-      <c r="X196" s="556"/>
-      <c r="Y196" s="556"/>
-      <c r="Z196" s="556"/>
-      <c r="AA196" s="556"/>
-      <c r="AB196" s="556"/>
-      <c r="AC196" s="556"/>
-      <c r="AD196" s="556"/>
-      <c r="AE196" s="556"/>
-      <c r="AF196" s="556"/>
-      <c r="AG196" s="556"/>
-      <c r="AH196" s="557"/>
+      <c r="P196" s="560"/>
+      <c r="Q196" s="560"/>
+      <c r="R196" s="560"/>
+      <c r="S196" s="560"/>
+      <c r="T196" s="560"/>
+      <c r="U196" s="560"/>
+      <c r="V196" s="560"/>
+      <c r="W196" s="560"/>
+      <c r="X196" s="560"/>
+      <c r="Y196" s="560"/>
+      <c r="Z196" s="560"/>
+      <c r="AA196" s="560"/>
+      <c r="AB196" s="560"/>
+      <c r="AC196" s="560"/>
+      <c r="AD196" s="560"/>
+      <c r="AE196" s="560"/>
+      <c r="AF196" s="560"/>
+      <c r="AG196" s="560"/>
+      <c r="AH196" s="561"/>
     </row>
     <row r="197" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="50"/>
-      <c r="F197" s="558"/>
-      <c r="G197" s="559"/>
-      <c r="H197" s="559"/>
-      <c r="I197" s="559"/>
-      <c r="J197" s="560"/>
-      <c r="K197" s="518"/>
-      <c r="L197" s="520"/>
-      <c r="M197" s="558"/>
-      <c r="N197" s="560"/>
-      <c r="O197" s="558"/>
-      <c r="P197" s="559"/>
-      <c r="Q197" s="559"/>
-      <c r="R197" s="559"/>
-      <c r="S197" s="559"/>
-      <c r="T197" s="559"/>
-      <c r="U197" s="559"/>
-      <c r="V197" s="559"/>
-      <c r="W197" s="559"/>
-      <c r="X197" s="559"/>
-      <c r="Y197" s="559"/>
-      <c r="Z197" s="559"/>
-      <c r="AA197" s="559"/>
-      <c r="AB197" s="559"/>
-      <c r="AC197" s="559"/>
-      <c r="AD197" s="559"/>
-      <c r="AE197" s="559"/>
-      <c r="AF197" s="559"/>
-      <c r="AG197" s="559"/>
-      <c r="AH197" s="560"/>
+      <c r="F197" s="565"/>
+      <c r="G197" s="566"/>
+      <c r="H197" s="566"/>
+      <c r="I197" s="566"/>
+      <c r="J197" s="567"/>
+      <c r="K197" s="521"/>
+      <c r="L197" s="523"/>
+      <c r="M197" s="565"/>
+      <c r="N197" s="567"/>
+      <c r="O197" s="565"/>
+      <c r="P197" s="566"/>
+      <c r="Q197" s="566"/>
+      <c r="R197" s="566"/>
+      <c r="S197" s="566"/>
+      <c r="T197" s="566"/>
+      <c r="U197" s="566"/>
+      <c r="V197" s="566"/>
+      <c r="W197" s="566"/>
+      <c r="X197" s="566"/>
+      <c r="Y197" s="566"/>
+      <c r="Z197" s="566"/>
+      <c r="AA197" s="566"/>
+      <c r="AB197" s="566"/>
+      <c r="AC197" s="566"/>
+      <c r="AD197" s="566"/>
+      <c r="AE197" s="566"/>
+      <c r="AF197" s="566"/>
+      <c r="AG197" s="566"/>
+      <c r="AH197" s="567"/>
     </row>
     <row r="198" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="50"/>
-      <c r="F198" s="581" t="s">
+      <c r="F198" s="576" t="s">
         <v>124</v>
       </c>
-      <c r="G198" s="513"/>
-      <c r="H198" s="513"/>
-      <c r="I198" s="513"/>
-      <c r="J198" s="514"/>
-      <c r="K198" s="581" t="s">
+      <c r="G198" s="516"/>
+      <c r="H198" s="516"/>
+      <c r="I198" s="516"/>
+      <c r="J198" s="517"/>
+      <c r="K198" s="576" t="s">
         <v>47</v>
       </c>
-      <c r="L198" s="514"/>
-      <c r="M198" s="581" t="s">
+      <c r="L198" s="517"/>
+      <c r="M198" s="576" t="s">
         <v>72</v>
       </c>
-      <c r="N198" s="611"/>
-      <c r="O198" s="512" t="s">
+      <c r="N198" s="574"/>
+      <c r="O198" s="515" t="s">
         <v>227</v>
       </c>
-      <c r="P198" s="513"/>
-      <c r="Q198" s="513"/>
-      <c r="R198" s="513"/>
-      <c r="S198" s="513"/>
-      <c r="T198" s="513"/>
-      <c r="U198" s="513"/>
-      <c r="V198" s="513"/>
-      <c r="W198" s="513"/>
-      <c r="X198" s="513"/>
-      <c r="Y198" s="513"/>
-      <c r="Z198" s="513"/>
-      <c r="AA198" s="513"/>
-      <c r="AB198" s="513"/>
-      <c r="AC198" s="513"/>
-      <c r="AD198" s="513"/>
-      <c r="AE198" s="513"/>
-      <c r="AF198" s="513"/>
-      <c r="AG198" s="513"/>
-      <c r="AH198" s="514"/>
+      <c r="P198" s="516"/>
+      <c r="Q198" s="516"/>
+      <c r="R198" s="516"/>
+      <c r="S198" s="516"/>
+      <c r="T198" s="516"/>
+      <c r="U198" s="516"/>
+      <c r="V198" s="516"/>
+      <c r="W198" s="516"/>
+      <c r="X198" s="516"/>
+      <c r="Y198" s="516"/>
+      <c r="Z198" s="516"/>
+      <c r="AA198" s="516"/>
+      <c r="AB198" s="516"/>
+      <c r="AC198" s="516"/>
+      <c r="AD198" s="516"/>
+      <c r="AE198" s="516"/>
+      <c r="AF198" s="516"/>
+      <c r="AG198" s="516"/>
+      <c r="AH198" s="517"/>
     </row>
     <row r="199" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="50"/>
-      <c r="F199" s="558"/>
-      <c r="G199" s="559"/>
-      <c r="H199" s="559"/>
-      <c r="I199" s="559"/>
-      <c r="J199" s="560"/>
-      <c r="K199" s="518"/>
-      <c r="L199" s="520"/>
-      <c r="M199" s="558"/>
-      <c r="N199" s="560"/>
-      <c r="O199" s="558"/>
-      <c r="P199" s="559"/>
-      <c r="Q199" s="559"/>
-      <c r="R199" s="559"/>
-      <c r="S199" s="559"/>
-      <c r="T199" s="559"/>
-      <c r="U199" s="559"/>
-      <c r="V199" s="559"/>
-      <c r="W199" s="559"/>
-      <c r="X199" s="559"/>
-      <c r="Y199" s="559"/>
-      <c r="Z199" s="559"/>
-      <c r="AA199" s="559"/>
-      <c r="AB199" s="559"/>
-      <c r="AC199" s="559"/>
-      <c r="AD199" s="559"/>
-      <c r="AE199" s="559"/>
-      <c r="AF199" s="559"/>
-      <c r="AG199" s="559"/>
-      <c r="AH199" s="560"/>
+      <c r="F199" s="565"/>
+      <c r="G199" s="566"/>
+      <c r="H199" s="566"/>
+      <c r="I199" s="566"/>
+      <c r="J199" s="567"/>
+      <c r="K199" s="521"/>
+      <c r="L199" s="523"/>
+      <c r="M199" s="565"/>
+      <c r="N199" s="567"/>
+      <c r="O199" s="565"/>
+      <c r="P199" s="566"/>
+      <c r="Q199" s="566"/>
+      <c r="R199" s="566"/>
+      <c r="S199" s="566"/>
+      <c r="T199" s="566"/>
+      <c r="U199" s="566"/>
+      <c r="V199" s="566"/>
+      <c r="W199" s="566"/>
+      <c r="X199" s="566"/>
+      <c r="Y199" s="566"/>
+      <c r="Z199" s="566"/>
+      <c r="AA199" s="566"/>
+      <c r="AB199" s="566"/>
+      <c r="AC199" s="566"/>
+      <c r="AD199" s="566"/>
+      <c r="AE199" s="566"/>
+      <c r="AF199" s="566"/>
+      <c r="AG199" s="566"/>
+      <c r="AH199" s="567"/>
     </row>
     <row r="200" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="50"/>
-      <c r="F200" s="561" t="s">
+      <c r="F200" s="550" t="s">
         <v>125</v>
       </c>
-      <c r="G200" s="501"/>
-      <c r="H200" s="501"/>
-      <c r="I200" s="501"/>
-      <c r="J200" s="502"/>
-      <c r="K200" s="585" t="s">
+      <c r="G200" s="474"/>
+      <c r="H200" s="474"/>
+      <c r="I200" s="474"/>
+      <c r="J200" s="475"/>
+      <c r="K200" s="568" t="s">
         <v>47</v>
       </c>
-      <c r="L200" s="586"/>
-      <c r="M200" s="585" t="s">
+      <c r="L200" s="569"/>
+      <c r="M200" s="568" t="s">
         <v>72</v>
       </c>
-      <c r="N200" s="610"/>
-      <c r="O200" s="561" t="s">
+      <c r="N200" s="573"/>
+      <c r="O200" s="550" t="s">
         <v>228</v>
       </c>
-      <c r="P200" s="501"/>
-      <c r="Q200" s="501"/>
-      <c r="R200" s="501"/>
-      <c r="S200" s="501"/>
-      <c r="T200" s="501"/>
-      <c r="U200" s="501"/>
-      <c r="V200" s="501"/>
-      <c r="W200" s="501"/>
-      <c r="X200" s="501"/>
-      <c r="Y200" s="501"/>
-      <c r="Z200" s="501"/>
-      <c r="AA200" s="501"/>
-      <c r="AB200" s="501"/>
-      <c r="AC200" s="501"/>
-      <c r="AD200" s="501"/>
-      <c r="AE200" s="501"/>
-      <c r="AF200" s="501"/>
-      <c r="AG200" s="501"/>
-      <c r="AH200" s="502"/>
+      <c r="P200" s="474"/>
+      <c r="Q200" s="474"/>
+      <c r="R200" s="474"/>
+      <c r="S200" s="474"/>
+      <c r="T200" s="474"/>
+      <c r="U200" s="474"/>
+      <c r="V200" s="474"/>
+      <c r="W200" s="474"/>
+      <c r="X200" s="474"/>
+      <c r="Y200" s="474"/>
+      <c r="Z200" s="474"/>
+      <c r="AA200" s="474"/>
+      <c r="AB200" s="474"/>
+      <c r="AC200" s="474"/>
+      <c r="AD200" s="474"/>
+      <c r="AE200" s="474"/>
+      <c r="AF200" s="474"/>
+      <c r="AG200" s="474"/>
+      <c r="AH200" s="475"/>
     </row>
     <row r="201" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="50"/>
-      <c r="F201" s="581" t="s">
+      <c r="F201" s="576" t="s">
         <v>50</v>
       </c>
-      <c r="G201" s="513"/>
-      <c r="H201" s="513"/>
-      <c r="I201" s="513"/>
-      <c r="J201" s="514"/>
-      <c r="K201" s="581" t="s">
+      <c r="G201" s="516"/>
+      <c r="H201" s="516"/>
+      <c r="I201" s="516"/>
+      <c r="J201" s="517"/>
+      <c r="K201" s="576" t="s">
         <v>47</v>
       </c>
-      <c r="L201" s="514"/>
-      <c r="M201" s="581" t="s">
+      <c r="L201" s="517"/>
+      <c r="M201" s="576" t="s">
         <v>77</v>
       </c>
-      <c r="N201" s="611"/>
-      <c r="O201" s="512" t="s">
+      <c r="N201" s="574"/>
+      <c r="O201" s="515" t="s">
         <v>372</v>
       </c>
-      <c r="P201" s="556"/>
-      <c r="Q201" s="556"/>
-      <c r="R201" s="556"/>
-      <c r="S201" s="556"/>
-      <c r="T201" s="556"/>
-      <c r="U201" s="556"/>
-      <c r="V201" s="556"/>
-      <c r="W201" s="556"/>
-      <c r="X201" s="556"/>
-      <c r="Y201" s="556"/>
-      <c r="Z201" s="556"/>
-      <c r="AA201" s="556"/>
-      <c r="AB201" s="556"/>
-      <c r="AC201" s="556"/>
-      <c r="AD201" s="556"/>
-      <c r="AE201" s="556"/>
-      <c r="AF201" s="556"/>
-      <c r="AG201" s="556"/>
-      <c r="AH201" s="557"/>
+      <c r="P201" s="560"/>
+      <c r="Q201" s="560"/>
+      <c r="R201" s="560"/>
+      <c r="S201" s="560"/>
+      <c r="T201" s="560"/>
+      <c r="U201" s="560"/>
+      <c r="V201" s="560"/>
+      <c r="W201" s="560"/>
+      <c r="X201" s="560"/>
+      <c r="Y201" s="560"/>
+      <c r="Z201" s="560"/>
+      <c r="AA201" s="560"/>
+      <c r="AB201" s="560"/>
+      <c r="AC201" s="560"/>
+      <c r="AD201" s="560"/>
+      <c r="AE201" s="560"/>
+      <c r="AF201" s="560"/>
+      <c r="AG201" s="560"/>
+      <c r="AH201" s="561"/>
     </row>
     <row r="202" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="50"/>
-      <c r="F202" s="558"/>
-      <c r="G202" s="559"/>
-      <c r="H202" s="559"/>
-      <c r="I202" s="559"/>
-      <c r="J202" s="560"/>
-      <c r="K202" s="518"/>
-      <c r="L202" s="520"/>
-      <c r="M202" s="558"/>
-      <c r="N202" s="560"/>
-      <c r="O202" s="558"/>
-      <c r="P202" s="559"/>
-      <c r="Q202" s="559"/>
-      <c r="R202" s="559"/>
-      <c r="S202" s="559"/>
-      <c r="T202" s="559"/>
-      <c r="U202" s="559"/>
-      <c r="V202" s="559"/>
-      <c r="W202" s="559"/>
-      <c r="X202" s="559"/>
-      <c r="Y202" s="559"/>
-      <c r="Z202" s="559"/>
-      <c r="AA202" s="559"/>
-      <c r="AB202" s="559"/>
-      <c r="AC202" s="559"/>
-      <c r="AD202" s="559"/>
-      <c r="AE202" s="559"/>
-      <c r="AF202" s="559"/>
-      <c r="AG202" s="559"/>
-      <c r="AH202" s="560"/>
+      <c r="F202" s="565"/>
+      <c r="G202" s="566"/>
+      <c r="H202" s="566"/>
+      <c r="I202" s="566"/>
+      <c r="J202" s="567"/>
+      <c r="K202" s="521"/>
+      <c r="L202" s="523"/>
+      <c r="M202" s="565"/>
+      <c r="N202" s="567"/>
+      <c r="O202" s="565"/>
+      <c r="P202" s="566"/>
+      <c r="Q202" s="566"/>
+      <c r="R202" s="566"/>
+      <c r="S202" s="566"/>
+      <c r="T202" s="566"/>
+      <c r="U202" s="566"/>
+      <c r="V202" s="566"/>
+      <c r="W202" s="566"/>
+      <c r="X202" s="566"/>
+      <c r="Y202" s="566"/>
+      <c r="Z202" s="566"/>
+      <c r="AA202" s="566"/>
+      <c r="AB202" s="566"/>
+      <c r="AC202" s="566"/>
+      <c r="AD202" s="566"/>
+      <c r="AE202" s="566"/>
+      <c r="AF202" s="566"/>
+      <c r="AG202" s="566"/>
+      <c r="AH202" s="567"/>
     </row>
     <row r="203" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="50"/>
-      <c r="F203" s="500" t="s">
+      <c r="F203" s="473" t="s">
         <v>42</v>
       </c>
-      <c r="G203" s="501"/>
-      <c r="H203" s="501"/>
-      <c r="I203" s="501"/>
-      <c r="J203" s="502"/>
-      <c r="K203" s="585" t="s">
+      <c r="G203" s="474"/>
+      <c r="H203" s="474"/>
+      <c r="I203" s="474"/>
+      <c r="J203" s="475"/>
+      <c r="K203" s="568" t="s">
         <v>47</v>
       </c>
-      <c r="L203" s="586"/>
-      <c r="M203" s="585" t="s">
+      <c r="L203" s="569"/>
+      <c r="M203" s="568" t="s">
         <v>76</v>
       </c>
-      <c r="N203" s="610"/>
-      <c r="O203" s="561" t="s">
+      <c r="N203" s="573"/>
+      <c r="O203" s="550" t="s">
         <v>228</v>
       </c>
-      <c r="P203" s="501"/>
-      <c r="Q203" s="501"/>
-      <c r="R203" s="501"/>
-      <c r="S203" s="501"/>
-      <c r="T203" s="501"/>
-      <c r="U203" s="501"/>
-      <c r="V203" s="501"/>
-      <c r="W203" s="501"/>
-      <c r="X203" s="501"/>
-      <c r="Y203" s="501"/>
-      <c r="Z203" s="501"/>
-      <c r="AA203" s="501"/>
-      <c r="AB203" s="501"/>
-      <c r="AC203" s="501"/>
-      <c r="AD203" s="501"/>
-      <c r="AE203" s="501"/>
-      <c r="AF203" s="501"/>
-      <c r="AG203" s="501"/>
-      <c r="AH203" s="502"/>
+      <c r="P203" s="474"/>
+      <c r="Q203" s="474"/>
+      <c r="R203" s="474"/>
+      <c r="S203" s="474"/>
+      <c r="T203" s="474"/>
+      <c r="U203" s="474"/>
+      <c r="V203" s="474"/>
+      <c r="W203" s="474"/>
+      <c r="X203" s="474"/>
+      <c r="Y203" s="474"/>
+      <c r="Z203" s="474"/>
+      <c r="AA203" s="474"/>
+      <c r="AB203" s="474"/>
+      <c r="AC203" s="474"/>
+      <c r="AD203" s="474"/>
+      <c r="AE203" s="474"/>
+      <c r="AF203" s="474"/>
+      <c r="AG203" s="474"/>
+      <c r="AH203" s="475"/>
     </row>
     <row r="204" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="50"/>
       <c r="E204" s="80"/>
-      <c r="F204" s="522" t="s">
+      <c r="F204" s="525" t="s">
         <v>196</v>
       </c>
-      <c r="G204" s="556"/>
-      <c r="H204" s="556"/>
-      <c r="I204" s="556"/>
-      <c r="J204" s="557"/>
-      <c r="K204" s="547" t="s">
+      <c r="G204" s="560"/>
+      <c r="H204" s="560"/>
+      <c r="I204" s="560"/>
+      <c r="J204" s="561"/>
+      <c r="K204" s="589" t="s">
         <v>47</v>
       </c>
-      <c r="L204" s="524"/>
-      <c r="M204" s="581" t="s">
+      <c r="L204" s="527"/>
+      <c r="M204" s="576" t="s">
         <v>76</v>
       </c>
-      <c r="N204" s="611"/>
-      <c r="O204" s="512" t="s">
+      <c r="N204" s="574"/>
+      <c r="O204" s="515" t="s">
         <v>228</v>
       </c>
-      <c r="P204" s="513"/>
-      <c r="Q204" s="513"/>
-      <c r="R204" s="513"/>
-      <c r="S204" s="513"/>
-      <c r="T204" s="513"/>
-      <c r="U204" s="513"/>
-      <c r="V204" s="513"/>
-      <c r="W204" s="513"/>
-      <c r="X204" s="513"/>
-      <c r="Y204" s="513"/>
-      <c r="Z204" s="513"/>
-      <c r="AA204" s="513"/>
-      <c r="AB204" s="513"/>
-      <c r="AC204" s="513"/>
-      <c r="AD204" s="513"/>
-      <c r="AE204" s="513"/>
-      <c r="AF204" s="513"/>
-      <c r="AG204" s="513"/>
-      <c r="AH204" s="514"/>
+      <c r="P204" s="516"/>
+      <c r="Q204" s="516"/>
+      <c r="R204" s="516"/>
+      <c r="S204" s="516"/>
+      <c r="T204" s="516"/>
+      <c r="U204" s="516"/>
+      <c r="V204" s="516"/>
+      <c r="W204" s="516"/>
+      <c r="X204" s="516"/>
+      <c r="Y204" s="516"/>
+      <c r="Z204" s="516"/>
+      <c r="AA204" s="516"/>
+      <c r="AB204" s="516"/>
+      <c r="AC204" s="516"/>
+      <c r="AD204" s="516"/>
+      <c r="AE204" s="516"/>
+      <c r="AF204" s="516"/>
+      <c r="AG204" s="516"/>
+      <c r="AH204" s="517"/>
     </row>
     <row r="205" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="50"/>
       <c r="E205" s="80"/>
-      <c r="F205" s="558"/>
-      <c r="G205" s="559"/>
-      <c r="H205" s="559"/>
-      <c r="I205" s="559"/>
-      <c r="J205" s="560"/>
-      <c r="K205" s="548"/>
-      <c r="L205" s="549"/>
-      <c r="M205" s="558"/>
-      <c r="N205" s="560"/>
-      <c r="O205" s="558"/>
-      <c r="P205" s="559"/>
-      <c r="Q205" s="559"/>
-      <c r="R205" s="559"/>
-      <c r="S205" s="559"/>
-      <c r="T205" s="559"/>
-      <c r="U205" s="559"/>
-      <c r="V205" s="559"/>
-      <c r="W205" s="559"/>
-      <c r="X205" s="559"/>
-      <c r="Y205" s="559"/>
-      <c r="Z205" s="559"/>
-      <c r="AA205" s="559"/>
-      <c r="AB205" s="559"/>
-      <c r="AC205" s="559"/>
-      <c r="AD205" s="559"/>
-      <c r="AE205" s="559"/>
-      <c r="AF205" s="559"/>
-      <c r="AG205" s="559"/>
-      <c r="AH205" s="560"/>
+      <c r="F205" s="565"/>
+      <c r="G205" s="566"/>
+      <c r="H205" s="566"/>
+      <c r="I205" s="566"/>
+      <c r="J205" s="567"/>
+      <c r="K205" s="602"/>
+      <c r="L205" s="603"/>
+      <c r="M205" s="565"/>
+      <c r="N205" s="567"/>
+      <c r="O205" s="565"/>
+      <c r="P205" s="566"/>
+      <c r="Q205" s="566"/>
+      <c r="R205" s="566"/>
+      <c r="S205" s="566"/>
+      <c r="T205" s="566"/>
+      <c r="U205" s="566"/>
+      <c r="V205" s="566"/>
+      <c r="W205" s="566"/>
+      <c r="X205" s="566"/>
+      <c r="Y205" s="566"/>
+      <c r="Z205" s="566"/>
+      <c r="AA205" s="566"/>
+      <c r="AB205" s="566"/>
+      <c r="AC205" s="566"/>
+      <c r="AD205" s="566"/>
+      <c r="AE205" s="566"/>
+      <c r="AF205" s="566"/>
+      <c r="AG205" s="566"/>
+      <c r="AH205" s="567"/>
     </row>
     <row r="206" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="50"/>
@@ -41828,707 +41846,707 @@
     </row>
     <row r="210" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="50"/>
-      <c r="F210" s="553" t="s">
+      <c r="F210" s="610" t="s">
         <v>29</v>
       </c>
-      <c r="G210" s="554"/>
-      <c r="H210" s="554"/>
-      <c r="I210" s="554"/>
-      <c r="J210" s="555"/>
-      <c r="K210" s="591" t="s">
+      <c r="G210" s="611"/>
+      <c r="H210" s="611"/>
+      <c r="I210" s="611"/>
+      <c r="J210" s="612"/>
+      <c r="K210" s="570" t="s">
         <v>30</v>
       </c>
-      <c r="L210" s="592"/>
-      <c r="M210" s="591" t="s">
+      <c r="L210" s="571"/>
+      <c r="M210" s="570" t="s">
         <v>31</v>
       </c>
-      <c r="N210" s="592"/>
-      <c r="O210" s="497" t="s">
+      <c r="N210" s="571"/>
+      <c r="O210" s="470" t="s">
         <v>224</v>
       </c>
-      <c r="P210" s="498"/>
-      <c r="Q210" s="498"/>
-      <c r="R210" s="498"/>
-      <c r="S210" s="498"/>
-      <c r="T210" s="498"/>
-      <c r="U210" s="498"/>
-      <c r="V210" s="498"/>
-      <c r="W210" s="498"/>
-      <c r="X210" s="498"/>
-      <c r="Y210" s="498"/>
-      <c r="Z210" s="498"/>
-      <c r="AA210" s="498"/>
-      <c r="AB210" s="498"/>
-      <c r="AC210" s="498"/>
-      <c r="AD210" s="498"/>
-      <c r="AE210" s="498"/>
-      <c r="AF210" s="498"/>
-      <c r="AG210" s="498"/>
-      <c r="AH210" s="499"/>
+      <c r="P210" s="471"/>
+      <c r="Q210" s="471"/>
+      <c r="R210" s="471"/>
+      <c r="S210" s="471"/>
+      <c r="T210" s="471"/>
+      <c r="U210" s="471"/>
+      <c r="V210" s="471"/>
+      <c r="W210" s="471"/>
+      <c r="X210" s="471"/>
+      <c r="Y210" s="471"/>
+      <c r="Z210" s="471"/>
+      <c r="AA210" s="471"/>
+      <c r="AB210" s="471"/>
+      <c r="AC210" s="471"/>
+      <c r="AD210" s="471"/>
+      <c r="AE210" s="471"/>
+      <c r="AF210" s="471"/>
+      <c r="AG210" s="471"/>
+      <c r="AH210" s="472"/>
     </row>
     <row r="211" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="50"/>
-      <c r="F211" s="562" t="s">
+      <c r="F211" s="613" t="s">
         <v>205</v>
       </c>
-      <c r="G211" s="563"/>
-      <c r="H211" s="563"/>
-      <c r="I211" s="563"/>
-      <c r="J211" s="564"/>
-      <c r="K211" s="571" t="s">
+      <c r="G211" s="614"/>
+      <c r="H211" s="614"/>
+      <c r="I211" s="614"/>
+      <c r="J211" s="615"/>
+      <c r="K211" s="590" t="s">
         <v>32</v>
       </c>
-      <c r="L211" s="572"/>
-      <c r="M211" s="571" t="s">
+      <c r="L211" s="591"/>
+      <c r="M211" s="590" t="s">
         <v>33</v>
       </c>
-      <c r="N211" s="572"/>
-      <c r="O211" s="562" t="s">
+      <c r="N211" s="591"/>
+      <c r="O211" s="613" t="s">
         <v>207</v>
       </c>
-      <c r="P211" s="563"/>
-      <c r="Q211" s="563"/>
-      <c r="R211" s="563"/>
-      <c r="S211" s="563"/>
-      <c r="T211" s="563"/>
-      <c r="U211" s="563"/>
-      <c r="V211" s="563"/>
-      <c r="W211" s="563"/>
-      <c r="X211" s="563"/>
-      <c r="Y211" s="563"/>
-      <c r="Z211" s="563"/>
-      <c r="AA211" s="563"/>
-      <c r="AB211" s="563"/>
-      <c r="AC211" s="563"/>
-      <c r="AD211" s="563"/>
-      <c r="AE211" s="563"/>
-      <c r="AF211" s="563"/>
-      <c r="AG211" s="563"/>
-      <c r="AH211" s="564"/>
+      <c r="P211" s="614"/>
+      <c r="Q211" s="614"/>
+      <c r="R211" s="614"/>
+      <c r="S211" s="614"/>
+      <c r="T211" s="614"/>
+      <c r="U211" s="614"/>
+      <c r="V211" s="614"/>
+      <c r="W211" s="614"/>
+      <c r="X211" s="614"/>
+      <c r="Y211" s="614"/>
+      <c r="Z211" s="614"/>
+      <c r="AA211" s="614"/>
+      <c r="AB211" s="614"/>
+      <c r="AC211" s="614"/>
+      <c r="AD211" s="614"/>
+      <c r="AE211" s="614"/>
+      <c r="AF211" s="614"/>
+      <c r="AG211" s="614"/>
+      <c r="AH211" s="615"/>
     </row>
     <row r="212" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="50"/>
-      <c r="F212" s="565"/>
-      <c r="G212" s="566"/>
-      <c r="H212" s="566"/>
-      <c r="I212" s="566"/>
-      <c r="J212" s="567"/>
-      <c r="K212" s="518"/>
-      <c r="L212" s="520"/>
-      <c r="M212" s="518"/>
-      <c r="N212" s="520"/>
-      <c r="O212" s="565"/>
-      <c r="P212" s="566"/>
-      <c r="Q212" s="566"/>
-      <c r="R212" s="566"/>
-      <c r="S212" s="566"/>
-      <c r="T212" s="566"/>
-      <c r="U212" s="566"/>
-      <c r="V212" s="566"/>
-      <c r="W212" s="566"/>
-      <c r="X212" s="566"/>
-      <c r="Y212" s="566"/>
-      <c r="Z212" s="566"/>
-      <c r="AA212" s="566"/>
-      <c r="AB212" s="566"/>
-      <c r="AC212" s="566"/>
-      <c r="AD212" s="566"/>
-      <c r="AE212" s="566"/>
-      <c r="AF212" s="566"/>
-      <c r="AG212" s="566"/>
-      <c r="AH212" s="567"/>
+      <c r="F212" s="616"/>
+      <c r="G212" s="617"/>
+      <c r="H212" s="617"/>
+      <c r="I212" s="617"/>
+      <c r="J212" s="618"/>
+      <c r="K212" s="521"/>
+      <c r="L212" s="523"/>
+      <c r="M212" s="521"/>
+      <c r="N212" s="523"/>
+      <c r="O212" s="616"/>
+      <c r="P212" s="617"/>
+      <c r="Q212" s="617"/>
+      <c r="R212" s="617"/>
+      <c r="S212" s="617"/>
+      <c r="T212" s="617"/>
+      <c r="U212" s="617"/>
+      <c r="V212" s="617"/>
+      <c r="W212" s="617"/>
+      <c r="X212" s="617"/>
+      <c r="Y212" s="617"/>
+      <c r="Z212" s="617"/>
+      <c r="AA212" s="617"/>
+      <c r="AB212" s="617"/>
+      <c r="AC212" s="617"/>
+      <c r="AD212" s="617"/>
+      <c r="AE212" s="617"/>
+      <c r="AF212" s="617"/>
+      <c r="AG212" s="617"/>
+      <c r="AH212" s="618"/>
     </row>
     <row r="213" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="50"/>
-      <c r="F213" s="547" t="s">
+      <c r="F213" s="589" t="s">
         <v>40</v>
       </c>
-      <c r="G213" s="523"/>
-      <c r="H213" s="523"/>
-      <c r="I213" s="523"/>
-      <c r="J213" s="524"/>
-      <c r="K213" s="581" t="s">
+      <c r="G213" s="526"/>
+      <c r="H213" s="526"/>
+      <c r="I213" s="526"/>
+      <c r="J213" s="527"/>
+      <c r="K213" s="576" t="s">
         <v>35</v>
       </c>
-      <c r="L213" s="514"/>
-      <c r="M213" s="571" t="s">
+      <c r="L213" s="517"/>
+      <c r="M213" s="590" t="s">
         <v>33</v>
       </c>
-      <c r="N213" s="572"/>
-      <c r="O213" s="522" t="s">
+      <c r="N213" s="591"/>
+      <c r="O213" s="525" t="s">
         <v>367</v>
       </c>
-      <c r="P213" s="542"/>
-      <c r="Q213" s="542"/>
-      <c r="R213" s="542"/>
-      <c r="S213" s="542"/>
-      <c r="T213" s="542"/>
-      <c r="U213" s="542"/>
-      <c r="V213" s="542"/>
-      <c r="W213" s="542"/>
-      <c r="X213" s="542"/>
-      <c r="Y213" s="542"/>
-      <c r="Z213" s="542"/>
-      <c r="AA213" s="542"/>
-      <c r="AB213" s="542"/>
-      <c r="AC213" s="542"/>
-      <c r="AD213" s="542"/>
-      <c r="AE213" s="542"/>
-      <c r="AF213" s="542"/>
-      <c r="AG213" s="542"/>
-      <c r="AH213" s="543"/>
+      <c r="P213" s="604"/>
+      <c r="Q213" s="604"/>
+      <c r="R213" s="604"/>
+      <c r="S213" s="604"/>
+      <c r="T213" s="604"/>
+      <c r="U213" s="604"/>
+      <c r="V213" s="604"/>
+      <c r="W213" s="604"/>
+      <c r="X213" s="604"/>
+      <c r="Y213" s="604"/>
+      <c r="Z213" s="604"/>
+      <c r="AA213" s="604"/>
+      <c r="AB213" s="604"/>
+      <c r="AC213" s="604"/>
+      <c r="AD213" s="604"/>
+      <c r="AE213" s="604"/>
+      <c r="AF213" s="604"/>
+      <c r="AG213" s="604"/>
+      <c r="AH213" s="605"/>
     </row>
     <row r="214" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="50"/>
-      <c r="F214" s="548"/>
-      <c r="G214" s="552"/>
-      <c r="H214" s="552"/>
-      <c r="I214" s="552"/>
-      <c r="J214" s="549"/>
-      <c r="K214" s="518"/>
-      <c r="L214" s="520"/>
-      <c r="M214" s="518"/>
-      <c r="N214" s="520"/>
-      <c r="O214" s="548"/>
-      <c r="P214" s="552"/>
-      <c r="Q214" s="552"/>
-      <c r="R214" s="552"/>
-      <c r="S214" s="552"/>
-      <c r="T214" s="552"/>
-      <c r="U214" s="552"/>
-      <c r="V214" s="552"/>
-      <c r="W214" s="552"/>
-      <c r="X214" s="552"/>
-      <c r="Y214" s="552"/>
-      <c r="Z214" s="552"/>
-      <c r="AA214" s="552"/>
-      <c r="AB214" s="552"/>
-      <c r="AC214" s="552"/>
-      <c r="AD214" s="552"/>
-      <c r="AE214" s="552"/>
-      <c r="AF214" s="552"/>
-      <c r="AG214" s="552"/>
-      <c r="AH214" s="549"/>
+      <c r="F214" s="602"/>
+      <c r="G214" s="609"/>
+      <c r="H214" s="609"/>
+      <c r="I214" s="609"/>
+      <c r="J214" s="603"/>
+      <c r="K214" s="521"/>
+      <c r="L214" s="523"/>
+      <c r="M214" s="521"/>
+      <c r="N214" s="523"/>
+      <c r="O214" s="602"/>
+      <c r="P214" s="609"/>
+      <c r="Q214" s="609"/>
+      <c r="R214" s="609"/>
+      <c r="S214" s="609"/>
+      <c r="T214" s="609"/>
+      <c r="U214" s="609"/>
+      <c r="V214" s="609"/>
+      <c r="W214" s="609"/>
+      <c r="X214" s="609"/>
+      <c r="Y214" s="609"/>
+      <c r="Z214" s="609"/>
+      <c r="AA214" s="609"/>
+      <c r="AB214" s="609"/>
+      <c r="AC214" s="609"/>
+      <c r="AD214" s="609"/>
+      <c r="AE214" s="609"/>
+      <c r="AF214" s="609"/>
+      <c r="AG214" s="609"/>
+      <c r="AH214" s="603"/>
     </row>
     <row r="215" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="50"/>
-      <c r="F215" s="547" t="s">
+      <c r="F215" s="589" t="s">
         <v>41</v>
       </c>
-      <c r="G215" s="523"/>
-      <c r="H215" s="523"/>
-      <c r="I215" s="523"/>
-      <c r="J215" s="524"/>
-      <c r="K215" s="547" t="s">
+      <c r="G215" s="526"/>
+      <c r="H215" s="526"/>
+      <c r="I215" s="526"/>
+      <c r="J215" s="527"/>
+      <c r="K215" s="589" t="s">
         <v>35</v>
       </c>
-      <c r="L215" s="524"/>
-      <c r="M215" s="550" t="s">
+      <c r="L215" s="527"/>
+      <c r="M215" s="594" t="s">
         <v>33</v>
       </c>
-      <c r="N215" s="551"/>
-      <c r="O215" s="522" t="s">
+      <c r="N215" s="595"/>
+      <c r="O215" s="525" t="s">
         <v>368</v>
       </c>
-      <c r="P215" s="542"/>
-      <c r="Q215" s="542"/>
-      <c r="R215" s="542"/>
-      <c r="S215" s="542"/>
-      <c r="T215" s="542"/>
-      <c r="U215" s="542"/>
-      <c r="V215" s="542"/>
-      <c r="W215" s="542"/>
-      <c r="X215" s="542"/>
-      <c r="Y215" s="542"/>
-      <c r="Z215" s="542"/>
-      <c r="AA215" s="542"/>
-      <c r="AB215" s="542"/>
-      <c r="AC215" s="542"/>
-      <c r="AD215" s="542"/>
-      <c r="AE215" s="542"/>
-      <c r="AF215" s="542"/>
-      <c r="AG215" s="542"/>
-      <c r="AH215" s="543"/>
+      <c r="P215" s="604"/>
+      <c r="Q215" s="604"/>
+      <c r="R215" s="604"/>
+      <c r="S215" s="604"/>
+      <c r="T215" s="604"/>
+      <c r="U215" s="604"/>
+      <c r="V215" s="604"/>
+      <c r="W215" s="604"/>
+      <c r="X215" s="604"/>
+      <c r="Y215" s="604"/>
+      <c r="Z215" s="604"/>
+      <c r="AA215" s="604"/>
+      <c r="AB215" s="604"/>
+      <c r="AC215" s="604"/>
+      <c r="AD215" s="604"/>
+      <c r="AE215" s="604"/>
+      <c r="AF215" s="604"/>
+      <c r="AG215" s="604"/>
+      <c r="AH215" s="605"/>
     </row>
     <row r="216" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="50"/>
-      <c r="F216" s="548"/>
-      <c r="G216" s="552"/>
-      <c r="H216" s="552"/>
-      <c r="I216" s="552"/>
-      <c r="J216" s="549"/>
-      <c r="K216" s="528"/>
-      <c r="L216" s="530"/>
-      <c r="M216" s="528"/>
-      <c r="N216" s="530"/>
-      <c r="O216" s="548"/>
-      <c r="P216" s="552"/>
-      <c r="Q216" s="552"/>
-      <c r="R216" s="552"/>
-      <c r="S216" s="552"/>
-      <c r="T216" s="552"/>
-      <c r="U216" s="552"/>
-      <c r="V216" s="552"/>
-      <c r="W216" s="552"/>
-      <c r="X216" s="552"/>
-      <c r="Y216" s="552"/>
-      <c r="Z216" s="552"/>
-      <c r="AA216" s="552"/>
-      <c r="AB216" s="552"/>
-      <c r="AC216" s="552"/>
-      <c r="AD216" s="552"/>
-      <c r="AE216" s="552"/>
-      <c r="AF216" s="552"/>
-      <c r="AG216" s="552"/>
-      <c r="AH216" s="549"/>
+      <c r="F216" s="602"/>
+      <c r="G216" s="609"/>
+      <c r="H216" s="609"/>
+      <c r="I216" s="609"/>
+      <c r="J216" s="603"/>
+      <c r="K216" s="531"/>
+      <c r="L216" s="533"/>
+      <c r="M216" s="531"/>
+      <c r="N216" s="533"/>
+      <c r="O216" s="602"/>
+      <c r="P216" s="609"/>
+      <c r="Q216" s="609"/>
+      <c r="R216" s="609"/>
+      <c r="S216" s="609"/>
+      <c r="T216" s="609"/>
+      <c r="U216" s="609"/>
+      <c r="V216" s="609"/>
+      <c r="W216" s="609"/>
+      <c r="X216" s="609"/>
+      <c r="Y216" s="609"/>
+      <c r="Z216" s="609"/>
+      <c r="AA216" s="609"/>
+      <c r="AB216" s="609"/>
+      <c r="AC216" s="609"/>
+      <c r="AD216" s="609"/>
+      <c r="AE216" s="609"/>
+      <c r="AF216" s="609"/>
+      <c r="AG216" s="609"/>
+      <c r="AH216" s="603"/>
     </row>
     <row r="217" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="50"/>
-      <c r="F217" s="522" t="s">
+      <c r="F217" s="525" t="s">
         <v>206</v>
       </c>
-      <c r="G217" s="542"/>
-      <c r="H217" s="542"/>
-      <c r="I217" s="542"/>
-      <c r="J217" s="543"/>
-      <c r="K217" s="581" t="s">
+      <c r="G217" s="604"/>
+      <c r="H217" s="604"/>
+      <c r="I217" s="604"/>
+      <c r="J217" s="605"/>
+      <c r="K217" s="576" t="s">
         <v>35</v>
       </c>
-      <c r="L217" s="514"/>
-      <c r="M217" s="571" t="s">
+      <c r="L217" s="517"/>
+      <c r="M217" s="590" t="s">
         <v>33</v>
       </c>
-      <c r="N217" s="572"/>
-      <c r="O217" s="522" t="s">
+      <c r="N217" s="591"/>
+      <c r="O217" s="525" t="s">
         <v>369</v>
       </c>
-      <c r="P217" s="542"/>
-      <c r="Q217" s="542"/>
-      <c r="R217" s="542"/>
-      <c r="S217" s="542"/>
-      <c r="T217" s="542"/>
-      <c r="U217" s="542"/>
-      <c r="V217" s="542"/>
-      <c r="W217" s="542"/>
-      <c r="X217" s="542"/>
-      <c r="Y217" s="542"/>
-      <c r="Z217" s="542"/>
-      <c r="AA217" s="542"/>
-      <c r="AB217" s="542"/>
-      <c r="AC217" s="542"/>
-      <c r="AD217" s="542"/>
-      <c r="AE217" s="542"/>
-      <c r="AF217" s="542"/>
-      <c r="AG217" s="542"/>
-      <c r="AH217" s="543"/>
+      <c r="P217" s="604"/>
+      <c r="Q217" s="604"/>
+      <c r="R217" s="604"/>
+      <c r="S217" s="604"/>
+      <c r="T217" s="604"/>
+      <c r="U217" s="604"/>
+      <c r="V217" s="604"/>
+      <c r="W217" s="604"/>
+      <c r="X217" s="604"/>
+      <c r="Y217" s="604"/>
+      <c r="Z217" s="604"/>
+      <c r="AA217" s="604"/>
+      <c r="AB217" s="604"/>
+      <c r="AC217" s="604"/>
+      <c r="AD217" s="604"/>
+      <c r="AE217" s="604"/>
+      <c r="AF217" s="604"/>
+      <c r="AG217" s="604"/>
+      <c r="AH217" s="605"/>
     </row>
     <row r="218" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="50"/>
-      <c r="F218" s="548"/>
-      <c r="G218" s="552"/>
-      <c r="H218" s="552"/>
-      <c r="I218" s="552"/>
-      <c r="J218" s="549"/>
-      <c r="K218" s="518"/>
-      <c r="L218" s="520"/>
-      <c r="M218" s="518"/>
-      <c r="N218" s="520"/>
-      <c r="O218" s="548"/>
-      <c r="P218" s="552"/>
-      <c r="Q218" s="552"/>
-      <c r="R218" s="552"/>
-      <c r="S218" s="552"/>
-      <c r="T218" s="552"/>
-      <c r="U218" s="552"/>
-      <c r="V218" s="552"/>
-      <c r="W218" s="552"/>
-      <c r="X218" s="552"/>
-      <c r="Y218" s="552"/>
-      <c r="Z218" s="552"/>
-      <c r="AA218" s="552"/>
-      <c r="AB218" s="552"/>
-      <c r="AC218" s="552"/>
-      <c r="AD218" s="552"/>
-      <c r="AE218" s="552"/>
-      <c r="AF218" s="552"/>
-      <c r="AG218" s="552"/>
-      <c r="AH218" s="549"/>
+      <c r="F218" s="602"/>
+      <c r="G218" s="609"/>
+      <c r="H218" s="609"/>
+      <c r="I218" s="609"/>
+      <c r="J218" s="603"/>
+      <c r="K218" s="521"/>
+      <c r="L218" s="523"/>
+      <c r="M218" s="521"/>
+      <c r="N218" s="523"/>
+      <c r="O218" s="602"/>
+      <c r="P218" s="609"/>
+      <c r="Q218" s="609"/>
+      <c r="R218" s="609"/>
+      <c r="S218" s="609"/>
+      <c r="T218" s="609"/>
+      <c r="U218" s="609"/>
+      <c r="V218" s="609"/>
+      <c r="W218" s="609"/>
+      <c r="X218" s="609"/>
+      <c r="Y218" s="609"/>
+      <c r="Z218" s="609"/>
+      <c r="AA218" s="609"/>
+      <c r="AB218" s="609"/>
+      <c r="AC218" s="609"/>
+      <c r="AD218" s="609"/>
+      <c r="AE218" s="609"/>
+      <c r="AF218" s="609"/>
+      <c r="AG218" s="609"/>
+      <c r="AH218" s="603"/>
     </row>
     <row r="219" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="50"/>
-      <c r="F219" s="500" t="s">
+      <c r="F219" s="473" t="s">
         <v>38</v>
       </c>
-      <c r="G219" s="501"/>
-      <c r="H219" s="501"/>
-      <c r="I219" s="501"/>
-      <c r="J219" s="502"/>
-      <c r="K219" s="401" t="s">
+      <c r="G219" s="474"/>
+      <c r="H219" s="474"/>
+      <c r="I219" s="474"/>
+      <c r="J219" s="475"/>
+      <c r="K219" s="439" t="s">
         <v>35</v>
       </c>
-      <c r="L219" s="403"/>
-      <c r="M219" s="593" t="s">
+      <c r="L219" s="441"/>
+      <c r="M219" s="592" t="s">
         <v>33</v>
       </c>
-      <c r="N219" s="594"/>
-      <c r="O219" s="573" t="s">
+      <c r="N219" s="593"/>
+      <c r="O219" s="545" t="s">
         <v>249</v>
       </c>
-      <c r="P219" s="574"/>
-      <c r="Q219" s="574"/>
-      <c r="R219" s="574"/>
-      <c r="S219" s="574"/>
-      <c r="T219" s="574"/>
-      <c r="U219" s="574"/>
-      <c r="V219" s="574"/>
-      <c r="W219" s="574"/>
-      <c r="X219" s="574"/>
-      <c r="Y219" s="574"/>
-      <c r="Z219" s="574"/>
-      <c r="AA219" s="574"/>
-      <c r="AB219" s="574"/>
-      <c r="AC219" s="574"/>
-      <c r="AD219" s="574"/>
-      <c r="AE219" s="574"/>
-      <c r="AF219" s="574"/>
-      <c r="AG219" s="574"/>
-      <c r="AH219" s="575"/>
+      <c r="P219" s="600"/>
+      <c r="Q219" s="600"/>
+      <c r="R219" s="600"/>
+      <c r="S219" s="600"/>
+      <c r="T219" s="600"/>
+      <c r="U219" s="600"/>
+      <c r="V219" s="600"/>
+      <c r="W219" s="600"/>
+      <c r="X219" s="600"/>
+      <c r="Y219" s="600"/>
+      <c r="Z219" s="600"/>
+      <c r="AA219" s="600"/>
+      <c r="AB219" s="600"/>
+      <c r="AC219" s="600"/>
+      <c r="AD219" s="600"/>
+      <c r="AE219" s="600"/>
+      <c r="AF219" s="600"/>
+      <c r="AG219" s="600"/>
+      <c r="AH219" s="601"/>
     </row>
     <row r="220" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="50"/>
-      <c r="F220" s="500" t="s">
+      <c r="F220" s="473" t="s">
         <v>39</v>
       </c>
-      <c r="G220" s="501"/>
-      <c r="H220" s="501"/>
-      <c r="I220" s="501"/>
-      <c r="J220" s="502"/>
-      <c r="K220" s="401" t="s">
+      <c r="G220" s="474"/>
+      <c r="H220" s="474"/>
+      <c r="I220" s="474"/>
+      <c r="J220" s="475"/>
+      <c r="K220" s="439" t="s">
         <v>35</v>
       </c>
-      <c r="L220" s="403"/>
-      <c r="M220" s="593" t="s">
+      <c r="L220" s="441"/>
+      <c r="M220" s="592" t="s">
         <v>33</v>
       </c>
-      <c r="N220" s="594"/>
-      <c r="O220" s="573" t="s">
+      <c r="N220" s="593"/>
+      <c r="O220" s="545" t="s">
         <v>203</v>
       </c>
-      <c r="P220" s="576"/>
-      <c r="Q220" s="576"/>
-      <c r="R220" s="576"/>
-      <c r="S220" s="576"/>
-      <c r="T220" s="576"/>
-      <c r="U220" s="576"/>
-      <c r="V220" s="576"/>
-      <c r="W220" s="576"/>
-      <c r="X220" s="576"/>
-      <c r="Y220" s="576"/>
-      <c r="Z220" s="576"/>
-      <c r="AA220" s="576"/>
-      <c r="AB220" s="576"/>
-      <c r="AC220" s="576"/>
-      <c r="AD220" s="576"/>
-      <c r="AE220" s="576"/>
-      <c r="AF220" s="576"/>
-      <c r="AG220" s="576"/>
-      <c r="AH220" s="577"/>
+      <c r="P220" s="546"/>
+      <c r="Q220" s="546"/>
+      <c r="R220" s="546"/>
+      <c r="S220" s="546"/>
+      <c r="T220" s="546"/>
+      <c r="U220" s="546"/>
+      <c r="V220" s="546"/>
+      <c r="W220" s="546"/>
+      <c r="X220" s="546"/>
+      <c r="Y220" s="546"/>
+      <c r="Z220" s="546"/>
+      <c r="AA220" s="546"/>
+      <c r="AB220" s="546"/>
+      <c r="AC220" s="546"/>
+      <c r="AD220" s="546"/>
+      <c r="AE220" s="546"/>
+      <c r="AF220" s="546"/>
+      <c r="AG220" s="546"/>
+      <c r="AH220" s="547"/>
     </row>
     <row r="221" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="50"/>
-      <c r="F221" s="547" t="s">
+      <c r="F221" s="589" t="s">
         <v>34</v>
       </c>
-      <c r="G221" s="523"/>
-      <c r="H221" s="523"/>
-      <c r="I221" s="523"/>
-      <c r="J221" s="524"/>
-      <c r="K221" s="581" t="s">
+      <c r="G221" s="526"/>
+      <c r="H221" s="526"/>
+      <c r="I221" s="526"/>
+      <c r="J221" s="527"/>
+      <c r="K221" s="576" t="s">
         <v>35</v>
       </c>
-      <c r="L221" s="514"/>
-      <c r="M221" s="571" t="s">
+      <c r="L221" s="517"/>
+      <c r="M221" s="590" t="s">
         <v>33</v>
       </c>
-      <c r="N221" s="572"/>
-      <c r="O221" s="522" t="s">
+      <c r="N221" s="591"/>
+      <c r="O221" s="525" t="s">
         <v>370</v>
       </c>
-      <c r="P221" s="542"/>
-      <c r="Q221" s="542"/>
-      <c r="R221" s="542"/>
-      <c r="S221" s="542"/>
-      <c r="T221" s="542"/>
-      <c r="U221" s="542"/>
-      <c r="V221" s="542"/>
-      <c r="W221" s="542"/>
-      <c r="X221" s="542"/>
-      <c r="Y221" s="542"/>
-      <c r="Z221" s="542"/>
-      <c r="AA221" s="542"/>
-      <c r="AB221" s="542"/>
-      <c r="AC221" s="542"/>
-      <c r="AD221" s="542"/>
-      <c r="AE221" s="542"/>
-      <c r="AF221" s="542"/>
-      <c r="AG221" s="542"/>
-      <c r="AH221" s="543"/>
+      <c r="P221" s="604"/>
+      <c r="Q221" s="604"/>
+      <c r="R221" s="604"/>
+      <c r="S221" s="604"/>
+      <c r="T221" s="604"/>
+      <c r="U221" s="604"/>
+      <c r="V221" s="604"/>
+      <c r="W221" s="604"/>
+      <c r="X221" s="604"/>
+      <c r="Y221" s="604"/>
+      <c r="Z221" s="604"/>
+      <c r="AA221" s="604"/>
+      <c r="AB221" s="604"/>
+      <c r="AC221" s="604"/>
+      <c r="AD221" s="604"/>
+      <c r="AE221" s="604"/>
+      <c r="AF221" s="604"/>
+      <c r="AG221" s="604"/>
+      <c r="AH221" s="605"/>
     </row>
     <row r="222" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="50"/>
-      <c r="F222" s="568"/>
-      <c r="G222" s="569"/>
-      <c r="H222" s="569"/>
-      <c r="I222" s="569"/>
-      <c r="J222" s="570"/>
-      <c r="K222" s="515"/>
-      <c r="L222" s="517"/>
-      <c r="M222" s="515"/>
-      <c r="N222" s="517"/>
-      <c r="O222" s="568"/>
-      <c r="P222" s="569"/>
-      <c r="Q222" s="569"/>
-      <c r="R222" s="569"/>
-      <c r="S222" s="569"/>
-      <c r="T222" s="569"/>
-      <c r="U222" s="569"/>
-      <c r="V222" s="569"/>
-      <c r="W222" s="569"/>
-      <c r="X222" s="569"/>
-      <c r="Y222" s="569"/>
-      <c r="Z222" s="569"/>
-      <c r="AA222" s="569"/>
-      <c r="AB222" s="569"/>
-      <c r="AC222" s="569"/>
-      <c r="AD222" s="569"/>
-      <c r="AE222" s="569"/>
-      <c r="AF222" s="569"/>
-      <c r="AG222" s="569"/>
-      <c r="AH222" s="570"/>
+      <c r="F222" s="619"/>
+      <c r="G222" s="620"/>
+      <c r="H222" s="620"/>
+      <c r="I222" s="620"/>
+      <c r="J222" s="621"/>
+      <c r="K222" s="518"/>
+      <c r="L222" s="520"/>
+      <c r="M222" s="518"/>
+      <c r="N222" s="520"/>
+      <c r="O222" s="619"/>
+      <c r="P222" s="620"/>
+      <c r="Q222" s="620"/>
+      <c r="R222" s="620"/>
+      <c r="S222" s="620"/>
+      <c r="T222" s="620"/>
+      <c r="U222" s="620"/>
+      <c r="V222" s="620"/>
+      <c r="W222" s="620"/>
+      <c r="X222" s="620"/>
+      <c r="Y222" s="620"/>
+      <c r="Z222" s="620"/>
+      <c r="AA222" s="620"/>
+      <c r="AB222" s="620"/>
+      <c r="AC222" s="620"/>
+      <c r="AD222" s="620"/>
+      <c r="AE222" s="620"/>
+      <c r="AF222" s="620"/>
+      <c r="AG222" s="620"/>
+      <c r="AH222" s="621"/>
     </row>
     <row r="223" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="50"/>
-      <c r="F223" s="548"/>
-      <c r="G223" s="552"/>
-      <c r="H223" s="552"/>
-      <c r="I223" s="552"/>
-      <c r="J223" s="549"/>
-      <c r="K223" s="518"/>
-      <c r="L223" s="520"/>
-      <c r="M223" s="518"/>
-      <c r="N223" s="520"/>
-      <c r="O223" s="548"/>
-      <c r="P223" s="552"/>
-      <c r="Q223" s="552"/>
-      <c r="R223" s="552"/>
-      <c r="S223" s="552"/>
-      <c r="T223" s="552"/>
-      <c r="U223" s="552"/>
-      <c r="V223" s="552"/>
-      <c r="W223" s="552"/>
-      <c r="X223" s="552"/>
-      <c r="Y223" s="552"/>
-      <c r="Z223" s="552"/>
-      <c r="AA223" s="552"/>
-      <c r="AB223" s="552"/>
-      <c r="AC223" s="552"/>
-      <c r="AD223" s="552"/>
-      <c r="AE223" s="552"/>
-      <c r="AF223" s="552"/>
-      <c r="AG223" s="552"/>
-      <c r="AH223" s="549"/>
+      <c r="F223" s="602"/>
+      <c r="G223" s="609"/>
+      <c r="H223" s="609"/>
+      <c r="I223" s="609"/>
+      <c r="J223" s="603"/>
+      <c r="K223" s="521"/>
+      <c r="L223" s="523"/>
+      <c r="M223" s="521"/>
+      <c r="N223" s="523"/>
+      <c r="O223" s="602"/>
+      <c r="P223" s="609"/>
+      <c r="Q223" s="609"/>
+      <c r="R223" s="609"/>
+      <c r="S223" s="609"/>
+      <c r="T223" s="609"/>
+      <c r="U223" s="609"/>
+      <c r="V223" s="609"/>
+      <c r="W223" s="609"/>
+      <c r="X223" s="609"/>
+      <c r="Y223" s="609"/>
+      <c r="Z223" s="609"/>
+      <c r="AA223" s="609"/>
+      <c r="AB223" s="609"/>
+      <c r="AC223" s="609"/>
+      <c r="AD223" s="609"/>
+      <c r="AE223" s="609"/>
+      <c r="AF223" s="609"/>
+      <c r="AG223" s="609"/>
+      <c r="AH223" s="603"/>
     </row>
     <row r="224" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="50"/>
-      <c r="F224" s="500" t="s">
+      <c r="F224" s="473" t="s">
         <v>191</v>
       </c>
-      <c r="G224" s="501"/>
-      <c r="H224" s="501"/>
-      <c r="I224" s="501"/>
-      <c r="J224" s="502"/>
-      <c r="K224" s="401" t="s">
+      <c r="G224" s="474"/>
+      <c r="H224" s="474"/>
+      <c r="I224" s="474"/>
+      <c r="J224" s="475"/>
+      <c r="K224" s="439" t="s">
         <v>35</v>
       </c>
-      <c r="L224" s="403"/>
-      <c r="M224" s="401" t="s">
+      <c r="L224" s="441"/>
+      <c r="M224" s="439" t="s">
         <v>36</v>
       </c>
-      <c r="N224" s="403"/>
-      <c r="O224" s="597" t="s">
+      <c r="N224" s="441"/>
+      <c r="O224" s="599" t="s">
         <v>37</v>
       </c>
-      <c r="P224" s="574"/>
-      <c r="Q224" s="574"/>
-      <c r="R224" s="574"/>
-      <c r="S224" s="574"/>
-      <c r="T224" s="574"/>
-      <c r="U224" s="574"/>
-      <c r="V224" s="574"/>
-      <c r="W224" s="574"/>
-      <c r="X224" s="574"/>
-      <c r="Y224" s="574"/>
-      <c r="Z224" s="574"/>
-      <c r="AA224" s="574"/>
-      <c r="AB224" s="574"/>
-      <c r="AC224" s="574"/>
-      <c r="AD224" s="574"/>
-      <c r="AE224" s="574"/>
-      <c r="AF224" s="574"/>
-      <c r="AG224" s="574"/>
-      <c r="AH224" s="575"/>
+      <c r="P224" s="600"/>
+      <c r="Q224" s="600"/>
+      <c r="R224" s="600"/>
+      <c r="S224" s="600"/>
+      <c r="T224" s="600"/>
+      <c r="U224" s="600"/>
+      <c r="V224" s="600"/>
+      <c r="W224" s="600"/>
+      <c r="X224" s="600"/>
+      <c r="Y224" s="600"/>
+      <c r="Z224" s="600"/>
+      <c r="AA224" s="600"/>
+      <c r="AB224" s="600"/>
+      <c r="AC224" s="600"/>
+      <c r="AD224" s="600"/>
+      <c r="AE224" s="600"/>
+      <c r="AF224" s="600"/>
+      <c r="AG224" s="600"/>
+      <c r="AH224" s="601"/>
     </row>
     <row r="225" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="50"/>
-      <c r="F225" s="500" t="s">
+      <c r="F225" s="473" t="s">
         <v>126</v>
       </c>
-      <c r="G225" s="501"/>
-      <c r="H225" s="501"/>
-      <c r="I225" s="501"/>
-      <c r="J225" s="502"/>
-      <c r="K225" s="401" t="s">
+      <c r="G225" s="474"/>
+      <c r="H225" s="474"/>
+      <c r="I225" s="474"/>
+      <c r="J225" s="475"/>
+      <c r="K225" s="439" t="s">
         <v>35</v>
       </c>
-      <c r="L225" s="403"/>
-      <c r="M225" s="593" t="s">
+      <c r="L225" s="441"/>
+      <c r="M225" s="592" t="s">
         <v>33</v>
       </c>
-      <c r="N225" s="594"/>
-      <c r="O225" s="573" t="s">
+      <c r="N225" s="593"/>
+      <c r="O225" s="545" t="s">
         <v>371</v>
       </c>
-      <c r="P225" s="574"/>
-      <c r="Q225" s="574"/>
-      <c r="R225" s="574"/>
-      <c r="S225" s="574"/>
-      <c r="T225" s="574"/>
-      <c r="U225" s="574"/>
-      <c r="V225" s="574"/>
-      <c r="W225" s="574"/>
-      <c r="X225" s="574"/>
-      <c r="Y225" s="574"/>
-      <c r="Z225" s="574"/>
-      <c r="AA225" s="574"/>
-      <c r="AB225" s="574"/>
-      <c r="AC225" s="574"/>
-      <c r="AD225" s="574"/>
-      <c r="AE225" s="574"/>
-      <c r="AF225" s="574"/>
-      <c r="AG225" s="574"/>
-      <c r="AH225" s="575"/>
+      <c r="P225" s="600"/>
+      <c r="Q225" s="600"/>
+      <c r="R225" s="600"/>
+      <c r="S225" s="600"/>
+      <c r="T225" s="600"/>
+      <c r="U225" s="600"/>
+      <c r="V225" s="600"/>
+      <c r="W225" s="600"/>
+      <c r="X225" s="600"/>
+      <c r="Y225" s="600"/>
+      <c r="Z225" s="600"/>
+      <c r="AA225" s="600"/>
+      <c r="AB225" s="600"/>
+      <c r="AC225" s="600"/>
+      <c r="AD225" s="600"/>
+      <c r="AE225" s="600"/>
+      <c r="AF225" s="600"/>
+      <c r="AG225" s="600"/>
+      <c r="AH225" s="601"/>
     </row>
     <row r="226" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="50"/>
-      <c r="F226" s="500" t="s">
+      <c r="F226" s="473" t="s">
         <v>42</v>
       </c>
-      <c r="G226" s="501"/>
-      <c r="H226" s="501"/>
-      <c r="I226" s="501"/>
-      <c r="J226" s="502"/>
-      <c r="K226" s="401" t="s">
+      <c r="G226" s="474"/>
+      <c r="H226" s="474"/>
+      <c r="I226" s="474"/>
+      <c r="J226" s="475"/>
+      <c r="K226" s="439" t="s">
         <v>35</v>
       </c>
-      <c r="L226" s="403"/>
-      <c r="M226" s="593" t="s">
+      <c r="L226" s="441"/>
+      <c r="M226" s="592" t="s">
         <v>33</v>
       </c>
-      <c r="N226" s="594"/>
-      <c r="O226" s="573" t="s">
+      <c r="N226" s="593"/>
+      <c r="O226" s="545" t="s">
         <v>366</v>
       </c>
-      <c r="P226" s="574"/>
-      <c r="Q226" s="574"/>
-      <c r="R226" s="574"/>
-      <c r="S226" s="574"/>
-      <c r="T226" s="574"/>
-      <c r="U226" s="574"/>
-      <c r="V226" s="574"/>
-      <c r="W226" s="574"/>
-      <c r="X226" s="574"/>
-      <c r="Y226" s="574"/>
-      <c r="Z226" s="574"/>
-      <c r="AA226" s="574"/>
-      <c r="AB226" s="574"/>
-      <c r="AC226" s="574"/>
-      <c r="AD226" s="574"/>
-      <c r="AE226" s="574"/>
-      <c r="AF226" s="574"/>
-      <c r="AG226" s="574"/>
-      <c r="AH226" s="575"/>
+      <c r="P226" s="600"/>
+      <c r="Q226" s="600"/>
+      <c r="R226" s="600"/>
+      <c r="S226" s="600"/>
+      <c r="T226" s="600"/>
+      <c r="U226" s="600"/>
+      <c r="V226" s="600"/>
+      <c r="W226" s="600"/>
+      <c r="X226" s="600"/>
+      <c r="Y226" s="600"/>
+      <c r="Z226" s="600"/>
+      <c r="AA226" s="600"/>
+      <c r="AB226" s="600"/>
+      <c r="AC226" s="600"/>
+      <c r="AD226" s="600"/>
+      <c r="AE226" s="600"/>
+      <c r="AF226" s="600"/>
+      <c r="AG226" s="600"/>
+      <c r="AH226" s="601"/>
     </row>
     <row r="227" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="50"/>
-      <c r="F227" s="522" t="s">
+      <c r="F227" s="525" t="s">
         <v>196</v>
       </c>
-      <c r="G227" s="542"/>
-      <c r="H227" s="542"/>
-      <c r="I227" s="542"/>
-      <c r="J227" s="543"/>
-      <c r="K227" s="547" t="s">
+      <c r="G227" s="604"/>
+      <c r="H227" s="604"/>
+      <c r="I227" s="604"/>
+      <c r="J227" s="605"/>
+      <c r="K227" s="589" t="s">
         <v>35</v>
       </c>
-      <c r="L227" s="524"/>
-      <c r="M227" s="550" t="s">
+      <c r="L227" s="527"/>
+      <c r="M227" s="594" t="s">
         <v>36</v>
       </c>
-      <c r="N227" s="551"/>
-      <c r="O227" s="547" t="s">
+      <c r="N227" s="595"/>
+      <c r="O227" s="589" t="s">
         <v>43</v>
       </c>
-      <c r="P227" s="523"/>
-      <c r="Q227" s="523"/>
-      <c r="R227" s="523"/>
-      <c r="S227" s="523"/>
-      <c r="T227" s="523"/>
-      <c r="U227" s="523"/>
-      <c r="V227" s="523"/>
-      <c r="W227" s="523"/>
-      <c r="X227" s="523"/>
-      <c r="Y227" s="523"/>
-      <c r="Z227" s="523"/>
-      <c r="AA227" s="523"/>
-      <c r="AB227" s="523"/>
-      <c r="AC227" s="523"/>
-      <c r="AD227" s="523"/>
-      <c r="AE227" s="523"/>
-      <c r="AF227" s="523"/>
-      <c r="AG227" s="523"/>
-      <c r="AH227" s="524"/>
+      <c r="P227" s="526"/>
+      <c r="Q227" s="526"/>
+      <c r="R227" s="526"/>
+      <c r="S227" s="526"/>
+      <c r="T227" s="526"/>
+      <c r="U227" s="526"/>
+      <c r="V227" s="526"/>
+      <c r="W227" s="526"/>
+      <c r="X227" s="526"/>
+      <c r="Y227" s="526"/>
+      <c r="Z227" s="526"/>
+      <c r="AA227" s="526"/>
+      <c r="AB227" s="526"/>
+      <c r="AC227" s="526"/>
+      <c r="AD227" s="526"/>
+      <c r="AE227" s="526"/>
+      <c r="AF227" s="526"/>
+      <c r="AG227" s="526"/>
+      <c r="AH227" s="527"/>
     </row>
     <row r="228" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="50"/>
-      <c r="F228" s="544"/>
-      <c r="G228" s="545"/>
-      <c r="H228" s="545"/>
-      <c r="I228" s="545"/>
-      <c r="J228" s="546"/>
-      <c r="K228" s="548"/>
-      <c r="L228" s="549"/>
-      <c r="M228" s="548"/>
-      <c r="N228" s="549"/>
-      <c r="O228" s="548"/>
-      <c r="P228" s="552"/>
-      <c r="Q228" s="552"/>
-      <c r="R228" s="552"/>
-      <c r="S228" s="552"/>
-      <c r="T228" s="552"/>
-      <c r="U228" s="552"/>
-      <c r="V228" s="552"/>
-      <c r="W228" s="552"/>
-      <c r="X228" s="552"/>
-      <c r="Y228" s="552"/>
-      <c r="Z228" s="552"/>
-      <c r="AA228" s="552"/>
-      <c r="AB228" s="552"/>
-      <c r="AC228" s="552"/>
-      <c r="AD228" s="552"/>
-      <c r="AE228" s="552"/>
-      <c r="AF228" s="552"/>
-      <c r="AG228" s="552"/>
-      <c r="AH228" s="549"/>
+      <c r="F228" s="606"/>
+      <c r="G228" s="607"/>
+      <c r="H228" s="607"/>
+      <c r="I228" s="607"/>
+      <c r="J228" s="608"/>
+      <c r="K228" s="602"/>
+      <c r="L228" s="603"/>
+      <c r="M228" s="602"/>
+      <c r="N228" s="603"/>
+      <c r="O228" s="602"/>
+      <c r="P228" s="609"/>
+      <c r="Q228" s="609"/>
+      <c r="R228" s="609"/>
+      <c r="S228" s="609"/>
+      <c r="T228" s="609"/>
+      <c r="U228" s="609"/>
+      <c r="V228" s="609"/>
+      <c r="W228" s="609"/>
+      <c r="X228" s="609"/>
+      <c r="Y228" s="609"/>
+      <c r="Z228" s="609"/>
+      <c r="AA228" s="609"/>
+      <c r="AB228" s="609"/>
+      <c r="AC228" s="609"/>
+      <c r="AD228" s="609"/>
+      <c r="AE228" s="609"/>
+      <c r="AF228" s="609"/>
+      <c r="AG228" s="609"/>
+      <c r="AH228" s="603"/>
     </row>
     <row r="229" spans="1:34" s="291" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="50"/>
@@ -43809,48 +43827,78 @@
     </row>
   </sheetData>
   <mergeCells count="138">
-    <mergeCell ref="D156:D172"/>
-    <mergeCell ref="D155:J155"/>
-    <mergeCell ref="E156:J164"/>
-    <mergeCell ref="E165:J172"/>
-    <mergeCell ref="D152:J152"/>
-    <mergeCell ref="D153:J153"/>
-    <mergeCell ref="D154:J154"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="K155:R155"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="K154:R154"/>
-    <mergeCell ref="K152:R152"/>
-    <mergeCell ref="K153:R153"/>
-    <mergeCell ref="O189:AH189"/>
-    <mergeCell ref="O190:AH193"/>
-    <mergeCell ref="O204:AH205"/>
-    <mergeCell ref="K203:L203"/>
-    <mergeCell ref="K210:L210"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="M185:N188"/>
-    <mergeCell ref="M189:N189"/>
-    <mergeCell ref="M190:N193"/>
-    <mergeCell ref="M194:N195"/>
-    <mergeCell ref="M196:N197"/>
-    <mergeCell ref="M198:N199"/>
-    <mergeCell ref="M200:N200"/>
-    <mergeCell ref="O194:AH195"/>
-    <mergeCell ref="O196:AH197"/>
-    <mergeCell ref="O198:AH199"/>
-    <mergeCell ref="O200:AH200"/>
-    <mergeCell ref="M201:N202"/>
-    <mergeCell ref="M203:N203"/>
-    <mergeCell ref="M204:N205"/>
-    <mergeCell ref="K194:L195"/>
-    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="F227:J228"/>
+    <mergeCell ref="K227:L228"/>
+    <mergeCell ref="M227:N228"/>
+    <mergeCell ref="F225:J225"/>
+    <mergeCell ref="O227:AH228"/>
+    <mergeCell ref="F210:J210"/>
+    <mergeCell ref="O201:AH202"/>
+    <mergeCell ref="K224:L224"/>
+    <mergeCell ref="M224:N224"/>
+    <mergeCell ref="O210:AH210"/>
+    <mergeCell ref="O203:AH203"/>
+    <mergeCell ref="O211:AH212"/>
+    <mergeCell ref="O213:AH214"/>
+    <mergeCell ref="O215:AH216"/>
+    <mergeCell ref="O217:AH218"/>
+    <mergeCell ref="O221:AH223"/>
+    <mergeCell ref="M213:N214"/>
+    <mergeCell ref="F211:J212"/>
+    <mergeCell ref="F213:J214"/>
+    <mergeCell ref="F215:J216"/>
+    <mergeCell ref="F217:J218"/>
+    <mergeCell ref="F221:J223"/>
+    <mergeCell ref="O219:AH219"/>
+    <mergeCell ref="O220:AH220"/>
+    <mergeCell ref="F219:J219"/>
+    <mergeCell ref="F220:J220"/>
+    <mergeCell ref="F224:J224"/>
+    <mergeCell ref="F183:J183"/>
+    <mergeCell ref="F184:J184"/>
+    <mergeCell ref="F185:J188"/>
+    <mergeCell ref="F189:J189"/>
+    <mergeCell ref="F190:J193"/>
+    <mergeCell ref="K204:L205"/>
+    <mergeCell ref="K200:L200"/>
+    <mergeCell ref="F200:J200"/>
+    <mergeCell ref="F203:J203"/>
+    <mergeCell ref="F198:J199"/>
+    <mergeCell ref="F201:J202"/>
+    <mergeCell ref="F204:J205"/>
+    <mergeCell ref="F194:J195"/>
+    <mergeCell ref="F196:J197"/>
+    <mergeCell ref="K196:L197"/>
+    <mergeCell ref="K198:L199"/>
+    <mergeCell ref="K190:L193"/>
+    <mergeCell ref="K185:L188"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="K201:L202"/>
+    <mergeCell ref="S165:AH172"/>
+    <mergeCell ref="M210:N210"/>
+    <mergeCell ref="K226:L226"/>
+    <mergeCell ref="K213:L214"/>
+    <mergeCell ref="K215:L216"/>
+    <mergeCell ref="K220:L220"/>
+    <mergeCell ref="K219:L219"/>
+    <mergeCell ref="K211:L212"/>
+    <mergeCell ref="K221:L223"/>
+    <mergeCell ref="K225:L225"/>
+    <mergeCell ref="M225:N225"/>
+    <mergeCell ref="K217:L218"/>
+    <mergeCell ref="M215:N216"/>
+    <mergeCell ref="M220:N220"/>
+    <mergeCell ref="M219:N219"/>
+    <mergeCell ref="M211:N212"/>
+    <mergeCell ref="M221:N223"/>
+    <mergeCell ref="O183:AH183"/>
+    <mergeCell ref="O184:AH184"/>
+    <mergeCell ref="M217:N218"/>
+    <mergeCell ref="M226:N226"/>
+    <mergeCell ref="O224:AH224"/>
+    <mergeCell ref="O225:AH225"/>
+    <mergeCell ref="O226:AH226"/>
     <mergeCell ref="M183:N183"/>
     <mergeCell ref="S164:AH164"/>
     <mergeCell ref="F226:J226"/>
@@ -43875,78 +43923,48 @@
     <mergeCell ref="K164:R164"/>
     <mergeCell ref="S155:AH155"/>
     <mergeCell ref="O185:AH188"/>
-    <mergeCell ref="S165:AH172"/>
-    <mergeCell ref="M210:N210"/>
-    <mergeCell ref="K226:L226"/>
-    <mergeCell ref="K213:L214"/>
-    <mergeCell ref="K215:L216"/>
-    <mergeCell ref="K220:L220"/>
-    <mergeCell ref="K219:L219"/>
-    <mergeCell ref="K211:L212"/>
-    <mergeCell ref="K221:L223"/>
-    <mergeCell ref="K225:L225"/>
-    <mergeCell ref="M225:N225"/>
-    <mergeCell ref="K217:L218"/>
-    <mergeCell ref="M215:N216"/>
-    <mergeCell ref="M220:N220"/>
-    <mergeCell ref="M219:N219"/>
-    <mergeCell ref="M211:N212"/>
-    <mergeCell ref="M221:N223"/>
-    <mergeCell ref="O183:AH183"/>
-    <mergeCell ref="O184:AH184"/>
-    <mergeCell ref="M217:N218"/>
-    <mergeCell ref="M226:N226"/>
-    <mergeCell ref="O224:AH224"/>
-    <mergeCell ref="O225:AH225"/>
-    <mergeCell ref="O226:AH226"/>
-    <mergeCell ref="F219:J219"/>
-    <mergeCell ref="F220:J220"/>
-    <mergeCell ref="F224:J224"/>
-    <mergeCell ref="F183:J183"/>
-    <mergeCell ref="F184:J184"/>
-    <mergeCell ref="F185:J188"/>
-    <mergeCell ref="F189:J189"/>
-    <mergeCell ref="F190:J193"/>
-    <mergeCell ref="K204:L205"/>
-    <mergeCell ref="K200:L200"/>
-    <mergeCell ref="F200:J200"/>
-    <mergeCell ref="F203:J203"/>
-    <mergeCell ref="F198:J199"/>
-    <mergeCell ref="F201:J202"/>
-    <mergeCell ref="F204:J205"/>
-    <mergeCell ref="F194:J195"/>
-    <mergeCell ref="F196:J197"/>
-    <mergeCell ref="K196:L197"/>
-    <mergeCell ref="K198:L199"/>
-    <mergeCell ref="K190:L193"/>
-    <mergeCell ref="K185:L188"/>
-    <mergeCell ref="K183:L183"/>
-    <mergeCell ref="K184:L184"/>
-    <mergeCell ref="K201:L202"/>
-    <mergeCell ref="F227:J228"/>
-    <mergeCell ref="K227:L228"/>
-    <mergeCell ref="M227:N228"/>
-    <mergeCell ref="F225:J225"/>
-    <mergeCell ref="O227:AH228"/>
-    <mergeCell ref="F210:J210"/>
-    <mergeCell ref="O201:AH202"/>
-    <mergeCell ref="K224:L224"/>
-    <mergeCell ref="M224:N224"/>
-    <mergeCell ref="O210:AH210"/>
-    <mergeCell ref="O203:AH203"/>
-    <mergeCell ref="O211:AH212"/>
-    <mergeCell ref="O213:AH214"/>
-    <mergeCell ref="O215:AH216"/>
-    <mergeCell ref="O217:AH218"/>
-    <mergeCell ref="O221:AH223"/>
-    <mergeCell ref="M213:N214"/>
-    <mergeCell ref="F211:J212"/>
-    <mergeCell ref="F213:J214"/>
-    <mergeCell ref="F215:J216"/>
-    <mergeCell ref="F217:J218"/>
-    <mergeCell ref="F221:J223"/>
-    <mergeCell ref="O219:AH219"/>
-    <mergeCell ref="O220:AH220"/>
+    <mergeCell ref="O189:AH189"/>
+    <mergeCell ref="O190:AH193"/>
+    <mergeCell ref="O204:AH205"/>
+    <mergeCell ref="K203:L203"/>
+    <mergeCell ref="K210:L210"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="M185:N188"/>
+    <mergeCell ref="M189:N189"/>
+    <mergeCell ref="M190:N193"/>
+    <mergeCell ref="M194:N195"/>
+    <mergeCell ref="M196:N197"/>
+    <mergeCell ref="M198:N199"/>
+    <mergeCell ref="M200:N200"/>
+    <mergeCell ref="O194:AH195"/>
+    <mergeCell ref="O196:AH197"/>
+    <mergeCell ref="O198:AH199"/>
+    <mergeCell ref="O200:AH200"/>
+    <mergeCell ref="M201:N202"/>
+    <mergeCell ref="M203:N203"/>
+    <mergeCell ref="M204:N205"/>
+    <mergeCell ref="K194:L195"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="K154:R154"/>
+    <mergeCell ref="K152:R152"/>
+    <mergeCell ref="K153:R153"/>
+    <mergeCell ref="D156:D172"/>
+    <mergeCell ref="D155:J155"/>
+    <mergeCell ref="E156:J164"/>
+    <mergeCell ref="E165:J172"/>
+    <mergeCell ref="D152:J152"/>
+    <mergeCell ref="D153:J153"/>
+    <mergeCell ref="D154:J154"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="K155:R155"/>
+    <mergeCell ref="O1:R3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/010_設計標準/UI標準(画面).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/010_設計標準/UI標準(画面).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA7E4E5-5837-4E5C-9F5D-3521A11CCE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279A892B-6E4E-440A-85FB-86B42CEC9698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6286,28 +6286,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>PRG(POST-Redirect-GET)パターンは二重更新を防ぐ手法の1つで、POSTリクエストの後の画面遷移をリダイレクトで行う。</t>
-    <rPh sb="27" eb="31">
-      <t>ニジュウコウシン</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>フセ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シュホウ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="53" eb="57">
-      <t>ガメンセンイ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>これにより、POSTリクエスト直後の画面でブラウザの再読み込みを行ったときに、同じPOSTリクエストが二重で送信されることを防ぐことができる。</t>
     <rPh sb="15" eb="17">
       <t>チョクゴ</t>
@@ -7036,6 +7014,28 @@
     </rPh>
     <rPh sb="31" eb="32">
       <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>PRG(POST-Redirect-GET)パターンは二重更新を防ぐ手法の1つで、POSTリクエストの後の画面遷移をリダイレクトで行うようにする。</t>
+    <rPh sb="27" eb="31">
+      <t>ニジュウコウシン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>フセ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="53" eb="57">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -8786,6 +8786,120 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -8822,186 +8936,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -9011,6 +9011,33 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9093,33 +9120,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9128,6 +9128,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9194,15 +9203,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9227,6 +9227,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9236,6 +9245,189 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9251,21 +9443,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9278,33 +9455,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9322,159 +9475,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -24799,57 +24799,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="448" t="s">
+      <c r="A1" s="420" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="440"/>
-      <c r="C1" s="440"/>
-      <c r="D1" s="441"/>
-      <c r="E1" s="442" t="s">
+      <c r="B1" s="412"/>
+      <c r="C1" s="412"/>
+      <c r="D1" s="413"/>
+      <c r="E1" s="414" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="443"/>
-      <c r="G1" s="443"/>
-      <c r="H1" s="443"/>
-      <c r="I1" s="443"/>
-      <c r="J1" s="443"/>
-      <c r="K1" s="443"/>
-      <c r="L1" s="443"/>
-      <c r="M1" s="443"/>
-      <c r="N1" s="444"/>
-      <c r="O1" s="449" t="s">
+      <c r="F1" s="415"/>
+      <c r="G1" s="415"/>
+      <c r="H1" s="415"/>
+      <c r="I1" s="415"/>
+      <c r="J1" s="415"/>
+      <c r="K1" s="415"/>
+      <c r="L1" s="415"/>
+      <c r="M1" s="415"/>
+      <c r="N1" s="416"/>
+      <c r="O1" s="421" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="450"/>
-      <c r="Q1" s="450"/>
-      <c r="R1" s="451"/>
-      <c r="S1" s="458" t="s">
+      <c r="P1" s="422"/>
+      <c r="Q1" s="422"/>
+      <c r="R1" s="423"/>
+      <c r="S1" s="430" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="459"/>
-      <c r="U1" s="459"/>
-      <c r="V1" s="459"/>
-      <c r="W1" s="459"/>
-      <c r="X1" s="459"/>
-      <c r="Y1" s="459"/>
-      <c r="Z1" s="460"/>
-      <c r="AA1" s="439" t="s">
+      <c r="T1" s="431"/>
+      <c r="U1" s="431"/>
+      <c r="V1" s="431"/>
+      <c r="W1" s="431"/>
+      <c r="X1" s="431"/>
+      <c r="Y1" s="431"/>
+      <c r="Z1" s="432"/>
+      <c r="AA1" s="411" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="441"/>
-      <c r="AC1" s="467" t="str">
+      <c r="AB1" s="413"/>
+      <c r="AC1" s="439" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="468"/>
-      <c r="AE1" s="468"/>
-      <c r="AF1" s="469"/>
-      <c r="AG1" s="433">
+      <c r="AD1" s="440"/>
+      <c r="AE1" s="440"/>
+      <c r="AF1" s="441"/>
+      <c r="AG1" s="405">
         <f>IF(D8="","",D8)</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="434"/>
-      <c r="AI1" s="435"/>
+      <c r="AH1" s="406"/>
+      <c r="AI1" s="407"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -24857,53 +24857,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="439" t="s">
+      <c r="A2" s="411" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="440"/>
-      <c r="C2" s="440"/>
-      <c r="D2" s="441"/>
-      <c r="E2" s="442" t="s">
+      <c r="B2" s="412"/>
+      <c r="C2" s="412"/>
+      <c r="D2" s="413"/>
+      <c r="E2" s="414" t="s">
         <v>251</v>
       </c>
-      <c r="F2" s="443"/>
-      <c r="G2" s="443"/>
-      <c r="H2" s="443"/>
-      <c r="I2" s="443"/>
-      <c r="J2" s="443"/>
-      <c r="K2" s="443"/>
-      <c r="L2" s="443"/>
-      <c r="M2" s="443"/>
-      <c r="N2" s="444"/>
-      <c r="O2" s="452"/>
-      <c r="P2" s="453"/>
-      <c r="Q2" s="453"/>
-      <c r="R2" s="454"/>
-      <c r="S2" s="461"/>
-      <c r="T2" s="462"/>
-      <c r="U2" s="462"/>
-      <c r="V2" s="462"/>
-      <c r="W2" s="462"/>
-      <c r="X2" s="462"/>
-      <c r="Y2" s="462"/>
-      <c r="Z2" s="463"/>
-      <c r="AA2" s="439" t="s">
+      <c r="F2" s="415"/>
+      <c r="G2" s="415"/>
+      <c r="H2" s="415"/>
+      <c r="I2" s="415"/>
+      <c r="J2" s="415"/>
+      <c r="K2" s="415"/>
+      <c r="L2" s="415"/>
+      <c r="M2" s="415"/>
+      <c r="N2" s="416"/>
+      <c r="O2" s="424"/>
+      <c r="P2" s="425"/>
+      <c r="Q2" s="425"/>
+      <c r="R2" s="426"/>
+      <c r="S2" s="433"/>
+      <c r="T2" s="434"/>
+      <c r="U2" s="434"/>
+      <c r="V2" s="434"/>
+      <c r="W2" s="434"/>
+      <c r="X2" s="434"/>
+      <c r="Y2" s="434"/>
+      <c r="Z2" s="435"/>
+      <c r="AA2" s="411" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="441"/>
-      <c r="AC2" s="445" t="str">
+      <c r="AB2" s="413"/>
+      <c r="AC2" s="417" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="446"/>
-      <c r="AE2" s="446"/>
-      <c r="AF2" s="447"/>
-      <c r="AG2" s="433" t="str">
+      <c r="AD2" s="418"/>
+      <c r="AE2" s="418"/>
+      <c r="AF2" s="419"/>
+      <c r="AG2" s="405" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="434"/>
-      <c r="AI2" s="435"/>
+      <c r="AH2" s="406"/>
+      <c r="AI2" s="407"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -24911,43 +24911,43 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="439" t="s">
+      <c r="A3" s="411" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="440"/>
-      <c r="C3" s="440"/>
-      <c r="D3" s="441"/>
-      <c r="E3" s="470"/>
-      <c r="F3" s="443"/>
-      <c r="G3" s="443"/>
-      <c r="H3" s="443"/>
-      <c r="I3" s="443"/>
-      <c r="J3" s="443"/>
-      <c r="K3" s="443"/>
-      <c r="L3" s="443"/>
-      <c r="M3" s="443"/>
-      <c r="N3" s="444"/>
-      <c r="O3" s="455"/>
-      <c r="P3" s="456"/>
-      <c r="Q3" s="456"/>
-      <c r="R3" s="457"/>
-      <c r="S3" s="464"/>
-      <c r="T3" s="465"/>
-      <c r="U3" s="465"/>
-      <c r="V3" s="465"/>
-      <c r="W3" s="465"/>
-      <c r="X3" s="465"/>
-      <c r="Y3" s="465"/>
-      <c r="Z3" s="466"/>
-      <c r="AA3" s="439"/>
-      <c r="AB3" s="441"/>
-      <c r="AC3" s="467"/>
-      <c r="AD3" s="468"/>
-      <c r="AE3" s="468"/>
-      <c r="AF3" s="469"/>
-      <c r="AG3" s="433"/>
-      <c r="AH3" s="434"/>
-      <c r="AI3" s="435"/>
+      <c r="B3" s="412"/>
+      <c r="C3" s="412"/>
+      <c r="D3" s="413"/>
+      <c r="E3" s="442"/>
+      <c r="F3" s="415"/>
+      <c r="G3" s="415"/>
+      <c r="H3" s="415"/>
+      <c r="I3" s="415"/>
+      <c r="J3" s="415"/>
+      <c r="K3" s="415"/>
+      <c r="L3" s="415"/>
+      <c r="M3" s="415"/>
+      <c r="N3" s="416"/>
+      <c r="O3" s="427"/>
+      <c r="P3" s="428"/>
+      <c r="Q3" s="428"/>
+      <c r="R3" s="429"/>
+      <c r="S3" s="436"/>
+      <c r="T3" s="437"/>
+      <c r="U3" s="437"/>
+      <c r="V3" s="437"/>
+      <c r="W3" s="437"/>
+      <c r="X3" s="437"/>
+      <c r="Y3" s="437"/>
+      <c r="Z3" s="438"/>
+      <c r="AA3" s="411"/>
+      <c r="AB3" s="413"/>
+      <c r="AC3" s="439"/>
+      <c r="AD3" s="440"/>
+      <c r="AE3" s="440"/>
+      <c r="AF3" s="441"/>
+      <c r="AG3" s="405"/>
+      <c r="AH3" s="406"/>
+      <c r="AI3" s="407"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -24984,1034 +24984,1190 @@
       <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="436" t="s">
+      <c r="B7" s="408" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="437"/>
-      <c r="D7" s="436" t="s">
+      <c r="C7" s="409"/>
+      <c r="D7" s="408" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="438"/>
-      <c r="F7" s="437"/>
-      <c r="G7" s="436" t="s">
+      <c r="E7" s="410"/>
+      <c r="F7" s="409"/>
+      <c r="G7" s="408" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="438"/>
-      <c r="I7" s="437"/>
-      <c r="J7" s="436" t="s">
+      <c r="H7" s="410"/>
+      <c r="I7" s="409"/>
+      <c r="J7" s="408" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="438"/>
-      <c r="L7" s="438"/>
-      <c r="M7" s="438"/>
-      <c r="N7" s="438"/>
-      <c r="O7" s="438"/>
-      <c r="P7" s="437"/>
-      <c r="Q7" s="436" t="s">
+      <c r="K7" s="410"/>
+      <c r="L7" s="410"/>
+      <c r="M7" s="410"/>
+      <c r="N7" s="410"/>
+      <c r="O7" s="410"/>
+      <c r="P7" s="409"/>
+      <c r="Q7" s="408" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="438"/>
-      <c r="S7" s="438"/>
-      <c r="T7" s="438"/>
-      <c r="U7" s="438"/>
-      <c r="V7" s="438"/>
-      <c r="W7" s="438"/>
-      <c r="X7" s="438"/>
-      <c r="Y7" s="438"/>
-      <c r="Z7" s="438"/>
-      <c r="AA7" s="438"/>
-      <c r="AB7" s="438"/>
-      <c r="AC7" s="438"/>
-      <c r="AD7" s="438"/>
-      <c r="AE7" s="437"/>
-      <c r="AF7" s="436" t="s">
+      <c r="R7" s="410"/>
+      <c r="S7" s="410"/>
+      <c r="T7" s="410"/>
+      <c r="U7" s="410"/>
+      <c r="V7" s="410"/>
+      <c r="W7" s="410"/>
+      <c r="X7" s="410"/>
+      <c r="Y7" s="410"/>
+      <c r="Z7" s="410"/>
+      <c r="AA7" s="410"/>
+      <c r="AB7" s="410"/>
+      <c r="AC7" s="410"/>
+      <c r="AD7" s="410"/>
+      <c r="AE7" s="409"/>
+      <c r="AF7" s="408" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="438"/>
-      <c r="AH7" s="438"/>
-      <c r="AI7" s="437"/>
+      <c r="AG7" s="410"/>
+      <c r="AH7" s="410"/>
+      <c r="AI7" s="409"/>
     </row>
     <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="140">
         <v>1</v>
       </c>
-      <c r="B8" s="418" t="s">
+      <c r="B8" s="455" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="419"/>
-      <c r="D8" s="420">
+      <c r="C8" s="456"/>
+      <c r="D8" s="457">
         <v>43620</v>
       </c>
-      <c r="E8" s="421"/>
-      <c r="F8" s="422"/>
-      <c r="G8" s="423" t="s">
+      <c r="E8" s="458"/>
+      <c r="F8" s="459"/>
+      <c r="G8" s="460" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="424"/>
-      <c r="I8" s="425"/>
-      <c r="J8" s="426" t="s">
+      <c r="H8" s="461"/>
+      <c r="I8" s="462"/>
+      <c r="J8" s="463" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="427"/>
-      <c r="L8" s="427"/>
-      <c r="M8" s="427"/>
-      <c r="N8" s="427"/>
-      <c r="O8" s="427"/>
-      <c r="P8" s="428"/>
-      <c r="Q8" s="429" t="s">
+      <c r="K8" s="464"/>
+      <c r="L8" s="464"/>
+      <c r="M8" s="464"/>
+      <c r="N8" s="464"/>
+      <c r="O8" s="464"/>
+      <c r="P8" s="465"/>
+      <c r="Q8" s="466" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="430"/>
-      <c r="S8" s="430"/>
-      <c r="T8" s="430"/>
-      <c r="U8" s="430"/>
-      <c r="V8" s="430"/>
-      <c r="W8" s="430"/>
-      <c r="X8" s="430"/>
-      <c r="Y8" s="430"/>
-      <c r="Z8" s="430"/>
-      <c r="AA8" s="430"/>
-      <c r="AB8" s="430"/>
-      <c r="AC8" s="430"/>
-      <c r="AD8" s="430"/>
-      <c r="AE8" s="431"/>
-      <c r="AF8" s="432" t="s">
+      <c r="R8" s="467"/>
+      <c r="S8" s="467"/>
+      <c r="T8" s="467"/>
+      <c r="U8" s="467"/>
+      <c r="V8" s="467"/>
+      <c r="W8" s="467"/>
+      <c r="X8" s="467"/>
+      <c r="Y8" s="467"/>
+      <c r="Z8" s="467"/>
+      <c r="AA8" s="467"/>
+      <c r="AB8" s="467"/>
+      <c r="AC8" s="467"/>
+      <c r="AD8" s="467"/>
+      <c r="AE8" s="468"/>
+      <c r="AF8" s="469" t="s">
         <v>471</v>
       </c>
-      <c r="AG8" s="427"/>
-      <c r="AH8" s="427"/>
-      <c r="AI8" s="428"/>
+      <c r="AG8" s="464"/>
+      <c r="AH8" s="464"/>
+      <c r="AI8" s="465"/>
     </row>
     <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="139"/>
-      <c r="B9" s="405"/>
-      <c r="C9" s="406"/>
-      <c r="D9" s="407"/>
-      <c r="E9" s="408"/>
-      <c r="F9" s="409"/>
-      <c r="G9" s="407"/>
-      <c r="H9" s="410"/>
-      <c r="I9" s="406"/>
-      <c r="J9" s="411"/>
-      <c r="K9" s="412"/>
-      <c r="L9" s="412"/>
-      <c r="M9" s="412"/>
-      <c r="N9" s="412"/>
-      <c r="O9" s="412"/>
-      <c r="P9" s="413"/>
-      <c r="Q9" s="414"/>
-      <c r="R9" s="415"/>
-      <c r="S9" s="415"/>
-      <c r="T9" s="415"/>
-      <c r="U9" s="415"/>
-      <c r="V9" s="415"/>
-      <c r="W9" s="415"/>
-      <c r="X9" s="415"/>
-      <c r="Y9" s="415"/>
-      <c r="Z9" s="415"/>
-      <c r="AA9" s="415"/>
-      <c r="AB9" s="415"/>
-      <c r="AC9" s="415"/>
-      <c r="AD9" s="415"/>
-      <c r="AE9" s="416"/>
-      <c r="AF9" s="411"/>
-      <c r="AG9" s="412"/>
-      <c r="AH9" s="412"/>
-      <c r="AI9" s="413"/>
+      <c r="B9" s="443"/>
+      <c r="C9" s="444"/>
+      <c r="D9" s="445"/>
+      <c r="E9" s="446"/>
+      <c r="F9" s="447"/>
+      <c r="G9" s="445"/>
+      <c r="H9" s="448"/>
+      <c r="I9" s="444"/>
+      <c r="J9" s="449"/>
+      <c r="K9" s="450"/>
+      <c r="L9" s="450"/>
+      <c r="M9" s="450"/>
+      <c r="N9" s="450"/>
+      <c r="O9" s="450"/>
+      <c r="P9" s="451"/>
+      <c r="Q9" s="452"/>
+      <c r="R9" s="453"/>
+      <c r="S9" s="453"/>
+      <c r="T9" s="453"/>
+      <c r="U9" s="453"/>
+      <c r="V9" s="453"/>
+      <c r="W9" s="453"/>
+      <c r="X9" s="453"/>
+      <c r="Y9" s="453"/>
+      <c r="Z9" s="453"/>
+      <c r="AA9" s="453"/>
+      <c r="AB9" s="453"/>
+      <c r="AC9" s="453"/>
+      <c r="AD9" s="453"/>
+      <c r="AE9" s="454"/>
+      <c r="AF9" s="449"/>
+      <c r="AG9" s="450"/>
+      <c r="AH9" s="450"/>
+      <c r="AI9" s="451"/>
     </row>
     <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="139"/>
-      <c r="B10" s="405"/>
-      <c r="C10" s="406"/>
-      <c r="D10" s="407"/>
-      <c r="E10" s="408"/>
-      <c r="F10" s="409"/>
-      <c r="G10" s="405"/>
-      <c r="H10" s="410"/>
-      <c r="I10" s="406"/>
-      <c r="J10" s="411"/>
-      <c r="K10" s="412"/>
-      <c r="L10" s="412"/>
-      <c r="M10" s="412"/>
-      <c r="N10" s="412"/>
-      <c r="O10" s="412"/>
-      <c r="P10" s="413"/>
-      <c r="Q10" s="414"/>
-      <c r="R10" s="415"/>
-      <c r="S10" s="415"/>
-      <c r="T10" s="415"/>
-      <c r="U10" s="415"/>
-      <c r="V10" s="415"/>
-      <c r="W10" s="415"/>
-      <c r="X10" s="415"/>
-      <c r="Y10" s="415"/>
-      <c r="Z10" s="415"/>
-      <c r="AA10" s="415"/>
-      <c r="AB10" s="415"/>
-      <c r="AC10" s="415"/>
-      <c r="AD10" s="415"/>
-      <c r="AE10" s="416"/>
-      <c r="AF10" s="411"/>
-      <c r="AG10" s="412"/>
-      <c r="AH10" s="412"/>
-      <c r="AI10" s="413"/>
+      <c r="B10" s="443"/>
+      <c r="C10" s="444"/>
+      <c r="D10" s="445"/>
+      <c r="E10" s="446"/>
+      <c r="F10" s="447"/>
+      <c r="G10" s="443"/>
+      <c r="H10" s="448"/>
+      <c r="I10" s="444"/>
+      <c r="J10" s="449"/>
+      <c r="K10" s="450"/>
+      <c r="L10" s="450"/>
+      <c r="M10" s="450"/>
+      <c r="N10" s="450"/>
+      <c r="O10" s="450"/>
+      <c r="P10" s="451"/>
+      <c r="Q10" s="452"/>
+      <c r="R10" s="453"/>
+      <c r="S10" s="453"/>
+      <c r="T10" s="453"/>
+      <c r="U10" s="453"/>
+      <c r="V10" s="453"/>
+      <c r="W10" s="453"/>
+      <c r="X10" s="453"/>
+      <c r="Y10" s="453"/>
+      <c r="Z10" s="453"/>
+      <c r="AA10" s="453"/>
+      <c r="AB10" s="453"/>
+      <c r="AC10" s="453"/>
+      <c r="AD10" s="453"/>
+      <c r="AE10" s="454"/>
+      <c r="AF10" s="449"/>
+      <c r="AG10" s="450"/>
+      <c r="AH10" s="450"/>
+      <c r="AI10" s="451"/>
     </row>
     <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="139"/>
-      <c r="B11" s="405"/>
-      <c r="C11" s="406"/>
-      <c r="D11" s="407"/>
-      <c r="E11" s="408"/>
-      <c r="F11" s="409"/>
-      <c r="G11" s="405"/>
-      <c r="H11" s="410"/>
-      <c r="I11" s="406"/>
-      <c r="J11" s="411"/>
-      <c r="K11" s="412"/>
-      <c r="L11" s="412"/>
-      <c r="M11" s="412"/>
-      <c r="N11" s="412"/>
-      <c r="O11" s="412"/>
-      <c r="P11" s="413"/>
-      <c r="Q11" s="414"/>
-      <c r="R11" s="415"/>
-      <c r="S11" s="415"/>
-      <c r="T11" s="415"/>
-      <c r="U11" s="415"/>
-      <c r="V11" s="415"/>
-      <c r="W11" s="415"/>
-      <c r="X11" s="415"/>
-      <c r="Y11" s="415"/>
-      <c r="Z11" s="415"/>
-      <c r="AA11" s="415"/>
-      <c r="AB11" s="415"/>
-      <c r="AC11" s="415"/>
-      <c r="AD11" s="415"/>
-      <c r="AE11" s="416"/>
-      <c r="AF11" s="411"/>
-      <c r="AG11" s="412"/>
-      <c r="AH11" s="412"/>
-      <c r="AI11" s="413"/>
+      <c r="B11" s="443"/>
+      <c r="C11" s="444"/>
+      <c r="D11" s="445"/>
+      <c r="E11" s="446"/>
+      <c r="F11" s="447"/>
+      <c r="G11" s="443"/>
+      <c r="H11" s="448"/>
+      <c r="I11" s="444"/>
+      <c r="J11" s="449"/>
+      <c r="K11" s="450"/>
+      <c r="L11" s="450"/>
+      <c r="M11" s="450"/>
+      <c r="N11" s="450"/>
+      <c r="O11" s="450"/>
+      <c r="P11" s="451"/>
+      <c r="Q11" s="452"/>
+      <c r="R11" s="453"/>
+      <c r="S11" s="453"/>
+      <c r="T11" s="453"/>
+      <c r="U11" s="453"/>
+      <c r="V11" s="453"/>
+      <c r="W11" s="453"/>
+      <c r="X11" s="453"/>
+      <c r="Y11" s="453"/>
+      <c r="Z11" s="453"/>
+      <c r="AA11" s="453"/>
+      <c r="AB11" s="453"/>
+      <c r="AC11" s="453"/>
+      <c r="AD11" s="453"/>
+      <c r="AE11" s="454"/>
+      <c r="AF11" s="449"/>
+      <c r="AG11" s="450"/>
+      <c r="AH11" s="450"/>
+      <c r="AI11" s="451"/>
     </row>
     <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="139"/>
-      <c r="B12" s="405"/>
-      <c r="C12" s="406"/>
-      <c r="D12" s="407"/>
-      <c r="E12" s="408"/>
-      <c r="F12" s="409"/>
-      <c r="G12" s="405"/>
-      <c r="H12" s="410"/>
-      <c r="I12" s="406"/>
-      <c r="J12" s="411"/>
-      <c r="K12" s="412"/>
-      <c r="L12" s="412"/>
-      <c r="M12" s="412"/>
-      <c r="N12" s="412"/>
-      <c r="O12" s="412"/>
-      <c r="P12" s="413"/>
-      <c r="Q12" s="414"/>
-      <c r="R12" s="415"/>
-      <c r="S12" s="415"/>
-      <c r="T12" s="415"/>
-      <c r="U12" s="415"/>
-      <c r="V12" s="415"/>
-      <c r="W12" s="415"/>
-      <c r="X12" s="415"/>
-      <c r="Y12" s="415"/>
-      <c r="Z12" s="415"/>
-      <c r="AA12" s="415"/>
-      <c r="AB12" s="415"/>
-      <c r="AC12" s="415"/>
-      <c r="AD12" s="415"/>
-      <c r="AE12" s="416"/>
-      <c r="AF12" s="411"/>
-      <c r="AG12" s="412"/>
-      <c r="AH12" s="412"/>
-      <c r="AI12" s="413"/>
+      <c r="B12" s="443"/>
+      <c r="C12" s="444"/>
+      <c r="D12" s="445"/>
+      <c r="E12" s="446"/>
+      <c r="F12" s="447"/>
+      <c r="G12" s="443"/>
+      <c r="H12" s="448"/>
+      <c r="I12" s="444"/>
+      <c r="J12" s="449"/>
+      <c r="K12" s="450"/>
+      <c r="L12" s="450"/>
+      <c r="M12" s="450"/>
+      <c r="N12" s="450"/>
+      <c r="O12" s="450"/>
+      <c r="P12" s="451"/>
+      <c r="Q12" s="452"/>
+      <c r="R12" s="453"/>
+      <c r="S12" s="453"/>
+      <c r="T12" s="453"/>
+      <c r="U12" s="453"/>
+      <c r="V12" s="453"/>
+      <c r="W12" s="453"/>
+      <c r="X12" s="453"/>
+      <c r="Y12" s="453"/>
+      <c r="Z12" s="453"/>
+      <c r="AA12" s="453"/>
+      <c r="AB12" s="453"/>
+      <c r="AC12" s="453"/>
+      <c r="AD12" s="453"/>
+      <c r="AE12" s="454"/>
+      <c r="AF12" s="449"/>
+      <c r="AG12" s="450"/>
+      <c r="AH12" s="450"/>
+      <c r="AI12" s="451"/>
     </row>
     <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="139"/>
-      <c r="B13" s="405"/>
-      <c r="C13" s="406"/>
-      <c r="D13" s="407"/>
-      <c r="E13" s="408"/>
-      <c r="F13" s="409"/>
-      <c r="G13" s="405"/>
-      <c r="H13" s="410"/>
-      <c r="I13" s="406"/>
-      <c r="J13" s="411"/>
-      <c r="K13" s="412"/>
-      <c r="L13" s="412"/>
-      <c r="M13" s="412"/>
-      <c r="N13" s="412"/>
-      <c r="O13" s="412"/>
-      <c r="P13" s="413"/>
-      <c r="Q13" s="414"/>
-      <c r="R13" s="415"/>
-      <c r="S13" s="415"/>
-      <c r="T13" s="415"/>
-      <c r="U13" s="415"/>
-      <c r="V13" s="415"/>
-      <c r="W13" s="415"/>
-      <c r="X13" s="415"/>
-      <c r="Y13" s="415"/>
-      <c r="Z13" s="415"/>
-      <c r="AA13" s="415"/>
-      <c r="AB13" s="415"/>
-      <c r="AC13" s="415"/>
-      <c r="AD13" s="415"/>
-      <c r="AE13" s="416"/>
-      <c r="AF13" s="411"/>
-      <c r="AG13" s="412"/>
-      <c r="AH13" s="412"/>
-      <c r="AI13" s="413"/>
+      <c r="B13" s="443"/>
+      <c r="C13" s="444"/>
+      <c r="D13" s="445"/>
+      <c r="E13" s="446"/>
+      <c r="F13" s="447"/>
+      <c r="G13" s="443"/>
+      <c r="H13" s="448"/>
+      <c r="I13" s="444"/>
+      <c r="J13" s="449"/>
+      <c r="K13" s="450"/>
+      <c r="L13" s="450"/>
+      <c r="M13" s="450"/>
+      <c r="N13" s="450"/>
+      <c r="O13" s="450"/>
+      <c r="P13" s="451"/>
+      <c r="Q13" s="452"/>
+      <c r="R13" s="453"/>
+      <c r="S13" s="453"/>
+      <c r="T13" s="453"/>
+      <c r="U13" s="453"/>
+      <c r="V13" s="453"/>
+      <c r="W13" s="453"/>
+      <c r="X13" s="453"/>
+      <c r="Y13" s="453"/>
+      <c r="Z13" s="453"/>
+      <c r="AA13" s="453"/>
+      <c r="AB13" s="453"/>
+      <c r="AC13" s="453"/>
+      <c r="AD13" s="453"/>
+      <c r="AE13" s="454"/>
+      <c r="AF13" s="449"/>
+      <c r="AG13" s="450"/>
+      <c r="AH13" s="450"/>
+      <c r="AI13" s="451"/>
     </row>
     <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="139"/>
-      <c r="B14" s="405"/>
-      <c r="C14" s="406"/>
-      <c r="D14" s="407"/>
-      <c r="E14" s="408"/>
-      <c r="F14" s="409"/>
-      <c r="G14" s="405"/>
-      <c r="H14" s="410"/>
-      <c r="I14" s="406"/>
-      <c r="J14" s="411"/>
-      <c r="K14" s="412"/>
-      <c r="L14" s="412"/>
-      <c r="M14" s="412"/>
-      <c r="N14" s="412"/>
-      <c r="O14" s="412"/>
-      <c r="P14" s="413"/>
-      <c r="Q14" s="414"/>
-      <c r="R14" s="415"/>
-      <c r="S14" s="415"/>
-      <c r="T14" s="415"/>
-      <c r="U14" s="415"/>
-      <c r="V14" s="415"/>
-      <c r="W14" s="415"/>
-      <c r="X14" s="415"/>
-      <c r="Y14" s="415"/>
-      <c r="Z14" s="415"/>
-      <c r="AA14" s="415"/>
-      <c r="AB14" s="415"/>
-      <c r="AC14" s="415"/>
-      <c r="AD14" s="415"/>
-      <c r="AE14" s="416"/>
-      <c r="AF14" s="411"/>
-      <c r="AG14" s="412"/>
-      <c r="AH14" s="412"/>
-      <c r="AI14" s="413"/>
+      <c r="B14" s="443"/>
+      <c r="C14" s="444"/>
+      <c r="D14" s="445"/>
+      <c r="E14" s="446"/>
+      <c r="F14" s="447"/>
+      <c r="G14" s="443"/>
+      <c r="H14" s="448"/>
+      <c r="I14" s="444"/>
+      <c r="J14" s="449"/>
+      <c r="K14" s="450"/>
+      <c r="L14" s="450"/>
+      <c r="M14" s="450"/>
+      <c r="N14" s="450"/>
+      <c r="O14" s="450"/>
+      <c r="P14" s="451"/>
+      <c r="Q14" s="452"/>
+      <c r="R14" s="453"/>
+      <c r="S14" s="453"/>
+      <c r="T14" s="453"/>
+      <c r="U14" s="453"/>
+      <c r="V14" s="453"/>
+      <c r="W14" s="453"/>
+      <c r="X14" s="453"/>
+      <c r="Y14" s="453"/>
+      <c r="Z14" s="453"/>
+      <c r="AA14" s="453"/>
+      <c r="AB14" s="453"/>
+      <c r="AC14" s="453"/>
+      <c r="AD14" s="453"/>
+      <c r="AE14" s="454"/>
+      <c r="AF14" s="449"/>
+      <c r="AG14" s="450"/>
+      <c r="AH14" s="450"/>
+      <c r="AI14" s="451"/>
     </row>
     <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="139"/>
-      <c r="B15" s="405"/>
-      <c r="C15" s="406"/>
-      <c r="D15" s="407"/>
-      <c r="E15" s="408"/>
-      <c r="F15" s="409"/>
-      <c r="G15" s="405"/>
-      <c r="H15" s="410"/>
-      <c r="I15" s="406"/>
-      <c r="J15" s="411"/>
-      <c r="K15" s="412"/>
-      <c r="L15" s="412"/>
-      <c r="M15" s="412"/>
-      <c r="N15" s="412"/>
-      <c r="O15" s="412"/>
-      <c r="P15" s="413"/>
-      <c r="Q15" s="414"/>
-      <c r="R15" s="415"/>
-      <c r="S15" s="415"/>
-      <c r="T15" s="415"/>
-      <c r="U15" s="415"/>
-      <c r="V15" s="415"/>
-      <c r="W15" s="415"/>
-      <c r="X15" s="415"/>
-      <c r="Y15" s="415"/>
-      <c r="Z15" s="415"/>
-      <c r="AA15" s="415"/>
-      <c r="AB15" s="415"/>
-      <c r="AC15" s="415"/>
-      <c r="AD15" s="415"/>
-      <c r="AE15" s="416"/>
-      <c r="AF15" s="411"/>
-      <c r="AG15" s="412"/>
-      <c r="AH15" s="412"/>
-      <c r="AI15" s="413"/>
+      <c r="B15" s="443"/>
+      <c r="C15" s="444"/>
+      <c r="D15" s="445"/>
+      <c r="E15" s="446"/>
+      <c r="F15" s="447"/>
+      <c r="G15" s="443"/>
+      <c r="H15" s="448"/>
+      <c r="I15" s="444"/>
+      <c r="J15" s="449"/>
+      <c r="K15" s="450"/>
+      <c r="L15" s="450"/>
+      <c r="M15" s="450"/>
+      <c r="N15" s="450"/>
+      <c r="O15" s="450"/>
+      <c r="P15" s="451"/>
+      <c r="Q15" s="452"/>
+      <c r="R15" s="453"/>
+      <c r="S15" s="453"/>
+      <c r="T15" s="453"/>
+      <c r="U15" s="453"/>
+      <c r="V15" s="453"/>
+      <c r="W15" s="453"/>
+      <c r="X15" s="453"/>
+      <c r="Y15" s="453"/>
+      <c r="Z15" s="453"/>
+      <c r="AA15" s="453"/>
+      <c r="AB15" s="453"/>
+      <c r="AC15" s="453"/>
+      <c r="AD15" s="453"/>
+      <c r="AE15" s="454"/>
+      <c r="AF15" s="449"/>
+      <c r="AG15" s="450"/>
+      <c r="AH15" s="450"/>
+      <c r="AI15" s="451"/>
     </row>
     <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="139"/>
-      <c r="B16" s="405"/>
-      <c r="C16" s="406"/>
-      <c r="D16" s="407"/>
-      <c r="E16" s="408"/>
-      <c r="F16" s="409"/>
-      <c r="G16" s="405"/>
-      <c r="H16" s="410"/>
-      <c r="I16" s="406"/>
-      <c r="J16" s="411"/>
-      <c r="K16" s="412"/>
-      <c r="L16" s="412"/>
-      <c r="M16" s="412"/>
-      <c r="N16" s="412"/>
-      <c r="O16" s="412"/>
-      <c r="P16" s="413"/>
-      <c r="Q16" s="414"/>
-      <c r="R16" s="415"/>
-      <c r="S16" s="415"/>
-      <c r="T16" s="415"/>
-      <c r="U16" s="415"/>
-      <c r="V16" s="415"/>
-      <c r="W16" s="415"/>
-      <c r="X16" s="415"/>
-      <c r="Y16" s="415"/>
-      <c r="Z16" s="415"/>
-      <c r="AA16" s="415"/>
-      <c r="AB16" s="415"/>
-      <c r="AC16" s="415"/>
-      <c r="AD16" s="415"/>
-      <c r="AE16" s="416"/>
-      <c r="AF16" s="411"/>
-      <c r="AG16" s="412"/>
-      <c r="AH16" s="412"/>
-      <c r="AI16" s="413"/>
+      <c r="B16" s="443"/>
+      <c r="C16" s="444"/>
+      <c r="D16" s="445"/>
+      <c r="E16" s="446"/>
+      <c r="F16" s="447"/>
+      <c r="G16" s="443"/>
+      <c r="H16" s="448"/>
+      <c r="I16" s="444"/>
+      <c r="J16" s="449"/>
+      <c r="K16" s="450"/>
+      <c r="L16" s="450"/>
+      <c r="M16" s="450"/>
+      <c r="N16" s="450"/>
+      <c r="O16" s="450"/>
+      <c r="P16" s="451"/>
+      <c r="Q16" s="452"/>
+      <c r="R16" s="453"/>
+      <c r="S16" s="453"/>
+      <c r="T16" s="453"/>
+      <c r="U16" s="453"/>
+      <c r="V16" s="453"/>
+      <c r="W16" s="453"/>
+      <c r="X16" s="453"/>
+      <c r="Y16" s="453"/>
+      <c r="Z16" s="453"/>
+      <c r="AA16" s="453"/>
+      <c r="AB16" s="453"/>
+      <c r="AC16" s="453"/>
+      <c r="AD16" s="453"/>
+      <c r="AE16" s="454"/>
+      <c r="AF16" s="449"/>
+      <c r="AG16" s="450"/>
+      <c r="AH16" s="450"/>
+      <c r="AI16" s="451"/>
     </row>
     <row r="17" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="139"/>
-      <c r="B17" s="405"/>
-      <c r="C17" s="406"/>
-      <c r="D17" s="407"/>
-      <c r="E17" s="408"/>
-      <c r="F17" s="409"/>
-      <c r="G17" s="405"/>
-      <c r="H17" s="410"/>
-      <c r="I17" s="406"/>
-      <c r="J17" s="411"/>
-      <c r="K17" s="412"/>
-      <c r="L17" s="412"/>
-      <c r="M17" s="412"/>
-      <c r="N17" s="412"/>
-      <c r="O17" s="412"/>
-      <c r="P17" s="413"/>
-      <c r="Q17" s="414"/>
-      <c r="R17" s="415"/>
-      <c r="S17" s="415"/>
-      <c r="T17" s="415"/>
-      <c r="U17" s="415"/>
-      <c r="V17" s="415"/>
-      <c r="W17" s="415"/>
-      <c r="X17" s="415"/>
-      <c r="Y17" s="415"/>
-      <c r="Z17" s="415"/>
-      <c r="AA17" s="415"/>
-      <c r="AB17" s="415"/>
-      <c r="AC17" s="415"/>
-      <c r="AD17" s="415"/>
-      <c r="AE17" s="416"/>
-      <c r="AF17" s="411"/>
-      <c r="AG17" s="412"/>
-      <c r="AH17" s="412"/>
-      <c r="AI17" s="413"/>
+      <c r="B17" s="443"/>
+      <c r="C17" s="444"/>
+      <c r="D17" s="445"/>
+      <c r="E17" s="446"/>
+      <c r="F17" s="447"/>
+      <c r="G17" s="443"/>
+      <c r="H17" s="448"/>
+      <c r="I17" s="444"/>
+      <c r="J17" s="449"/>
+      <c r="K17" s="450"/>
+      <c r="L17" s="450"/>
+      <c r="M17" s="450"/>
+      <c r="N17" s="450"/>
+      <c r="O17" s="450"/>
+      <c r="P17" s="451"/>
+      <c r="Q17" s="452"/>
+      <c r="R17" s="453"/>
+      <c r="S17" s="453"/>
+      <c r="T17" s="453"/>
+      <c r="U17" s="453"/>
+      <c r="V17" s="453"/>
+      <c r="W17" s="453"/>
+      <c r="X17" s="453"/>
+      <c r="Y17" s="453"/>
+      <c r="Z17" s="453"/>
+      <c r="AA17" s="453"/>
+      <c r="AB17" s="453"/>
+      <c r="AC17" s="453"/>
+      <c r="AD17" s="453"/>
+      <c r="AE17" s="454"/>
+      <c r="AF17" s="449"/>
+      <c r="AG17" s="450"/>
+      <c r="AH17" s="450"/>
+      <c r="AI17" s="451"/>
     </row>
     <row r="18" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="139"/>
-      <c r="B18" s="405"/>
-      <c r="C18" s="406"/>
-      <c r="D18" s="407"/>
-      <c r="E18" s="408"/>
-      <c r="F18" s="409"/>
-      <c r="G18" s="405"/>
-      <c r="H18" s="410"/>
-      <c r="I18" s="406"/>
-      <c r="J18" s="411"/>
-      <c r="K18" s="412"/>
-      <c r="L18" s="412"/>
-      <c r="M18" s="412"/>
-      <c r="N18" s="412"/>
-      <c r="O18" s="412"/>
-      <c r="P18" s="413"/>
-      <c r="Q18" s="414"/>
-      <c r="R18" s="415"/>
-      <c r="S18" s="415"/>
-      <c r="T18" s="415"/>
-      <c r="U18" s="415"/>
-      <c r="V18" s="415"/>
-      <c r="W18" s="415"/>
-      <c r="X18" s="415"/>
-      <c r="Y18" s="415"/>
-      <c r="Z18" s="415"/>
-      <c r="AA18" s="415"/>
-      <c r="AB18" s="415"/>
-      <c r="AC18" s="415"/>
-      <c r="AD18" s="415"/>
-      <c r="AE18" s="416"/>
-      <c r="AF18" s="411"/>
-      <c r="AG18" s="412"/>
-      <c r="AH18" s="412"/>
-      <c r="AI18" s="413"/>
+      <c r="B18" s="443"/>
+      <c r="C18" s="444"/>
+      <c r="D18" s="445"/>
+      <c r="E18" s="446"/>
+      <c r="F18" s="447"/>
+      <c r="G18" s="443"/>
+      <c r="H18" s="448"/>
+      <c r="I18" s="444"/>
+      <c r="J18" s="449"/>
+      <c r="K18" s="450"/>
+      <c r="L18" s="450"/>
+      <c r="M18" s="450"/>
+      <c r="N18" s="450"/>
+      <c r="O18" s="450"/>
+      <c r="P18" s="451"/>
+      <c r="Q18" s="452"/>
+      <c r="R18" s="453"/>
+      <c r="S18" s="453"/>
+      <c r="T18" s="453"/>
+      <c r="U18" s="453"/>
+      <c r="V18" s="453"/>
+      <c r="W18" s="453"/>
+      <c r="X18" s="453"/>
+      <c r="Y18" s="453"/>
+      <c r="Z18" s="453"/>
+      <c r="AA18" s="453"/>
+      <c r="AB18" s="453"/>
+      <c r="AC18" s="453"/>
+      <c r="AD18" s="453"/>
+      <c r="AE18" s="454"/>
+      <c r="AF18" s="449"/>
+      <c r="AG18" s="450"/>
+      <c r="AH18" s="450"/>
+      <c r="AI18" s="451"/>
     </row>
     <row r="19" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="139"/>
-      <c r="B19" s="405"/>
-      <c r="C19" s="406"/>
-      <c r="D19" s="407"/>
-      <c r="E19" s="408"/>
-      <c r="F19" s="409"/>
-      <c r="G19" s="405"/>
-      <c r="H19" s="410"/>
-      <c r="I19" s="406"/>
-      <c r="J19" s="411"/>
-      <c r="K19" s="412"/>
-      <c r="L19" s="412"/>
-      <c r="M19" s="412"/>
-      <c r="N19" s="412"/>
-      <c r="O19" s="412"/>
-      <c r="P19" s="413"/>
-      <c r="Q19" s="414"/>
-      <c r="R19" s="415"/>
-      <c r="S19" s="415"/>
-      <c r="T19" s="415"/>
-      <c r="U19" s="415"/>
-      <c r="V19" s="415"/>
-      <c r="W19" s="415"/>
-      <c r="X19" s="415"/>
-      <c r="Y19" s="415"/>
-      <c r="Z19" s="415"/>
-      <c r="AA19" s="415"/>
-      <c r="AB19" s="415"/>
-      <c r="AC19" s="415"/>
-      <c r="AD19" s="415"/>
-      <c r="AE19" s="416"/>
-      <c r="AF19" s="411"/>
-      <c r="AG19" s="412"/>
-      <c r="AH19" s="412"/>
-      <c r="AI19" s="413"/>
+      <c r="B19" s="443"/>
+      <c r="C19" s="444"/>
+      <c r="D19" s="445"/>
+      <c r="E19" s="446"/>
+      <c r="F19" s="447"/>
+      <c r="G19" s="443"/>
+      <c r="H19" s="448"/>
+      <c r="I19" s="444"/>
+      <c r="J19" s="449"/>
+      <c r="K19" s="450"/>
+      <c r="L19" s="450"/>
+      <c r="M19" s="450"/>
+      <c r="N19" s="450"/>
+      <c r="O19" s="450"/>
+      <c r="P19" s="451"/>
+      <c r="Q19" s="452"/>
+      <c r="R19" s="453"/>
+      <c r="S19" s="453"/>
+      <c r="T19" s="453"/>
+      <c r="U19" s="453"/>
+      <c r="V19" s="453"/>
+      <c r="W19" s="453"/>
+      <c r="X19" s="453"/>
+      <c r="Y19" s="453"/>
+      <c r="Z19" s="453"/>
+      <c r="AA19" s="453"/>
+      <c r="AB19" s="453"/>
+      <c r="AC19" s="453"/>
+      <c r="AD19" s="453"/>
+      <c r="AE19" s="454"/>
+      <c r="AF19" s="449"/>
+      <c r="AG19" s="450"/>
+      <c r="AH19" s="450"/>
+      <c r="AI19" s="451"/>
     </row>
     <row r="20" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="139"/>
-      <c r="B20" s="405"/>
-      <c r="C20" s="406"/>
-      <c r="D20" s="407"/>
-      <c r="E20" s="408"/>
-      <c r="F20" s="409"/>
-      <c r="G20" s="405"/>
-      <c r="H20" s="410"/>
-      <c r="I20" s="406"/>
-      <c r="J20" s="411"/>
-      <c r="K20" s="412"/>
-      <c r="L20" s="412"/>
-      <c r="M20" s="412"/>
-      <c r="N20" s="412"/>
-      <c r="O20" s="412"/>
-      <c r="P20" s="413"/>
-      <c r="Q20" s="414"/>
-      <c r="R20" s="415"/>
-      <c r="S20" s="415"/>
-      <c r="T20" s="415"/>
-      <c r="U20" s="415"/>
-      <c r="V20" s="415"/>
-      <c r="W20" s="415"/>
-      <c r="X20" s="415"/>
-      <c r="Y20" s="415"/>
-      <c r="Z20" s="415"/>
-      <c r="AA20" s="415"/>
-      <c r="AB20" s="415"/>
-      <c r="AC20" s="415"/>
-      <c r="AD20" s="415"/>
-      <c r="AE20" s="416"/>
-      <c r="AF20" s="411"/>
-      <c r="AG20" s="412"/>
-      <c r="AH20" s="412"/>
-      <c r="AI20" s="413"/>
+      <c r="B20" s="443"/>
+      <c r="C20" s="444"/>
+      <c r="D20" s="445"/>
+      <c r="E20" s="446"/>
+      <c r="F20" s="447"/>
+      <c r="G20" s="443"/>
+      <c r="H20" s="448"/>
+      <c r="I20" s="444"/>
+      <c r="J20" s="449"/>
+      <c r="K20" s="450"/>
+      <c r="L20" s="450"/>
+      <c r="M20" s="450"/>
+      <c r="N20" s="450"/>
+      <c r="O20" s="450"/>
+      <c r="P20" s="451"/>
+      <c r="Q20" s="452"/>
+      <c r="R20" s="453"/>
+      <c r="S20" s="453"/>
+      <c r="T20" s="453"/>
+      <c r="U20" s="453"/>
+      <c r="V20" s="453"/>
+      <c r="W20" s="453"/>
+      <c r="X20" s="453"/>
+      <c r="Y20" s="453"/>
+      <c r="Z20" s="453"/>
+      <c r="AA20" s="453"/>
+      <c r="AB20" s="453"/>
+      <c r="AC20" s="453"/>
+      <c r="AD20" s="453"/>
+      <c r="AE20" s="454"/>
+      <c r="AF20" s="449"/>
+      <c r="AG20" s="450"/>
+      <c r="AH20" s="450"/>
+      <c r="AI20" s="451"/>
     </row>
     <row r="21" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="139"/>
-      <c r="B21" s="405"/>
-      <c r="C21" s="406"/>
-      <c r="D21" s="407"/>
-      <c r="E21" s="408"/>
-      <c r="F21" s="409"/>
-      <c r="G21" s="405"/>
-      <c r="H21" s="410"/>
-      <c r="I21" s="406"/>
-      <c r="J21" s="411"/>
-      <c r="K21" s="412"/>
-      <c r="L21" s="412"/>
-      <c r="M21" s="412"/>
-      <c r="N21" s="412"/>
-      <c r="O21" s="412"/>
-      <c r="P21" s="413"/>
-      <c r="Q21" s="414"/>
-      <c r="R21" s="415"/>
-      <c r="S21" s="415"/>
-      <c r="T21" s="415"/>
-      <c r="U21" s="415"/>
-      <c r="V21" s="415"/>
-      <c r="W21" s="415"/>
-      <c r="X21" s="415"/>
-      <c r="Y21" s="415"/>
-      <c r="Z21" s="415"/>
-      <c r="AA21" s="415"/>
-      <c r="AB21" s="415"/>
-      <c r="AC21" s="415"/>
-      <c r="AD21" s="415"/>
-      <c r="AE21" s="416"/>
-      <c r="AF21" s="411"/>
-      <c r="AG21" s="412"/>
-      <c r="AH21" s="412"/>
-      <c r="AI21" s="413"/>
+      <c r="B21" s="443"/>
+      <c r="C21" s="444"/>
+      <c r="D21" s="445"/>
+      <c r="E21" s="446"/>
+      <c r="F21" s="447"/>
+      <c r="G21" s="443"/>
+      <c r="H21" s="448"/>
+      <c r="I21" s="444"/>
+      <c r="J21" s="449"/>
+      <c r="K21" s="450"/>
+      <c r="L21" s="450"/>
+      <c r="M21" s="450"/>
+      <c r="N21" s="450"/>
+      <c r="O21" s="450"/>
+      <c r="P21" s="451"/>
+      <c r="Q21" s="452"/>
+      <c r="R21" s="453"/>
+      <c r="S21" s="453"/>
+      <c r="T21" s="453"/>
+      <c r="U21" s="453"/>
+      <c r="V21" s="453"/>
+      <c r="W21" s="453"/>
+      <c r="X21" s="453"/>
+      <c r="Y21" s="453"/>
+      <c r="Z21" s="453"/>
+      <c r="AA21" s="453"/>
+      <c r="AB21" s="453"/>
+      <c r="AC21" s="453"/>
+      <c r="AD21" s="453"/>
+      <c r="AE21" s="454"/>
+      <c r="AF21" s="449"/>
+      <c r="AG21" s="450"/>
+      <c r="AH21" s="450"/>
+      <c r="AI21" s="451"/>
     </row>
     <row r="22" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="139"/>
-      <c r="B22" s="405"/>
-      <c r="C22" s="406"/>
-      <c r="D22" s="407"/>
-      <c r="E22" s="408"/>
-      <c r="F22" s="409"/>
-      <c r="G22" s="405"/>
-      <c r="H22" s="410"/>
-      <c r="I22" s="406"/>
-      <c r="J22" s="411"/>
-      <c r="K22" s="412"/>
-      <c r="L22" s="412"/>
-      <c r="M22" s="412"/>
-      <c r="N22" s="412"/>
-      <c r="O22" s="412"/>
-      <c r="P22" s="413"/>
-      <c r="Q22" s="414"/>
-      <c r="R22" s="415"/>
-      <c r="S22" s="415"/>
-      <c r="T22" s="415"/>
-      <c r="U22" s="415"/>
-      <c r="V22" s="415"/>
-      <c r="W22" s="415"/>
-      <c r="X22" s="415"/>
-      <c r="Y22" s="415"/>
-      <c r="Z22" s="415"/>
-      <c r="AA22" s="415"/>
-      <c r="AB22" s="415"/>
-      <c r="AC22" s="415"/>
-      <c r="AD22" s="415"/>
-      <c r="AE22" s="416"/>
-      <c r="AF22" s="411"/>
-      <c r="AG22" s="412"/>
-      <c r="AH22" s="412"/>
-      <c r="AI22" s="413"/>
+      <c r="B22" s="443"/>
+      <c r="C22" s="444"/>
+      <c r="D22" s="445"/>
+      <c r="E22" s="446"/>
+      <c r="F22" s="447"/>
+      <c r="G22" s="443"/>
+      <c r="H22" s="448"/>
+      <c r="I22" s="444"/>
+      <c r="J22" s="449"/>
+      <c r="K22" s="450"/>
+      <c r="L22" s="450"/>
+      <c r="M22" s="450"/>
+      <c r="N22" s="450"/>
+      <c r="O22" s="450"/>
+      <c r="P22" s="451"/>
+      <c r="Q22" s="452"/>
+      <c r="R22" s="453"/>
+      <c r="S22" s="453"/>
+      <c r="T22" s="453"/>
+      <c r="U22" s="453"/>
+      <c r="V22" s="453"/>
+      <c r="W22" s="453"/>
+      <c r="X22" s="453"/>
+      <c r="Y22" s="453"/>
+      <c r="Z22" s="453"/>
+      <c r="AA22" s="453"/>
+      <c r="AB22" s="453"/>
+      <c r="AC22" s="453"/>
+      <c r="AD22" s="453"/>
+      <c r="AE22" s="454"/>
+      <c r="AF22" s="449"/>
+      <c r="AG22" s="450"/>
+      <c r="AH22" s="450"/>
+      <c r="AI22" s="451"/>
     </row>
     <row r="23" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="139"/>
-      <c r="B23" s="405"/>
-      <c r="C23" s="406"/>
-      <c r="D23" s="407"/>
-      <c r="E23" s="408"/>
-      <c r="F23" s="409"/>
-      <c r="G23" s="405"/>
-      <c r="H23" s="410"/>
-      <c r="I23" s="406"/>
-      <c r="J23" s="411"/>
-      <c r="K23" s="412"/>
-      <c r="L23" s="412"/>
-      <c r="M23" s="412"/>
-      <c r="N23" s="412"/>
-      <c r="O23" s="412"/>
-      <c r="P23" s="413"/>
-      <c r="Q23" s="414"/>
-      <c r="R23" s="415"/>
-      <c r="S23" s="415"/>
-      <c r="T23" s="415"/>
-      <c r="U23" s="415"/>
-      <c r="V23" s="415"/>
-      <c r="W23" s="415"/>
-      <c r="X23" s="415"/>
-      <c r="Y23" s="415"/>
-      <c r="Z23" s="415"/>
-      <c r="AA23" s="415"/>
-      <c r="AB23" s="415"/>
-      <c r="AC23" s="415"/>
-      <c r="AD23" s="415"/>
-      <c r="AE23" s="416"/>
-      <c r="AF23" s="411"/>
-      <c r="AG23" s="412"/>
-      <c r="AH23" s="412"/>
-      <c r="AI23" s="413"/>
+      <c r="B23" s="443"/>
+      <c r="C23" s="444"/>
+      <c r="D23" s="445"/>
+      <c r="E23" s="446"/>
+      <c r="F23" s="447"/>
+      <c r="G23" s="443"/>
+      <c r="H23" s="448"/>
+      <c r="I23" s="444"/>
+      <c r="J23" s="449"/>
+      <c r="K23" s="450"/>
+      <c r="L23" s="450"/>
+      <c r="M23" s="450"/>
+      <c r="N23" s="450"/>
+      <c r="O23" s="450"/>
+      <c r="P23" s="451"/>
+      <c r="Q23" s="452"/>
+      <c r="R23" s="453"/>
+      <c r="S23" s="453"/>
+      <c r="T23" s="453"/>
+      <c r="U23" s="453"/>
+      <c r="V23" s="453"/>
+      <c r="W23" s="453"/>
+      <c r="X23" s="453"/>
+      <c r="Y23" s="453"/>
+      <c r="Z23" s="453"/>
+      <c r="AA23" s="453"/>
+      <c r="AB23" s="453"/>
+      <c r="AC23" s="453"/>
+      <c r="AD23" s="453"/>
+      <c r="AE23" s="454"/>
+      <c r="AF23" s="449"/>
+      <c r="AG23" s="450"/>
+      <c r="AH23" s="450"/>
+      <c r="AI23" s="451"/>
     </row>
     <row r="24" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="139"/>
-      <c r="B24" s="405"/>
-      <c r="C24" s="406"/>
-      <c r="D24" s="407"/>
-      <c r="E24" s="408"/>
-      <c r="F24" s="409"/>
-      <c r="G24" s="405"/>
-      <c r="H24" s="410"/>
-      <c r="I24" s="406"/>
-      <c r="J24" s="411"/>
-      <c r="K24" s="412"/>
-      <c r="L24" s="412"/>
-      <c r="M24" s="412"/>
-      <c r="N24" s="412"/>
-      <c r="O24" s="412"/>
-      <c r="P24" s="413"/>
-      <c r="Q24" s="414"/>
-      <c r="R24" s="415"/>
-      <c r="S24" s="415"/>
-      <c r="T24" s="415"/>
-      <c r="U24" s="415"/>
-      <c r="V24" s="415"/>
-      <c r="W24" s="415"/>
-      <c r="X24" s="415"/>
-      <c r="Y24" s="415"/>
-      <c r="Z24" s="415"/>
-      <c r="AA24" s="415"/>
-      <c r="AB24" s="415"/>
-      <c r="AC24" s="415"/>
-      <c r="AD24" s="415"/>
-      <c r="AE24" s="416"/>
-      <c r="AF24" s="411"/>
-      <c r="AG24" s="412"/>
-      <c r="AH24" s="412"/>
-      <c r="AI24" s="413"/>
+      <c r="B24" s="443"/>
+      <c r="C24" s="444"/>
+      <c r="D24" s="445"/>
+      <c r="E24" s="446"/>
+      <c r="F24" s="447"/>
+      <c r="G24" s="443"/>
+      <c r="H24" s="448"/>
+      <c r="I24" s="444"/>
+      <c r="J24" s="449"/>
+      <c r="K24" s="450"/>
+      <c r="L24" s="450"/>
+      <c r="M24" s="450"/>
+      <c r="N24" s="450"/>
+      <c r="O24" s="450"/>
+      <c r="P24" s="451"/>
+      <c r="Q24" s="452"/>
+      <c r="R24" s="453"/>
+      <c r="S24" s="453"/>
+      <c r="T24" s="453"/>
+      <c r="U24" s="453"/>
+      <c r="V24" s="453"/>
+      <c r="W24" s="453"/>
+      <c r="X24" s="453"/>
+      <c r="Y24" s="453"/>
+      <c r="Z24" s="453"/>
+      <c r="AA24" s="453"/>
+      <c r="AB24" s="453"/>
+      <c r="AC24" s="453"/>
+      <c r="AD24" s="453"/>
+      <c r="AE24" s="454"/>
+      <c r="AF24" s="449"/>
+      <c r="AG24" s="450"/>
+      <c r="AH24" s="450"/>
+      <c r="AI24" s="451"/>
     </row>
     <row r="25" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="139"/>
-      <c r="B25" s="405"/>
-      <c r="C25" s="406"/>
-      <c r="D25" s="407"/>
-      <c r="E25" s="408"/>
-      <c r="F25" s="409"/>
-      <c r="G25" s="405"/>
-      <c r="H25" s="410"/>
-      <c r="I25" s="406"/>
-      <c r="J25" s="411"/>
-      <c r="K25" s="412"/>
-      <c r="L25" s="412"/>
-      <c r="M25" s="412"/>
-      <c r="N25" s="412"/>
-      <c r="O25" s="412"/>
-      <c r="P25" s="413"/>
-      <c r="Q25" s="414"/>
-      <c r="R25" s="415"/>
-      <c r="S25" s="415"/>
-      <c r="T25" s="415"/>
-      <c r="U25" s="415"/>
-      <c r="V25" s="415"/>
-      <c r="W25" s="415"/>
-      <c r="X25" s="415"/>
-      <c r="Y25" s="415"/>
-      <c r="Z25" s="415"/>
-      <c r="AA25" s="415"/>
-      <c r="AB25" s="415"/>
-      <c r="AC25" s="415"/>
-      <c r="AD25" s="415"/>
-      <c r="AE25" s="416"/>
-      <c r="AF25" s="411"/>
-      <c r="AG25" s="412"/>
-      <c r="AH25" s="412"/>
-      <c r="AI25" s="413"/>
+      <c r="B25" s="443"/>
+      <c r="C25" s="444"/>
+      <c r="D25" s="445"/>
+      <c r="E25" s="446"/>
+      <c r="F25" s="447"/>
+      <c r="G25" s="443"/>
+      <c r="H25" s="448"/>
+      <c r="I25" s="444"/>
+      <c r="J25" s="449"/>
+      <c r="K25" s="450"/>
+      <c r="L25" s="450"/>
+      <c r="M25" s="450"/>
+      <c r="N25" s="450"/>
+      <c r="O25" s="450"/>
+      <c r="P25" s="451"/>
+      <c r="Q25" s="452"/>
+      <c r="R25" s="453"/>
+      <c r="S25" s="453"/>
+      <c r="T25" s="453"/>
+      <c r="U25" s="453"/>
+      <c r="V25" s="453"/>
+      <c r="W25" s="453"/>
+      <c r="X25" s="453"/>
+      <c r="Y25" s="453"/>
+      <c r="Z25" s="453"/>
+      <c r="AA25" s="453"/>
+      <c r="AB25" s="453"/>
+      <c r="AC25" s="453"/>
+      <c r="AD25" s="453"/>
+      <c r="AE25" s="454"/>
+      <c r="AF25" s="449"/>
+      <c r="AG25" s="450"/>
+      <c r="AH25" s="450"/>
+      <c r="AI25" s="451"/>
     </row>
     <row r="26" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="139"/>
-      <c r="B26" s="405"/>
-      <c r="C26" s="406"/>
-      <c r="D26" s="407"/>
-      <c r="E26" s="408"/>
-      <c r="F26" s="409"/>
-      <c r="G26" s="405"/>
-      <c r="H26" s="410"/>
-      <c r="I26" s="406"/>
-      <c r="J26" s="411"/>
-      <c r="K26" s="412"/>
-      <c r="L26" s="412"/>
-      <c r="M26" s="412"/>
-      <c r="N26" s="412"/>
-      <c r="O26" s="412"/>
-      <c r="P26" s="413"/>
-      <c r="Q26" s="414"/>
-      <c r="R26" s="415"/>
-      <c r="S26" s="415"/>
-      <c r="T26" s="415"/>
-      <c r="U26" s="415"/>
-      <c r="V26" s="415"/>
-      <c r="W26" s="415"/>
-      <c r="X26" s="415"/>
-      <c r="Y26" s="415"/>
-      <c r="Z26" s="415"/>
-      <c r="AA26" s="415"/>
-      <c r="AB26" s="415"/>
-      <c r="AC26" s="415"/>
-      <c r="AD26" s="415"/>
-      <c r="AE26" s="416"/>
-      <c r="AF26" s="411"/>
-      <c r="AG26" s="412"/>
-      <c r="AH26" s="412"/>
-      <c r="AI26" s="413"/>
+      <c r="B26" s="443"/>
+      <c r="C26" s="444"/>
+      <c r="D26" s="445"/>
+      <c r="E26" s="446"/>
+      <c r="F26" s="447"/>
+      <c r="G26" s="443"/>
+      <c r="H26" s="448"/>
+      <c r="I26" s="444"/>
+      <c r="J26" s="449"/>
+      <c r="K26" s="450"/>
+      <c r="L26" s="450"/>
+      <c r="M26" s="450"/>
+      <c r="N26" s="450"/>
+      <c r="O26" s="450"/>
+      <c r="P26" s="451"/>
+      <c r="Q26" s="452"/>
+      <c r="R26" s="453"/>
+      <c r="S26" s="453"/>
+      <c r="T26" s="453"/>
+      <c r="U26" s="453"/>
+      <c r="V26" s="453"/>
+      <c r="W26" s="453"/>
+      <c r="X26" s="453"/>
+      <c r="Y26" s="453"/>
+      <c r="Z26" s="453"/>
+      <c r="AA26" s="453"/>
+      <c r="AB26" s="453"/>
+      <c r="AC26" s="453"/>
+      <c r="AD26" s="453"/>
+      <c r="AE26" s="454"/>
+      <c r="AF26" s="449"/>
+      <c r="AG26" s="450"/>
+      <c r="AH26" s="450"/>
+      <c r="AI26" s="451"/>
     </row>
     <row r="27" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="139"/>
-      <c r="B27" s="405"/>
-      <c r="C27" s="406"/>
-      <c r="D27" s="407"/>
-      <c r="E27" s="408"/>
-      <c r="F27" s="409"/>
-      <c r="G27" s="405"/>
-      <c r="H27" s="410"/>
-      <c r="I27" s="406"/>
-      <c r="J27" s="411"/>
-      <c r="K27" s="412"/>
-      <c r="L27" s="412"/>
-      <c r="M27" s="412"/>
-      <c r="N27" s="412"/>
-      <c r="O27" s="412"/>
-      <c r="P27" s="413"/>
-      <c r="Q27" s="414"/>
-      <c r="R27" s="415"/>
-      <c r="S27" s="415"/>
-      <c r="T27" s="415"/>
-      <c r="U27" s="415"/>
-      <c r="V27" s="415"/>
-      <c r="W27" s="415"/>
-      <c r="X27" s="415"/>
-      <c r="Y27" s="415"/>
-      <c r="Z27" s="415"/>
-      <c r="AA27" s="415"/>
-      <c r="AB27" s="415"/>
-      <c r="AC27" s="415"/>
-      <c r="AD27" s="415"/>
-      <c r="AE27" s="416"/>
-      <c r="AF27" s="411"/>
-      <c r="AG27" s="412"/>
-      <c r="AH27" s="412"/>
-      <c r="AI27" s="413"/>
+      <c r="B27" s="443"/>
+      <c r="C27" s="444"/>
+      <c r="D27" s="445"/>
+      <c r="E27" s="446"/>
+      <c r="F27" s="447"/>
+      <c r="G27" s="443"/>
+      <c r="H27" s="448"/>
+      <c r="I27" s="444"/>
+      <c r="J27" s="449"/>
+      <c r="K27" s="450"/>
+      <c r="L27" s="450"/>
+      <c r="M27" s="450"/>
+      <c r="N27" s="450"/>
+      <c r="O27" s="450"/>
+      <c r="P27" s="451"/>
+      <c r="Q27" s="452"/>
+      <c r="R27" s="453"/>
+      <c r="S27" s="453"/>
+      <c r="T27" s="453"/>
+      <c r="U27" s="453"/>
+      <c r="V27" s="453"/>
+      <c r="W27" s="453"/>
+      <c r="X27" s="453"/>
+      <c r="Y27" s="453"/>
+      <c r="Z27" s="453"/>
+      <c r="AA27" s="453"/>
+      <c r="AB27" s="453"/>
+      <c r="AC27" s="453"/>
+      <c r="AD27" s="453"/>
+      <c r="AE27" s="454"/>
+      <c r="AF27" s="449"/>
+      <c r="AG27" s="450"/>
+      <c r="AH27" s="450"/>
+      <c r="AI27" s="451"/>
     </row>
     <row r="28" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="139"/>
-      <c r="B28" s="405"/>
-      <c r="C28" s="406"/>
-      <c r="D28" s="407"/>
-      <c r="E28" s="408"/>
-      <c r="F28" s="409"/>
-      <c r="G28" s="405"/>
-      <c r="H28" s="410"/>
-      <c r="I28" s="406"/>
-      <c r="J28" s="411"/>
-      <c r="K28" s="412"/>
-      <c r="L28" s="412"/>
-      <c r="M28" s="412"/>
-      <c r="N28" s="412"/>
-      <c r="O28" s="412"/>
-      <c r="P28" s="413"/>
-      <c r="Q28" s="414"/>
-      <c r="R28" s="415"/>
-      <c r="S28" s="415"/>
-      <c r="T28" s="415"/>
-      <c r="U28" s="415"/>
-      <c r="V28" s="415"/>
-      <c r="W28" s="415"/>
-      <c r="X28" s="415"/>
-      <c r="Y28" s="415"/>
-      <c r="Z28" s="415"/>
-      <c r="AA28" s="415"/>
-      <c r="AB28" s="415"/>
-      <c r="AC28" s="415"/>
-      <c r="AD28" s="415"/>
-      <c r="AE28" s="416"/>
-      <c r="AF28" s="411"/>
-      <c r="AG28" s="412"/>
-      <c r="AH28" s="412"/>
-      <c r="AI28" s="413"/>
+      <c r="B28" s="443"/>
+      <c r="C28" s="444"/>
+      <c r="D28" s="445"/>
+      <c r="E28" s="446"/>
+      <c r="F28" s="447"/>
+      <c r="G28" s="443"/>
+      <c r="H28" s="448"/>
+      <c r="I28" s="444"/>
+      <c r="J28" s="449"/>
+      <c r="K28" s="450"/>
+      <c r="L28" s="450"/>
+      <c r="M28" s="450"/>
+      <c r="N28" s="450"/>
+      <c r="O28" s="450"/>
+      <c r="P28" s="451"/>
+      <c r="Q28" s="452"/>
+      <c r="R28" s="453"/>
+      <c r="S28" s="453"/>
+      <c r="T28" s="453"/>
+      <c r="U28" s="453"/>
+      <c r="V28" s="453"/>
+      <c r="W28" s="453"/>
+      <c r="X28" s="453"/>
+      <c r="Y28" s="453"/>
+      <c r="Z28" s="453"/>
+      <c r="AA28" s="453"/>
+      <c r="AB28" s="453"/>
+      <c r="AC28" s="453"/>
+      <c r="AD28" s="453"/>
+      <c r="AE28" s="454"/>
+      <c r="AF28" s="449"/>
+      <c r="AG28" s="450"/>
+      <c r="AH28" s="450"/>
+      <c r="AI28" s="451"/>
     </row>
     <row r="29" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="139"/>
-      <c r="B29" s="405"/>
-      <c r="C29" s="406"/>
-      <c r="D29" s="407"/>
-      <c r="E29" s="408"/>
-      <c r="F29" s="409"/>
-      <c r="G29" s="405"/>
-      <c r="H29" s="410"/>
-      <c r="I29" s="406"/>
-      <c r="J29" s="411"/>
-      <c r="K29" s="412"/>
-      <c r="L29" s="412"/>
-      <c r="M29" s="412"/>
-      <c r="N29" s="412"/>
-      <c r="O29" s="412"/>
-      <c r="P29" s="413"/>
-      <c r="Q29" s="414"/>
-      <c r="R29" s="415"/>
-      <c r="S29" s="415"/>
-      <c r="T29" s="415"/>
-      <c r="U29" s="415"/>
-      <c r="V29" s="415"/>
-      <c r="W29" s="415"/>
-      <c r="X29" s="415"/>
-      <c r="Y29" s="415"/>
-      <c r="Z29" s="415"/>
-      <c r="AA29" s="415"/>
-      <c r="AB29" s="415"/>
-      <c r="AC29" s="415"/>
-      <c r="AD29" s="415"/>
-      <c r="AE29" s="416"/>
-      <c r="AF29" s="411"/>
-      <c r="AG29" s="412"/>
-      <c r="AH29" s="412"/>
-      <c r="AI29" s="413"/>
+      <c r="B29" s="443"/>
+      <c r="C29" s="444"/>
+      <c r="D29" s="445"/>
+      <c r="E29" s="446"/>
+      <c r="F29" s="447"/>
+      <c r="G29" s="443"/>
+      <c r="H29" s="448"/>
+      <c r="I29" s="444"/>
+      <c r="J29" s="449"/>
+      <c r="K29" s="450"/>
+      <c r="L29" s="450"/>
+      <c r="M29" s="450"/>
+      <c r="N29" s="450"/>
+      <c r="O29" s="450"/>
+      <c r="P29" s="451"/>
+      <c r="Q29" s="452"/>
+      <c r="R29" s="453"/>
+      <c r="S29" s="453"/>
+      <c r="T29" s="453"/>
+      <c r="U29" s="453"/>
+      <c r="V29" s="453"/>
+      <c r="W29" s="453"/>
+      <c r="X29" s="453"/>
+      <c r="Y29" s="453"/>
+      <c r="Z29" s="453"/>
+      <c r="AA29" s="453"/>
+      <c r="AB29" s="453"/>
+      <c r="AC29" s="453"/>
+      <c r="AD29" s="453"/>
+      <c r="AE29" s="454"/>
+      <c r="AF29" s="449"/>
+      <c r="AG29" s="450"/>
+      <c r="AH29" s="450"/>
+      <c r="AI29" s="451"/>
     </row>
     <row r="30" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="139"/>
-      <c r="B30" s="405"/>
-      <c r="C30" s="406"/>
-      <c r="D30" s="407"/>
-      <c r="E30" s="408"/>
-      <c r="F30" s="409"/>
-      <c r="G30" s="405"/>
-      <c r="H30" s="410"/>
-      <c r="I30" s="406"/>
-      <c r="J30" s="411"/>
-      <c r="K30" s="412"/>
-      <c r="L30" s="412"/>
-      <c r="M30" s="412"/>
-      <c r="N30" s="412"/>
-      <c r="O30" s="412"/>
-      <c r="P30" s="413"/>
-      <c r="Q30" s="414"/>
-      <c r="R30" s="415"/>
-      <c r="S30" s="415"/>
-      <c r="T30" s="415"/>
-      <c r="U30" s="415"/>
-      <c r="V30" s="415"/>
-      <c r="W30" s="415"/>
-      <c r="X30" s="415"/>
-      <c r="Y30" s="415"/>
-      <c r="Z30" s="415"/>
-      <c r="AA30" s="415"/>
-      <c r="AB30" s="415"/>
-      <c r="AC30" s="415"/>
-      <c r="AD30" s="415"/>
-      <c r="AE30" s="416"/>
-      <c r="AF30" s="411"/>
-      <c r="AG30" s="412"/>
-      <c r="AH30" s="412"/>
-      <c r="AI30" s="413"/>
+      <c r="B30" s="443"/>
+      <c r="C30" s="444"/>
+      <c r="D30" s="445"/>
+      <c r="E30" s="446"/>
+      <c r="F30" s="447"/>
+      <c r="G30" s="443"/>
+      <c r="H30" s="448"/>
+      <c r="I30" s="444"/>
+      <c r="J30" s="449"/>
+      <c r="K30" s="450"/>
+      <c r="L30" s="450"/>
+      <c r="M30" s="450"/>
+      <c r="N30" s="450"/>
+      <c r="O30" s="450"/>
+      <c r="P30" s="451"/>
+      <c r="Q30" s="452"/>
+      <c r="R30" s="453"/>
+      <c r="S30" s="453"/>
+      <c r="T30" s="453"/>
+      <c r="U30" s="453"/>
+      <c r="V30" s="453"/>
+      <c r="W30" s="453"/>
+      <c r="X30" s="453"/>
+      <c r="Y30" s="453"/>
+      <c r="Z30" s="453"/>
+      <c r="AA30" s="453"/>
+      <c r="AB30" s="453"/>
+      <c r="AC30" s="453"/>
+      <c r="AD30" s="453"/>
+      <c r="AE30" s="454"/>
+      <c r="AF30" s="449"/>
+      <c r="AG30" s="450"/>
+      <c r="AH30" s="450"/>
+      <c r="AI30" s="451"/>
     </row>
     <row r="31" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="139"/>
-      <c r="B31" s="405"/>
-      <c r="C31" s="406"/>
-      <c r="D31" s="407"/>
-      <c r="E31" s="408"/>
-      <c r="F31" s="409"/>
-      <c r="G31" s="405"/>
-      <c r="H31" s="410"/>
-      <c r="I31" s="406"/>
-      <c r="J31" s="411"/>
-      <c r="K31" s="412"/>
-      <c r="L31" s="412"/>
-      <c r="M31" s="412"/>
-      <c r="N31" s="412"/>
-      <c r="O31" s="412"/>
-      <c r="P31" s="413"/>
-      <c r="Q31" s="414"/>
-      <c r="R31" s="415"/>
-      <c r="S31" s="415"/>
-      <c r="T31" s="415"/>
-      <c r="U31" s="415"/>
-      <c r="V31" s="415"/>
-      <c r="W31" s="415"/>
-      <c r="X31" s="415"/>
-      <c r="Y31" s="415"/>
-      <c r="Z31" s="415"/>
-      <c r="AA31" s="415"/>
-      <c r="AB31" s="415"/>
-      <c r="AC31" s="415"/>
-      <c r="AD31" s="415"/>
-      <c r="AE31" s="416"/>
-      <c r="AF31" s="411"/>
-      <c r="AG31" s="412"/>
-      <c r="AH31" s="412"/>
-      <c r="AI31" s="413"/>
+      <c r="B31" s="443"/>
+      <c r="C31" s="444"/>
+      <c r="D31" s="445"/>
+      <c r="E31" s="446"/>
+      <c r="F31" s="447"/>
+      <c r="G31" s="443"/>
+      <c r="H31" s="448"/>
+      <c r="I31" s="444"/>
+      <c r="J31" s="449"/>
+      <c r="K31" s="450"/>
+      <c r="L31" s="450"/>
+      <c r="M31" s="450"/>
+      <c r="N31" s="450"/>
+      <c r="O31" s="450"/>
+      <c r="P31" s="451"/>
+      <c r="Q31" s="452"/>
+      <c r="R31" s="453"/>
+      <c r="S31" s="453"/>
+      <c r="T31" s="453"/>
+      <c r="U31" s="453"/>
+      <c r="V31" s="453"/>
+      <c r="W31" s="453"/>
+      <c r="X31" s="453"/>
+      <c r="Y31" s="453"/>
+      <c r="Z31" s="453"/>
+      <c r="AA31" s="453"/>
+      <c r="AB31" s="453"/>
+      <c r="AC31" s="453"/>
+      <c r="AD31" s="453"/>
+      <c r="AE31" s="454"/>
+      <c r="AF31" s="449"/>
+      <c r="AG31" s="450"/>
+      <c r="AH31" s="450"/>
+      <c r="AI31" s="451"/>
     </row>
     <row r="32" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="139"/>
-      <c r="B32" s="405"/>
-      <c r="C32" s="406"/>
-      <c r="D32" s="407"/>
-      <c r="E32" s="408"/>
-      <c r="F32" s="409"/>
-      <c r="G32" s="405"/>
-      <c r="H32" s="410"/>
-      <c r="I32" s="406"/>
-      <c r="J32" s="411"/>
-      <c r="K32" s="417"/>
-      <c r="L32" s="412"/>
-      <c r="M32" s="412"/>
-      <c r="N32" s="412"/>
-      <c r="O32" s="412"/>
-      <c r="P32" s="413"/>
-      <c r="Q32" s="414"/>
-      <c r="R32" s="415"/>
-      <c r="S32" s="415"/>
-      <c r="T32" s="415"/>
-      <c r="U32" s="415"/>
-      <c r="V32" s="415"/>
-      <c r="W32" s="415"/>
-      <c r="X32" s="415"/>
-      <c r="Y32" s="415"/>
-      <c r="Z32" s="415"/>
-      <c r="AA32" s="415"/>
-      <c r="AB32" s="415"/>
-      <c r="AC32" s="415"/>
-      <c r="AD32" s="415"/>
-      <c r="AE32" s="416"/>
-      <c r="AF32" s="411"/>
-      <c r="AG32" s="412"/>
-      <c r="AH32" s="412"/>
-      <c r="AI32" s="413"/>
+      <c r="B32" s="443"/>
+      <c r="C32" s="444"/>
+      <c r="D32" s="445"/>
+      <c r="E32" s="446"/>
+      <c r="F32" s="447"/>
+      <c r="G32" s="443"/>
+      <c r="H32" s="448"/>
+      <c r="I32" s="444"/>
+      <c r="J32" s="449"/>
+      <c r="K32" s="470"/>
+      <c r="L32" s="450"/>
+      <c r="M32" s="450"/>
+      <c r="N32" s="450"/>
+      <c r="O32" s="450"/>
+      <c r="P32" s="451"/>
+      <c r="Q32" s="452"/>
+      <c r="R32" s="453"/>
+      <c r="S32" s="453"/>
+      <c r="T32" s="453"/>
+      <c r="U32" s="453"/>
+      <c r="V32" s="453"/>
+      <c r="W32" s="453"/>
+      <c r="X32" s="453"/>
+      <c r="Y32" s="453"/>
+      <c r="Z32" s="453"/>
+      <c r="AA32" s="453"/>
+      <c r="AB32" s="453"/>
+      <c r="AC32" s="453"/>
+      <c r="AD32" s="453"/>
+      <c r="AE32" s="454"/>
+      <c r="AF32" s="449"/>
+      <c r="AG32" s="450"/>
+      <c r="AH32" s="450"/>
+      <c r="AI32" s="451"/>
     </row>
     <row r="33" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="139"/>
-      <c r="B33" s="405"/>
-      <c r="C33" s="406"/>
-      <c r="D33" s="407"/>
-      <c r="E33" s="408"/>
-      <c r="F33" s="409"/>
-      <c r="G33" s="405"/>
-      <c r="H33" s="410"/>
-      <c r="I33" s="406"/>
-      <c r="J33" s="411"/>
-      <c r="K33" s="412"/>
-      <c r="L33" s="412"/>
-      <c r="M33" s="412"/>
-      <c r="N33" s="412"/>
-      <c r="O33" s="412"/>
-      <c r="P33" s="413"/>
-      <c r="Q33" s="414"/>
-      <c r="R33" s="415"/>
-      <c r="S33" s="415"/>
-      <c r="T33" s="415"/>
-      <c r="U33" s="415"/>
-      <c r="V33" s="415"/>
-      <c r="W33" s="415"/>
-      <c r="X33" s="415"/>
-      <c r="Y33" s="415"/>
-      <c r="Z33" s="415"/>
-      <c r="AA33" s="415"/>
-      <c r="AB33" s="415"/>
-      <c r="AC33" s="415"/>
-      <c r="AD33" s="415"/>
-      <c r="AE33" s="416"/>
-      <c r="AF33" s="411"/>
-      <c r="AG33" s="412"/>
-      <c r="AH33" s="412"/>
-      <c r="AI33" s="413"/>
+      <c r="B33" s="443"/>
+      <c r="C33" s="444"/>
+      <c r="D33" s="445"/>
+      <c r="E33" s="446"/>
+      <c r="F33" s="447"/>
+      <c r="G33" s="443"/>
+      <c r="H33" s="448"/>
+      <c r="I33" s="444"/>
+      <c r="J33" s="449"/>
+      <c r="K33" s="450"/>
+      <c r="L33" s="450"/>
+      <c r="M33" s="450"/>
+      <c r="N33" s="450"/>
+      <c r="O33" s="450"/>
+      <c r="P33" s="451"/>
+      <c r="Q33" s="452"/>
+      <c r="R33" s="453"/>
+      <c r="S33" s="453"/>
+      <c r="T33" s="453"/>
+      <c r="U33" s="453"/>
+      <c r="V33" s="453"/>
+      <c r="W33" s="453"/>
+      <c r="X33" s="453"/>
+      <c r="Y33" s="453"/>
+      <c r="Z33" s="453"/>
+      <c r="AA33" s="453"/>
+      <c r="AB33" s="453"/>
+      <c r="AC33" s="453"/>
+      <c r="AD33" s="453"/>
+      <c r="AE33" s="454"/>
+      <c r="AF33" s="449"/>
+      <c r="AG33" s="450"/>
+      <c r="AH33" s="450"/>
+      <c r="AI33" s="451"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -26035,162 +26191,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -26347,163 +26347,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="439" t="s">
+      <c r="A1" s="411" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="440"/>
-      <c r="C1" s="440"/>
-      <c r="D1" s="441"/>
-      <c r="E1" s="470" t="str">
+      <c r="B1" s="412"/>
+      <c r="C1" s="412"/>
+      <c r="D1" s="413"/>
+      <c r="E1" s="442" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="443"/>
-      <c r="G1" s="443"/>
-      <c r="H1" s="443"/>
-      <c r="I1" s="443"/>
-      <c r="J1" s="443"/>
-      <c r="K1" s="443"/>
-      <c r="L1" s="443"/>
-      <c r="M1" s="443"/>
-      <c r="N1" s="444"/>
-      <c r="O1" s="449" t="s">
+      <c r="F1" s="415"/>
+      <c r="G1" s="415"/>
+      <c r="H1" s="415"/>
+      <c r="I1" s="415"/>
+      <c r="J1" s="415"/>
+      <c r="K1" s="415"/>
+      <c r="L1" s="415"/>
+      <c r="M1" s="415"/>
+      <c r="N1" s="416"/>
+      <c r="O1" s="421" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="450"/>
-      <c r="Q1" s="450"/>
-      <c r="R1" s="451"/>
-      <c r="S1" s="471" t="str">
+      <c r="P1" s="422"/>
+      <c r="Q1" s="422"/>
+      <c r="R1" s="423"/>
+      <c r="S1" s="476" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="459"/>
-      <c r="U1" s="459"/>
-      <c r="V1" s="459"/>
-      <c r="W1" s="459"/>
-      <c r="X1" s="459"/>
-      <c r="Y1" s="459"/>
-      <c r="Z1" s="460"/>
-      <c r="AA1" s="472" t="s">
+      <c r="T1" s="431"/>
+      <c r="U1" s="431"/>
+      <c r="V1" s="431"/>
+      <c r="W1" s="431"/>
+      <c r="X1" s="431"/>
+      <c r="Y1" s="431"/>
+      <c r="Z1" s="432"/>
+      <c r="AA1" s="474" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="473"/>
-      <c r="AC1" s="467" t="str">
+      <c r="AB1" s="475"/>
+      <c r="AC1" s="439" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="468"/>
-      <c r="AE1" s="468"/>
-      <c r="AF1" s="469"/>
-      <c r="AG1" s="474">
+      <c r="AD1" s="440"/>
+      <c r="AE1" s="440"/>
+      <c r="AF1" s="441"/>
+      <c r="AG1" s="471">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="475"/>
-      <c r="AI1" s="476"/>
+      <c r="AH1" s="472"/>
+      <c r="AI1" s="473"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="141"/>
     </row>
     <row r="2" spans="1:53" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="439" t="s">
+      <c r="A2" s="411" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="440"/>
-      <c r="C2" s="440"/>
-      <c r="D2" s="441"/>
-      <c r="E2" s="470" t="str">
+      <c r="B2" s="412"/>
+      <c r="C2" s="412"/>
+      <c r="D2" s="413"/>
+      <c r="E2" s="442" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="443"/>
-      <c r="G2" s="443"/>
-      <c r="H2" s="443"/>
-      <c r="I2" s="443"/>
-      <c r="J2" s="443"/>
-      <c r="K2" s="443"/>
-      <c r="L2" s="443"/>
-      <c r="M2" s="443"/>
-      <c r="N2" s="444"/>
-      <c r="O2" s="452"/>
-      <c r="P2" s="453"/>
-      <c r="Q2" s="453"/>
-      <c r="R2" s="454"/>
-      <c r="S2" s="461"/>
-      <c r="T2" s="462"/>
-      <c r="U2" s="462"/>
-      <c r="V2" s="462"/>
-      <c r="W2" s="462"/>
-      <c r="X2" s="462"/>
-      <c r="Y2" s="462"/>
-      <c r="Z2" s="463"/>
-      <c r="AA2" s="472" t="s">
+      <c r="F2" s="415"/>
+      <c r="G2" s="415"/>
+      <c r="H2" s="415"/>
+      <c r="I2" s="415"/>
+      <c r="J2" s="415"/>
+      <c r="K2" s="415"/>
+      <c r="L2" s="415"/>
+      <c r="M2" s="415"/>
+      <c r="N2" s="416"/>
+      <c r="O2" s="424"/>
+      <c r="P2" s="425"/>
+      <c r="Q2" s="425"/>
+      <c r="R2" s="426"/>
+      <c r="S2" s="433"/>
+      <c r="T2" s="434"/>
+      <c r="U2" s="434"/>
+      <c r="V2" s="434"/>
+      <c r="W2" s="434"/>
+      <c r="X2" s="434"/>
+      <c r="Y2" s="434"/>
+      <c r="Z2" s="435"/>
+      <c r="AA2" s="474" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="473"/>
-      <c r="AC2" s="467" t="str">
+      <c r="AB2" s="475"/>
+      <c r="AC2" s="439" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="468"/>
-      <c r="AE2" s="468"/>
-      <c r="AF2" s="469"/>
-      <c r="AG2" s="474" t="str">
+      <c r="AD2" s="440"/>
+      <c r="AE2" s="440"/>
+      <c r="AF2" s="441"/>
+      <c r="AG2" s="471" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="475"/>
-      <c r="AI2" s="476"/>
+      <c r="AH2" s="472"/>
+      <c r="AI2" s="473"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
     </row>
     <row r="3" spans="1:53" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="439" t="s">
+      <c r="A3" s="411" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="440"/>
-      <c r="C3" s="440"/>
-      <c r="D3" s="441"/>
-      <c r="E3" s="470" t="str">
+      <c r="B3" s="412"/>
+      <c r="C3" s="412"/>
+      <c r="D3" s="413"/>
+      <c r="E3" s="442" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="443"/>
-      <c r="G3" s="443"/>
-      <c r="H3" s="443"/>
-      <c r="I3" s="443"/>
-      <c r="J3" s="443"/>
-      <c r="K3" s="443"/>
-      <c r="L3" s="443"/>
-      <c r="M3" s="443"/>
-      <c r="N3" s="444"/>
-      <c r="O3" s="455"/>
-      <c r="P3" s="456"/>
-      <c r="Q3" s="456"/>
-      <c r="R3" s="457"/>
-      <c r="S3" s="464"/>
-      <c r="T3" s="465"/>
-      <c r="U3" s="465"/>
-      <c r="V3" s="465"/>
-      <c r="W3" s="465"/>
-      <c r="X3" s="465"/>
-      <c r="Y3" s="465"/>
-      <c r="Z3" s="466"/>
-      <c r="AA3" s="472"/>
-      <c r="AB3" s="473"/>
-      <c r="AC3" s="467" t="str">
+      <c r="F3" s="415"/>
+      <c r="G3" s="415"/>
+      <c r="H3" s="415"/>
+      <c r="I3" s="415"/>
+      <c r="J3" s="415"/>
+      <c r="K3" s="415"/>
+      <c r="L3" s="415"/>
+      <c r="M3" s="415"/>
+      <c r="N3" s="416"/>
+      <c r="O3" s="427"/>
+      <c r="P3" s="428"/>
+      <c r="Q3" s="428"/>
+      <c r="R3" s="429"/>
+      <c r="S3" s="436"/>
+      <c r="T3" s="437"/>
+      <c r="U3" s="437"/>
+      <c r="V3" s="437"/>
+      <c r="W3" s="437"/>
+      <c r="X3" s="437"/>
+      <c r="Y3" s="437"/>
+      <c r="Z3" s="438"/>
+      <c r="AA3" s="474"/>
+      <c r="AB3" s="475"/>
+      <c r="AC3" s="439" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="468"/>
-      <c r="AE3" s="468"/>
-      <c r="AF3" s="469"/>
-      <c r="AG3" s="474" t="str">
+      <c r="AD3" s="440"/>
+      <c r="AE3" s="440"/>
+      <c r="AF3" s="441"/>
+      <c r="AG3" s="471" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="475"/>
-      <c r="AI3" s="476"/>
+      <c r="AH3" s="472"/>
+      <c r="AI3" s="473"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -29553,14 +29553,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -29570,6 +29562,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -29597,53 +29597,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="489" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="482"/>
-      <c r="E1" s="483" t="str">
+      <c r="B1" s="490"/>
+      <c r="C1" s="490"/>
+      <c r="D1" s="491"/>
+      <c r="E1" s="492" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="484"/>
-      <c r="G1" s="484"/>
-      <c r="H1" s="484"/>
-      <c r="I1" s="484"/>
-      <c r="J1" s="484"/>
-      <c r="K1" s="484"/>
-      <c r="L1" s="484"/>
-      <c r="M1" s="484"/>
-      <c r="N1" s="485"/>
-      <c r="O1" s="489" t="s">
+      <c r="F1" s="493"/>
+      <c r="G1" s="493"/>
+      <c r="H1" s="493"/>
+      <c r="I1" s="493"/>
+      <c r="J1" s="493"/>
+      <c r="K1" s="493"/>
+      <c r="L1" s="493"/>
+      <c r="M1" s="493"/>
+      <c r="N1" s="494"/>
+      <c r="O1" s="498" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="490"/>
-      <c r="Q1" s="490"/>
-      <c r="R1" s="491"/>
-      <c r="S1" s="498" t="str">
+      <c r="P1" s="499"/>
+      <c r="Q1" s="499"/>
+      <c r="R1" s="500"/>
+      <c r="S1" s="507" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="499"/>
-      <c r="U1" s="499"/>
-      <c r="V1" s="499"/>
-      <c r="W1" s="499"/>
-      <c r="X1" s="499"/>
-      <c r="Y1" s="499"/>
-      <c r="Z1" s="500"/>
-      <c r="AA1" s="480" t="s">
+      <c r="T1" s="508"/>
+      <c r="U1" s="508"/>
+      <c r="V1" s="508"/>
+      <c r="W1" s="508"/>
+      <c r="X1" s="508"/>
+      <c r="Y1" s="508"/>
+      <c r="Z1" s="509"/>
+      <c r="AA1" s="489" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="482"/>
-      <c r="AC1" s="486" t="str">
+      <c r="AB1" s="491"/>
+      <c r="AC1" s="495" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="487"/>
-      <c r="AE1" s="487"/>
-      <c r="AF1" s="488"/>
+      <c r="AD1" s="496"/>
+      <c r="AE1" s="496"/>
+      <c r="AF1" s="497"/>
       <c r="AG1" s="477">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
@@ -29656,48 +29656,48 @@
       <c r="AP1" s="18"/>
     </row>
     <row r="2" spans="1:42" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="480" t="s">
+      <c r="A2" s="489" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="481"/>
-      <c r="C2" s="481"/>
-      <c r="D2" s="482"/>
-      <c r="E2" s="483" t="str">
+      <c r="B2" s="490"/>
+      <c r="C2" s="490"/>
+      <c r="D2" s="491"/>
+      <c r="E2" s="492" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-      <c r="I2" s="484"/>
-      <c r="J2" s="484"/>
-      <c r="K2" s="484"/>
-      <c r="L2" s="484"/>
-      <c r="M2" s="484"/>
-      <c r="N2" s="485"/>
-      <c r="O2" s="492"/>
-      <c r="P2" s="493"/>
-      <c r="Q2" s="493"/>
-      <c r="R2" s="494"/>
-      <c r="S2" s="501"/>
-      <c r="T2" s="502"/>
-      <c r="U2" s="502"/>
-      <c r="V2" s="502"/>
-      <c r="W2" s="502"/>
-      <c r="X2" s="502"/>
-      <c r="Y2" s="502"/>
-      <c r="Z2" s="503"/>
-      <c r="AA2" s="480" t="s">
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="493"/>
+      <c r="I2" s="493"/>
+      <c r="J2" s="493"/>
+      <c r="K2" s="493"/>
+      <c r="L2" s="493"/>
+      <c r="M2" s="493"/>
+      <c r="N2" s="494"/>
+      <c r="O2" s="501"/>
+      <c r="P2" s="502"/>
+      <c r="Q2" s="502"/>
+      <c r="R2" s="503"/>
+      <c r="S2" s="510"/>
+      <c r="T2" s="511"/>
+      <c r="U2" s="511"/>
+      <c r="V2" s="511"/>
+      <c r="W2" s="511"/>
+      <c r="X2" s="511"/>
+      <c r="Y2" s="511"/>
+      <c r="Z2" s="512"/>
+      <c r="AA2" s="489" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="482"/>
-      <c r="AC2" s="486" t="str">
+      <c r="AB2" s="491"/>
+      <c r="AC2" s="495" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="487"/>
-      <c r="AE2" s="487"/>
-      <c r="AF2" s="488"/>
+      <c r="AD2" s="496"/>
+      <c r="AE2" s="496"/>
+      <c r="AF2" s="497"/>
       <c r="AG2" s="477" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -29710,46 +29710,46 @@
       <c r="AP2" s="18"/>
     </row>
     <row r="3" spans="1:42" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="480" t="s">
+      <c r="A3" s="489" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="481"/>
-      <c r="C3" s="481"/>
-      <c r="D3" s="482"/>
-      <c r="E3" s="483" t="str">
+      <c r="B3" s="490"/>
+      <c r="C3" s="490"/>
+      <c r="D3" s="491"/>
+      <c r="E3" s="492" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="484"/>
-      <c r="G3" s="484"/>
-      <c r="H3" s="484"/>
-      <c r="I3" s="484"/>
-      <c r="J3" s="484"/>
-      <c r="K3" s="484"/>
-      <c r="L3" s="484"/>
-      <c r="M3" s="484"/>
-      <c r="N3" s="485"/>
-      <c r="O3" s="495"/>
-      <c r="P3" s="496"/>
-      <c r="Q3" s="496"/>
-      <c r="R3" s="497"/>
-      <c r="S3" s="504"/>
-      <c r="T3" s="505"/>
-      <c r="U3" s="505"/>
-      <c r="V3" s="505"/>
-      <c r="W3" s="505"/>
-      <c r="X3" s="505"/>
-      <c r="Y3" s="505"/>
-      <c r="Z3" s="506"/>
-      <c r="AA3" s="480"/>
-      <c r="AB3" s="482"/>
-      <c r="AC3" s="486" t="str">
+      <c r="F3" s="493"/>
+      <c r="G3" s="493"/>
+      <c r="H3" s="493"/>
+      <c r="I3" s="493"/>
+      <c r="J3" s="493"/>
+      <c r="K3" s="493"/>
+      <c r="L3" s="493"/>
+      <c r="M3" s="493"/>
+      <c r="N3" s="494"/>
+      <c r="O3" s="504"/>
+      <c r="P3" s="505"/>
+      <c r="Q3" s="505"/>
+      <c r="R3" s="506"/>
+      <c r="S3" s="513"/>
+      <c r="T3" s="514"/>
+      <c r="U3" s="514"/>
+      <c r="V3" s="514"/>
+      <c r="W3" s="514"/>
+      <c r="X3" s="514"/>
+      <c r="Y3" s="514"/>
+      <c r="Z3" s="515"/>
+      <c r="AA3" s="489"/>
+      <c r="AB3" s="491"/>
+      <c r="AC3" s="495" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="487"/>
-      <c r="AE3" s="487"/>
-      <c r="AF3" s="488"/>
+      <c r="AD3" s="496"/>
+      <c r="AE3" s="496"/>
+      <c r="AF3" s="497"/>
       <c r="AG3" s="477" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -29806,81 +29806,76 @@
       <c r="C14" s="138"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="D15" s="507" t="s">
+      <c r="D15" s="480" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="508"/>
-      <c r="F15" s="508"/>
-      <c r="G15" s="508"/>
-      <c r="H15" s="508"/>
-      <c r="I15" s="508"/>
-      <c r="J15" s="509"/>
-      <c r="K15" s="507" t="s">
+      <c r="E15" s="481"/>
+      <c r="F15" s="481"/>
+      <c r="G15" s="481"/>
+      <c r="H15" s="481"/>
+      <c r="I15" s="481"/>
+      <c r="J15" s="482"/>
+      <c r="K15" s="480" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="508"/>
-      <c r="M15" s="508"/>
-      <c r="N15" s="508"/>
-      <c r="O15" s="508"/>
-      <c r="P15" s="508"/>
-      <c r="Q15" s="508"/>
-      <c r="R15" s="508"/>
-      <c r="S15" s="508"/>
-      <c r="T15" s="508"/>
-      <c r="U15" s="508"/>
-      <c r="V15" s="508"/>
-      <c r="W15" s="508"/>
-      <c r="X15" s="508"/>
-      <c r="Y15" s="508"/>
-      <c r="Z15" s="508"/>
-      <c r="AA15" s="508"/>
-      <c r="AB15" s="508"/>
-      <c r="AC15" s="508"/>
-      <c r="AD15" s="509"/>
+      <c r="L15" s="481"/>
+      <c r="M15" s="481"/>
+      <c r="N15" s="481"/>
+      <c r="O15" s="481"/>
+      <c r="P15" s="481"/>
+      <c r="Q15" s="481"/>
+      <c r="R15" s="481"/>
+      <c r="S15" s="481"/>
+      <c r="T15" s="481"/>
+      <c r="U15" s="481"/>
+      <c r="V15" s="481"/>
+      <c r="W15" s="481"/>
+      <c r="X15" s="481"/>
+      <c r="Y15" s="481"/>
+      <c r="Z15" s="481"/>
+      <c r="AA15" s="481"/>
+      <c r="AB15" s="481"/>
+      <c r="AC15" s="481"/>
+      <c r="AD15" s="482"/>
     </row>
     <row r="16" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="513" t="s">
+      <c r="D16" s="486" t="s">
         <v>191</v>
       </c>
-      <c r="E16" s="514"/>
-      <c r="F16" s="514"/>
-      <c r="G16" s="514"/>
-      <c r="H16" s="514"/>
-      <c r="I16" s="514"/>
-      <c r="J16" s="515"/>
-      <c r="K16" s="510" t="s">
+      <c r="E16" s="487"/>
+      <c r="F16" s="487"/>
+      <c r="G16" s="487"/>
+      <c r="H16" s="487"/>
+      <c r="I16" s="487"/>
+      <c r="J16" s="488"/>
+      <c r="K16" s="483" t="s">
         <v>71</v>
       </c>
-      <c r="L16" s="511"/>
-      <c r="M16" s="511"/>
-      <c r="N16" s="511"/>
-      <c r="O16" s="511"/>
-      <c r="P16" s="511"/>
-      <c r="Q16" s="511"/>
-      <c r="R16" s="511"/>
-      <c r="S16" s="511"/>
-      <c r="T16" s="511"/>
-      <c r="U16" s="511"/>
-      <c r="V16" s="511"/>
-      <c r="W16" s="511"/>
-      <c r="X16" s="511"/>
-      <c r="Y16" s="511"/>
-      <c r="Z16" s="511"/>
-      <c r="AA16" s="511"/>
-      <c r="AB16" s="511"/>
-      <c r="AC16" s="511"/>
-      <c r="AD16" s="512"/>
+      <c r="L16" s="484"/>
+      <c r="M16" s="484"/>
+      <c r="N16" s="484"/>
+      <c r="O16" s="484"/>
+      <c r="P16" s="484"/>
+      <c r="Q16" s="484"/>
+      <c r="R16" s="484"/>
+      <c r="S16" s="484"/>
+      <c r="T16" s="484"/>
+      <c r="U16" s="484"/>
+      <c r="V16" s="484"/>
+      <c r="W16" s="484"/>
+      <c r="X16" s="484"/>
+      <c r="Y16" s="484"/>
+      <c r="Z16" s="484"/>
+      <c r="AA16" s="484"/>
+      <c r="AB16" s="484"/>
+      <c r="AC16" s="484"/>
+      <c r="AD16" s="485"/>
     </row>
     <row r="21" spans="3:3" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C21" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="K15:AD15"/>
-    <mergeCell ref="K16:AD16"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D16:J16"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
@@ -29897,6 +29892,11 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="K15:AD15"/>
+    <mergeCell ref="K16:AD16"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -29926,165 +29926,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="489" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="482"/>
-      <c r="E1" s="483" t="str">
+      <c r="B1" s="490"/>
+      <c r="C1" s="490"/>
+      <c r="D1" s="491"/>
+      <c r="E1" s="492" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="484"/>
-      <c r="G1" s="484"/>
-      <c r="H1" s="484"/>
-      <c r="I1" s="484"/>
-      <c r="J1" s="484"/>
-      <c r="K1" s="484"/>
-      <c r="L1" s="484"/>
-      <c r="M1" s="484"/>
-      <c r="N1" s="485"/>
-      <c r="O1" s="489" t="s">
+      <c r="F1" s="493"/>
+      <c r="G1" s="493"/>
+      <c r="H1" s="493"/>
+      <c r="I1" s="493"/>
+      <c r="J1" s="493"/>
+      <c r="K1" s="493"/>
+      <c r="L1" s="493"/>
+      <c r="M1" s="493"/>
+      <c r="N1" s="494"/>
+      <c r="O1" s="498" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="490"/>
-      <c r="Q1" s="490"/>
-      <c r="R1" s="491"/>
-      <c r="S1" s="498" t="str">
+      <c r="P1" s="499"/>
+      <c r="Q1" s="499"/>
+      <c r="R1" s="500"/>
+      <c r="S1" s="507" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="499"/>
-      <c r="U1" s="499"/>
-      <c r="V1" s="499"/>
-      <c r="W1" s="499"/>
-      <c r="X1" s="499"/>
-      <c r="Y1" s="499"/>
-      <c r="Z1" s="500"/>
-      <c r="AA1" s="480" t="s">
+      <c r="T1" s="508"/>
+      <c r="U1" s="508"/>
+      <c r="V1" s="508"/>
+      <c r="W1" s="508"/>
+      <c r="X1" s="508"/>
+      <c r="Y1" s="508"/>
+      <c r="Z1" s="509"/>
+      <c r="AA1" s="489" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="482"/>
-      <c r="AC1" s="486" t="str">
+      <c r="AB1" s="491"/>
+      <c r="AC1" s="495" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="487"/>
-      <c r="AE1" s="487"/>
-      <c r="AF1" s="488"/>
-      <c r="AG1" s="541">
+      <c r="AD1" s="496"/>
+      <c r="AE1" s="496"/>
+      <c r="AF1" s="497"/>
+      <c r="AG1" s="519">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="542"/>
-      <c r="AI1" s="543"/>
+      <c r="AH1" s="520"/>
+      <c r="AI1" s="521"/>
       <c r="AJ1" s="49"/>
       <c r="AN1" s="47"/>
       <c r="AO1" s="47"/>
       <c r="AP1" s="47"/>
     </row>
     <row r="2" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="480" t="s">
+      <c r="A2" s="489" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="481"/>
-      <c r="C2" s="481"/>
-      <c r="D2" s="482"/>
-      <c r="E2" s="483" t="str">
+      <c r="B2" s="490"/>
+      <c r="C2" s="490"/>
+      <c r="D2" s="491"/>
+      <c r="E2" s="492" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-      <c r="I2" s="484"/>
-      <c r="J2" s="484"/>
-      <c r="K2" s="484"/>
-      <c r="L2" s="484"/>
-      <c r="M2" s="484"/>
-      <c r="N2" s="485"/>
-      <c r="O2" s="492"/>
-      <c r="P2" s="493"/>
-      <c r="Q2" s="493"/>
-      <c r="R2" s="494"/>
-      <c r="S2" s="501"/>
-      <c r="T2" s="502"/>
-      <c r="U2" s="502"/>
-      <c r="V2" s="502"/>
-      <c r="W2" s="502"/>
-      <c r="X2" s="502"/>
-      <c r="Y2" s="502"/>
-      <c r="Z2" s="503"/>
-      <c r="AA2" s="480" t="s">
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="493"/>
+      <c r="I2" s="493"/>
+      <c r="J2" s="493"/>
+      <c r="K2" s="493"/>
+      <c r="L2" s="493"/>
+      <c r="M2" s="493"/>
+      <c r="N2" s="494"/>
+      <c r="O2" s="501"/>
+      <c r="P2" s="502"/>
+      <c r="Q2" s="502"/>
+      <c r="R2" s="503"/>
+      <c r="S2" s="510"/>
+      <c r="T2" s="511"/>
+      <c r="U2" s="511"/>
+      <c r="V2" s="511"/>
+      <c r="W2" s="511"/>
+      <c r="X2" s="511"/>
+      <c r="Y2" s="511"/>
+      <c r="Z2" s="512"/>
+      <c r="AA2" s="489" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="482"/>
-      <c r="AC2" s="486" t="str">
+      <c r="AB2" s="491"/>
+      <c r="AC2" s="495" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="487"/>
-      <c r="AE2" s="487"/>
-      <c r="AF2" s="488"/>
-      <c r="AG2" s="541" t="str">
+      <c r="AD2" s="496"/>
+      <c r="AE2" s="496"/>
+      <c r="AF2" s="497"/>
+      <c r="AG2" s="519" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="542"/>
-      <c r="AI2" s="543"/>
+      <c r="AH2" s="520"/>
+      <c r="AI2" s="521"/>
       <c r="AJ2" s="49"/>
       <c r="AN2" s="47"/>
       <c r="AO2" s="47"/>
       <c r="AP2" s="47"/>
     </row>
     <row r="3" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="480" t="s">
+      <c r="A3" s="489" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="481"/>
-      <c r="C3" s="481"/>
-      <c r="D3" s="482"/>
-      <c r="E3" s="483" t="str">
+      <c r="B3" s="490"/>
+      <c r="C3" s="490"/>
+      <c r="D3" s="491"/>
+      <c r="E3" s="492" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="484"/>
-      <c r="G3" s="484"/>
-      <c r="H3" s="484"/>
-      <c r="I3" s="484"/>
-      <c r="J3" s="484"/>
-      <c r="K3" s="484"/>
-      <c r="L3" s="484"/>
-      <c r="M3" s="484"/>
-      <c r="N3" s="485"/>
-      <c r="O3" s="495"/>
-      <c r="P3" s="496"/>
-      <c r="Q3" s="496"/>
-      <c r="R3" s="497"/>
-      <c r="S3" s="504"/>
-      <c r="T3" s="505"/>
-      <c r="U3" s="505"/>
-      <c r="V3" s="505"/>
-      <c r="W3" s="505"/>
-      <c r="X3" s="505"/>
-      <c r="Y3" s="505"/>
-      <c r="Z3" s="506"/>
-      <c r="AA3" s="480"/>
-      <c r="AB3" s="482"/>
-      <c r="AC3" s="486" t="str">
+      <c r="F3" s="493"/>
+      <c r="G3" s="493"/>
+      <c r="H3" s="493"/>
+      <c r="I3" s="493"/>
+      <c r="J3" s="493"/>
+      <c r="K3" s="493"/>
+      <c r="L3" s="493"/>
+      <c r="M3" s="493"/>
+      <c r="N3" s="494"/>
+      <c r="O3" s="504"/>
+      <c r="P3" s="505"/>
+      <c r="Q3" s="505"/>
+      <c r="R3" s="506"/>
+      <c r="S3" s="513"/>
+      <c r="T3" s="514"/>
+      <c r="U3" s="514"/>
+      <c r="V3" s="514"/>
+      <c r="W3" s="514"/>
+      <c r="X3" s="514"/>
+      <c r="Y3" s="514"/>
+      <c r="Z3" s="515"/>
+      <c r="AA3" s="489"/>
+      <c r="AB3" s="491"/>
+      <c r="AC3" s="495" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="487"/>
-      <c r="AE3" s="487"/>
-      <c r="AF3" s="488"/>
-      <c r="AG3" s="541" t="str">
+      <c r="AD3" s="496"/>
+      <c r="AE3" s="496"/>
+      <c r="AF3" s="497"/>
+      <c r="AG3" s="519" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="542"/>
-      <c r="AI3" s="543"/>
+      <c r="AH3" s="520"/>
+      <c r="AI3" s="521"/>
       <c r="AJ3" s="49"/>
       <c r="AN3" s="47"/>
       <c r="AO3" s="47"/>
@@ -30284,12 +30284,12 @@
     </row>
     <row r="21" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D21" s="138"/>
-      <c r="F21" s="519" t="s">
+      <c r="F21" s="522" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="520"/>
-      <c r="H21" s="520"/>
-      <c r="I21" s="521"/>
+      <c r="G21" s="523"/>
+      <c r="H21" s="523"/>
+      <c r="I21" s="524"/>
       <c r="J21" s="101" t="s">
         <v>25</v>
       </c>
@@ -31853,11 +31853,11 @@
       <c r="H61" s="517"/>
       <c r="I61" s="517"/>
       <c r="J61" s="518"/>
-      <c r="K61" s="507" t="s">
+      <c r="K61" s="480" t="s">
         <v>67</v>
       </c>
-      <c r="L61" s="508"/>
-      <c r="M61" s="509"/>
+      <c r="L61" s="481"/>
+      <c r="M61" s="482"/>
       <c r="N61" s="101" t="s">
         <v>160</v>
       </c>
@@ -31900,17 +31900,17 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="32"/>
-      <c r="G62" s="522" t="s">
+      <c r="G62" s="525" t="s">
         <v>522</v>
       </c>
-      <c r="H62" s="523"/>
-      <c r="I62" s="523"/>
-      <c r="J62" s="524"/>
-      <c r="K62" s="522" t="s">
+      <c r="H62" s="526"/>
+      <c r="I62" s="526"/>
+      <c r="J62" s="527"/>
+      <c r="K62" s="525" t="s">
         <v>473</v>
       </c>
-      <c r="L62" s="523"/>
-      <c r="M62" s="524"/>
+      <c r="L62" s="526"/>
+      <c r="M62" s="527"/>
       <c r="N62" s="137" t="s">
         <v>286</v>
       </c>
@@ -31953,13 +31953,13 @@
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
       <c r="F63" s="32"/>
-      <c r="G63" s="525"/>
-      <c r="H63" s="526"/>
-      <c r="I63" s="526"/>
-      <c r="J63" s="527"/>
-      <c r="K63" s="531"/>
-      <c r="L63" s="526"/>
-      <c r="M63" s="527"/>
+      <c r="G63" s="528"/>
+      <c r="H63" s="529"/>
+      <c r="I63" s="529"/>
+      <c r="J63" s="530"/>
+      <c r="K63" s="534"/>
+      <c r="L63" s="529"/>
+      <c r="M63" s="530"/>
       <c r="N63" s="174" t="s">
         <v>287</v>
       </c>
@@ -32002,13 +32002,13 @@
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="32"/>
-      <c r="G64" s="525"/>
-      <c r="H64" s="526"/>
-      <c r="I64" s="526"/>
-      <c r="J64" s="527"/>
-      <c r="K64" s="525"/>
-      <c r="L64" s="526"/>
-      <c r="M64" s="527"/>
+      <c r="G64" s="528"/>
+      <c r="H64" s="529"/>
+      <c r="I64" s="529"/>
+      <c r="J64" s="530"/>
+      <c r="K64" s="528"/>
+      <c r="L64" s="529"/>
+      <c r="M64" s="530"/>
       <c r="N64" s="174" t="s">
         <v>274</v>
       </c>
@@ -32051,13 +32051,13 @@
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
       <c r="F65" s="32"/>
-      <c r="G65" s="525"/>
-      <c r="H65" s="526"/>
-      <c r="I65" s="526"/>
-      <c r="J65" s="527"/>
-      <c r="K65" s="525"/>
-      <c r="L65" s="526"/>
-      <c r="M65" s="527"/>
+      <c r="G65" s="528"/>
+      <c r="H65" s="529"/>
+      <c r="I65" s="529"/>
+      <c r="J65" s="530"/>
+      <c r="K65" s="528"/>
+      <c r="L65" s="529"/>
+      <c r="M65" s="530"/>
       <c r="N65" s="174" t="s">
         <v>275</v>
       </c>
@@ -32100,13 +32100,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="33"/>
-      <c r="G66" s="528"/>
-      <c r="H66" s="529"/>
-      <c r="I66" s="529"/>
-      <c r="J66" s="530"/>
-      <c r="K66" s="528"/>
-      <c r="L66" s="529"/>
-      <c r="M66" s="530"/>
+      <c r="G66" s="531"/>
+      <c r="H66" s="532"/>
+      <c r="I66" s="532"/>
+      <c r="J66" s="533"/>
+      <c r="K66" s="531"/>
+      <c r="L66" s="532"/>
+      <c r="M66" s="533"/>
       <c r="N66" s="176"/>
       <c r="O66" s="177"/>
       <c r="P66" s="177"/>
@@ -32147,17 +32147,17 @@
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="33"/>
-      <c r="G67" s="532" t="s">
+      <c r="G67" s="535" t="s">
         <v>523</v>
       </c>
-      <c r="H67" s="533"/>
-      <c r="I67" s="533"/>
-      <c r="J67" s="534"/>
-      <c r="K67" s="522" t="s">
+      <c r="H67" s="536"/>
+      <c r="I67" s="536"/>
+      <c r="J67" s="537"/>
+      <c r="K67" s="525" t="s">
         <v>524</v>
       </c>
-      <c r="L67" s="523"/>
-      <c r="M67" s="524"/>
+      <c r="L67" s="526"/>
+      <c r="M67" s="527"/>
       <c r="N67" s="291" t="s">
         <v>525</v>
       </c>
@@ -32199,13 +32199,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="33"/>
-      <c r="G68" s="535"/>
-      <c r="H68" s="536"/>
-      <c r="I68" s="536"/>
-      <c r="J68" s="537"/>
-      <c r="K68" s="531"/>
-      <c r="L68" s="526"/>
-      <c r="M68" s="527"/>
+      <c r="G68" s="538"/>
+      <c r="H68" s="539"/>
+      <c r="I68" s="539"/>
+      <c r="J68" s="540"/>
+      <c r="K68" s="534"/>
+      <c r="L68" s="529"/>
+      <c r="M68" s="530"/>
       <c r="N68" s="174" t="s">
         <v>526</v>
       </c>
@@ -32247,13 +32247,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="33"/>
-      <c r="G69" s="535"/>
-      <c r="H69" s="536"/>
-      <c r="I69" s="536"/>
-      <c r="J69" s="537"/>
-      <c r="K69" s="525"/>
-      <c r="L69" s="526"/>
-      <c r="M69" s="527"/>
+      <c r="G69" s="538"/>
+      <c r="H69" s="539"/>
+      <c r="I69" s="539"/>
+      <c r="J69" s="540"/>
+      <c r="K69" s="528"/>
+      <c r="L69" s="529"/>
+      <c r="M69" s="530"/>
       <c r="N69" s="174" t="s">
         <v>275</v>
       </c>
@@ -32295,13 +32295,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="33"/>
-      <c r="G70" s="538"/>
-      <c r="H70" s="539"/>
-      <c r="I70" s="539"/>
-      <c r="J70" s="540"/>
-      <c r="K70" s="528"/>
-      <c r="L70" s="529"/>
-      <c r="M70" s="530"/>
+      <c r="G70" s="541"/>
+      <c r="H70" s="542"/>
+      <c r="I70" s="542"/>
+      <c r="J70" s="543"/>
+      <c r="K70" s="531"/>
+      <c r="L70" s="532"/>
+      <c r="M70" s="533"/>
       <c r="N70" s="176"/>
       <c r="O70" s="177"/>
       <c r="P70" s="177"/>
@@ -32748,11 +32748,11 @@
       <c r="H85" s="517"/>
       <c r="I85" s="517"/>
       <c r="J85" s="518"/>
-      <c r="K85" s="507" t="s">
+      <c r="K85" s="480" t="s">
         <v>67</v>
       </c>
-      <c r="L85" s="508"/>
-      <c r="M85" s="509"/>
+      <c r="L85" s="481"/>
+      <c r="M85" s="482"/>
       <c r="N85" s="334" t="s">
         <v>160</v>
       </c>
@@ -33037,11 +33037,11 @@
       <c r="H99" s="517"/>
       <c r="I99" s="517"/>
       <c r="J99" s="518"/>
-      <c r="K99" s="507" t="s">
+      <c r="K99" s="480" t="s">
         <v>67</v>
       </c>
-      <c r="L99" s="508"/>
-      <c r="M99" s="509"/>
+      <c r="L99" s="481"/>
+      <c r="M99" s="482"/>
       <c r="N99" s="369" t="s">
         <v>160</v>
       </c>
@@ -33215,6 +33215,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="G62:J66"/>
+    <mergeCell ref="K62:M66"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="G67:J70"/>
+    <mergeCell ref="K67:M70"/>
     <mergeCell ref="G99:J99"/>
     <mergeCell ref="K99:M99"/>
     <mergeCell ref="AG3:AI3"/>
@@ -33231,18 +33243,6 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="G62:J66"/>
-    <mergeCell ref="K62:M66"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="G67:J70"/>
-    <mergeCell ref="K67:M70"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -33278,165 +33278,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="489" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="482"/>
-      <c r="E1" s="483" t="str">
+      <c r="B1" s="490"/>
+      <c r="C1" s="490"/>
+      <c r="D1" s="491"/>
+      <c r="E1" s="492" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="484"/>
-      <c r="G1" s="484"/>
-      <c r="H1" s="484"/>
-      <c r="I1" s="484"/>
-      <c r="J1" s="484"/>
-      <c r="K1" s="484"/>
-      <c r="L1" s="484"/>
-      <c r="M1" s="484"/>
-      <c r="N1" s="485"/>
+      <c r="F1" s="493"/>
+      <c r="G1" s="493"/>
+      <c r="H1" s="493"/>
+      <c r="I1" s="493"/>
+      <c r="J1" s="493"/>
+      <c r="K1" s="493"/>
+      <c r="L1" s="493"/>
+      <c r="M1" s="493"/>
+      <c r="N1" s="494"/>
       <c r="O1" s="544" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="490"/>
-      <c r="Q1" s="490"/>
+      <c r="P1" s="499"/>
+      <c r="Q1" s="499"/>
       <c r="R1" s="545"/>
       <c r="S1" s="546" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="499"/>
-      <c r="U1" s="499"/>
-      <c r="V1" s="499"/>
-      <c r="W1" s="499"/>
-      <c r="X1" s="499"/>
-      <c r="Y1" s="499"/>
+      <c r="T1" s="508"/>
+      <c r="U1" s="508"/>
+      <c r="V1" s="508"/>
+      <c r="W1" s="508"/>
+      <c r="X1" s="508"/>
+      <c r="Y1" s="508"/>
       <c r="Z1" s="547"/>
-      <c r="AA1" s="480" t="s">
+      <c r="AA1" s="489" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="482"/>
-      <c r="AC1" s="486" t="str">
+      <c r="AB1" s="491"/>
+      <c r="AC1" s="495" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="487"/>
-      <c r="AE1" s="487"/>
-      <c r="AF1" s="488"/>
-      <c r="AG1" s="541">
+      <c r="AD1" s="496"/>
+      <c r="AE1" s="496"/>
+      <c r="AF1" s="497"/>
+      <c r="AG1" s="519">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="542"/>
-      <c r="AI1" s="543"/>
+      <c r="AH1" s="520"/>
+      <c r="AI1" s="521"/>
       <c r="AJ1" s="49"/>
       <c r="AN1" s="47"/>
       <c r="AO1" s="47"/>
       <c r="AP1" s="47"/>
     </row>
     <row r="2" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="480" t="s">
+      <c r="A2" s="489" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="481"/>
-      <c r="C2" s="481"/>
-      <c r="D2" s="482"/>
-      <c r="E2" s="483" t="str">
+      <c r="B2" s="490"/>
+      <c r="C2" s="490"/>
+      <c r="D2" s="491"/>
+      <c r="E2" s="492" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-      <c r="I2" s="484"/>
-      <c r="J2" s="484"/>
-      <c r="K2" s="484"/>
-      <c r="L2" s="484"/>
-      <c r="M2" s="484"/>
-      <c r="N2" s="485"/>
-      <c r="O2" s="492"/>
-      <c r="P2" s="493"/>
-      <c r="Q2" s="493"/>
-      <c r="R2" s="494"/>
-      <c r="S2" s="501"/>
-      <c r="T2" s="502"/>
-      <c r="U2" s="502"/>
-      <c r="V2" s="502"/>
-      <c r="W2" s="502"/>
-      <c r="X2" s="502"/>
-      <c r="Y2" s="502"/>
-      <c r="Z2" s="503"/>
-      <c r="AA2" s="480" t="s">
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="493"/>
+      <c r="I2" s="493"/>
+      <c r="J2" s="493"/>
+      <c r="K2" s="493"/>
+      <c r="L2" s="493"/>
+      <c r="M2" s="493"/>
+      <c r="N2" s="494"/>
+      <c r="O2" s="501"/>
+      <c r="P2" s="502"/>
+      <c r="Q2" s="502"/>
+      <c r="R2" s="503"/>
+      <c r="S2" s="510"/>
+      <c r="T2" s="511"/>
+      <c r="U2" s="511"/>
+      <c r="V2" s="511"/>
+      <c r="W2" s="511"/>
+      <c r="X2" s="511"/>
+      <c r="Y2" s="511"/>
+      <c r="Z2" s="512"/>
+      <c r="AA2" s="489" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="482"/>
-      <c r="AC2" s="486" t="str">
+      <c r="AB2" s="491"/>
+      <c r="AC2" s="495" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="487"/>
-      <c r="AE2" s="487"/>
-      <c r="AF2" s="488"/>
-      <c r="AG2" s="541" t="str">
+      <c r="AD2" s="496"/>
+      <c r="AE2" s="496"/>
+      <c r="AF2" s="497"/>
+      <c r="AG2" s="519" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="542"/>
-      <c r="AI2" s="543"/>
+      <c r="AH2" s="520"/>
+      <c r="AI2" s="521"/>
       <c r="AJ2" s="49"/>
       <c r="AN2" s="47"/>
       <c r="AO2" s="47"/>
       <c r="AP2" s="47"/>
     </row>
     <row r="3" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="480" t="s">
+      <c r="A3" s="489" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="481"/>
-      <c r="C3" s="481"/>
-      <c r="D3" s="482"/>
-      <c r="E3" s="483" t="str">
+      <c r="B3" s="490"/>
+      <c r="C3" s="490"/>
+      <c r="D3" s="491"/>
+      <c r="E3" s="492" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="484"/>
-      <c r="G3" s="484"/>
-      <c r="H3" s="484"/>
-      <c r="I3" s="484"/>
-      <c r="J3" s="484"/>
-      <c r="K3" s="484"/>
-      <c r="L3" s="484"/>
-      <c r="M3" s="484"/>
-      <c r="N3" s="485"/>
-      <c r="O3" s="495"/>
-      <c r="P3" s="496"/>
-      <c r="Q3" s="496"/>
-      <c r="R3" s="497"/>
-      <c r="S3" s="504"/>
-      <c r="T3" s="505"/>
-      <c r="U3" s="505"/>
-      <c r="V3" s="505"/>
-      <c r="W3" s="505"/>
-      <c r="X3" s="505"/>
-      <c r="Y3" s="505"/>
-      <c r="Z3" s="506"/>
-      <c r="AA3" s="480"/>
-      <c r="AB3" s="482"/>
-      <c r="AC3" s="486" t="str">
+      <c r="F3" s="493"/>
+      <c r="G3" s="493"/>
+      <c r="H3" s="493"/>
+      <c r="I3" s="493"/>
+      <c r="J3" s="493"/>
+      <c r="K3" s="493"/>
+      <c r="L3" s="493"/>
+      <c r="M3" s="493"/>
+      <c r="N3" s="494"/>
+      <c r="O3" s="504"/>
+      <c r="P3" s="505"/>
+      <c r="Q3" s="505"/>
+      <c r="R3" s="506"/>
+      <c r="S3" s="513"/>
+      <c r="T3" s="514"/>
+      <c r="U3" s="514"/>
+      <c r="V3" s="514"/>
+      <c r="W3" s="514"/>
+      <c r="X3" s="514"/>
+      <c r="Y3" s="514"/>
+      <c r="Z3" s="515"/>
+      <c r="AA3" s="489"/>
+      <c r="AB3" s="491"/>
+      <c r="AC3" s="495" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="487"/>
-      <c r="AE3" s="487"/>
-      <c r="AF3" s="488"/>
-      <c r="AG3" s="541" t="str">
+      <c r="AD3" s="496"/>
+      <c r="AE3" s="496"/>
+      <c r="AF3" s="497"/>
+      <c r="AG3" s="519" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="542"/>
-      <c r="AI3" s="543"/>
+      <c r="AH3" s="520"/>
+      <c r="AI3" s="521"/>
       <c r="AJ3" s="49"/>
       <c r="AN3" s="47"/>
       <c r="AO3" s="47"/>
@@ -33845,7 +33845,7 @@
     <row r="40" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C40" s="53"/>
       <c r="D40" s="43" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.15">
@@ -34144,19 +34144,19 @@
     <row r="80" spans="3:7" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C80" s="53"/>
       <c r="D80" s="34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="81" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C81" s="53"/>
       <c r="E81" s="34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="82" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C82" s="53"/>
       <c r="E82" s="34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="83" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34165,7 +34165,7 @@
     <row r="84" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C84" s="53"/>
       <c r="E84" s="34" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="85" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34195,7 +34195,7 @@
     <row r="93" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C93" s="53"/>
       <c r="N93" s="34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="94" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34235,7 +34235,7 @@
     <row r="96" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C96" s="53"/>
       <c r="F96" s="387" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G96" s="388"/>
       <c r="H96" s="388"/>
@@ -34243,7 +34243,7 @@
       <c r="J96" s="388"/>
       <c r="K96" s="389"/>
       <c r="L96" s="387" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M96" s="388"/>
       <c r="N96" s="388"/>
@@ -34266,7 +34266,7 @@
     <row r="97" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C97" s="53"/>
       <c r="F97" s="387" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G97" s="388"/>
       <c r="H97" s="388"/>
@@ -34274,7 +34274,7 @@
       <c r="J97" s="388"/>
       <c r="K97" s="389"/>
       <c r="L97" s="387" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M97" s="388"/>
       <c r="N97" s="388"/>
@@ -34297,7 +34297,7 @@
     <row r="98" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C98" s="53"/>
       <c r="F98" s="384" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G98" s="385"/>
       <c r="H98" s="385"/>
@@ -34305,7 +34305,7 @@
       <c r="J98" s="385"/>
       <c r="K98" s="386"/>
       <c r="L98" s="384" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M98" s="385"/>
       <c r="N98" s="385"/>
@@ -34331,7 +34331,7 @@
     <row r="100" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C100" s="53"/>
       <c r="F100" s="34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="101" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34356,13 +34356,13 @@
     <row r="105" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C105" s="53"/>
       <c r="F105" s="34" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="106" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C106" s="53"/>
       <c r="G106" s="34" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="107" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34372,14 +34372,14 @@
     <row r="108" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C108" s="53"/>
       <c r="F108" s="34" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G108" s="42"/>
     </row>
     <row r="109" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C109" s="53"/>
       <c r="G109" s="34" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="110" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34395,13 +34395,13 @@
     <row r="112" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C112" s="53"/>
       <c r="F112" s="34" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="113" spans="3:40" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C113" s="53"/>
       <c r="G113" s="34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="114" spans="3:40" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34413,13 +34413,13 @@
     <row r="116" spans="3:40" x14ac:dyDescent="0.15">
       <c r="C116" s="53"/>
       <c r="D116" s="34" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="117" spans="3:40" x14ac:dyDescent="0.15">
       <c r="C117" s="53"/>
       <c r="E117" s="34" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="118" spans="3:40" x14ac:dyDescent="0.15">
@@ -34582,7 +34582,7 @@
     <row r="132" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C132" s="53"/>
       <c r="D132" s="43" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="133" spans="3:29" x14ac:dyDescent="0.15">
@@ -34806,7 +34806,7 @@
       <c r="C154" s="53"/>
       <c r="E154" s="34"/>
       <c r="F154" s="34" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="155" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34814,7 +34814,7 @@
       <c r="E155" s="34"/>
       <c r="F155" s="34"/>
       <c r="G155" s="34" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="156" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34855,7 +34855,7 @@
     <row r="163" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C163" s="53"/>
       <c r="D163" s="43" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="164" spans="3:29" x14ac:dyDescent="0.15">
@@ -35208,14 +35208,14 @@
     <row r="207" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C207" s="53"/>
       <c r="D207" s="43" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="208" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C208" s="53"/>
       <c r="D208" s="43"/>
       <c r="E208" s="34" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="209" spans="3:29" x14ac:dyDescent="0.15">
@@ -35349,7 +35349,7 @@
     <row r="223" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C223" s="53"/>
       <c r="E223" s="34" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F223" s="34"/>
     </row>
@@ -35368,13 +35368,13 @@
     <row r="226" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C226" s="53"/>
       <c r="G226" s="34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="227" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C227" s="53"/>
       <c r="G227" s="34" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="228" spans="3:29" x14ac:dyDescent="0.15">
@@ -35383,13 +35383,13 @@
     <row r="229" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C229" s="53"/>
       <c r="D229" s="34" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="230" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C230" s="53"/>
       <c r="E230" s="34" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="231" spans="3:29" x14ac:dyDescent="0.15">
@@ -35499,7 +35499,7 @@
     </row>
     <row r="245" spans="3:29" x14ac:dyDescent="0.15">
       <c r="E245" s="34" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="247" spans="3:29" x14ac:dyDescent="0.15">
@@ -35542,14 +35542,14 @@
     <row r="255" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C255" s="34"/>
       <c r="D255" s="34" t="s">
-        <v>541</v>
+        <v>596</v>
       </c>
       <c r="G255" s="34"/>
     </row>
     <row r="256" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C256" s="34"/>
       <c r="D256" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G256" s="34"/>
     </row>
@@ -35560,7 +35560,7 @@
     <row r="258" spans="3:7" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C258" s="34"/>
       <c r="D258" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G258" s="34"/>
     </row>
@@ -35952,12 +35952,12 @@
     <row r="326" spans="4:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="327" spans="4:37" x14ac:dyDescent="0.15">
       <c r="E327" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="328" spans="4:37" x14ac:dyDescent="0.15">
       <c r="E328" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="330" spans="4:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -35967,6 +35967,11 @@
     <row r="338" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T14:AG14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:S14"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -35982,11 +35987,6 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="T14:AG14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="K14:S14"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -36033,157 +36033,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="489" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="482"/>
-      <c r="E1" s="483" t="str">
+      <c r="B1" s="490"/>
+      <c r="C1" s="490"/>
+      <c r="D1" s="491"/>
+      <c r="E1" s="492" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="484"/>
-      <c r="G1" s="484"/>
-      <c r="H1" s="484"/>
-      <c r="I1" s="484"/>
-      <c r="J1" s="484"/>
-      <c r="K1" s="484"/>
-      <c r="L1" s="484"/>
-      <c r="M1" s="484"/>
-      <c r="N1" s="485"/>
-      <c r="O1" s="489" t="s">
+      <c r="F1" s="493"/>
+      <c r="G1" s="493"/>
+      <c r="H1" s="493"/>
+      <c r="I1" s="493"/>
+      <c r="J1" s="493"/>
+      <c r="K1" s="493"/>
+      <c r="L1" s="493"/>
+      <c r="M1" s="493"/>
+      <c r="N1" s="494"/>
+      <c r="O1" s="498" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="490"/>
-      <c r="Q1" s="490"/>
-      <c r="R1" s="491"/>
-      <c r="S1" s="498" t="str">
+      <c r="P1" s="499"/>
+      <c r="Q1" s="499"/>
+      <c r="R1" s="500"/>
+      <c r="S1" s="507" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="499"/>
-      <c r="U1" s="499"/>
-      <c r="V1" s="499"/>
-      <c r="W1" s="499"/>
-      <c r="X1" s="499"/>
-      <c r="Y1" s="499"/>
-      <c r="Z1" s="500"/>
-      <c r="AA1" s="480" t="s">
+      <c r="T1" s="508"/>
+      <c r="U1" s="508"/>
+      <c r="V1" s="508"/>
+      <c r="W1" s="508"/>
+      <c r="X1" s="508"/>
+      <c r="Y1" s="508"/>
+      <c r="Z1" s="509"/>
+      <c r="AA1" s="489" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="482"/>
-      <c r="AC1" s="486" t="str">
+      <c r="AB1" s="491"/>
+      <c r="AC1" s="495" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="487"/>
-      <c r="AE1" s="487"/>
-      <c r="AF1" s="488"/>
-      <c r="AG1" s="541">
+      <c r="AD1" s="496"/>
+      <c r="AE1" s="496"/>
+      <c r="AF1" s="497"/>
+      <c r="AG1" s="519">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="542"/>
-      <c r="AI1" s="543"/>
+      <c r="AH1" s="520"/>
+      <c r="AI1" s="521"/>
     </row>
     <row r="2" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="480" t="s">
+      <c r="A2" s="489" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="481"/>
-      <c r="C2" s="481"/>
-      <c r="D2" s="482"/>
-      <c r="E2" s="483" t="str">
+      <c r="B2" s="490"/>
+      <c r="C2" s="490"/>
+      <c r="D2" s="491"/>
+      <c r="E2" s="492" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-      <c r="I2" s="484"/>
-      <c r="J2" s="484"/>
-      <c r="K2" s="484"/>
-      <c r="L2" s="484"/>
-      <c r="M2" s="484"/>
-      <c r="N2" s="485"/>
-      <c r="O2" s="492"/>
-      <c r="P2" s="493"/>
-      <c r="Q2" s="493"/>
-      <c r="R2" s="494"/>
-      <c r="S2" s="501"/>
-      <c r="T2" s="502"/>
-      <c r="U2" s="502"/>
-      <c r="V2" s="502"/>
-      <c r="W2" s="502"/>
-      <c r="X2" s="502"/>
-      <c r="Y2" s="502"/>
-      <c r="Z2" s="503"/>
-      <c r="AA2" s="480" t="s">
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="493"/>
+      <c r="I2" s="493"/>
+      <c r="J2" s="493"/>
+      <c r="K2" s="493"/>
+      <c r="L2" s="493"/>
+      <c r="M2" s="493"/>
+      <c r="N2" s="494"/>
+      <c r="O2" s="501"/>
+      <c r="P2" s="502"/>
+      <c r="Q2" s="502"/>
+      <c r="R2" s="503"/>
+      <c r="S2" s="510"/>
+      <c r="T2" s="511"/>
+      <c r="U2" s="511"/>
+      <c r="V2" s="511"/>
+      <c r="W2" s="511"/>
+      <c r="X2" s="511"/>
+      <c r="Y2" s="511"/>
+      <c r="Z2" s="512"/>
+      <c r="AA2" s="489" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="482"/>
-      <c r="AC2" s="486" t="str">
+      <c r="AB2" s="491"/>
+      <c r="AC2" s="495" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="487"/>
-      <c r="AE2" s="487"/>
-      <c r="AF2" s="488"/>
-      <c r="AG2" s="541" t="str">
+      <c r="AD2" s="496"/>
+      <c r="AE2" s="496"/>
+      <c r="AF2" s="497"/>
+      <c r="AG2" s="519" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="542"/>
-      <c r="AI2" s="543"/>
+      <c r="AH2" s="520"/>
+      <c r="AI2" s="521"/>
     </row>
     <row r="3" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="480" t="s">
+      <c r="A3" s="489" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="481"/>
-      <c r="C3" s="481"/>
-      <c r="D3" s="482"/>
-      <c r="E3" s="483" t="str">
+      <c r="B3" s="490"/>
+      <c r="C3" s="490"/>
+      <c r="D3" s="491"/>
+      <c r="E3" s="492" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="484"/>
-      <c r="G3" s="484"/>
-      <c r="H3" s="484"/>
-      <c r="I3" s="484"/>
-      <c r="J3" s="484"/>
-      <c r="K3" s="484"/>
-      <c r="L3" s="484"/>
-      <c r="M3" s="484"/>
-      <c r="N3" s="485"/>
-      <c r="O3" s="495"/>
-      <c r="P3" s="496"/>
-      <c r="Q3" s="496"/>
-      <c r="R3" s="497"/>
-      <c r="S3" s="504"/>
-      <c r="T3" s="505"/>
-      <c r="U3" s="505"/>
-      <c r="V3" s="505"/>
-      <c r="W3" s="505"/>
-      <c r="X3" s="505"/>
-      <c r="Y3" s="505"/>
-      <c r="Z3" s="506"/>
-      <c r="AA3" s="480"/>
-      <c r="AB3" s="482"/>
-      <c r="AC3" s="486" t="str">
+      <c r="F3" s="493"/>
+      <c r="G3" s="493"/>
+      <c r="H3" s="493"/>
+      <c r="I3" s="493"/>
+      <c r="J3" s="493"/>
+      <c r="K3" s="493"/>
+      <c r="L3" s="493"/>
+      <c r="M3" s="493"/>
+      <c r="N3" s="494"/>
+      <c r="O3" s="504"/>
+      <c r="P3" s="505"/>
+      <c r="Q3" s="505"/>
+      <c r="R3" s="506"/>
+      <c r="S3" s="513"/>
+      <c r="T3" s="514"/>
+      <c r="U3" s="514"/>
+      <c r="V3" s="514"/>
+      <c r="W3" s="514"/>
+      <c r="X3" s="514"/>
+      <c r="Y3" s="514"/>
+      <c r="Z3" s="515"/>
+      <c r="AA3" s="489"/>
+      <c r="AB3" s="491"/>
+      <c r="AC3" s="495" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="487"/>
-      <c r="AE3" s="487"/>
-      <c r="AF3" s="488"/>
-      <c r="AG3" s="541" t="str">
+      <c r="AD3" s="496"/>
+      <c r="AE3" s="496"/>
+      <c r="AF3" s="497"/>
+      <c r="AG3" s="519" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="542"/>
-      <c r="AI3" s="543"/>
+      <c r="AH3" s="520"/>
+      <c r="AI3" s="521"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B5" s="36" t="s">
@@ -37724,7 +37724,7 @@
       <c r="L124" s="199"/>
       <c r="M124" s="199"/>
       <c r="N124" s="394" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O124" s="199"/>
       <c r="P124" s="199"/>
@@ -37864,7 +37864,7 @@
       <c r="L127" s="349"/>
       <c r="M127" s="349"/>
       <c r="N127" s="66" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O127" s="307"/>
       <c r="P127" s="307"/>
@@ -37891,7 +37891,7 @@
         <v>3</v>
       </c>
       <c r="G128" s="394" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H128" s="399"/>
       <c r="I128" s="399"/>
@@ -37900,7 +37900,7 @@
       <c r="L128" s="199"/>
       <c r="M128" s="199"/>
       <c r="N128" s="309" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O128" s="403"/>
       <c r="P128" s="403"/>
@@ -38516,7 +38516,7 @@
         <v>3</v>
       </c>
       <c r="G146" s="252" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H146" s="253"/>
       <c r="I146" s="253"/>
@@ -38893,12 +38893,12 @@
     <row r="202" spans="2:35" s="67" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
@@ -38907,12 +38907,12 @@
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -38953,165 +38953,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="439" t="s">
+      <c r="A1" s="411" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="440"/>
-      <c r="C1" s="440"/>
-      <c r="D1" s="441"/>
-      <c r="E1" s="470" t="str">
+      <c r="B1" s="412"/>
+      <c r="C1" s="412"/>
+      <c r="D1" s="413"/>
+      <c r="E1" s="442" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="443"/>
-      <c r="G1" s="443"/>
-      <c r="H1" s="443"/>
-      <c r="I1" s="443"/>
-      <c r="J1" s="443"/>
-      <c r="K1" s="443"/>
-      <c r="L1" s="443"/>
-      <c r="M1" s="443"/>
-      <c r="N1" s="444"/>
-      <c r="O1" s="489" t="s">
+      <c r="F1" s="415"/>
+      <c r="G1" s="415"/>
+      <c r="H1" s="415"/>
+      <c r="I1" s="415"/>
+      <c r="J1" s="415"/>
+      <c r="K1" s="415"/>
+      <c r="L1" s="415"/>
+      <c r="M1" s="415"/>
+      <c r="N1" s="416"/>
+      <c r="O1" s="498" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="490"/>
-      <c r="Q1" s="490"/>
-      <c r="R1" s="491"/>
-      <c r="S1" s="498" t="str">
+      <c r="P1" s="499"/>
+      <c r="Q1" s="499"/>
+      <c r="R1" s="500"/>
+      <c r="S1" s="507" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="499"/>
-      <c r="U1" s="499"/>
-      <c r="V1" s="499"/>
-      <c r="W1" s="499"/>
-      <c r="X1" s="499"/>
-      <c r="Y1" s="499"/>
-      <c r="Z1" s="500"/>
-      <c r="AA1" s="439" t="s">
+      <c r="T1" s="508"/>
+      <c r="U1" s="508"/>
+      <c r="V1" s="508"/>
+      <c r="W1" s="508"/>
+      <c r="X1" s="508"/>
+      <c r="Y1" s="508"/>
+      <c r="Z1" s="509"/>
+      <c r="AA1" s="411" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="441"/>
-      <c r="AC1" s="467" t="str">
+      <c r="AB1" s="413"/>
+      <c r="AC1" s="439" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="468"/>
-      <c r="AE1" s="468"/>
-      <c r="AF1" s="469"/>
-      <c r="AG1" s="603">
+      <c r="AD1" s="440"/>
+      <c r="AE1" s="440"/>
+      <c r="AF1" s="441"/>
+      <c r="AG1" s="602">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="604"/>
-      <c r="AI1" s="605"/>
+      <c r="AH1" s="603"/>
+      <c r="AI1" s="604"/>
       <c r="AJ1" s="49"/>
       <c r="AN1" s="85"/>
       <c r="AO1" s="85"/>
       <c r="AP1" s="85"/>
     </row>
     <row r="2" spans="1:42" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="439" t="s">
+      <c r="A2" s="411" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="440"/>
-      <c r="C2" s="440"/>
-      <c r="D2" s="441"/>
-      <c r="E2" s="470" t="str">
+      <c r="B2" s="412"/>
+      <c r="C2" s="412"/>
+      <c r="D2" s="413"/>
+      <c r="E2" s="442" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="443"/>
-      <c r="G2" s="443"/>
-      <c r="H2" s="443"/>
-      <c r="I2" s="443"/>
-      <c r="J2" s="443"/>
-      <c r="K2" s="443"/>
-      <c r="L2" s="443"/>
-      <c r="M2" s="443"/>
-      <c r="N2" s="444"/>
-      <c r="O2" s="492"/>
-      <c r="P2" s="493"/>
-      <c r="Q2" s="493"/>
-      <c r="R2" s="494"/>
-      <c r="S2" s="501"/>
-      <c r="T2" s="502"/>
-      <c r="U2" s="502"/>
-      <c r="V2" s="502"/>
-      <c r="W2" s="502"/>
-      <c r="X2" s="502"/>
-      <c r="Y2" s="502"/>
-      <c r="Z2" s="503"/>
-      <c r="AA2" s="439" t="s">
+      <c r="F2" s="415"/>
+      <c r="G2" s="415"/>
+      <c r="H2" s="415"/>
+      <c r="I2" s="415"/>
+      <c r="J2" s="415"/>
+      <c r="K2" s="415"/>
+      <c r="L2" s="415"/>
+      <c r="M2" s="415"/>
+      <c r="N2" s="416"/>
+      <c r="O2" s="501"/>
+      <c r="P2" s="502"/>
+      <c r="Q2" s="502"/>
+      <c r="R2" s="503"/>
+      <c r="S2" s="510"/>
+      <c r="T2" s="511"/>
+      <c r="U2" s="511"/>
+      <c r="V2" s="511"/>
+      <c r="W2" s="511"/>
+      <c r="X2" s="511"/>
+      <c r="Y2" s="511"/>
+      <c r="Z2" s="512"/>
+      <c r="AA2" s="411" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="441"/>
-      <c r="AC2" s="467" t="str">
+      <c r="AB2" s="413"/>
+      <c r="AC2" s="439" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="468"/>
-      <c r="AE2" s="468"/>
-      <c r="AF2" s="469"/>
-      <c r="AG2" s="603" t="str">
+      <c r="AD2" s="440"/>
+      <c r="AE2" s="440"/>
+      <c r="AF2" s="441"/>
+      <c r="AG2" s="602" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="604"/>
-      <c r="AI2" s="605"/>
+      <c r="AH2" s="603"/>
+      <c r="AI2" s="604"/>
       <c r="AJ2" s="49"/>
       <c r="AN2" s="85"/>
       <c r="AO2" s="85"/>
       <c r="AP2" s="85"/>
     </row>
     <row r="3" spans="1:42" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="439" t="s">
+      <c r="A3" s="411" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="440"/>
-      <c r="C3" s="440"/>
-      <c r="D3" s="441"/>
-      <c r="E3" s="470" t="str">
+      <c r="B3" s="412"/>
+      <c r="C3" s="412"/>
+      <c r="D3" s="413"/>
+      <c r="E3" s="442" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="443"/>
-      <c r="G3" s="443"/>
-      <c r="H3" s="443"/>
-      <c r="I3" s="443"/>
-      <c r="J3" s="443"/>
-      <c r="K3" s="443"/>
-      <c r="L3" s="443"/>
-      <c r="M3" s="443"/>
-      <c r="N3" s="444"/>
-      <c r="O3" s="495"/>
-      <c r="P3" s="496"/>
-      <c r="Q3" s="496"/>
-      <c r="R3" s="497"/>
-      <c r="S3" s="504"/>
-      <c r="T3" s="505"/>
-      <c r="U3" s="505"/>
-      <c r="V3" s="505"/>
-      <c r="W3" s="505"/>
-      <c r="X3" s="505"/>
-      <c r="Y3" s="505"/>
-      <c r="Z3" s="506"/>
-      <c r="AA3" s="439"/>
-      <c r="AB3" s="441"/>
-      <c r="AC3" s="467" t="str">
+      <c r="F3" s="415"/>
+      <c r="G3" s="415"/>
+      <c r="H3" s="415"/>
+      <c r="I3" s="415"/>
+      <c r="J3" s="415"/>
+      <c r="K3" s="415"/>
+      <c r="L3" s="415"/>
+      <c r="M3" s="415"/>
+      <c r="N3" s="416"/>
+      <c r="O3" s="504"/>
+      <c r="P3" s="505"/>
+      <c r="Q3" s="505"/>
+      <c r="R3" s="506"/>
+      <c r="S3" s="513"/>
+      <c r="T3" s="514"/>
+      <c r="U3" s="514"/>
+      <c r="V3" s="514"/>
+      <c r="W3" s="514"/>
+      <c r="X3" s="514"/>
+      <c r="Y3" s="514"/>
+      <c r="Z3" s="515"/>
+      <c r="AA3" s="411"/>
+      <c r="AB3" s="413"/>
+      <c r="AC3" s="439" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="468"/>
-      <c r="AE3" s="468"/>
-      <c r="AF3" s="469"/>
-      <c r="AG3" s="603" t="str">
+      <c r="AD3" s="440"/>
+      <c r="AE3" s="440"/>
+      <c r="AF3" s="441"/>
+      <c r="AG3" s="602" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="604"/>
-      <c r="AI3" s="605"/>
+      <c r="AH3" s="603"/>
+      <c r="AI3" s="604"/>
       <c r="AJ3" s="49"/>
       <c r="AN3" s="85"/>
       <c r="AO3" s="85"/>
@@ -39466,7 +39466,7 @@
     <row r="61" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="83"/>
       <c r="E61" s="34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="62" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39619,7 +39619,7 @@
     </row>
     <row r="98" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E98" s="56" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N98" s="83"/>
     </row>
@@ -39646,7 +39646,7 @@
     </row>
     <row r="104" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E104" s="34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AQ104" s="83"/>
       <c r="AR104" s="83"/>
@@ -39661,7 +39661,7 @@
     </row>
     <row r="105" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E105" s="34" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="W105" s="58"/>
       <c r="AQ105" s="83"/>
@@ -39803,312 +39803,312 @@
     </row>
     <row r="150" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="151" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D151" s="507" t="s">
+      <c r="D151" s="480" t="s">
         <v>225</v>
       </c>
-      <c r="E151" s="588"/>
-      <c r="F151" s="588"/>
-      <c r="G151" s="588"/>
-      <c r="H151" s="588"/>
-      <c r="I151" s="588"/>
-      <c r="J151" s="589"/>
-      <c r="K151" s="596" t="s">
+      <c r="E151" s="558"/>
+      <c r="F151" s="558"/>
+      <c r="G151" s="558"/>
+      <c r="H151" s="558"/>
+      <c r="I151" s="558"/>
+      <c r="J151" s="559"/>
+      <c r="K151" s="579" t="s">
         <v>49</v>
       </c>
-      <c r="L151" s="634"/>
-      <c r="M151" s="634"/>
-      <c r="N151" s="634"/>
-      <c r="O151" s="634"/>
-      <c r="P151" s="634"/>
-      <c r="Q151" s="634"/>
-      <c r="R151" s="634"/>
-      <c r="S151" s="634"/>
-      <c r="T151" s="634"/>
-      <c r="U151" s="634"/>
-      <c r="V151" s="634"/>
-      <c r="W151" s="634"/>
-      <c r="X151" s="634"/>
-      <c r="Y151" s="634"/>
-      <c r="Z151" s="597"/>
-      <c r="AA151" s="632" t="s">
+      <c r="L151" s="580"/>
+      <c r="M151" s="580"/>
+      <c r="N151" s="580"/>
+      <c r="O151" s="580"/>
+      <c r="P151" s="580"/>
+      <c r="Q151" s="580"/>
+      <c r="R151" s="580"/>
+      <c r="S151" s="580"/>
+      <c r="T151" s="580"/>
+      <c r="U151" s="580"/>
+      <c r="V151" s="580"/>
+      <c r="W151" s="580"/>
+      <c r="X151" s="580"/>
+      <c r="Y151" s="580"/>
+      <c r="Z151" s="581"/>
+      <c r="AA151" s="577" t="s">
         <v>50</v>
       </c>
-      <c r="AB151" s="633"/>
-      <c r="AC151" s="633"/>
-      <c r="AD151" s="633"/>
-      <c r="AE151" s="633"/>
-      <c r="AF151" s="633"/>
-      <c r="AG151" s="633"/>
-      <c r="AH151" s="633"/>
+      <c r="AB151" s="578"/>
+      <c r="AC151" s="578"/>
+      <c r="AD151" s="578"/>
+      <c r="AE151" s="578"/>
+      <c r="AF151" s="578"/>
+      <c r="AG151" s="578"/>
+      <c r="AH151" s="578"/>
     </row>
     <row r="152" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D152" s="510" t="s">
+      <c r="D152" s="483" t="s">
         <v>51</v>
       </c>
-      <c r="E152" s="511"/>
-      <c r="F152" s="511"/>
-      <c r="G152" s="511"/>
-      <c r="H152" s="511"/>
-      <c r="I152" s="511"/>
-      <c r="J152" s="512"/>
-      <c r="K152" s="608" t="s">
+      <c r="E152" s="484"/>
+      <c r="F152" s="484"/>
+      <c r="G152" s="484"/>
+      <c r="H152" s="484"/>
+      <c r="I152" s="484"/>
+      <c r="J152" s="485"/>
+      <c r="K152" s="569" t="s">
+        <v>587</v>
+      </c>
+      <c r="L152" s="567"/>
+      <c r="M152" s="567"/>
+      <c r="N152" s="567"/>
+      <c r="O152" s="567"/>
+      <c r="P152" s="567"/>
+      <c r="Q152" s="567"/>
+      <c r="R152" s="567"/>
+      <c r="S152" s="567"/>
+      <c r="T152" s="567"/>
+      <c r="U152" s="567"/>
+      <c r="V152" s="567"/>
+      <c r="W152" s="567"/>
+      <c r="X152" s="567"/>
+      <c r="Y152" s="567"/>
+      <c r="Z152" s="568"/>
+      <c r="AA152" s="575" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB152" s="576"/>
+      <c r="AC152" s="576"/>
+      <c r="AD152" s="576"/>
+      <c r="AE152" s="576"/>
+      <c r="AF152" s="576"/>
+      <c r="AG152" s="576"/>
+      <c r="AH152" s="576"/>
+    </row>
+    <row r="153" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D153" s="560" t="s">
+        <v>210</v>
+      </c>
+      <c r="E153" s="561"/>
+      <c r="F153" s="561"/>
+      <c r="G153" s="561"/>
+      <c r="H153" s="561"/>
+      <c r="I153" s="561"/>
+      <c r="J153" s="562"/>
+      <c r="K153" s="569" t="s">
         <v>588</v>
       </c>
-      <c r="L152" s="609"/>
-      <c r="M152" s="609"/>
-      <c r="N152" s="609"/>
-      <c r="O152" s="609"/>
-      <c r="P152" s="609"/>
-      <c r="Q152" s="609"/>
-      <c r="R152" s="609"/>
-      <c r="S152" s="609"/>
-      <c r="T152" s="609"/>
-      <c r="U152" s="609"/>
-      <c r="V152" s="609"/>
-      <c r="W152" s="609"/>
-      <c r="X152" s="609"/>
-      <c r="Y152" s="609"/>
-      <c r="Z152" s="610"/>
-      <c r="AA152" s="616" t="s">
+      <c r="L153" s="567"/>
+      <c r="M153" s="567"/>
+      <c r="N153" s="567"/>
+      <c r="O153" s="567"/>
+      <c r="P153" s="567"/>
+      <c r="Q153" s="567"/>
+      <c r="R153" s="567"/>
+      <c r="S153" s="567"/>
+      <c r="T153" s="567"/>
+      <c r="U153" s="567"/>
+      <c r="V153" s="567"/>
+      <c r="W153" s="567"/>
+      <c r="X153" s="567"/>
+      <c r="Y153" s="567"/>
+      <c r="Z153" s="568"/>
+      <c r="AA153" s="575" t="s">
         <v>72</v>
       </c>
-      <c r="AB152" s="615"/>
-      <c r="AC152" s="615"/>
-      <c r="AD152" s="615"/>
-      <c r="AE152" s="615"/>
-      <c r="AF152" s="615"/>
-      <c r="AG152" s="615"/>
-      <c r="AH152" s="615"/>
-    </row>
-    <row r="153" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D153" s="574" t="s">
-        <v>210</v>
-      </c>
-      <c r="E153" s="623"/>
-      <c r="F153" s="623"/>
-      <c r="G153" s="623"/>
-      <c r="H153" s="623"/>
-      <c r="I153" s="623"/>
-      <c r="J153" s="624"/>
-      <c r="K153" s="608" t="s">
+      <c r="AB153" s="576"/>
+      <c r="AC153" s="576"/>
+      <c r="AD153" s="576"/>
+      <c r="AE153" s="576"/>
+      <c r="AF153" s="576"/>
+      <c r="AG153" s="576"/>
+      <c r="AH153" s="576"/>
+    </row>
+    <row r="154" spans="3:34" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D154" s="554" t="s">
+        <v>221</v>
+      </c>
+      <c r="E154" s="487"/>
+      <c r="F154" s="487"/>
+      <c r="G154" s="487"/>
+      <c r="H154" s="487"/>
+      <c r="I154" s="487"/>
+      <c r="J154" s="488"/>
+      <c r="K154" s="566" t="s">
+        <v>69</v>
+      </c>
+      <c r="L154" s="567"/>
+      <c r="M154" s="567"/>
+      <c r="N154" s="567"/>
+      <c r="O154" s="567"/>
+      <c r="P154" s="567"/>
+      <c r="Q154" s="567"/>
+      <c r="R154" s="567"/>
+      <c r="S154" s="567"/>
+      <c r="T154" s="567"/>
+      <c r="U154" s="567"/>
+      <c r="V154" s="567"/>
+      <c r="W154" s="567"/>
+      <c r="X154" s="567"/>
+      <c r="Y154" s="567"/>
+      <c r="Z154" s="568"/>
+      <c r="AA154" s="563" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB154" s="564"/>
+      <c r="AC154" s="564"/>
+      <c r="AD154" s="564"/>
+      <c r="AE154" s="564"/>
+      <c r="AF154" s="564"/>
+      <c r="AG154" s="564"/>
+      <c r="AH154" s="565"/>
+    </row>
+    <row r="155" spans="3:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D155" s="552"/>
+      <c r="E155" s="555" t="s">
+        <v>224</v>
+      </c>
+      <c r="F155" s="556"/>
+      <c r="G155" s="556"/>
+      <c r="H155" s="556"/>
+      <c r="I155" s="556"/>
+      <c r="J155" s="557"/>
+      <c r="K155" s="569" t="s">
+        <v>585</v>
+      </c>
+      <c r="L155" s="567"/>
+      <c r="M155" s="567"/>
+      <c r="N155" s="567"/>
+      <c r="O155" s="567"/>
+      <c r="P155" s="567"/>
+      <c r="Q155" s="567"/>
+      <c r="R155" s="567"/>
+      <c r="S155" s="567"/>
+      <c r="T155" s="567"/>
+      <c r="U155" s="567"/>
+      <c r="V155" s="567"/>
+      <c r="W155" s="567"/>
+      <c r="X155" s="567"/>
+      <c r="Y155" s="567"/>
+      <c r="Z155" s="568"/>
+      <c r="AA155" s="605" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB155" s="606"/>
+      <c r="AC155" s="606"/>
+      <c r="AD155" s="606"/>
+      <c r="AE155" s="606"/>
+      <c r="AF155" s="606"/>
+      <c r="AG155" s="606"/>
+      <c r="AH155" s="606"/>
+    </row>
+    <row r="156" spans="3:34" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D156" s="552"/>
+      <c r="E156" s="555"/>
+      <c r="F156" s="556"/>
+      <c r="G156" s="556"/>
+      <c r="H156" s="556"/>
+      <c r="I156" s="556"/>
+      <c r="J156" s="557"/>
+      <c r="K156" s="570" t="s">
+        <v>586</v>
+      </c>
+      <c r="L156" s="571"/>
+      <c r="M156" s="571"/>
+      <c r="N156" s="571"/>
+      <c r="O156" s="571"/>
+      <c r="P156" s="571"/>
+      <c r="Q156" s="571"/>
+      <c r="R156" s="571"/>
+      <c r="S156" s="571"/>
+      <c r="T156" s="571"/>
+      <c r="U156" s="571"/>
+      <c r="V156" s="571"/>
+      <c r="W156" s="571"/>
+      <c r="X156" s="571"/>
+      <c r="Y156" s="571"/>
+      <c r="Z156" s="572"/>
+      <c r="AA156" s="569" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB156" s="573"/>
+      <c r="AC156" s="573"/>
+      <c r="AD156" s="573"/>
+      <c r="AE156" s="573"/>
+      <c r="AF156" s="573"/>
+      <c r="AG156" s="573"/>
+      <c r="AH156" s="574"/>
+    </row>
+    <row r="157" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="D157" s="552"/>
+      <c r="E157" s="555"/>
+      <c r="F157" s="556"/>
+      <c r="G157" s="556"/>
+      <c r="H157" s="556"/>
+      <c r="I157" s="556"/>
+      <c r="J157" s="557"/>
+      <c r="K157" s="566" t="s">
         <v>589</v>
       </c>
-      <c r="L153" s="609"/>
-      <c r="M153" s="609"/>
-      <c r="N153" s="609"/>
-      <c r="O153" s="609"/>
-      <c r="P153" s="609"/>
-      <c r="Q153" s="609"/>
-      <c r="R153" s="609"/>
-      <c r="S153" s="609"/>
-      <c r="T153" s="609"/>
-      <c r="U153" s="609"/>
-      <c r="V153" s="609"/>
-      <c r="W153" s="609"/>
-      <c r="X153" s="609"/>
-      <c r="Y153" s="609"/>
-      <c r="Z153" s="610"/>
-      <c r="AA153" s="616" t="s">
+      <c r="L157" s="567"/>
+      <c r="M157" s="567"/>
+      <c r="N157" s="567"/>
+      <c r="O157" s="567"/>
+      <c r="P157" s="567"/>
+      <c r="Q157" s="567"/>
+      <c r="R157" s="567"/>
+      <c r="S157" s="567"/>
+      <c r="T157" s="567"/>
+      <c r="U157" s="567"/>
+      <c r="V157" s="567"/>
+      <c r="W157" s="567"/>
+      <c r="X157" s="567"/>
+      <c r="Y157" s="567"/>
+      <c r="Z157" s="568"/>
+      <c r="AA157" s="575" t="s">
         <v>72</v>
       </c>
-      <c r="AB153" s="615"/>
-      <c r="AC153" s="615"/>
-      <c r="AD153" s="615"/>
-      <c r="AE153" s="615"/>
-      <c r="AF153" s="615"/>
-      <c r="AG153" s="615"/>
-      <c r="AH153" s="615"/>
-    </row>
-    <row r="154" spans="3:34" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D154" s="622" t="s">
-        <v>221</v>
-      </c>
-      <c r="E154" s="514"/>
-      <c r="F154" s="514"/>
-      <c r="G154" s="514"/>
-      <c r="H154" s="514"/>
-      <c r="I154" s="514"/>
-      <c r="J154" s="515"/>
-      <c r="K154" s="628" t="s">
-        <v>69</v>
-      </c>
-      <c r="L154" s="609"/>
-      <c r="M154" s="609"/>
-      <c r="N154" s="609"/>
-      <c r="O154" s="609"/>
-      <c r="P154" s="609"/>
-      <c r="Q154" s="609"/>
-      <c r="R154" s="609"/>
-      <c r="S154" s="609"/>
-      <c r="T154" s="609"/>
-      <c r="U154" s="609"/>
-      <c r="V154" s="609"/>
-      <c r="W154" s="609"/>
-      <c r="X154" s="609"/>
-      <c r="Y154" s="609"/>
-      <c r="Z154" s="610"/>
-      <c r="AA154" s="625" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB154" s="626"/>
-      <c r="AC154" s="626"/>
-      <c r="AD154" s="626"/>
-      <c r="AE154" s="626"/>
-      <c r="AF154" s="626"/>
-      <c r="AG154" s="626"/>
-      <c r="AH154" s="627"/>
-    </row>
-    <row r="155" spans="3:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D155" s="620"/>
-      <c r="E155" s="552" t="s">
-        <v>224</v>
-      </c>
-      <c r="F155" s="553"/>
-      <c r="G155" s="553"/>
-      <c r="H155" s="553"/>
-      <c r="I155" s="553"/>
-      <c r="J155" s="554"/>
-      <c r="K155" s="608" t="s">
-        <v>586</v>
-      </c>
-      <c r="L155" s="609"/>
-      <c r="M155" s="609"/>
-      <c r="N155" s="609"/>
-      <c r="O155" s="609"/>
-      <c r="P155" s="609"/>
-      <c r="Q155" s="609"/>
-      <c r="R155" s="609"/>
-      <c r="S155" s="609"/>
-      <c r="T155" s="609"/>
-      <c r="U155" s="609"/>
-      <c r="V155" s="609"/>
-      <c r="W155" s="609"/>
-      <c r="X155" s="609"/>
-      <c r="Y155" s="609"/>
-      <c r="Z155" s="610"/>
-      <c r="AA155" s="606" t="s">
-        <v>226</v>
-      </c>
-      <c r="AB155" s="607"/>
-      <c r="AC155" s="607"/>
-      <c r="AD155" s="607"/>
-      <c r="AE155" s="607"/>
-      <c r="AF155" s="607"/>
-      <c r="AG155" s="607"/>
-      <c r="AH155" s="607"/>
-    </row>
-    <row r="156" spans="3:34" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D156" s="620"/>
-      <c r="E156" s="552"/>
-      <c r="F156" s="553"/>
-      <c r="G156" s="553"/>
-      <c r="H156" s="553"/>
-      <c r="I156" s="553"/>
-      <c r="J156" s="554"/>
-      <c r="K156" s="575" t="s">
-        <v>587</v>
-      </c>
-      <c r="L156" s="629"/>
-      <c r="M156" s="629"/>
-      <c r="N156" s="629"/>
-      <c r="O156" s="629"/>
-      <c r="P156" s="629"/>
-      <c r="Q156" s="629"/>
-      <c r="R156" s="629"/>
-      <c r="S156" s="629"/>
-      <c r="T156" s="629"/>
-      <c r="U156" s="629"/>
-      <c r="V156" s="629"/>
-      <c r="W156" s="629"/>
-      <c r="X156" s="629"/>
-      <c r="Y156" s="629"/>
-      <c r="Z156" s="577"/>
-      <c r="AA156" s="608" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB156" s="630"/>
-      <c r="AC156" s="630"/>
-      <c r="AD156" s="630"/>
-      <c r="AE156" s="630"/>
-      <c r="AF156" s="630"/>
-      <c r="AG156" s="630"/>
-      <c r="AH156" s="631"/>
-    </row>
-    <row r="157" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D157" s="620"/>
-      <c r="E157" s="552"/>
-      <c r="F157" s="553"/>
-      <c r="G157" s="553"/>
-      <c r="H157" s="553"/>
-      <c r="I157" s="553"/>
-      <c r="J157" s="554"/>
-      <c r="K157" s="628" t="s">
-        <v>590</v>
-      </c>
-      <c r="L157" s="609"/>
-      <c r="M157" s="609"/>
-      <c r="N157" s="609"/>
-      <c r="O157" s="609"/>
-      <c r="P157" s="609"/>
-      <c r="Q157" s="609"/>
-      <c r="R157" s="609"/>
-      <c r="S157" s="609"/>
-      <c r="T157" s="609"/>
-      <c r="U157" s="609"/>
-      <c r="V157" s="609"/>
-      <c r="W157" s="609"/>
-      <c r="X157" s="609"/>
-      <c r="Y157" s="609"/>
-      <c r="Z157" s="610"/>
-      <c r="AA157" s="616" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB157" s="615"/>
-      <c r="AC157" s="615"/>
-      <c r="AD157" s="615"/>
-      <c r="AE157" s="615"/>
-      <c r="AF157" s="615"/>
-      <c r="AG157" s="615"/>
-      <c r="AH157" s="615"/>
+      <c r="AB157" s="576"/>
+      <c r="AC157" s="576"/>
+      <c r="AD157" s="576"/>
+      <c r="AE157" s="576"/>
+      <c r="AF157" s="576"/>
+      <c r="AG157" s="576"/>
+      <c r="AH157" s="576"/>
     </row>
     <row r="158" spans="3:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D158" s="621"/>
-      <c r="E158" s="552" t="s">
+      <c r="D158" s="553"/>
+      <c r="E158" s="555" t="s">
         <v>223</v>
       </c>
-      <c r="F158" s="553"/>
-      <c r="G158" s="553"/>
-      <c r="H158" s="553"/>
-      <c r="I158" s="553"/>
-      <c r="J158" s="554"/>
-      <c r="K158" s="628" t="s">
-        <v>585</v>
-      </c>
-      <c r="L158" s="609"/>
-      <c r="M158" s="609"/>
-      <c r="N158" s="609"/>
-      <c r="O158" s="609"/>
-      <c r="P158" s="609"/>
-      <c r="Q158" s="609"/>
-      <c r="R158" s="609"/>
-      <c r="S158" s="609"/>
-      <c r="T158" s="609"/>
-      <c r="U158" s="609"/>
-      <c r="V158" s="609"/>
-      <c r="W158" s="609"/>
-      <c r="X158" s="609"/>
-      <c r="Y158" s="609"/>
-      <c r="Z158" s="610"/>
-      <c r="AA158" s="615" t="s">
+      <c r="F158" s="556"/>
+      <c r="G158" s="556"/>
+      <c r="H158" s="556"/>
+      <c r="I158" s="556"/>
+      <c r="J158" s="557"/>
+      <c r="K158" s="566" t="s">
+        <v>584</v>
+      </c>
+      <c r="L158" s="567"/>
+      <c r="M158" s="567"/>
+      <c r="N158" s="567"/>
+      <c r="O158" s="567"/>
+      <c r="P158" s="567"/>
+      <c r="Q158" s="567"/>
+      <c r="R158" s="567"/>
+      <c r="S158" s="567"/>
+      <c r="T158" s="567"/>
+      <c r="U158" s="567"/>
+      <c r="V158" s="567"/>
+      <c r="W158" s="567"/>
+      <c r="X158" s="567"/>
+      <c r="Y158" s="567"/>
+      <c r="Z158" s="568"/>
+      <c r="AA158" s="576" t="s">
         <v>68</v>
       </c>
-      <c r="AB158" s="615"/>
-      <c r="AC158" s="615"/>
-      <c r="AD158" s="615"/>
-      <c r="AE158" s="615"/>
-      <c r="AF158" s="615"/>
-      <c r="AG158" s="615"/>
-      <c r="AH158" s="615"/>
+      <c r="AB158" s="576"/>
+      <c r="AC158" s="576"/>
+      <c r="AD158" s="576"/>
+      <c r="AE158" s="576"/>
+      <c r="AF158" s="576"/>
+      <c r="AG158" s="576"/>
+      <c r="AH158" s="576"/>
     </row>
     <row r="159" spans="3:34" s="91" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D159" s="89"/>
@@ -40217,837 +40217,837 @@
     </row>
     <row r="169" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="50"/>
-      <c r="F169" s="507" t="s">
-        <v>591</v>
-      </c>
-      <c r="G169" s="588"/>
-      <c r="H169" s="588"/>
-      <c r="I169" s="588"/>
-      <c r="J169" s="589"/>
-      <c r="K169" s="596" t="s">
+      <c r="F169" s="480" t="s">
+        <v>590</v>
+      </c>
+      <c r="G169" s="558"/>
+      <c r="H169" s="558"/>
+      <c r="I169" s="558"/>
+      <c r="J169" s="559"/>
+      <c r="K169" s="579" t="s">
         <v>29</v>
       </c>
-      <c r="L169" s="597"/>
-      <c r="M169" s="596" t="s">
+      <c r="L169" s="581"/>
+      <c r="M169" s="579" t="s">
         <v>44</v>
       </c>
-      <c r="N169" s="597"/>
-      <c r="O169" s="617" t="s">
+      <c r="N169" s="581"/>
+      <c r="O169" s="592" t="s">
         <v>43</v>
       </c>
-      <c r="P169" s="588"/>
-      <c r="Q169" s="588"/>
-      <c r="R169" s="588"/>
-      <c r="S169" s="588"/>
-      <c r="T169" s="588"/>
-      <c r="U169" s="588"/>
-      <c r="V169" s="588"/>
-      <c r="W169" s="588"/>
-      <c r="X169" s="588"/>
-      <c r="Y169" s="588"/>
-      <c r="Z169" s="588"/>
-      <c r="AA169" s="588"/>
-      <c r="AB169" s="588"/>
-      <c r="AC169" s="588"/>
-      <c r="AD169" s="588"/>
-      <c r="AE169" s="588"/>
-      <c r="AF169" s="588"/>
-      <c r="AG169" s="588"/>
-      <c r="AH169" s="589"/>
+      <c r="P169" s="558"/>
+      <c r="Q169" s="558"/>
+      <c r="R169" s="558"/>
+      <c r="S169" s="558"/>
+      <c r="T169" s="558"/>
+      <c r="U169" s="558"/>
+      <c r="V169" s="558"/>
+      <c r="W169" s="558"/>
+      <c r="X169" s="558"/>
+      <c r="Y169" s="558"/>
+      <c r="Z169" s="558"/>
+      <c r="AA169" s="558"/>
+      <c r="AB169" s="558"/>
+      <c r="AC169" s="558"/>
+      <c r="AD169" s="558"/>
+      <c r="AE169" s="558"/>
+      <c r="AF169" s="558"/>
+      <c r="AG169" s="558"/>
+      <c r="AH169" s="559"/>
     </row>
     <row r="170" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="50"/>
-      <c r="F170" s="574" t="s">
+      <c r="F170" s="560" t="s">
         <v>196</v>
       </c>
-      <c r="G170" s="511"/>
-      <c r="H170" s="511"/>
-      <c r="I170" s="511"/>
-      <c r="J170" s="512"/>
-      <c r="K170" s="590" t="s">
+      <c r="G170" s="484"/>
+      <c r="H170" s="484"/>
+      <c r="I170" s="484"/>
+      <c r="J170" s="485"/>
+      <c r="K170" s="601" t="s">
         <v>31</v>
       </c>
-      <c r="L170" s="524"/>
-      <c r="M170" s="611" t="s">
+      <c r="L170" s="527"/>
+      <c r="M170" s="597" t="s">
         <v>208</v>
       </c>
-      <c r="N170" s="612"/>
-      <c r="O170" s="513" t="s">
+      <c r="N170" s="598"/>
+      <c r="O170" s="486" t="s">
         <v>213</v>
       </c>
-      <c r="P170" s="618"/>
-      <c r="Q170" s="618"/>
-      <c r="R170" s="618"/>
-      <c r="S170" s="618"/>
-      <c r="T170" s="618"/>
-      <c r="U170" s="618"/>
-      <c r="V170" s="618"/>
-      <c r="W170" s="618"/>
-      <c r="X170" s="618"/>
-      <c r="Y170" s="618"/>
-      <c r="Z170" s="618"/>
-      <c r="AA170" s="618"/>
-      <c r="AB170" s="618"/>
-      <c r="AC170" s="618"/>
-      <c r="AD170" s="618"/>
-      <c r="AE170" s="618"/>
-      <c r="AF170" s="618"/>
-      <c r="AG170" s="618"/>
-      <c r="AH170" s="619"/>
+      <c r="P170" s="593"/>
+      <c r="Q170" s="593"/>
+      <c r="R170" s="593"/>
+      <c r="S170" s="593"/>
+      <c r="T170" s="593"/>
+      <c r="U170" s="593"/>
+      <c r="V170" s="593"/>
+      <c r="W170" s="593"/>
+      <c r="X170" s="593"/>
+      <c r="Y170" s="593"/>
+      <c r="Z170" s="593"/>
+      <c r="AA170" s="593"/>
+      <c r="AB170" s="593"/>
+      <c r="AC170" s="593"/>
+      <c r="AD170" s="593"/>
+      <c r="AE170" s="593"/>
+      <c r="AF170" s="593"/>
+      <c r="AG170" s="593"/>
+      <c r="AH170" s="594"/>
     </row>
     <row r="171" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="50"/>
-      <c r="F171" s="522" t="s">
+      <c r="F171" s="525" t="s">
         <v>209</v>
       </c>
-      <c r="G171" s="523"/>
-      <c r="H171" s="523"/>
-      <c r="I171" s="523"/>
-      <c r="J171" s="524"/>
-      <c r="K171" s="590" t="s">
+      <c r="G171" s="526"/>
+      <c r="H171" s="526"/>
+      <c r="I171" s="526"/>
+      <c r="J171" s="527"/>
+      <c r="K171" s="601" t="s">
         <v>45</v>
       </c>
-      <c r="L171" s="524"/>
-      <c r="M171" s="532" t="s">
+      <c r="L171" s="527"/>
+      <c r="M171" s="535" t="s">
         <v>233</v>
       </c>
-      <c r="N171" s="613"/>
-      <c r="O171" s="522" t="s">
+      <c r="N171" s="599"/>
+      <c r="O171" s="525" t="s">
         <v>212</v>
       </c>
-      <c r="P171" s="523"/>
-      <c r="Q171" s="523"/>
-      <c r="R171" s="523"/>
-      <c r="S171" s="523"/>
-      <c r="T171" s="523"/>
-      <c r="U171" s="523"/>
-      <c r="V171" s="523"/>
-      <c r="W171" s="523"/>
-      <c r="X171" s="523"/>
-      <c r="Y171" s="523"/>
-      <c r="Z171" s="523"/>
-      <c r="AA171" s="523"/>
-      <c r="AB171" s="523"/>
-      <c r="AC171" s="523"/>
-      <c r="AD171" s="523"/>
-      <c r="AE171" s="523"/>
-      <c r="AF171" s="523"/>
-      <c r="AG171" s="523"/>
-      <c r="AH171" s="524"/>
+      <c r="P171" s="526"/>
+      <c r="Q171" s="526"/>
+      <c r="R171" s="526"/>
+      <c r="S171" s="526"/>
+      <c r="T171" s="526"/>
+      <c r="U171" s="526"/>
+      <c r="V171" s="526"/>
+      <c r="W171" s="526"/>
+      <c r="X171" s="526"/>
+      <c r="Y171" s="526"/>
+      <c r="Z171" s="526"/>
+      <c r="AA171" s="526"/>
+      <c r="AB171" s="526"/>
+      <c r="AC171" s="526"/>
+      <c r="AD171" s="526"/>
+      <c r="AE171" s="526"/>
+      <c r="AF171" s="526"/>
+      <c r="AG171" s="526"/>
+      <c r="AH171" s="527"/>
     </row>
     <row r="172" spans="1:34" s="94" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="50"/>
-      <c r="F172" s="531"/>
-      <c r="G172" s="526"/>
-      <c r="H172" s="526"/>
-      <c r="I172" s="526"/>
-      <c r="J172" s="527"/>
-      <c r="K172" s="525"/>
-      <c r="L172" s="527"/>
-      <c r="M172" s="614"/>
-      <c r="N172" s="593"/>
-      <c r="O172" s="531"/>
-      <c r="P172" s="526"/>
-      <c r="Q172" s="526"/>
-      <c r="R172" s="526"/>
-      <c r="S172" s="526"/>
-      <c r="T172" s="526"/>
-      <c r="U172" s="526"/>
-      <c r="V172" s="526"/>
-      <c r="W172" s="526"/>
-      <c r="X172" s="526"/>
-      <c r="Y172" s="526"/>
-      <c r="Z172" s="526"/>
-      <c r="AA172" s="526"/>
-      <c r="AB172" s="526"/>
-      <c r="AC172" s="526"/>
-      <c r="AD172" s="526"/>
-      <c r="AE172" s="526"/>
-      <c r="AF172" s="526"/>
-      <c r="AG172" s="526"/>
-      <c r="AH172" s="527"/>
+      <c r="F172" s="534"/>
+      <c r="G172" s="529"/>
+      <c r="H172" s="529"/>
+      <c r="I172" s="529"/>
+      <c r="J172" s="530"/>
+      <c r="K172" s="528"/>
+      <c r="L172" s="530"/>
+      <c r="M172" s="600"/>
+      <c r="N172" s="586"/>
+      <c r="O172" s="534"/>
+      <c r="P172" s="529"/>
+      <c r="Q172" s="529"/>
+      <c r="R172" s="529"/>
+      <c r="S172" s="529"/>
+      <c r="T172" s="529"/>
+      <c r="U172" s="529"/>
+      <c r="V172" s="529"/>
+      <c r="W172" s="529"/>
+      <c r="X172" s="529"/>
+      <c r="Y172" s="529"/>
+      <c r="Z172" s="529"/>
+      <c r="AA172" s="529"/>
+      <c r="AB172" s="529"/>
+      <c r="AC172" s="529"/>
+      <c r="AD172" s="529"/>
+      <c r="AE172" s="529"/>
+      <c r="AF172" s="529"/>
+      <c r="AG172" s="529"/>
+      <c r="AH172" s="530"/>
     </row>
     <row r="173" spans="1:34" s="94" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="50"/>
-      <c r="F173" s="531"/>
-      <c r="G173" s="526"/>
-      <c r="H173" s="526"/>
-      <c r="I173" s="526"/>
-      <c r="J173" s="527"/>
-      <c r="K173" s="525"/>
-      <c r="L173" s="527"/>
-      <c r="M173" s="614"/>
-      <c r="N173" s="593"/>
-      <c r="O173" s="531"/>
-      <c r="P173" s="526"/>
-      <c r="Q173" s="526"/>
-      <c r="R173" s="526"/>
-      <c r="S173" s="526"/>
-      <c r="T173" s="526"/>
-      <c r="U173" s="526"/>
-      <c r="V173" s="526"/>
-      <c r="W173" s="526"/>
-      <c r="X173" s="526"/>
-      <c r="Y173" s="526"/>
-      <c r="Z173" s="526"/>
-      <c r="AA173" s="526"/>
-      <c r="AB173" s="526"/>
-      <c r="AC173" s="526"/>
-      <c r="AD173" s="526"/>
-      <c r="AE173" s="526"/>
-      <c r="AF173" s="526"/>
-      <c r="AG173" s="526"/>
-      <c r="AH173" s="527"/>
+      <c r="F173" s="534"/>
+      <c r="G173" s="529"/>
+      <c r="H173" s="529"/>
+      <c r="I173" s="529"/>
+      <c r="J173" s="530"/>
+      <c r="K173" s="528"/>
+      <c r="L173" s="530"/>
+      <c r="M173" s="600"/>
+      <c r="N173" s="586"/>
+      <c r="O173" s="534"/>
+      <c r="P173" s="529"/>
+      <c r="Q173" s="529"/>
+      <c r="R173" s="529"/>
+      <c r="S173" s="529"/>
+      <c r="T173" s="529"/>
+      <c r="U173" s="529"/>
+      <c r="V173" s="529"/>
+      <c r="W173" s="529"/>
+      <c r="X173" s="529"/>
+      <c r="Y173" s="529"/>
+      <c r="Z173" s="529"/>
+      <c r="AA173" s="529"/>
+      <c r="AB173" s="529"/>
+      <c r="AC173" s="529"/>
+      <c r="AD173" s="529"/>
+      <c r="AE173" s="529"/>
+      <c r="AF173" s="529"/>
+      <c r="AG173" s="529"/>
+      <c r="AH173" s="530"/>
     </row>
     <row r="174" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="50"/>
-      <c r="F174" s="528"/>
-      <c r="G174" s="529"/>
-      <c r="H174" s="529"/>
-      <c r="I174" s="529"/>
-      <c r="J174" s="530"/>
-      <c r="K174" s="528"/>
-      <c r="L174" s="530"/>
-      <c r="M174" s="571"/>
-      <c r="N174" s="573"/>
-      <c r="O174" s="528"/>
-      <c r="P174" s="529"/>
-      <c r="Q174" s="529"/>
-      <c r="R174" s="529"/>
-      <c r="S174" s="529"/>
-      <c r="T174" s="529"/>
-      <c r="U174" s="529"/>
-      <c r="V174" s="529"/>
-      <c r="W174" s="529"/>
-      <c r="X174" s="529"/>
-      <c r="Y174" s="529"/>
-      <c r="Z174" s="529"/>
-      <c r="AA174" s="529"/>
-      <c r="AB174" s="529"/>
-      <c r="AC174" s="529"/>
-      <c r="AD174" s="529"/>
-      <c r="AE174" s="529"/>
-      <c r="AF174" s="529"/>
-      <c r="AG174" s="529"/>
-      <c r="AH174" s="530"/>
+      <c r="F174" s="531"/>
+      <c r="G174" s="532"/>
+      <c r="H174" s="532"/>
+      <c r="I174" s="532"/>
+      <c r="J174" s="533"/>
+      <c r="K174" s="531"/>
+      <c r="L174" s="533"/>
+      <c r="M174" s="587"/>
+      <c r="N174" s="589"/>
+      <c r="O174" s="531"/>
+      <c r="P174" s="532"/>
+      <c r="Q174" s="532"/>
+      <c r="R174" s="532"/>
+      <c r="S174" s="532"/>
+      <c r="T174" s="532"/>
+      <c r="U174" s="532"/>
+      <c r="V174" s="532"/>
+      <c r="W174" s="532"/>
+      <c r="X174" s="532"/>
+      <c r="Y174" s="532"/>
+      <c r="Z174" s="532"/>
+      <c r="AA174" s="532"/>
+      <c r="AB174" s="532"/>
+      <c r="AC174" s="532"/>
+      <c r="AD174" s="532"/>
+      <c r="AE174" s="532"/>
+      <c r="AF174" s="532"/>
+      <c r="AG174" s="532"/>
+      <c r="AH174" s="533"/>
     </row>
     <row r="175" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="50"/>
-      <c r="F175" s="590" t="s">
+      <c r="F175" s="601" t="s">
         <v>46</v>
       </c>
-      <c r="G175" s="523"/>
-      <c r="H175" s="523"/>
-      <c r="I175" s="523"/>
-      <c r="J175" s="524"/>
-      <c r="K175" s="590" t="s">
+      <c r="G175" s="526"/>
+      <c r="H175" s="526"/>
+      <c r="I175" s="526"/>
+      <c r="J175" s="527"/>
+      <c r="K175" s="601" t="s">
         <v>45</v>
       </c>
-      <c r="L175" s="524"/>
-      <c r="M175" s="590" t="s">
+      <c r="L175" s="527"/>
+      <c r="M175" s="601" t="s">
         <v>47</v>
       </c>
-      <c r="N175" s="613"/>
-      <c r="O175" s="532" t="s">
+      <c r="N175" s="599"/>
+      <c r="O175" s="535" t="s">
         <v>216</v>
       </c>
-      <c r="P175" s="569"/>
-      <c r="Q175" s="569"/>
-      <c r="R175" s="569"/>
-      <c r="S175" s="569"/>
-      <c r="T175" s="569"/>
-      <c r="U175" s="569"/>
-      <c r="V175" s="569"/>
-      <c r="W175" s="569"/>
-      <c r="X175" s="569"/>
-      <c r="Y175" s="569"/>
-      <c r="Z175" s="569"/>
-      <c r="AA175" s="569"/>
-      <c r="AB175" s="569"/>
-      <c r="AC175" s="569"/>
-      <c r="AD175" s="569"/>
-      <c r="AE175" s="569"/>
-      <c r="AF175" s="569"/>
-      <c r="AG175" s="569"/>
-      <c r="AH175" s="570"/>
+      <c r="P175" s="582"/>
+      <c r="Q175" s="582"/>
+      <c r="R175" s="582"/>
+      <c r="S175" s="582"/>
+      <c r="T175" s="582"/>
+      <c r="U175" s="582"/>
+      <c r="V175" s="582"/>
+      <c r="W175" s="582"/>
+      <c r="X175" s="582"/>
+      <c r="Y175" s="582"/>
+      <c r="Z175" s="582"/>
+      <c r="AA175" s="582"/>
+      <c r="AB175" s="582"/>
+      <c r="AC175" s="582"/>
+      <c r="AD175" s="582"/>
+      <c r="AE175" s="582"/>
+      <c r="AF175" s="582"/>
+      <c r="AG175" s="582"/>
+      <c r="AH175" s="583"/>
     </row>
     <row r="176" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="50"/>
-      <c r="F176" s="522" t="s">
+      <c r="F176" s="525" t="s">
         <v>197</v>
       </c>
-      <c r="G176" s="523"/>
-      <c r="H176" s="523"/>
-      <c r="I176" s="523"/>
-      <c r="J176" s="524"/>
-      <c r="K176" s="590" t="s">
+      <c r="G176" s="526"/>
+      <c r="H176" s="526"/>
+      <c r="I176" s="526"/>
+      <c r="J176" s="527"/>
+      <c r="K176" s="601" t="s">
         <v>45</v>
       </c>
-      <c r="L176" s="524"/>
-      <c r="M176" s="590" t="s">
+      <c r="L176" s="527"/>
+      <c r="M176" s="601" t="s">
         <v>73</v>
       </c>
-      <c r="N176" s="613"/>
-      <c r="O176" s="532" t="s">
+      <c r="N176" s="599"/>
+      <c r="O176" s="535" t="s">
         <v>217</v>
       </c>
-      <c r="P176" s="569"/>
-      <c r="Q176" s="569"/>
-      <c r="R176" s="569"/>
-      <c r="S176" s="569"/>
-      <c r="T176" s="569"/>
-      <c r="U176" s="569"/>
-      <c r="V176" s="569"/>
-      <c r="W176" s="569"/>
-      <c r="X176" s="569"/>
-      <c r="Y176" s="569"/>
-      <c r="Z176" s="569"/>
-      <c r="AA176" s="569"/>
-      <c r="AB176" s="569"/>
-      <c r="AC176" s="569"/>
-      <c r="AD176" s="569"/>
-      <c r="AE176" s="569"/>
-      <c r="AF176" s="569"/>
-      <c r="AG176" s="569"/>
-      <c r="AH176" s="570"/>
+      <c r="P176" s="582"/>
+      <c r="Q176" s="582"/>
+      <c r="R176" s="582"/>
+      <c r="S176" s="582"/>
+      <c r="T176" s="582"/>
+      <c r="U176" s="582"/>
+      <c r="V176" s="582"/>
+      <c r="W176" s="582"/>
+      <c r="X176" s="582"/>
+      <c r="Y176" s="582"/>
+      <c r="Z176" s="582"/>
+      <c r="AA176" s="582"/>
+      <c r="AB176" s="582"/>
+      <c r="AC176" s="582"/>
+      <c r="AD176" s="582"/>
+      <c r="AE176" s="582"/>
+      <c r="AF176" s="582"/>
+      <c r="AG176" s="582"/>
+      <c r="AH176" s="583"/>
     </row>
     <row r="177" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="50"/>
-      <c r="F177" s="591"/>
-      <c r="G177" s="592"/>
-      <c r="H177" s="592"/>
-      <c r="I177" s="592"/>
-      <c r="J177" s="593"/>
-      <c r="K177" s="525"/>
-      <c r="L177" s="527"/>
-      <c r="M177" s="591"/>
-      <c r="N177" s="593"/>
-      <c r="O177" s="591"/>
-      <c r="P177" s="592"/>
-      <c r="Q177" s="592"/>
-      <c r="R177" s="592"/>
-      <c r="S177" s="592"/>
-      <c r="T177" s="592"/>
-      <c r="U177" s="592"/>
-      <c r="V177" s="592"/>
-      <c r="W177" s="592"/>
-      <c r="X177" s="592"/>
-      <c r="Y177" s="592"/>
-      <c r="Z177" s="592"/>
-      <c r="AA177" s="592"/>
-      <c r="AB177" s="592"/>
-      <c r="AC177" s="592"/>
-      <c r="AD177" s="592"/>
-      <c r="AE177" s="592"/>
-      <c r="AF177" s="592"/>
-      <c r="AG177" s="592"/>
-      <c r="AH177" s="593"/>
+      <c r="F177" s="584"/>
+      <c r="G177" s="585"/>
+      <c r="H177" s="585"/>
+      <c r="I177" s="585"/>
+      <c r="J177" s="586"/>
+      <c r="K177" s="528"/>
+      <c r="L177" s="530"/>
+      <c r="M177" s="584"/>
+      <c r="N177" s="586"/>
+      <c r="O177" s="584"/>
+      <c r="P177" s="585"/>
+      <c r="Q177" s="585"/>
+      <c r="R177" s="585"/>
+      <c r="S177" s="585"/>
+      <c r="T177" s="585"/>
+      <c r="U177" s="585"/>
+      <c r="V177" s="585"/>
+      <c r="W177" s="585"/>
+      <c r="X177" s="585"/>
+      <c r="Y177" s="585"/>
+      <c r="Z177" s="585"/>
+      <c r="AA177" s="585"/>
+      <c r="AB177" s="585"/>
+      <c r="AC177" s="585"/>
+      <c r="AD177" s="585"/>
+      <c r="AE177" s="585"/>
+      <c r="AF177" s="585"/>
+      <c r="AG177" s="585"/>
+      <c r="AH177" s="586"/>
     </row>
     <row r="178" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="50"/>
-      <c r="F178" s="591"/>
-      <c r="G178" s="592"/>
-      <c r="H178" s="592"/>
-      <c r="I178" s="592"/>
-      <c r="J178" s="593"/>
-      <c r="K178" s="525"/>
-      <c r="L178" s="527"/>
-      <c r="M178" s="591"/>
-      <c r="N178" s="593"/>
-      <c r="O178" s="591"/>
-      <c r="P178" s="592"/>
-      <c r="Q178" s="592"/>
-      <c r="R178" s="592"/>
-      <c r="S178" s="592"/>
-      <c r="T178" s="592"/>
-      <c r="U178" s="592"/>
-      <c r="V178" s="592"/>
-      <c r="W178" s="592"/>
-      <c r="X178" s="592"/>
-      <c r="Y178" s="592"/>
-      <c r="Z178" s="592"/>
-      <c r="AA178" s="592"/>
-      <c r="AB178" s="592"/>
-      <c r="AC178" s="592"/>
-      <c r="AD178" s="592"/>
-      <c r="AE178" s="592"/>
-      <c r="AF178" s="592"/>
-      <c r="AG178" s="592"/>
-      <c r="AH178" s="593"/>
+      <c r="F178" s="584"/>
+      <c r="G178" s="585"/>
+      <c r="H178" s="585"/>
+      <c r="I178" s="585"/>
+      <c r="J178" s="586"/>
+      <c r="K178" s="528"/>
+      <c r="L178" s="530"/>
+      <c r="M178" s="584"/>
+      <c r="N178" s="586"/>
+      <c r="O178" s="584"/>
+      <c r="P178" s="585"/>
+      <c r="Q178" s="585"/>
+      <c r="R178" s="585"/>
+      <c r="S178" s="585"/>
+      <c r="T178" s="585"/>
+      <c r="U178" s="585"/>
+      <c r="V178" s="585"/>
+      <c r="W178" s="585"/>
+      <c r="X178" s="585"/>
+      <c r="Y178" s="585"/>
+      <c r="Z178" s="585"/>
+      <c r="AA178" s="585"/>
+      <c r="AB178" s="585"/>
+      <c r="AC178" s="585"/>
+      <c r="AD178" s="585"/>
+      <c r="AE178" s="585"/>
+      <c r="AF178" s="585"/>
+      <c r="AG178" s="585"/>
+      <c r="AH178" s="586"/>
     </row>
     <row r="179" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="50"/>
-      <c r="F179" s="571"/>
-      <c r="G179" s="572"/>
-      <c r="H179" s="572"/>
-      <c r="I179" s="572"/>
-      <c r="J179" s="573"/>
-      <c r="K179" s="528"/>
-      <c r="L179" s="530"/>
-      <c r="M179" s="571"/>
-      <c r="N179" s="573"/>
-      <c r="O179" s="571"/>
-      <c r="P179" s="572"/>
-      <c r="Q179" s="572"/>
-      <c r="R179" s="572"/>
-      <c r="S179" s="572"/>
-      <c r="T179" s="572"/>
-      <c r="U179" s="572"/>
-      <c r="V179" s="572"/>
-      <c r="W179" s="572"/>
-      <c r="X179" s="572"/>
-      <c r="Y179" s="572"/>
-      <c r="Z179" s="572"/>
-      <c r="AA179" s="572"/>
-      <c r="AB179" s="572"/>
-      <c r="AC179" s="572"/>
-      <c r="AD179" s="572"/>
-      <c r="AE179" s="572"/>
-      <c r="AF179" s="572"/>
-      <c r="AG179" s="572"/>
-      <c r="AH179" s="573"/>
+      <c r="F179" s="587"/>
+      <c r="G179" s="588"/>
+      <c r="H179" s="588"/>
+      <c r="I179" s="588"/>
+      <c r="J179" s="589"/>
+      <c r="K179" s="531"/>
+      <c r="L179" s="533"/>
+      <c r="M179" s="587"/>
+      <c r="N179" s="589"/>
+      <c r="O179" s="587"/>
+      <c r="P179" s="588"/>
+      <c r="Q179" s="588"/>
+      <c r="R179" s="588"/>
+      <c r="S179" s="588"/>
+      <c r="T179" s="588"/>
+      <c r="U179" s="588"/>
+      <c r="V179" s="588"/>
+      <c r="W179" s="588"/>
+      <c r="X179" s="588"/>
+      <c r="Y179" s="588"/>
+      <c r="Z179" s="588"/>
+      <c r="AA179" s="588"/>
+      <c r="AB179" s="588"/>
+      <c r="AC179" s="588"/>
+      <c r="AD179" s="588"/>
+      <c r="AE179" s="588"/>
+      <c r="AF179" s="588"/>
+      <c r="AG179" s="588"/>
+      <c r="AH179" s="589"/>
     </row>
     <row r="180" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="50"/>
-      <c r="F180" s="590" t="s">
+      <c r="F180" s="601" t="s">
         <v>37</v>
       </c>
-      <c r="G180" s="523"/>
-      <c r="H180" s="523"/>
-      <c r="I180" s="523"/>
-      <c r="J180" s="524"/>
-      <c r="K180" s="590" t="s">
+      <c r="G180" s="526"/>
+      <c r="H180" s="526"/>
+      <c r="I180" s="526"/>
+      <c r="J180" s="527"/>
+      <c r="K180" s="601" t="s">
         <v>34</v>
       </c>
-      <c r="L180" s="524"/>
-      <c r="M180" s="590" t="s">
+      <c r="L180" s="527"/>
+      <c r="M180" s="601" t="s">
         <v>47</v>
       </c>
-      <c r="N180" s="613"/>
-      <c r="O180" s="532" t="s">
+      <c r="N180" s="599"/>
+      <c r="O180" s="535" t="s">
         <v>356</v>
       </c>
-      <c r="P180" s="569"/>
-      <c r="Q180" s="569"/>
-      <c r="R180" s="569"/>
-      <c r="S180" s="569"/>
-      <c r="T180" s="569"/>
-      <c r="U180" s="569"/>
-      <c r="V180" s="569"/>
-      <c r="W180" s="569"/>
-      <c r="X180" s="569"/>
-      <c r="Y180" s="569"/>
-      <c r="Z180" s="569"/>
-      <c r="AA180" s="569"/>
-      <c r="AB180" s="569"/>
-      <c r="AC180" s="569"/>
-      <c r="AD180" s="569"/>
-      <c r="AE180" s="569"/>
-      <c r="AF180" s="569"/>
-      <c r="AG180" s="569"/>
-      <c r="AH180" s="570"/>
+      <c r="P180" s="582"/>
+      <c r="Q180" s="582"/>
+      <c r="R180" s="582"/>
+      <c r="S180" s="582"/>
+      <c r="T180" s="582"/>
+      <c r="U180" s="582"/>
+      <c r="V180" s="582"/>
+      <c r="W180" s="582"/>
+      <c r="X180" s="582"/>
+      <c r="Y180" s="582"/>
+      <c r="Z180" s="582"/>
+      <c r="AA180" s="582"/>
+      <c r="AB180" s="582"/>
+      <c r="AC180" s="582"/>
+      <c r="AD180" s="582"/>
+      <c r="AE180" s="582"/>
+      <c r="AF180" s="582"/>
+      <c r="AG180" s="582"/>
+      <c r="AH180" s="583"/>
     </row>
     <row r="181" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="50"/>
-      <c r="F181" s="571"/>
-      <c r="G181" s="572"/>
-      <c r="H181" s="572"/>
-      <c r="I181" s="572"/>
-      <c r="J181" s="573"/>
-      <c r="K181" s="528"/>
-      <c r="L181" s="530"/>
-      <c r="M181" s="571"/>
-      <c r="N181" s="573"/>
-      <c r="O181" s="571"/>
-      <c r="P181" s="572"/>
-      <c r="Q181" s="572"/>
-      <c r="R181" s="572"/>
-      <c r="S181" s="572"/>
-      <c r="T181" s="572"/>
-      <c r="U181" s="572"/>
-      <c r="V181" s="572"/>
-      <c r="W181" s="572"/>
-      <c r="X181" s="572"/>
-      <c r="Y181" s="572"/>
-      <c r="Z181" s="572"/>
-      <c r="AA181" s="572"/>
-      <c r="AB181" s="572"/>
-      <c r="AC181" s="572"/>
-      <c r="AD181" s="572"/>
-      <c r="AE181" s="572"/>
-      <c r="AF181" s="572"/>
-      <c r="AG181" s="572"/>
-      <c r="AH181" s="573"/>
+      <c r="F181" s="587"/>
+      <c r="G181" s="588"/>
+      <c r="H181" s="588"/>
+      <c r="I181" s="588"/>
+      <c r="J181" s="589"/>
+      <c r="K181" s="531"/>
+      <c r="L181" s="533"/>
+      <c r="M181" s="587"/>
+      <c r="N181" s="589"/>
+      <c r="O181" s="587"/>
+      <c r="P181" s="588"/>
+      <c r="Q181" s="588"/>
+      <c r="R181" s="588"/>
+      <c r="S181" s="588"/>
+      <c r="T181" s="588"/>
+      <c r="U181" s="588"/>
+      <c r="V181" s="588"/>
+      <c r="W181" s="588"/>
+      <c r="X181" s="588"/>
+      <c r="Y181" s="588"/>
+      <c r="Z181" s="588"/>
+      <c r="AA181" s="588"/>
+      <c r="AB181" s="588"/>
+      <c r="AC181" s="588"/>
+      <c r="AD181" s="588"/>
+      <c r="AE181" s="588"/>
+      <c r="AF181" s="588"/>
+      <c r="AG181" s="588"/>
+      <c r="AH181" s="589"/>
     </row>
     <row r="182" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="50"/>
-      <c r="F182" s="590" t="s">
+      <c r="F182" s="601" t="s">
         <v>38</v>
       </c>
-      <c r="G182" s="523"/>
-      <c r="H182" s="523"/>
-      <c r="I182" s="523"/>
-      <c r="J182" s="524"/>
-      <c r="K182" s="590" t="s">
+      <c r="G182" s="526"/>
+      <c r="H182" s="526"/>
+      <c r="I182" s="526"/>
+      <c r="J182" s="527"/>
+      <c r="K182" s="601" t="s">
         <v>34</v>
       </c>
-      <c r="L182" s="524"/>
-      <c r="M182" s="590" t="s">
+      <c r="L182" s="527"/>
+      <c r="M182" s="601" t="s">
         <v>76</v>
       </c>
-      <c r="N182" s="613"/>
-      <c r="O182" s="532" t="s">
+      <c r="N182" s="599"/>
+      <c r="O182" s="535" t="s">
         <v>355</v>
       </c>
-      <c r="P182" s="569"/>
-      <c r="Q182" s="569"/>
-      <c r="R182" s="569"/>
-      <c r="S182" s="569"/>
-      <c r="T182" s="569"/>
-      <c r="U182" s="569"/>
-      <c r="V182" s="569"/>
-      <c r="W182" s="569"/>
-      <c r="X182" s="569"/>
-      <c r="Y182" s="569"/>
-      <c r="Z182" s="569"/>
-      <c r="AA182" s="569"/>
-      <c r="AB182" s="569"/>
-      <c r="AC182" s="569"/>
-      <c r="AD182" s="569"/>
-      <c r="AE182" s="569"/>
-      <c r="AF182" s="569"/>
-      <c r="AG182" s="569"/>
-      <c r="AH182" s="570"/>
+      <c r="P182" s="582"/>
+      <c r="Q182" s="582"/>
+      <c r="R182" s="582"/>
+      <c r="S182" s="582"/>
+      <c r="T182" s="582"/>
+      <c r="U182" s="582"/>
+      <c r="V182" s="582"/>
+      <c r="W182" s="582"/>
+      <c r="X182" s="582"/>
+      <c r="Y182" s="582"/>
+      <c r="Z182" s="582"/>
+      <c r="AA182" s="582"/>
+      <c r="AB182" s="582"/>
+      <c r="AC182" s="582"/>
+      <c r="AD182" s="582"/>
+      <c r="AE182" s="582"/>
+      <c r="AF182" s="582"/>
+      <c r="AG182" s="582"/>
+      <c r="AH182" s="583"/>
     </row>
     <row r="183" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="50"/>
-      <c r="F183" s="571"/>
-      <c r="G183" s="572"/>
-      <c r="H183" s="572"/>
-      <c r="I183" s="572"/>
-      <c r="J183" s="573"/>
-      <c r="K183" s="528"/>
-      <c r="L183" s="530"/>
-      <c r="M183" s="571"/>
-      <c r="N183" s="573"/>
-      <c r="O183" s="571"/>
-      <c r="P183" s="572"/>
-      <c r="Q183" s="572"/>
-      <c r="R183" s="572"/>
-      <c r="S183" s="572"/>
-      <c r="T183" s="572"/>
-      <c r="U183" s="572"/>
-      <c r="V183" s="572"/>
-      <c r="W183" s="572"/>
-      <c r="X183" s="572"/>
-      <c r="Y183" s="572"/>
-      <c r="Z183" s="572"/>
-      <c r="AA183" s="572"/>
-      <c r="AB183" s="572"/>
-      <c r="AC183" s="572"/>
-      <c r="AD183" s="572"/>
-      <c r="AE183" s="572"/>
-      <c r="AF183" s="572"/>
-      <c r="AG183" s="572"/>
-      <c r="AH183" s="573"/>
+      <c r="F183" s="587"/>
+      <c r="G183" s="588"/>
+      <c r="H183" s="588"/>
+      <c r="I183" s="588"/>
+      <c r="J183" s="589"/>
+      <c r="K183" s="531"/>
+      <c r="L183" s="533"/>
+      <c r="M183" s="587"/>
+      <c r="N183" s="589"/>
+      <c r="O183" s="587"/>
+      <c r="P183" s="588"/>
+      <c r="Q183" s="588"/>
+      <c r="R183" s="588"/>
+      <c r="S183" s="588"/>
+      <c r="T183" s="588"/>
+      <c r="U183" s="588"/>
+      <c r="V183" s="588"/>
+      <c r="W183" s="588"/>
+      <c r="X183" s="588"/>
+      <c r="Y183" s="588"/>
+      <c r="Z183" s="588"/>
+      <c r="AA183" s="588"/>
+      <c r="AB183" s="588"/>
+      <c r="AC183" s="588"/>
+      <c r="AD183" s="588"/>
+      <c r="AE183" s="588"/>
+      <c r="AF183" s="588"/>
+      <c r="AG183" s="588"/>
+      <c r="AH183" s="589"/>
     </row>
     <row r="184" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="50"/>
-      <c r="F184" s="590" t="s">
+      <c r="F184" s="601" t="s">
         <v>118</v>
       </c>
-      <c r="G184" s="523"/>
-      <c r="H184" s="523"/>
-      <c r="I184" s="523"/>
-      <c r="J184" s="524"/>
-      <c r="K184" s="590" t="s">
+      <c r="G184" s="526"/>
+      <c r="H184" s="526"/>
+      <c r="I184" s="526"/>
+      <c r="J184" s="527"/>
+      <c r="K184" s="601" t="s">
         <v>45</v>
       </c>
-      <c r="L184" s="524"/>
-      <c r="M184" s="590" t="s">
+      <c r="L184" s="527"/>
+      <c r="M184" s="601" t="s">
         <v>69</v>
       </c>
-      <c r="N184" s="613"/>
-      <c r="O184" s="522" t="s">
+      <c r="N184" s="599"/>
+      <c r="O184" s="525" t="s">
         <v>214</v>
       </c>
-      <c r="P184" s="523"/>
-      <c r="Q184" s="523"/>
-      <c r="R184" s="523"/>
-      <c r="S184" s="523"/>
-      <c r="T184" s="523"/>
-      <c r="U184" s="523"/>
-      <c r="V184" s="523"/>
-      <c r="W184" s="523"/>
-      <c r="X184" s="523"/>
-      <c r="Y184" s="523"/>
-      <c r="Z184" s="523"/>
-      <c r="AA184" s="523"/>
-      <c r="AB184" s="523"/>
-      <c r="AC184" s="523"/>
-      <c r="AD184" s="523"/>
-      <c r="AE184" s="523"/>
-      <c r="AF184" s="523"/>
-      <c r="AG184" s="523"/>
-      <c r="AH184" s="524"/>
+      <c r="P184" s="526"/>
+      <c r="Q184" s="526"/>
+      <c r="R184" s="526"/>
+      <c r="S184" s="526"/>
+      <c r="T184" s="526"/>
+      <c r="U184" s="526"/>
+      <c r="V184" s="526"/>
+      <c r="W184" s="526"/>
+      <c r="X184" s="526"/>
+      <c r="Y184" s="526"/>
+      <c r="Z184" s="526"/>
+      <c r="AA184" s="526"/>
+      <c r="AB184" s="526"/>
+      <c r="AC184" s="526"/>
+      <c r="AD184" s="526"/>
+      <c r="AE184" s="526"/>
+      <c r="AF184" s="526"/>
+      <c r="AG184" s="526"/>
+      <c r="AH184" s="527"/>
     </row>
     <row r="185" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="50"/>
-      <c r="F185" s="571"/>
-      <c r="G185" s="572"/>
-      <c r="H185" s="572"/>
-      <c r="I185" s="572"/>
-      <c r="J185" s="573"/>
-      <c r="K185" s="528"/>
-      <c r="L185" s="530"/>
-      <c r="M185" s="571"/>
-      <c r="N185" s="573"/>
-      <c r="O185" s="571"/>
-      <c r="P185" s="572"/>
-      <c r="Q185" s="572"/>
-      <c r="R185" s="572"/>
-      <c r="S185" s="572"/>
-      <c r="T185" s="572"/>
-      <c r="U185" s="572"/>
-      <c r="V185" s="572"/>
-      <c r="W185" s="572"/>
-      <c r="X185" s="572"/>
-      <c r="Y185" s="572"/>
-      <c r="Z185" s="572"/>
-      <c r="AA185" s="572"/>
-      <c r="AB185" s="572"/>
-      <c r="AC185" s="572"/>
-      <c r="AD185" s="572"/>
-      <c r="AE185" s="572"/>
-      <c r="AF185" s="572"/>
-      <c r="AG185" s="572"/>
-      <c r="AH185" s="573"/>
+      <c r="F185" s="587"/>
+      <c r="G185" s="588"/>
+      <c r="H185" s="588"/>
+      <c r="I185" s="588"/>
+      <c r="J185" s="589"/>
+      <c r="K185" s="531"/>
+      <c r="L185" s="533"/>
+      <c r="M185" s="587"/>
+      <c r="N185" s="589"/>
+      <c r="O185" s="587"/>
+      <c r="P185" s="588"/>
+      <c r="Q185" s="588"/>
+      <c r="R185" s="588"/>
+      <c r="S185" s="588"/>
+      <c r="T185" s="588"/>
+      <c r="U185" s="588"/>
+      <c r="V185" s="588"/>
+      <c r="W185" s="588"/>
+      <c r="X185" s="588"/>
+      <c r="Y185" s="588"/>
+      <c r="Z185" s="588"/>
+      <c r="AA185" s="588"/>
+      <c r="AB185" s="588"/>
+      <c r="AC185" s="588"/>
+      <c r="AD185" s="588"/>
+      <c r="AE185" s="588"/>
+      <c r="AF185" s="588"/>
+      <c r="AG185" s="588"/>
+      <c r="AH185" s="589"/>
     </row>
     <row r="186" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="50"/>
-      <c r="F186" s="574" t="s">
+      <c r="F186" s="560" t="s">
         <v>119</v>
       </c>
-      <c r="G186" s="511"/>
-      <c r="H186" s="511"/>
-      <c r="I186" s="511"/>
-      <c r="J186" s="512"/>
-      <c r="K186" s="594" t="s">
+      <c r="G186" s="484"/>
+      <c r="H186" s="484"/>
+      <c r="I186" s="484"/>
+      <c r="J186" s="485"/>
+      <c r="K186" s="590" t="s">
         <v>45</v>
       </c>
-      <c r="L186" s="595"/>
-      <c r="M186" s="594" t="s">
+      <c r="L186" s="591"/>
+      <c r="M186" s="590" t="s">
         <v>69</v>
       </c>
-      <c r="N186" s="612"/>
-      <c r="O186" s="574" t="s">
+      <c r="N186" s="598"/>
+      <c r="O186" s="560" t="s">
         <v>215</v>
       </c>
-      <c r="P186" s="511"/>
-      <c r="Q186" s="511"/>
-      <c r="R186" s="511"/>
-      <c r="S186" s="511"/>
-      <c r="T186" s="511"/>
-      <c r="U186" s="511"/>
-      <c r="V186" s="511"/>
-      <c r="W186" s="511"/>
-      <c r="X186" s="511"/>
-      <c r="Y186" s="511"/>
-      <c r="Z186" s="511"/>
-      <c r="AA186" s="511"/>
-      <c r="AB186" s="511"/>
-      <c r="AC186" s="511"/>
-      <c r="AD186" s="511"/>
-      <c r="AE186" s="511"/>
-      <c r="AF186" s="511"/>
-      <c r="AG186" s="511"/>
-      <c r="AH186" s="512"/>
+      <c r="P186" s="484"/>
+      <c r="Q186" s="484"/>
+      <c r="R186" s="484"/>
+      <c r="S186" s="484"/>
+      <c r="T186" s="484"/>
+      <c r="U186" s="484"/>
+      <c r="V186" s="484"/>
+      <c r="W186" s="484"/>
+      <c r="X186" s="484"/>
+      <c r="Y186" s="484"/>
+      <c r="Z186" s="484"/>
+      <c r="AA186" s="484"/>
+      <c r="AB186" s="484"/>
+      <c r="AC186" s="484"/>
+      <c r="AD186" s="484"/>
+      <c r="AE186" s="484"/>
+      <c r="AF186" s="484"/>
+      <c r="AG186" s="484"/>
+      <c r="AH186" s="485"/>
     </row>
     <row r="187" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="50"/>
-      <c r="F187" s="590" t="s">
+      <c r="F187" s="601" t="s">
         <v>48</v>
       </c>
-      <c r="G187" s="523"/>
-      <c r="H187" s="523"/>
-      <c r="I187" s="523"/>
-      <c r="J187" s="524"/>
-      <c r="K187" s="590" t="s">
+      <c r="G187" s="526"/>
+      <c r="H187" s="526"/>
+      <c r="I187" s="526"/>
+      <c r="J187" s="527"/>
+      <c r="K187" s="601" t="s">
         <v>45</v>
       </c>
-      <c r="L187" s="524"/>
-      <c r="M187" s="590" t="s">
+      <c r="L187" s="527"/>
+      <c r="M187" s="601" t="s">
         <v>74</v>
       </c>
-      <c r="N187" s="613"/>
-      <c r="O187" s="522" t="s">
+      <c r="N187" s="599"/>
+      <c r="O187" s="525" t="s">
         <v>354</v>
       </c>
-      <c r="P187" s="569"/>
-      <c r="Q187" s="569"/>
-      <c r="R187" s="569"/>
-      <c r="S187" s="569"/>
-      <c r="T187" s="569"/>
-      <c r="U187" s="569"/>
-      <c r="V187" s="569"/>
-      <c r="W187" s="569"/>
-      <c r="X187" s="569"/>
-      <c r="Y187" s="569"/>
-      <c r="Z187" s="569"/>
-      <c r="AA187" s="569"/>
-      <c r="AB187" s="569"/>
-      <c r="AC187" s="569"/>
-      <c r="AD187" s="569"/>
-      <c r="AE187" s="569"/>
-      <c r="AF187" s="569"/>
-      <c r="AG187" s="569"/>
-      <c r="AH187" s="570"/>
+      <c r="P187" s="582"/>
+      <c r="Q187" s="582"/>
+      <c r="R187" s="582"/>
+      <c r="S187" s="582"/>
+      <c r="T187" s="582"/>
+      <c r="U187" s="582"/>
+      <c r="V187" s="582"/>
+      <c r="W187" s="582"/>
+      <c r="X187" s="582"/>
+      <c r="Y187" s="582"/>
+      <c r="Z187" s="582"/>
+      <c r="AA187" s="582"/>
+      <c r="AB187" s="582"/>
+      <c r="AC187" s="582"/>
+      <c r="AD187" s="582"/>
+      <c r="AE187" s="582"/>
+      <c r="AF187" s="582"/>
+      <c r="AG187" s="582"/>
+      <c r="AH187" s="583"/>
     </row>
     <row r="188" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="50"/>
-      <c r="F188" s="571"/>
-      <c r="G188" s="572"/>
-      <c r="H188" s="572"/>
-      <c r="I188" s="572"/>
-      <c r="J188" s="573"/>
-      <c r="K188" s="528"/>
-      <c r="L188" s="530"/>
-      <c r="M188" s="571"/>
-      <c r="N188" s="573"/>
-      <c r="O188" s="571"/>
-      <c r="P188" s="572"/>
-      <c r="Q188" s="572"/>
-      <c r="R188" s="572"/>
-      <c r="S188" s="572"/>
-      <c r="T188" s="572"/>
-      <c r="U188" s="572"/>
-      <c r="V188" s="572"/>
-      <c r="W188" s="572"/>
-      <c r="X188" s="572"/>
-      <c r="Y188" s="572"/>
-      <c r="Z188" s="572"/>
-      <c r="AA188" s="572"/>
-      <c r="AB188" s="572"/>
-      <c r="AC188" s="572"/>
-      <c r="AD188" s="572"/>
-      <c r="AE188" s="572"/>
-      <c r="AF188" s="572"/>
-      <c r="AG188" s="572"/>
-      <c r="AH188" s="573"/>
+      <c r="F188" s="587"/>
+      <c r="G188" s="588"/>
+      <c r="H188" s="588"/>
+      <c r="I188" s="588"/>
+      <c r="J188" s="589"/>
+      <c r="K188" s="531"/>
+      <c r="L188" s="533"/>
+      <c r="M188" s="587"/>
+      <c r="N188" s="589"/>
+      <c r="O188" s="587"/>
+      <c r="P188" s="588"/>
+      <c r="Q188" s="588"/>
+      <c r="R188" s="588"/>
+      <c r="S188" s="588"/>
+      <c r="T188" s="588"/>
+      <c r="U188" s="588"/>
+      <c r="V188" s="588"/>
+      <c r="W188" s="588"/>
+      <c r="X188" s="588"/>
+      <c r="Y188" s="588"/>
+      <c r="Z188" s="588"/>
+      <c r="AA188" s="588"/>
+      <c r="AB188" s="588"/>
+      <c r="AC188" s="588"/>
+      <c r="AD188" s="588"/>
+      <c r="AE188" s="588"/>
+      <c r="AF188" s="588"/>
+      <c r="AG188" s="588"/>
+      <c r="AH188" s="589"/>
     </row>
     <row r="189" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="50"/>
-      <c r="F189" s="510" t="s">
+      <c r="F189" s="483" t="s">
         <v>41</v>
       </c>
-      <c r="G189" s="511"/>
-      <c r="H189" s="511"/>
-      <c r="I189" s="511"/>
-      <c r="J189" s="512"/>
-      <c r="K189" s="594" t="s">
+      <c r="G189" s="484"/>
+      <c r="H189" s="484"/>
+      <c r="I189" s="484"/>
+      <c r="J189" s="485"/>
+      <c r="K189" s="590" t="s">
         <v>45</v>
       </c>
-      <c r="L189" s="595"/>
-      <c r="M189" s="594" t="s">
+      <c r="L189" s="591"/>
+      <c r="M189" s="590" t="s">
         <v>73</v>
       </c>
-      <c r="N189" s="612"/>
-      <c r="O189" s="574" t="s">
+      <c r="N189" s="598"/>
+      <c r="O189" s="560" t="s">
         <v>215</v>
       </c>
-      <c r="P189" s="511"/>
-      <c r="Q189" s="511"/>
-      <c r="R189" s="511"/>
-      <c r="S189" s="511"/>
-      <c r="T189" s="511"/>
-      <c r="U189" s="511"/>
-      <c r="V189" s="511"/>
-      <c r="W189" s="511"/>
-      <c r="X189" s="511"/>
-      <c r="Y189" s="511"/>
-      <c r="Z189" s="511"/>
-      <c r="AA189" s="511"/>
-      <c r="AB189" s="511"/>
-      <c r="AC189" s="511"/>
-      <c r="AD189" s="511"/>
-      <c r="AE189" s="511"/>
-      <c r="AF189" s="511"/>
-      <c r="AG189" s="511"/>
-      <c r="AH189" s="512"/>
+      <c r="P189" s="484"/>
+      <c r="Q189" s="484"/>
+      <c r="R189" s="484"/>
+      <c r="S189" s="484"/>
+      <c r="T189" s="484"/>
+      <c r="U189" s="484"/>
+      <c r="V189" s="484"/>
+      <c r="W189" s="484"/>
+      <c r="X189" s="484"/>
+      <c r="Y189" s="484"/>
+      <c r="Z189" s="484"/>
+      <c r="AA189" s="484"/>
+      <c r="AB189" s="484"/>
+      <c r="AC189" s="484"/>
+      <c r="AD189" s="484"/>
+      <c r="AE189" s="484"/>
+      <c r="AF189" s="484"/>
+      <c r="AG189" s="484"/>
+      <c r="AH189" s="485"/>
     </row>
     <row r="190" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="50"/>
       <c r="E190" s="80"/>
-      <c r="F190" s="532" t="s">
+      <c r="F190" s="535" t="s">
         <v>189</v>
       </c>
-      <c r="G190" s="569"/>
-      <c r="H190" s="569"/>
-      <c r="I190" s="569"/>
-      <c r="J190" s="570"/>
-      <c r="K190" s="560" t="s">
+      <c r="G190" s="582"/>
+      <c r="H190" s="582"/>
+      <c r="I190" s="582"/>
+      <c r="J190" s="583"/>
+      <c r="K190" s="614" t="s">
         <v>45</v>
       </c>
-      <c r="L190" s="534"/>
-      <c r="M190" s="590" t="s">
+      <c r="L190" s="537"/>
+      <c r="M190" s="601" t="s">
         <v>73</v>
       </c>
-      <c r="N190" s="613"/>
-      <c r="O190" s="522" t="s">
+      <c r="N190" s="599"/>
+      <c r="O190" s="525" t="s">
         <v>215</v>
       </c>
-      <c r="P190" s="523"/>
-      <c r="Q190" s="523"/>
-      <c r="R190" s="523"/>
-      <c r="S190" s="523"/>
-      <c r="T190" s="523"/>
-      <c r="U190" s="523"/>
-      <c r="V190" s="523"/>
-      <c r="W190" s="523"/>
-      <c r="X190" s="523"/>
-      <c r="Y190" s="523"/>
-      <c r="Z190" s="523"/>
-      <c r="AA190" s="523"/>
-      <c r="AB190" s="523"/>
-      <c r="AC190" s="523"/>
-      <c r="AD190" s="523"/>
-      <c r="AE190" s="523"/>
-      <c r="AF190" s="523"/>
-      <c r="AG190" s="523"/>
-      <c r="AH190" s="524"/>
+      <c r="P190" s="526"/>
+      <c r="Q190" s="526"/>
+      <c r="R190" s="526"/>
+      <c r="S190" s="526"/>
+      <c r="T190" s="526"/>
+      <c r="U190" s="526"/>
+      <c r="V190" s="526"/>
+      <c r="W190" s="526"/>
+      <c r="X190" s="526"/>
+      <c r="Y190" s="526"/>
+      <c r="Z190" s="526"/>
+      <c r="AA190" s="526"/>
+      <c r="AB190" s="526"/>
+      <c r="AC190" s="526"/>
+      <c r="AD190" s="526"/>
+      <c r="AE190" s="526"/>
+      <c r="AF190" s="526"/>
+      <c r="AG190" s="526"/>
+      <c r="AH190" s="527"/>
     </row>
     <row r="191" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="50"/>
       <c r="E191" s="80"/>
-      <c r="F191" s="571"/>
-      <c r="G191" s="572"/>
-      <c r="H191" s="572"/>
-      <c r="I191" s="572"/>
-      <c r="J191" s="573"/>
-      <c r="K191" s="561"/>
-      <c r="L191" s="562"/>
-      <c r="M191" s="571"/>
-      <c r="N191" s="573"/>
-      <c r="O191" s="571"/>
-      <c r="P191" s="572"/>
-      <c r="Q191" s="572"/>
-      <c r="R191" s="572"/>
-      <c r="S191" s="572"/>
-      <c r="T191" s="572"/>
-      <c r="U191" s="572"/>
-      <c r="V191" s="572"/>
-      <c r="W191" s="572"/>
-      <c r="X191" s="572"/>
-      <c r="Y191" s="572"/>
-      <c r="Z191" s="572"/>
-      <c r="AA191" s="572"/>
-      <c r="AB191" s="572"/>
-      <c r="AC191" s="572"/>
-      <c r="AD191" s="572"/>
-      <c r="AE191" s="572"/>
-      <c r="AF191" s="572"/>
-      <c r="AG191" s="572"/>
-      <c r="AH191" s="573"/>
+      <c r="F191" s="587"/>
+      <c r="G191" s="588"/>
+      <c r="H191" s="588"/>
+      <c r="I191" s="588"/>
+      <c r="J191" s="589"/>
+      <c r="K191" s="617"/>
+      <c r="L191" s="618"/>
+      <c r="M191" s="587"/>
+      <c r="N191" s="589"/>
+      <c r="O191" s="587"/>
+      <c r="P191" s="588"/>
+      <c r="Q191" s="588"/>
+      <c r="R191" s="588"/>
+      <c r="S191" s="588"/>
+      <c r="T191" s="588"/>
+      <c r="U191" s="588"/>
+      <c r="V191" s="588"/>
+      <c r="W191" s="588"/>
+      <c r="X191" s="588"/>
+      <c r="Y191" s="588"/>
+      <c r="Z191" s="588"/>
+      <c r="AA191" s="588"/>
+      <c r="AB191" s="588"/>
+      <c r="AC191" s="588"/>
+      <c r="AD191" s="588"/>
+      <c r="AE191" s="588"/>
+      <c r="AF191" s="588"/>
+      <c r="AG191" s="588"/>
+      <c r="AH191" s="589"/>
     </row>
     <row r="192" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="50"/>
@@ -41066,707 +41066,707 @@
     </row>
     <row r="196" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="50"/>
-      <c r="F196" s="566" t="s">
-        <v>592</v>
-      </c>
-      <c r="G196" s="567"/>
-      <c r="H196" s="567"/>
-      <c r="I196" s="567"/>
-      <c r="J196" s="568"/>
-      <c r="K196" s="601" t="s">
+      <c r="F196" s="625" t="s">
+        <v>591</v>
+      </c>
+      <c r="G196" s="626"/>
+      <c r="H196" s="626"/>
+      <c r="I196" s="626"/>
+      <c r="J196" s="627"/>
+      <c r="K196" s="595" t="s">
         <v>29</v>
       </c>
-      <c r="L196" s="602"/>
-      <c r="M196" s="601" t="s">
+      <c r="L196" s="596"/>
+      <c r="M196" s="595" t="s">
         <v>30</v>
       </c>
-      <c r="N196" s="602"/>
-      <c r="O196" s="507" t="s">
+      <c r="N196" s="596"/>
+      <c r="O196" s="480" t="s">
         <v>211</v>
       </c>
-      <c r="P196" s="508"/>
-      <c r="Q196" s="508"/>
-      <c r="R196" s="508"/>
-      <c r="S196" s="508"/>
-      <c r="T196" s="508"/>
-      <c r="U196" s="508"/>
-      <c r="V196" s="508"/>
-      <c r="W196" s="508"/>
-      <c r="X196" s="508"/>
-      <c r="Y196" s="508"/>
-      <c r="Z196" s="508"/>
-      <c r="AA196" s="508"/>
-      <c r="AB196" s="508"/>
-      <c r="AC196" s="508"/>
-      <c r="AD196" s="508"/>
-      <c r="AE196" s="508"/>
-      <c r="AF196" s="508"/>
-      <c r="AG196" s="508"/>
-      <c r="AH196" s="509"/>
+      <c r="P196" s="481"/>
+      <c r="Q196" s="481"/>
+      <c r="R196" s="481"/>
+      <c r="S196" s="481"/>
+      <c r="T196" s="481"/>
+      <c r="U196" s="481"/>
+      <c r="V196" s="481"/>
+      <c r="W196" s="481"/>
+      <c r="X196" s="481"/>
+      <c r="Y196" s="481"/>
+      <c r="Z196" s="481"/>
+      <c r="AA196" s="481"/>
+      <c r="AB196" s="481"/>
+      <c r="AC196" s="481"/>
+      <c r="AD196" s="481"/>
+      <c r="AE196" s="481"/>
+      <c r="AF196" s="481"/>
+      <c r="AG196" s="481"/>
+      <c r="AH196" s="482"/>
     </row>
     <row r="197" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="50"/>
-      <c r="F197" s="575" t="s">
+      <c r="F197" s="570" t="s">
         <v>196</v>
       </c>
-      <c r="G197" s="576"/>
-      <c r="H197" s="576"/>
-      <c r="I197" s="576"/>
-      <c r="J197" s="577"/>
-      <c r="K197" s="584" t="s">
+      <c r="G197" s="628"/>
+      <c r="H197" s="628"/>
+      <c r="I197" s="628"/>
+      <c r="J197" s="572"/>
+      <c r="K197" s="607" t="s">
         <v>31</v>
       </c>
-      <c r="L197" s="585"/>
-      <c r="M197" s="584" t="s">
+      <c r="L197" s="608"/>
+      <c r="M197" s="607" t="s">
         <v>32</v>
       </c>
-      <c r="N197" s="585"/>
-      <c r="O197" s="575" t="s">
+      <c r="N197" s="608"/>
+      <c r="O197" s="570" t="s">
         <v>198</v>
       </c>
-      <c r="P197" s="576"/>
-      <c r="Q197" s="576"/>
-      <c r="R197" s="576"/>
-      <c r="S197" s="576"/>
-      <c r="T197" s="576"/>
-      <c r="U197" s="576"/>
-      <c r="V197" s="576"/>
-      <c r="W197" s="576"/>
-      <c r="X197" s="576"/>
-      <c r="Y197" s="576"/>
-      <c r="Z197" s="576"/>
-      <c r="AA197" s="576"/>
-      <c r="AB197" s="576"/>
-      <c r="AC197" s="576"/>
-      <c r="AD197" s="576"/>
-      <c r="AE197" s="576"/>
-      <c r="AF197" s="576"/>
-      <c r="AG197" s="576"/>
-      <c r="AH197" s="577"/>
+      <c r="P197" s="628"/>
+      <c r="Q197" s="628"/>
+      <c r="R197" s="628"/>
+      <c r="S197" s="628"/>
+      <c r="T197" s="628"/>
+      <c r="U197" s="628"/>
+      <c r="V197" s="628"/>
+      <c r="W197" s="628"/>
+      <c r="X197" s="628"/>
+      <c r="Y197" s="628"/>
+      <c r="Z197" s="628"/>
+      <c r="AA197" s="628"/>
+      <c r="AB197" s="628"/>
+      <c r="AC197" s="628"/>
+      <c r="AD197" s="628"/>
+      <c r="AE197" s="628"/>
+      <c r="AF197" s="628"/>
+      <c r="AG197" s="628"/>
+      <c r="AH197" s="572"/>
     </row>
     <row r="198" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="50"/>
-      <c r="F198" s="578"/>
-      <c r="G198" s="579"/>
-      <c r="H198" s="579"/>
-      <c r="I198" s="579"/>
-      <c r="J198" s="580"/>
-      <c r="K198" s="528"/>
-      <c r="L198" s="530"/>
-      <c r="M198" s="528"/>
-      <c r="N198" s="530"/>
-      <c r="O198" s="578"/>
-      <c r="P198" s="579"/>
-      <c r="Q198" s="579"/>
-      <c r="R198" s="579"/>
-      <c r="S198" s="579"/>
-      <c r="T198" s="579"/>
-      <c r="U198" s="579"/>
-      <c r="V198" s="579"/>
-      <c r="W198" s="579"/>
-      <c r="X198" s="579"/>
-      <c r="Y198" s="579"/>
-      <c r="Z198" s="579"/>
-      <c r="AA198" s="579"/>
-      <c r="AB198" s="579"/>
-      <c r="AC198" s="579"/>
-      <c r="AD198" s="579"/>
-      <c r="AE198" s="579"/>
-      <c r="AF198" s="579"/>
-      <c r="AG198" s="579"/>
-      <c r="AH198" s="580"/>
+      <c r="F198" s="629"/>
+      <c r="G198" s="630"/>
+      <c r="H198" s="630"/>
+      <c r="I198" s="630"/>
+      <c r="J198" s="631"/>
+      <c r="K198" s="531"/>
+      <c r="L198" s="533"/>
+      <c r="M198" s="531"/>
+      <c r="N198" s="533"/>
+      <c r="O198" s="629"/>
+      <c r="P198" s="630"/>
+      <c r="Q198" s="630"/>
+      <c r="R198" s="630"/>
+      <c r="S198" s="630"/>
+      <c r="T198" s="630"/>
+      <c r="U198" s="630"/>
+      <c r="V198" s="630"/>
+      <c r="W198" s="630"/>
+      <c r="X198" s="630"/>
+      <c r="Y198" s="630"/>
+      <c r="Z198" s="630"/>
+      <c r="AA198" s="630"/>
+      <c r="AB198" s="630"/>
+      <c r="AC198" s="630"/>
+      <c r="AD198" s="630"/>
+      <c r="AE198" s="630"/>
+      <c r="AF198" s="630"/>
+      <c r="AG198" s="630"/>
+      <c r="AH198" s="631"/>
     </row>
     <row r="199" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="50"/>
-      <c r="F199" s="560" t="s">
+      <c r="F199" s="614" t="s">
         <v>39</v>
       </c>
-      <c r="G199" s="533"/>
-      <c r="H199" s="533"/>
-      <c r="I199" s="533"/>
-      <c r="J199" s="534"/>
-      <c r="K199" s="590" t="s">
+      <c r="G199" s="536"/>
+      <c r="H199" s="536"/>
+      <c r="I199" s="536"/>
+      <c r="J199" s="537"/>
+      <c r="K199" s="601" t="s">
         <v>34</v>
       </c>
-      <c r="L199" s="524"/>
-      <c r="M199" s="584" t="s">
+      <c r="L199" s="527"/>
+      <c r="M199" s="607" t="s">
         <v>32</v>
       </c>
-      <c r="N199" s="585"/>
-      <c r="O199" s="532" t="s">
+      <c r="N199" s="608"/>
+      <c r="O199" s="535" t="s">
         <v>349</v>
       </c>
-      <c r="P199" s="555"/>
-      <c r="Q199" s="555"/>
-      <c r="R199" s="555"/>
-      <c r="S199" s="555"/>
-      <c r="T199" s="555"/>
-      <c r="U199" s="555"/>
-      <c r="V199" s="555"/>
-      <c r="W199" s="555"/>
-      <c r="X199" s="555"/>
-      <c r="Y199" s="555"/>
-      <c r="Z199" s="555"/>
-      <c r="AA199" s="555"/>
-      <c r="AB199" s="555"/>
-      <c r="AC199" s="555"/>
-      <c r="AD199" s="555"/>
-      <c r="AE199" s="555"/>
-      <c r="AF199" s="555"/>
-      <c r="AG199" s="555"/>
-      <c r="AH199" s="556"/>
+      <c r="P199" s="619"/>
+      <c r="Q199" s="619"/>
+      <c r="R199" s="619"/>
+      <c r="S199" s="619"/>
+      <c r="T199" s="619"/>
+      <c r="U199" s="619"/>
+      <c r="V199" s="619"/>
+      <c r="W199" s="619"/>
+      <c r="X199" s="619"/>
+      <c r="Y199" s="619"/>
+      <c r="Z199" s="619"/>
+      <c r="AA199" s="619"/>
+      <c r="AB199" s="619"/>
+      <c r="AC199" s="619"/>
+      <c r="AD199" s="619"/>
+      <c r="AE199" s="619"/>
+      <c r="AF199" s="619"/>
+      <c r="AG199" s="619"/>
+      <c r="AH199" s="620"/>
     </row>
     <row r="200" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="50"/>
-      <c r="F200" s="561"/>
-      <c r="G200" s="565"/>
-      <c r="H200" s="565"/>
-      <c r="I200" s="565"/>
-      <c r="J200" s="562"/>
-      <c r="K200" s="528"/>
-      <c r="L200" s="530"/>
-      <c r="M200" s="528"/>
-      <c r="N200" s="530"/>
-      <c r="O200" s="561"/>
-      <c r="P200" s="565"/>
-      <c r="Q200" s="565"/>
-      <c r="R200" s="565"/>
-      <c r="S200" s="565"/>
-      <c r="T200" s="565"/>
-      <c r="U200" s="565"/>
-      <c r="V200" s="565"/>
-      <c r="W200" s="565"/>
-      <c r="X200" s="565"/>
-      <c r="Y200" s="565"/>
-      <c r="Z200" s="565"/>
-      <c r="AA200" s="565"/>
-      <c r="AB200" s="565"/>
-      <c r="AC200" s="565"/>
-      <c r="AD200" s="565"/>
-      <c r="AE200" s="565"/>
-      <c r="AF200" s="565"/>
-      <c r="AG200" s="565"/>
-      <c r="AH200" s="562"/>
+      <c r="F200" s="617"/>
+      <c r="G200" s="624"/>
+      <c r="H200" s="624"/>
+      <c r="I200" s="624"/>
+      <c r="J200" s="618"/>
+      <c r="K200" s="531"/>
+      <c r="L200" s="533"/>
+      <c r="M200" s="531"/>
+      <c r="N200" s="533"/>
+      <c r="O200" s="617"/>
+      <c r="P200" s="624"/>
+      <c r="Q200" s="624"/>
+      <c r="R200" s="624"/>
+      <c r="S200" s="624"/>
+      <c r="T200" s="624"/>
+      <c r="U200" s="624"/>
+      <c r="V200" s="624"/>
+      <c r="W200" s="624"/>
+      <c r="X200" s="624"/>
+      <c r="Y200" s="624"/>
+      <c r="Z200" s="624"/>
+      <c r="AA200" s="624"/>
+      <c r="AB200" s="624"/>
+      <c r="AC200" s="624"/>
+      <c r="AD200" s="624"/>
+      <c r="AE200" s="624"/>
+      <c r="AF200" s="624"/>
+      <c r="AG200" s="624"/>
+      <c r="AH200" s="618"/>
     </row>
     <row r="201" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="50"/>
-      <c r="F201" s="560" t="s">
+      <c r="F201" s="614" t="s">
         <v>40</v>
       </c>
-      <c r="G201" s="533"/>
-      <c r="H201" s="533"/>
-      <c r="I201" s="533"/>
-      <c r="J201" s="534"/>
-      <c r="K201" s="560" t="s">
+      <c r="G201" s="536"/>
+      <c r="H201" s="536"/>
+      <c r="I201" s="536"/>
+      <c r="J201" s="537"/>
+      <c r="K201" s="614" t="s">
         <v>34</v>
       </c>
-      <c r="L201" s="534"/>
-      <c r="M201" s="563" t="s">
+      <c r="L201" s="537"/>
+      <c r="M201" s="615" t="s">
         <v>32</v>
       </c>
-      <c r="N201" s="564"/>
-      <c r="O201" s="532" t="s">
+      <c r="N201" s="616"/>
+      <c r="O201" s="535" t="s">
         <v>350</v>
       </c>
-      <c r="P201" s="555"/>
-      <c r="Q201" s="555"/>
-      <c r="R201" s="555"/>
-      <c r="S201" s="555"/>
-      <c r="T201" s="555"/>
-      <c r="U201" s="555"/>
-      <c r="V201" s="555"/>
-      <c r="W201" s="555"/>
-      <c r="X201" s="555"/>
-      <c r="Y201" s="555"/>
-      <c r="Z201" s="555"/>
-      <c r="AA201" s="555"/>
-      <c r="AB201" s="555"/>
-      <c r="AC201" s="555"/>
-      <c r="AD201" s="555"/>
-      <c r="AE201" s="555"/>
-      <c r="AF201" s="555"/>
-      <c r="AG201" s="555"/>
-      <c r="AH201" s="556"/>
+      <c r="P201" s="619"/>
+      <c r="Q201" s="619"/>
+      <c r="R201" s="619"/>
+      <c r="S201" s="619"/>
+      <c r="T201" s="619"/>
+      <c r="U201" s="619"/>
+      <c r="V201" s="619"/>
+      <c r="W201" s="619"/>
+      <c r="X201" s="619"/>
+      <c r="Y201" s="619"/>
+      <c r="Z201" s="619"/>
+      <c r="AA201" s="619"/>
+      <c r="AB201" s="619"/>
+      <c r="AC201" s="619"/>
+      <c r="AD201" s="619"/>
+      <c r="AE201" s="619"/>
+      <c r="AF201" s="619"/>
+      <c r="AG201" s="619"/>
+      <c r="AH201" s="620"/>
     </row>
     <row r="202" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="50"/>
-      <c r="F202" s="561"/>
-      <c r="G202" s="565"/>
-      <c r="H202" s="565"/>
-      <c r="I202" s="565"/>
-      <c r="J202" s="562"/>
-      <c r="K202" s="538"/>
-      <c r="L202" s="540"/>
-      <c r="M202" s="538"/>
-      <c r="N202" s="540"/>
-      <c r="O202" s="561"/>
-      <c r="P202" s="565"/>
-      <c r="Q202" s="565"/>
-      <c r="R202" s="565"/>
-      <c r="S202" s="565"/>
-      <c r="T202" s="565"/>
-      <c r="U202" s="565"/>
-      <c r="V202" s="565"/>
-      <c r="W202" s="565"/>
-      <c r="X202" s="565"/>
-      <c r="Y202" s="565"/>
-      <c r="Z202" s="565"/>
-      <c r="AA202" s="565"/>
-      <c r="AB202" s="565"/>
-      <c r="AC202" s="565"/>
-      <c r="AD202" s="565"/>
-      <c r="AE202" s="565"/>
-      <c r="AF202" s="565"/>
-      <c r="AG202" s="565"/>
-      <c r="AH202" s="562"/>
+      <c r="F202" s="617"/>
+      <c r="G202" s="624"/>
+      <c r="H202" s="624"/>
+      <c r="I202" s="624"/>
+      <c r="J202" s="618"/>
+      <c r="K202" s="541"/>
+      <c r="L202" s="543"/>
+      <c r="M202" s="541"/>
+      <c r="N202" s="543"/>
+      <c r="O202" s="617"/>
+      <c r="P202" s="624"/>
+      <c r="Q202" s="624"/>
+      <c r="R202" s="624"/>
+      <c r="S202" s="624"/>
+      <c r="T202" s="624"/>
+      <c r="U202" s="624"/>
+      <c r="V202" s="624"/>
+      <c r="W202" s="624"/>
+      <c r="X202" s="624"/>
+      <c r="Y202" s="624"/>
+      <c r="Z202" s="624"/>
+      <c r="AA202" s="624"/>
+      <c r="AB202" s="624"/>
+      <c r="AC202" s="624"/>
+      <c r="AD202" s="624"/>
+      <c r="AE202" s="624"/>
+      <c r="AF202" s="624"/>
+      <c r="AG202" s="624"/>
+      <c r="AH202" s="618"/>
     </row>
     <row r="203" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="50"/>
-      <c r="F203" s="532" t="s">
+      <c r="F203" s="535" t="s">
         <v>197</v>
       </c>
-      <c r="G203" s="555"/>
-      <c r="H203" s="555"/>
-      <c r="I203" s="555"/>
-      <c r="J203" s="556"/>
-      <c r="K203" s="590" t="s">
+      <c r="G203" s="619"/>
+      <c r="H203" s="619"/>
+      <c r="I203" s="619"/>
+      <c r="J203" s="620"/>
+      <c r="K203" s="601" t="s">
         <v>34</v>
       </c>
-      <c r="L203" s="524"/>
-      <c r="M203" s="584" t="s">
+      <c r="L203" s="527"/>
+      <c r="M203" s="607" t="s">
         <v>32</v>
       </c>
-      <c r="N203" s="585"/>
-      <c r="O203" s="532" t="s">
+      <c r="N203" s="608"/>
+      <c r="O203" s="535" t="s">
         <v>351</v>
       </c>
-      <c r="P203" s="555"/>
-      <c r="Q203" s="555"/>
-      <c r="R203" s="555"/>
-      <c r="S203" s="555"/>
-      <c r="T203" s="555"/>
-      <c r="U203" s="555"/>
-      <c r="V203" s="555"/>
-      <c r="W203" s="555"/>
-      <c r="X203" s="555"/>
-      <c r="Y203" s="555"/>
-      <c r="Z203" s="555"/>
-      <c r="AA203" s="555"/>
-      <c r="AB203" s="555"/>
-      <c r="AC203" s="555"/>
-      <c r="AD203" s="555"/>
-      <c r="AE203" s="555"/>
-      <c r="AF203" s="555"/>
-      <c r="AG203" s="555"/>
-      <c r="AH203" s="556"/>
+      <c r="P203" s="619"/>
+      <c r="Q203" s="619"/>
+      <c r="R203" s="619"/>
+      <c r="S203" s="619"/>
+      <c r="T203" s="619"/>
+      <c r="U203" s="619"/>
+      <c r="V203" s="619"/>
+      <c r="W203" s="619"/>
+      <c r="X203" s="619"/>
+      <c r="Y203" s="619"/>
+      <c r="Z203" s="619"/>
+      <c r="AA203" s="619"/>
+      <c r="AB203" s="619"/>
+      <c r="AC203" s="619"/>
+      <c r="AD203" s="619"/>
+      <c r="AE203" s="619"/>
+      <c r="AF203" s="619"/>
+      <c r="AG203" s="619"/>
+      <c r="AH203" s="620"/>
     </row>
     <row r="204" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="50"/>
-      <c r="F204" s="561"/>
-      <c r="G204" s="565"/>
-      <c r="H204" s="565"/>
-      <c r="I204" s="565"/>
-      <c r="J204" s="562"/>
-      <c r="K204" s="528"/>
-      <c r="L204" s="530"/>
-      <c r="M204" s="528"/>
-      <c r="N204" s="530"/>
-      <c r="O204" s="561"/>
-      <c r="P204" s="565"/>
-      <c r="Q204" s="565"/>
-      <c r="R204" s="565"/>
-      <c r="S204" s="565"/>
-      <c r="T204" s="565"/>
-      <c r="U204" s="565"/>
-      <c r="V204" s="565"/>
-      <c r="W204" s="565"/>
-      <c r="X204" s="565"/>
-      <c r="Y204" s="565"/>
-      <c r="Z204" s="565"/>
-      <c r="AA204" s="565"/>
-      <c r="AB204" s="565"/>
-      <c r="AC204" s="565"/>
-      <c r="AD204" s="565"/>
-      <c r="AE204" s="565"/>
-      <c r="AF204" s="565"/>
-      <c r="AG204" s="565"/>
-      <c r="AH204" s="562"/>
+      <c r="F204" s="617"/>
+      <c r="G204" s="624"/>
+      <c r="H204" s="624"/>
+      <c r="I204" s="624"/>
+      <c r="J204" s="618"/>
+      <c r="K204" s="531"/>
+      <c r="L204" s="533"/>
+      <c r="M204" s="531"/>
+      <c r="N204" s="533"/>
+      <c r="O204" s="617"/>
+      <c r="P204" s="624"/>
+      <c r="Q204" s="624"/>
+      <c r="R204" s="624"/>
+      <c r="S204" s="624"/>
+      <c r="T204" s="624"/>
+      <c r="U204" s="624"/>
+      <c r="V204" s="624"/>
+      <c r="W204" s="624"/>
+      <c r="X204" s="624"/>
+      <c r="Y204" s="624"/>
+      <c r="Z204" s="624"/>
+      <c r="AA204" s="624"/>
+      <c r="AB204" s="624"/>
+      <c r="AC204" s="624"/>
+      <c r="AD204" s="624"/>
+      <c r="AE204" s="624"/>
+      <c r="AF204" s="624"/>
+      <c r="AG204" s="624"/>
+      <c r="AH204" s="618"/>
     </row>
     <row r="205" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="50"/>
-      <c r="F205" s="510" t="s">
+      <c r="F205" s="483" t="s">
         <v>37</v>
       </c>
-      <c r="G205" s="511"/>
-      <c r="H205" s="511"/>
-      <c r="I205" s="511"/>
-      <c r="J205" s="512"/>
-      <c r="K205" s="411" t="s">
+      <c r="G205" s="484"/>
+      <c r="H205" s="484"/>
+      <c r="I205" s="484"/>
+      <c r="J205" s="485"/>
+      <c r="K205" s="449" t="s">
         <v>34</v>
       </c>
-      <c r="L205" s="413"/>
-      <c r="M205" s="598" t="s">
+      <c r="L205" s="451"/>
+      <c r="M205" s="609" t="s">
         <v>32</v>
       </c>
-      <c r="N205" s="599"/>
-      <c r="O205" s="552" t="s">
+      <c r="N205" s="610"/>
+      <c r="O205" s="555" t="s">
         <v>234</v>
       </c>
-      <c r="P205" s="586"/>
-      <c r="Q205" s="586"/>
-      <c r="R205" s="586"/>
-      <c r="S205" s="586"/>
-      <c r="T205" s="586"/>
-      <c r="U205" s="586"/>
-      <c r="V205" s="586"/>
-      <c r="W205" s="586"/>
-      <c r="X205" s="586"/>
-      <c r="Y205" s="586"/>
-      <c r="Z205" s="586"/>
-      <c r="AA205" s="586"/>
-      <c r="AB205" s="586"/>
-      <c r="AC205" s="586"/>
-      <c r="AD205" s="586"/>
-      <c r="AE205" s="586"/>
-      <c r="AF205" s="586"/>
-      <c r="AG205" s="586"/>
-      <c r="AH205" s="587"/>
+      <c r="P205" s="612"/>
+      <c r="Q205" s="612"/>
+      <c r="R205" s="612"/>
+      <c r="S205" s="612"/>
+      <c r="T205" s="612"/>
+      <c r="U205" s="612"/>
+      <c r="V205" s="612"/>
+      <c r="W205" s="612"/>
+      <c r="X205" s="612"/>
+      <c r="Y205" s="612"/>
+      <c r="Z205" s="612"/>
+      <c r="AA205" s="612"/>
+      <c r="AB205" s="612"/>
+      <c r="AC205" s="612"/>
+      <c r="AD205" s="612"/>
+      <c r="AE205" s="612"/>
+      <c r="AF205" s="612"/>
+      <c r="AG205" s="612"/>
+      <c r="AH205" s="613"/>
     </row>
     <row r="206" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="50"/>
-      <c r="F206" s="510" t="s">
+      <c r="F206" s="483" t="s">
         <v>38</v>
       </c>
-      <c r="G206" s="511"/>
-      <c r="H206" s="511"/>
-      <c r="I206" s="511"/>
-      <c r="J206" s="512"/>
-      <c r="K206" s="411" t="s">
+      <c r="G206" s="484"/>
+      <c r="H206" s="484"/>
+      <c r="I206" s="484"/>
+      <c r="J206" s="485"/>
+      <c r="K206" s="449" t="s">
         <v>34</v>
       </c>
-      <c r="L206" s="413"/>
-      <c r="M206" s="598" t="s">
+      <c r="L206" s="451"/>
+      <c r="M206" s="609" t="s">
         <v>32</v>
       </c>
-      <c r="N206" s="599"/>
-      <c r="O206" s="552" t="s">
+      <c r="N206" s="610"/>
+      <c r="O206" s="555" t="s">
         <v>195</v>
       </c>
-      <c r="P206" s="553"/>
-      <c r="Q206" s="553"/>
-      <c r="R206" s="553"/>
-      <c r="S206" s="553"/>
-      <c r="T206" s="553"/>
-      <c r="U206" s="553"/>
-      <c r="V206" s="553"/>
-      <c r="W206" s="553"/>
-      <c r="X206" s="553"/>
-      <c r="Y206" s="553"/>
-      <c r="Z206" s="553"/>
-      <c r="AA206" s="553"/>
-      <c r="AB206" s="553"/>
-      <c r="AC206" s="553"/>
-      <c r="AD206" s="553"/>
-      <c r="AE206" s="553"/>
-      <c r="AF206" s="553"/>
-      <c r="AG206" s="553"/>
-      <c r="AH206" s="554"/>
+      <c r="P206" s="556"/>
+      <c r="Q206" s="556"/>
+      <c r="R206" s="556"/>
+      <c r="S206" s="556"/>
+      <c r="T206" s="556"/>
+      <c r="U206" s="556"/>
+      <c r="V206" s="556"/>
+      <c r="W206" s="556"/>
+      <c r="X206" s="556"/>
+      <c r="Y206" s="556"/>
+      <c r="Z206" s="556"/>
+      <c r="AA206" s="556"/>
+      <c r="AB206" s="556"/>
+      <c r="AC206" s="556"/>
+      <c r="AD206" s="556"/>
+      <c r="AE206" s="556"/>
+      <c r="AF206" s="556"/>
+      <c r="AG206" s="556"/>
+      <c r="AH206" s="557"/>
     </row>
     <row r="207" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="50"/>
-      <c r="F207" s="560" t="s">
+      <c r="F207" s="614" t="s">
         <v>33</v>
       </c>
-      <c r="G207" s="533"/>
-      <c r="H207" s="533"/>
-      <c r="I207" s="533"/>
-      <c r="J207" s="534"/>
-      <c r="K207" s="590" t="s">
+      <c r="G207" s="536"/>
+      <c r="H207" s="536"/>
+      <c r="I207" s="536"/>
+      <c r="J207" s="537"/>
+      <c r="K207" s="601" t="s">
         <v>34</v>
       </c>
-      <c r="L207" s="524"/>
-      <c r="M207" s="584" t="s">
+      <c r="L207" s="527"/>
+      <c r="M207" s="607" t="s">
         <v>32</v>
       </c>
-      <c r="N207" s="585"/>
-      <c r="O207" s="532" t="s">
+      <c r="N207" s="608"/>
+      <c r="O207" s="535" t="s">
         <v>352</v>
       </c>
-      <c r="P207" s="555"/>
-      <c r="Q207" s="555"/>
-      <c r="R207" s="555"/>
-      <c r="S207" s="555"/>
-      <c r="T207" s="555"/>
-      <c r="U207" s="555"/>
-      <c r="V207" s="555"/>
-      <c r="W207" s="555"/>
-      <c r="X207" s="555"/>
-      <c r="Y207" s="555"/>
-      <c r="Z207" s="555"/>
-      <c r="AA207" s="555"/>
-      <c r="AB207" s="555"/>
-      <c r="AC207" s="555"/>
-      <c r="AD207" s="555"/>
-      <c r="AE207" s="555"/>
-      <c r="AF207" s="555"/>
-      <c r="AG207" s="555"/>
-      <c r="AH207" s="556"/>
+      <c r="P207" s="619"/>
+      <c r="Q207" s="619"/>
+      <c r="R207" s="619"/>
+      <c r="S207" s="619"/>
+      <c r="T207" s="619"/>
+      <c r="U207" s="619"/>
+      <c r="V207" s="619"/>
+      <c r="W207" s="619"/>
+      <c r="X207" s="619"/>
+      <c r="Y207" s="619"/>
+      <c r="Z207" s="619"/>
+      <c r="AA207" s="619"/>
+      <c r="AB207" s="619"/>
+      <c r="AC207" s="619"/>
+      <c r="AD207" s="619"/>
+      <c r="AE207" s="619"/>
+      <c r="AF207" s="619"/>
+      <c r="AG207" s="619"/>
+      <c r="AH207" s="620"/>
     </row>
     <row r="208" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="50"/>
-      <c r="F208" s="581"/>
-      <c r="G208" s="582"/>
-      <c r="H208" s="582"/>
-      <c r="I208" s="582"/>
-      <c r="J208" s="583"/>
-      <c r="K208" s="525"/>
-      <c r="L208" s="527"/>
-      <c r="M208" s="525"/>
-      <c r="N208" s="527"/>
-      <c r="O208" s="581"/>
-      <c r="P208" s="582"/>
-      <c r="Q208" s="582"/>
-      <c r="R208" s="582"/>
-      <c r="S208" s="582"/>
-      <c r="T208" s="582"/>
-      <c r="U208" s="582"/>
-      <c r="V208" s="582"/>
-      <c r="W208" s="582"/>
-      <c r="X208" s="582"/>
-      <c r="Y208" s="582"/>
-      <c r="Z208" s="582"/>
-      <c r="AA208" s="582"/>
-      <c r="AB208" s="582"/>
-      <c r="AC208" s="582"/>
-      <c r="AD208" s="582"/>
-      <c r="AE208" s="582"/>
-      <c r="AF208" s="582"/>
-      <c r="AG208" s="582"/>
-      <c r="AH208" s="583"/>
+      <c r="F208" s="632"/>
+      <c r="G208" s="633"/>
+      <c r="H208" s="633"/>
+      <c r="I208" s="633"/>
+      <c r="J208" s="634"/>
+      <c r="K208" s="528"/>
+      <c r="L208" s="530"/>
+      <c r="M208" s="528"/>
+      <c r="N208" s="530"/>
+      <c r="O208" s="632"/>
+      <c r="P208" s="633"/>
+      <c r="Q208" s="633"/>
+      <c r="R208" s="633"/>
+      <c r="S208" s="633"/>
+      <c r="T208" s="633"/>
+      <c r="U208" s="633"/>
+      <c r="V208" s="633"/>
+      <c r="W208" s="633"/>
+      <c r="X208" s="633"/>
+      <c r="Y208" s="633"/>
+      <c r="Z208" s="633"/>
+      <c r="AA208" s="633"/>
+      <c r="AB208" s="633"/>
+      <c r="AC208" s="633"/>
+      <c r="AD208" s="633"/>
+      <c r="AE208" s="633"/>
+      <c r="AF208" s="633"/>
+      <c r="AG208" s="633"/>
+      <c r="AH208" s="634"/>
     </row>
     <row r="209" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="50"/>
-      <c r="F209" s="561"/>
-      <c r="G209" s="565"/>
-      <c r="H209" s="565"/>
-      <c r="I209" s="565"/>
-      <c r="J209" s="562"/>
-      <c r="K209" s="528"/>
-      <c r="L209" s="530"/>
-      <c r="M209" s="528"/>
-      <c r="N209" s="530"/>
-      <c r="O209" s="561"/>
-      <c r="P209" s="565"/>
-      <c r="Q209" s="565"/>
-      <c r="R209" s="565"/>
-      <c r="S209" s="565"/>
-      <c r="T209" s="565"/>
-      <c r="U209" s="565"/>
-      <c r="V209" s="565"/>
-      <c r="W209" s="565"/>
-      <c r="X209" s="565"/>
-      <c r="Y209" s="565"/>
-      <c r="Z209" s="565"/>
-      <c r="AA209" s="565"/>
-      <c r="AB209" s="565"/>
-      <c r="AC209" s="565"/>
-      <c r="AD209" s="565"/>
-      <c r="AE209" s="565"/>
-      <c r="AF209" s="565"/>
-      <c r="AG209" s="565"/>
-      <c r="AH209" s="562"/>
+      <c r="F209" s="617"/>
+      <c r="G209" s="624"/>
+      <c r="H209" s="624"/>
+      <c r="I209" s="624"/>
+      <c r="J209" s="618"/>
+      <c r="K209" s="531"/>
+      <c r="L209" s="533"/>
+      <c r="M209" s="531"/>
+      <c r="N209" s="533"/>
+      <c r="O209" s="617"/>
+      <c r="P209" s="624"/>
+      <c r="Q209" s="624"/>
+      <c r="R209" s="624"/>
+      <c r="S209" s="624"/>
+      <c r="T209" s="624"/>
+      <c r="U209" s="624"/>
+      <c r="V209" s="624"/>
+      <c r="W209" s="624"/>
+      <c r="X209" s="624"/>
+      <c r="Y209" s="624"/>
+      <c r="Z209" s="624"/>
+      <c r="AA209" s="624"/>
+      <c r="AB209" s="624"/>
+      <c r="AC209" s="624"/>
+      <c r="AD209" s="624"/>
+      <c r="AE209" s="624"/>
+      <c r="AF209" s="624"/>
+      <c r="AG209" s="624"/>
+      <c r="AH209" s="618"/>
     </row>
     <row r="210" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="50"/>
-      <c r="F210" s="510" t="s">
+      <c r="F210" s="483" t="s">
         <v>184</v>
       </c>
-      <c r="G210" s="511"/>
-      <c r="H210" s="511"/>
-      <c r="I210" s="511"/>
-      <c r="J210" s="512"/>
-      <c r="K210" s="411" t="s">
+      <c r="G210" s="484"/>
+      <c r="H210" s="484"/>
+      <c r="I210" s="484"/>
+      <c r="J210" s="485"/>
+      <c r="K210" s="449" t="s">
         <v>34</v>
       </c>
-      <c r="L210" s="413"/>
-      <c r="M210" s="411" t="s">
+      <c r="L210" s="451"/>
+      <c r="M210" s="449" t="s">
         <v>35</v>
       </c>
-      <c r="N210" s="413"/>
-      <c r="O210" s="600" t="s">
+      <c r="N210" s="451"/>
+      <c r="O210" s="611" t="s">
         <v>36</v>
       </c>
-      <c r="P210" s="586"/>
-      <c r="Q210" s="586"/>
-      <c r="R210" s="586"/>
-      <c r="S210" s="586"/>
-      <c r="T210" s="586"/>
-      <c r="U210" s="586"/>
-      <c r="V210" s="586"/>
-      <c r="W210" s="586"/>
-      <c r="X210" s="586"/>
-      <c r="Y210" s="586"/>
-      <c r="Z210" s="586"/>
-      <c r="AA210" s="586"/>
-      <c r="AB210" s="586"/>
-      <c r="AC210" s="586"/>
-      <c r="AD210" s="586"/>
-      <c r="AE210" s="586"/>
-      <c r="AF210" s="586"/>
-      <c r="AG210" s="586"/>
-      <c r="AH210" s="587"/>
+      <c r="P210" s="612"/>
+      <c r="Q210" s="612"/>
+      <c r="R210" s="612"/>
+      <c r="S210" s="612"/>
+      <c r="T210" s="612"/>
+      <c r="U210" s="612"/>
+      <c r="V210" s="612"/>
+      <c r="W210" s="612"/>
+      <c r="X210" s="612"/>
+      <c r="Y210" s="612"/>
+      <c r="Z210" s="612"/>
+      <c r="AA210" s="612"/>
+      <c r="AB210" s="612"/>
+      <c r="AC210" s="612"/>
+      <c r="AD210" s="612"/>
+      <c r="AE210" s="612"/>
+      <c r="AF210" s="612"/>
+      <c r="AG210" s="612"/>
+      <c r="AH210" s="613"/>
     </row>
     <row r="211" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="50"/>
-      <c r="F211" s="510" t="s">
+      <c r="F211" s="483" t="s">
         <v>120</v>
       </c>
-      <c r="G211" s="511"/>
-      <c r="H211" s="511"/>
-      <c r="I211" s="511"/>
-      <c r="J211" s="512"/>
-      <c r="K211" s="411" t="s">
+      <c r="G211" s="484"/>
+      <c r="H211" s="484"/>
+      <c r="I211" s="484"/>
+      <c r="J211" s="485"/>
+      <c r="K211" s="449" t="s">
         <v>34</v>
       </c>
-      <c r="L211" s="413"/>
-      <c r="M211" s="598" t="s">
+      <c r="L211" s="451"/>
+      <c r="M211" s="609" t="s">
         <v>32</v>
       </c>
-      <c r="N211" s="599"/>
-      <c r="O211" s="552" t="s">
+      <c r="N211" s="610"/>
+      <c r="O211" s="555" t="s">
         <v>353</v>
       </c>
-      <c r="P211" s="586"/>
-      <c r="Q211" s="586"/>
-      <c r="R211" s="586"/>
-      <c r="S211" s="586"/>
-      <c r="T211" s="586"/>
-      <c r="U211" s="586"/>
-      <c r="V211" s="586"/>
-      <c r="W211" s="586"/>
-      <c r="X211" s="586"/>
-      <c r="Y211" s="586"/>
-      <c r="Z211" s="586"/>
-      <c r="AA211" s="586"/>
-      <c r="AB211" s="586"/>
-      <c r="AC211" s="586"/>
-      <c r="AD211" s="586"/>
-      <c r="AE211" s="586"/>
-      <c r="AF211" s="586"/>
-      <c r="AG211" s="586"/>
-      <c r="AH211" s="587"/>
+      <c r="P211" s="612"/>
+      <c r="Q211" s="612"/>
+      <c r="R211" s="612"/>
+      <c r="S211" s="612"/>
+      <c r="T211" s="612"/>
+      <c r="U211" s="612"/>
+      <c r="V211" s="612"/>
+      <c r="W211" s="612"/>
+      <c r="X211" s="612"/>
+      <c r="Y211" s="612"/>
+      <c r="Z211" s="612"/>
+      <c r="AA211" s="612"/>
+      <c r="AB211" s="612"/>
+      <c r="AC211" s="612"/>
+      <c r="AD211" s="612"/>
+      <c r="AE211" s="612"/>
+      <c r="AF211" s="612"/>
+      <c r="AG211" s="612"/>
+      <c r="AH211" s="613"/>
     </row>
     <row r="212" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="50"/>
-      <c r="F212" s="510" t="s">
+      <c r="F212" s="483" t="s">
         <v>41</v>
       </c>
-      <c r="G212" s="511"/>
-      <c r="H212" s="511"/>
-      <c r="I212" s="511"/>
-      <c r="J212" s="512"/>
-      <c r="K212" s="411" t="s">
+      <c r="G212" s="484"/>
+      <c r="H212" s="484"/>
+      <c r="I212" s="484"/>
+      <c r="J212" s="485"/>
+      <c r="K212" s="449" t="s">
         <v>34</v>
       </c>
-      <c r="L212" s="413"/>
-      <c r="M212" s="598" t="s">
+      <c r="L212" s="451"/>
+      <c r="M212" s="609" t="s">
         <v>32</v>
       </c>
-      <c r="N212" s="599"/>
-      <c r="O212" s="552" t="s">
+      <c r="N212" s="610"/>
+      <c r="O212" s="555" t="s">
         <v>348</v>
       </c>
-      <c r="P212" s="586"/>
-      <c r="Q212" s="586"/>
-      <c r="R212" s="586"/>
-      <c r="S212" s="586"/>
-      <c r="T212" s="586"/>
-      <c r="U212" s="586"/>
-      <c r="V212" s="586"/>
-      <c r="W212" s="586"/>
-      <c r="X212" s="586"/>
-      <c r="Y212" s="586"/>
-      <c r="Z212" s="586"/>
-      <c r="AA212" s="586"/>
-      <c r="AB212" s="586"/>
-      <c r="AC212" s="586"/>
-      <c r="AD212" s="586"/>
-      <c r="AE212" s="586"/>
-      <c r="AF212" s="586"/>
-      <c r="AG212" s="586"/>
-      <c r="AH212" s="587"/>
+      <c r="P212" s="612"/>
+      <c r="Q212" s="612"/>
+      <c r="R212" s="612"/>
+      <c r="S212" s="612"/>
+      <c r="T212" s="612"/>
+      <c r="U212" s="612"/>
+      <c r="V212" s="612"/>
+      <c r="W212" s="612"/>
+      <c r="X212" s="612"/>
+      <c r="Y212" s="612"/>
+      <c r="Z212" s="612"/>
+      <c r="AA212" s="612"/>
+      <c r="AB212" s="612"/>
+      <c r="AC212" s="612"/>
+      <c r="AD212" s="612"/>
+      <c r="AE212" s="612"/>
+      <c r="AF212" s="612"/>
+      <c r="AG212" s="612"/>
+      <c r="AH212" s="613"/>
     </row>
     <row r="213" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="50"/>
-      <c r="F213" s="532" t="s">
+      <c r="F213" s="535" t="s">
         <v>189</v>
       </c>
-      <c r="G213" s="555"/>
-      <c r="H213" s="555"/>
-      <c r="I213" s="555"/>
-      <c r="J213" s="556"/>
-      <c r="K213" s="560" t="s">
+      <c r="G213" s="619"/>
+      <c r="H213" s="619"/>
+      <c r="I213" s="619"/>
+      <c r="J213" s="620"/>
+      <c r="K213" s="614" t="s">
         <v>34</v>
       </c>
-      <c r="L213" s="534"/>
-      <c r="M213" s="563" t="s">
+      <c r="L213" s="537"/>
+      <c r="M213" s="615" t="s">
         <v>35</v>
       </c>
-      <c r="N213" s="564"/>
-      <c r="O213" s="560" t="s">
+      <c r="N213" s="616"/>
+      <c r="O213" s="614" t="s">
         <v>42</v>
       </c>
-      <c r="P213" s="533"/>
-      <c r="Q213" s="533"/>
-      <c r="R213" s="533"/>
-      <c r="S213" s="533"/>
-      <c r="T213" s="533"/>
-      <c r="U213" s="533"/>
-      <c r="V213" s="533"/>
-      <c r="W213" s="533"/>
-      <c r="X213" s="533"/>
-      <c r="Y213" s="533"/>
-      <c r="Z213" s="533"/>
-      <c r="AA213" s="533"/>
-      <c r="AB213" s="533"/>
-      <c r="AC213" s="533"/>
-      <c r="AD213" s="533"/>
-      <c r="AE213" s="533"/>
-      <c r="AF213" s="533"/>
-      <c r="AG213" s="533"/>
-      <c r="AH213" s="534"/>
+      <c r="P213" s="536"/>
+      <c r="Q213" s="536"/>
+      <c r="R213" s="536"/>
+      <c r="S213" s="536"/>
+      <c r="T213" s="536"/>
+      <c r="U213" s="536"/>
+      <c r="V213" s="536"/>
+      <c r="W213" s="536"/>
+      <c r="X213" s="536"/>
+      <c r="Y213" s="536"/>
+      <c r="Z213" s="536"/>
+      <c r="AA213" s="536"/>
+      <c r="AB213" s="536"/>
+      <c r="AC213" s="536"/>
+      <c r="AD213" s="536"/>
+      <c r="AE213" s="536"/>
+      <c r="AF213" s="536"/>
+      <c r="AG213" s="536"/>
+      <c r="AH213" s="537"/>
     </row>
     <row r="214" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="50"/>
-      <c r="F214" s="557"/>
-      <c r="G214" s="558"/>
-      <c r="H214" s="558"/>
-      <c r="I214" s="558"/>
-      <c r="J214" s="559"/>
-      <c r="K214" s="561"/>
-      <c r="L214" s="562"/>
-      <c r="M214" s="561"/>
-      <c r="N214" s="562"/>
-      <c r="O214" s="561"/>
-      <c r="P214" s="565"/>
-      <c r="Q214" s="565"/>
-      <c r="R214" s="565"/>
-      <c r="S214" s="565"/>
-      <c r="T214" s="565"/>
-      <c r="U214" s="565"/>
-      <c r="V214" s="565"/>
-      <c r="W214" s="565"/>
-      <c r="X214" s="565"/>
-      <c r="Y214" s="565"/>
-      <c r="Z214" s="565"/>
-      <c r="AA214" s="565"/>
-      <c r="AB214" s="565"/>
-      <c r="AC214" s="565"/>
-      <c r="AD214" s="565"/>
-      <c r="AE214" s="565"/>
-      <c r="AF214" s="565"/>
-      <c r="AG214" s="565"/>
-      <c r="AH214" s="562"/>
+      <c r="F214" s="621"/>
+      <c r="G214" s="622"/>
+      <c r="H214" s="622"/>
+      <c r="I214" s="622"/>
+      <c r="J214" s="623"/>
+      <c r="K214" s="617"/>
+      <c r="L214" s="618"/>
+      <c r="M214" s="617"/>
+      <c r="N214" s="618"/>
+      <c r="O214" s="617"/>
+      <c r="P214" s="624"/>
+      <c r="Q214" s="624"/>
+      <c r="R214" s="624"/>
+      <c r="S214" s="624"/>
+      <c r="T214" s="624"/>
+      <c r="U214" s="624"/>
+      <c r="V214" s="624"/>
+      <c r="W214" s="624"/>
+      <c r="X214" s="624"/>
+      <c r="Y214" s="624"/>
+      <c r="Z214" s="624"/>
+      <c r="AA214" s="624"/>
+      <c r="AB214" s="624"/>
+      <c r="AC214" s="624"/>
+      <c r="AD214" s="624"/>
+      <c r="AE214" s="624"/>
+      <c r="AF214" s="624"/>
+      <c r="AG214" s="624"/>
+      <c r="AH214" s="618"/>
     </row>
     <row r="215" spans="1:34" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="50"/>
@@ -41953,7 +41953,7 @@
     <row r="239" spans="3:5" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C239" s="289"/>
       <c r="E239" s="54" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="240" spans="3:5" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -43008,6 +43008,118 @@
     </row>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="E158:J158"/>
+    <mergeCell ref="F213:J214"/>
+    <mergeCell ref="K213:L214"/>
+    <mergeCell ref="M213:N214"/>
+    <mergeCell ref="F211:J211"/>
+    <mergeCell ref="O213:AH214"/>
+    <mergeCell ref="F196:J196"/>
+    <mergeCell ref="O187:AH188"/>
+    <mergeCell ref="K210:L210"/>
+    <mergeCell ref="M210:N210"/>
+    <mergeCell ref="O196:AH196"/>
+    <mergeCell ref="O189:AH189"/>
+    <mergeCell ref="O197:AH198"/>
+    <mergeCell ref="O199:AH200"/>
+    <mergeCell ref="O201:AH202"/>
+    <mergeCell ref="O203:AH204"/>
+    <mergeCell ref="O207:AH209"/>
+    <mergeCell ref="M199:N200"/>
+    <mergeCell ref="F197:J198"/>
+    <mergeCell ref="F199:J200"/>
+    <mergeCell ref="F201:J202"/>
+    <mergeCell ref="F203:J204"/>
+    <mergeCell ref="F207:J209"/>
+    <mergeCell ref="O205:AH205"/>
+    <mergeCell ref="M207:N209"/>
+    <mergeCell ref="O206:AH206"/>
+    <mergeCell ref="F205:J205"/>
+    <mergeCell ref="F206:J206"/>
+    <mergeCell ref="F210:J210"/>
+    <mergeCell ref="F169:J169"/>
+    <mergeCell ref="F170:J170"/>
+    <mergeCell ref="F171:J174"/>
+    <mergeCell ref="F175:J175"/>
+    <mergeCell ref="F176:J179"/>
+    <mergeCell ref="K190:L191"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="F186:J186"/>
+    <mergeCell ref="F189:J189"/>
+    <mergeCell ref="F184:J185"/>
+    <mergeCell ref="F187:J188"/>
+    <mergeCell ref="F190:J191"/>
+    <mergeCell ref="F180:J181"/>
+    <mergeCell ref="F182:J183"/>
+    <mergeCell ref="K182:L183"/>
+    <mergeCell ref="K184:L185"/>
+    <mergeCell ref="K176:L179"/>
+    <mergeCell ref="K171:L174"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="M203:N204"/>
+    <mergeCell ref="M212:N212"/>
+    <mergeCell ref="O210:AH210"/>
+    <mergeCell ref="O211:AH211"/>
+    <mergeCell ref="O212:AH212"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="F212:J212"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="K187:L188"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="K212:L212"/>
+    <mergeCell ref="K199:L200"/>
+    <mergeCell ref="K201:L202"/>
+    <mergeCell ref="K206:L206"/>
+    <mergeCell ref="K205:L205"/>
+    <mergeCell ref="K197:L198"/>
+    <mergeCell ref="K207:L209"/>
+    <mergeCell ref="K211:L211"/>
+    <mergeCell ref="M211:N211"/>
+    <mergeCell ref="K203:L204"/>
+    <mergeCell ref="M201:N202"/>
+    <mergeCell ref="M206:N206"/>
+    <mergeCell ref="M205:N205"/>
+    <mergeCell ref="M197:N198"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA155:AH155"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="K152:Z152"/>
+    <mergeCell ref="K153:Z153"/>
+    <mergeCell ref="K196:L196"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="M171:N174"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M176:N179"/>
+    <mergeCell ref="M180:N181"/>
+    <mergeCell ref="M182:N183"/>
+    <mergeCell ref="M184:N185"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="M187:N188"/>
+    <mergeCell ref="M189:N189"/>
+    <mergeCell ref="M190:N191"/>
+    <mergeCell ref="K180:L181"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="AA158:AH158"/>
+    <mergeCell ref="AA157:AH157"/>
+    <mergeCell ref="O171:AH174"/>
+    <mergeCell ref="O175:AH175"/>
+    <mergeCell ref="O176:AH179"/>
+    <mergeCell ref="O190:AH191"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="O180:AH181"/>
+    <mergeCell ref="O182:AH183"/>
+    <mergeCell ref="O184:AH185"/>
+    <mergeCell ref="O186:AH186"/>
+    <mergeCell ref="O169:AH169"/>
+    <mergeCell ref="O170:AH170"/>
     <mergeCell ref="D155:D158"/>
     <mergeCell ref="D154:J154"/>
     <mergeCell ref="E155:J157"/>
@@ -43032,118 +43144,6 @@
     <mergeCell ref="AA151:AH151"/>
     <mergeCell ref="AA152:AH152"/>
     <mergeCell ref="K151:Z151"/>
-    <mergeCell ref="AA158:AH158"/>
-    <mergeCell ref="AA157:AH157"/>
-    <mergeCell ref="O171:AH174"/>
-    <mergeCell ref="O175:AH175"/>
-    <mergeCell ref="O176:AH179"/>
-    <mergeCell ref="O190:AH191"/>
-    <mergeCell ref="K189:L189"/>
-    <mergeCell ref="O180:AH181"/>
-    <mergeCell ref="O182:AH183"/>
-    <mergeCell ref="O184:AH185"/>
-    <mergeCell ref="O186:AH186"/>
-    <mergeCell ref="O169:AH169"/>
-    <mergeCell ref="O170:AH170"/>
-    <mergeCell ref="K196:L196"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="M171:N174"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M176:N179"/>
-    <mergeCell ref="M180:N181"/>
-    <mergeCell ref="M182:N183"/>
-    <mergeCell ref="M184:N185"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="M187:N188"/>
-    <mergeCell ref="M189:N189"/>
-    <mergeCell ref="M190:N191"/>
-    <mergeCell ref="K180:L181"/>
-    <mergeCell ref="K170:L170"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA155:AH155"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="K152:Z152"/>
-    <mergeCell ref="K153:Z153"/>
-    <mergeCell ref="M203:N204"/>
-    <mergeCell ref="M212:N212"/>
-    <mergeCell ref="O210:AH210"/>
-    <mergeCell ref="O211:AH211"/>
-    <mergeCell ref="O212:AH212"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="F212:J212"/>
-    <mergeCell ref="K175:L175"/>
-    <mergeCell ref="K187:L188"/>
-    <mergeCell ref="M196:N196"/>
-    <mergeCell ref="K212:L212"/>
-    <mergeCell ref="K199:L200"/>
-    <mergeCell ref="K201:L202"/>
-    <mergeCell ref="K206:L206"/>
-    <mergeCell ref="K205:L205"/>
-    <mergeCell ref="K197:L198"/>
-    <mergeCell ref="K207:L209"/>
-    <mergeCell ref="K211:L211"/>
-    <mergeCell ref="M211:N211"/>
-    <mergeCell ref="K203:L204"/>
-    <mergeCell ref="M201:N202"/>
-    <mergeCell ref="M206:N206"/>
-    <mergeCell ref="M205:N205"/>
-    <mergeCell ref="M197:N198"/>
-    <mergeCell ref="M207:N209"/>
-    <mergeCell ref="O206:AH206"/>
-    <mergeCell ref="F205:J205"/>
-    <mergeCell ref="F206:J206"/>
-    <mergeCell ref="F210:J210"/>
-    <mergeCell ref="F169:J169"/>
-    <mergeCell ref="F170:J170"/>
-    <mergeCell ref="F171:J174"/>
-    <mergeCell ref="F175:J175"/>
-    <mergeCell ref="F176:J179"/>
-    <mergeCell ref="K190:L191"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="F186:J186"/>
-    <mergeCell ref="F189:J189"/>
-    <mergeCell ref="F184:J185"/>
-    <mergeCell ref="F187:J188"/>
-    <mergeCell ref="F190:J191"/>
-    <mergeCell ref="F180:J181"/>
-    <mergeCell ref="F182:J183"/>
-    <mergeCell ref="K182:L183"/>
-    <mergeCell ref="K184:L185"/>
-    <mergeCell ref="K176:L179"/>
-    <mergeCell ref="K171:L174"/>
-    <mergeCell ref="K169:L169"/>
-    <mergeCell ref="E158:J158"/>
-    <mergeCell ref="F213:J214"/>
-    <mergeCell ref="K213:L214"/>
-    <mergeCell ref="M213:N214"/>
-    <mergeCell ref="F211:J211"/>
-    <mergeCell ref="O213:AH214"/>
-    <mergeCell ref="F196:J196"/>
-    <mergeCell ref="O187:AH188"/>
-    <mergeCell ref="K210:L210"/>
-    <mergeCell ref="M210:N210"/>
-    <mergeCell ref="O196:AH196"/>
-    <mergeCell ref="O189:AH189"/>
-    <mergeCell ref="O197:AH198"/>
-    <mergeCell ref="O199:AH200"/>
-    <mergeCell ref="O201:AH202"/>
-    <mergeCell ref="O203:AH204"/>
-    <mergeCell ref="O207:AH209"/>
-    <mergeCell ref="M199:N200"/>
-    <mergeCell ref="F197:J198"/>
-    <mergeCell ref="F199:J200"/>
-    <mergeCell ref="F201:J202"/>
-    <mergeCell ref="F203:J204"/>
-    <mergeCell ref="F207:J209"/>
-    <mergeCell ref="O205:AH205"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/010_設計標準/UI標準(画面).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/010_設計標準/UI標準(画面).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEADD57-3935-4D6B-BC52-63E93AF6521A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E39ED7-92F3-4622-ABA6-FC3E43121AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7641,7 +7641,7 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="635">
+  <cellXfs count="637">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8805,472 +8805,670 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9288,21 +9486,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9315,33 +9498,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9359,159 +9518,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -24233,12 +24239,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="404">
+      <c r="I25" s="406">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43620</v>
       </c>
-      <c r="J25" s="404"/>
-      <c r="K25" s="404"/>
+      <c r="J25" s="406"/>
+      <c r="K25" s="406"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="3"/>
@@ -24836,57 +24842,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="448" t="s">
+      <c r="A1" s="422" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="440"/>
-      <c r="C1" s="440"/>
-      <c r="D1" s="441"/>
-      <c r="E1" s="442" t="s">
+      <c r="B1" s="414"/>
+      <c r="C1" s="414"/>
+      <c r="D1" s="415"/>
+      <c r="E1" s="416" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="443"/>
-      <c r="G1" s="443"/>
-      <c r="H1" s="443"/>
-      <c r="I1" s="443"/>
-      <c r="J1" s="443"/>
-      <c r="K1" s="443"/>
-      <c r="L1" s="443"/>
-      <c r="M1" s="443"/>
-      <c r="N1" s="444"/>
-      <c r="O1" s="449" t="s">
+      <c r="F1" s="417"/>
+      <c r="G1" s="417"/>
+      <c r="H1" s="417"/>
+      <c r="I1" s="417"/>
+      <c r="J1" s="417"/>
+      <c r="K1" s="417"/>
+      <c r="L1" s="417"/>
+      <c r="M1" s="417"/>
+      <c r="N1" s="418"/>
+      <c r="O1" s="423" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="450"/>
-      <c r="Q1" s="450"/>
-      <c r="R1" s="451"/>
-      <c r="S1" s="458" t="s">
+      <c r="P1" s="424"/>
+      <c r="Q1" s="424"/>
+      <c r="R1" s="425"/>
+      <c r="S1" s="432" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="459"/>
-      <c r="U1" s="459"/>
-      <c r="V1" s="459"/>
-      <c r="W1" s="459"/>
-      <c r="X1" s="459"/>
-      <c r="Y1" s="459"/>
-      <c r="Z1" s="460"/>
-      <c r="AA1" s="439" t="s">
+      <c r="T1" s="433"/>
+      <c r="U1" s="433"/>
+      <c r="V1" s="433"/>
+      <c r="W1" s="433"/>
+      <c r="X1" s="433"/>
+      <c r="Y1" s="433"/>
+      <c r="Z1" s="434"/>
+      <c r="AA1" s="413" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="441"/>
-      <c r="AC1" s="467" t="str">
+      <c r="AB1" s="415"/>
+      <c r="AC1" s="441" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="468"/>
-      <c r="AE1" s="468"/>
-      <c r="AF1" s="469"/>
-      <c r="AG1" s="433">
+      <c r="AD1" s="442"/>
+      <c r="AE1" s="442"/>
+      <c r="AF1" s="443"/>
+      <c r="AG1" s="407">
         <f>IF(D8="","",D8)</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="434"/>
-      <c r="AI1" s="435"/>
+      <c r="AH1" s="408"/>
+      <c r="AI1" s="409"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -24894,53 +24900,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="439" t="s">
+      <c r="A2" s="413" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="440"/>
-      <c r="C2" s="440"/>
-      <c r="D2" s="441"/>
-      <c r="E2" s="442" t="s">
+      <c r="B2" s="414"/>
+      <c r="C2" s="414"/>
+      <c r="D2" s="415"/>
+      <c r="E2" s="416" t="s">
         <v>251</v>
       </c>
-      <c r="F2" s="443"/>
-      <c r="G2" s="443"/>
-      <c r="H2" s="443"/>
-      <c r="I2" s="443"/>
-      <c r="J2" s="443"/>
-      <c r="K2" s="443"/>
-      <c r="L2" s="443"/>
-      <c r="M2" s="443"/>
-      <c r="N2" s="444"/>
-      <c r="O2" s="452"/>
-      <c r="P2" s="453"/>
-      <c r="Q2" s="453"/>
-      <c r="R2" s="454"/>
-      <c r="S2" s="461"/>
-      <c r="T2" s="462"/>
-      <c r="U2" s="462"/>
-      <c r="V2" s="462"/>
-      <c r="W2" s="462"/>
-      <c r="X2" s="462"/>
-      <c r="Y2" s="462"/>
-      <c r="Z2" s="463"/>
-      <c r="AA2" s="439" t="s">
+      <c r="F2" s="417"/>
+      <c r="G2" s="417"/>
+      <c r="H2" s="417"/>
+      <c r="I2" s="417"/>
+      <c r="J2" s="417"/>
+      <c r="K2" s="417"/>
+      <c r="L2" s="417"/>
+      <c r="M2" s="417"/>
+      <c r="N2" s="418"/>
+      <c r="O2" s="426"/>
+      <c r="P2" s="427"/>
+      <c r="Q2" s="427"/>
+      <c r="R2" s="428"/>
+      <c r="S2" s="435"/>
+      <c r="T2" s="436"/>
+      <c r="U2" s="436"/>
+      <c r="V2" s="436"/>
+      <c r="W2" s="436"/>
+      <c r="X2" s="436"/>
+      <c r="Y2" s="436"/>
+      <c r="Z2" s="437"/>
+      <c r="AA2" s="413" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="441"/>
-      <c r="AC2" s="445" t="str">
+      <c r="AB2" s="415"/>
+      <c r="AC2" s="419" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="446"/>
-      <c r="AE2" s="446"/>
-      <c r="AF2" s="447"/>
-      <c r="AG2" s="433" t="str">
+      <c r="AD2" s="420"/>
+      <c r="AE2" s="420"/>
+      <c r="AF2" s="421"/>
+      <c r="AG2" s="407" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="434"/>
-      <c r="AI2" s="435"/>
+      <c r="AH2" s="408"/>
+      <c r="AI2" s="409"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -24948,43 +24954,43 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="439" t="s">
+      <c r="A3" s="413" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="440"/>
-      <c r="C3" s="440"/>
-      <c r="D3" s="441"/>
-      <c r="E3" s="470"/>
-      <c r="F3" s="443"/>
-      <c r="G3" s="443"/>
-      <c r="H3" s="443"/>
-      <c r="I3" s="443"/>
-      <c r="J3" s="443"/>
-      <c r="K3" s="443"/>
-      <c r="L3" s="443"/>
-      <c r="M3" s="443"/>
-      <c r="N3" s="444"/>
-      <c r="O3" s="455"/>
-      <c r="P3" s="456"/>
-      <c r="Q3" s="456"/>
-      <c r="R3" s="457"/>
-      <c r="S3" s="464"/>
-      <c r="T3" s="465"/>
-      <c r="U3" s="465"/>
-      <c r="V3" s="465"/>
-      <c r="W3" s="465"/>
-      <c r="X3" s="465"/>
-      <c r="Y3" s="465"/>
-      <c r="Z3" s="466"/>
-      <c r="AA3" s="439"/>
-      <c r="AB3" s="441"/>
-      <c r="AC3" s="467"/>
-      <c r="AD3" s="468"/>
-      <c r="AE3" s="468"/>
-      <c r="AF3" s="469"/>
-      <c r="AG3" s="433"/>
-      <c r="AH3" s="434"/>
-      <c r="AI3" s="435"/>
+      <c r="B3" s="414"/>
+      <c r="C3" s="414"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="444"/>
+      <c r="F3" s="417"/>
+      <c r="G3" s="417"/>
+      <c r="H3" s="417"/>
+      <c r="I3" s="417"/>
+      <c r="J3" s="417"/>
+      <c r="K3" s="417"/>
+      <c r="L3" s="417"/>
+      <c r="M3" s="417"/>
+      <c r="N3" s="418"/>
+      <c r="O3" s="429"/>
+      <c r="P3" s="430"/>
+      <c r="Q3" s="430"/>
+      <c r="R3" s="431"/>
+      <c r="S3" s="438"/>
+      <c r="T3" s="439"/>
+      <c r="U3" s="439"/>
+      <c r="V3" s="439"/>
+      <c r="W3" s="439"/>
+      <c r="X3" s="439"/>
+      <c r="Y3" s="439"/>
+      <c r="Z3" s="440"/>
+      <c r="AA3" s="413"/>
+      <c r="AB3" s="415"/>
+      <c r="AC3" s="441"/>
+      <c r="AD3" s="442"/>
+      <c r="AE3" s="442"/>
+      <c r="AF3" s="443"/>
+      <c r="AG3" s="407"/>
+      <c r="AH3" s="408"/>
+      <c r="AI3" s="409"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -25021,1034 +25027,1190 @@
       <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="436" t="s">
+      <c r="B7" s="410" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="437"/>
-      <c r="D7" s="436" t="s">
+      <c r="C7" s="411"/>
+      <c r="D7" s="410" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="438"/>
-      <c r="F7" s="437"/>
-      <c r="G7" s="436" t="s">
+      <c r="E7" s="412"/>
+      <c r="F7" s="411"/>
+      <c r="G7" s="410" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="438"/>
-      <c r="I7" s="437"/>
-      <c r="J7" s="436" t="s">
+      <c r="H7" s="412"/>
+      <c r="I7" s="411"/>
+      <c r="J7" s="410" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="438"/>
-      <c r="L7" s="438"/>
-      <c r="M7" s="438"/>
-      <c r="N7" s="438"/>
-      <c r="O7" s="438"/>
-      <c r="P7" s="437"/>
-      <c r="Q7" s="436" t="s">
+      <c r="K7" s="412"/>
+      <c r="L7" s="412"/>
+      <c r="M7" s="412"/>
+      <c r="N7" s="412"/>
+      <c r="O7" s="412"/>
+      <c r="P7" s="411"/>
+      <c r="Q7" s="410" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="438"/>
-      <c r="S7" s="438"/>
-      <c r="T7" s="438"/>
-      <c r="U7" s="438"/>
-      <c r="V7" s="438"/>
-      <c r="W7" s="438"/>
-      <c r="X7" s="438"/>
-      <c r="Y7" s="438"/>
-      <c r="Z7" s="438"/>
-      <c r="AA7" s="438"/>
-      <c r="AB7" s="438"/>
-      <c r="AC7" s="438"/>
-      <c r="AD7" s="438"/>
-      <c r="AE7" s="437"/>
-      <c r="AF7" s="436" t="s">
+      <c r="R7" s="412"/>
+      <c r="S7" s="412"/>
+      <c r="T7" s="412"/>
+      <c r="U7" s="412"/>
+      <c r="V7" s="412"/>
+      <c r="W7" s="412"/>
+      <c r="X7" s="412"/>
+      <c r="Y7" s="412"/>
+      <c r="Z7" s="412"/>
+      <c r="AA7" s="412"/>
+      <c r="AB7" s="412"/>
+      <c r="AC7" s="412"/>
+      <c r="AD7" s="412"/>
+      <c r="AE7" s="411"/>
+      <c r="AF7" s="410" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="438"/>
-      <c r="AH7" s="438"/>
-      <c r="AI7" s="437"/>
+      <c r="AG7" s="412"/>
+      <c r="AH7" s="412"/>
+      <c r="AI7" s="411"/>
     </row>
     <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="140">
         <v>1</v>
       </c>
-      <c r="B8" s="418" t="s">
+      <c r="B8" s="457" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="419"/>
-      <c r="D8" s="420">
+      <c r="C8" s="458"/>
+      <c r="D8" s="459">
         <v>43620</v>
       </c>
-      <c r="E8" s="421"/>
-      <c r="F8" s="422"/>
-      <c r="G8" s="423" t="s">
+      <c r="E8" s="460"/>
+      <c r="F8" s="461"/>
+      <c r="G8" s="462" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="424"/>
-      <c r="I8" s="425"/>
-      <c r="J8" s="426" t="s">
+      <c r="H8" s="463"/>
+      <c r="I8" s="464"/>
+      <c r="J8" s="465" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="427"/>
-      <c r="L8" s="427"/>
-      <c r="M8" s="427"/>
-      <c r="N8" s="427"/>
-      <c r="O8" s="427"/>
-      <c r="P8" s="428"/>
-      <c r="Q8" s="429" t="s">
+      <c r="K8" s="466"/>
+      <c r="L8" s="466"/>
+      <c r="M8" s="466"/>
+      <c r="N8" s="466"/>
+      <c r="O8" s="466"/>
+      <c r="P8" s="467"/>
+      <c r="Q8" s="468" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="430"/>
-      <c r="S8" s="430"/>
-      <c r="T8" s="430"/>
-      <c r="U8" s="430"/>
-      <c r="V8" s="430"/>
-      <c r="W8" s="430"/>
-      <c r="X8" s="430"/>
-      <c r="Y8" s="430"/>
-      <c r="Z8" s="430"/>
-      <c r="AA8" s="430"/>
-      <c r="AB8" s="430"/>
-      <c r="AC8" s="430"/>
-      <c r="AD8" s="430"/>
-      <c r="AE8" s="431"/>
-      <c r="AF8" s="432" t="s">
+      <c r="R8" s="469"/>
+      <c r="S8" s="469"/>
+      <c r="T8" s="469"/>
+      <c r="U8" s="469"/>
+      <c r="V8" s="469"/>
+      <c r="W8" s="469"/>
+      <c r="X8" s="469"/>
+      <c r="Y8" s="469"/>
+      <c r="Z8" s="469"/>
+      <c r="AA8" s="469"/>
+      <c r="AB8" s="469"/>
+      <c r="AC8" s="469"/>
+      <c r="AD8" s="469"/>
+      <c r="AE8" s="470"/>
+      <c r="AF8" s="471" t="s">
         <v>471</v>
       </c>
-      <c r="AG8" s="427"/>
-      <c r="AH8" s="427"/>
-      <c r="AI8" s="428"/>
+      <c r="AG8" s="466"/>
+      <c r="AH8" s="466"/>
+      <c r="AI8" s="467"/>
     </row>
     <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="139"/>
-      <c r="B9" s="405"/>
-      <c r="C9" s="406"/>
-      <c r="D9" s="407"/>
-      <c r="E9" s="408"/>
-      <c r="F9" s="409"/>
-      <c r="G9" s="407"/>
-      <c r="H9" s="410"/>
-      <c r="I9" s="406"/>
-      <c r="J9" s="411"/>
-      <c r="K9" s="412"/>
-      <c r="L9" s="412"/>
-      <c r="M9" s="412"/>
-      <c r="N9" s="412"/>
-      <c r="O9" s="412"/>
-      <c r="P9" s="413"/>
-      <c r="Q9" s="414"/>
-      <c r="R9" s="415"/>
-      <c r="S9" s="415"/>
-      <c r="T9" s="415"/>
-      <c r="U9" s="415"/>
-      <c r="V9" s="415"/>
-      <c r="W9" s="415"/>
-      <c r="X9" s="415"/>
-      <c r="Y9" s="415"/>
-      <c r="Z9" s="415"/>
-      <c r="AA9" s="415"/>
-      <c r="AB9" s="415"/>
-      <c r="AC9" s="415"/>
-      <c r="AD9" s="415"/>
-      <c r="AE9" s="416"/>
-      <c r="AF9" s="411"/>
-      <c r="AG9" s="412"/>
-      <c r="AH9" s="412"/>
-      <c r="AI9" s="413"/>
+      <c r="B9" s="445"/>
+      <c r="C9" s="446"/>
+      <c r="D9" s="447"/>
+      <c r="E9" s="448"/>
+      <c r="F9" s="449"/>
+      <c r="G9" s="447"/>
+      <c r="H9" s="450"/>
+      <c r="I9" s="446"/>
+      <c r="J9" s="451"/>
+      <c r="K9" s="452"/>
+      <c r="L9" s="452"/>
+      <c r="M9" s="452"/>
+      <c r="N9" s="452"/>
+      <c r="O9" s="452"/>
+      <c r="P9" s="453"/>
+      <c r="Q9" s="454"/>
+      <c r="R9" s="455"/>
+      <c r="S9" s="455"/>
+      <c r="T9" s="455"/>
+      <c r="U9" s="455"/>
+      <c r="V9" s="455"/>
+      <c r="W9" s="455"/>
+      <c r="X9" s="455"/>
+      <c r="Y9" s="455"/>
+      <c r="Z9" s="455"/>
+      <c r="AA9" s="455"/>
+      <c r="AB9" s="455"/>
+      <c r="AC9" s="455"/>
+      <c r="AD9" s="455"/>
+      <c r="AE9" s="456"/>
+      <c r="AF9" s="451"/>
+      <c r="AG9" s="452"/>
+      <c r="AH9" s="452"/>
+      <c r="AI9" s="453"/>
     </row>
     <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="139"/>
-      <c r="B10" s="405"/>
-      <c r="C10" s="406"/>
-      <c r="D10" s="407"/>
-      <c r="E10" s="408"/>
-      <c r="F10" s="409"/>
-      <c r="G10" s="405"/>
-      <c r="H10" s="410"/>
-      <c r="I10" s="406"/>
-      <c r="J10" s="411"/>
-      <c r="K10" s="412"/>
-      <c r="L10" s="412"/>
-      <c r="M10" s="412"/>
-      <c r="N10" s="412"/>
-      <c r="O10" s="412"/>
-      <c r="P10" s="413"/>
-      <c r="Q10" s="414"/>
-      <c r="R10" s="415"/>
-      <c r="S10" s="415"/>
-      <c r="T10" s="415"/>
-      <c r="U10" s="415"/>
-      <c r="V10" s="415"/>
-      <c r="W10" s="415"/>
-      <c r="X10" s="415"/>
-      <c r="Y10" s="415"/>
-      <c r="Z10" s="415"/>
-      <c r="AA10" s="415"/>
-      <c r="AB10" s="415"/>
-      <c r="AC10" s="415"/>
-      <c r="AD10" s="415"/>
-      <c r="AE10" s="416"/>
-      <c r="AF10" s="411"/>
-      <c r="AG10" s="412"/>
-      <c r="AH10" s="412"/>
-      <c r="AI10" s="413"/>
+      <c r="B10" s="445"/>
+      <c r="C10" s="446"/>
+      <c r="D10" s="447"/>
+      <c r="E10" s="448"/>
+      <c r="F10" s="449"/>
+      <c r="G10" s="445"/>
+      <c r="H10" s="450"/>
+      <c r="I10" s="446"/>
+      <c r="J10" s="451"/>
+      <c r="K10" s="452"/>
+      <c r="L10" s="452"/>
+      <c r="M10" s="452"/>
+      <c r="N10" s="452"/>
+      <c r="O10" s="452"/>
+      <c r="P10" s="453"/>
+      <c r="Q10" s="454"/>
+      <c r="R10" s="455"/>
+      <c r="S10" s="455"/>
+      <c r="T10" s="455"/>
+      <c r="U10" s="455"/>
+      <c r="V10" s="455"/>
+      <c r="W10" s="455"/>
+      <c r="X10" s="455"/>
+      <c r="Y10" s="455"/>
+      <c r="Z10" s="455"/>
+      <c r="AA10" s="455"/>
+      <c r="AB10" s="455"/>
+      <c r="AC10" s="455"/>
+      <c r="AD10" s="455"/>
+      <c r="AE10" s="456"/>
+      <c r="AF10" s="451"/>
+      <c r="AG10" s="452"/>
+      <c r="AH10" s="452"/>
+      <c r="AI10" s="453"/>
     </row>
     <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="139"/>
-      <c r="B11" s="405"/>
-      <c r="C11" s="406"/>
-      <c r="D11" s="407"/>
-      <c r="E11" s="408"/>
-      <c r="F11" s="409"/>
-      <c r="G11" s="405"/>
-      <c r="H11" s="410"/>
-      <c r="I11" s="406"/>
-      <c r="J11" s="411"/>
-      <c r="K11" s="412"/>
-      <c r="L11" s="412"/>
-      <c r="M11" s="412"/>
-      <c r="N11" s="412"/>
-      <c r="O11" s="412"/>
-      <c r="P11" s="413"/>
-      <c r="Q11" s="414"/>
-      <c r="R11" s="415"/>
-      <c r="S11" s="415"/>
-      <c r="T11" s="415"/>
-      <c r="U11" s="415"/>
-      <c r="V11" s="415"/>
-      <c r="W11" s="415"/>
-      <c r="X11" s="415"/>
-      <c r="Y11" s="415"/>
-      <c r="Z11" s="415"/>
-      <c r="AA11" s="415"/>
-      <c r="AB11" s="415"/>
-      <c r="AC11" s="415"/>
-      <c r="AD11" s="415"/>
-      <c r="AE11" s="416"/>
-      <c r="AF11" s="411"/>
-      <c r="AG11" s="412"/>
-      <c r="AH11" s="412"/>
-      <c r="AI11" s="413"/>
+      <c r="B11" s="445"/>
+      <c r="C11" s="446"/>
+      <c r="D11" s="447"/>
+      <c r="E11" s="448"/>
+      <c r="F11" s="449"/>
+      <c r="G11" s="445"/>
+      <c r="H11" s="450"/>
+      <c r="I11" s="446"/>
+      <c r="J11" s="451"/>
+      <c r="K11" s="452"/>
+      <c r="L11" s="452"/>
+      <c r="M11" s="452"/>
+      <c r="N11" s="452"/>
+      <c r="O11" s="452"/>
+      <c r="P11" s="453"/>
+      <c r="Q11" s="454"/>
+      <c r="R11" s="455"/>
+      <c r="S11" s="455"/>
+      <c r="T11" s="455"/>
+      <c r="U11" s="455"/>
+      <c r="V11" s="455"/>
+      <c r="W11" s="455"/>
+      <c r="X11" s="455"/>
+      <c r="Y11" s="455"/>
+      <c r="Z11" s="455"/>
+      <c r="AA11" s="455"/>
+      <c r="AB11" s="455"/>
+      <c r="AC11" s="455"/>
+      <c r="AD11" s="455"/>
+      <c r="AE11" s="456"/>
+      <c r="AF11" s="451"/>
+      <c r="AG11" s="452"/>
+      <c r="AH11" s="452"/>
+      <c r="AI11" s="453"/>
     </row>
     <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="139"/>
-      <c r="B12" s="405"/>
-      <c r="C12" s="406"/>
-      <c r="D12" s="407"/>
-      <c r="E12" s="408"/>
-      <c r="F12" s="409"/>
-      <c r="G12" s="405"/>
-      <c r="H12" s="410"/>
-      <c r="I12" s="406"/>
-      <c r="J12" s="411"/>
-      <c r="K12" s="412"/>
-      <c r="L12" s="412"/>
-      <c r="M12" s="412"/>
-      <c r="N12" s="412"/>
-      <c r="O12" s="412"/>
-      <c r="P12" s="413"/>
-      <c r="Q12" s="414"/>
-      <c r="R12" s="415"/>
-      <c r="S12" s="415"/>
-      <c r="T12" s="415"/>
-      <c r="U12" s="415"/>
-      <c r="V12" s="415"/>
-      <c r="W12" s="415"/>
-      <c r="X12" s="415"/>
-      <c r="Y12" s="415"/>
-      <c r="Z12" s="415"/>
-      <c r="AA12" s="415"/>
-      <c r="AB12" s="415"/>
-      <c r="AC12" s="415"/>
-      <c r="AD12" s="415"/>
-      <c r="AE12" s="416"/>
-      <c r="AF12" s="411"/>
-      <c r="AG12" s="412"/>
-      <c r="AH12" s="412"/>
-      <c r="AI12" s="413"/>
+      <c r="B12" s="445"/>
+      <c r="C12" s="446"/>
+      <c r="D12" s="447"/>
+      <c r="E12" s="448"/>
+      <c r="F12" s="449"/>
+      <c r="G12" s="445"/>
+      <c r="H12" s="450"/>
+      <c r="I12" s="446"/>
+      <c r="J12" s="451"/>
+      <c r="K12" s="452"/>
+      <c r="L12" s="452"/>
+      <c r="M12" s="452"/>
+      <c r="N12" s="452"/>
+      <c r="O12" s="452"/>
+      <c r="P12" s="453"/>
+      <c r="Q12" s="454"/>
+      <c r="R12" s="455"/>
+      <c r="S12" s="455"/>
+      <c r="T12" s="455"/>
+      <c r="U12" s="455"/>
+      <c r="V12" s="455"/>
+      <c r="W12" s="455"/>
+      <c r="X12" s="455"/>
+      <c r="Y12" s="455"/>
+      <c r="Z12" s="455"/>
+      <c r="AA12" s="455"/>
+      <c r="AB12" s="455"/>
+      <c r="AC12" s="455"/>
+      <c r="AD12" s="455"/>
+      <c r="AE12" s="456"/>
+      <c r="AF12" s="451"/>
+      <c r="AG12" s="452"/>
+      <c r="AH12" s="452"/>
+      <c r="AI12" s="453"/>
     </row>
     <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="139"/>
-      <c r="B13" s="405"/>
-      <c r="C13" s="406"/>
-      <c r="D13" s="407"/>
-      <c r="E13" s="408"/>
-      <c r="F13" s="409"/>
-      <c r="G13" s="405"/>
-      <c r="H13" s="410"/>
-      <c r="I13" s="406"/>
-      <c r="J13" s="411"/>
-      <c r="K13" s="412"/>
-      <c r="L13" s="412"/>
-      <c r="M13" s="412"/>
-      <c r="N13" s="412"/>
-      <c r="O13" s="412"/>
-      <c r="P13" s="413"/>
-      <c r="Q13" s="414"/>
-      <c r="R13" s="415"/>
-      <c r="S13" s="415"/>
-      <c r="T13" s="415"/>
-      <c r="U13" s="415"/>
-      <c r="V13" s="415"/>
-      <c r="W13" s="415"/>
-      <c r="X13" s="415"/>
-      <c r="Y13" s="415"/>
-      <c r="Z13" s="415"/>
-      <c r="AA13" s="415"/>
-      <c r="AB13" s="415"/>
-      <c r="AC13" s="415"/>
-      <c r="AD13" s="415"/>
-      <c r="AE13" s="416"/>
-      <c r="AF13" s="411"/>
-      <c r="AG13" s="412"/>
-      <c r="AH13" s="412"/>
-      <c r="AI13" s="413"/>
+      <c r="B13" s="445"/>
+      <c r="C13" s="446"/>
+      <c r="D13" s="447"/>
+      <c r="E13" s="448"/>
+      <c r="F13" s="449"/>
+      <c r="G13" s="445"/>
+      <c r="H13" s="450"/>
+      <c r="I13" s="446"/>
+      <c r="J13" s="451"/>
+      <c r="K13" s="452"/>
+      <c r="L13" s="452"/>
+      <c r="M13" s="452"/>
+      <c r="N13" s="452"/>
+      <c r="O13" s="452"/>
+      <c r="P13" s="453"/>
+      <c r="Q13" s="454"/>
+      <c r="R13" s="455"/>
+      <c r="S13" s="455"/>
+      <c r="T13" s="455"/>
+      <c r="U13" s="455"/>
+      <c r="V13" s="455"/>
+      <c r="W13" s="455"/>
+      <c r="X13" s="455"/>
+      <c r="Y13" s="455"/>
+      <c r="Z13" s="455"/>
+      <c r="AA13" s="455"/>
+      <c r="AB13" s="455"/>
+      <c r="AC13" s="455"/>
+      <c r="AD13" s="455"/>
+      <c r="AE13" s="456"/>
+      <c r="AF13" s="451"/>
+      <c r="AG13" s="452"/>
+      <c r="AH13" s="452"/>
+      <c r="AI13" s="453"/>
     </row>
     <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="139"/>
-      <c r="B14" s="405"/>
-      <c r="C14" s="406"/>
-      <c r="D14" s="407"/>
-      <c r="E14" s="408"/>
-      <c r="F14" s="409"/>
-      <c r="G14" s="405"/>
-      <c r="H14" s="410"/>
-      <c r="I14" s="406"/>
-      <c r="J14" s="411"/>
-      <c r="K14" s="412"/>
-      <c r="L14" s="412"/>
-      <c r="M14" s="412"/>
-      <c r="N14" s="412"/>
-      <c r="O14" s="412"/>
-      <c r="P14" s="413"/>
-      <c r="Q14" s="414"/>
-      <c r="R14" s="415"/>
-      <c r="S14" s="415"/>
-      <c r="T14" s="415"/>
-      <c r="U14" s="415"/>
-      <c r="V14" s="415"/>
-      <c r="W14" s="415"/>
-      <c r="X14" s="415"/>
-      <c r="Y14" s="415"/>
-      <c r="Z14" s="415"/>
-      <c r="AA14" s="415"/>
-      <c r="AB14" s="415"/>
-      <c r="AC14" s="415"/>
-      <c r="AD14" s="415"/>
-      <c r="AE14" s="416"/>
-      <c r="AF14" s="411"/>
-      <c r="AG14" s="412"/>
-      <c r="AH14" s="412"/>
-      <c r="AI14" s="413"/>
+      <c r="B14" s="445"/>
+      <c r="C14" s="446"/>
+      <c r="D14" s="447"/>
+      <c r="E14" s="448"/>
+      <c r="F14" s="449"/>
+      <c r="G14" s="445"/>
+      <c r="H14" s="450"/>
+      <c r="I14" s="446"/>
+      <c r="J14" s="451"/>
+      <c r="K14" s="452"/>
+      <c r="L14" s="452"/>
+      <c r="M14" s="452"/>
+      <c r="N14" s="452"/>
+      <c r="O14" s="452"/>
+      <c r="P14" s="453"/>
+      <c r="Q14" s="454"/>
+      <c r="R14" s="455"/>
+      <c r="S14" s="455"/>
+      <c r="T14" s="455"/>
+      <c r="U14" s="455"/>
+      <c r="V14" s="455"/>
+      <c r="W14" s="455"/>
+      <c r="X14" s="455"/>
+      <c r="Y14" s="455"/>
+      <c r="Z14" s="455"/>
+      <c r="AA14" s="455"/>
+      <c r="AB14" s="455"/>
+      <c r="AC14" s="455"/>
+      <c r="AD14" s="455"/>
+      <c r="AE14" s="456"/>
+      <c r="AF14" s="451"/>
+      <c r="AG14" s="452"/>
+      <c r="AH14" s="452"/>
+      <c r="AI14" s="453"/>
     </row>
     <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="139"/>
-      <c r="B15" s="405"/>
-      <c r="C15" s="406"/>
-      <c r="D15" s="407"/>
-      <c r="E15" s="408"/>
-      <c r="F15" s="409"/>
-      <c r="G15" s="405"/>
-      <c r="H15" s="410"/>
-      <c r="I15" s="406"/>
-      <c r="J15" s="411"/>
-      <c r="K15" s="412"/>
-      <c r="L15" s="412"/>
-      <c r="M15" s="412"/>
-      <c r="N15" s="412"/>
-      <c r="O15" s="412"/>
-      <c r="P15" s="413"/>
-      <c r="Q15" s="414"/>
-      <c r="R15" s="415"/>
-      <c r="S15" s="415"/>
-      <c r="T15" s="415"/>
-      <c r="U15" s="415"/>
-      <c r="V15" s="415"/>
-      <c r="W15" s="415"/>
-      <c r="X15" s="415"/>
-      <c r="Y15" s="415"/>
-      <c r="Z15" s="415"/>
-      <c r="AA15" s="415"/>
-      <c r="AB15" s="415"/>
-      <c r="AC15" s="415"/>
-      <c r="AD15" s="415"/>
-      <c r="AE15" s="416"/>
-      <c r="AF15" s="411"/>
-      <c r="AG15" s="412"/>
-      <c r="AH15" s="412"/>
-      <c r="AI15" s="413"/>
+      <c r="B15" s="445"/>
+      <c r="C15" s="446"/>
+      <c r="D15" s="447"/>
+      <c r="E15" s="448"/>
+      <c r="F15" s="449"/>
+      <c r="G15" s="445"/>
+      <c r="H15" s="450"/>
+      <c r="I15" s="446"/>
+      <c r="J15" s="451"/>
+      <c r="K15" s="452"/>
+      <c r="L15" s="452"/>
+      <c r="M15" s="452"/>
+      <c r="N15" s="452"/>
+      <c r="O15" s="452"/>
+      <c r="P15" s="453"/>
+      <c r="Q15" s="454"/>
+      <c r="R15" s="455"/>
+      <c r="S15" s="455"/>
+      <c r="T15" s="455"/>
+      <c r="U15" s="455"/>
+      <c r="V15" s="455"/>
+      <c r="W15" s="455"/>
+      <c r="X15" s="455"/>
+      <c r="Y15" s="455"/>
+      <c r="Z15" s="455"/>
+      <c r="AA15" s="455"/>
+      <c r="AB15" s="455"/>
+      <c r="AC15" s="455"/>
+      <c r="AD15" s="455"/>
+      <c r="AE15" s="456"/>
+      <c r="AF15" s="451"/>
+      <c r="AG15" s="452"/>
+      <c r="AH15" s="452"/>
+      <c r="AI15" s="453"/>
     </row>
     <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="139"/>
-      <c r="B16" s="405"/>
-      <c r="C16" s="406"/>
-      <c r="D16" s="407"/>
-      <c r="E16" s="408"/>
-      <c r="F16" s="409"/>
-      <c r="G16" s="405"/>
-      <c r="H16" s="410"/>
-      <c r="I16" s="406"/>
-      <c r="J16" s="411"/>
-      <c r="K16" s="412"/>
-      <c r="L16" s="412"/>
-      <c r="M16" s="412"/>
-      <c r="N16" s="412"/>
-      <c r="O16" s="412"/>
-      <c r="P16" s="413"/>
-      <c r="Q16" s="414"/>
-      <c r="R16" s="415"/>
-      <c r="S16" s="415"/>
-      <c r="T16" s="415"/>
-      <c r="U16" s="415"/>
-      <c r="V16" s="415"/>
-      <c r="W16" s="415"/>
-      <c r="X16" s="415"/>
-      <c r="Y16" s="415"/>
-      <c r="Z16" s="415"/>
-      <c r="AA16" s="415"/>
-      <c r="AB16" s="415"/>
-      <c r="AC16" s="415"/>
-      <c r="AD16" s="415"/>
-      <c r="AE16" s="416"/>
-      <c r="AF16" s="411"/>
-      <c r="AG16" s="412"/>
-      <c r="AH16" s="412"/>
-      <c r="AI16" s="413"/>
+      <c r="B16" s="445"/>
+      <c r="C16" s="446"/>
+      <c r="D16" s="447"/>
+      <c r="E16" s="448"/>
+      <c r="F16" s="449"/>
+      <c r="G16" s="445"/>
+      <c r="H16" s="450"/>
+      <c r="I16" s="446"/>
+      <c r="J16" s="451"/>
+      <c r="K16" s="452"/>
+      <c r="L16" s="452"/>
+      <c r="M16" s="452"/>
+      <c r="N16" s="452"/>
+      <c r="O16" s="452"/>
+      <c r="P16" s="453"/>
+      <c r="Q16" s="454"/>
+      <c r="R16" s="455"/>
+      <c r="S16" s="455"/>
+      <c r="T16" s="455"/>
+      <c r="U16" s="455"/>
+      <c r="V16" s="455"/>
+      <c r="W16" s="455"/>
+      <c r="X16" s="455"/>
+      <c r="Y16" s="455"/>
+      <c r="Z16" s="455"/>
+      <c r="AA16" s="455"/>
+      <c r="AB16" s="455"/>
+      <c r="AC16" s="455"/>
+      <c r="AD16" s="455"/>
+      <c r="AE16" s="456"/>
+      <c r="AF16" s="451"/>
+      <c r="AG16" s="452"/>
+      <c r="AH16" s="452"/>
+      <c r="AI16" s="453"/>
     </row>
     <row r="17" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="139"/>
-      <c r="B17" s="405"/>
-      <c r="C17" s="406"/>
-      <c r="D17" s="407"/>
-      <c r="E17" s="408"/>
-      <c r="F17" s="409"/>
-      <c r="G17" s="405"/>
-      <c r="H17" s="410"/>
-      <c r="I17" s="406"/>
-      <c r="J17" s="411"/>
-      <c r="K17" s="412"/>
-      <c r="L17" s="412"/>
-      <c r="M17" s="412"/>
-      <c r="N17" s="412"/>
-      <c r="O17" s="412"/>
-      <c r="P17" s="413"/>
-      <c r="Q17" s="414"/>
-      <c r="R17" s="415"/>
-      <c r="S17" s="415"/>
-      <c r="T17" s="415"/>
-      <c r="U17" s="415"/>
-      <c r="V17" s="415"/>
-      <c r="W17" s="415"/>
-      <c r="X17" s="415"/>
-      <c r="Y17" s="415"/>
-      <c r="Z17" s="415"/>
-      <c r="AA17" s="415"/>
-      <c r="AB17" s="415"/>
-      <c r="AC17" s="415"/>
-      <c r="AD17" s="415"/>
-      <c r="AE17" s="416"/>
-      <c r="AF17" s="411"/>
-      <c r="AG17" s="412"/>
-      <c r="AH17" s="412"/>
-      <c r="AI17" s="413"/>
+      <c r="B17" s="445"/>
+      <c r="C17" s="446"/>
+      <c r="D17" s="447"/>
+      <c r="E17" s="448"/>
+      <c r="F17" s="449"/>
+      <c r="G17" s="445"/>
+      <c r="H17" s="450"/>
+      <c r="I17" s="446"/>
+      <c r="J17" s="451"/>
+      <c r="K17" s="452"/>
+      <c r="L17" s="452"/>
+      <c r="M17" s="452"/>
+      <c r="N17" s="452"/>
+      <c r="O17" s="452"/>
+      <c r="P17" s="453"/>
+      <c r="Q17" s="454"/>
+      <c r="R17" s="455"/>
+      <c r="S17" s="455"/>
+      <c r="T17" s="455"/>
+      <c r="U17" s="455"/>
+      <c r="V17" s="455"/>
+      <c r="W17" s="455"/>
+      <c r="X17" s="455"/>
+      <c r="Y17" s="455"/>
+      <c r="Z17" s="455"/>
+      <c r="AA17" s="455"/>
+      <c r="AB17" s="455"/>
+      <c r="AC17" s="455"/>
+      <c r="AD17" s="455"/>
+      <c r="AE17" s="456"/>
+      <c r="AF17" s="451"/>
+      <c r="AG17" s="452"/>
+      <c r="AH17" s="452"/>
+      <c r="AI17" s="453"/>
     </row>
     <row r="18" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="139"/>
-      <c r="B18" s="405"/>
-      <c r="C18" s="406"/>
-      <c r="D18" s="407"/>
-      <c r="E18" s="408"/>
-      <c r="F18" s="409"/>
-      <c r="G18" s="405"/>
-      <c r="H18" s="410"/>
-      <c r="I18" s="406"/>
-      <c r="J18" s="411"/>
-      <c r="K18" s="412"/>
-      <c r="L18" s="412"/>
-      <c r="M18" s="412"/>
-      <c r="N18" s="412"/>
-      <c r="O18" s="412"/>
-      <c r="P18" s="413"/>
-      <c r="Q18" s="414"/>
-      <c r="R18" s="415"/>
-      <c r="S18" s="415"/>
-      <c r="T18" s="415"/>
-      <c r="U18" s="415"/>
-      <c r="V18" s="415"/>
-      <c r="W18" s="415"/>
-      <c r="X18" s="415"/>
-      <c r="Y18" s="415"/>
-      <c r="Z18" s="415"/>
-      <c r="AA18" s="415"/>
-      <c r="AB18" s="415"/>
-      <c r="AC18" s="415"/>
-      <c r="AD18" s="415"/>
-      <c r="AE18" s="416"/>
-      <c r="AF18" s="411"/>
-      <c r="AG18" s="412"/>
-      <c r="AH18" s="412"/>
-      <c r="AI18" s="413"/>
+      <c r="B18" s="445"/>
+      <c r="C18" s="446"/>
+      <c r="D18" s="447"/>
+      <c r="E18" s="448"/>
+      <c r="F18" s="449"/>
+      <c r="G18" s="445"/>
+      <c r="H18" s="450"/>
+      <c r="I18" s="446"/>
+      <c r="J18" s="451"/>
+      <c r="K18" s="452"/>
+      <c r="L18" s="452"/>
+      <c r="M18" s="452"/>
+      <c r="N18" s="452"/>
+      <c r="O18" s="452"/>
+      <c r="P18" s="453"/>
+      <c r="Q18" s="454"/>
+      <c r="R18" s="455"/>
+      <c r="S18" s="455"/>
+      <c r="T18" s="455"/>
+      <c r="U18" s="455"/>
+      <c r="V18" s="455"/>
+      <c r="W18" s="455"/>
+      <c r="X18" s="455"/>
+      <c r="Y18" s="455"/>
+      <c r="Z18" s="455"/>
+      <c r="AA18" s="455"/>
+      <c r="AB18" s="455"/>
+      <c r="AC18" s="455"/>
+      <c r="AD18" s="455"/>
+      <c r="AE18" s="456"/>
+      <c r="AF18" s="451"/>
+      <c r="AG18" s="452"/>
+      <c r="AH18" s="452"/>
+      <c r="AI18" s="453"/>
     </row>
     <row r="19" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="139"/>
-      <c r="B19" s="405"/>
-      <c r="C19" s="406"/>
-      <c r="D19" s="407"/>
-      <c r="E19" s="408"/>
-      <c r="F19" s="409"/>
-      <c r="G19" s="405"/>
-      <c r="H19" s="410"/>
-      <c r="I19" s="406"/>
-      <c r="J19" s="411"/>
-      <c r="K19" s="412"/>
-      <c r="L19" s="412"/>
-      <c r="M19" s="412"/>
-      <c r="N19" s="412"/>
-      <c r="O19" s="412"/>
-      <c r="P19" s="413"/>
-      <c r="Q19" s="414"/>
-      <c r="R19" s="415"/>
-      <c r="S19" s="415"/>
-      <c r="T19" s="415"/>
-      <c r="U19" s="415"/>
-      <c r="V19" s="415"/>
-      <c r="W19" s="415"/>
-      <c r="X19" s="415"/>
-      <c r="Y19" s="415"/>
-      <c r="Z19" s="415"/>
-      <c r="AA19" s="415"/>
-      <c r="AB19" s="415"/>
-      <c r="AC19" s="415"/>
-      <c r="AD19" s="415"/>
-      <c r="AE19" s="416"/>
-      <c r="AF19" s="411"/>
-      <c r="AG19" s="412"/>
-      <c r="AH19" s="412"/>
-      <c r="AI19" s="413"/>
+      <c r="B19" s="445"/>
+      <c r="C19" s="446"/>
+      <c r="D19" s="447"/>
+      <c r="E19" s="448"/>
+      <c r="F19" s="449"/>
+      <c r="G19" s="445"/>
+      <c r="H19" s="450"/>
+      <c r="I19" s="446"/>
+      <c r="J19" s="451"/>
+      <c r="K19" s="452"/>
+      <c r="L19" s="452"/>
+      <c r="M19" s="452"/>
+      <c r="N19" s="452"/>
+      <c r="O19" s="452"/>
+      <c r="P19" s="453"/>
+      <c r="Q19" s="454"/>
+      <c r="R19" s="455"/>
+      <c r="S19" s="455"/>
+      <c r="T19" s="455"/>
+      <c r="U19" s="455"/>
+      <c r="V19" s="455"/>
+      <c r="W19" s="455"/>
+      <c r="X19" s="455"/>
+      <c r="Y19" s="455"/>
+      <c r="Z19" s="455"/>
+      <c r="AA19" s="455"/>
+      <c r="AB19" s="455"/>
+      <c r="AC19" s="455"/>
+      <c r="AD19" s="455"/>
+      <c r="AE19" s="456"/>
+      <c r="AF19" s="451"/>
+      <c r="AG19" s="452"/>
+      <c r="AH19" s="452"/>
+      <c r="AI19" s="453"/>
     </row>
     <row r="20" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="139"/>
-      <c r="B20" s="405"/>
-      <c r="C20" s="406"/>
-      <c r="D20" s="407"/>
-      <c r="E20" s="408"/>
-      <c r="F20" s="409"/>
-      <c r="G20" s="405"/>
-      <c r="H20" s="410"/>
-      <c r="I20" s="406"/>
-      <c r="J20" s="411"/>
-      <c r="K20" s="412"/>
-      <c r="L20" s="412"/>
-      <c r="M20" s="412"/>
-      <c r="N20" s="412"/>
-      <c r="O20" s="412"/>
-      <c r="P20" s="413"/>
-      <c r="Q20" s="414"/>
-      <c r="R20" s="415"/>
-      <c r="S20" s="415"/>
-      <c r="T20" s="415"/>
-      <c r="U20" s="415"/>
-      <c r="V20" s="415"/>
-      <c r="W20" s="415"/>
-      <c r="X20" s="415"/>
-      <c r="Y20" s="415"/>
-      <c r="Z20" s="415"/>
-      <c r="AA20" s="415"/>
-      <c r="AB20" s="415"/>
-      <c r="AC20" s="415"/>
-      <c r="AD20" s="415"/>
-      <c r="AE20" s="416"/>
-      <c r="AF20" s="411"/>
-      <c r="AG20" s="412"/>
-      <c r="AH20" s="412"/>
-      <c r="AI20" s="413"/>
+      <c r="B20" s="445"/>
+      <c r="C20" s="446"/>
+      <c r="D20" s="447"/>
+      <c r="E20" s="448"/>
+      <c r="F20" s="449"/>
+      <c r="G20" s="445"/>
+      <c r="H20" s="450"/>
+      <c r="I20" s="446"/>
+      <c r="J20" s="451"/>
+      <c r="K20" s="452"/>
+      <c r="L20" s="452"/>
+      <c r="M20" s="452"/>
+      <c r="N20" s="452"/>
+      <c r="O20" s="452"/>
+      <c r="P20" s="453"/>
+      <c r="Q20" s="454"/>
+      <c r="R20" s="455"/>
+      <c r="S20" s="455"/>
+      <c r="T20" s="455"/>
+      <c r="U20" s="455"/>
+      <c r="V20" s="455"/>
+      <c r="W20" s="455"/>
+      <c r="X20" s="455"/>
+      <c r="Y20" s="455"/>
+      <c r="Z20" s="455"/>
+      <c r="AA20" s="455"/>
+      <c r="AB20" s="455"/>
+      <c r="AC20" s="455"/>
+      <c r="AD20" s="455"/>
+      <c r="AE20" s="456"/>
+      <c r="AF20" s="451"/>
+      <c r="AG20" s="452"/>
+      <c r="AH20" s="452"/>
+      <c r="AI20" s="453"/>
     </row>
     <row r="21" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="139"/>
-      <c r="B21" s="405"/>
-      <c r="C21" s="406"/>
-      <c r="D21" s="407"/>
-      <c r="E21" s="408"/>
-      <c r="F21" s="409"/>
-      <c r="G21" s="405"/>
-      <c r="H21" s="410"/>
-      <c r="I21" s="406"/>
-      <c r="J21" s="411"/>
-      <c r="K21" s="412"/>
-      <c r="L21" s="412"/>
-      <c r="M21" s="412"/>
-      <c r="N21" s="412"/>
-      <c r="O21" s="412"/>
-      <c r="P21" s="413"/>
-      <c r="Q21" s="414"/>
-      <c r="R21" s="415"/>
-      <c r="S21" s="415"/>
-      <c r="T21" s="415"/>
-      <c r="U21" s="415"/>
-      <c r="V21" s="415"/>
-      <c r="W21" s="415"/>
-      <c r="X21" s="415"/>
-      <c r="Y21" s="415"/>
-      <c r="Z21" s="415"/>
-      <c r="AA21" s="415"/>
-      <c r="AB21" s="415"/>
-      <c r="AC21" s="415"/>
-      <c r="AD21" s="415"/>
-      <c r="AE21" s="416"/>
-      <c r="AF21" s="411"/>
-      <c r="AG21" s="412"/>
-      <c r="AH21" s="412"/>
-      <c r="AI21" s="413"/>
+      <c r="B21" s="445"/>
+      <c r="C21" s="446"/>
+      <c r="D21" s="447"/>
+      <c r="E21" s="448"/>
+      <c r="F21" s="449"/>
+      <c r="G21" s="445"/>
+      <c r="H21" s="450"/>
+      <c r="I21" s="446"/>
+      <c r="J21" s="451"/>
+      <c r="K21" s="452"/>
+      <c r="L21" s="452"/>
+      <c r="M21" s="452"/>
+      <c r="N21" s="452"/>
+      <c r="O21" s="452"/>
+      <c r="P21" s="453"/>
+      <c r="Q21" s="454"/>
+      <c r="R21" s="455"/>
+      <c r="S21" s="455"/>
+      <c r="T21" s="455"/>
+      <c r="U21" s="455"/>
+      <c r="V21" s="455"/>
+      <c r="W21" s="455"/>
+      <c r="X21" s="455"/>
+      <c r="Y21" s="455"/>
+      <c r="Z21" s="455"/>
+      <c r="AA21" s="455"/>
+      <c r="AB21" s="455"/>
+      <c r="AC21" s="455"/>
+      <c r="AD21" s="455"/>
+      <c r="AE21" s="456"/>
+      <c r="AF21" s="451"/>
+      <c r="AG21" s="452"/>
+      <c r="AH21" s="452"/>
+      <c r="AI21" s="453"/>
     </row>
     <row r="22" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="139"/>
-      <c r="B22" s="405"/>
-      <c r="C22" s="406"/>
-      <c r="D22" s="407"/>
-      <c r="E22" s="408"/>
-      <c r="F22" s="409"/>
-      <c r="G22" s="405"/>
-      <c r="H22" s="410"/>
-      <c r="I22" s="406"/>
-      <c r="J22" s="411"/>
-      <c r="K22" s="412"/>
-      <c r="L22" s="412"/>
-      <c r="M22" s="412"/>
-      <c r="N22" s="412"/>
-      <c r="O22" s="412"/>
-      <c r="P22" s="413"/>
-      <c r="Q22" s="414"/>
-      <c r="R22" s="415"/>
-      <c r="S22" s="415"/>
-      <c r="T22" s="415"/>
-      <c r="U22" s="415"/>
-      <c r="V22" s="415"/>
-      <c r="W22" s="415"/>
-      <c r="X22" s="415"/>
-      <c r="Y22" s="415"/>
-      <c r="Z22" s="415"/>
-      <c r="AA22" s="415"/>
-      <c r="AB22" s="415"/>
-      <c r="AC22" s="415"/>
-      <c r="AD22" s="415"/>
-      <c r="AE22" s="416"/>
-      <c r="AF22" s="411"/>
-      <c r="AG22" s="412"/>
-      <c r="AH22" s="412"/>
-      <c r="AI22" s="413"/>
+      <c r="B22" s="445"/>
+      <c r="C22" s="446"/>
+      <c r="D22" s="447"/>
+      <c r="E22" s="448"/>
+      <c r="F22" s="449"/>
+      <c r="G22" s="445"/>
+      <c r="H22" s="450"/>
+      <c r="I22" s="446"/>
+      <c r="J22" s="451"/>
+      <c r="K22" s="452"/>
+      <c r="L22" s="452"/>
+      <c r="M22" s="452"/>
+      <c r="N22" s="452"/>
+      <c r="O22" s="452"/>
+      <c r="P22" s="453"/>
+      <c r="Q22" s="454"/>
+      <c r="R22" s="455"/>
+      <c r="S22" s="455"/>
+      <c r="T22" s="455"/>
+      <c r="U22" s="455"/>
+      <c r="V22" s="455"/>
+      <c r="W22" s="455"/>
+      <c r="X22" s="455"/>
+      <c r="Y22" s="455"/>
+      <c r="Z22" s="455"/>
+      <c r="AA22" s="455"/>
+      <c r="AB22" s="455"/>
+      <c r="AC22" s="455"/>
+      <c r="AD22" s="455"/>
+      <c r="AE22" s="456"/>
+      <c r="AF22" s="451"/>
+      <c r="AG22" s="452"/>
+      <c r="AH22" s="452"/>
+      <c r="AI22" s="453"/>
     </row>
     <row r="23" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="139"/>
-      <c r="B23" s="405"/>
-      <c r="C23" s="406"/>
-      <c r="D23" s="407"/>
-      <c r="E23" s="408"/>
-      <c r="F23" s="409"/>
-      <c r="G23" s="405"/>
-      <c r="H23" s="410"/>
-      <c r="I23" s="406"/>
-      <c r="J23" s="411"/>
-      <c r="K23" s="412"/>
-      <c r="L23" s="412"/>
-      <c r="M23" s="412"/>
-      <c r="N23" s="412"/>
-      <c r="O23" s="412"/>
-      <c r="P23" s="413"/>
-      <c r="Q23" s="414"/>
-      <c r="R23" s="415"/>
-      <c r="S23" s="415"/>
-      <c r="T23" s="415"/>
-      <c r="U23" s="415"/>
-      <c r="V23" s="415"/>
-      <c r="W23" s="415"/>
-      <c r="X23" s="415"/>
-      <c r="Y23" s="415"/>
-      <c r="Z23" s="415"/>
-      <c r="AA23" s="415"/>
-      <c r="AB23" s="415"/>
-      <c r="AC23" s="415"/>
-      <c r="AD23" s="415"/>
-      <c r="AE23" s="416"/>
-      <c r="AF23" s="411"/>
-      <c r="AG23" s="412"/>
-      <c r="AH23" s="412"/>
-      <c r="AI23" s="413"/>
+      <c r="B23" s="445"/>
+      <c r="C23" s="446"/>
+      <c r="D23" s="447"/>
+      <c r="E23" s="448"/>
+      <c r="F23" s="449"/>
+      <c r="G23" s="445"/>
+      <c r="H23" s="450"/>
+      <c r="I23" s="446"/>
+      <c r="J23" s="451"/>
+      <c r="K23" s="452"/>
+      <c r="L23" s="452"/>
+      <c r="M23" s="452"/>
+      <c r="N23" s="452"/>
+      <c r="O23" s="452"/>
+      <c r="P23" s="453"/>
+      <c r="Q23" s="454"/>
+      <c r="R23" s="455"/>
+      <c r="S23" s="455"/>
+      <c r="T23" s="455"/>
+      <c r="U23" s="455"/>
+      <c r="V23" s="455"/>
+      <c r="W23" s="455"/>
+      <c r="X23" s="455"/>
+      <c r="Y23" s="455"/>
+      <c r="Z23" s="455"/>
+      <c r="AA23" s="455"/>
+      <c r="AB23" s="455"/>
+      <c r="AC23" s="455"/>
+      <c r="AD23" s="455"/>
+      <c r="AE23" s="456"/>
+      <c r="AF23" s="451"/>
+      <c r="AG23" s="452"/>
+      <c r="AH23" s="452"/>
+      <c r="AI23" s="453"/>
     </row>
     <row r="24" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="139"/>
-      <c r="B24" s="405"/>
-      <c r="C24" s="406"/>
-      <c r="D24" s="407"/>
-      <c r="E24" s="408"/>
-      <c r="F24" s="409"/>
-      <c r="G24" s="405"/>
-      <c r="H24" s="410"/>
-      <c r="I24" s="406"/>
-      <c r="J24" s="411"/>
-      <c r="K24" s="412"/>
-      <c r="L24" s="412"/>
-      <c r="M24" s="412"/>
-      <c r="N24" s="412"/>
-      <c r="O24" s="412"/>
-      <c r="P24" s="413"/>
-      <c r="Q24" s="414"/>
-      <c r="R24" s="415"/>
-      <c r="S24" s="415"/>
-      <c r="T24" s="415"/>
-      <c r="U24" s="415"/>
-      <c r="V24" s="415"/>
-      <c r="W24" s="415"/>
-      <c r="X24" s="415"/>
-      <c r="Y24" s="415"/>
-      <c r="Z24" s="415"/>
-      <c r="AA24" s="415"/>
-      <c r="AB24" s="415"/>
-      <c r="AC24" s="415"/>
-      <c r="AD24" s="415"/>
-      <c r="AE24" s="416"/>
-      <c r="AF24" s="411"/>
-      <c r="AG24" s="412"/>
-      <c r="AH24" s="412"/>
-      <c r="AI24" s="413"/>
+      <c r="B24" s="445"/>
+      <c r="C24" s="446"/>
+      <c r="D24" s="447"/>
+      <c r="E24" s="448"/>
+      <c r="F24" s="449"/>
+      <c r="G24" s="445"/>
+      <c r="H24" s="450"/>
+      <c r="I24" s="446"/>
+      <c r="J24" s="451"/>
+      <c r="K24" s="452"/>
+      <c r="L24" s="452"/>
+      <c r="M24" s="452"/>
+      <c r="N24" s="452"/>
+      <c r="O24" s="452"/>
+      <c r="P24" s="453"/>
+      <c r="Q24" s="454"/>
+      <c r="R24" s="455"/>
+      <c r="S24" s="455"/>
+      <c r="T24" s="455"/>
+      <c r="U24" s="455"/>
+      <c r="V24" s="455"/>
+      <c r="W24" s="455"/>
+      <c r="X24" s="455"/>
+      <c r="Y24" s="455"/>
+      <c r="Z24" s="455"/>
+      <c r="AA24" s="455"/>
+      <c r="AB24" s="455"/>
+      <c r="AC24" s="455"/>
+      <c r="AD24" s="455"/>
+      <c r="AE24" s="456"/>
+      <c r="AF24" s="451"/>
+      <c r="AG24" s="452"/>
+      <c r="AH24" s="452"/>
+      <c r="AI24" s="453"/>
     </row>
     <row r="25" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="139"/>
-      <c r="B25" s="405"/>
-      <c r="C25" s="406"/>
-      <c r="D25" s="407"/>
-      <c r="E25" s="408"/>
-      <c r="F25" s="409"/>
-      <c r="G25" s="405"/>
-      <c r="H25" s="410"/>
-      <c r="I25" s="406"/>
-      <c r="J25" s="411"/>
-      <c r="K25" s="412"/>
-      <c r="L25" s="412"/>
-      <c r="M25" s="412"/>
-      <c r="N25" s="412"/>
-      <c r="O25" s="412"/>
-      <c r="P25" s="413"/>
-      <c r="Q25" s="414"/>
-      <c r="R25" s="415"/>
-      <c r="S25" s="415"/>
-      <c r="T25" s="415"/>
-      <c r="U25" s="415"/>
-      <c r="V25" s="415"/>
-      <c r="W25" s="415"/>
-      <c r="X25" s="415"/>
-      <c r="Y25" s="415"/>
-      <c r="Z25" s="415"/>
-      <c r="AA25" s="415"/>
-      <c r="AB25" s="415"/>
-      <c r="AC25" s="415"/>
-      <c r="AD25" s="415"/>
-      <c r="AE25" s="416"/>
-      <c r="AF25" s="411"/>
-      <c r="AG25" s="412"/>
-      <c r="AH25" s="412"/>
-      <c r="AI25" s="413"/>
+      <c r="B25" s="445"/>
+      <c r="C25" s="446"/>
+      <c r="D25" s="447"/>
+      <c r="E25" s="448"/>
+      <c r="F25" s="449"/>
+      <c r="G25" s="445"/>
+      <c r="H25" s="450"/>
+      <c r="I25" s="446"/>
+      <c r="J25" s="451"/>
+      <c r="K25" s="452"/>
+      <c r="L25" s="452"/>
+      <c r="M25" s="452"/>
+      <c r="N25" s="452"/>
+      <c r="O25" s="452"/>
+      <c r="P25" s="453"/>
+      <c r="Q25" s="454"/>
+      <c r="R25" s="455"/>
+      <c r="S25" s="455"/>
+      <c r="T25" s="455"/>
+      <c r="U25" s="455"/>
+      <c r="V25" s="455"/>
+      <c r="W25" s="455"/>
+      <c r="X25" s="455"/>
+      <c r="Y25" s="455"/>
+      <c r="Z25" s="455"/>
+      <c r="AA25" s="455"/>
+      <c r="AB25" s="455"/>
+      <c r="AC25" s="455"/>
+      <c r="AD25" s="455"/>
+      <c r="AE25" s="456"/>
+      <c r="AF25" s="451"/>
+      <c r="AG25" s="452"/>
+      <c r="AH25" s="452"/>
+      <c r="AI25" s="453"/>
     </row>
     <row r="26" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="139"/>
-      <c r="B26" s="405"/>
-      <c r="C26" s="406"/>
-      <c r="D26" s="407"/>
-      <c r="E26" s="408"/>
-      <c r="F26" s="409"/>
-      <c r="G26" s="405"/>
-      <c r="H26" s="410"/>
-      <c r="I26" s="406"/>
-      <c r="J26" s="411"/>
-      <c r="K26" s="412"/>
-      <c r="L26" s="412"/>
-      <c r="M26" s="412"/>
-      <c r="N26" s="412"/>
-      <c r="O26" s="412"/>
-      <c r="P26" s="413"/>
-      <c r="Q26" s="414"/>
-      <c r="R26" s="415"/>
-      <c r="S26" s="415"/>
-      <c r="T26" s="415"/>
-      <c r="U26" s="415"/>
-      <c r="V26" s="415"/>
-      <c r="W26" s="415"/>
-      <c r="X26" s="415"/>
-      <c r="Y26" s="415"/>
-      <c r="Z26" s="415"/>
-      <c r="AA26" s="415"/>
-      <c r="AB26" s="415"/>
-      <c r="AC26" s="415"/>
-      <c r="AD26" s="415"/>
-      <c r="AE26" s="416"/>
-      <c r="AF26" s="411"/>
-      <c r="AG26" s="412"/>
-      <c r="AH26" s="412"/>
-      <c r="AI26" s="413"/>
+      <c r="B26" s="445"/>
+      <c r="C26" s="446"/>
+      <c r="D26" s="447"/>
+      <c r="E26" s="448"/>
+      <c r="F26" s="449"/>
+      <c r="G26" s="445"/>
+      <c r="H26" s="450"/>
+      <c r="I26" s="446"/>
+      <c r="J26" s="451"/>
+      <c r="K26" s="452"/>
+      <c r="L26" s="452"/>
+      <c r="M26" s="452"/>
+      <c r="N26" s="452"/>
+      <c r="O26" s="452"/>
+      <c r="P26" s="453"/>
+      <c r="Q26" s="454"/>
+      <c r="R26" s="455"/>
+      <c r="S26" s="455"/>
+      <c r="T26" s="455"/>
+      <c r="U26" s="455"/>
+      <c r="V26" s="455"/>
+      <c r="W26" s="455"/>
+      <c r="X26" s="455"/>
+      <c r="Y26" s="455"/>
+      <c r="Z26" s="455"/>
+      <c r="AA26" s="455"/>
+      <c r="AB26" s="455"/>
+      <c r="AC26" s="455"/>
+      <c r="AD26" s="455"/>
+      <c r="AE26" s="456"/>
+      <c r="AF26" s="451"/>
+      <c r="AG26" s="452"/>
+      <c r="AH26" s="452"/>
+      <c r="AI26" s="453"/>
     </row>
     <row r="27" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="139"/>
-      <c r="B27" s="405"/>
-      <c r="C27" s="406"/>
-      <c r="D27" s="407"/>
-      <c r="E27" s="408"/>
-      <c r="F27" s="409"/>
-      <c r="G27" s="405"/>
-      <c r="H27" s="410"/>
-      <c r="I27" s="406"/>
-      <c r="J27" s="411"/>
-      <c r="K27" s="412"/>
-      <c r="L27" s="412"/>
-      <c r="M27" s="412"/>
-      <c r="N27" s="412"/>
-      <c r="O27" s="412"/>
-      <c r="P27" s="413"/>
-      <c r="Q27" s="414"/>
-      <c r="R27" s="415"/>
-      <c r="S27" s="415"/>
-      <c r="T27" s="415"/>
-      <c r="U27" s="415"/>
-      <c r="V27" s="415"/>
-      <c r="W27" s="415"/>
-      <c r="X27" s="415"/>
-      <c r="Y27" s="415"/>
-      <c r="Z27" s="415"/>
-      <c r="AA27" s="415"/>
-      <c r="AB27" s="415"/>
-      <c r="AC27" s="415"/>
-      <c r="AD27" s="415"/>
-      <c r="AE27" s="416"/>
-      <c r="AF27" s="411"/>
-      <c r="AG27" s="412"/>
-      <c r="AH27" s="412"/>
-      <c r="AI27" s="413"/>
+      <c r="B27" s="445"/>
+      <c r="C27" s="446"/>
+      <c r="D27" s="447"/>
+      <c r="E27" s="448"/>
+      <c r="F27" s="449"/>
+      <c r="G27" s="445"/>
+      <c r="H27" s="450"/>
+      <c r="I27" s="446"/>
+      <c r="J27" s="451"/>
+      <c r="K27" s="452"/>
+      <c r="L27" s="452"/>
+      <c r="M27" s="452"/>
+      <c r="N27" s="452"/>
+      <c r="O27" s="452"/>
+      <c r="P27" s="453"/>
+      <c r="Q27" s="454"/>
+      <c r="R27" s="455"/>
+      <c r="S27" s="455"/>
+      <c r="T27" s="455"/>
+      <c r="U27" s="455"/>
+      <c r="V27" s="455"/>
+      <c r="W27" s="455"/>
+      <c r="X27" s="455"/>
+      <c r="Y27" s="455"/>
+      <c r="Z27" s="455"/>
+      <c r="AA27" s="455"/>
+      <c r="AB27" s="455"/>
+      <c r="AC27" s="455"/>
+      <c r="AD27" s="455"/>
+      <c r="AE27" s="456"/>
+      <c r="AF27" s="451"/>
+      <c r="AG27" s="452"/>
+      <c r="AH27" s="452"/>
+      <c r="AI27" s="453"/>
     </row>
     <row r="28" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="139"/>
-      <c r="B28" s="405"/>
-      <c r="C28" s="406"/>
-      <c r="D28" s="407"/>
-      <c r="E28" s="408"/>
-      <c r="F28" s="409"/>
-      <c r="G28" s="405"/>
-      <c r="H28" s="410"/>
-      <c r="I28" s="406"/>
-      <c r="J28" s="411"/>
-      <c r="K28" s="412"/>
-      <c r="L28" s="412"/>
-      <c r="M28" s="412"/>
-      <c r="N28" s="412"/>
-      <c r="O28" s="412"/>
-      <c r="P28" s="413"/>
-      <c r="Q28" s="414"/>
-      <c r="R28" s="415"/>
-      <c r="S28" s="415"/>
-      <c r="T28" s="415"/>
-      <c r="U28" s="415"/>
-      <c r="V28" s="415"/>
-      <c r="W28" s="415"/>
-      <c r="X28" s="415"/>
-      <c r="Y28" s="415"/>
-      <c r="Z28" s="415"/>
-      <c r="AA28" s="415"/>
-      <c r="AB28" s="415"/>
-      <c r="AC28" s="415"/>
-      <c r="AD28" s="415"/>
-      <c r="AE28" s="416"/>
-      <c r="AF28" s="411"/>
-      <c r="AG28" s="412"/>
-      <c r="AH28" s="412"/>
-      <c r="AI28" s="413"/>
+      <c r="B28" s="445"/>
+      <c r="C28" s="446"/>
+      <c r="D28" s="447"/>
+      <c r="E28" s="448"/>
+      <c r="F28" s="449"/>
+      <c r="G28" s="445"/>
+      <c r="H28" s="450"/>
+      <c r="I28" s="446"/>
+      <c r="J28" s="451"/>
+      <c r="K28" s="452"/>
+      <c r="L28" s="452"/>
+      <c r="M28" s="452"/>
+      <c r="N28" s="452"/>
+      <c r="O28" s="452"/>
+      <c r="P28" s="453"/>
+      <c r="Q28" s="454"/>
+      <c r="R28" s="455"/>
+      <c r="S28" s="455"/>
+      <c r="T28" s="455"/>
+      <c r="U28" s="455"/>
+      <c r="V28" s="455"/>
+      <c r="W28" s="455"/>
+      <c r="X28" s="455"/>
+      <c r="Y28" s="455"/>
+      <c r="Z28" s="455"/>
+      <c r="AA28" s="455"/>
+      <c r="AB28" s="455"/>
+      <c r="AC28" s="455"/>
+      <c r="AD28" s="455"/>
+      <c r="AE28" s="456"/>
+      <c r="AF28" s="451"/>
+      <c r="AG28" s="452"/>
+      <c r="AH28" s="452"/>
+      <c r="AI28" s="453"/>
     </row>
     <row r="29" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="139"/>
-      <c r="B29" s="405"/>
-      <c r="C29" s="406"/>
-      <c r="D29" s="407"/>
-      <c r="E29" s="408"/>
-      <c r="F29" s="409"/>
-      <c r="G29" s="405"/>
-      <c r="H29" s="410"/>
-      <c r="I29" s="406"/>
-      <c r="J29" s="411"/>
-      <c r="K29" s="412"/>
-      <c r="L29" s="412"/>
-      <c r="M29" s="412"/>
-      <c r="N29" s="412"/>
-      <c r="O29" s="412"/>
-      <c r="P29" s="413"/>
-      <c r="Q29" s="414"/>
-      <c r="R29" s="415"/>
-      <c r="S29" s="415"/>
-      <c r="T29" s="415"/>
-      <c r="U29" s="415"/>
-      <c r="V29" s="415"/>
-      <c r="W29" s="415"/>
-      <c r="X29" s="415"/>
-      <c r="Y29" s="415"/>
-      <c r="Z29" s="415"/>
-      <c r="AA29" s="415"/>
-      <c r="AB29" s="415"/>
-      <c r="AC29" s="415"/>
-      <c r="AD29" s="415"/>
-      <c r="AE29" s="416"/>
-      <c r="AF29" s="411"/>
-      <c r="AG29" s="412"/>
-      <c r="AH29" s="412"/>
-      <c r="AI29" s="413"/>
+      <c r="B29" s="445"/>
+      <c r="C29" s="446"/>
+      <c r="D29" s="447"/>
+      <c r="E29" s="448"/>
+      <c r="F29" s="449"/>
+      <c r="G29" s="445"/>
+      <c r="H29" s="450"/>
+      <c r="I29" s="446"/>
+      <c r="J29" s="451"/>
+      <c r="K29" s="452"/>
+      <c r="L29" s="452"/>
+      <c r="M29" s="452"/>
+      <c r="N29" s="452"/>
+      <c r="O29" s="452"/>
+      <c r="P29" s="453"/>
+      <c r="Q29" s="454"/>
+      <c r="R29" s="455"/>
+      <c r="S29" s="455"/>
+      <c r="T29" s="455"/>
+      <c r="U29" s="455"/>
+      <c r="V29" s="455"/>
+      <c r="W29" s="455"/>
+      <c r="X29" s="455"/>
+      <c r="Y29" s="455"/>
+      <c r="Z29" s="455"/>
+      <c r="AA29" s="455"/>
+      <c r="AB29" s="455"/>
+      <c r="AC29" s="455"/>
+      <c r="AD29" s="455"/>
+      <c r="AE29" s="456"/>
+      <c r="AF29" s="451"/>
+      <c r="AG29" s="452"/>
+      <c r="AH29" s="452"/>
+      <c r="AI29" s="453"/>
     </row>
     <row r="30" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="139"/>
-      <c r="B30" s="405"/>
-      <c r="C30" s="406"/>
-      <c r="D30" s="407"/>
-      <c r="E30" s="408"/>
-      <c r="F30" s="409"/>
-      <c r="G30" s="405"/>
-      <c r="H30" s="410"/>
-      <c r="I30" s="406"/>
-      <c r="J30" s="411"/>
-      <c r="K30" s="412"/>
-      <c r="L30" s="412"/>
-      <c r="M30" s="412"/>
-      <c r="N30" s="412"/>
-      <c r="O30" s="412"/>
-      <c r="P30" s="413"/>
-      <c r="Q30" s="414"/>
-      <c r="R30" s="415"/>
-      <c r="S30" s="415"/>
-      <c r="T30" s="415"/>
-      <c r="U30" s="415"/>
-      <c r="V30" s="415"/>
-      <c r="W30" s="415"/>
-      <c r="X30" s="415"/>
-      <c r="Y30" s="415"/>
-      <c r="Z30" s="415"/>
-      <c r="AA30" s="415"/>
-      <c r="AB30" s="415"/>
-      <c r="AC30" s="415"/>
-      <c r="AD30" s="415"/>
-      <c r="AE30" s="416"/>
-      <c r="AF30" s="411"/>
-      <c r="AG30" s="412"/>
-      <c r="AH30" s="412"/>
-      <c r="AI30" s="413"/>
+      <c r="B30" s="445"/>
+      <c r="C30" s="446"/>
+      <c r="D30" s="447"/>
+      <c r="E30" s="448"/>
+      <c r="F30" s="449"/>
+      <c r="G30" s="445"/>
+      <c r="H30" s="450"/>
+      <c r="I30" s="446"/>
+      <c r="J30" s="451"/>
+      <c r="K30" s="452"/>
+      <c r="L30" s="452"/>
+      <c r="M30" s="452"/>
+      <c r="N30" s="452"/>
+      <c r="O30" s="452"/>
+      <c r="P30" s="453"/>
+      <c r="Q30" s="454"/>
+      <c r="R30" s="455"/>
+      <c r="S30" s="455"/>
+      <c r="T30" s="455"/>
+      <c r="U30" s="455"/>
+      <c r="V30" s="455"/>
+      <c r="W30" s="455"/>
+      <c r="X30" s="455"/>
+      <c r="Y30" s="455"/>
+      <c r="Z30" s="455"/>
+      <c r="AA30" s="455"/>
+      <c r="AB30" s="455"/>
+      <c r="AC30" s="455"/>
+      <c r="AD30" s="455"/>
+      <c r="AE30" s="456"/>
+      <c r="AF30" s="451"/>
+      <c r="AG30" s="452"/>
+      <c r="AH30" s="452"/>
+      <c r="AI30" s="453"/>
     </row>
     <row r="31" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="139"/>
-      <c r="B31" s="405"/>
-      <c r="C31" s="406"/>
-      <c r="D31" s="407"/>
-      <c r="E31" s="408"/>
-      <c r="F31" s="409"/>
-      <c r="G31" s="405"/>
-      <c r="H31" s="410"/>
-      <c r="I31" s="406"/>
-      <c r="J31" s="411"/>
-      <c r="K31" s="412"/>
-      <c r="L31" s="412"/>
-      <c r="M31" s="412"/>
-      <c r="N31" s="412"/>
-      <c r="O31" s="412"/>
-      <c r="P31" s="413"/>
-      <c r="Q31" s="414"/>
-      <c r="R31" s="415"/>
-      <c r="S31" s="415"/>
-      <c r="T31" s="415"/>
-      <c r="U31" s="415"/>
-      <c r="V31" s="415"/>
-      <c r="W31" s="415"/>
-      <c r="X31" s="415"/>
-      <c r="Y31" s="415"/>
-      <c r="Z31" s="415"/>
-      <c r="AA31" s="415"/>
-      <c r="AB31" s="415"/>
-      <c r="AC31" s="415"/>
-      <c r="AD31" s="415"/>
-      <c r="AE31" s="416"/>
-      <c r="AF31" s="411"/>
-      <c r="AG31" s="412"/>
-      <c r="AH31" s="412"/>
-      <c r="AI31" s="413"/>
+      <c r="B31" s="445"/>
+      <c r="C31" s="446"/>
+      <c r="D31" s="447"/>
+      <c r="E31" s="448"/>
+      <c r="F31" s="449"/>
+      <c r="G31" s="445"/>
+      <c r="H31" s="450"/>
+      <c r="I31" s="446"/>
+      <c r="J31" s="451"/>
+      <c r="K31" s="452"/>
+      <c r="L31" s="452"/>
+      <c r="M31" s="452"/>
+      <c r="N31" s="452"/>
+      <c r="O31" s="452"/>
+      <c r="P31" s="453"/>
+      <c r="Q31" s="454"/>
+      <c r="R31" s="455"/>
+      <c r="S31" s="455"/>
+      <c r="T31" s="455"/>
+      <c r="U31" s="455"/>
+      <c r="V31" s="455"/>
+      <c r="W31" s="455"/>
+      <c r="X31" s="455"/>
+      <c r="Y31" s="455"/>
+      <c r="Z31" s="455"/>
+      <c r="AA31" s="455"/>
+      <c r="AB31" s="455"/>
+      <c r="AC31" s="455"/>
+      <c r="AD31" s="455"/>
+      <c r="AE31" s="456"/>
+      <c r="AF31" s="451"/>
+      <c r="AG31" s="452"/>
+      <c r="AH31" s="452"/>
+      <c r="AI31" s="453"/>
     </row>
     <row r="32" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="139"/>
-      <c r="B32" s="405"/>
-      <c r="C32" s="406"/>
-      <c r="D32" s="407"/>
-      <c r="E32" s="408"/>
-      <c r="F32" s="409"/>
-      <c r="G32" s="405"/>
-      <c r="H32" s="410"/>
-      <c r="I32" s="406"/>
-      <c r="J32" s="411"/>
-      <c r="K32" s="417"/>
-      <c r="L32" s="412"/>
-      <c r="M32" s="412"/>
-      <c r="N32" s="412"/>
-      <c r="O32" s="412"/>
-      <c r="P32" s="413"/>
-      <c r="Q32" s="414"/>
-      <c r="R32" s="415"/>
-      <c r="S32" s="415"/>
-      <c r="T32" s="415"/>
-      <c r="U32" s="415"/>
-      <c r="V32" s="415"/>
-      <c r="W32" s="415"/>
-      <c r="X32" s="415"/>
-      <c r="Y32" s="415"/>
-      <c r="Z32" s="415"/>
-      <c r="AA32" s="415"/>
-      <c r="AB32" s="415"/>
-      <c r="AC32" s="415"/>
-      <c r="AD32" s="415"/>
-      <c r="AE32" s="416"/>
-      <c r="AF32" s="411"/>
-      <c r="AG32" s="412"/>
-      <c r="AH32" s="412"/>
-      <c r="AI32" s="413"/>
+      <c r="B32" s="445"/>
+      <c r="C32" s="446"/>
+      <c r="D32" s="447"/>
+      <c r="E32" s="448"/>
+      <c r="F32" s="449"/>
+      <c r="G32" s="445"/>
+      <c r="H32" s="450"/>
+      <c r="I32" s="446"/>
+      <c r="J32" s="451"/>
+      <c r="K32" s="472"/>
+      <c r="L32" s="452"/>
+      <c r="M32" s="452"/>
+      <c r="N32" s="452"/>
+      <c r="O32" s="452"/>
+      <c r="P32" s="453"/>
+      <c r="Q32" s="454"/>
+      <c r="R32" s="455"/>
+      <c r="S32" s="455"/>
+      <c r="T32" s="455"/>
+      <c r="U32" s="455"/>
+      <c r="V32" s="455"/>
+      <c r="W32" s="455"/>
+      <c r="X32" s="455"/>
+      <c r="Y32" s="455"/>
+      <c r="Z32" s="455"/>
+      <c r="AA32" s="455"/>
+      <c r="AB32" s="455"/>
+      <c r="AC32" s="455"/>
+      <c r="AD32" s="455"/>
+      <c r="AE32" s="456"/>
+      <c r="AF32" s="451"/>
+      <c r="AG32" s="452"/>
+      <c r="AH32" s="452"/>
+      <c r="AI32" s="453"/>
     </row>
     <row r="33" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="139"/>
-      <c r="B33" s="405"/>
-      <c r="C33" s="406"/>
-      <c r="D33" s="407"/>
-      <c r="E33" s="408"/>
-      <c r="F33" s="409"/>
-      <c r="G33" s="405"/>
-      <c r="H33" s="410"/>
-      <c r="I33" s="406"/>
-      <c r="J33" s="411"/>
-      <c r="K33" s="412"/>
-      <c r="L33" s="412"/>
-      <c r="M33" s="412"/>
-      <c r="N33" s="412"/>
-      <c r="O33" s="412"/>
-      <c r="P33" s="413"/>
-      <c r="Q33" s="414"/>
-      <c r="R33" s="415"/>
-      <c r="S33" s="415"/>
-      <c r="T33" s="415"/>
-      <c r="U33" s="415"/>
-      <c r="V33" s="415"/>
-      <c r="W33" s="415"/>
-      <c r="X33" s="415"/>
-      <c r="Y33" s="415"/>
-      <c r="Z33" s="415"/>
-      <c r="AA33" s="415"/>
-      <c r="AB33" s="415"/>
-      <c r="AC33" s="415"/>
-      <c r="AD33" s="415"/>
-      <c r="AE33" s="416"/>
-      <c r="AF33" s="411"/>
-      <c r="AG33" s="412"/>
-      <c r="AH33" s="412"/>
-      <c r="AI33" s="413"/>
+      <c r="B33" s="445"/>
+      <c r="C33" s="446"/>
+      <c r="D33" s="447"/>
+      <c r="E33" s="448"/>
+      <c r="F33" s="449"/>
+      <c r="G33" s="445"/>
+      <c r="H33" s="450"/>
+      <c r="I33" s="446"/>
+      <c r="J33" s="451"/>
+      <c r="K33" s="452"/>
+      <c r="L33" s="452"/>
+      <c r="M33" s="452"/>
+      <c r="N33" s="452"/>
+      <c r="O33" s="452"/>
+      <c r="P33" s="453"/>
+      <c r="Q33" s="454"/>
+      <c r="R33" s="455"/>
+      <c r="S33" s="455"/>
+      <c r="T33" s="455"/>
+      <c r="U33" s="455"/>
+      <c r="V33" s="455"/>
+      <c r="W33" s="455"/>
+      <c r="X33" s="455"/>
+      <c r="Y33" s="455"/>
+      <c r="Z33" s="455"/>
+      <c r="AA33" s="455"/>
+      <c r="AB33" s="455"/>
+      <c r="AC33" s="455"/>
+      <c r="AD33" s="455"/>
+      <c r="AE33" s="456"/>
+      <c r="AF33" s="451"/>
+      <c r="AG33" s="452"/>
+      <c r="AH33" s="452"/>
+      <c r="AI33" s="453"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -26072,162 +26234,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -26384,163 +26390,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="439" t="s">
+      <c r="A1" s="413" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="440"/>
-      <c r="C1" s="440"/>
-      <c r="D1" s="441"/>
-      <c r="E1" s="470" t="str">
+      <c r="B1" s="414"/>
+      <c r="C1" s="414"/>
+      <c r="D1" s="415"/>
+      <c r="E1" s="444" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="443"/>
-      <c r="G1" s="443"/>
-      <c r="H1" s="443"/>
-      <c r="I1" s="443"/>
-      <c r="J1" s="443"/>
-      <c r="K1" s="443"/>
-      <c r="L1" s="443"/>
-      <c r="M1" s="443"/>
-      <c r="N1" s="444"/>
-      <c r="O1" s="449" t="s">
+      <c r="F1" s="417"/>
+      <c r="G1" s="417"/>
+      <c r="H1" s="417"/>
+      <c r="I1" s="417"/>
+      <c r="J1" s="417"/>
+      <c r="K1" s="417"/>
+      <c r="L1" s="417"/>
+      <c r="M1" s="417"/>
+      <c r="N1" s="418"/>
+      <c r="O1" s="423" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="450"/>
-      <c r="Q1" s="450"/>
-      <c r="R1" s="451"/>
-      <c r="S1" s="471" t="str">
+      <c r="P1" s="424"/>
+      <c r="Q1" s="424"/>
+      <c r="R1" s="425"/>
+      <c r="S1" s="478" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="459"/>
-      <c r="U1" s="459"/>
-      <c r="V1" s="459"/>
-      <c r="W1" s="459"/>
-      <c r="X1" s="459"/>
-      <c r="Y1" s="459"/>
-      <c r="Z1" s="460"/>
-      <c r="AA1" s="472" t="s">
+      <c r="T1" s="433"/>
+      <c r="U1" s="433"/>
+      <c r="V1" s="433"/>
+      <c r="W1" s="433"/>
+      <c r="X1" s="433"/>
+      <c r="Y1" s="433"/>
+      <c r="Z1" s="434"/>
+      <c r="AA1" s="476" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="473"/>
-      <c r="AC1" s="467" t="str">
+      <c r="AB1" s="477"/>
+      <c r="AC1" s="441" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="468"/>
-      <c r="AE1" s="468"/>
-      <c r="AF1" s="469"/>
-      <c r="AG1" s="474">
+      <c r="AD1" s="442"/>
+      <c r="AE1" s="442"/>
+      <c r="AF1" s="443"/>
+      <c r="AG1" s="473">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="475"/>
-      <c r="AI1" s="476"/>
+      <c r="AH1" s="474"/>
+      <c r="AI1" s="475"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="141"/>
     </row>
     <row r="2" spans="1:53" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="439" t="s">
+      <c r="A2" s="413" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="440"/>
-      <c r="C2" s="440"/>
-      <c r="D2" s="441"/>
-      <c r="E2" s="470" t="str">
+      <c r="B2" s="414"/>
+      <c r="C2" s="414"/>
+      <c r="D2" s="415"/>
+      <c r="E2" s="444" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="443"/>
-      <c r="G2" s="443"/>
-      <c r="H2" s="443"/>
-      <c r="I2" s="443"/>
-      <c r="J2" s="443"/>
-      <c r="K2" s="443"/>
-      <c r="L2" s="443"/>
-      <c r="M2" s="443"/>
-      <c r="N2" s="444"/>
-      <c r="O2" s="452"/>
-      <c r="P2" s="453"/>
-      <c r="Q2" s="453"/>
-      <c r="R2" s="454"/>
-      <c r="S2" s="461"/>
-      <c r="T2" s="462"/>
-      <c r="U2" s="462"/>
-      <c r="V2" s="462"/>
-      <c r="W2" s="462"/>
-      <c r="X2" s="462"/>
-      <c r="Y2" s="462"/>
-      <c r="Z2" s="463"/>
-      <c r="AA2" s="472" t="s">
+      <c r="F2" s="417"/>
+      <c r="G2" s="417"/>
+      <c r="H2" s="417"/>
+      <c r="I2" s="417"/>
+      <c r="J2" s="417"/>
+      <c r="K2" s="417"/>
+      <c r="L2" s="417"/>
+      <c r="M2" s="417"/>
+      <c r="N2" s="418"/>
+      <c r="O2" s="426"/>
+      <c r="P2" s="427"/>
+      <c r="Q2" s="427"/>
+      <c r="R2" s="428"/>
+      <c r="S2" s="435"/>
+      <c r="T2" s="436"/>
+      <c r="U2" s="436"/>
+      <c r="V2" s="436"/>
+      <c r="W2" s="436"/>
+      <c r="X2" s="436"/>
+      <c r="Y2" s="436"/>
+      <c r="Z2" s="437"/>
+      <c r="AA2" s="476" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="473"/>
-      <c r="AC2" s="467" t="str">
+      <c r="AB2" s="477"/>
+      <c r="AC2" s="441" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="468"/>
-      <c r="AE2" s="468"/>
-      <c r="AF2" s="469"/>
-      <c r="AG2" s="474" t="str">
+      <c r="AD2" s="442"/>
+      <c r="AE2" s="442"/>
+      <c r="AF2" s="443"/>
+      <c r="AG2" s="473" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="475"/>
-      <c r="AI2" s="476"/>
+      <c r="AH2" s="474"/>
+      <c r="AI2" s="475"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
     </row>
     <row r="3" spans="1:53" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="439" t="s">
+      <c r="A3" s="413" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="440"/>
-      <c r="C3" s="440"/>
-      <c r="D3" s="441"/>
-      <c r="E3" s="470" t="str">
+      <c r="B3" s="414"/>
+      <c r="C3" s="414"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="444" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="443"/>
-      <c r="G3" s="443"/>
-      <c r="H3" s="443"/>
-      <c r="I3" s="443"/>
-      <c r="J3" s="443"/>
-      <c r="K3" s="443"/>
-      <c r="L3" s="443"/>
-      <c r="M3" s="443"/>
-      <c r="N3" s="444"/>
-      <c r="O3" s="455"/>
-      <c r="P3" s="456"/>
-      <c r="Q3" s="456"/>
-      <c r="R3" s="457"/>
-      <c r="S3" s="464"/>
-      <c r="T3" s="465"/>
-      <c r="U3" s="465"/>
-      <c r="V3" s="465"/>
-      <c r="W3" s="465"/>
-      <c r="X3" s="465"/>
-      <c r="Y3" s="465"/>
-      <c r="Z3" s="466"/>
-      <c r="AA3" s="472"/>
-      <c r="AB3" s="473"/>
-      <c r="AC3" s="467" t="str">
+      <c r="F3" s="417"/>
+      <c r="G3" s="417"/>
+      <c r="H3" s="417"/>
+      <c r="I3" s="417"/>
+      <c r="J3" s="417"/>
+      <c r="K3" s="417"/>
+      <c r="L3" s="417"/>
+      <c r="M3" s="417"/>
+      <c r="N3" s="418"/>
+      <c r="O3" s="429"/>
+      <c r="P3" s="430"/>
+      <c r="Q3" s="430"/>
+      <c r="R3" s="431"/>
+      <c r="S3" s="438"/>
+      <c r="T3" s="439"/>
+      <c r="U3" s="439"/>
+      <c r="V3" s="439"/>
+      <c r="W3" s="439"/>
+      <c r="X3" s="439"/>
+      <c r="Y3" s="439"/>
+      <c r="Z3" s="440"/>
+      <c r="AA3" s="476"/>
+      <c r="AB3" s="477"/>
+      <c r="AC3" s="441" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="468"/>
-      <c r="AE3" s="468"/>
-      <c r="AF3" s="469"/>
-      <c r="AG3" s="474" t="str">
+      <c r="AD3" s="442"/>
+      <c r="AE3" s="442"/>
+      <c r="AF3" s="443"/>
+      <c r="AG3" s="473" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="475"/>
-      <c r="AI3" s="476"/>
+      <c r="AH3" s="474"/>
+      <c r="AI3" s="475"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -29590,14 +29596,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -29607,6 +29605,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -29634,165 +29640,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="491" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="482"/>
-      <c r="E1" s="483" t="str">
+      <c r="B1" s="492"/>
+      <c r="C1" s="492"/>
+      <c r="D1" s="493"/>
+      <c r="E1" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="484"/>
-      <c r="G1" s="484"/>
-      <c r="H1" s="484"/>
-      <c r="I1" s="484"/>
-      <c r="J1" s="484"/>
-      <c r="K1" s="484"/>
-      <c r="L1" s="484"/>
-      <c r="M1" s="484"/>
-      <c r="N1" s="485"/>
-      <c r="O1" s="489" t="s">
+      <c r="F1" s="495"/>
+      <c r="G1" s="495"/>
+      <c r="H1" s="495"/>
+      <c r="I1" s="495"/>
+      <c r="J1" s="495"/>
+      <c r="K1" s="495"/>
+      <c r="L1" s="495"/>
+      <c r="M1" s="495"/>
+      <c r="N1" s="496"/>
+      <c r="O1" s="500" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="490"/>
-      <c r="Q1" s="490"/>
-      <c r="R1" s="491"/>
-      <c r="S1" s="498" t="str">
+      <c r="P1" s="501"/>
+      <c r="Q1" s="501"/>
+      <c r="R1" s="502"/>
+      <c r="S1" s="509" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="499"/>
-      <c r="U1" s="499"/>
-      <c r="V1" s="499"/>
-      <c r="W1" s="499"/>
-      <c r="X1" s="499"/>
-      <c r="Y1" s="499"/>
-      <c r="Z1" s="500"/>
-      <c r="AA1" s="480" t="s">
+      <c r="T1" s="510"/>
+      <c r="U1" s="510"/>
+      <c r="V1" s="510"/>
+      <c r="W1" s="510"/>
+      <c r="X1" s="510"/>
+      <c r="Y1" s="510"/>
+      <c r="Z1" s="511"/>
+      <c r="AA1" s="491" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="482"/>
-      <c r="AC1" s="486" t="str">
+      <c r="AB1" s="493"/>
+      <c r="AC1" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="487"/>
-      <c r="AE1" s="487"/>
-      <c r="AF1" s="488"/>
-      <c r="AG1" s="477">
+      <c r="AD1" s="498"/>
+      <c r="AE1" s="498"/>
+      <c r="AF1" s="499"/>
+      <c r="AG1" s="479">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="478"/>
-      <c r="AI1" s="479"/>
+      <c r="AH1" s="480"/>
+      <c r="AI1" s="481"/>
       <c r="AJ1" s="11"/>
       <c r="AN1" s="18"/>
       <c r="AO1" s="18"/>
       <c r="AP1" s="18"/>
     </row>
     <row r="2" spans="1:42" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="480" t="s">
+      <c r="A2" s="491" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="481"/>
-      <c r="C2" s="481"/>
-      <c r="D2" s="482"/>
-      <c r="E2" s="483" t="str">
+      <c r="B2" s="492"/>
+      <c r="C2" s="492"/>
+      <c r="D2" s="493"/>
+      <c r="E2" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-      <c r="I2" s="484"/>
-      <c r="J2" s="484"/>
-      <c r="K2" s="484"/>
-      <c r="L2" s="484"/>
-      <c r="M2" s="484"/>
-      <c r="N2" s="485"/>
-      <c r="O2" s="492"/>
-      <c r="P2" s="493"/>
-      <c r="Q2" s="493"/>
-      <c r="R2" s="494"/>
-      <c r="S2" s="501"/>
-      <c r="T2" s="502"/>
-      <c r="U2" s="502"/>
-      <c r="V2" s="502"/>
-      <c r="W2" s="502"/>
-      <c r="X2" s="502"/>
-      <c r="Y2" s="502"/>
-      <c r="Z2" s="503"/>
-      <c r="AA2" s="480" t="s">
+      <c r="F2" s="495"/>
+      <c r="G2" s="495"/>
+      <c r="H2" s="495"/>
+      <c r="I2" s="495"/>
+      <c r="J2" s="495"/>
+      <c r="K2" s="495"/>
+      <c r="L2" s="495"/>
+      <c r="M2" s="495"/>
+      <c r="N2" s="496"/>
+      <c r="O2" s="503"/>
+      <c r="P2" s="504"/>
+      <c r="Q2" s="504"/>
+      <c r="R2" s="505"/>
+      <c r="S2" s="512"/>
+      <c r="T2" s="513"/>
+      <c r="U2" s="513"/>
+      <c r="V2" s="513"/>
+      <c r="W2" s="513"/>
+      <c r="X2" s="513"/>
+      <c r="Y2" s="513"/>
+      <c r="Z2" s="514"/>
+      <c r="AA2" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="482"/>
-      <c r="AC2" s="486" t="str">
+      <c r="AB2" s="493"/>
+      <c r="AC2" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="487"/>
-      <c r="AE2" s="487"/>
-      <c r="AF2" s="488"/>
-      <c r="AG2" s="477" t="str">
+      <c r="AD2" s="498"/>
+      <c r="AE2" s="498"/>
+      <c r="AF2" s="499"/>
+      <c r="AG2" s="479" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="478"/>
-      <c r="AI2" s="479"/>
+      <c r="AH2" s="480"/>
+      <c r="AI2" s="481"/>
       <c r="AJ2" s="11"/>
       <c r="AN2" s="18"/>
       <c r="AO2" s="18"/>
       <c r="AP2" s="18"/>
     </row>
     <row r="3" spans="1:42" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="480" t="s">
+      <c r="A3" s="491" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="481"/>
-      <c r="C3" s="481"/>
-      <c r="D3" s="482"/>
-      <c r="E3" s="483" t="str">
+      <c r="B3" s="492"/>
+      <c r="C3" s="492"/>
+      <c r="D3" s="493"/>
+      <c r="E3" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="484"/>
-      <c r="G3" s="484"/>
-      <c r="H3" s="484"/>
-      <c r="I3" s="484"/>
-      <c r="J3" s="484"/>
-      <c r="K3" s="484"/>
-      <c r="L3" s="484"/>
-      <c r="M3" s="484"/>
-      <c r="N3" s="485"/>
-      <c r="O3" s="495"/>
-      <c r="P3" s="496"/>
-      <c r="Q3" s="496"/>
-      <c r="R3" s="497"/>
-      <c r="S3" s="504"/>
-      <c r="T3" s="505"/>
-      <c r="U3" s="505"/>
-      <c r="V3" s="505"/>
-      <c r="W3" s="505"/>
-      <c r="X3" s="505"/>
-      <c r="Y3" s="505"/>
-      <c r="Z3" s="506"/>
-      <c r="AA3" s="480"/>
-      <c r="AB3" s="482"/>
-      <c r="AC3" s="486" t="str">
+      <c r="F3" s="495"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="495"/>
+      <c r="I3" s="495"/>
+      <c r="J3" s="495"/>
+      <c r="K3" s="495"/>
+      <c r="L3" s="495"/>
+      <c r="M3" s="495"/>
+      <c r="N3" s="496"/>
+      <c r="O3" s="506"/>
+      <c r="P3" s="507"/>
+      <c r="Q3" s="507"/>
+      <c r="R3" s="508"/>
+      <c r="S3" s="515"/>
+      <c r="T3" s="516"/>
+      <c r="U3" s="516"/>
+      <c r="V3" s="516"/>
+      <c r="W3" s="516"/>
+      <c r="X3" s="516"/>
+      <c r="Y3" s="516"/>
+      <c r="Z3" s="517"/>
+      <c r="AA3" s="491"/>
+      <c r="AB3" s="493"/>
+      <c r="AC3" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="487"/>
-      <c r="AE3" s="487"/>
-      <c r="AF3" s="488"/>
-      <c r="AG3" s="477" t="str">
+      <c r="AD3" s="498"/>
+      <c r="AE3" s="498"/>
+      <c r="AF3" s="499"/>
+      <c r="AG3" s="479" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="478"/>
-      <c r="AI3" s="479"/>
+      <c r="AH3" s="480"/>
+      <c r="AI3" s="481"/>
       <c r="AJ3" s="11"/>
       <c r="AN3" s="18"/>
       <c r="AO3" s="18"/>
@@ -29843,81 +29849,76 @@
       <c r="C14" s="138"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="D15" s="507" t="s">
+      <c r="D15" s="482" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="508"/>
-      <c r="F15" s="508"/>
-      <c r="G15" s="508"/>
-      <c r="H15" s="508"/>
-      <c r="I15" s="508"/>
-      <c r="J15" s="509"/>
-      <c r="K15" s="507" t="s">
+      <c r="E15" s="483"/>
+      <c r="F15" s="483"/>
+      <c r="G15" s="483"/>
+      <c r="H15" s="483"/>
+      <c r="I15" s="483"/>
+      <c r="J15" s="484"/>
+      <c r="K15" s="482" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="508"/>
-      <c r="M15" s="508"/>
-      <c r="N15" s="508"/>
-      <c r="O15" s="508"/>
-      <c r="P15" s="508"/>
-      <c r="Q15" s="508"/>
-      <c r="R15" s="508"/>
-      <c r="S15" s="508"/>
-      <c r="T15" s="508"/>
-      <c r="U15" s="508"/>
-      <c r="V15" s="508"/>
-      <c r="W15" s="508"/>
-      <c r="X15" s="508"/>
-      <c r="Y15" s="508"/>
-      <c r="Z15" s="508"/>
-      <c r="AA15" s="508"/>
-      <c r="AB15" s="508"/>
-      <c r="AC15" s="508"/>
-      <c r="AD15" s="509"/>
+      <c r="L15" s="483"/>
+      <c r="M15" s="483"/>
+      <c r="N15" s="483"/>
+      <c r="O15" s="483"/>
+      <c r="P15" s="483"/>
+      <c r="Q15" s="483"/>
+      <c r="R15" s="483"/>
+      <c r="S15" s="483"/>
+      <c r="T15" s="483"/>
+      <c r="U15" s="483"/>
+      <c r="V15" s="483"/>
+      <c r="W15" s="483"/>
+      <c r="X15" s="483"/>
+      <c r="Y15" s="483"/>
+      <c r="Z15" s="483"/>
+      <c r="AA15" s="483"/>
+      <c r="AB15" s="483"/>
+      <c r="AC15" s="483"/>
+      <c r="AD15" s="484"/>
     </row>
     <row r="16" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="513" t="s">
+      <c r="D16" s="488" t="s">
         <v>191</v>
       </c>
-      <c r="E16" s="514"/>
-      <c r="F16" s="514"/>
-      <c r="G16" s="514"/>
-      <c r="H16" s="514"/>
-      <c r="I16" s="514"/>
-      <c r="J16" s="515"/>
-      <c r="K16" s="510" t="s">
+      <c r="E16" s="489"/>
+      <c r="F16" s="489"/>
+      <c r="G16" s="489"/>
+      <c r="H16" s="489"/>
+      <c r="I16" s="489"/>
+      <c r="J16" s="490"/>
+      <c r="K16" s="485" t="s">
         <v>71</v>
       </c>
-      <c r="L16" s="511"/>
-      <c r="M16" s="511"/>
-      <c r="N16" s="511"/>
-      <c r="O16" s="511"/>
-      <c r="P16" s="511"/>
-      <c r="Q16" s="511"/>
-      <c r="R16" s="511"/>
-      <c r="S16" s="511"/>
-      <c r="T16" s="511"/>
-      <c r="U16" s="511"/>
-      <c r="V16" s="511"/>
-      <c r="W16" s="511"/>
-      <c r="X16" s="511"/>
-      <c r="Y16" s="511"/>
-      <c r="Z16" s="511"/>
-      <c r="AA16" s="511"/>
-      <c r="AB16" s="511"/>
-      <c r="AC16" s="511"/>
-      <c r="AD16" s="512"/>
+      <c r="L16" s="486"/>
+      <c r="M16" s="486"/>
+      <c r="N16" s="486"/>
+      <c r="O16" s="486"/>
+      <c r="P16" s="486"/>
+      <c r="Q16" s="486"/>
+      <c r="R16" s="486"/>
+      <c r="S16" s="486"/>
+      <c r="T16" s="486"/>
+      <c r="U16" s="486"/>
+      <c r="V16" s="486"/>
+      <c r="W16" s="486"/>
+      <c r="X16" s="486"/>
+      <c r="Y16" s="486"/>
+      <c r="Z16" s="486"/>
+      <c r="AA16" s="486"/>
+      <c r="AB16" s="486"/>
+      <c r="AC16" s="486"/>
+      <c r="AD16" s="487"/>
     </row>
     <row r="21" spans="3:3" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C21" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="K15:AD15"/>
-    <mergeCell ref="K16:AD16"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D16:J16"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
@@ -29934,6 +29935,11 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="K15:AD15"/>
+    <mergeCell ref="K16:AD16"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -29963,165 +29969,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="491" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="482"/>
-      <c r="E1" s="483" t="str">
+      <c r="B1" s="492"/>
+      <c r="C1" s="492"/>
+      <c r="D1" s="493"/>
+      <c r="E1" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="484"/>
-      <c r="G1" s="484"/>
-      <c r="H1" s="484"/>
-      <c r="I1" s="484"/>
-      <c r="J1" s="484"/>
-      <c r="K1" s="484"/>
-      <c r="L1" s="484"/>
-      <c r="M1" s="484"/>
-      <c r="N1" s="485"/>
-      <c r="O1" s="489" t="s">
+      <c r="F1" s="495"/>
+      <c r="G1" s="495"/>
+      <c r="H1" s="495"/>
+      <c r="I1" s="495"/>
+      <c r="J1" s="495"/>
+      <c r="K1" s="495"/>
+      <c r="L1" s="495"/>
+      <c r="M1" s="495"/>
+      <c r="N1" s="496"/>
+      <c r="O1" s="500" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="490"/>
-      <c r="Q1" s="490"/>
-      <c r="R1" s="491"/>
-      <c r="S1" s="498" t="str">
+      <c r="P1" s="501"/>
+      <c r="Q1" s="501"/>
+      <c r="R1" s="502"/>
+      <c r="S1" s="509" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="499"/>
-      <c r="U1" s="499"/>
-      <c r="V1" s="499"/>
-      <c r="W1" s="499"/>
-      <c r="X1" s="499"/>
-      <c r="Y1" s="499"/>
-      <c r="Z1" s="500"/>
-      <c r="AA1" s="480" t="s">
+      <c r="T1" s="510"/>
+      <c r="U1" s="510"/>
+      <c r="V1" s="510"/>
+      <c r="W1" s="510"/>
+      <c r="X1" s="510"/>
+      <c r="Y1" s="510"/>
+      <c r="Z1" s="511"/>
+      <c r="AA1" s="491" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="482"/>
-      <c r="AC1" s="486" t="str">
+      <c r="AB1" s="493"/>
+      <c r="AC1" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="487"/>
-      <c r="AE1" s="487"/>
-      <c r="AF1" s="488"/>
-      <c r="AG1" s="541">
+      <c r="AD1" s="498"/>
+      <c r="AE1" s="498"/>
+      <c r="AF1" s="499"/>
+      <c r="AG1" s="521">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="542"/>
-      <c r="AI1" s="543"/>
+      <c r="AH1" s="522"/>
+      <c r="AI1" s="523"/>
       <c r="AJ1" s="49"/>
       <c r="AN1" s="47"/>
       <c r="AO1" s="47"/>
       <c r="AP1" s="47"/>
     </row>
     <row r="2" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="480" t="s">
+      <c r="A2" s="491" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="481"/>
-      <c r="C2" s="481"/>
-      <c r="D2" s="482"/>
-      <c r="E2" s="483" t="str">
+      <c r="B2" s="492"/>
+      <c r="C2" s="492"/>
+      <c r="D2" s="493"/>
+      <c r="E2" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-      <c r="I2" s="484"/>
-      <c r="J2" s="484"/>
-      <c r="K2" s="484"/>
-      <c r="L2" s="484"/>
-      <c r="M2" s="484"/>
-      <c r="N2" s="485"/>
-      <c r="O2" s="492"/>
-      <c r="P2" s="493"/>
-      <c r="Q2" s="493"/>
-      <c r="R2" s="494"/>
-      <c r="S2" s="501"/>
-      <c r="T2" s="502"/>
-      <c r="U2" s="502"/>
-      <c r="V2" s="502"/>
-      <c r="W2" s="502"/>
-      <c r="X2" s="502"/>
-      <c r="Y2" s="502"/>
-      <c r="Z2" s="503"/>
-      <c r="AA2" s="480" t="s">
+      <c r="F2" s="495"/>
+      <c r="G2" s="495"/>
+      <c r="H2" s="495"/>
+      <c r="I2" s="495"/>
+      <c r="J2" s="495"/>
+      <c r="K2" s="495"/>
+      <c r="L2" s="495"/>
+      <c r="M2" s="495"/>
+      <c r="N2" s="496"/>
+      <c r="O2" s="503"/>
+      <c r="P2" s="504"/>
+      <c r="Q2" s="504"/>
+      <c r="R2" s="505"/>
+      <c r="S2" s="512"/>
+      <c r="T2" s="513"/>
+      <c r="U2" s="513"/>
+      <c r="V2" s="513"/>
+      <c r="W2" s="513"/>
+      <c r="X2" s="513"/>
+      <c r="Y2" s="513"/>
+      <c r="Z2" s="514"/>
+      <c r="AA2" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="482"/>
-      <c r="AC2" s="486" t="str">
+      <c r="AB2" s="493"/>
+      <c r="AC2" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="487"/>
-      <c r="AE2" s="487"/>
-      <c r="AF2" s="488"/>
-      <c r="AG2" s="541" t="str">
+      <c r="AD2" s="498"/>
+      <c r="AE2" s="498"/>
+      <c r="AF2" s="499"/>
+      <c r="AG2" s="521" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="542"/>
-      <c r="AI2" s="543"/>
+      <c r="AH2" s="522"/>
+      <c r="AI2" s="523"/>
       <c r="AJ2" s="49"/>
       <c r="AN2" s="47"/>
       <c r="AO2" s="47"/>
       <c r="AP2" s="47"/>
     </row>
     <row r="3" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="480" t="s">
+      <c r="A3" s="491" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="481"/>
-      <c r="C3" s="481"/>
-      <c r="D3" s="482"/>
-      <c r="E3" s="483" t="str">
+      <c r="B3" s="492"/>
+      <c r="C3" s="492"/>
+      <c r="D3" s="493"/>
+      <c r="E3" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="484"/>
-      <c r="G3" s="484"/>
-      <c r="H3" s="484"/>
-      <c r="I3" s="484"/>
-      <c r="J3" s="484"/>
-      <c r="K3" s="484"/>
-      <c r="L3" s="484"/>
-      <c r="M3" s="484"/>
-      <c r="N3" s="485"/>
-      <c r="O3" s="495"/>
-      <c r="P3" s="496"/>
-      <c r="Q3" s="496"/>
-      <c r="R3" s="497"/>
-      <c r="S3" s="504"/>
-      <c r="T3" s="505"/>
-      <c r="U3" s="505"/>
-      <c r="V3" s="505"/>
-      <c r="W3" s="505"/>
-      <c r="X3" s="505"/>
-      <c r="Y3" s="505"/>
-      <c r="Z3" s="506"/>
-      <c r="AA3" s="480"/>
-      <c r="AB3" s="482"/>
-      <c r="AC3" s="486" t="str">
+      <c r="F3" s="495"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="495"/>
+      <c r="I3" s="495"/>
+      <c r="J3" s="495"/>
+      <c r="K3" s="495"/>
+      <c r="L3" s="495"/>
+      <c r="M3" s="495"/>
+      <c r="N3" s="496"/>
+      <c r="O3" s="506"/>
+      <c r="P3" s="507"/>
+      <c r="Q3" s="507"/>
+      <c r="R3" s="508"/>
+      <c r="S3" s="515"/>
+      <c r="T3" s="516"/>
+      <c r="U3" s="516"/>
+      <c r="V3" s="516"/>
+      <c r="W3" s="516"/>
+      <c r="X3" s="516"/>
+      <c r="Y3" s="516"/>
+      <c r="Z3" s="517"/>
+      <c r="AA3" s="491"/>
+      <c r="AB3" s="493"/>
+      <c r="AC3" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="487"/>
-      <c r="AE3" s="487"/>
-      <c r="AF3" s="488"/>
-      <c r="AG3" s="541" t="str">
+      <c r="AD3" s="498"/>
+      <c r="AE3" s="498"/>
+      <c r="AF3" s="499"/>
+      <c r="AG3" s="521" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="542"/>
-      <c r="AI3" s="543"/>
+      <c r="AH3" s="522"/>
+      <c r="AI3" s="523"/>
       <c r="AJ3" s="49"/>
       <c r="AN3" s="47"/>
       <c r="AO3" s="47"/>
@@ -30321,12 +30327,12 @@
     </row>
     <row r="21" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D21" s="138"/>
-      <c r="F21" s="519" t="s">
+      <c r="F21" s="524" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="520"/>
-      <c r="H21" s="520"/>
-      <c r="I21" s="521"/>
+      <c r="G21" s="525"/>
+      <c r="H21" s="525"/>
+      <c r="I21" s="526"/>
       <c r="J21" s="101" t="s">
         <v>25</v>
       </c>
@@ -31884,17 +31890,17 @@
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
       <c r="F61" s="43"/>
-      <c r="G61" s="516" t="s">
+      <c r="G61" s="518" t="s">
         <v>28</v>
       </c>
-      <c r="H61" s="517"/>
-      <c r="I61" s="517"/>
-      <c r="J61" s="518"/>
-      <c r="K61" s="507" t="s">
+      <c r="H61" s="519"/>
+      <c r="I61" s="519"/>
+      <c r="J61" s="520"/>
+      <c r="K61" s="482" t="s">
         <v>67</v>
       </c>
-      <c r="L61" s="508"/>
-      <c r="M61" s="509"/>
+      <c r="L61" s="483"/>
+      <c r="M61" s="484"/>
       <c r="N61" s="101" t="s">
         <v>160</v>
       </c>
@@ -31937,17 +31943,17 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="32"/>
-      <c r="G62" s="522" t="s">
+      <c r="G62" s="527" t="s">
         <v>522</v>
       </c>
-      <c r="H62" s="523"/>
-      <c r="I62" s="523"/>
-      <c r="J62" s="524"/>
-      <c r="K62" s="522" t="s">
+      <c r="H62" s="528"/>
+      <c r="I62" s="528"/>
+      <c r="J62" s="529"/>
+      <c r="K62" s="527" t="s">
         <v>473</v>
       </c>
-      <c r="L62" s="523"/>
-      <c r="M62" s="524"/>
+      <c r="L62" s="528"/>
+      <c r="M62" s="529"/>
       <c r="N62" s="137" t="s">
         <v>286</v>
       </c>
@@ -31990,13 +31996,13 @@
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
       <c r="F63" s="32"/>
-      <c r="G63" s="525"/>
-      <c r="H63" s="526"/>
-      <c r="I63" s="526"/>
-      <c r="J63" s="527"/>
-      <c r="K63" s="531"/>
-      <c r="L63" s="526"/>
-      <c r="M63" s="527"/>
+      <c r="G63" s="530"/>
+      <c r="H63" s="531"/>
+      <c r="I63" s="531"/>
+      <c r="J63" s="532"/>
+      <c r="K63" s="536"/>
+      <c r="L63" s="531"/>
+      <c r="M63" s="532"/>
       <c r="N63" s="174" t="s">
         <v>287</v>
       </c>
@@ -32039,13 +32045,13 @@
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="32"/>
-      <c r="G64" s="525"/>
-      <c r="H64" s="526"/>
-      <c r="I64" s="526"/>
-      <c r="J64" s="527"/>
-      <c r="K64" s="525"/>
-      <c r="L64" s="526"/>
-      <c r="M64" s="527"/>
+      <c r="G64" s="530"/>
+      <c r="H64" s="531"/>
+      <c r="I64" s="531"/>
+      <c r="J64" s="532"/>
+      <c r="K64" s="530"/>
+      <c r="L64" s="531"/>
+      <c r="M64" s="532"/>
       <c r="N64" s="174" t="s">
         <v>274</v>
       </c>
@@ -32088,13 +32094,13 @@
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
       <c r="F65" s="32"/>
-      <c r="G65" s="525"/>
-      <c r="H65" s="526"/>
-      <c r="I65" s="526"/>
-      <c r="J65" s="527"/>
-      <c r="K65" s="525"/>
-      <c r="L65" s="526"/>
-      <c r="M65" s="527"/>
+      <c r="G65" s="530"/>
+      <c r="H65" s="531"/>
+      <c r="I65" s="531"/>
+      <c r="J65" s="532"/>
+      <c r="K65" s="530"/>
+      <c r="L65" s="531"/>
+      <c r="M65" s="532"/>
       <c r="N65" s="174" t="s">
         <v>275</v>
       </c>
@@ -32137,13 +32143,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="33"/>
-      <c r="G66" s="528"/>
-      <c r="H66" s="529"/>
-      <c r="I66" s="529"/>
-      <c r="J66" s="530"/>
-      <c r="K66" s="528"/>
-      <c r="L66" s="529"/>
-      <c r="M66" s="530"/>
+      <c r="G66" s="533"/>
+      <c r="H66" s="534"/>
+      <c r="I66" s="534"/>
+      <c r="J66" s="535"/>
+      <c r="K66" s="533"/>
+      <c r="L66" s="534"/>
+      <c r="M66" s="535"/>
       <c r="N66" s="176"/>
       <c r="O66" s="177"/>
       <c r="P66" s="177"/>
@@ -32184,17 +32190,17 @@
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="33"/>
-      <c r="G67" s="532" t="s">
+      <c r="G67" s="537" t="s">
         <v>523</v>
       </c>
-      <c r="H67" s="533"/>
-      <c r="I67" s="533"/>
-      <c r="J67" s="534"/>
-      <c r="K67" s="522" t="s">
+      <c r="H67" s="538"/>
+      <c r="I67" s="538"/>
+      <c r="J67" s="539"/>
+      <c r="K67" s="527" t="s">
         <v>524</v>
       </c>
-      <c r="L67" s="523"/>
-      <c r="M67" s="524"/>
+      <c r="L67" s="528"/>
+      <c r="M67" s="529"/>
       <c r="N67" s="291" t="s">
         <v>525</v>
       </c>
@@ -32236,13 +32242,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="33"/>
-      <c r="G68" s="535"/>
-      <c r="H68" s="536"/>
-      <c r="I68" s="536"/>
-      <c r="J68" s="537"/>
-      <c r="K68" s="531"/>
-      <c r="L68" s="526"/>
-      <c r="M68" s="527"/>
+      <c r="G68" s="540"/>
+      <c r="H68" s="541"/>
+      <c r="I68" s="541"/>
+      <c r="J68" s="542"/>
+      <c r="K68" s="536"/>
+      <c r="L68" s="531"/>
+      <c r="M68" s="532"/>
       <c r="N68" s="174" t="s">
         <v>526</v>
       </c>
@@ -32284,13 +32290,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="33"/>
-      <c r="G69" s="535"/>
-      <c r="H69" s="536"/>
-      <c r="I69" s="536"/>
-      <c r="J69" s="537"/>
-      <c r="K69" s="525"/>
-      <c r="L69" s="526"/>
-      <c r="M69" s="527"/>
+      <c r="G69" s="540"/>
+      <c r="H69" s="541"/>
+      <c r="I69" s="541"/>
+      <c r="J69" s="542"/>
+      <c r="K69" s="530"/>
+      <c r="L69" s="531"/>
+      <c r="M69" s="532"/>
       <c r="N69" s="174" t="s">
         <v>275</v>
       </c>
@@ -32332,13 +32338,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="33"/>
-      <c r="G70" s="538"/>
-      <c r="H70" s="539"/>
-      <c r="I70" s="539"/>
-      <c r="J70" s="540"/>
-      <c r="K70" s="528"/>
-      <c r="L70" s="529"/>
-      <c r="M70" s="530"/>
+      <c r="G70" s="543"/>
+      <c r="H70" s="544"/>
+      <c r="I70" s="544"/>
+      <c r="J70" s="545"/>
+      <c r="K70" s="533"/>
+      <c r="L70" s="534"/>
+      <c r="M70" s="535"/>
       <c r="N70" s="176"/>
       <c r="O70" s="177"/>
       <c r="P70" s="177"/>
@@ -32779,17 +32785,17 @@
     <row r="85" spans="4:34" x14ac:dyDescent="0.15">
       <c r="E85" s="17"/>
       <c r="F85" s="123"/>
-      <c r="G85" s="516" t="s">
+      <c r="G85" s="518" t="s">
         <v>449</v>
       </c>
-      <c r="H85" s="517"/>
-      <c r="I85" s="517"/>
-      <c r="J85" s="518"/>
-      <c r="K85" s="507" t="s">
+      <c r="H85" s="519"/>
+      <c r="I85" s="519"/>
+      <c r="J85" s="520"/>
+      <c r="K85" s="482" t="s">
         <v>67</v>
       </c>
-      <c r="L85" s="508"/>
-      <c r="M85" s="509"/>
+      <c r="L85" s="483"/>
+      <c r="M85" s="484"/>
       <c r="N85" s="334" t="s">
         <v>160</v>
       </c>
@@ -33068,17 +33074,17 @@
     </row>
     <row r="99" spans="5:34" x14ac:dyDescent="0.15">
       <c r="E99" s="17"/>
-      <c r="G99" s="516" t="s">
+      <c r="G99" s="518" t="s">
         <v>28</v>
       </c>
-      <c r="H99" s="517"/>
-      <c r="I99" s="517"/>
-      <c r="J99" s="518"/>
-      <c r="K99" s="507" t="s">
+      <c r="H99" s="519"/>
+      <c r="I99" s="519"/>
+      <c r="J99" s="520"/>
+      <c r="K99" s="482" t="s">
         <v>67</v>
       </c>
-      <c r="L99" s="508"/>
-      <c r="M99" s="509"/>
+      <c r="L99" s="483"/>
+      <c r="M99" s="484"/>
       <c r="N99" s="369" t="s">
         <v>160</v>
       </c>
@@ -33252,6 +33258,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="G62:J66"/>
+    <mergeCell ref="K62:M66"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="G67:J70"/>
+    <mergeCell ref="K67:M70"/>
     <mergeCell ref="G99:J99"/>
     <mergeCell ref="K99:M99"/>
     <mergeCell ref="AG3:AI3"/>
@@ -33268,18 +33286,6 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="G62:J66"/>
-    <mergeCell ref="K62:M66"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="G67:J70"/>
-    <mergeCell ref="K67:M70"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -33302,7 +33308,7 @@
   </sheetPr>
   <dimension ref="A1:AP339"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A289" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -33315,165 +33321,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="491" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="482"/>
-      <c r="E1" s="483" t="str">
+      <c r="B1" s="492"/>
+      <c r="C1" s="492"/>
+      <c r="D1" s="493"/>
+      <c r="E1" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="484"/>
-      <c r="G1" s="484"/>
-      <c r="H1" s="484"/>
-      <c r="I1" s="484"/>
-      <c r="J1" s="484"/>
-      <c r="K1" s="484"/>
-      <c r="L1" s="484"/>
-      <c r="M1" s="484"/>
-      <c r="N1" s="485"/>
-      <c r="O1" s="544" t="s">
+      <c r="F1" s="495"/>
+      <c r="G1" s="495"/>
+      <c r="H1" s="495"/>
+      <c r="I1" s="495"/>
+      <c r="J1" s="495"/>
+      <c r="K1" s="495"/>
+      <c r="L1" s="495"/>
+      <c r="M1" s="495"/>
+      <c r="N1" s="496"/>
+      <c r="O1" s="546" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="490"/>
-      <c r="Q1" s="490"/>
-      <c r="R1" s="545"/>
-      <c r="S1" s="546" t="str">
+      <c r="P1" s="501"/>
+      <c r="Q1" s="501"/>
+      <c r="R1" s="547"/>
+      <c r="S1" s="548" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="499"/>
-      <c r="U1" s="499"/>
-      <c r="V1" s="499"/>
-      <c r="W1" s="499"/>
-      <c r="X1" s="499"/>
-      <c r="Y1" s="499"/>
-      <c r="Z1" s="547"/>
-      <c r="AA1" s="480" t="s">
+      <c r="T1" s="510"/>
+      <c r="U1" s="510"/>
+      <c r="V1" s="510"/>
+      <c r="W1" s="510"/>
+      <c r="X1" s="510"/>
+      <c r="Y1" s="510"/>
+      <c r="Z1" s="549"/>
+      <c r="AA1" s="491" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="482"/>
-      <c r="AC1" s="486" t="str">
+      <c r="AB1" s="493"/>
+      <c r="AC1" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="487"/>
-      <c r="AE1" s="487"/>
-      <c r="AF1" s="488"/>
-      <c r="AG1" s="541">
+      <c r="AD1" s="498"/>
+      <c r="AE1" s="498"/>
+      <c r="AF1" s="499"/>
+      <c r="AG1" s="521">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="542"/>
-      <c r="AI1" s="543"/>
+      <c r="AH1" s="522"/>
+      <c r="AI1" s="523"/>
       <c r="AJ1" s="49"/>
       <c r="AN1" s="47"/>
       <c r="AO1" s="47"/>
       <c r="AP1" s="47"/>
     </row>
     <row r="2" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="480" t="s">
+      <c r="A2" s="491" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="481"/>
-      <c r="C2" s="481"/>
-      <c r="D2" s="482"/>
-      <c r="E2" s="483" t="str">
+      <c r="B2" s="492"/>
+      <c r="C2" s="492"/>
+      <c r="D2" s="493"/>
+      <c r="E2" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-      <c r="I2" s="484"/>
-      <c r="J2" s="484"/>
-      <c r="K2" s="484"/>
-      <c r="L2" s="484"/>
-      <c r="M2" s="484"/>
-      <c r="N2" s="485"/>
-      <c r="O2" s="492"/>
-      <c r="P2" s="493"/>
-      <c r="Q2" s="493"/>
-      <c r="R2" s="494"/>
-      <c r="S2" s="501"/>
-      <c r="T2" s="502"/>
-      <c r="U2" s="502"/>
-      <c r="V2" s="502"/>
-      <c r="W2" s="502"/>
-      <c r="X2" s="502"/>
-      <c r="Y2" s="502"/>
-      <c r="Z2" s="503"/>
-      <c r="AA2" s="480" t="s">
+      <c r="F2" s="495"/>
+      <c r="G2" s="495"/>
+      <c r="H2" s="495"/>
+      <c r="I2" s="495"/>
+      <c r="J2" s="495"/>
+      <c r="K2" s="495"/>
+      <c r="L2" s="495"/>
+      <c r="M2" s="495"/>
+      <c r="N2" s="496"/>
+      <c r="O2" s="503"/>
+      <c r="P2" s="504"/>
+      <c r="Q2" s="504"/>
+      <c r="R2" s="505"/>
+      <c r="S2" s="512"/>
+      <c r="T2" s="513"/>
+      <c r="U2" s="513"/>
+      <c r="V2" s="513"/>
+      <c r="W2" s="513"/>
+      <c r="X2" s="513"/>
+      <c r="Y2" s="513"/>
+      <c r="Z2" s="514"/>
+      <c r="AA2" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="482"/>
-      <c r="AC2" s="486" t="str">
+      <c r="AB2" s="493"/>
+      <c r="AC2" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="487"/>
-      <c r="AE2" s="487"/>
-      <c r="AF2" s="488"/>
-      <c r="AG2" s="541" t="str">
+      <c r="AD2" s="498"/>
+      <c r="AE2" s="498"/>
+      <c r="AF2" s="499"/>
+      <c r="AG2" s="521" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="542"/>
-      <c r="AI2" s="543"/>
+      <c r="AH2" s="522"/>
+      <c r="AI2" s="523"/>
       <c r="AJ2" s="49"/>
       <c r="AN2" s="47"/>
       <c r="AO2" s="47"/>
       <c r="AP2" s="47"/>
     </row>
     <row r="3" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="480" t="s">
+      <c r="A3" s="491" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="481"/>
-      <c r="C3" s="481"/>
-      <c r="D3" s="482"/>
-      <c r="E3" s="483" t="str">
+      <c r="B3" s="492"/>
+      <c r="C3" s="492"/>
+      <c r="D3" s="493"/>
+      <c r="E3" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="484"/>
-      <c r="G3" s="484"/>
-      <c r="H3" s="484"/>
-      <c r="I3" s="484"/>
-      <c r="J3" s="484"/>
-      <c r="K3" s="484"/>
-      <c r="L3" s="484"/>
-      <c r="M3" s="484"/>
-      <c r="N3" s="485"/>
-      <c r="O3" s="495"/>
-      <c r="P3" s="496"/>
-      <c r="Q3" s="496"/>
-      <c r="R3" s="497"/>
-      <c r="S3" s="504"/>
-      <c r="T3" s="505"/>
-      <c r="U3" s="505"/>
-      <c r="V3" s="505"/>
-      <c r="W3" s="505"/>
-      <c r="X3" s="505"/>
-      <c r="Y3" s="505"/>
-      <c r="Z3" s="506"/>
-      <c r="AA3" s="480"/>
-      <c r="AB3" s="482"/>
-      <c r="AC3" s="486" t="str">
+      <c r="F3" s="495"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="495"/>
+      <c r="I3" s="495"/>
+      <c r="J3" s="495"/>
+      <c r="K3" s="495"/>
+      <c r="L3" s="495"/>
+      <c r="M3" s="495"/>
+      <c r="N3" s="496"/>
+      <c r="O3" s="506"/>
+      <c r="P3" s="507"/>
+      <c r="Q3" s="507"/>
+      <c r="R3" s="508"/>
+      <c r="S3" s="515"/>
+      <c r="T3" s="516"/>
+      <c r="U3" s="516"/>
+      <c r="V3" s="516"/>
+      <c r="W3" s="516"/>
+      <c r="X3" s="516"/>
+      <c r="Y3" s="516"/>
+      <c r="Z3" s="517"/>
+      <c r="AA3" s="491"/>
+      <c r="AB3" s="493"/>
+      <c r="AC3" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="487"/>
-      <c r="AE3" s="487"/>
-      <c r="AF3" s="488"/>
-      <c r="AG3" s="541" t="str">
+      <c r="AD3" s="498"/>
+      <c r="AE3" s="498"/>
+      <c r="AF3" s="499"/>
+      <c r="AG3" s="521" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="542"/>
-      <c r="AI3" s="543"/>
+      <c r="AH3" s="522"/>
+      <c r="AI3" s="523"/>
       <c r="AJ3" s="49"/>
       <c r="AN3" s="47"/>
       <c r="AO3" s="47"/>
@@ -33509,41 +33515,41 @@
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="E14" s="516" t="s">
+      <c r="E14" s="518" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="517"/>
-      <c r="G14" s="517"/>
-      <c r="H14" s="517"/>
-      <c r="I14" s="517"/>
-      <c r="J14" s="518"/>
-      <c r="K14" s="516" t="s">
+      <c r="F14" s="519"/>
+      <c r="G14" s="519"/>
+      <c r="H14" s="519"/>
+      <c r="I14" s="519"/>
+      <c r="J14" s="520"/>
+      <c r="K14" s="518" t="s">
         <v>96</v>
       </c>
-      <c r="L14" s="517"/>
-      <c r="M14" s="517"/>
-      <c r="N14" s="517"/>
-      <c r="O14" s="517"/>
-      <c r="P14" s="517"/>
-      <c r="Q14" s="517"/>
-      <c r="R14" s="517"/>
-      <c r="S14" s="518"/>
-      <c r="T14" s="516" t="s">
+      <c r="L14" s="519"/>
+      <c r="M14" s="519"/>
+      <c r="N14" s="519"/>
+      <c r="O14" s="519"/>
+      <c r="P14" s="519"/>
+      <c r="Q14" s="519"/>
+      <c r="R14" s="519"/>
+      <c r="S14" s="520"/>
+      <c r="T14" s="518" t="s">
         <v>88</v>
       </c>
-      <c r="U14" s="517"/>
-      <c r="V14" s="517"/>
-      <c r="W14" s="517"/>
-      <c r="X14" s="517"/>
-      <c r="Y14" s="517"/>
-      <c r="Z14" s="517"/>
-      <c r="AA14" s="517"/>
-      <c r="AB14" s="517"/>
-      <c r="AC14" s="517"/>
-      <c r="AD14" s="517"/>
-      <c r="AE14" s="517"/>
-      <c r="AF14" s="517"/>
-      <c r="AG14" s="518"/>
+      <c r="U14" s="519"/>
+      <c r="V14" s="519"/>
+      <c r="W14" s="519"/>
+      <c r="X14" s="519"/>
+      <c r="Y14" s="519"/>
+      <c r="Z14" s="519"/>
+      <c r="AA14" s="519"/>
+      <c r="AB14" s="519"/>
+      <c r="AC14" s="519"/>
+      <c r="AD14" s="519"/>
+      <c r="AE14" s="519"/>
+      <c r="AF14" s="519"/>
+      <c r="AG14" s="520"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.15">
       <c r="E15" s="207" t="s">
@@ -36011,6 +36017,11 @@
     <row r="339" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T14:AG14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:S14"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -36026,11 +36037,6 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="T14:AG14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="K14:S14"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -36077,157 +36083,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="491" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="482"/>
-      <c r="E1" s="483" t="str">
+      <c r="B1" s="492"/>
+      <c r="C1" s="492"/>
+      <c r="D1" s="493"/>
+      <c r="E1" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="484"/>
-      <c r="G1" s="484"/>
-      <c r="H1" s="484"/>
-      <c r="I1" s="484"/>
-      <c r="J1" s="484"/>
-      <c r="K1" s="484"/>
-      <c r="L1" s="484"/>
-      <c r="M1" s="484"/>
-      <c r="N1" s="485"/>
-      <c r="O1" s="489" t="s">
+      <c r="F1" s="495"/>
+      <c r="G1" s="495"/>
+      <c r="H1" s="495"/>
+      <c r="I1" s="495"/>
+      <c r="J1" s="495"/>
+      <c r="K1" s="495"/>
+      <c r="L1" s="495"/>
+      <c r="M1" s="495"/>
+      <c r="N1" s="496"/>
+      <c r="O1" s="500" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="490"/>
-      <c r="Q1" s="490"/>
-      <c r="R1" s="491"/>
-      <c r="S1" s="498" t="str">
+      <c r="P1" s="501"/>
+      <c r="Q1" s="501"/>
+      <c r="R1" s="502"/>
+      <c r="S1" s="509" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="499"/>
-      <c r="U1" s="499"/>
-      <c r="V1" s="499"/>
-      <c r="W1" s="499"/>
-      <c r="X1" s="499"/>
-      <c r="Y1" s="499"/>
-      <c r="Z1" s="500"/>
-      <c r="AA1" s="480" t="s">
+      <c r="T1" s="510"/>
+      <c r="U1" s="510"/>
+      <c r="V1" s="510"/>
+      <c r="W1" s="510"/>
+      <c r="X1" s="510"/>
+      <c r="Y1" s="510"/>
+      <c r="Z1" s="511"/>
+      <c r="AA1" s="491" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="482"/>
-      <c r="AC1" s="486" t="str">
+      <c r="AB1" s="493"/>
+      <c r="AC1" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="487"/>
-      <c r="AE1" s="487"/>
-      <c r="AF1" s="488"/>
-      <c r="AG1" s="541">
+      <c r="AD1" s="498"/>
+      <c r="AE1" s="498"/>
+      <c r="AF1" s="499"/>
+      <c r="AG1" s="521">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="542"/>
-      <c r="AI1" s="543"/>
+      <c r="AH1" s="522"/>
+      <c r="AI1" s="523"/>
     </row>
     <row r="2" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="480" t="s">
+      <c r="A2" s="491" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="481"/>
-      <c r="C2" s="481"/>
-      <c r="D2" s="482"/>
-      <c r="E2" s="483" t="str">
+      <c r="B2" s="492"/>
+      <c r="C2" s="492"/>
+      <c r="D2" s="493"/>
+      <c r="E2" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-      <c r="I2" s="484"/>
-      <c r="J2" s="484"/>
-      <c r="K2" s="484"/>
-      <c r="L2" s="484"/>
-      <c r="M2" s="484"/>
-      <c r="N2" s="485"/>
-      <c r="O2" s="492"/>
-      <c r="P2" s="493"/>
-      <c r="Q2" s="493"/>
-      <c r="R2" s="494"/>
-      <c r="S2" s="501"/>
-      <c r="T2" s="502"/>
-      <c r="U2" s="502"/>
-      <c r="V2" s="502"/>
-      <c r="W2" s="502"/>
-      <c r="X2" s="502"/>
-      <c r="Y2" s="502"/>
-      <c r="Z2" s="503"/>
-      <c r="AA2" s="480" t="s">
+      <c r="F2" s="495"/>
+      <c r="G2" s="495"/>
+      <c r="H2" s="495"/>
+      <c r="I2" s="495"/>
+      <c r="J2" s="495"/>
+      <c r="K2" s="495"/>
+      <c r="L2" s="495"/>
+      <c r="M2" s="495"/>
+      <c r="N2" s="496"/>
+      <c r="O2" s="503"/>
+      <c r="P2" s="504"/>
+      <c r="Q2" s="504"/>
+      <c r="R2" s="505"/>
+      <c r="S2" s="512"/>
+      <c r="T2" s="513"/>
+      <c r="U2" s="513"/>
+      <c r="V2" s="513"/>
+      <c r="W2" s="513"/>
+      <c r="X2" s="513"/>
+      <c r="Y2" s="513"/>
+      <c r="Z2" s="514"/>
+      <c r="AA2" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="482"/>
-      <c r="AC2" s="486" t="str">
+      <c r="AB2" s="493"/>
+      <c r="AC2" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="487"/>
-      <c r="AE2" s="487"/>
-      <c r="AF2" s="488"/>
-      <c r="AG2" s="541" t="str">
+      <c r="AD2" s="498"/>
+      <c r="AE2" s="498"/>
+      <c r="AF2" s="499"/>
+      <c r="AG2" s="521" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="542"/>
-      <c r="AI2" s="543"/>
+      <c r="AH2" s="522"/>
+      <c r="AI2" s="523"/>
     </row>
     <row r="3" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="480" t="s">
+      <c r="A3" s="491" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="481"/>
-      <c r="C3" s="481"/>
-      <c r="D3" s="482"/>
-      <c r="E3" s="483" t="str">
+      <c r="B3" s="492"/>
+      <c r="C3" s="492"/>
+      <c r="D3" s="493"/>
+      <c r="E3" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="484"/>
-      <c r="G3" s="484"/>
-      <c r="H3" s="484"/>
-      <c r="I3" s="484"/>
-      <c r="J3" s="484"/>
-      <c r="K3" s="484"/>
-      <c r="L3" s="484"/>
-      <c r="M3" s="484"/>
-      <c r="N3" s="485"/>
-      <c r="O3" s="495"/>
-      <c r="P3" s="496"/>
-      <c r="Q3" s="496"/>
-      <c r="R3" s="497"/>
-      <c r="S3" s="504"/>
-      <c r="T3" s="505"/>
-      <c r="U3" s="505"/>
-      <c r="V3" s="505"/>
-      <c r="W3" s="505"/>
-      <c r="X3" s="505"/>
-      <c r="Y3" s="505"/>
-      <c r="Z3" s="506"/>
-      <c r="AA3" s="480"/>
-      <c r="AB3" s="482"/>
-      <c r="AC3" s="486" t="str">
+      <c r="F3" s="495"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="495"/>
+      <c r="I3" s="495"/>
+      <c r="J3" s="495"/>
+      <c r="K3" s="495"/>
+      <c r="L3" s="495"/>
+      <c r="M3" s="495"/>
+      <c r="N3" s="496"/>
+      <c r="O3" s="506"/>
+      <c r="P3" s="507"/>
+      <c r="Q3" s="507"/>
+      <c r="R3" s="508"/>
+      <c r="S3" s="515"/>
+      <c r="T3" s="516"/>
+      <c r="U3" s="516"/>
+      <c r="V3" s="516"/>
+      <c r="W3" s="516"/>
+      <c r="X3" s="516"/>
+      <c r="Y3" s="516"/>
+      <c r="Z3" s="517"/>
+      <c r="AA3" s="491"/>
+      <c r="AB3" s="493"/>
+      <c r="AC3" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="487"/>
-      <c r="AE3" s="487"/>
-      <c r="AF3" s="488"/>
-      <c r="AG3" s="541" t="str">
+      <c r="AD3" s="498"/>
+      <c r="AE3" s="498"/>
+      <c r="AF3" s="499"/>
+      <c r="AG3" s="521" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="542"/>
-      <c r="AI3" s="543"/>
+      <c r="AH3" s="522"/>
+      <c r="AI3" s="523"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B5" s="36" t="s">
@@ -37755,7 +37761,7 @@
       <c r="BE123" s="266"/>
     </row>
     <row r="124" spans="3:57" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F124" s="548">
+      <c r="F124" s="550">
         <v>1</v>
       </c>
       <c r="G124" s="238" t="s">
@@ -37812,7 +37818,7 @@
       <c r="BE124" s="266"/>
     </row>
     <row r="125" spans="3:57" s="67" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F125" s="549"/>
+      <c r="F125" s="551"/>
       <c r="G125" s="241"/>
       <c r="H125" s="123"/>
       <c r="I125" s="123"/>
@@ -37878,9 +37884,9 @@
       <c r="N126" s="309" t="s">
         <v>165</v>
       </c>
-      <c r="O126" s="403"/>
-      <c r="P126" s="403"/>
-      <c r="Q126" s="403"/>
+      <c r="O126" s="402"/>
+      <c r="P126" s="402"/>
+      <c r="Q126" s="402"/>
       <c r="R126" s="310"/>
       <c r="S126" s="310"/>
       <c r="T126" s="310"/>
@@ -37934,21 +37940,21 @@
       <c r="F128" s="395">
         <v>3</v>
       </c>
-      <c r="G128" s="394" t="s">
-        <v>583</v>
-      </c>
-      <c r="H128" s="399"/>
-      <c r="I128" s="399"/>
-      <c r="J128" s="399"/>
+      <c r="G128" s="403" t="s">
+        <v>458</v>
+      </c>
+      <c r="H128" s="404"/>
+      <c r="I128" s="404"/>
+      <c r="J128" s="404"/>
       <c r="K128" s="199"/>
       <c r="L128" s="199"/>
       <c r="M128" s="199"/>
       <c r="N128" s="309" t="s">
-        <v>582</v>
-      </c>
-      <c r="O128" s="403"/>
-      <c r="P128" s="403"/>
-      <c r="Q128" s="403"/>
+        <v>459</v>
+      </c>
+      <c r="O128" s="402"/>
+      <c r="P128" s="402"/>
+      <c r="Q128" s="402"/>
       <c r="R128" s="310"/>
       <c r="S128" s="310"/>
       <c r="T128" s="310"/>
@@ -38001,7 +38007,7 @@
         <v>4</v>
       </c>
       <c r="G130" s="238" t="s">
-        <v>458</v>
+        <v>583</v>
       </c>
       <c r="H130" s="254"/>
       <c r="I130" s="254"/>
@@ -38010,11 +38016,11 @@
       <c r="L130" s="199"/>
       <c r="M130" s="199"/>
       <c r="N130" s="309" t="s">
-        <v>459</v>
-      </c>
-      <c r="O130" s="403"/>
-      <c r="P130" s="403"/>
-      <c r="Q130" s="403"/>
+        <v>582</v>
+      </c>
+      <c r="O130" s="402"/>
+      <c r="P130" s="402"/>
+      <c r="Q130" s="402"/>
       <c r="R130" s="310"/>
       <c r="S130" s="310"/>
       <c r="T130" s="310"/>
@@ -38084,7 +38090,7 @@
       <c r="AG131" s="18"/>
     </row>
     <row r="132" spans="1:57" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F132" s="548">
+      <c r="F132" s="550">
         <v>5</v>
       </c>
       <c r="G132" s="241" t="s">
@@ -38141,7 +38147,7 @@
       <c r="BE132" s="266"/>
     </row>
     <row r="133" spans="1:57" s="67" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F133" s="549"/>
+      <c r="F133" s="551"/>
       <c r="G133" s="249"/>
       <c r="H133" s="80"/>
       <c r="I133" s="80"/>
@@ -38192,7 +38198,7 @@
       <c r="BE133" s="266"/>
     </row>
     <row r="134" spans="1:57" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F134" s="550">
+      <c r="F134" s="552">
         <v>6</v>
       </c>
       <c r="G134" s="238" t="s">
@@ -38249,14 +38255,14 @@
       <c r="BE134" s="266"/>
     </row>
     <row r="135" spans="1:57" s="67" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F135" s="551"/>
+      <c r="F135" s="553"/>
       <c r="G135" s="246"/>
       <c r="H135" s="247"/>
       <c r="I135" s="247"/>
       <c r="J135" s="247"/>
-      <c r="K135" s="400"/>
-      <c r="L135" s="400"/>
-      <c r="M135" s="400"/>
+      <c r="K135" s="399"/>
+      <c r="L135" s="399"/>
+      <c r="M135" s="399"/>
       <c r="N135" s="348"/>
       <c r="O135" s="349"/>
       <c r="P135" s="349"/>
@@ -38559,8 +38565,8 @@
       <c r="F146" s="263">
         <v>3</v>
       </c>
-      <c r="G146" s="252" t="s">
-        <v>581</v>
+      <c r="G146" s="405" t="s">
+        <v>462</v>
       </c>
       <c r="H146" s="253"/>
       <c r="I146" s="253"/>
@@ -38590,8 +38596,8 @@
       <c r="F147" s="395">
         <v>4</v>
       </c>
-      <c r="G147" s="396" t="s">
-        <v>462</v>
+      <c r="G147" s="289" t="s">
+        <v>581</v>
       </c>
       <c r="H147" s="397"/>
       <c r="I147" s="397"/>
@@ -38603,9 +38609,9 @@
         <v>461</v>
       </c>
       <c r="O147" s="260"/>
-      <c r="P147" s="402"/>
+      <c r="P147" s="401"/>
       <c r="Q147" s="261"/>
-      <c r="R147" s="401"/>
+      <c r="R147" s="400"/>
       <c r="W147" s="71"/>
       <c r="X147" s="71"/>
       <c r="Y147" s="71"/>
@@ -38634,9 +38640,9 @@
         <v>461</v>
       </c>
       <c r="O148" s="260"/>
-      <c r="P148" s="402"/>
+      <c r="P148" s="401"/>
       <c r="Q148" s="261"/>
-      <c r="R148" s="401"/>
+      <c r="R148" s="400"/>
     </row>
     <row r="149" spans="4:32" s="71" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F149" s="262">
@@ -38655,9 +38661,9 @@
         <v>460</v>
       </c>
       <c r="O149" s="260"/>
-      <c r="P149" s="402"/>
+      <c r="P149" s="401"/>
       <c r="Q149" s="261"/>
-      <c r="R149" s="401"/>
+      <c r="R149" s="400"/>
     </row>
     <row r="150" spans="4:32" s="71" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="151" spans="4:32" s="100" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -38937,12 +38943,12 @@
     <row r="202" spans="2:35" s="67" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
@@ -38951,12 +38957,12 @@
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -38982,7 +38988,7 @@
   </sheetPr>
   <dimension ref="A1:AZ474"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A115" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -38997,165 +39003,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="439" t="s">
+      <c r="A1" s="413" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="440"/>
-      <c r="C1" s="440"/>
-      <c r="D1" s="441"/>
-      <c r="E1" s="470" t="str">
+      <c r="B1" s="414"/>
+      <c r="C1" s="414"/>
+      <c r="D1" s="415"/>
+      <c r="E1" s="444" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="443"/>
-      <c r="G1" s="443"/>
-      <c r="H1" s="443"/>
-      <c r="I1" s="443"/>
-      <c r="J1" s="443"/>
-      <c r="K1" s="443"/>
-      <c r="L1" s="443"/>
-      <c r="M1" s="443"/>
-      <c r="N1" s="444"/>
-      <c r="O1" s="489" t="s">
+      <c r="F1" s="417"/>
+      <c r="G1" s="417"/>
+      <c r="H1" s="417"/>
+      <c r="I1" s="417"/>
+      <c r="J1" s="417"/>
+      <c r="K1" s="417"/>
+      <c r="L1" s="417"/>
+      <c r="M1" s="417"/>
+      <c r="N1" s="418"/>
+      <c r="O1" s="500" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="490"/>
-      <c r="Q1" s="490"/>
-      <c r="R1" s="491"/>
-      <c r="S1" s="498" t="str">
+      <c r="P1" s="501"/>
+      <c r="Q1" s="501"/>
+      <c r="R1" s="502"/>
+      <c r="S1" s="509" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="499"/>
-      <c r="U1" s="499"/>
-      <c r="V1" s="499"/>
-      <c r="W1" s="499"/>
-      <c r="X1" s="499"/>
-      <c r="Y1" s="499"/>
-      <c r="Z1" s="500"/>
-      <c r="AA1" s="439" t="s">
+      <c r="T1" s="510"/>
+      <c r="U1" s="510"/>
+      <c r="V1" s="510"/>
+      <c r="W1" s="510"/>
+      <c r="X1" s="510"/>
+      <c r="Y1" s="510"/>
+      <c r="Z1" s="511"/>
+      <c r="AA1" s="413" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="441"/>
-      <c r="AC1" s="467" t="str">
+      <c r="AB1" s="415"/>
+      <c r="AC1" s="441" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="468"/>
-      <c r="AE1" s="468"/>
-      <c r="AF1" s="469"/>
-      <c r="AG1" s="603">
+      <c r="AD1" s="442"/>
+      <c r="AE1" s="442"/>
+      <c r="AF1" s="443"/>
+      <c r="AG1" s="604">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="604"/>
-      <c r="AI1" s="605"/>
+      <c r="AH1" s="605"/>
+      <c r="AI1" s="606"/>
       <c r="AJ1" s="49"/>
       <c r="AN1" s="85"/>
       <c r="AO1" s="85"/>
       <c r="AP1" s="85"/>
     </row>
     <row r="2" spans="1:42" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="439" t="s">
+      <c r="A2" s="413" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="440"/>
-      <c r="C2" s="440"/>
-      <c r="D2" s="441"/>
-      <c r="E2" s="470" t="str">
+      <c r="B2" s="414"/>
+      <c r="C2" s="414"/>
+      <c r="D2" s="415"/>
+      <c r="E2" s="444" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="443"/>
-      <c r="G2" s="443"/>
-      <c r="H2" s="443"/>
-      <c r="I2" s="443"/>
-      <c r="J2" s="443"/>
-      <c r="K2" s="443"/>
-      <c r="L2" s="443"/>
-      <c r="M2" s="443"/>
-      <c r="N2" s="444"/>
-      <c r="O2" s="492"/>
-      <c r="P2" s="493"/>
-      <c r="Q2" s="493"/>
-      <c r="R2" s="494"/>
-      <c r="S2" s="501"/>
-      <c r="T2" s="502"/>
-      <c r="U2" s="502"/>
-      <c r="V2" s="502"/>
-      <c r="W2" s="502"/>
-      <c r="X2" s="502"/>
-      <c r="Y2" s="502"/>
-      <c r="Z2" s="503"/>
-      <c r="AA2" s="439" t="s">
+      <c r="F2" s="417"/>
+      <c r="G2" s="417"/>
+      <c r="H2" s="417"/>
+      <c r="I2" s="417"/>
+      <c r="J2" s="417"/>
+      <c r="K2" s="417"/>
+      <c r="L2" s="417"/>
+      <c r="M2" s="417"/>
+      <c r="N2" s="418"/>
+      <c r="O2" s="503"/>
+      <c r="P2" s="504"/>
+      <c r="Q2" s="504"/>
+      <c r="R2" s="505"/>
+      <c r="S2" s="512"/>
+      <c r="T2" s="513"/>
+      <c r="U2" s="513"/>
+      <c r="V2" s="513"/>
+      <c r="W2" s="513"/>
+      <c r="X2" s="513"/>
+      <c r="Y2" s="513"/>
+      <c r="Z2" s="514"/>
+      <c r="AA2" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="441"/>
-      <c r="AC2" s="467" t="str">
+      <c r="AB2" s="415"/>
+      <c r="AC2" s="441" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="468"/>
-      <c r="AE2" s="468"/>
-      <c r="AF2" s="469"/>
-      <c r="AG2" s="603" t="str">
+      <c r="AD2" s="442"/>
+      <c r="AE2" s="442"/>
+      <c r="AF2" s="443"/>
+      <c r="AG2" s="604" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="604"/>
-      <c r="AI2" s="605"/>
+      <c r="AH2" s="605"/>
+      <c r="AI2" s="606"/>
       <c r="AJ2" s="49"/>
       <c r="AN2" s="85"/>
       <c r="AO2" s="85"/>
       <c r="AP2" s="85"/>
     </row>
     <row r="3" spans="1:42" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="439" t="s">
+      <c r="A3" s="413" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="440"/>
-      <c r="C3" s="440"/>
-      <c r="D3" s="441"/>
-      <c r="E3" s="470" t="str">
+      <c r="B3" s="414"/>
+      <c r="C3" s="414"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="444" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="443"/>
-      <c r="G3" s="443"/>
-      <c r="H3" s="443"/>
-      <c r="I3" s="443"/>
-      <c r="J3" s="443"/>
-      <c r="K3" s="443"/>
-      <c r="L3" s="443"/>
-      <c r="M3" s="443"/>
-      <c r="N3" s="444"/>
-      <c r="O3" s="495"/>
-      <c r="P3" s="496"/>
-      <c r="Q3" s="496"/>
-      <c r="R3" s="497"/>
-      <c r="S3" s="504"/>
-      <c r="T3" s="505"/>
-      <c r="U3" s="505"/>
-      <c r="V3" s="505"/>
-      <c r="W3" s="505"/>
-      <c r="X3" s="505"/>
-      <c r="Y3" s="505"/>
-      <c r="Z3" s="506"/>
-      <c r="AA3" s="439"/>
-      <c r="AB3" s="441"/>
-      <c r="AC3" s="467" t="str">
+      <c r="F3" s="417"/>
+      <c r="G3" s="417"/>
+      <c r="H3" s="417"/>
+      <c r="I3" s="417"/>
+      <c r="J3" s="417"/>
+      <c r="K3" s="417"/>
+      <c r="L3" s="417"/>
+      <c r="M3" s="417"/>
+      <c r="N3" s="418"/>
+      <c r="O3" s="506"/>
+      <c r="P3" s="507"/>
+      <c r="Q3" s="507"/>
+      <c r="R3" s="508"/>
+      <c r="S3" s="515"/>
+      <c r="T3" s="516"/>
+      <c r="U3" s="516"/>
+      <c r="V3" s="516"/>
+      <c r="W3" s="516"/>
+      <c r="X3" s="516"/>
+      <c r="Y3" s="516"/>
+      <c r="Z3" s="517"/>
+      <c r="AA3" s="413"/>
+      <c r="AB3" s="415"/>
+      <c r="AC3" s="441" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="468"/>
-      <c r="AE3" s="468"/>
-      <c r="AF3" s="469"/>
-      <c r="AG3" s="603" t="str">
+      <c r="AD3" s="442"/>
+      <c r="AE3" s="442"/>
+      <c r="AF3" s="443"/>
+      <c r="AG3" s="604" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="604"/>
-      <c r="AI3" s="605"/>
+      <c r="AH3" s="605"/>
+      <c r="AI3" s="606"/>
       <c r="AJ3" s="49"/>
       <c r="AN3" s="85"/>
       <c r="AO3" s="85"/>
@@ -39847,312 +39853,312 @@
     </row>
     <row r="150" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="151" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D151" s="507" t="s">
+      <c r="D151" s="482" t="s">
         <v>225</v>
       </c>
-      <c r="E151" s="588"/>
-      <c r="F151" s="588"/>
-      <c r="G151" s="588"/>
-      <c r="H151" s="588"/>
-      <c r="I151" s="588"/>
-      <c r="J151" s="589"/>
-      <c r="K151" s="596" t="s">
+      <c r="E151" s="560"/>
+      <c r="F151" s="560"/>
+      <c r="G151" s="560"/>
+      <c r="H151" s="560"/>
+      <c r="I151" s="560"/>
+      <c r="J151" s="561"/>
+      <c r="K151" s="581" t="s">
         <v>49</v>
       </c>
-      <c r="L151" s="634"/>
-      <c r="M151" s="634"/>
-      <c r="N151" s="634"/>
-      <c r="O151" s="634"/>
-      <c r="P151" s="634"/>
-      <c r="Q151" s="634"/>
-      <c r="R151" s="634"/>
-      <c r="S151" s="634"/>
-      <c r="T151" s="634"/>
-      <c r="U151" s="634"/>
-      <c r="V151" s="634"/>
-      <c r="W151" s="634"/>
-      <c r="X151" s="634"/>
-      <c r="Y151" s="634"/>
-      <c r="Z151" s="597"/>
-      <c r="AA151" s="632" t="s">
+      <c r="L151" s="582"/>
+      <c r="M151" s="582"/>
+      <c r="N151" s="582"/>
+      <c r="O151" s="582"/>
+      <c r="P151" s="582"/>
+      <c r="Q151" s="582"/>
+      <c r="R151" s="582"/>
+      <c r="S151" s="582"/>
+      <c r="T151" s="582"/>
+      <c r="U151" s="582"/>
+      <c r="V151" s="582"/>
+      <c r="W151" s="582"/>
+      <c r="X151" s="582"/>
+      <c r="Y151" s="582"/>
+      <c r="Z151" s="583"/>
+      <c r="AA151" s="579" t="s">
         <v>50</v>
       </c>
-      <c r="AB151" s="633"/>
-      <c r="AC151" s="633"/>
-      <c r="AD151" s="633"/>
-      <c r="AE151" s="633"/>
-      <c r="AF151" s="633"/>
-      <c r="AG151" s="633"/>
-      <c r="AH151" s="633"/>
+      <c r="AB151" s="580"/>
+      <c r="AC151" s="580"/>
+      <c r="AD151" s="580"/>
+      <c r="AE151" s="580"/>
+      <c r="AF151" s="580"/>
+      <c r="AG151" s="580"/>
+      <c r="AH151" s="580"/>
     </row>
     <row r="152" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D152" s="510" t="s">
+      <c r="D152" s="485" t="s">
         <v>51</v>
       </c>
-      <c r="E152" s="511"/>
-      <c r="F152" s="511"/>
-      <c r="G152" s="511"/>
-      <c r="H152" s="511"/>
-      <c r="I152" s="511"/>
-      <c r="J152" s="512"/>
-      <c r="K152" s="608" t="s">
+      <c r="E152" s="486"/>
+      <c r="F152" s="486"/>
+      <c r="G152" s="486"/>
+      <c r="H152" s="486"/>
+      <c r="I152" s="486"/>
+      <c r="J152" s="487"/>
+      <c r="K152" s="571" t="s">
         <v>587</v>
       </c>
-      <c r="L152" s="609"/>
-      <c r="M152" s="609"/>
-      <c r="N152" s="609"/>
-      <c r="O152" s="609"/>
-      <c r="P152" s="609"/>
-      <c r="Q152" s="609"/>
-      <c r="R152" s="609"/>
-      <c r="S152" s="609"/>
-      <c r="T152" s="609"/>
-      <c r="U152" s="609"/>
-      <c r="V152" s="609"/>
-      <c r="W152" s="609"/>
-      <c r="X152" s="609"/>
-      <c r="Y152" s="609"/>
-      <c r="Z152" s="610"/>
-      <c r="AA152" s="616" t="s">
+      <c r="L152" s="569"/>
+      <c r="M152" s="569"/>
+      <c r="N152" s="569"/>
+      <c r="O152" s="569"/>
+      <c r="P152" s="569"/>
+      <c r="Q152" s="569"/>
+      <c r="R152" s="569"/>
+      <c r="S152" s="569"/>
+      <c r="T152" s="569"/>
+      <c r="U152" s="569"/>
+      <c r="V152" s="569"/>
+      <c r="W152" s="569"/>
+      <c r="X152" s="569"/>
+      <c r="Y152" s="569"/>
+      <c r="Z152" s="570"/>
+      <c r="AA152" s="577" t="s">
         <v>72</v>
       </c>
-      <c r="AB152" s="615"/>
-      <c r="AC152" s="615"/>
-      <c r="AD152" s="615"/>
-      <c r="AE152" s="615"/>
-      <c r="AF152" s="615"/>
-      <c r="AG152" s="615"/>
-      <c r="AH152" s="615"/>
+      <c r="AB152" s="578"/>
+      <c r="AC152" s="578"/>
+      <c r="AD152" s="578"/>
+      <c r="AE152" s="578"/>
+      <c r="AF152" s="578"/>
+      <c r="AG152" s="578"/>
+      <c r="AH152" s="578"/>
     </row>
     <row r="153" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D153" s="574" t="s">
+      <c r="D153" s="562" t="s">
         <v>210</v>
       </c>
-      <c r="E153" s="623"/>
-      <c r="F153" s="623"/>
-      <c r="G153" s="623"/>
-      <c r="H153" s="623"/>
-      <c r="I153" s="623"/>
-      <c r="J153" s="624"/>
-      <c r="K153" s="608" t="s">
+      <c r="E153" s="563"/>
+      <c r="F153" s="563"/>
+      <c r="G153" s="563"/>
+      <c r="H153" s="563"/>
+      <c r="I153" s="563"/>
+      <c r="J153" s="564"/>
+      <c r="K153" s="571" t="s">
         <v>588</v>
       </c>
-      <c r="L153" s="609"/>
-      <c r="M153" s="609"/>
-      <c r="N153" s="609"/>
-      <c r="O153" s="609"/>
-      <c r="P153" s="609"/>
-      <c r="Q153" s="609"/>
-      <c r="R153" s="609"/>
-      <c r="S153" s="609"/>
-      <c r="T153" s="609"/>
-      <c r="U153" s="609"/>
-      <c r="V153" s="609"/>
-      <c r="W153" s="609"/>
-      <c r="X153" s="609"/>
-      <c r="Y153" s="609"/>
-      <c r="Z153" s="610"/>
-      <c r="AA153" s="616" t="s">
+      <c r="L153" s="569"/>
+      <c r="M153" s="569"/>
+      <c r="N153" s="569"/>
+      <c r="O153" s="569"/>
+      <c r="P153" s="569"/>
+      <c r="Q153" s="569"/>
+      <c r="R153" s="569"/>
+      <c r="S153" s="569"/>
+      <c r="T153" s="569"/>
+      <c r="U153" s="569"/>
+      <c r="V153" s="569"/>
+      <c r="W153" s="569"/>
+      <c r="X153" s="569"/>
+      <c r="Y153" s="569"/>
+      <c r="Z153" s="570"/>
+      <c r="AA153" s="577" t="s">
         <v>72</v>
       </c>
-      <c r="AB153" s="615"/>
-      <c r="AC153" s="615"/>
-      <c r="AD153" s="615"/>
-      <c r="AE153" s="615"/>
-      <c r="AF153" s="615"/>
-      <c r="AG153" s="615"/>
-      <c r="AH153" s="615"/>
+      <c r="AB153" s="578"/>
+      <c r="AC153" s="578"/>
+      <c r="AD153" s="578"/>
+      <c r="AE153" s="578"/>
+      <c r="AF153" s="578"/>
+      <c r="AG153" s="578"/>
+      <c r="AH153" s="578"/>
     </row>
     <row r="154" spans="3:34" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D154" s="622" t="s">
+      <c r="D154" s="556" t="s">
         <v>221</v>
       </c>
-      <c r="E154" s="514"/>
-      <c r="F154" s="514"/>
-      <c r="G154" s="514"/>
-      <c r="H154" s="514"/>
-      <c r="I154" s="514"/>
-      <c r="J154" s="515"/>
-      <c r="K154" s="628" t="s">
+      <c r="E154" s="489"/>
+      <c r="F154" s="489"/>
+      <c r="G154" s="489"/>
+      <c r="H154" s="489"/>
+      <c r="I154" s="489"/>
+      <c r="J154" s="490"/>
+      <c r="K154" s="568" t="s">
         <v>69</v>
       </c>
-      <c r="L154" s="609"/>
-      <c r="M154" s="609"/>
-      <c r="N154" s="609"/>
-      <c r="O154" s="609"/>
-      <c r="P154" s="609"/>
-      <c r="Q154" s="609"/>
-      <c r="R154" s="609"/>
-      <c r="S154" s="609"/>
-      <c r="T154" s="609"/>
-      <c r="U154" s="609"/>
-      <c r="V154" s="609"/>
-      <c r="W154" s="609"/>
-      <c r="X154" s="609"/>
-      <c r="Y154" s="609"/>
-      <c r="Z154" s="610"/>
-      <c r="AA154" s="625" t="s">
+      <c r="L154" s="569"/>
+      <c r="M154" s="569"/>
+      <c r="N154" s="569"/>
+      <c r="O154" s="569"/>
+      <c r="P154" s="569"/>
+      <c r="Q154" s="569"/>
+      <c r="R154" s="569"/>
+      <c r="S154" s="569"/>
+      <c r="T154" s="569"/>
+      <c r="U154" s="569"/>
+      <c r="V154" s="569"/>
+      <c r="W154" s="569"/>
+      <c r="X154" s="569"/>
+      <c r="Y154" s="569"/>
+      <c r="Z154" s="570"/>
+      <c r="AA154" s="565" t="s">
         <v>222</v>
       </c>
-      <c r="AB154" s="626"/>
-      <c r="AC154" s="626"/>
-      <c r="AD154" s="626"/>
-      <c r="AE154" s="626"/>
-      <c r="AF154" s="626"/>
-      <c r="AG154" s="626"/>
-      <c r="AH154" s="627"/>
+      <c r="AB154" s="566"/>
+      <c r="AC154" s="566"/>
+      <c r="AD154" s="566"/>
+      <c r="AE154" s="566"/>
+      <c r="AF154" s="566"/>
+      <c r="AG154" s="566"/>
+      <c r="AH154" s="567"/>
     </row>
     <row r="155" spans="3:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D155" s="620"/>
-      <c r="E155" s="552" t="s">
+      <c r="D155" s="554"/>
+      <c r="E155" s="557" t="s">
         <v>224</v>
       </c>
-      <c r="F155" s="553"/>
-      <c r="G155" s="553"/>
-      <c r="H155" s="553"/>
-      <c r="I155" s="553"/>
-      <c r="J155" s="554"/>
-      <c r="K155" s="608" t="s">
+      <c r="F155" s="558"/>
+      <c r="G155" s="558"/>
+      <c r="H155" s="558"/>
+      <c r="I155" s="558"/>
+      <c r="J155" s="559"/>
+      <c r="K155" s="571" t="s">
         <v>585</v>
       </c>
-      <c r="L155" s="609"/>
-      <c r="M155" s="609"/>
-      <c r="N155" s="609"/>
-      <c r="O155" s="609"/>
-      <c r="P155" s="609"/>
-      <c r="Q155" s="609"/>
-      <c r="R155" s="609"/>
-      <c r="S155" s="609"/>
-      <c r="T155" s="609"/>
-      <c r="U155" s="609"/>
-      <c r="V155" s="609"/>
-      <c r="W155" s="609"/>
-      <c r="X155" s="609"/>
-      <c r="Y155" s="609"/>
-      <c r="Z155" s="610"/>
-      <c r="AA155" s="606" t="s">
+      <c r="L155" s="569"/>
+      <c r="M155" s="569"/>
+      <c r="N155" s="569"/>
+      <c r="O155" s="569"/>
+      <c r="P155" s="569"/>
+      <c r="Q155" s="569"/>
+      <c r="R155" s="569"/>
+      <c r="S155" s="569"/>
+      <c r="T155" s="569"/>
+      <c r="U155" s="569"/>
+      <c r="V155" s="569"/>
+      <c r="W155" s="569"/>
+      <c r="X155" s="569"/>
+      <c r="Y155" s="569"/>
+      <c r="Z155" s="570"/>
+      <c r="AA155" s="607" t="s">
         <v>226</v>
       </c>
-      <c r="AB155" s="607"/>
-      <c r="AC155" s="607"/>
-      <c r="AD155" s="607"/>
-      <c r="AE155" s="607"/>
-      <c r="AF155" s="607"/>
-      <c r="AG155" s="607"/>
-      <c r="AH155" s="607"/>
+      <c r="AB155" s="608"/>
+      <c r="AC155" s="608"/>
+      <c r="AD155" s="608"/>
+      <c r="AE155" s="608"/>
+      <c r="AF155" s="608"/>
+      <c r="AG155" s="608"/>
+      <c r="AH155" s="608"/>
     </row>
     <row r="156" spans="3:34" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D156" s="620"/>
-      <c r="E156" s="552"/>
-      <c r="F156" s="553"/>
-      <c r="G156" s="553"/>
-      <c r="H156" s="553"/>
-      <c r="I156" s="553"/>
-      <c r="J156" s="554"/>
-      <c r="K156" s="575" t="s">
+      <c r="D156" s="554"/>
+      <c r="E156" s="557"/>
+      <c r="F156" s="558"/>
+      <c r="G156" s="558"/>
+      <c r="H156" s="558"/>
+      <c r="I156" s="558"/>
+      <c r="J156" s="559"/>
+      <c r="K156" s="572" t="s">
         <v>586</v>
       </c>
-      <c r="L156" s="629"/>
-      <c r="M156" s="629"/>
-      <c r="N156" s="629"/>
-      <c r="O156" s="629"/>
-      <c r="P156" s="629"/>
-      <c r="Q156" s="629"/>
-      <c r="R156" s="629"/>
-      <c r="S156" s="629"/>
-      <c r="T156" s="629"/>
-      <c r="U156" s="629"/>
-      <c r="V156" s="629"/>
-      <c r="W156" s="629"/>
-      <c r="X156" s="629"/>
-      <c r="Y156" s="629"/>
-      <c r="Z156" s="577"/>
-      <c r="AA156" s="608" t="s">
+      <c r="L156" s="573"/>
+      <c r="M156" s="573"/>
+      <c r="N156" s="573"/>
+      <c r="O156" s="573"/>
+      <c r="P156" s="573"/>
+      <c r="Q156" s="573"/>
+      <c r="R156" s="573"/>
+      <c r="S156" s="573"/>
+      <c r="T156" s="573"/>
+      <c r="U156" s="573"/>
+      <c r="V156" s="573"/>
+      <c r="W156" s="573"/>
+      <c r="X156" s="573"/>
+      <c r="Y156" s="573"/>
+      <c r="Z156" s="574"/>
+      <c r="AA156" s="571" t="s">
         <v>194</v>
       </c>
-      <c r="AB156" s="630"/>
-      <c r="AC156" s="630"/>
-      <c r="AD156" s="630"/>
-      <c r="AE156" s="630"/>
-      <c r="AF156" s="630"/>
-      <c r="AG156" s="630"/>
-      <c r="AH156" s="631"/>
+      <c r="AB156" s="575"/>
+      <c r="AC156" s="575"/>
+      <c r="AD156" s="575"/>
+      <c r="AE156" s="575"/>
+      <c r="AF156" s="575"/>
+      <c r="AG156" s="575"/>
+      <c r="AH156" s="576"/>
     </row>
     <row r="157" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D157" s="620"/>
-      <c r="E157" s="552"/>
-      <c r="F157" s="553"/>
-      <c r="G157" s="553"/>
-      <c r="H157" s="553"/>
-      <c r="I157" s="553"/>
-      <c r="J157" s="554"/>
-      <c r="K157" s="628" t="s">
+      <c r="D157" s="554"/>
+      <c r="E157" s="557"/>
+      <c r="F157" s="558"/>
+      <c r="G157" s="558"/>
+      <c r="H157" s="558"/>
+      <c r="I157" s="558"/>
+      <c r="J157" s="559"/>
+      <c r="K157" s="568" t="s">
         <v>589</v>
       </c>
-      <c r="L157" s="609"/>
-      <c r="M157" s="609"/>
-      <c r="N157" s="609"/>
-      <c r="O157" s="609"/>
-      <c r="P157" s="609"/>
-      <c r="Q157" s="609"/>
-      <c r="R157" s="609"/>
-      <c r="S157" s="609"/>
-      <c r="T157" s="609"/>
-      <c r="U157" s="609"/>
-      <c r="V157" s="609"/>
-      <c r="W157" s="609"/>
-      <c r="X157" s="609"/>
-      <c r="Y157" s="609"/>
-      <c r="Z157" s="610"/>
-      <c r="AA157" s="616" t="s">
+      <c r="L157" s="569"/>
+      <c r="M157" s="569"/>
+      <c r="N157" s="569"/>
+      <c r="O157" s="569"/>
+      <c r="P157" s="569"/>
+      <c r="Q157" s="569"/>
+      <c r="R157" s="569"/>
+      <c r="S157" s="569"/>
+      <c r="T157" s="569"/>
+      <c r="U157" s="569"/>
+      <c r="V157" s="569"/>
+      <c r="W157" s="569"/>
+      <c r="X157" s="569"/>
+      <c r="Y157" s="569"/>
+      <c r="Z157" s="570"/>
+      <c r="AA157" s="577" t="s">
         <v>72</v>
       </c>
-      <c r="AB157" s="615"/>
-      <c r="AC157" s="615"/>
-      <c r="AD157" s="615"/>
-      <c r="AE157" s="615"/>
-      <c r="AF157" s="615"/>
-      <c r="AG157" s="615"/>
-      <c r="AH157" s="615"/>
+      <c r="AB157" s="578"/>
+      <c r="AC157" s="578"/>
+      <c r="AD157" s="578"/>
+      <c r="AE157" s="578"/>
+      <c r="AF157" s="578"/>
+      <c r="AG157" s="578"/>
+      <c r="AH157" s="578"/>
     </row>
     <row r="158" spans="3:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D158" s="621"/>
-      <c r="E158" s="552" t="s">
+      <c r="D158" s="555"/>
+      <c r="E158" s="557" t="s">
         <v>223</v>
       </c>
-      <c r="F158" s="553"/>
-      <c r="G158" s="553"/>
-      <c r="H158" s="553"/>
-      <c r="I158" s="553"/>
-      <c r="J158" s="554"/>
-      <c r="K158" s="628" t="s">
+      <c r="F158" s="558"/>
+      <c r="G158" s="558"/>
+      <c r="H158" s="558"/>
+      <c r="I158" s="558"/>
+      <c r="J158" s="559"/>
+      <c r="K158" s="568" t="s">
         <v>584</v>
       </c>
-      <c r="L158" s="609"/>
-      <c r="M158" s="609"/>
-      <c r="N158" s="609"/>
-      <c r="O158" s="609"/>
-      <c r="P158" s="609"/>
-      <c r="Q158" s="609"/>
-      <c r="R158" s="609"/>
-      <c r="S158" s="609"/>
-      <c r="T158" s="609"/>
-      <c r="U158" s="609"/>
-      <c r="V158" s="609"/>
-      <c r="W158" s="609"/>
-      <c r="X158" s="609"/>
-      <c r="Y158" s="609"/>
-      <c r="Z158" s="610"/>
-      <c r="AA158" s="615" t="s">
+      <c r="L158" s="569"/>
+      <c r="M158" s="569"/>
+      <c r="N158" s="569"/>
+      <c r="O158" s="569"/>
+      <c r="P158" s="569"/>
+      <c r="Q158" s="569"/>
+      <c r="R158" s="569"/>
+      <c r="S158" s="569"/>
+      <c r="T158" s="569"/>
+      <c r="U158" s="569"/>
+      <c r="V158" s="569"/>
+      <c r="W158" s="569"/>
+      <c r="X158" s="569"/>
+      <c r="Y158" s="569"/>
+      <c r="Z158" s="570"/>
+      <c r="AA158" s="578" t="s">
         <v>68</v>
       </c>
-      <c r="AB158" s="615"/>
-      <c r="AC158" s="615"/>
-      <c r="AD158" s="615"/>
-      <c r="AE158" s="615"/>
-      <c r="AF158" s="615"/>
-      <c r="AG158" s="615"/>
-      <c r="AH158" s="615"/>
+      <c r="AB158" s="578"/>
+      <c r="AC158" s="578"/>
+      <c r="AD158" s="578"/>
+      <c r="AE158" s="578"/>
+      <c r="AF158" s="578"/>
+      <c r="AG158" s="578"/>
+      <c r="AH158" s="578"/>
     </row>
     <row r="159" spans="3:34" s="91" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D159" s="89"/>
@@ -40261,837 +40267,837 @@
     </row>
     <row r="169" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="50"/>
-      <c r="F169" s="507" t="s">
+      <c r="F169" s="482" t="s">
         <v>590</v>
       </c>
-      <c r="G169" s="588"/>
-      <c r="H169" s="588"/>
-      <c r="I169" s="588"/>
-      <c r="J169" s="589"/>
-      <c r="K169" s="596" t="s">
+      <c r="G169" s="560"/>
+      <c r="H169" s="560"/>
+      <c r="I169" s="560"/>
+      <c r="J169" s="561"/>
+      <c r="K169" s="581" t="s">
         <v>29</v>
       </c>
-      <c r="L169" s="597"/>
-      <c r="M169" s="596" t="s">
+      <c r="L169" s="583"/>
+      <c r="M169" s="581" t="s">
         <v>44</v>
       </c>
-      <c r="N169" s="597"/>
-      <c r="O169" s="617" t="s">
+      <c r="N169" s="583"/>
+      <c r="O169" s="594" t="s">
         <v>43</v>
       </c>
-      <c r="P169" s="588"/>
-      <c r="Q169" s="588"/>
-      <c r="R169" s="588"/>
-      <c r="S169" s="588"/>
-      <c r="T169" s="588"/>
-      <c r="U169" s="588"/>
-      <c r="V169" s="588"/>
-      <c r="W169" s="588"/>
-      <c r="X169" s="588"/>
-      <c r="Y169" s="588"/>
-      <c r="Z169" s="588"/>
-      <c r="AA169" s="588"/>
-      <c r="AB169" s="588"/>
-      <c r="AC169" s="588"/>
-      <c r="AD169" s="588"/>
-      <c r="AE169" s="588"/>
-      <c r="AF169" s="588"/>
-      <c r="AG169" s="588"/>
-      <c r="AH169" s="589"/>
+      <c r="P169" s="560"/>
+      <c r="Q169" s="560"/>
+      <c r="R169" s="560"/>
+      <c r="S169" s="560"/>
+      <c r="T169" s="560"/>
+      <c r="U169" s="560"/>
+      <c r="V169" s="560"/>
+      <c r="W169" s="560"/>
+      <c r="X169" s="560"/>
+      <c r="Y169" s="560"/>
+      <c r="Z169" s="560"/>
+      <c r="AA169" s="560"/>
+      <c r="AB169" s="560"/>
+      <c r="AC169" s="560"/>
+      <c r="AD169" s="560"/>
+      <c r="AE169" s="560"/>
+      <c r="AF169" s="560"/>
+      <c r="AG169" s="560"/>
+      <c r="AH169" s="561"/>
     </row>
     <row r="170" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="50"/>
-      <c r="F170" s="574" t="s">
+      <c r="F170" s="562" t="s">
         <v>196</v>
       </c>
-      <c r="G170" s="511"/>
-      <c r="H170" s="511"/>
-      <c r="I170" s="511"/>
-      <c r="J170" s="512"/>
-      <c r="K170" s="590" t="s">
+      <c r="G170" s="486"/>
+      <c r="H170" s="486"/>
+      <c r="I170" s="486"/>
+      <c r="J170" s="487"/>
+      <c r="K170" s="603" t="s">
         <v>31</v>
       </c>
-      <c r="L170" s="524"/>
-      <c r="M170" s="611" t="s">
+      <c r="L170" s="529"/>
+      <c r="M170" s="599" t="s">
         <v>208</v>
       </c>
-      <c r="N170" s="612"/>
-      <c r="O170" s="513" t="s">
+      <c r="N170" s="600"/>
+      <c r="O170" s="488" t="s">
         <v>213</v>
       </c>
-      <c r="P170" s="618"/>
-      <c r="Q170" s="618"/>
-      <c r="R170" s="618"/>
-      <c r="S170" s="618"/>
-      <c r="T170" s="618"/>
-      <c r="U170" s="618"/>
-      <c r="V170" s="618"/>
-      <c r="W170" s="618"/>
-      <c r="X170" s="618"/>
-      <c r="Y170" s="618"/>
-      <c r="Z170" s="618"/>
-      <c r="AA170" s="618"/>
-      <c r="AB170" s="618"/>
-      <c r="AC170" s="618"/>
-      <c r="AD170" s="618"/>
-      <c r="AE170" s="618"/>
-      <c r="AF170" s="618"/>
-      <c r="AG170" s="618"/>
-      <c r="AH170" s="619"/>
+      <c r="P170" s="595"/>
+      <c r="Q170" s="595"/>
+      <c r="R170" s="595"/>
+      <c r="S170" s="595"/>
+      <c r="T170" s="595"/>
+      <c r="U170" s="595"/>
+      <c r="V170" s="595"/>
+      <c r="W170" s="595"/>
+      <c r="X170" s="595"/>
+      <c r="Y170" s="595"/>
+      <c r="Z170" s="595"/>
+      <c r="AA170" s="595"/>
+      <c r="AB170" s="595"/>
+      <c r="AC170" s="595"/>
+      <c r="AD170" s="595"/>
+      <c r="AE170" s="595"/>
+      <c r="AF170" s="595"/>
+      <c r="AG170" s="595"/>
+      <c r="AH170" s="596"/>
     </row>
     <row r="171" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="50"/>
-      <c r="F171" s="522" t="s">
+      <c r="F171" s="527" t="s">
         <v>209</v>
       </c>
-      <c r="G171" s="523"/>
-      <c r="H171" s="523"/>
-      <c r="I171" s="523"/>
-      <c r="J171" s="524"/>
-      <c r="K171" s="590" t="s">
+      <c r="G171" s="528"/>
+      <c r="H171" s="528"/>
+      <c r="I171" s="528"/>
+      <c r="J171" s="529"/>
+      <c r="K171" s="603" t="s">
         <v>45</v>
       </c>
-      <c r="L171" s="524"/>
-      <c r="M171" s="532" t="s">
+      <c r="L171" s="529"/>
+      <c r="M171" s="537" t="s">
         <v>233</v>
       </c>
-      <c r="N171" s="613"/>
-      <c r="O171" s="522" t="s">
+      <c r="N171" s="601"/>
+      <c r="O171" s="527" t="s">
         <v>212</v>
       </c>
-      <c r="P171" s="523"/>
-      <c r="Q171" s="523"/>
-      <c r="R171" s="523"/>
-      <c r="S171" s="523"/>
-      <c r="T171" s="523"/>
-      <c r="U171" s="523"/>
-      <c r="V171" s="523"/>
-      <c r="W171" s="523"/>
-      <c r="X171" s="523"/>
-      <c r="Y171" s="523"/>
-      <c r="Z171" s="523"/>
-      <c r="AA171" s="523"/>
-      <c r="AB171" s="523"/>
-      <c r="AC171" s="523"/>
-      <c r="AD171" s="523"/>
-      <c r="AE171" s="523"/>
-      <c r="AF171" s="523"/>
-      <c r="AG171" s="523"/>
-      <c r="AH171" s="524"/>
+      <c r="P171" s="528"/>
+      <c r="Q171" s="528"/>
+      <c r="R171" s="528"/>
+      <c r="S171" s="528"/>
+      <c r="T171" s="528"/>
+      <c r="U171" s="528"/>
+      <c r="V171" s="528"/>
+      <c r="W171" s="528"/>
+      <c r="X171" s="528"/>
+      <c r="Y171" s="528"/>
+      <c r="Z171" s="528"/>
+      <c r="AA171" s="528"/>
+      <c r="AB171" s="528"/>
+      <c r="AC171" s="528"/>
+      <c r="AD171" s="528"/>
+      <c r="AE171" s="528"/>
+      <c r="AF171" s="528"/>
+      <c r="AG171" s="528"/>
+      <c r="AH171" s="529"/>
     </row>
     <row r="172" spans="1:34" s="94" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="50"/>
-      <c r="F172" s="531"/>
-      <c r="G172" s="526"/>
-      <c r="H172" s="526"/>
-      <c r="I172" s="526"/>
-      <c r="J172" s="527"/>
-      <c r="K172" s="525"/>
-      <c r="L172" s="527"/>
-      <c r="M172" s="614"/>
-      <c r="N172" s="593"/>
-      <c r="O172" s="531"/>
-      <c r="P172" s="526"/>
-      <c r="Q172" s="526"/>
-      <c r="R172" s="526"/>
-      <c r="S172" s="526"/>
-      <c r="T172" s="526"/>
-      <c r="U172" s="526"/>
-      <c r="V172" s="526"/>
-      <c r="W172" s="526"/>
-      <c r="X172" s="526"/>
-      <c r="Y172" s="526"/>
-      <c r="Z172" s="526"/>
-      <c r="AA172" s="526"/>
-      <c r="AB172" s="526"/>
-      <c r="AC172" s="526"/>
-      <c r="AD172" s="526"/>
-      <c r="AE172" s="526"/>
-      <c r="AF172" s="526"/>
-      <c r="AG172" s="526"/>
-      <c r="AH172" s="527"/>
+      <c r="F172" s="536"/>
+      <c r="G172" s="531"/>
+      <c r="H172" s="531"/>
+      <c r="I172" s="531"/>
+      <c r="J172" s="532"/>
+      <c r="K172" s="530"/>
+      <c r="L172" s="532"/>
+      <c r="M172" s="602"/>
+      <c r="N172" s="588"/>
+      <c r="O172" s="536"/>
+      <c r="P172" s="531"/>
+      <c r="Q172" s="531"/>
+      <c r="R172" s="531"/>
+      <c r="S172" s="531"/>
+      <c r="T172" s="531"/>
+      <c r="U172" s="531"/>
+      <c r="V172" s="531"/>
+      <c r="W172" s="531"/>
+      <c r="X172" s="531"/>
+      <c r="Y172" s="531"/>
+      <c r="Z172" s="531"/>
+      <c r="AA172" s="531"/>
+      <c r="AB172" s="531"/>
+      <c r="AC172" s="531"/>
+      <c r="AD172" s="531"/>
+      <c r="AE172" s="531"/>
+      <c r="AF172" s="531"/>
+      <c r="AG172" s="531"/>
+      <c r="AH172" s="532"/>
     </row>
     <row r="173" spans="1:34" s="94" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="50"/>
-      <c r="F173" s="531"/>
-      <c r="G173" s="526"/>
-      <c r="H173" s="526"/>
-      <c r="I173" s="526"/>
-      <c r="J173" s="527"/>
-      <c r="K173" s="525"/>
-      <c r="L173" s="527"/>
-      <c r="M173" s="614"/>
-      <c r="N173" s="593"/>
-      <c r="O173" s="531"/>
-      <c r="P173" s="526"/>
-      <c r="Q173" s="526"/>
-      <c r="R173" s="526"/>
-      <c r="S173" s="526"/>
-      <c r="T173" s="526"/>
-      <c r="U173" s="526"/>
-      <c r="V173" s="526"/>
-      <c r="W173" s="526"/>
-      <c r="X173" s="526"/>
-      <c r="Y173" s="526"/>
-      <c r="Z173" s="526"/>
-      <c r="AA173" s="526"/>
-      <c r="AB173" s="526"/>
-      <c r="AC173" s="526"/>
-      <c r="AD173" s="526"/>
-      <c r="AE173" s="526"/>
-      <c r="AF173" s="526"/>
-      <c r="AG173" s="526"/>
-      <c r="AH173" s="527"/>
+      <c r="F173" s="536"/>
+      <c r="G173" s="531"/>
+      <c r="H173" s="531"/>
+      <c r="I173" s="531"/>
+      <c r="J173" s="532"/>
+      <c r="K173" s="530"/>
+      <c r="L173" s="532"/>
+      <c r="M173" s="602"/>
+      <c r="N173" s="588"/>
+      <c r="O173" s="536"/>
+      <c r="P173" s="531"/>
+      <c r="Q173" s="531"/>
+      <c r="R173" s="531"/>
+      <c r="S173" s="531"/>
+      <c r="T173" s="531"/>
+      <c r="U173" s="531"/>
+      <c r="V173" s="531"/>
+      <c r="W173" s="531"/>
+      <c r="X173" s="531"/>
+      <c r="Y173" s="531"/>
+      <c r="Z173" s="531"/>
+      <c r="AA173" s="531"/>
+      <c r="AB173" s="531"/>
+      <c r="AC173" s="531"/>
+      <c r="AD173" s="531"/>
+      <c r="AE173" s="531"/>
+      <c r="AF173" s="531"/>
+      <c r="AG173" s="531"/>
+      <c r="AH173" s="532"/>
     </row>
     <row r="174" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="50"/>
-      <c r="F174" s="528"/>
-      <c r="G174" s="529"/>
-      <c r="H174" s="529"/>
-      <c r="I174" s="529"/>
-      <c r="J174" s="530"/>
-      <c r="K174" s="528"/>
-      <c r="L174" s="530"/>
-      <c r="M174" s="571"/>
-      <c r="N174" s="573"/>
-      <c r="O174" s="528"/>
-      <c r="P174" s="529"/>
-      <c r="Q174" s="529"/>
-      <c r="R174" s="529"/>
-      <c r="S174" s="529"/>
-      <c r="T174" s="529"/>
-      <c r="U174" s="529"/>
-      <c r="V174" s="529"/>
-      <c r="W174" s="529"/>
-      <c r="X174" s="529"/>
-      <c r="Y174" s="529"/>
-      <c r="Z174" s="529"/>
-      <c r="AA174" s="529"/>
-      <c r="AB174" s="529"/>
-      <c r="AC174" s="529"/>
-      <c r="AD174" s="529"/>
-      <c r="AE174" s="529"/>
-      <c r="AF174" s="529"/>
-      <c r="AG174" s="529"/>
-      <c r="AH174" s="530"/>
+      <c r="F174" s="533"/>
+      <c r="G174" s="534"/>
+      <c r="H174" s="534"/>
+      <c r="I174" s="534"/>
+      <c r="J174" s="535"/>
+      <c r="K174" s="533"/>
+      <c r="L174" s="535"/>
+      <c r="M174" s="589"/>
+      <c r="N174" s="591"/>
+      <c r="O174" s="533"/>
+      <c r="P174" s="534"/>
+      <c r="Q174" s="534"/>
+      <c r="R174" s="534"/>
+      <c r="S174" s="534"/>
+      <c r="T174" s="534"/>
+      <c r="U174" s="534"/>
+      <c r="V174" s="534"/>
+      <c r="W174" s="534"/>
+      <c r="X174" s="534"/>
+      <c r="Y174" s="534"/>
+      <c r="Z174" s="534"/>
+      <c r="AA174" s="534"/>
+      <c r="AB174" s="534"/>
+      <c r="AC174" s="534"/>
+      <c r="AD174" s="534"/>
+      <c r="AE174" s="534"/>
+      <c r="AF174" s="534"/>
+      <c r="AG174" s="534"/>
+      <c r="AH174" s="535"/>
     </row>
     <row r="175" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="50"/>
-      <c r="F175" s="590" t="s">
+      <c r="F175" s="603" t="s">
         <v>46</v>
       </c>
-      <c r="G175" s="523"/>
-      <c r="H175" s="523"/>
-      <c r="I175" s="523"/>
-      <c r="J175" s="524"/>
-      <c r="K175" s="590" t="s">
+      <c r="G175" s="528"/>
+      <c r="H175" s="528"/>
+      <c r="I175" s="528"/>
+      <c r="J175" s="529"/>
+      <c r="K175" s="603" t="s">
         <v>45</v>
       </c>
-      <c r="L175" s="524"/>
-      <c r="M175" s="590" t="s">
+      <c r="L175" s="529"/>
+      <c r="M175" s="603" t="s">
         <v>47</v>
       </c>
-      <c r="N175" s="613"/>
-      <c r="O175" s="532" t="s">
+      <c r="N175" s="601"/>
+      <c r="O175" s="537" t="s">
         <v>216</v>
       </c>
-      <c r="P175" s="569"/>
-      <c r="Q175" s="569"/>
-      <c r="R175" s="569"/>
-      <c r="S175" s="569"/>
-      <c r="T175" s="569"/>
-      <c r="U175" s="569"/>
-      <c r="V175" s="569"/>
-      <c r="W175" s="569"/>
-      <c r="X175" s="569"/>
-      <c r="Y175" s="569"/>
-      <c r="Z175" s="569"/>
-      <c r="AA175" s="569"/>
-      <c r="AB175" s="569"/>
-      <c r="AC175" s="569"/>
-      <c r="AD175" s="569"/>
-      <c r="AE175" s="569"/>
-      <c r="AF175" s="569"/>
-      <c r="AG175" s="569"/>
-      <c r="AH175" s="570"/>
+      <c r="P175" s="584"/>
+      <c r="Q175" s="584"/>
+      <c r="R175" s="584"/>
+      <c r="S175" s="584"/>
+      <c r="T175" s="584"/>
+      <c r="U175" s="584"/>
+      <c r="V175" s="584"/>
+      <c r="W175" s="584"/>
+      <c r="X175" s="584"/>
+      <c r="Y175" s="584"/>
+      <c r="Z175" s="584"/>
+      <c r="AA175" s="584"/>
+      <c r="AB175" s="584"/>
+      <c r="AC175" s="584"/>
+      <c r="AD175" s="584"/>
+      <c r="AE175" s="584"/>
+      <c r="AF175" s="584"/>
+      <c r="AG175" s="584"/>
+      <c r="AH175" s="585"/>
     </row>
     <row r="176" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="50"/>
-      <c r="F176" s="522" t="s">
+      <c r="F176" s="527" t="s">
         <v>197</v>
       </c>
-      <c r="G176" s="523"/>
-      <c r="H176" s="523"/>
-      <c r="I176" s="523"/>
-      <c r="J176" s="524"/>
-      <c r="K176" s="590" t="s">
+      <c r="G176" s="528"/>
+      <c r="H176" s="528"/>
+      <c r="I176" s="528"/>
+      <c r="J176" s="529"/>
+      <c r="K176" s="603" t="s">
         <v>45</v>
       </c>
-      <c r="L176" s="524"/>
-      <c r="M176" s="590" t="s">
+      <c r="L176" s="529"/>
+      <c r="M176" s="603" t="s">
         <v>73</v>
       </c>
-      <c r="N176" s="613"/>
-      <c r="O176" s="532" t="s">
+      <c r="N176" s="601"/>
+      <c r="O176" s="537" t="s">
         <v>217</v>
       </c>
-      <c r="P176" s="569"/>
-      <c r="Q176" s="569"/>
-      <c r="R176" s="569"/>
-      <c r="S176" s="569"/>
-      <c r="T176" s="569"/>
-      <c r="U176" s="569"/>
-      <c r="V176" s="569"/>
-      <c r="W176" s="569"/>
-      <c r="X176" s="569"/>
-      <c r="Y176" s="569"/>
-      <c r="Z176" s="569"/>
-      <c r="AA176" s="569"/>
-      <c r="AB176" s="569"/>
-      <c r="AC176" s="569"/>
-      <c r="AD176" s="569"/>
-      <c r="AE176" s="569"/>
-      <c r="AF176" s="569"/>
-      <c r="AG176" s="569"/>
-      <c r="AH176" s="570"/>
+      <c r="P176" s="584"/>
+      <c r="Q176" s="584"/>
+      <c r="R176" s="584"/>
+      <c r="S176" s="584"/>
+      <c r="T176" s="584"/>
+      <c r="U176" s="584"/>
+      <c r="V176" s="584"/>
+      <c r="W176" s="584"/>
+      <c r="X176" s="584"/>
+      <c r="Y176" s="584"/>
+      <c r="Z176" s="584"/>
+      <c r="AA176" s="584"/>
+      <c r="AB176" s="584"/>
+      <c r="AC176" s="584"/>
+      <c r="AD176" s="584"/>
+      <c r="AE176" s="584"/>
+      <c r="AF176" s="584"/>
+      <c r="AG176" s="584"/>
+      <c r="AH176" s="585"/>
     </row>
     <row r="177" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="50"/>
-      <c r="F177" s="591"/>
-      <c r="G177" s="592"/>
-      <c r="H177" s="592"/>
-      <c r="I177" s="592"/>
-      <c r="J177" s="593"/>
-      <c r="K177" s="525"/>
-      <c r="L177" s="527"/>
-      <c r="M177" s="591"/>
-      <c r="N177" s="593"/>
-      <c r="O177" s="591"/>
-      <c r="P177" s="592"/>
-      <c r="Q177" s="592"/>
-      <c r="R177" s="592"/>
-      <c r="S177" s="592"/>
-      <c r="T177" s="592"/>
-      <c r="U177" s="592"/>
-      <c r="V177" s="592"/>
-      <c r="W177" s="592"/>
-      <c r="X177" s="592"/>
-      <c r="Y177" s="592"/>
-      <c r="Z177" s="592"/>
-      <c r="AA177" s="592"/>
-      <c r="AB177" s="592"/>
-      <c r="AC177" s="592"/>
-      <c r="AD177" s="592"/>
-      <c r="AE177" s="592"/>
-      <c r="AF177" s="592"/>
-      <c r="AG177" s="592"/>
-      <c r="AH177" s="593"/>
+      <c r="F177" s="586"/>
+      <c r="G177" s="587"/>
+      <c r="H177" s="587"/>
+      <c r="I177" s="587"/>
+      <c r="J177" s="588"/>
+      <c r="K177" s="530"/>
+      <c r="L177" s="532"/>
+      <c r="M177" s="586"/>
+      <c r="N177" s="588"/>
+      <c r="O177" s="586"/>
+      <c r="P177" s="587"/>
+      <c r="Q177" s="587"/>
+      <c r="R177" s="587"/>
+      <c r="S177" s="587"/>
+      <c r="T177" s="587"/>
+      <c r="U177" s="587"/>
+      <c r="V177" s="587"/>
+      <c r="W177" s="587"/>
+      <c r="X177" s="587"/>
+      <c r="Y177" s="587"/>
+      <c r="Z177" s="587"/>
+      <c r="AA177" s="587"/>
+      <c r="AB177" s="587"/>
+      <c r="AC177" s="587"/>
+      <c r="AD177" s="587"/>
+      <c r="AE177" s="587"/>
+      <c r="AF177" s="587"/>
+      <c r="AG177" s="587"/>
+      <c r="AH177" s="588"/>
     </row>
     <row r="178" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="50"/>
-      <c r="F178" s="591"/>
-      <c r="G178" s="592"/>
-      <c r="H178" s="592"/>
-      <c r="I178" s="592"/>
-      <c r="J178" s="593"/>
-      <c r="K178" s="525"/>
-      <c r="L178" s="527"/>
-      <c r="M178" s="591"/>
-      <c r="N178" s="593"/>
-      <c r="O178" s="591"/>
-      <c r="P178" s="592"/>
-      <c r="Q178" s="592"/>
-      <c r="R178" s="592"/>
-      <c r="S178" s="592"/>
-      <c r="T178" s="592"/>
-      <c r="U178" s="592"/>
-      <c r="V178" s="592"/>
-      <c r="W178" s="592"/>
-      <c r="X178" s="592"/>
-      <c r="Y178" s="592"/>
-      <c r="Z178" s="592"/>
-      <c r="AA178" s="592"/>
-      <c r="AB178" s="592"/>
-      <c r="AC178" s="592"/>
-      <c r="AD178" s="592"/>
-      <c r="AE178" s="592"/>
-      <c r="AF178" s="592"/>
-      <c r="AG178" s="592"/>
-      <c r="AH178" s="593"/>
+      <c r="F178" s="586"/>
+      <c r="G178" s="587"/>
+      <c r="H178" s="587"/>
+      <c r="I178" s="587"/>
+      <c r="J178" s="588"/>
+      <c r="K178" s="530"/>
+      <c r="L178" s="532"/>
+      <c r="M178" s="586"/>
+      <c r="N178" s="588"/>
+      <c r="O178" s="586"/>
+      <c r="P178" s="587"/>
+      <c r="Q178" s="587"/>
+      <c r="R178" s="587"/>
+      <c r="S178" s="587"/>
+      <c r="T178" s="587"/>
+      <c r="U178" s="587"/>
+      <c r="V178" s="587"/>
+      <c r="W178" s="587"/>
+      <c r="X178" s="587"/>
+      <c r="Y178" s="587"/>
+      <c r="Z178" s="587"/>
+      <c r="AA178" s="587"/>
+      <c r="AB178" s="587"/>
+      <c r="AC178" s="587"/>
+      <c r="AD178" s="587"/>
+      <c r="AE178" s="587"/>
+      <c r="AF178" s="587"/>
+      <c r="AG178" s="587"/>
+      <c r="AH178" s="588"/>
     </row>
     <row r="179" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="50"/>
-      <c r="F179" s="571"/>
-      <c r="G179" s="572"/>
-      <c r="H179" s="572"/>
-      <c r="I179" s="572"/>
-      <c r="J179" s="573"/>
-      <c r="K179" s="528"/>
-      <c r="L179" s="530"/>
-      <c r="M179" s="571"/>
-      <c r="N179" s="573"/>
-      <c r="O179" s="571"/>
-      <c r="P179" s="572"/>
-      <c r="Q179" s="572"/>
-      <c r="R179" s="572"/>
-      <c r="S179" s="572"/>
-      <c r="T179" s="572"/>
-      <c r="U179" s="572"/>
-      <c r="V179" s="572"/>
-      <c r="W179" s="572"/>
-      <c r="X179" s="572"/>
-      <c r="Y179" s="572"/>
-      <c r="Z179" s="572"/>
-      <c r="AA179" s="572"/>
-      <c r="AB179" s="572"/>
-      <c r="AC179" s="572"/>
-      <c r="AD179" s="572"/>
-      <c r="AE179" s="572"/>
-      <c r="AF179" s="572"/>
-      <c r="AG179" s="572"/>
-      <c r="AH179" s="573"/>
+      <c r="F179" s="589"/>
+      <c r="G179" s="590"/>
+      <c r="H179" s="590"/>
+      <c r="I179" s="590"/>
+      <c r="J179" s="591"/>
+      <c r="K179" s="533"/>
+      <c r="L179" s="535"/>
+      <c r="M179" s="589"/>
+      <c r="N179" s="591"/>
+      <c r="O179" s="589"/>
+      <c r="P179" s="590"/>
+      <c r="Q179" s="590"/>
+      <c r="R179" s="590"/>
+      <c r="S179" s="590"/>
+      <c r="T179" s="590"/>
+      <c r="U179" s="590"/>
+      <c r="V179" s="590"/>
+      <c r="W179" s="590"/>
+      <c r="X179" s="590"/>
+      <c r="Y179" s="590"/>
+      <c r="Z179" s="590"/>
+      <c r="AA179" s="590"/>
+      <c r="AB179" s="590"/>
+      <c r="AC179" s="590"/>
+      <c r="AD179" s="590"/>
+      <c r="AE179" s="590"/>
+      <c r="AF179" s="590"/>
+      <c r="AG179" s="590"/>
+      <c r="AH179" s="591"/>
     </row>
     <row r="180" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="50"/>
-      <c r="F180" s="590" t="s">
+      <c r="F180" s="603" t="s">
         <v>37</v>
       </c>
-      <c r="G180" s="523"/>
-      <c r="H180" s="523"/>
-      <c r="I180" s="523"/>
-      <c r="J180" s="524"/>
-      <c r="K180" s="590" t="s">
+      <c r="G180" s="528"/>
+      <c r="H180" s="528"/>
+      <c r="I180" s="528"/>
+      <c r="J180" s="529"/>
+      <c r="K180" s="603" t="s">
         <v>34</v>
       </c>
-      <c r="L180" s="524"/>
-      <c r="M180" s="590" t="s">
+      <c r="L180" s="529"/>
+      <c r="M180" s="603" t="s">
         <v>47</v>
       </c>
-      <c r="N180" s="613"/>
-      <c r="O180" s="532" t="s">
+      <c r="N180" s="601"/>
+      <c r="O180" s="537" t="s">
         <v>356</v>
       </c>
-      <c r="P180" s="569"/>
-      <c r="Q180" s="569"/>
-      <c r="R180" s="569"/>
-      <c r="S180" s="569"/>
-      <c r="T180" s="569"/>
-      <c r="U180" s="569"/>
-      <c r="V180" s="569"/>
-      <c r="W180" s="569"/>
-      <c r="X180" s="569"/>
-      <c r="Y180" s="569"/>
-      <c r="Z180" s="569"/>
-      <c r="AA180" s="569"/>
-      <c r="AB180" s="569"/>
-      <c r="AC180" s="569"/>
-      <c r="AD180" s="569"/>
-      <c r="AE180" s="569"/>
-      <c r="AF180" s="569"/>
-      <c r="AG180" s="569"/>
-      <c r="AH180" s="570"/>
+      <c r="P180" s="584"/>
+      <c r="Q180" s="584"/>
+      <c r="R180" s="584"/>
+      <c r="S180" s="584"/>
+      <c r="T180" s="584"/>
+      <c r="U180" s="584"/>
+      <c r="V180" s="584"/>
+      <c r="W180" s="584"/>
+      <c r="X180" s="584"/>
+      <c r="Y180" s="584"/>
+      <c r="Z180" s="584"/>
+      <c r="AA180" s="584"/>
+      <c r="AB180" s="584"/>
+      <c r="AC180" s="584"/>
+      <c r="AD180" s="584"/>
+      <c r="AE180" s="584"/>
+      <c r="AF180" s="584"/>
+      <c r="AG180" s="584"/>
+      <c r="AH180" s="585"/>
     </row>
     <row r="181" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="50"/>
-      <c r="F181" s="571"/>
-      <c r="G181" s="572"/>
-      <c r="H181" s="572"/>
-      <c r="I181" s="572"/>
-      <c r="J181" s="573"/>
-      <c r="K181" s="528"/>
-      <c r="L181" s="530"/>
-      <c r="M181" s="571"/>
-      <c r="N181" s="573"/>
-      <c r="O181" s="571"/>
-      <c r="P181" s="572"/>
-      <c r="Q181" s="572"/>
-      <c r="R181" s="572"/>
-      <c r="S181" s="572"/>
-      <c r="T181" s="572"/>
-      <c r="U181" s="572"/>
-      <c r="V181" s="572"/>
-      <c r="W181" s="572"/>
-      <c r="X181" s="572"/>
-      <c r="Y181" s="572"/>
-      <c r="Z181" s="572"/>
-      <c r="AA181" s="572"/>
-      <c r="AB181" s="572"/>
-      <c r="AC181" s="572"/>
-      <c r="AD181" s="572"/>
-      <c r="AE181" s="572"/>
-      <c r="AF181" s="572"/>
-      <c r="AG181" s="572"/>
-      <c r="AH181" s="573"/>
+      <c r="F181" s="589"/>
+      <c r="G181" s="590"/>
+      <c r="H181" s="590"/>
+      <c r="I181" s="590"/>
+      <c r="J181" s="591"/>
+      <c r="K181" s="533"/>
+      <c r="L181" s="535"/>
+      <c r="M181" s="589"/>
+      <c r="N181" s="591"/>
+      <c r="O181" s="589"/>
+      <c r="P181" s="590"/>
+      <c r="Q181" s="590"/>
+      <c r="R181" s="590"/>
+      <c r="S181" s="590"/>
+      <c r="T181" s="590"/>
+      <c r="U181" s="590"/>
+      <c r="V181" s="590"/>
+      <c r="W181" s="590"/>
+      <c r="X181" s="590"/>
+      <c r="Y181" s="590"/>
+      <c r="Z181" s="590"/>
+      <c r="AA181" s="590"/>
+      <c r="AB181" s="590"/>
+      <c r="AC181" s="590"/>
+      <c r="AD181" s="590"/>
+      <c r="AE181" s="590"/>
+      <c r="AF181" s="590"/>
+      <c r="AG181" s="590"/>
+      <c r="AH181" s="591"/>
     </row>
     <row r="182" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="50"/>
-      <c r="F182" s="590" t="s">
+      <c r="F182" s="603" t="s">
         <v>38</v>
       </c>
-      <c r="G182" s="523"/>
-      <c r="H182" s="523"/>
-      <c r="I182" s="523"/>
-      <c r="J182" s="524"/>
-      <c r="K182" s="590" t="s">
+      <c r="G182" s="528"/>
+      <c r="H182" s="528"/>
+      <c r="I182" s="528"/>
+      <c r="J182" s="529"/>
+      <c r="K182" s="603" t="s">
         <v>34</v>
       </c>
-      <c r="L182" s="524"/>
-      <c r="M182" s="590" t="s">
+      <c r="L182" s="529"/>
+      <c r="M182" s="603" t="s">
         <v>76</v>
       </c>
-      <c r="N182" s="613"/>
-      <c r="O182" s="532" t="s">
+      <c r="N182" s="601"/>
+      <c r="O182" s="537" t="s">
         <v>355</v>
       </c>
-      <c r="P182" s="569"/>
-      <c r="Q182" s="569"/>
-      <c r="R182" s="569"/>
-      <c r="S182" s="569"/>
-      <c r="T182" s="569"/>
-      <c r="U182" s="569"/>
-      <c r="V182" s="569"/>
-      <c r="W182" s="569"/>
-      <c r="X182" s="569"/>
-      <c r="Y182" s="569"/>
-      <c r="Z182" s="569"/>
-      <c r="AA182" s="569"/>
-      <c r="AB182" s="569"/>
-      <c r="AC182" s="569"/>
-      <c r="AD182" s="569"/>
-      <c r="AE182" s="569"/>
-      <c r="AF182" s="569"/>
-      <c r="AG182" s="569"/>
-      <c r="AH182" s="570"/>
+      <c r="P182" s="584"/>
+      <c r="Q182" s="584"/>
+      <c r="R182" s="584"/>
+      <c r="S182" s="584"/>
+      <c r="T182" s="584"/>
+      <c r="U182" s="584"/>
+      <c r="V182" s="584"/>
+      <c r="W182" s="584"/>
+      <c r="X182" s="584"/>
+      <c r="Y182" s="584"/>
+      <c r="Z182" s="584"/>
+      <c r="AA182" s="584"/>
+      <c r="AB182" s="584"/>
+      <c r="AC182" s="584"/>
+      <c r="AD182" s="584"/>
+      <c r="AE182" s="584"/>
+      <c r="AF182" s="584"/>
+      <c r="AG182" s="584"/>
+      <c r="AH182" s="585"/>
     </row>
     <row r="183" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="50"/>
-      <c r="F183" s="571"/>
-      <c r="G183" s="572"/>
-      <c r="H183" s="572"/>
-      <c r="I183" s="572"/>
-      <c r="J183" s="573"/>
-      <c r="K183" s="528"/>
-      <c r="L183" s="530"/>
-      <c r="M183" s="571"/>
-      <c r="N183" s="573"/>
-      <c r="O183" s="571"/>
-      <c r="P183" s="572"/>
-      <c r="Q183" s="572"/>
-      <c r="R183" s="572"/>
-      <c r="S183" s="572"/>
-      <c r="T183" s="572"/>
-      <c r="U183" s="572"/>
-      <c r="V183" s="572"/>
-      <c r="W183" s="572"/>
-      <c r="X183" s="572"/>
-      <c r="Y183" s="572"/>
-      <c r="Z183" s="572"/>
-      <c r="AA183" s="572"/>
-      <c r="AB183" s="572"/>
-      <c r="AC183" s="572"/>
-      <c r="AD183" s="572"/>
-      <c r="AE183" s="572"/>
-      <c r="AF183" s="572"/>
-      <c r="AG183" s="572"/>
-      <c r="AH183" s="573"/>
+      <c r="F183" s="589"/>
+      <c r="G183" s="590"/>
+      <c r="H183" s="590"/>
+      <c r="I183" s="590"/>
+      <c r="J183" s="591"/>
+      <c r="K183" s="533"/>
+      <c r="L183" s="535"/>
+      <c r="M183" s="589"/>
+      <c r="N183" s="591"/>
+      <c r="O183" s="589"/>
+      <c r="P183" s="590"/>
+      <c r="Q183" s="590"/>
+      <c r="R183" s="590"/>
+      <c r="S183" s="590"/>
+      <c r="T183" s="590"/>
+      <c r="U183" s="590"/>
+      <c r="V183" s="590"/>
+      <c r="W183" s="590"/>
+      <c r="X183" s="590"/>
+      <c r="Y183" s="590"/>
+      <c r="Z183" s="590"/>
+      <c r="AA183" s="590"/>
+      <c r="AB183" s="590"/>
+      <c r="AC183" s="590"/>
+      <c r="AD183" s="590"/>
+      <c r="AE183" s="590"/>
+      <c r="AF183" s="590"/>
+      <c r="AG183" s="590"/>
+      <c r="AH183" s="591"/>
     </row>
     <row r="184" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="50"/>
-      <c r="F184" s="590" t="s">
+      <c r="F184" s="603" t="s">
         <v>118</v>
       </c>
-      <c r="G184" s="523"/>
-      <c r="H184" s="523"/>
-      <c r="I184" s="523"/>
-      <c r="J184" s="524"/>
-      <c r="K184" s="590" t="s">
+      <c r="G184" s="528"/>
+      <c r="H184" s="528"/>
+      <c r="I184" s="528"/>
+      <c r="J184" s="529"/>
+      <c r="K184" s="603" t="s">
         <v>45</v>
       </c>
-      <c r="L184" s="524"/>
-      <c r="M184" s="590" t="s">
+      <c r="L184" s="529"/>
+      <c r="M184" s="603" t="s">
         <v>69</v>
       </c>
-      <c r="N184" s="613"/>
-      <c r="O184" s="522" t="s">
+      <c r="N184" s="601"/>
+      <c r="O184" s="527" t="s">
         <v>214</v>
       </c>
-      <c r="P184" s="523"/>
-      <c r="Q184" s="523"/>
-      <c r="R184" s="523"/>
-      <c r="S184" s="523"/>
-      <c r="T184" s="523"/>
-      <c r="U184" s="523"/>
-      <c r="V184" s="523"/>
-      <c r="W184" s="523"/>
-      <c r="X184" s="523"/>
-      <c r="Y184" s="523"/>
-      <c r="Z184" s="523"/>
-      <c r="AA184" s="523"/>
-      <c r="AB184" s="523"/>
-      <c r="AC184" s="523"/>
-      <c r="AD184" s="523"/>
-      <c r="AE184" s="523"/>
-      <c r="AF184" s="523"/>
-      <c r="AG184" s="523"/>
-      <c r="AH184" s="524"/>
+      <c r="P184" s="528"/>
+      <c r="Q184" s="528"/>
+      <c r="R184" s="528"/>
+      <c r="S184" s="528"/>
+      <c r="T184" s="528"/>
+      <c r="U184" s="528"/>
+      <c r="V184" s="528"/>
+      <c r="W184" s="528"/>
+      <c r="X184" s="528"/>
+      <c r="Y184" s="528"/>
+      <c r="Z184" s="528"/>
+      <c r="AA184" s="528"/>
+      <c r="AB184" s="528"/>
+      <c r="AC184" s="528"/>
+      <c r="AD184" s="528"/>
+      <c r="AE184" s="528"/>
+      <c r="AF184" s="528"/>
+      <c r="AG184" s="528"/>
+      <c r="AH184" s="529"/>
     </row>
     <row r="185" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="50"/>
-      <c r="F185" s="571"/>
-      <c r="G185" s="572"/>
-      <c r="H185" s="572"/>
-      <c r="I185" s="572"/>
-      <c r="J185" s="573"/>
-      <c r="K185" s="528"/>
-      <c r="L185" s="530"/>
-      <c r="M185" s="571"/>
-      <c r="N185" s="573"/>
-      <c r="O185" s="571"/>
-      <c r="P185" s="572"/>
-      <c r="Q185" s="572"/>
-      <c r="R185" s="572"/>
-      <c r="S185" s="572"/>
-      <c r="T185" s="572"/>
-      <c r="U185" s="572"/>
-      <c r="V185" s="572"/>
-      <c r="W185" s="572"/>
-      <c r="X185" s="572"/>
-      <c r="Y185" s="572"/>
-      <c r="Z185" s="572"/>
-      <c r="AA185" s="572"/>
-      <c r="AB185" s="572"/>
-      <c r="AC185" s="572"/>
-      <c r="AD185" s="572"/>
-      <c r="AE185" s="572"/>
-      <c r="AF185" s="572"/>
-      <c r="AG185" s="572"/>
-      <c r="AH185" s="573"/>
+      <c r="F185" s="589"/>
+      <c r="G185" s="590"/>
+      <c r="H185" s="590"/>
+      <c r="I185" s="590"/>
+      <c r="J185" s="591"/>
+      <c r="K185" s="533"/>
+      <c r="L185" s="535"/>
+      <c r="M185" s="589"/>
+      <c r="N185" s="591"/>
+      <c r="O185" s="589"/>
+      <c r="P185" s="590"/>
+      <c r="Q185" s="590"/>
+      <c r="R185" s="590"/>
+      <c r="S185" s="590"/>
+      <c r="T185" s="590"/>
+      <c r="U185" s="590"/>
+      <c r="V185" s="590"/>
+      <c r="W185" s="590"/>
+      <c r="X185" s="590"/>
+      <c r="Y185" s="590"/>
+      <c r="Z185" s="590"/>
+      <c r="AA185" s="590"/>
+      <c r="AB185" s="590"/>
+      <c r="AC185" s="590"/>
+      <c r="AD185" s="590"/>
+      <c r="AE185" s="590"/>
+      <c r="AF185" s="590"/>
+      <c r="AG185" s="590"/>
+      <c r="AH185" s="591"/>
     </row>
     <row r="186" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="50"/>
-      <c r="F186" s="574" t="s">
+      <c r="F186" s="562" t="s">
         <v>119</v>
       </c>
-      <c r="G186" s="511"/>
-      <c r="H186" s="511"/>
-      <c r="I186" s="511"/>
-      <c r="J186" s="512"/>
-      <c r="K186" s="594" t="s">
+      <c r="G186" s="486"/>
+      <c r="H186" s="486"/>
+      <c r="I186" s="486"/>
+      <c r="J186" s="487"/>
+      <c r="K186" s="592" t="s">
         <v>45</v>
       </c>
-      <c r="L186" s="595"/>
-      <c r="M186" s="594" t="s">
+      <c r="L186" s="593"/>
+      <c r="M186" s="592" t="s">
         <v>69</v>
       </c>
-      <c r="N186" s="612"/>
-      <c r="O186" s="574" t="s">
+      <c r="N186" s="600"/>
+      <c r="O186" s="562" t="s">
         <v>215</v>
       </c>
-      <c r="P186" s="511"/>
-      <c r="Q186" s="511"/>
-      <c r="R186" s="511"/>
-      <c r="S186" s="511"/>
-      <c r="T186" s="511"/>
-      <c r="U186" s="511"/>
-      <c r="V186" s="511"/>
-      <c r="W186" s="511"/>
-      <c r="X186" s="511"/>
-      <c r="Y186" s="511"/>
-      <c r="Z186" s="511"/>
-      <c r="AA186" s="511"/>
-      <c r="AB186" s="511"/>
-      <c r="AC186" s="511"/>
-      <c r="AD186" s="511"/>
-      <c r="AE186" s="511"/>
-      <c r="AF186" s="511"/>
-      <c r="AG186" s="511"/>
-      <c r="AH186" s="512"/>
+      <c r="P186" s="486"/>
+      <c r="Q186" s="486"/>
+      <c r="R186" s="486"/>
+      <c r="S186" s="486"/>
+      <c r="T186" s="486"/>
+      <c r="U186" s="486"/>
+      <c r="V186" s="486"/>
+      <c r="W186" s="486"/>
+      <c r="X186" s="486"/>
+      <c r="Y186" s="486"/>
+      <c r="Z186" s="486"/>
+      <c r="AA186" s="486"/>
+      <c r="AB186" s="486"/>
+      <c r="AC186" s="486"/>
+      <c r="AD186" s="486"/>
+      <c r="AE186" s="486"/>
+      <c r="AF186" s="486"/>
+      <c r="AG186" s="486"/>
+      <c r="AH186" s="487"/>
     </row>
     <row r="187" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="50"/>
-      <c r="F187" s="590" t="s">
+      <c r="F187" s="603" t="s">
         <v>48</v>
       </c>
-      <c r="G187" s="523"/>
-      <c r="H187" s="523"/>
-      <c r="I187" s="523"/>
-      <c r="J187" s="524"/>
-      <c r="K187" s="590" t="s">
+      <c r="G187" s="528"/>
+      <c r="H187" s="528"/>
+      <c r="I187" s="528"/>
+      <c r="J187" s="529"/>
+      <c r="K187" s="603" t="s">
         <v>45</v>
       </c>
-      <c r="L187" s="524"/>
-      <c r="M187" s="590" t="s">
+      <c r="L187" s="529"/>
+      <c r="M187" s="603" t="s">
         <v>74</v>
       </c>
-      <c r="N187" s="613"/>
-      <c r="O187" s="522" t="s">
+      <c r="N187" s="601"/>
+      <c r="O187" s="527" t="s">
         <v>354</v>
       </c>
-      <c r="P187" s="569"/>
-      <c r="Q187" s="569"/>
-      <c r="R187" s="569"/>
-      <c r="S187" s="569"/>
-      <c r="T187" s="569"/>
-      <c r="U187" s="569"/>
-      <c r="V187" s="569"/>
-      <c r="W187" s="569"/>
-      <c r="X187" s="569"/>
-      <c r="Y187" s="569"/>
-      <c r="Z187" s="569"/>
-      <c r="AA187" s="569"/>
-      <c r="AB187" s="569"/>
-      <c r="AC187" s="569"/>
-      <c r="AD187" s="569"/>
-      <c r="AE187" s="569"/>
-      <c r="AF187" s="569"/>
-      <c r="AG187" s="569"/>
-      <c r="AH187" s="570"/>
+      <c r="P187" s="584"/>
+      <c r="Q187" s="584"/>
+      <c r="R187" s="584"/>
+      <c r="S187" s="584"/>
+      <c r="T187" s="584"/>
+      <c r="U187" s="584"/>
+      <c r="V187" s="584"/>
+      <c r="W187" s="584"/>
+      <c r="X187" s="584"/>
+      <c r="Y187" s="584"/>
+      <c r="Z187" s="584"/>
+      <c r="AA187" s="584"/>
+      <c r="AB187" s="584"/>
+      <c r="AC187" s="584"/>
+      <c r="AD187" s="584"/>
+      <c r="AE187" s="584"/>
+      <c r="AF187" s="584"/>
+      <c r="AG187" s="584"/>
+      <c r="AH187" s="585"/>
     </row>
     <row r="188" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="50"/>
-      <c r="F188" s="571"/>
-      <c r="G188" s="572"/>
-      <c r="H188" s="572"/>
-      <c r="I188" s="572"/>
-      <c r="J188" s="573"/>
-      <c r="K188" s="528"/>
-      <c r="L188" s="530"/>
-      <c r="M188" s="571"/>
-      <c r="N188" s="573"/>
-      <c r="O188" s="571"/>
-      <c r="P188" s="572"/>
-      <c r="Q188" s="572"/>
-      <c r="R188" s="572"/>
-      <c r="S188" s="572"/>
-      <c r="T188" s="572"/>
-      <c r="U188" s="572"/>
-      <c r="V188" s="572"/>
-      <c r="W188" s="572"/>
-      <c r="X188" s="572"/>
-      <c r="Y188" s="572"/>
-      <c r="Z188" s="572"/>
-      <c r="AA188" s="572"/>
-      <c r="AB188" s="572"/>
-      <c r="AC188" s="572"/>
-      <c r="AD188" s="572"/>
-      <c r="AE188" s="572"/>
-      <c r="AF188" s="572"/>
-      <c r="AG188" s="572"/>
-      <c r="AH188" s="573"/>
+      <c r="F188" s="589"/>
+      <c r="G188" s="590"/>
+      <c r="H188" s="590"/>
+      <c r="I188" s="590"/>
+      <c r="J188" s="591"/>
+      <c r="K188" s="533"/>
+      <c r="L188" s="535"/>
+      <c r="M188" s="589"/>
+      <c r="N188" s="591"/>
+      <c r="O188" s="589"/>
+      <c r="P188" s="590"/>
+      <c r="Q188" s="590"/>
+      <c r="R188" s="590"/>
+      <c r="S188" s="590"/>
+      <c r="T188" s="590"/>
+      <c r="U188" s="590"/>
+      <c r="V188" s="590"/>
+      <c r="W188" s="590"/>
+      <c r="X188" s="590"/>
+      <c r="Y188" s="590"/>
+      <c r="Z188" s="590"/>
+      <c r="AA188" s="590"/>
+      <c r="AB188" s="590"/>
+      <c r="AC188" s="590"/>
+      <c r="AD188" s="590"/>
+      <c r="AE188" s="590"/>
+      <c r="AF188" s="590"/>
+      <c r="AG188" s="590"/>
+      <c r="AH188" s="591"/>
     </row>
     <row r="189" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="50"/>
-      <c r="F189" s="510" t="s">
+      <c r="F189" s="485" t="s">
         <v>41</v>
       </c>
-      <c r="G189" s="511"/>
-      <c r="H189" s="511"/>
-      <c r="I189" s="511"/>
-      <c r="J189" s="512"/>
-      <c r="K189" s="594" t="s">
+      <c r="G189" s="486"/>
+      <c r="H189" s="486"/>
+      <c r="I189" s="486"/>
+      <c r="J189" s="487"/>
+      <c r="K189" s="592" t="s">
         <v>45</v>
       </c>
-      <c r="L189" s="595"/>
-      <c r="M189" s="594" t="s">
+      <c r="L189" s="593"/>
+      <c r="M189" s="592" t="s">
         <v>73</v>
       </c>
-      <c r="N189" s="612"/>
-      <c r="O189" s="574" t="s">
+      <c r="N189" s="600"/>
+      <c r="O189" s="562" t="s">
         <v>215</v>
       </c>
-      <c r="P189" s="511"/>
-      <c r="Q189" s="511"/>
-      <c r="R189" s="511"/>
-      <c r="S189" s="511"/>
-      <c r="T189" s="511"/>
-      <c r="U189" s="511"/>
-      <c r="V189" s="511"/>
-      <c r="W189" s="511"/>
-      <c r="X189" s="511"/>
-      <c r="Y189" s="511"/>
-      <c r="Z189" s="511"/>
-      <c r="AA189" s="511"/>
-      <c r="AB189" s="511"/>
-      <c r="AC189" s="511"/>
-      <c r="AD189" s="511"/>
-      <c r="AE189" s="511"/>
-      <c r="AF189" s="511"/>
-      <c r="AG189" s="511"/>
-      <c r="AH189" s="512"/>
+      <c r="P189" s="486"/>
+      <c r="Q189" s="486"/>
+      <c r="R189" s="486"/>
+      <c r="S189" s="486"/>
+      <c r="T189" s="486"/>
+      <c r="U189" s="486"/>
+      <c r="V189" s="486"/>
+      <c r="W189" s="486"/>
+      <c r="X189" s="486"/>
+      <c r="Y189" s="486"/>
+      <c r="Z189" s="486"/>
+      <c r="AA189" s="486"/>
+      <c r="AB189" s="486"/>
+      <c r="AC189" s="486"/>
+      <c r="AD189" s="486"/>
+      <c r="AE189" s="486"/>
+      <c r="AF189" s="486"/>
+      <c r="AG189" s="486"/>
+      <c r="AH189" s="487"/>
     </row>
     <row r="190" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="50"/>
       <c r="E190" s="80"/>
-      <c r="F190" s="532" t="s">
+      <c r="F190" s="537" t="s">
         <v>189</v>
       </c>
-      <c r="G190" s="569"/>
-      <c r="H190" s="569"/>
-      <c r="I190" s="569"/>
-      <c r="J190" s="570"/>
-      <c r="K190" s="560" t="s">
+      <c r="G190" s="584"/>
+      <c r="H190" s="584"/>
+      <c r="I190" s="584"/>
+      <c r="J190" s="585"/>
+      <c r="K190" s="616" t="s">
         <v>45</v>
       </c>
-      <c r="L190" s="534"/>
-      <c r="M190" s="590" t="s">
+      <c r="L190" s="539"/>
+      <c r="M190" s="603" t="s">
         <v>73</v>
       </c>
-      <c r="N190" s="613"/>
-      <c r="O190" s="522" t="s">
+      <c r="N190" s="601"/>
+      <c r="O190" s="527" t="s">
         <v>215</v>
       </c>
-      <c r="P190" s="523"/>
-      <c r="Q190" s="523"/>
-      <c r="R190" s="523"/>
-      <c r="S190" s="523"/>
-      <c r="T190" s="523"/>
-      <c r="U190" s="523"/>
-      <c r="V190" s="523"/>
-      <c r="W190" s="523"/>
-      <c r="X190" s="523"/>
-      <c r="Y190" s="523"/>
-      <c r="Z190" s="523"/>
-      <c r="AA190" s="523"/>
-      <c r="AB190" s="523"/>
-      <c r="AC190" s="523"/>
-      <c r="AD190" s="523"/>
-      <c r="AE190" s="523"/>
-      <c r="AF190" s="523"/>
-      <c r="AG190" s="523"/>
-      <c r="AH190" s="524"/>
+      <c r="P190" s="528"/>
+      <c r="Q190" s="528"/>
+      <c r="R190" s="528"/>
+      <c r="S190" s="528"/>
+      <c r="T190" s="528"/>
+      <c r="U190" s="528"/>
+      <c r="V190" s="528"/>
+      <c r="W190" s="528"/>
+      <c r="X190" s="528"/>
+      <c r="Y190" s="528"/>
+      <c r="Z190" s="528"/>
+      <c r="AA190" s="528"/>
+      <c r="AB190" s="528"/>
+      <c r="AC190" s="528"/>
+      <c r="AD190" s="528"/>
+      <c r="AE190" s="528"/>
+      <c r="AF190" s="528"/>
+      <c r="AG190" s="528"/>
+      <c r="AH190" s="529"/>
     </row>
     <row r="191" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="50"/>
       <c r="E191" s="80"/>
-      <c r="F191" s="571"/>
-      <c r="G191" s="572"/>
-      <c r="H191" s="572"/>
-      <c r="I191" s="572"/>
-      <c r="J191" s="573"/>
-      <c r="K191" s="561"/>
-      <c r="L191" s="562"/>
-      <c r="M191" s="571"/>
-      <c r="N191" s="573"/>
-      <c r="O191" s="571"/>
-      <c r="P191" s="572"/>
-      <c r="Q191" s="572"/>
-      <c r="R191" s="572"/>
-      <c r="S191" s="572"/>
-      <c r="T191" s="572"/>
-      <c r="U191" s="572"/>
-      <c r="V191" s="572"/>
-      <c r="W191" s="572"/>
-      <c r="X191" s="572"/>
-      <c r="Y191" s="572"/>
-      <c r="Z191" s="572"/>
-      <c r="AA191" s="572"/>
-      <c r="AB191" s="572"/>
-      <c r="AC191" s="572"/>
-      <c r="AD191" s="572"/>
-      <c r="AE191" s="572"/>
-      <c r="AF191" s="572"/>
-      <c r="AG191" s="572"/>
-      <c r="AH191" s="573"/>
+      <c r="F191" s="589"/>
+      <c r="G191" s="590"/>
+      <c r="H191" s="590"/>
+      <c r="I191" s="590"/>
+      <c r="J191" s="591"/>
+      <c r="K191" s="619"/>
+      <c r="L191" s="620"/>
+      <c r="M191" s="589"/>
+      <c r="N191" s="591"/>
+      <c r="O191" s="589"/>
+      <c r="P191" s="590"/>
+      <c r="Q191" s="590"/>
+      <c r="R191" s="590"/>
+      <c r="S191" s="590"/>
+      <c r="T191" s="590"/>
+      <c r="U191" s="590"/>
+      <c r="V191" s="590"/>
+      <c r="W191" s="590"/>
+      <c r="X191" s="590"/>
+      <c r="Y191" s="590"/>
+      <c r="Z191" s="590"/>
+      <c r="AA191" s="590"/>
+      <c r="AB191" s="590"/>
+      <c r="AC191" s="590"/>
+      <c r="AD191" s="590"/>
+      <c r="AE191" s="590"/>
+      <c r="AF191" s="590"/>
+      <c r="AG191" s="590"/>
+      <c r="AH191" s="591"/>
     </row>
     <row r="192" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="50"/>
@@ -41110,707 +41116,707 @@
     </row>
     <row r="196" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="50"/>
-      <c r="F196" s="566" t="s">
+      <c r="F196" s="627" t="s">
         <v>591</v>
       </c>
-      <c r="G196" s="567"/>
-      <c r="H196" s="567"/>
-      <c r="I196" s="567"/>
-      <c r="J196" s="568"/>
-      <c r="K196" s="601" t="s">
+      <c r="G196" s="628"/>
+      <c r="H196" s="628"/>
+      <c r="I196" s="628"/>
+      <c r="J196" s="629"/>
+      <c r="K196" s="597" t="s">
         <v>29</v>
       </c>
-      <c r="L196" s="602"/>
-      <c r="M196" s="601" t="s">
+      <c r="L196" s="598"/>
+      <c r="M196" s="597" t="s">
         <v>30</v>
       </c>
-      <c r="N196" s="602"/>
-      <c r="O196" s="507" t="s">
+      <c r="N196" s="598"/>
+      <c r="O196" s="482" t="s">
         <v>211</v>
       </c>
-      <c r="P196" s="508"/>
-      <c r="Q196" s="508"/>
-      <c r="R196" s="508"/>
-      <c r="S196" s="508"/>
-      <c r="T196" s="508"/>
-      <c r="U196" s="508"/>
-      <c r="V196" s="508"/>
-      <c r="W196" s="508"/>
-      <c r="X196" s="508"/>
-      <c r="Y196" s="508"/>
-      <c r="Z196" s="508"/>
-      <c r="AA196" s="508"/>
-      <c r="AB196" s="508"/>
-      <c r="AC196" s="508"/>
-      <c r="AD196" s="508"/>
-      <c r="AE196" s="508"/>
-      <c r="AF196" s="508"/>
-      <c r="AG196" s="508"/>
-      <c r="AH196" s="509"/>
+      <c r="P196" s="483"/>
+      <c r="Q196" s="483"/>
+      <c r="R196" s="483"/>
+      <c r="S196" s="483"/>
+      <c r="T196" s="483"/>
+      <c r="U196" s="483"/>
+      <c r="V196" s="483"/>
+      <c r="W196" s="483"/>
+      <c r="X196" s="483"/>
+      <c r="Y196" s="483"/>
+      <c r="Z196" s="483"/>
+      <c r="AA196" s="483"/>
+      <c r="AB196" s="483"/>
+      <c r="AC196" s="483"/>
+      <c r="AD196" s="483"/>
+      <c r="AE196" s="483"/>
+      <c r="AF196" s="483"/>
+      <c r="AG196" s="483"/>
+      <c r="AH196" s="484"/>
     </row>
     <row r="197" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="50"/>
-      <c r="F197" s="575" t="s">
+      <c r="F197" s="572" t="s">
         <v>196</v>
       </c>
-      <c r="G197" s="576"/>
-      <c r="H197" s="576"/>
-      <c r="I197" s="576"/>
-      <c r="J197" s="577"/>
-      <c r="K197" s="584" t="s">
+      <c r="G197" s="630"/>
+      <c r="H197" s="630"/>
+      <c r="I197" s="630"/>
+      <c r="J197" s="574"/>
+      <c r="K197" s="609" t="s">
         <v>31</v>
       </c>
-      <c r="L197" s="585"/>
-      <c r="M197" s="584" t="s">
+      <c r="L197" s="610"/>
+      <c r="M197" s="609" t="s">
         <v>32</v>
       </c>
-      <c r="N197" s="585"/>
-      <c r="O197" s="575" t="s">
+      <c r="N197" s="610"/>
+      <c r="O197" s="572" t="s">
         <v>198</v>
       </c>
-      <c r="P197" s="576"/>
-      <c r="Q197" s="576"/>
-      <c r="R197" s="576"/>
-      <c r="S197" s="576"/>
-      <c r="T197" s="576"/>
-      <c r="U197" s="576"/>
-      <c r="V197" s="576"/>
-      <c r="W197" s="576"/>
-      <c r="X197" s="576"/>
-      <c r="Y197" s="576"/>
-      <c r="Z197" s="576"/>
-      <c r="AA197" s="576"/>
-      <c r="AB197" s="576"/>
-      <c r="AC197" s="576"/>
-      <c r="AD197" s="576"/>
-      <c r="AE197" s="576"/>
-      <c r="AF197" s="576"/>
-      <c r="AG197" s="576"/>
-      <c r="AH197" s="577"/>
+      <c r="P197" s="630"/>
+      <c r="Q197" s="630"/>
+      <c r="R197" s="630"/>
+      <c r="S197" s="630"/>
+      <c r="T197" s="630"/>
+      <c r="U197" s="630"/>
+      <c r="V197" s="630"/>
+      <c r="W197" s="630"/>
+      <c r="X197" s="630"/>
+      <c r="Y197" s="630"/>
+      <c r="Z197" s="630"/>
+      <c r="AA197" s="630"/>
+      <c r="AB197" s="630"/>
+      <c r="AC197" s="630"/>
+      <c r="AD197" s="630"/>
+      <c r="AE197" s="630"/>
+      <c r="AF197" s="630"/>
+      <c r="AG197" s="630"/>
+      <c r="AH197" s="574"/>
     </row>
     <row r="198" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="50"/>
-      <c r="F198" s="578"/>
-      <c r="G198" s="579"/>
-      <c r="H198" s="579"/>
-      <c r="I198" s="579"/>
-      <c r="J198" s="580"/>
-      <c r="K198" s="528"/>
-      <c r="L198" s="530"/>
-      <c r="M198" s="528"/>
-      <c r="N198" s="530"/>
-      <c r="O198" s="578"/>
-      <c r="P198" s="579"/>
-      <c r="Q198" s="579"/>
-      <c r="R198" s="579"/>
-      <c r="S198" s="579"/>
-      <c r="T198" s="579"/>
-      <c r="U198" s="579"/>
-      <c r="V198" s="579"/>
-      <c r="W198" s="579"/>
-      <c r="X198" s="579"/>
-      <c r="Y198" s="579"/>
-      <c r="Z198" s="579"/>
-      <c r="AA198" s="579"/>
-      <c r="AB198" s="579"/>
-      <c r="AC198" s="579"/>
-      <c r="AD198" s="579"/>
-      <c r="AE198" s="579"/>
-      <c r="AF198" s="579"/>
-      <c r="AG198" s="579"/>
-      <c r="AH198" s="580"/>
+      <c r="F198" s="631"/>
+      <c r="G198" s="632"/>
+      <c r="H198" s="632"/>
+      <c r="I198" s="632"/>
+      <c r="J198" s="633"/>
+      <c r="K198" s="533"/>
+      <c r="L198" s="535"/>
+      <c r="M198" s="533"/>
+      <c r="N198" s="535"/>
+      <c r="O198" s="631"/>
+      <c r="P198" s="632"/>
+      <c r="Q198" s="632"/>
+      <c r="R198" s="632"/>
+      <c r="S198" s="632"/>
+      <c r="T198" s="632"/>
+      <c r="U198" s="632"/>
+      <c r="V198" s="632"/>
+      <c r="W198" s="632"/>
+      <c r="X198" s="632"/>
+      <c r="Y198" s="632"/>
+      <c r="Z198" s="632"/>
+      <c r="AA198" s="632"/>
+      <c r="AB198" s="632"/>
+      <c r="AC198" s="632"/>
+      <c r="AD198" s="632"/>
+      <c r="AE198" s="632"/>
+      <c r="AF198" s="632"/>
+      <c r="AG198" s="632"/>
+      <c r="AH198" s="633"/>
     </row>
     <row r="199" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="50"/>
-      <c r="F199" s="560" t="s">
+      <c r="F199" s="616" t="s">
         <v>39</v>
       </c>
-      <c r="G199" s="533"/>
-      <c r="H199" s="533"/>
-      <c r="I199" s="533"/>
-      <c r="J199" s="534"/>
-      <c r="K199" s="590" t="s">
+      <c r="G199" s="538"/>
+      <c r="H199" s="538"/>
+      <c r="I199" s="538"/>
+      <c r="J199" s="539"/>
+      <c r="K199" s="603" t="s">
         <v>34</v>
       </c>
-      <c r="L199" s="524"/>
-      <c r="M199" s="584" t="s">
+      <c r="L199" s="529"/>
+      <c r="M199" s="609" t="s">
         <v>32</v>
       </c>
-      <c r="N199" s="585"/>
-      <c r="O199" s="532" t="s">
+      <c r="N199" s="610"/>
+      <c r="O199" s="537" t="s">
         <v>349</v>
       </c>
-      <c r="P199" s="555"/>
-      <c r="Q199" s="555"/>
-      <c r="R199" s="555"/>
-      <c r="S199" s="555"/>
-      <c r="T199" s="555"/>
-      <c r="U199" s="555"/>
-      <c r="V199" s="555"/>
-      <c r="W199" s="555"/>
-      <c r="X199" s="555"/>
-      <c r="Y199" s="555"/>
-      <c r="Z199" s="555"/>
-      <c r="AA199" s="555"/>
-      <c r="AB199" s="555"/>
-      <c r="AC199" s="555"/>
-      <c r="AD199" s="555"/>
-      <c r="AE199" s="555"/>
-      <c r="AF199" s="555"/>
-      <c r="AG199" s="555"/>
-      <c r="AH199" s="556"/>
+      <c r="P199" s="621"/>
+      <c r="Q199" s="621"/>
+      <c r="R199" s="621"/>
+      <c r="S199" s="621"/>
+      <c r="T199" s="621"/>
+      <c r="U199" s="621"/>
+      <c r="V199" s="621"/>
+      <c r="W199" s="621"/>
+      <c r="X199" s="621"/>
+      <c r="Y199" s="621"/>
+      <c r="Z199" s="621"/>
+      <c r="AA199" s="621"/>
+      <c r="AB199" s="621"/>
+      <c r="AC199" s="621"/>
+      <c r="AD199" s="621"/>
+      <c r="AE199" s="621"/>
+      <c r="AF199" s="621"/>
+      <c r="AG199" s="621"/>
+      <c r="AH199" s="622"/>
     </row>
     <row r="200" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="50"/>
-      <c r="F200" s="561"/>
-      <c r="G200" s="565"/>
-      <c r="H200" s="565"/>
-      <c r="I200" s="565"/>
-      <c r="J200" s="562"/>
-      <c r="K200" s="528"/>
-      <c r="L200" s="530"/>
-      <c r="M200" s="528"/>
-      <c r="N200" s="530"/>
-      <c r="O200" s="561"/>
-      <c r="P200" s="565"/>
-      <c r="Q200" s="565"/>
-      <c r="R200" s="565"/>
-      <c r="S200" s="565"/>
-      <c r="T200" s="565"/>
-      <c r="U200" s="565"/>
-      <c r="V200" s="565"/>
-      <c r="W200" s="565"/>
-      <c r="X200" s="565"/>
-      <c r="Y200" s="565"/>
-      <c r="Z200" s="565"/>
-      <c r="AA200" s="565"/>
-      <c r="AB200" s="565"/>
-      <c r="AC200" s="565"/>
-      <c r="AD200" s="565"/>
-      <c r="AE200" s="565"/>
-      <c r="AF200" s="565"/>
-      <c r="AG200" s="565"/>
-      <c r="AH200" s="562"/>
+      <c r="F200" s="619"/>
+      <c r="G200" s="626"/>
+      <c r="H200" s="626"/>
+      <c r="I200" s="626"/>
+      <c r="J200" s="620"/>
+      <c r="K200" s="533"/>
+      <c r="L200" s="535"/>
+      <c r="M200" s="533"/>
+      <c r="N200" s="535"/>
+      <c r="O200" s="619"/>
+      <c r="P200" s="626"/>
+      <c r="Q200" s="626"/>
+      <c r="R200" s="626"/>
+      <c r="S200" s="626"/>
+      <c r="T200" s="626"/>
+      <c r="U200" s="626"/>
+      <c r="V200" s="626"/>
+      <c r="W200" s="626"/>
+      <c r="X200" s="626"/>
+      <c r="Y200" s="626"/>
+      <c r="Z200" s="626"/>
+      <c r="AA200" s="626"/>
+      <c r="AB200" s="626"/>
+      <c r="AC200" s="626"/>
+      <c r="AD200" s="626"/>
+      <c r="AE200" s="626"/>
+      <c r="AF200" s="626"/>
+      <c r="AG200" s="626"/>
+      <c r="AH200" s="620"/>
     </row>
     <row r="201" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="50"/>
-      <c r="F201" s="560" t="s">
+      <c r="F201" s="616" t="s">
         <v>40</v>
       </c>
-      <c r="G201" s="533"/>
-      <c r="H201" s="533"/>
-      <c r="I201" s="533"/>
-      <c r="J201" s="534"/>
-      <c r="K201" s="560" t="s">
+      <c r="G201" s="538"/>
+      <c r="H201" s="538"/>
+      <c r="I201" s="538"/>
+      <c r="J201" s="539"/>
+      <c r="K201" s="616" t="s">
         <v>34</v>
       </c>
-      <c r="L201" s="534"/>
-      <c r="M201" s="563" t="s">
+      <c r="L201" s="539"/>
+      <c r="M201" s="617" t="s">
         <v>32</v>
       </c>
-      <c r="N201" s="564"/>
-      <c r="O201" s="532" t="s">
+      <c r="N201" s="618"/>
+      <c r="O201" s="537" t="s">
         <v>350</v>
       </c>
-      <c r="P201" s="555"/>
-      <c r="Q201" s="555"/>
-      <c r="R201" s="555"/>
-      <c r="S201" s="555"/>
-      <c r="T201" s="555"/>
-      <c r="U201" s="555"/>
-      <c r="V201" s="555"/>
-      <c r="W201" s="555"/>
-      <c r="X201" s="555"/>
-      <c r="Y201" s="555"/>
-      <c r="Z201" s="555"/>
-      <c r="AA201" s="555"/>
-      <c r="AB201" s="555"/>
-      <c r="AC201" s="555"/>
-      <c r="AD201" s="555"/>
-      <c r="AE201" s="555"/>
-      <c r="AF201" s="555"/>
-      <c r="AG201" s="555"/>
-      <c r="AH201" s="556"/>
+      <c r="P201" s="621"/>
+      <c r="Q201" s="621"/>
+      <c r="R201" s="621"/>
+      <c r="S201" s="621"/>
+      <c r="T201" s="621"/>
+      <c r="U201" s="621"/>
+      <c r="V201" s="621"/>
+      <c r="W201" s="621"/>
+      <c r="X201" s="621"/>
+      <c r="Y201" s="621"/>
+      <c r="Z201" s="621"/>
+      <c r="AA201" s="621"/>
+      <c r="AB201" s="621"/>
+      <c r="AC201" s="621"/>
+      <c r="AD201" s="621"/>
+      <c r="AE201" s="621"/>
+      <c r="AF201" s="621"/>
+      <c r="AG201" s="621"/>
+      <c r="AH201" s="622"/>
     </row>
     <row r="202" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="50"/>
-      <c r="F202" s="561"/>
-      <c r="G202" s="565"/>
-      <c r="H202" s="565"/>
-      <c r="I202" s="565"/>
-      <c r="J202" s="562"/>
-      <c r="K202" s="538"/>
-      <c r="L202" s="540"/>
-      <c r="M202" s="538"/>
-      <c r="N202" s="540"/>
-      <c r="O202" s="561"/>
-      <c r="P202" s="565"/>
-      <c r="Q202" s="565"/>
-      <c r="R202" s="565"/>
-      <c r="S202" s="565"/>
-      <c r="T202" s="565"/>
-      <c r="U202" s="565"/>
-      <c r="V202" s="565"/>
-      <c r="W202" s="565"/>
-      <c r="X202" s="565"/>
-      <c r="Y202" s="565"/>
-      <c r="Z202" s="565"/>
-      <c r="AA202" s="565"/>
-      <c r="AB202" s="565"/>
-      <c r="AC202" s="565"/>
-      <c r="AD202" s="565"/>
-      <c r="AE202" s="565"/>
-      <c r="AF202" s="565"/>
-      <c r="AG202" s="565"/>
-      <c r="AH202" s="562"/>
+      <c r="F202" s="619"/>
+      <c r="G202" s="626"/>
+      <c r="H202" s="626"/>
+      <c r="I202" s="626"/>
+      <c r="J202" s="620"/>
+      <c r="K202" s="543"/>
+      <c r="L202" s="545"/>
+      <c r="M202" s="543"/>
+      <c r="N202" s="545"/>
+      <c r="O202" s="619"/>
+      <c r="P202" s="626"/>
+      <c r="Q202" s="626"/>
+      <c r="R202" s="626"/>
+      <c r="S202" s="626"/>
+      <c r="T202" s="626"/>
+      <c r="U202" s="626"/>
+      <c r="V202" s="626"/>
+      <c r="W202" s="626"/>
+      <c r="X202" s="626"/>
+      <c r="Y202" s="626"/>
+      <c r="Z202" s="626"/>
+      <c r="AA202" s="626"/>
+      <c r="AB202" s="626"/>
+      <c r="AC202" s="626"/>
+      <c r="AD202" s="626"/>
+      <c r="AE202" s="626"/>
+      <c r="AF202" s="626"/>
+      <c r="AG202" s="626"/>
+      <c r="AH202" s="620"/>
     </row>
     <row r="203" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="50"/>
-      <c r="F203" s="532" t="s">
+      <c r="F203" s="537" t="s">
         <v>197</v>
       </c>
-      <c r="G203" s="555"/>
-      <c r="H203" s="555"/>
-      <c r="I203" s="555"/>
-      <c r="J203" s="556"/>
-      <c r="K203" s="590" t="s">
+      <c r="G203" s="621"/>
+      <c r="H203" s="621"/>
+      <c r="I203" s="621"/>
+      <c r="J203" s="622"/>
+      <c r="K203" s="603" t="s">
         <v>34</v>
       </c>
-      <c r="L203" s="524"/>
-      <c r="M203" s="584" t="s">
+      <c r="L203" s="529"/>
+      <c r="M203" s="609" t="s">
         <v>32</v>
       </c>
-      <c r="N203" s="585"/>
-      <c r="O203" s="532" t="s">
+      <c r="N203" s="610"/>
+      <c r="O203" s="537" t="s">
         <v>351</v>
       </c>
-      <c r="P203" s="555"/>
-      <c r="Q203" s="555"/>
-      <c r="R203" s="555"/>
-      <c r="S203" s="555"/>
-      <c r="T203" s="555"/>
-      <c r="U203" s="555"/>
-      <c r="V203" s="555"/>
-      <c r="W203" s="555"/>
-      <c r="X203" s="555"/>
-      <c r="Y203" s="555"/>
-      <c r="Z203" s="555"/>
-      <c r="AA203" s="555"/>
-      <c r="AB203" s="555"/>
-      <c r="AC203" s="555"/>
-      <c r="AD203" s="555"/>
-      <c r="AE203" s="555"/>
-      <c r="AF203" s="555"/>
-      <c r="AG203" s="555"/>
-      <c r="AH203" s="556"/>
+      <c r="P203" s="621"/>
+      <c r="Q203" s="621"/>
+      <c r="R203" s="621"/>
+      <c r="S203" s="621"/>
+      <c r="T203" s="621"/>
+      <c r="U203" s="621"/>
+      <c r="V203" s="621"/>
+      <c r="W203" s="621"/>
+      <c r="X203" s="621"/>
+      <c r="Y203" s="621"/>
+      <c r="Z203" s="621"/>
+      <c r="AA203" s="621"/>
+      <c r="AB203" s="621"/>
+      <c r="AC203" s="621"/>
+      <c r="AD203" s="621"/>
+      <c r="AE203" s="621"/>
+      <c r="AF203" s="621"/>
+      <c r="AG203" s="621"/>
+      <c r="AH203" s="622"/>
     </row>
     <row r="204" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="50"/>
-      <c r="F204" s="561"/>
-      <c r="G204" s="565"/>
-      <c r="H204" s="565"/>
-      <c r="I204" s="565"/>
-      <c r="J204" s="562"/>
-      <c r="K204" s="528"/>
-      <c r="L204" s="530"/>
-      <c r="M204" s="528"/>
-      <c r="N204" s="530"/>
-      <c r="O204" s="561"/>
-      <c r="P204" s="565"/>
-      <c r="Q204" s="565"/>
-      <c r="R204" s="565"/>
-      <c r="S204" s="565"/>
-      <c r="T204" s="565"/>
-      <c r="U204" s="565"/>
-      <c r="V204" s="565"/>
-      <c r="W204" s="565"/>
-      <c r="X204" s="565"/>
-      <c r="Y204" s="565"/>
-      <c r="Z204" s="565"/>
-      <c r="AA204" s="565"/>
-      <c r="AB204" s="565"/>
-      <c r="AC204" s="565"/>
-      <c r="AD204" s="565"/>
-      <c r="AE204" s="565"/>
-      <c r="AF204" s="565"/>
-      <c r="AG204" s="565"/>
-      <c r="AH204" s="562"/>
+      <c r="F204" s="619"/>
+      <c r="G204" s="626"/>
+      <c r="H204" s="626"/>
+      <c r="I204" s="626"/>
+      <c r="J204" s="620"/>
+      <c r="K204" s="533"/>
+      <c r="L204" s="535"/>
+      <c r="M204" s="533"/>
+      <c r="N204" s="535"/>
+      <c r="O204" s="619"/>
+      <c r="P204" s="626"/>
+      <c r="Q204" s="626"/>
+      <c r="R204" s="626"/>
+      <c r="S204" s="626"/>
+      <c r="T204" s="626"/>
+      <c r="U204" s="626"/>
+      <c r="V204" s="626"/>
+      <c r="W204" s="626"/>
+      <c r="X204" s="626"/>
+      <c r="Y204" s="626"/>
+      <c r="Z204" s="626"/>
+      <c r="AA204" s="626"/>
+      <c r="AB204" s="626"/>
+      <c r="AC204" s="626"/>
+      <c r="AD204" s="626"/>
+      <c r="AE204" s="626"/>
+      <c r="AF204" s="626"/>
+      <c r="AG204" s="626"/>
+      <c r="AH204" s="620"/>
     </row>
     <row r="205" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="50"/>
-      <c r="F205" s="510" t="s">
+      <c r="F205" s="485" t="s">
         <v>37</v>
       </c>
-      <c r="G205" s="511"/>
-      <c r="H205" s="511"/>
-      <c r="I205" s="511"/>
-      <c r="J205" s="512"/>
-      <c r="K205" s="411" t="s">
+      <c r="G205" s="486"/>
+      <c r="H205" s="486"/>
+      <c r="I205" s="486"/>
+      <c r="J205" s="487"/>
+      <c r="K205" s="451" t="s">
         <v>34</v>
       </c>
-      <c r="L205" s="413"/>
-      <c r="M205" s="598" t="s">
+      <c r="L205" s="453"/>
+      <c r="M205" s="611" t="s">
         <v>32</v>
       </c>
-      <c r="N205" s="599"/>
-      <c r="O205" s="552" t="s">
+      <c r="N205" s="612"/>
+      <c r="O205" s="557" t="s">
         <v>234</v>
       </c>
-      <c r="P205" s="586"/>
-      <c r="Q205" s="586"/>
-      <c r="R205" s="586"/>
-      <c r="S205" s="586"/>
-      <c r="T205" s="586"/>
-      <c r="U205" s="586"/>
-      <c r="V205" s="586"/>
-      <c r="W205" s="586"/>
-      <c r="X205" s="586"/>
-      <c r="Y205" s="586"/>
-      <c r="Z205" s="586"/>
-      <c r="AA205" s="586"/>
-      <c r="AB205" s="586"/>
-      <c r="AC205" s="586"/>
-      <c r="AD205" s="586"/>
-      <c r="AE205" s="586"/>
-      <c r="AF205" s="586"/>
-      <c r="AG205" s="586"/>
-      <c r="AH205" s="587"/>
+      <c r="P205" s="614"/>
+      <c r="Q205" s="614"/>
+      <c r="R205" s="614"/>
+      <c r="S205" s="614"/>
+      <c r="T205" s="614"/>
+      <c r="U205" s="614"/>
+      <c r="V205" s="614"/>
+      <c r="W205" s="614"/>
+      <c r="X205" s="614"/>
+      <c r="Y205" s="614"/>
+      <c r="Z205" s="614"/>
+      <c r="AA205" s="614"/>
+      <c r="AB205" s="614"/>
+      <c r="AC205" s="614"/>
+      <c r="AD205" s="614"/>
+      <c r="AE205" s="614"/>
+      <c r="AF205" s="614"/>
+      <c r="AG205" s="614"/>
+      <c r="AH205" s="615"/>
     </row>
     <row r="206" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="50"/>
-      <c r="F206" s="510" t="s">
+      <c r="F206" s="485" t="s">
         <v>38</v>
       </c>
-      <c r="G206" s="511"/>
-      <c r="H206" s="511"/>
-      <c r="I206" s="511"/>
-      <c r="J206" s="512"/>
-      <c r="K206" s="411" t="s">
+      <c r="G206" s="486"/>
+      <c r="H206" s="486"/>
+      <c r="I206" s="486"/>
+      <c r="J206" s="487"/>
+      <c r="K206" s="451" t="s">
         <v>34</v>
       </c>
-      <c r="L206" s="413"/>
-      <c r="M206" s="598" t="s">
+      <c r="L206" s="453"/>
+      <c r="M206" s="611" t="s">
         <v>32</v>
       </c>
-      <c r="N206" s="599"/>
-      <c r="O206" s="552" t="s">
+      <c r="N206" s="612"/>
+      <c r="O206" s="557" t="s">
         <v>195</v>
       </c>
-      <c r="P206" s="553"/>
-      <c r="Q206" s="553"/>
-      <c r="R206" s="553"/>
-      <c r="S206" s="553"/>
-      <c r="T206" s="553"/>
-      <c r="U206" s="553"/>
-      <c r="V206" s="553"/>
-      <c r="W206" s="553"/>
-      <c r="X206" s="553"/>
-      <c r="Y206" s="553"/>
-      <c r="Z206" s="553"/>
-      <c r="AA206" s="553"/>
-      <c r="AB206" s="553"/>
-      <c r="AC206" s="553"/>
-      <c r="AD206" s="553"/>
-      <c r="AE206" s="553"/>
-      <c r="AF206" s="553"/>
-      <c r="AG206" s="553"/>
-      <c r="AH206" s="554"/>
+      <c r="P206" s="558"/>
+      <c r="Q206" s="558"/>
+      <c r="R206" s="558"/>
+      <c r="S206" s="558"/>
+      <c r="T206" s="558"/>
+      <c r="U206" s="558"/>
+      <c r="V206" s="558"/>
+      <c r="W206" s="558"/>
+      <c r="X206" s="558"/>
+      <c r="Y206" s="558"/>
+      <c r="Z206" s="558"/>
+      <c r="AA206" s="558"/>
+      <c r="AB206" s="558"/>
+      <c r="AC206" s="558"/>
+      <c r="AD206" s="558"/>
+      <c r="AE206" s="558"/>
+      <c r="AF206" s="558"/>
+      <c r="AG206" s="558"/>
+      <c r="AH206" s="559"/>
     </row>
     <row r="207" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="50"/>
-      <c r="F207" s="560" t="s">
+      <c r="F207" s="616" t="s">
         <v>33</v>
       </c>
-      <c r="G207" s="533"/>
-      <c r="H207" s="533"/>
-      <c r="I207" s="533"/>
-      <c r="J207" s="534"/>
-      <c r="K207" s="590" t="s">
+      <c r="G207" s="538"/>
+      <c r="H207" s="538"/>
+      <c r="I207" s="538"/>
+      <c r="J207" s="539"/>
+      <c r="K207" s="603" t="s">
         <v>34</v>
       </c>
-      <c r="L207" s="524"/>
-      <c r="M207" s="584" t="s">
+      <c r="L207" s="529"/>
+      <c r="M207" s="609" t="s">
         <v>32</v>
       </c>
-      <c r="N207" s="585"/>
-      <c r="O207" s="532" t="s">
+      <c r="N207" s="610"/>
+      <c r="O207" s="537" t="s">
         <v>352</v>
       </c>
-      <c r="P207" s="555"/>
-      <c r="Q207" s="555"/>
-      <c r="R207" s="555"/>
-      <c r="S207" s="555"/>
-      <c r="T207" s="555"/>
-      <c r="U207" s="555"/>
-      <c r="V207" s="555"/>
-      <c r="W207" s="555"/>
-      <c r="X207" s="555"/>
-      <c r="Y207" s="555"/>
-      <c r="Z207" s="555"/>
-      <c r="AA207" s="555"/>
-      <c r="AB207" s="555"/>
-      <c r="AC207" s="555"/>
-      <c r="AD207" s="555"/>
-      <c r="AE207" s="555"/>
-      <c r="AF207" s="555"/>
-      <c r="AG207" s="555"/>
-      <c r="AH207" s="556"/>
+      <c r="P207" s="621"/>
+      <c r="Q207" s="621"/>
+      <c r="R207" s="621"/>
+      <c r="S207" s="621"/>
+      <c r="T207" s="621"/>
+      <c r="U207" s="621"/>
+      <c r="V207" s="621"/>
+      <c r="W207" s="621"/>
+      <c r="X207" s="621"/>
+      <c r="Y207" s="621"/>
+      <c r="Z207" s="621"/>
+      <c r="AA207" s="621"/>
+      <c r="AB207" s="621"/>
+      <c r="AC207" s="621"/>
+      <c r="AD207" s="621"/>
+      <c r="AE207" s="621"/>
+      <c r="AF207" s="621"/>
+      <c r="AG207" s="621"/>
+      <c r="AH207" s="622"/>
     </row>
     <row r="208" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="50"/>
-      <c r="F208" s="581"/>
-      <c r="G208" s="582"/>
-      <c r="H208" s="582"/>
-      <c r="I208" s="582"/>
-      <c r="J208" s="583"/>
-      <c r="K208" s="525"/>
-      <c r="L208" s="527"/>
-      <c r="M208" s="525"/>
-      <c r="N208" s="527"/>
-      <c r="O208" s="581"/>
-      <c r="P208" s="582"/>
-      <c r="Q208" s="582"/>
-      <c r="R208" s="582"/>
-      <c r="S208" s="582"/>
-      <c r="T208" s="582"/>
-      <c r="U208" s="582"/>
-      <c r="V208" s="582"/>
-      <c r="W208" s="582"/>
-      <c r="X208" s="582"/>
-      <c r="Y208" s="582"/>
-      <c r="Z208" s="582"/>
-      <c r="AA208" s="582"/>
-      <c r="AB208" s="582"/>
-      <c r="AC208" s="582"/>
-      <c r="AD208" s="582"/>
-      <c r="AE208" s="582"/>
-      <c r="AF208" s="582"/>
-      <c r="AG208" s="582"/>
-      <c r="AH208" s="583"/>
+      <c r="F208" s="634"/>
+      <c r="G208" s="635"/>
+      <c r="H208" s="635"/>
+      <c r="I208" s="635"/>
+      <c r="J208" s="636"/>
+      <c r="K208" s="530"/>
+      <c r="L208" s="532"/>
+      <c r="M208" s="530"/>
+      <c r="N208" s="532"/>
+      <c r="O208" s="634"/>
+      <c r="P208" s="635"/>
+      <c r="Q208" s="635"/>
+      <c r="R208" s="635"/>
+      <c r="S208" s="635"/>
+      <c r="T208" s="635"/>
+      <c r="U208" s="635"/>
+      <c r="V208" s="635"/>
+      <c r="W208" s="635"/>
+      <c r="X208" s="635"/>
+      <c r="Y208" s="635"/>
+      <c r="Z208" s="635"/>
+      <c r="AA208" s="635"/>
+      <c r="AB208" s="635"/>
+      <c r="AC208" s="635"/>
+      <c r="AD208" s="635"/>
+      <c r="AE208" s="635"/>
+      <c r="AF208" s="635"/>
+      <c r="AG208" s="635"/>
+      <c r="AH208" s="636"/>
     </row>
     <row r="209" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="50"/>
-      <c r="F209" s="561"/>
-      <c r="G209" s="565"/>
-      <c r="H209" s="565"/>
-      <c r="I209" s="565"/>
-      <c r="J209" s="562"/>
-      <c r="K209" s="528"/>
-      <c r="L209" s="530"/>
-      <c r="M209" s="528"/>
-      <c r="N209" s="530"/>
-      <c r="O209" s="561"/>
-      <c r="P209" s="565"/>
-      <c r="Q209" s="565"/>
-      <c r="R209" s="565"/>
-      <c r="S209" s="565"/>
-      <c r="T209" s="565"/>
-      <c r="U209" s="565"/>
-      <c r="V209" s="565"/>
-      <c r="W209" s="565"/>
-      <c r="X209" s="565"/>
-      <c r="Y209" s="565"/>
-      <c r="Z209" s="565"/>
-      <c r="AA209" s="565"/>
-      <c r="AB209" s="565"/>
-      <c r="AC209" s="565"/>
-      <c r="AD209" s="565"/>
-      <c r="AE209" s="565"/>
-      <c r="AF209" s="565"/>
-      <c r="AG209" s="565"/>
-      <c r="AH209" s="562"/>
+      <c r="F209" s="619"/>
+      <c r="G209" s="626"/>
+      <c r="H209" s="626"/>
+      <c r="I209" s="626"/>
+      <c r="J209" s="620"/>
+      <c r="K209" s="533"/>
+      <c r="L209" s="535"/>
+      <c r="M209" s="533"/>
+      <c r="N209" s="535"/>
+      <c r="O209" s="619"/>
+      <c r="P209" s="626"/>
+      <c r="Q209" s="626"/>
+      <c r="R209" s="626"/>
+      <c r="S209" s="626"/>
+      <c r="T209" s="626"/>
+      <c r="U209" s="626"/>
+      <c r="V209" s="626"/>
+      <c r="W209" s="626"/>
+      <c r="X209" s="626"/>
+      <c r="Y209" s="626"/>
+      <c r="Z209" s="626"/>
+      <c r="AA209" s="626"/>
+      <c r="AB209" s="626"/>
+      <c r="AC209" s="626"/>
+      <c r="AD209" s="626"/>
+      <c r="AE209" s="626"/>
+      <c r="AF209" s="626"/>
+      <c r="AG209" s="626"/>
+      <c r="AH209" s="620"/>
     </row>
     <row r="210" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="50"/>
-      <c r="F210" s="510" t="s">
+      <c r="F210" s="485" t="s">
         <v>184</v>
       </c>
-      <c r="G210" s="511"/>
-      <c r="H210" s="511"/>
-      <c r="I210" s="511"/>
-      <c r="J210" s="512"/>
-      <c r="K210" s="411" t="s">
+      <c r="G210" s="486"/>
+      <c r="H210" s="486"/>
+      <c r="I210" s="486"/>
+      <c r="J210" s="487"/>
+      <c r="K210" s="451" t="s">
         <v>34</v>
       </c>
-      <c r="L210" s="413"/>
-      <c r="M210" s="411" t="s">
+      <c r="L210" s="453"/>
+      <c r="M210" s="451" t="s">
         <v>35</v>
       </c>
-      <c r="N210" s="413"/>
-      <c r="O210" s="600" t="s">
+      <c r="N210" s="453"/>
+      <c r="O210" s="613" t="s">
         <v>36</v>
       </c>
-      <c r="P210" s="586"/>
-      <c r="Q210" s="586"/>
-      <c r="R210" s="586"/>
-      <c r="S210" s="586"/>
-      <c r="T210" s="586"/>
-      <c r="U210" s="586"/>
-      <c r="V210" s="586"/>
-      <c r="W210" s="586"/>
-      <c r="X210" s="586"/>
-      <c r="Y210" s="586"/>
-      <c r="Z210" s="586"/>
-      <c r="AA210" s="586"/>
-      <c r="AB210" s="586"/>
-      <c r="AC210" s="586"/>
-      <c r="AD210" s="586"/>
-      <c r="AE210" s="586"/>
-      <c r="AF210" s="586"/>
-      <c r="AG210" s="586"/>
-      <c r="AH210" s="587"/>
+      <c r="P210" s="614"/>
+      <c r="Q210" s="614"/>
+      <c r="R210" s="614"/>
+      <c r="S210" s="614"/>
+      <c r="T210" s="614"/>
+      <c r="U210" s="614"/>
+      <c r="V210" s="614"/>
+      <c r="W210" s="614"/>
+      <c r="X210" s="614"/>
+      <c r="Y210" s="614"/>
+      <c r="Z210" s="614"/>
+      <c r="AA210" s="614"/>
+      <c r="AB210" s="614"/>
+      <c r="AC210" s="614"/>
+      <c r="AD210" s="614"/>
+      <c r="AE210" s="614"/>
+      <c r="AF210" s="614"/>
+      <c r="AG210" s="614"/>
+      <c r="AH210" s="615"/>
     </row>
     <row r="211" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="50"/>
-      <c r="F211" s="510" t="s">
+      <c r="F211" s="485" t="s">
         <v>120</v>
       </c>
-      <c r="G211" s="511"/>
-      <c r="H211" s="511"/>
-      <c r="I211" s="511"/>
-      <c r="J211" s="512"/>
-      <c r="K211" s="411" t="s">
+      <c r="G211" s="486"/>
+      <c r="H211" s="486"/>
+      <c r="I211" s="486"/>
+      <c r="J211" s="487"/>
+      <c r="K211" s="451" t="s">
         <v>34</v>
       </c>
-      <c r="L211" s="413"/>
-      <c r="M211" s="598" t="s">
+      <c r="L211" s="453"/>
+      <c r="M211" s="611" t="s">
         <v>32</v>
       </c>
-      <c r="N211" s="599"/>
-      <c r="O211" s="552" t="s">
+      <c r="N211" s="612"/>
+      <c r="O211" s="557" t="s">
         <v>353</v>
       </c>
-      <c r="P211" s="586"/>
-      <c r="Q211" s="586"/>
-      <c r="R211" s="586"/>
-      <c r="S211" s="586"/>
-      <c r="T211" s="586"/>
-      <c r="U211" s="586"/>
-      <c r="V211" s="586"/>
-      <c r="W211" s="586"/>
-      <c r="X211" s="586"/>
-      <c r="Y211" s="586"/>
-      <c r="Z211" s="586"/>
-      <c r="AA211" s="586"/>
-      <c r="AB211" s="586"/>
-      <c r="AC211" s="586"/>
-      <c r="AD211" s="586"/>
-      <c r="AE211" s="586"/>
-      <c r="AF211" s="586"/>
-      <c r="AG211" s="586"/>
-      <c r="AH211" s="587"/>
+      <c r="P211" s="614"/>
+      <c r="Q211" s="614"/>
+      <c r="R211" s="614"/>
+      <c r="S211" s="614"/>
+      <c r="T211" s="614"/>
+      <c r="U211" s="614"/>
+      <c r="V211" s="614"/>
+      <c r="W211" s="614"/>
+      <c r="X211" s="614"/>
+      <c r="Y211" s="614"/>
+      <c r="Z211" s="614"/>
+      <c r="AA211" s="614"/>
+      <c r="AB211" s="614"/>
+      <c r="AC211" s="614"/>
+      <c r="AD211" s="614"/>
+      <c r="AE211" s="614"/>
+      <c r="AF211" s="614"/>
+      <c r="AG211" s="614"/>
+      <c r="AH211" s="615"/>
     </row>
     <row r="212" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="50"/>
-      <c r="F212" s="510" t="s">
+      <c r="F212" s="485" t="s">
         <v>41</v>
       </c>
-      <c r="G212" s="511"/>
-      <c r="H212" s="511"/>
-      <c r="I212" s="511"/>
-      <c r="J212" s="512"/>
-      <c r="K212" s="411" t="s">
+      <c r="G212" s="486"/>
+      <c r="H212" s="486"/>
+      <c r="I212" s="486"/>
+      <c r="J212" s="487"/>
+      <c r="K212" s="451" t="s">
         <v>34</v>
       </c>
-      <c r="L212" s="413"/>
-      <c r="M212" s="598" t="s">
+      <c r="L212" s="453"/>
+      <c r="M212" s="611" t="s">
         <v>32</v>
       </c>
-      <c r="N212" s="599"/>
-      <c r="O212" s="552" t="s">
+      <c r="N212" s="612"/>
+      <c r="O212" s="557" t="s">
         <v>348</v>
       </c>
-      <c r="P212" s="586"/>
-      <c r="Q212" s="586"/>
-      <c r="R212" s="586"/>
-      <c r="S212" s="586"/>
-      <c r="T212" s="586"/>
-      <c r="U212" s="586"/>
-      <c r="V212" s="586"/>
-      <c r="W212" s="586"/>
-      <c r="X212" s="586"/>
-      <c r="Y212" s="586"/>
-      <c r="Z212" s="586"/>
-      <c r="AA212" s="586"/>
-      <c r="AB212" s="586"/>
-      <c r="AC212" s="586"/>
-      <c r="AD212" s="586"/>
-      <c r="AE212" s="586"/>
-      <c r="AF212" s="586"/>
-      <c r="AG212" s="586"/>
-      <c r="AH212" s="587"/>
+      <c r="P212" s="614"/>
+      <c r="Q212" s="614"/>
+      <c r="R212" s="614"/>
+      <c r="S212" s="614"/>
+      <c r="T212" s="614"/>
+      <c r="U212" s="614"/>
+      <c r="V212" s="614"/>
+      <c r="W212" s="614"/>
+      <c r="X212" s="614"/>
+      <c r="Y212" s="614"/>
+      <c r="Z212" s="614"/>
+      <c r="AA212" s="614"/>
+      <c r="AB212" s="614"/>
+      <c r="AC212" s="614"/>
+      <c r="AD212" s="614"/>
+      <c r="AE212" s="614"/>
+      <c r="AF212" s="614"/>
+      <c r="AG212" s="614"/>
+      <c r="AH212" s="615"/>
     </row>
     <row r="213" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="50"/>
-      <c r="F213" s="532" t="s">
+      <c r="F213" s="537" t="s">
         <v>189</v>
       </c>
-      <c r="G213" s="555"/>
-      <c r="H213" s="555"/>
-      <c r="I213" s="555"/>
-      <c r="J213" s="556"/>
-      <c r="K213" s="560" t="s">
+      <c r="G213" s="621"/>
+      <c r="H213" s="621"/>
+      <c r="I213" s="621"/>
+      <c r="J213" s="622"/>
+      <c r="K213" s="616" t="s">
         <v>34</v>
       </c>
-      <c r="L213" s="534"/>
-      <c r="M213" s="563" t="s">
+      <c r="L213" s="539"/>
+      <c r="M213" s="617" t="s">
         <v>35</v>
       </c>
-      <c r="N213" s="564"/>
-      <c r="O213" s="560" t="s">
+      <c r="N213" s="618"/>
+      <c r="O213" s="616" t="s">
         <v>42</v>
       </c>
-      <c r="P213" s="533"/>
-      <c r="Q213" s="533"/>
-      <c r="R213" s="533"/>
-      <c r="S213" s="533"/>
-      <c r="T213" s="533"/>
-      <c r="U213" s="533"/>
-      <c r="V213" s="533"/>
-      <c r="W213" s="533"/>
-      <c r="X213" s="533"/>
-      <c r="Y213" s="533"/>
-      <c r="Z213" s="533"/>
-      <c r="AA213" s="533"/>
-      <c r="AB213" s="533"/>
-      <c r="AC213" s="533"/>
-      <c r="AD213" s="533"/>
-      <c r="AE213" s="533"/>
-      <c r="AF213" s="533"/>
-      <c r="AG213" s="533"/>
-      <c r="AH213" s="534"/>
+      <c r="P213" s="538"/>
+      <c r="Q213" s="538"/>
+      <c r="R213" s="538"/>
+      <c r="S213" s="538"/>
+      <c r="T213" s="538"/>
+      <c r="U213" s="538"/>
+      <c r="V213" s="538"/>
+      <c r="W213" s="538"/>
+      <c r="X213" s="538"/>
+      <c r="Y213" s="538"/>
+      <c r="Z213" s="538"/>
+      <c r="AA213" s="538"/>
+      <c r="AB213" s="538"/>
+      <c r="AC213" s="538"/>
+      <c r="AD213" s="538"/>
+      <c r="AE213" s="538"/>
+      <c r="AF213" s="538"/>
+      <c r="AG213" s="538"/>
+      <c r="AH213" s="539"/>
     </row>
     <row r="214" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="50"/>
-      <c r="F214" s="557"/>
-      <c r="G214" s="558"/>
-      <c r="H214" s="558"/>
-      <c r="I214" s="558"/>
-      <c r="J214" s="559"/>
-      <c r="K214" s="561"/>
-      <c r="L214" s="562"/>
-      <c r="M214" s="561"/>
-      <c r="N214" s="562"/>
-      <c r="O214" s="561"/>
-      <c r="P214" s="565"/>
-      <c r="Q214" s="565"/>
-      <c r="R214" s="565"/>
-      <c r="S214" s="565"/>
-      <c r="T214" s="565"/>
-      <c r="U214" s="565"/>
-      <c r="V214" s="565"/>
-      <c r="W214" s="565"/>
-      <c r="X214" s="565"/>
-      <c r="Y214" s="565"/>
-      <c r="Z214" s="565"/>
-      <c r="AA214" s="565"/>
-      <c r="AB214" s="565"/>
-      <c r="AC214" s="565"/>
-      <c r="AD214" s="565"/>
-      <c r="AE214" s="565"/>
-      <c r="AF214" s="565"/>
-      <c r="AG214" s="565"/>
-      <c r="AH214" s="562"/>
+      <c r="F214" s="623"/>
+      <c r="G214" s="624"/>
+      <c r="H214" s="624"/>
+      <c r="I214" s="624"/>
+      <c r="J214" s="625"/>
+      <c r="K214" s="619"/>
+      <c r="L214" s="620"/>
+      <c r="M214" s="619"/>
+      <c r="N214" s="620"/>
+      <c r="O214" s="619"/>
+      <c r="P214" s="626"/>
+      <c r="Q214" s="626"/>
+      <c r="R214" s="626"/>
+      <c r="S214" s="626"/>
+      <c r="T214" s="626"/>
+      <c r="U214" s="626"/>
+      <c r="V214" s="626"/>
+      <c r="W214" s="626"/>
+      <c r="X214" s="626"/>
+      <c r="Y214" s="626"/>
+      <c r="Z214" s="626"/>
+      <c r="AA214" s="626"/>
+      <c r="AB214" s="626"/>
+      <c r="AC214" s="626"/>
+      <c r="AD214" s="626"/>
+      <c r="AE214" s="626"/>
+      <c r="AF214" s="626"/>
+      <c r="AG214" s="626"/>
+      <c r="AH214" s="620"/>
     </row>
     <row r="215" spans="1:34" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="50"/>
@@ -43052,6 +43058,118 @@
     </row>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="E158:J158"/>
+    <mergeCell ref="F213:J214"/>
+    <mergeCell ref="K213:L214"/>
+    <mergeCell ref="M213:N214"/>
+    <mergeCell ref="F211:J211"/>
+    <mergeCell ref="O213:AH214"/>
+    <mergeCell ref="F196:J196"/>
+    <mergeCell ref="O187:AH188"/>
+    <mergeCell ref="K210:L210"/>
+    <mergeCell ref="M210:N210"/>
+    <mergeCell ref="O196:AH196"/>
+    <mergeCell ref="O189:AH189"/>
+    <mergeCell ref="O197:AH198"/>
+    <mergeCell ref="O199:AH200"/>
+    <mergeCell ref="O201:AH202"/>
+    <mergeCell ref="O203:AH204"/>
+    <mergeCell ref="O207:AH209"/>
+    <mergeCell ref="M199:N200"/>
+    <mergeCell ref="F197:J198"/>
+    <mergeCell ref="F199:J200"/>
+    <mergeCell ref="F201:J202"/>
+    <mergeCell ref="F203:J204"/>
+    <mergeCell ref="F207:J209"/>
+    <mergeCell ref="O205:AH205"/>
+    <mergeCell ref="M207:N209"/>
+    <mergeCell ref="O206:AH206"/>
+    <mergeCell ref="F205:J205"/>
+    <mergeCell ref="F206:J206"/>
+    <mergeCell ref="F210:J210"/>
+    <mergeCell ref="F169:J169"/>
+    <mergeCell ref="F170:J170"/>
+    <mergeCell ref="F171:J174"/>
+    <mergeCell ref="F175:J175"/>
+    <mergeCell ref="F176:J179"/>
+    <mergeCell ref="K190:L191"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="F186:J186"/>
+    <mergeCell ref="F189:J189"/>
+    <mergeCell ref="F184:J185"/>
+    <mergeCell ref="F187:J188"/>
+    <mergeCell ref="F190:J191"/>
+    <mergeCell ref="F180:J181"/>
+    <mergeCell ref="F182:J183"/>
+    <mergeCell ref="K182:L183"/>
+    <mergeCell ref="K184:L185"/>
+    <mergeCell ref="K176:L179"/>
+    <mergeCell ref="K171:L174"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="M203:N204"/>
+    <mergeCell ref="M212:N212"/>
+    <mergeCell ref="O210:AH210"/>
+    <mergeCell ref="O211:AH211"/>
+    <mergeCell ref="O212:AH212"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="F212:J212"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="K187:L188"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="K212:L212"/>
+    <mergeCell ref="K199:L200"/>
+    <mergeCell ref="K201:L202"/>
+    <mergeCell ref="K206:L206"/>
+    <mergeCell ref="K205:L205"/>
+    <mergeCell ref="K197:L198"/>
+    <mergeCell ref="K207:L209"/>
+    <mergeCell ref="K211:L211"/>
+    <mergeCell ref="M211:N211"/>
+    <mergeCell ref="K203:L204"/>
+    <mergeCell ref="M201:N202"/>
+    <mergeCell ref="M206:N206"/>
+    <mergeCell ref="M205:N205"/>
+    <mergeCell ref="M197:N198"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA155:AH155"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="K152:Z152"/>
+    <mergeCell ref="K153:Z153"/>
+    <mergeCell ref="K196:L196"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="M171:N174"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M176:N179"/>
+    <mergeCell ref="M180:N181"/>
+    <mergeCell ref="M182:N183"/>
+    <mergeCell ref="M184:N185"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="M187:N188"/>
+    <mergeCell ref="M189:N189"/>
+    <mergeCell ref="M190:N191"/>
+    <mergeCell ref="K180:L181"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="AA158:AH158"/>
+    <mergeCell ref="AA157:AH157"/>
+    <mergeCell ref="O171:AH174"/>
+    <mergeCell ref="O175:AH175"/>
+    <mergeCell ref="O176:AH179"/>
+    <mergeCell ref="O190:AH191"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="O180:AH181"/>
+    <mergeCell ref="O182:AH183"/>
+    <mergeCell ref="O184:AH185"/>
+    <mergeCell ref="O186:AH186"/>
+    <mergeCell ref="O169:AH169"/>
+    <mergeCell ref="O170:AH170"/>
     <mergeCell ref="D155:D158"/>
     <mergeCell ref="D154:J154"/>
     <mergeCell ref="E155:J157"/>
@@ -43076,118 +43194,6 @@
     <mergeCell ref="AA151:AH151"/>
     <mergeCell ref="AA152:AH152"/>
     <mergeCell ref="K151:Z151"/>
-    <mergeCell ref="AA158:AH158"/>
-    <mergeCell ref="AA157:AH157"/>
-    <mergeCell ref="O171:AH174"/>
-    <mergeCell ref="O175:AH175"/>
-    <mergeCell ref="O176:AH179"/>
-    <mergeCell ref="O190:AH191"/>
-    <mergeCell ref="K189:L189"/>
-    <mergeCell ref="O180:AH181"/>
-    <mergeCell ref="O182:AH183"/>
-    <mergeCell ref="O184:AH185"/>
-    <mergeCell ref="O186:AH186"/>
-    <mergeCell ref="O169:AH169"/>
-    <mergeCell ref="O170:AH170"/>
-    <mergeCell ref="K196:L196"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="M171:N174"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M176:N179"/>
-    <mergeCell ref="M180:N181"/>
-    <mergeCell ref="M182:N183"/>
-    <mergeCell ref="M184:N185"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="M187:N188"/>
-    <mergeCell ref="M189:N189"/>
-    <mergeCell ref="M190:N191"/>
-    <mergeCell ref="K180:L181"/>
-    <mergeCell ref="K170:L170"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA155:AH155"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="K152:Z152"/>
-    <mergeCell ref="K153:Z153"/>
-    <mergeCell ref="M203:N204"/>
-    <mergeCell ref="M212:N212"/>
-    <mergeCell ref="O210:AH210"/>
-    <mergeCell ref="O211:AH211"/>
-    <mergeCell ref="O212:AH212"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="F212:J212"/>
-    <mergeCell ref="K175:L175"/>
-    <mergeCell ref="K187:L188"/>
-    <mergeCell ref="M196:N196"/>
-    <mergeCell ref="K212:L212"/>
-    <mergeCell ref="K199:L200"/>
-    <mergeCell ref="K201:L202"/>
-    <mergeCell ref="K206:L206"/>
-    <mergeCell ref="K205:L205"/>
-    <mergeCell ref="K197:L198"/>
-    <mergeCell ref="K207:L209"/>
-    <mergeCell ref="K211:L211"/>
-    <mergeCell ref="M211:N211"/>
-    <mergeCell ref="K203:L204"/>
-    <mergeCell ref="M201:N202"/>
-    <mergeCell ref="M206:N206"/>
-    <mergeCell ref="M205:N205"/>
-    <mergeCell ref="M197:N198"/>
-    <mergeCell ref="M207:N209"/>
-    <mergeCell ref="O206:AH206"/>
-    <mergeCell ref="F205:J205"/>
-    <mergeCell ref="F206:J206"/>
-    <mergeCell ref="F210:J210"/>
-    <mergeCell ref="F169:J169"/>
-    <mergeCell ref="F170:J170"/>
-    <mergeCell ref="F171:J174"/>
-    <mergeCell ref="F175:J175"/>
-    <mergeCell ref="F176:J179"/>
-    <mergeCell ref="K190:L191"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="F186:J186"/>
-    <mergeCell ref="F189:J189"/>
-    <mergeCell ref="F184:J185"/>
-    <mergeCell ref="F187:J188"/>
-    <mergeCell ref="F190:J191"/>
-    <mergeCell ref="F180:J181"/>
-    <mergeCell ref="F182:J183"/>
-    <mergeCell ref="K182:L183"/>
-    <mergeCell ref="K184:L185"/>
-    <mergeCell ref="K176:L179"/>
-    <mergeCell ref="K171:L174"/>
-    <mergeCell ref="K169:L169"/>
-    <mergeCell ref="E158:J158"/>
-    <mergeCell ref="F213:J214"/>
-    <mergeCell ref="K213:L214"/>
-    <mergeCell ref="M213:N214"/>
-    <mergeCell ref="F211:J211"/>
-    <mergeCell ref="O213:AH214"/>
-    <mergeCell ref="F196:J196"/>
-    <mergeCell ref="O187:AH188"/>
-    <mergeCell ref="K210:L210"/>
-    <mergeCell ref="M210:N210"/>
-    <mergeCell ref="O196:AH196"/>
-    <mergeCell ref="O189:AH189"/>
-    <mergeCell ref="O197:AH198"/>
-    <mergeCell ref="O199:AH200"/>
-    <mergeCell ref="O201:AH202"/>
-    <mergeCell ref="O203:AH204"/>
-    <mergeCell ref="O207:AH209"/>
-    <mergeCell ref="M199:N200"/>
-    <mergeCell ref="F197:J198"/>
-    <mergeCell ref="F199:J200"/>
-    <mergeCell ref="F201:J202"/>
-    <mergeCell ref="F203:J204"/>
-    <mergeCell ref="F207:J209"/>
-    <mergeCell ref="O205:AH205"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/010_設計標準/UI標準(画面).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/010_設計標準/UI標準(画面).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E39ED7-92F3-4622-ABA6-FC3E43121AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642DE903-8EFF-4A21-939F-B93F997B7CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6966,31 +6966,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>それぞれを使用するかどうかは機能ごとに異なるため、要件に従って決定すること。</t>
-    <rPh sb="5" eb="7">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>サイヒ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>詳細画面：</t>
     <rPh sb="0" eb="4">
       <t>ショウサイガメン</t>
@@ -7073,6 +7048,31 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>それぞれを使用するかどうかは機能に依るため、要件に従って決定する。</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サイヒ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケッテイ</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
@@ -8829,6 +8829,90 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -8943,89 +9027,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -9036,15 +9045,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -9054,6 +9054,87 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -9081,87 +9162,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9171,6 +9171,72 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9180,72 +9246,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9270,6 +9270,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9279,24 +9483,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -9315,209 +9501,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -24842,57 +24842,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="422" t="s">
+      <c r="A1" s="450" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="414"/>
-      <c r="C1" s="414"/>
-      <c r="D1" s="415"/>
-      <c r="E1" s="416" t="s">
+      <c r="B1" s="442"/>
+      <c r="C1" s="442"/>
+      <c r="D1" s="443"/>
+      <c r="E1" s="444" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="417"/>
-      <c r="G1" s="417"/>
-      <c r="H1" s="417"/>
-      <c r="I1" s="417"/>
-      <c r="J1" s="417"/>
-      <c r="K1" s="417"/>
-      <c r="L1" s="417"/>
-      <c r="M1" s="417"/>
-      <c r="N1" s="418"/>
-      <c r="O1" s="423" t="s">
+      <c r="F1" s="445"/>
+      <c r="G1" s="445"/>
+      <c r="H1" s="445"/>
+      <c r="I1" s="445"/>
+      <c r="J1" s="445"/>
+      <c r="K1" s="445"/>
+      <c r="L1" s="445"/>
+      <c r="M1" s="445"/>
+      <c r="N1" s="446"/>
+      <c r="O1" s="451" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="424"/>
-      <c r="Q1" s="424"/>
-      <c r="R1" s="425"/>
-      <c r="S1" s="432" t="s">
+      <c r="P1" s="452"/>
+      <c r="Q1" s="452"/>
+      <c r="R1" s="453"/>
+      <c r="S1" s="460" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="433"/>
-      <c r="U1" s="433"/>
-      <c r="V1" s="433"/>
-      <c r="W1" s="433"/>
-      <c r="X1" s="433"/>
-      <c r="Y1" s="433"/>
-      <c r="Z1" s="434"/>
-      <c r="AA1" s="413" t="s">
+      <c r="T1" s="461"/>
+      <c r="U1" s="461"/>
+      <c r="V1" s="461"/>
+      <c r="W1" s="461"/>
+      <c r="X1" s="461"/>
+      <c r="Y1" s="461"/>
+      <c r="Z1" s="462"/>
+      <c r="AA1" s="441" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="415"/>
-      <c r="AC1" s="441" t="str">
+      <c r="AB1" s="443"/>
+      <c r="AC1" s="469" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="442"/>
-      <c r="AE1" s="442"/>
-      <c r="AF1" s="443"/>
-      <c r="AG1" s="407">
+      <c r="AD1" s="470"/>
+      <c r="AE1" s="470"/>
+      <c r="AF1" s="471"/>
+      <c r="AG1" s="435">
         <f>IF(D8="","",D8)</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="408"/>
-      <c r="AI1" s="409"/>
+      <c r="AH1" s="436"/>
+      <c r="AI1" s="437"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -24900,53 +24900,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="413" t="s">
+      <c r="A2" s="441" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="414"/>
-      <c r="C2" s="414"/>
-      <c r="D2" s="415"/>
-      <c r="E2" s="416" t="s">
+      <c r="B2" s="442"/>
+      <c r="C2" s="442"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="444" t="s">
         <v>251</v>
       </c>
-      <c r="F2" s="417"/>
-      <c r="G2" s="417"/>
-      <c r="H2" s="417"/>
-      <c r="I2" s="417"/>
-      <c r="J2" s="417"/>
-      <c r="K2" s="417"/>
-      <c r="L2" s="417"/>
-      <c r="M2" s="417"/>
-      <c r="N2" s="418"/>
-      <c r="O2" s="426"/>
-      <c r="P2" s="427"/>
-      <c r="Q2" s="427"/>
-      <c r="R2" s="428"/>
-      <c r="S2" s="435"/>
-      <c r="T2" s="436"/>
-      <c r="U2" s="436"/>
-      <c r="V2" s="436"/>
-      <c r="W2" s="436"/>
-      <c r="X2" s="436"/>
-      <c r="Y2" s="436"/>
-      <c r="Z2" s="437"/>
-      <c r="AA2" s="413" t="s">
+      <c r="F2" s="445"/>
+      <c r="G2" s="445"/>
+      <c r="H2" s="445"/>
+      <c r="I2" s="445"/>
+      <c r="J2" s="445"/>
+      <c r="K2" s="445"/>
+      <c r="L2" s="445"/>
+      <c r="M2" s="445"/>
+      <c r="N2" s="446"/>
+      <c r="O2" s="454"/>
+      <c r="P2" s="455"/>
+      <c r="Q2" s="455"/>
+      <c r="R2" s="456"/>
+      <c r="S2" s="463"/>
+      <c r="T2" s="464"/>
+      <c r="U2" s="464"/>
+      <c r="V2" s="464"/>
+      <c r="W2" s="464"/>
+      <c r="X2" s="464"/>
+      <c r="Y2" s="464"/>
+      <c r="Z2" s="465"/>
+      <c r="AA2" s="441" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="415"/>
-      <c r="AC2" s="419" t="str">
+      <c r="AB2" s="443"/>
+      <c r="AC2" s="447" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="420"/>
-      <c r="AE2" s="420"/>
-      <c r="AF2" s="421"/>
-      <c r="AG2" s="407" t="str">
+      <c r="AD2" s="448"/>
+      <c r="AE2" s="448"/>
+      <c r="AF2" s="449"/>
+      <c r="AG2" s="435" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="408"/>
-      <c r="AI2" s="409"/>
+      <c r="AH2" s="436"/>
+      <c r="AI2" s="437"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -24954,43 +24954,43 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="413" t="s">
+      <c r="A3" s="441" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="414"/>
-      <c r="C3" s="414"/>
-      <c r="D3" s="415"/>
-      <c r="E3" s="444"/>
-      <c r="F3" s="417"/>
-      <c r="G3" s="417"/>
-      <c r="H3" s="417"/>
-      <c r="I3" s="417"/>
-      <c r="J3" s="417"/>
-      <c r="K3" s="417"/>
-      <c r="L3" s="417"/>
-      <c r="M3" s="417"/>
-      <c r="N3" s="418"/>
-      <c r="O3" s="429"/>
-      <c r="P3" s="430"/>
-      <c r="Q3" s="430"/>
-      <c r="R3" s="431"/>
-      <c r="S3" s="438"/>
-      <c r="T3" s="439"/>
-      <c r="U3" s="439"/>
-      <c r="V3" s="439"/>
-      <c r="W3" s="439"/>
-      <c r="X3" s="439"/>
-      <c r="Y3" s="439"/>
-      <c r="Z3" s="440"/>
-      <c r="AA3" s="413"/>
-      <c r="AB3" s="415"/>
-      <c r="AC3" s="441"/>
-      <c r="AD3" s="442"/>
-      <c r="AE3" s="442"/>
-      <c r="AF3" s="443"/>
-      <c r="AG3" s="407"/>
-      <c r="AH3" s="408"/>
-      <c r="AI3" s="409"/>
+      <c r="B3" s="442"/>
+      <c r="C3" s="442"/>
+      <c r="D3" s="443"/>
+      <c r="E3" s="472"/>
+      <c r="F3" s="445"/>
+      <c r="G3" s="445"/>
+      <c r="H3" s="445"/>
+      <c r="I3" s="445"/>
+      <c r="J3" s="445"/>
+      <c r="K3" s="445"/>
+      <c r="L3" s="445"/>
+      <c r="M3" s="445"/>
+      <c r="N3" s="446"/>
+      <c r="O3" s="457"/>
+      <c r="P3" s="458"/>
+      <c r="Q3" s="458"/>
+      <c r="R3" s="459"/>
+      <c r="S3" s="466"/>
+      <c r="T3" s="467"/>
+      <c r="U3" s="467"/>
+      <c r="V3" s="467"/>
+      <c r="W3" s="467"/>
+      <c r="X3" s="467"/>
+      <c r="Y3" s="467"/>
+      <c r="Z3" s="468"/>
+      <c r="AA3" s="441"/>
+      <c r="AB3" s="443"/>
+      <c r="AC3" s="469"/>
+      <c r="AD3" s="470"/>
+      <c r="AE3" s="470"/>
+      <c r="AF3" s="471"/>
+      <c r="AG3" s="435"/>
+      <c r="AH3" s="436"/>
+      <c r="AI3" s="437"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -25027,1190 +25027,1034 @@
       <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="410" t="s">
+      <c r="B7" s="438" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="411"/>
-      <c r="D7" s="410" t="s">
+      <c r="C7" s="439"/>
+      <c r="D7" s="438" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="412"/>
-      <c r="F7" s="411"/>
-      <c r="G7" s="410" t="s">
+      <c r="E7" s="440"/>
+      <c r="F7" s="439"/>
+      <c r="G7" s="438" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="412"/>
-      <c r="I7" s="411"/>
-      <c r="J7" s="410" t="s">
+      <c r="H7" s="440"/>
+      <c r="I7" s="439"/>
+      <c r="J7" s="438" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="412"/>
-      <c r="L7" s="412"/>
-      <c r="M7" s="412"/>
-      <c r="N7" s="412"/>
-      <c r="O7" s="412"/>
-      <c r="P7" s="411"/>
-      <c r="Q7" s="410" t="s">
+      <c r="K7" s="440"/>
+      <c r="L7" s="440"/>
+      <c r="M7" s="440"/>
+      <c r="N7" s="440"/>
+      <c r="O7" s="440"/>
+      <c r="P7" s="439"/>
+      <c r="Q7" s="438" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="412"/>
-      <c r="S7" s="412"/>
-      <c r="T7" s="412"/>
-      <c r="U7" s="412"/>
-      <c r="V7" s="412"/>
-      <c r="W7" s="412"/>
-      <c r="X7" s="412"/>
-      <c r="Y7" s="412"/>
-      <c r="Z7" s="412"/>
-      <c r="AA7" s="412"/>
-      <c r="AB7" s="412"/>
-      <c r="AC7" s="412"/>
-      <c r="AD7" s="412"/>
-      <c r="AE7" s="411"/>
-      <c r="AF7" s="410" t="s">
+      <c r="R7" s="440"/>
+      <c r="S7" s="440"/>
+      <c r="T7" s="440"/>
+      <c r="U7" s="440"/>
+      <c r="V7" s="440"/>
+      <c r="W7" s="440"/>
+      <c r="X7" s="440"/>
+      <c r="Y7" s="440"/>
+      <c r="Z7" s="440"/>
+      <c r="AA7" s="440"/>
+      <c r="AB7" s="440"/>
+      <c r="AC7" s="440"/>
+      <c r="AD7" s="440"/>
+      <c r="AE7" s="439"/>
+      <c r="AF7" s="438" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="412"/>
-      <c r="AH7" s="412"/>
-      <c r="AI7" s="411"/>
+      <c r="AG7" s="440"/>
+      <c r="AH7" s="440"/>
+      <c r="AI7" s="439"/>
     </row>
     <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="140">
         <v>1</v>
       </c>
-      <c r="B8" s="457" t="s">
+      <c r="B8" s="420" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="458"/>
-      <c r="D8" s="459">
+      <c r="C8" s="421"/>
+      <c r="D8" s="422">
         <v>43620</v>
       </c>
-      <c r="E8" s="460"/>
-      <c r="F8" s="461"/>
-      <c r="G8" s="462" t="s">
+      <c r="E8" s="423"/>
+      <c r="F8" s="424"/>
+      <c r="G8" s="425" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="463"/>
-      <c r="I8" s="464"/>
-      <c r="J8" s="465" t="s">
+      <c r="H8" s="426"/>
+      <c r="I8" s="427"/>
+      <c r="J8" s="428" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="466"/>
-      <c r="L8" s="466"/>
-      <c r="M8" s="466"/>
-      <c r="N8" s="466"/>
-      <c r="O8" s="466"/>
-      <c r="P8" s="467"/>
-      <c r="Q8" s="468" t="s">
+      <c r="K8" s="429"/>
+      <c r="L8" s="429"/>
+      <c r="M8" s="429"/>
+      <c r="N8" s="429"/>
+      <c r="O8" s="429"/>
+      <c r="P8" s="430"/>
+      <c r="Q8" s="431" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="469"/>
-      <c r="S8" s="469"/>
-      <c r="T8" s="469"/>
-      <c r="U8" s="469"/>
-      <c r="V8" s="469"/>
-      <c r="W8" s="469"/>
-      <c r="X8" s="469"/>
-      <c r="Y8" s="469"/>
-      <c r="Z8" s="469"/>
-      <c r="AA8" s="469"/>
-      <c r="AB8" s="469"/>
-      <c r="AC8" s="469"/>
-      <c r="AD8" s="469"/>
-      <c r="AE8" s="470"/>
-      <c r="AF8" s="471" t="s">
+      <c r="R8" s="432"/>
+      <c r="S8" s="432"/>
+      <c r="T8" s="432"/>
+      <c r="U8" s="432"/>
+      <c r="V8" s="432"/>
+      <c r="W8" s="432"/>
+      <c r="X8" s="432"/>
+      <c r="Y8" s="432"/>
+      <c r="Z8" s="432"/>
+      <c r="AA8" s="432"/>
+      <c r="AB8" s="432"/>
+      <c r="AC8" s="432"/>
+      <c r="AD8" s="432"/>
+      <c r="AE8" s="433"/>
+      <c r="AF8" s="434" t="s">
         <v>471</v>
       </c>
-      <c r="AG8" s="466"/>
-      <c r="AH8" s="466"/>
-      <c r="AI8" s="467"/>
+      <c r="AG8" s="429"/>
+      <c r="AH8" s="429"/>
+      <c r="AI8" s="430"/>
     </row>
     <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="139"/>
-      <c r="B9" s="445"/>
-      <c r="C9" s="446"/>
-      <c r="D9" s="447"/>
-      <c r="E9" s="448"/>
-      <c r="F9" s="449"/>
-      <c r="G9" s="447"/>
-      <c r="H9" s="450"/>
-      <c r="I9" s="446"/>
-      <c r="J9" s="451"/>
-      <c r="K9" s="452"/>
-      <c r="L9" s="452"/>
-      <c r="M9" s="452"/>
-      <c r="N9" s="452"/>
-      <c r="O9" s="452"/>
-      <c r="P9" s="453"/>
-      <c r="Q9" s="454"/>
-      <c r="R9" s="455"/>
-      <c r="S9" s="455"/>
-      <c r="T9" s="455"/>
-      <c r="U9" s="455"/>
-      <c r="V9" s="455"/>
-      <c r="W9" s="455"/>
-      <c r="X9" s="455"/>
-      <c r="Y9" s="455"/>
-      <c r="Z9" s="455"/>
-      <c r="AA9" s="455"/>
-      <c r="AB9" s="455"/>
-      <c r="AC9" s="455"/>
-      <c r="AD9" s="455"/>
-      <c r="AE9" s="456"/>
-      <c r="AF9" s="451"/>
-      <c r="AG9" s="452"/>
-      <c r="AH9" s="452"/>
-      <c r="AI9" s="453"/>
+      <c r="B9" s="407"/>
+      <c r="C9" s="408"/>
+      <c r="D9" s="409"/>
+      <c r="E9" s="410"/>
+      <c r="F9" s="411"/>
+      <c r="G9" s="409"/>
+      <c r="H9" s="412"/>
+      <c r="I9" s="408"/>
+      <c r="J9" s="413"/>
+      <c r="K9" s="414"/>
+      <c r="L9" s="414"/>
+      <c r="M9" s="414"/>
+      <c r="N9" s="414"/>
+      <c r="O9" s="414"/>
+      <c r="P9" s="415"/>
+      <c r="Q9" s="416"/>
+      <c r="R9" s="417"/>
+      <c r="S9" s="417"/>
+      <c r="T9" s="417"/>
+      <c r="U9" s="417"/>
+      <c r="V9" s="417"/>
+      <c r="W9" s="417"/>
+      <c r="X9" s="417"/>
+      <c r="Y9" s="417"/>
+      <c r="Z9" s="417"/>
+      <c r="AA9" s="417"/>
+      <c r="AB9" s="417"/>
+      <c r="AC9" s="417"/>
+      <c r="AD9" s="417"/>
+      <c r="AE9" s="418"/>
+      <c r="AF9" s="413"/>
+      <c r="AG9" s="414"/>
+      <c r="AH9" s="414"/>
+      <c r="AI9" s="415"/>
     </row>
     <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="139"/>
-      <c r="B10" s="445"/>
-      <c r="C10" s="446"/>
-      <c r="D10" s="447"/>
-      <c r="E10" s="448"/>
-      <c r="F10" s="449"/>
-      <c r="G10" s="445"/>
-      <c r="H10" s="450"/>
-      <c r="I10" s="446"/>
-      <c r="J10" s="451"/>
-      <c r="K10" s="452"/>
-      <c r="L10" s="452"/>
-      <c r="M10" s="452"/>
-      <c r="N10" s="452"/>
-      <c r="O10" s="452"/>
-      <c r="P10" s="453"/>
-      <c r="Q10" s="454"/>
-      <c r="R10" s="455"/>
-      <c r="S10" s="455"/>
-      <c r="T10" s="455"/>
-      <c r="U10" s="455"/>
-      <c r="V10" s="455"/>
-      <c r="W10" s="455"/>
-      <c r="X10" s="455"/>
-      <c r="Y10" s="455"/>
-      <c r="Z10" s="455"/>
-      <c r="AA10" s="455"/>
-      <c r="AB10" s="455"/>
-      <c r="AC10" s="455"/>
-      <c r="AD10" s="455"/>
-      <c r="AE10" s="456"/>
-      <c r="AF10" s="451"/>
-      <c r="AG10" s="452"/>
-      <c r="AH10" s="452"/>
-      <c r="AI10" s="453"/>
+      <c r="B10" s="407"/>
+      <c r="C10" s="408"/>
+      <c r="D10" s="409"/>
+      <c r="E10" s="410"/>
+      <c r="F10" s="411"/>
+      <c r="G10" s="407"/>
+      <c r="H10" s="412"/>
+      <c r="I10" s="408"/>
+      <c r="J10" s="413"/>
+      <c r="K10" s="414"/>
+      <c r="L10" s="414"/>
+      <c r="M10" s="414"/>
+      <c r="N10" s="414"/>
+      <c r="O10" s="414"/>
+      <c r="P10" s="415"/>
+      <c r="Q10" s="416"/>
+      <c r="R10" s="417"/>
+      <c r="S10" s="417"/>
+      <c r="T10" s="417"/>
+      <c r="U10" s="417"/>
+      <c r="V10" s="417"/>
+      <c r="W10" s="417"/>
+      <c r="X10" s="417"/>
+      <c r="Y10" s="417"/>
+      <c r="Z10" s="417"/>
+      <c r="AA10" s="417"/>
+      <c r="AB10" s="417"/>
+      <c r="AC10" s="417"/>
+      <c r="AD10" s="417"/>
+      <c r="AE10" s="418"/>
+      <c r="AF10" s="413"/>
+      <c r="AG10" s="414"/>
+      <c r="AH10" s="414"/>
+      <c r="AI10" s="415"/>
     </row>
     <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="139"/>
-      <c r="B11" s="445"/>
-      <c r="C11" s="446"/>
-      <c r="D11" s="447"/>
-      <c r="E11" s="448"/>
-      <c r="F11" s="449"/>
-      <c r="G11" s="445"/>
-      <c r="H11" s="450"/>
-      <c r="I11" s="446"/>
-      <c r="J11" s="451"/>
-      <c r="K11" s="452"/>
-      <c r="L11" s="452"/>
-      <c r="M11" s="452"/>
-      <c r="N11" s="452"/>
-      <c r="O11" s="452"/>
-      <c r="P11" s="453"/>
-      <c r="Q11" s="454"/>
-      <c r="R11" s="455"/>
-      <c r="S11" s="455"/>
-      <c r="T11" s="455"/>
-      <c r="U11" s="455"/>
-      <c r="V11" s="455"/>
-      <c r="W11" s="455"/>
-      <c r="X11" s="455"/>
-      <c r="Y11" s="455"/>
-      <c r="Z11" s="455"/>
-      <c r="AA11" s="455"/>
-      <c r="AB11" s="455"/>
-      <c r="AC11" s="455"/>
-      <c r="AD11" s="455"/>
-      <c r="AE11" s="456"/>
-      <c r="AF11" s="451"/>
-      <c r="AG11" s="452"/>
-      <c r="AH11" s="452"/>
-      <c r="AI11" s="453"/>
+      <c r="B11" s="407"/>
+      <c r="C11" s="408"/>
+      <c r="D11" s="409"/>
+      <c r="E11" s="410"/>
+      <c r="F11" s="411"/>
+      <c r="G11" s="407"/>
+      <c r="H11" s="412"/>
+      <c r="I11" s="408"/>
+      <c r="J11" s="413"/>
+      <c r="K11" s="414"/>
+      <c r="L11" s="414"/>
+      <c r="M11" s="414"/>
+      <c r="N11" s="414"/>
+      <c r="O11" s="414"/>
+      <c r="P11" s="415"/>
+      <c r="Q11" s="416"/>
+      <c r="R11" s="417"/>
+      <c r="S11" s="417"/>
+      <c r="T11" s="417"/>
+      <c r="U11" s="417"/>
+      <c r="V11" s="417"/>
+      <c r="W11" s="417"/>
+      <c r="X11" s="417"/>
+      <c r="Y11" s="417"/>
+      <c r="Z11" s="417"/>
+      <c r="AA11" s="417"/>
+      <c r="AB11" s="417"/>
+      <c r="AC11" s="417"/>
+      <c r="AD11" s="417"/>
+      <c r="AE11" s="418"/>
+      <c r="AF11" s="413"/>
+      <c r="AG11" s="414"/>
+      <c r="AH11" s="414"/>
+      <c r="AI11" s="415"/>
     </row>
     <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="139"/>
-      <c r="B12" s="445"/>
-      <c r="C12" s="446"/>
-      <c r="D12" s="447"/>
-      <c r="E12" s="448"/>
-      <c r="F12" s="449"/>
-      <c r="G12" s="445"/>
-      <c r="H12" s="450"/>
-      <c r="I12" s="446"/>
-      <c r="J12" s="451"/>
-      <c r="K12" s="452"/>
-      <c r="L12" s="452"/>
-      <c r="M12" s="452"/>
-      <c r="N12" s="452"/>
-      <c r="O12" s="452"/>
-      <c r="P12" s="453"/>
-      <c r="Q12" s="454"/>
-      <c r="R12" s="455"/>
-      <c r="S12" s="455"/>
-      <c r="T12" s="455"/>
-      <c r="U12" s="455"/>
-      <c r="V12" s="455"/>
-      <c r="W12" s="455"/>
-      <c r="X12" s="455"/>
-      <c r="Y12" s="455"/>
-      <c r="Z12" s="455"/>
-      <c r="AA12" s="455"/>
-      <c r="AB12" s="455"/>
-      <c r="AC12" s="455"/>
-      <c r="AD12" s="455"/>
-      <c r="AE12" s="456"/>
-      <c r="AF12" s="451"/>
-      <c r="AG12" s="452"/>
-      <c r="AH12" s="452"/>
-      <c r="AI12" s="453"/>
+      <c r="B12" s="407"/>
+      <c r="C12" s="408"/>
+      <c r="D12" s="409"/>
+      <c r="E12" s="410"/>
+      <c r="F12" s="411"/>
+      <c r="G12" s="407"/>
+      <c r="H12" s="412"/>
+      <c r="I12" s="408"/>
+      <c r="J12" s="413"/>
+      <c r="K12" s="414"/>
+      <c r="L12" s="414"/>
+      <c r="M12" s="414"/>
+      <c r="N12" s="414"/>
+      <c r="O12" s="414"/>
+      <c r="P12" s="415"/>
+      <c r="Q12" s="416"/>
+      <c r="R12" s="417"/>
+      <c r="S12" s="417"/>
+      <c r="T12" s="417"/>
+      <c r="U12" s="417"/>
+      <c r="V12" s="417"/>
+      <c r="W12" s="417"/>
+      <c r="X12" s="417"/>
+      <c r="Y12" s="417"/>
+      <c r="Z12" s="417"/>
+      <c r="AA12" s="417"/>
+      <c r="AB12" s="417"/>
+      <c r="AC12" s="417"/>
+      <c r="AD12" s="417"/>
+      <c r="AE12" s="418"/>
+      <c r="AF12" s="413"/>
+      <c r="AG12" s="414"/>
+      <c r="AH12" s="414"/>
+      <c r="AI12" s="415"/>
     </row>
     <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="139"/>
-      <c r="B13" s="445"/>
-      <c r="C13" s="446"/>
-      <c r="D13" s="447"/>
-      <c r="E13" s="448"/>
-      <c r="F13" s="449"/>
-      <c r="G13" s="445"/>
-      <c r="H13" s="450"/>
-      <c r="I13" s="446"/>
-      <c r="J13" s="451"/>
-      <c r="K13" s="452"/>
-      <c r="L13" s="452"/>
-      <c r="M13" s="452"/>
-      <c r="N13" s="452"/>
-      <c r="O13" s="452"/>
-      <c r="P13" s="453"/>
-      <c r="Q13" s="454"/>
-      <c r="R13" s="455"/>
-      <c r="S13" s="455"/>
-      <c r="T13" s="455"/>
-      <c r="U13" s="455"/>
-      <c r="V13" s="455"/>
-      <c r="W13" s="455"/>
-      <c r="X13" s="455"/>
-      <c r="Y13" s="455"/>
-      <c r="Z13" s="455"/>
-      <c r="AA13" s="455"/>
-      <c r="AB13" s="455"/>
-      <c r="AC13" s="455"/>
-      <c r="AD13" s="455"/>
-      <c r="AE13" s="456"/>
-      <c r="AF13" s="451"/>
-      <c r="AG13" s="452"/>
-      <c r="AH13" s="452"/>
-      <c r="AI13" s="453"/>
+      <c r="B13" s="407"/>
+      <c r="C13" s="408"/>
+      <c r="D13" s="409"/>
+      <c r="E13" s="410"/>
+      <c r="F13" s="411"/>
+      <c r="G13" s="407"/>
+      <c r="H13" s="412"/>
+      <c r="I13" s="408"/>
+      <c r="J13" s="413"/>
+      <c r="K13" s="414"/>
+      <c r="L13" s="414"/>
+      <c r="M13" s="414"/>
+      <c r="N13" s="414"/>
+      <c r="O13" s="414"/>
+      <c r="P13" s="415"/>
+      <c r="Q13" s="416"/>
+      <c r="R13" s="417"/>
+      <c r="S13" s="417"/>
+      <c r="T13" s="417"/>
+      <c r="U13" s="417"/>
+      <c r="V13" s="417"/>
+      <c r="W13" s="417"/>
+      <c r="X13" s="417"/>
+      <c r="Y13" s="417"/>
+      <c r="Z13" s="417"/>
+      <c r="AA13" s="417"/>
+      <c r="AB13" s="417"/>
+      <c r="AC13" s="417"/>
+      <c r="AD13" s="417"/>
+      <c r="AE13" s="418"/>
+      <c r="AF13" s="413"/>
+      <c r="AG13" s="414"/>
+      <c r="AH13" s="414"/>
+      <c r="AI13" s="415"/>
     </row>
     <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="139"/>
-      <c r="B14" s="445"/>
-      <c r="C14" s="446"/>
-      <c r="D14" s="447"/>
-      <c r="E14" s="448"/>
-      <c r="F14" s="449"/>
-      <c r="G14" s="445"/>
-      <c r="H14" s="450"/>
-      <c r="I14" s="446"/>
-      <c r="J14" s="451"/>
-      <c r="K14" s="452"/>
-      <c r="L14" s="452"/>
-      <c r="M14" s="452"/>
-      <c r="N14" s="452"/>
-      <c r="O14" s="452"/>
-      <c r="P14" s="453"/>
-      <c r="Q14" s="454"/>
-      <c r="R14" s="455"/>
-      <c r="S14" s="455"/>
-      <c r="T14" s="455"/>
-      <c r="U14" s="455"/>
-      <c r="V14" s="455"/>
-      <c r="W14" s="455"/>
-      <c r="X14" s="455"/>
-      <c r="Y14" s="455"/>
-      <c r="Z14" s="455"/>
-      <c r="AA14" s="455"/>
-      <c r="AB14" s="455"/>
-      <c r="AC14" s="455"/>
-      <c r="AD14" s="455"/>
-      <c r="AE14" s="456"/>
-      <c r="AF14" s="451"/>
-      <c r="AG14" s="452"/>
-      <c r="AH14" s="452"/>
-      <c r="AI14" s="453"/>
+      <c r="B14" s="407"/>
+      <c r="C14" s="408"/>
+      <c r="D14" s="409"/>
+      <c r="E14" s="410"/>
+      <c r="F14" s="411"/>
+      <c r="G14" s="407"/>
+      <c r="H14" s="412"/>
+      <c r="I14" s="408"/>
+      <c r="J14" s="413"/>
+      <c r="K14" s="414"/>
+      <c r="L14" s="414"/>
+      <c r="M14" s="414"/>
+      <c r="N14" s="414"/>
+      <c r="O14" s="414"/>
+      <c r="P14" s="415"/>
+      <c r="Q14" s="416"/>
+      <c r="R14" s="417"/>
+      <c r="S14" s="417"/>
+      <c r="T14" s="417"/>
+      <c r="U14" s="417"/>
+      <c r="V14" s="417"/>
+      <c r="W14" s="417"/>
+      <c r="X14" s="417"/>
+      <c r="Y14" s="417"/>
+      <c r="Z14" s="417"/>
+      <c r="AA14" s="417"/>
+      <c r="AB14" s="417"/>
+      <c r="AC14" s="417"/>
+      <c r="AD14" s="417"/>
+      <c r="AE14" s="418"/>
+      <c r="AF14" s="413"/>
+      <c r="AG14" s="414"/>
+      <c r="AH14" s="414"/>
+      <c r="AI14" s="415"/>
     </row>
     <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="139"/>
-      <c r="B15" s="445"/>
-      <c r="C15" s="446"/>
-      <c r="D15" s="447"/>
-      <c r="E15" s="448"/>
-      <c r="F15" s="449"/>
-      <c r="G15" s="445"/>
-      <c r="H15" s="450"/>
-      <c r="I15" s="446"/>
-      <c r="J15" s="451"/>
-      <c r="K15" s="452"/>
-      <c r="L15" s="452"/>
-      <c r="M15" s="452"/>
-      <c r="N15" s="452"/>
-      <c r="O15" s="452"/>
-      <c r="P15" s="453"/>
-      <c r="Q15" s="454"/>
-      <c r="R15" s="455"/>
-      <c r="S15" s="455"/>
-      <c r="T15" s="455"/>
-      <c r="U15" s="455"/>
-      <c r="V15" s="455"/>
-      <c r="W15" s="455"/>
-      <c r="X15" s="455"/>
-      <c r="Y15" s="455"/>
-      <c r="Z15" s="455"/>
-      <c r="AA15" s="455"/>
-      <c r="AB15" s="455"/>
-      <c r="AC15" s="455"/>
-      <c r="AD15" s="455"/>
-      <c r="AE15" s="456"/>
-      <c r="AF15" s="451"/>
-      <c r="AG15" s="452"/>
-      <c r="AH15" s="452"/>
-      <c r="AI15" s="453"/>
+      <c r="B15" s="407"/>
+      <c r="C15" s="408"/>
+      <c r="D15" s="409"/>
+      <c r="E15" s="410"/>
+      <c r="F15" s="411"/>
+      <c r="G15" s="407"/>
+      <c r="H15" s="412"/>
+      <c r="I15" s="408"/>
+      <c r="J15" s="413"/>
+      <c r="K15" s="414"/>
+      <c r="L15" s="414"/>
+      <c r="M15" s="414"/>
+      <c r="N15" s="414"/>
+      <c r="O15" s="414"/>
+      <c r="P15" s="415"/>
+      <c r="Q15" s="416"/>
+      <c r="R15" s="417"/>
+      <c r="S15" s="417"/>
+      <c r="T15" s="417"/>
+      <c r="U15" s="417"/>
+      <c r="V15" s="417"/>
+      <c r="W15" s="417"/>
+      <c r="X15" s="417"/>
+      <c r="Y15" s="417"/>
+      <c r="Z15" s="417"/>
+      <c r="AA15" s="417"/>
+      <c r="AB15" s="417"/>
+      <c r="AC15" s="417"/>
+      <c r="AD15" s="417"/>
+      <c r="AE15" s="418"/>
+      <c r="AF15" s="413"/>
+      <c r="AG15" s="414"/>
+      <c r="AH15" s="414"/>
+      <c r="AI15" s="415"/>
     </row>
     <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="139"/>
-      <c r="B16" s="445"/>
-      <c r="C16" s="446"/>
-      <c r="D16" s="447"/>
-      <c r="E16" s="448"/>
-      <c r="F16" s="449"/>
-      <c r="G16" s="445"/>
-      <c r="H16" s="450"/>
-      <c r="I16" s="446"/>
-      <c r="J16" s="451"/>
-      <c r="K16" s="452"/>
-      <c r="L16" s="452"/>
-      <c r="M16" s="452"/>
-      <c r="N16" s="452"/>
-      <c r="O16" s="452"/>
-      <c r="P16" s="453"/>
-      <c r="Q16" s="454"/>
-      <c r="R16" s="455"/>
-      <c r="S16" s="455"/>
-      <c r="T16" s="455"/>
-      <c r="U16" s="455"/>
-      <c r="V16" s="455"/>
-      <c r="W16" s="455"/>
-      <c r="X16" s="455"/>
-      <c r="Y16" s="455"/>
-      <c r="Z16" s="455"/>
-      <c r="AA16" s="455"/>
-      <c r="AB16" s="455"/>
-      <c r="AC16" s="455"/>
-      <c r="AD16" s="455"/>
-      <c r="AE16" s="456"/>
-      <c r="AF16" s="451"/>
-      <c r="AG16" s="452"/>
-      <c r="AH16" s="452"/>
-      <c r="AI16" s="453"/>
+      <c r="B16" s="407"/>
+      <c r="C16" s="408"/>
+      <c r="D16" s="409"/>
+      <c r="E16" s="410"/>
+      <c r="F16" s="411"/>
+      <c r="G16" s="407"/>
+      <c r="H16" s="412"/>
+      <c r="I16" s="408"/>
+      <c r="J16" s="413"/>
+      <c r="K16" s="414"/>
+      <c r="L16" s="414"/>
+      <c r="M16" s="414"/>
+      <c r="N16" s="414"/>
+      <c r="O16" s="414"/>
+      <c r="P16" s="415"/>
+      <c r="Q16" s="416"/>
+      <c r="R16" s="417"/>
+      <c r="S16" s="417"/>
+      <c r="T16" s="417"/>
+      <c r="U16" s="417"/>
+      <c r="V16" s="417"/>
+      <c r="W16" s="417"/>
+      <c r="X16" s="417"/>
+      <c r="Y16" s="417"/>
+      <c r="Z16" s="417"/>
+      <c r="AA16" s="417"/>
+      <c r="AB16" s="417"/>
+      <c r="AC16" s="417"/>
+      <c r="AD16" s="417"/>
+      <c r="AE16" s="418"/>
+      <c r="AF16" s="413"/>
+      <c r="AG16" s="414"/>
+      <c r="AH16" s="414"/>
+      <c r="AI16" s="415"/>
     </row>
     <row r="17" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="139"/>
-      <c r="B17" s="445"/>
-      <c r="C17" s="446"/>
-      <c r="D17" s="447"/>
-      <c r="E17" s="448"/>
-      <c r="F17" s="449"/>
-      <c r="G17" s="445"/>
-      <c r="H17" s="450"/>
-      <c r="I17" s="446"/>
-      <c r="J17" s="451"/>
-      <c r="K17" s="452"/>
-      <c r="L17" s="452"/>
-      <c r="M17" s="452"/>
-      <c r="N17" s="452"/>
-      <c r="O17" s="452"/>
-      <c r="P17" s="453"/>
-      <c r="Q17" s="454"/>
-      <c r="R17" s="455"/>
-      <c r="S17" s="455"/>
-      <c r="T17" s="455"/>
-      <c r="U17" s="455"/>
-      <c r="V17" s="455"/>
-      <c r="W17" s="455"/>
-      <c r="X17" s="455"/>
-      <c r="Y17" s="455"/>
-      <c r="Z17" s="455"/>
-      <c r="AA17" s="455"/>
-      <c r="AB17" s="455"/>
-      <c r="AC17" s="455"/>
-      <c r="AD17" s="455"/>
-      <c r="AE17" s="456"/>
-      <c r="AF17" s="451"/>
-      <c r="AG17" s="452"/>
-      <c r="AH17" s="452"/>
-      <c r="AI17" s="453"/>
+      <c r="B17" s="407"/>
+      <c r="C17" s="408"/>
+      <c r="D17" s="409"/>
+      <c r="E17" s="410"/>
+      <c r="F17" s="411"/>
+      <c r="G17" s="407"/>
+      <c r="H17" s="412"/>
+      <c r="I17" s="408"/>
+      <c r="J17" s="413"/>
+      <c r="K17" s="414"/>
+      <c r="L17" s="414"/>
+      <c r="M17" s="414"/>
+      <c r="N17" s="414"/>
+      <c r="O17" s="414"/>
+      <c r="P17" s="415"/>
+      <c r="Q17" s="416"/>
+      <c r="R17" s="417"/>
+      <c r="S17" s="417"/>
+      <c r="T17" s="417"/>
+      <c r="U17" s="417"/>
+      <c r="V17" s="417"/>
+      <c r="W17" s="417"/>
+      <c r="X17" s="417"/>
+      <c r="Y17" s="417"/>
+      <c r="Z17" s="417"/>
+      <c r="AA17" s="417"/>
+      <c r="AB17" s="417"/>
+      <c r="AC17" s="417"/>
+      <c r="AD17" s="417"/>
+      <c r="AE17" s="418"/>
+      <c r="AF17" s="413"/>
+      <c r="AG17" s="414"/>
+      <c r="AH17" s="414"/>
+      <c r="AI17" s="415"/>
     </row>
     <row r="18" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="139"/>
-      <c r="B18" s="445"/>
-      <c r="C18" s="446"/>
-      <c r="D18" s="447"/>
-      <c r="E18" s="448"/>
-      <c r="F18" s="449"/>
-      <c r="G18" s="445"/>
-      <c r="H18" s="450"/>
-      <c r="I18" s="446"/>
-      <c r="J18" s="451"/>
-      <c r="K18" s="452"/>
-      <c r="L18" s="452"/>
-      <c r="M18" s="452"/>
-      <c r="N18" s="452"/>
-      <c r="O18" s="452"/>
-      <c r="P18" s="453"/>
-      <c r="Q18" s="454"/>
-      <c r="R18" s="455"/>
-      <c r="S18" s="455"/>
-      <c r="T18" s="455"/>
-      <c r="U18" s="455"/>
-      <c r="V18" s="455"/>
-      <c r="W18" s="455"/>
-      <c r="X18" s="455"/>
-      <c r="Y18" s="455"/>
-      <c r="Z18" s="455"/>
-      <c r="AA18" s="455"/>
-      <c r="AB18" s="455"/>
-      <c r="AC18" s="455"/>
-      <c r="AD18" s="455"/>
-      <c r="AE18" s="456"/>
-      <c r="AF18" s="451"/>
-      <c r="AG18" s="452"/>
-      <c r="AH18" s="452"/>
-      <c r="AI18" s="453"/>
+      <c r="B18" s="407"/>
+      <c r="C18" s="408"/>
+      <c r="D18" s="409"/>
+      <c r="E18" s="410"/>
+      <c r="F18" s="411"/>
+      <c r="G18" s="407"/>
+      <c r="H18" s="412"/>
+      <c r="I18" s="408"/>
+      <c r="J18" s="413"/>
+      <c r="K18" s="414"/>
+      <c r="L18" s="414"/>
+      <c r="M18" s="414"/>
+      <c r="N18" s="414"/>
+      <c r="O18" s="414"/>
+      <c r="P18" s="415"/>
+      <c r="Q18" s="416"/>
+      <c r="R18" s="417"/>
+      <c r="S18" s="417"/>
+      <c r="T18" s="417"/>
+      <c r="U18" s="417"/>
+      <c r="V18" s="417"/>
+      <c r="W18" s="417"/>
+      <c r="X18" s="417"/>
+      <c r="Y18" s="417"/>
+      <c r="Z18" s="417"/>
+      <c r="AA18" s="417"/>
+      <c r="AB18" s="417"/>
+      <c r="AC18" s="417"/>
+      <c r="AD18" s="417"/>
+      <c r="AE18" s="418"/>
+      <c r="AF18" s="413"/>
+      <c r="AG18" s="414"/>
+      <c r="AH18" s="414"/>
+      <c r="AI18" s="415"/>
     </row>
     <row r="19" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="139"/>
-      <c r="B19" s="445"/>
-      <c r="C19" s="446"/>
-      <c r="D19" s="447"/>
-      <c r="E19" s="448"/>
-      <c r="F19" s="449"/>
-      <c r="G19" s="445"/>
-      <c r="H19" s="450"/>
-      <c r="I19" s="446"/>
-      <c r="J19" s="451"/>
-      <c r="K19" s="452"/>
-      <c r="L19" s="452"/>
-      <c r="M19" s="452"/>
-      <c r="N19" s="452"/>
-      <c r="O19" s="452"/>
-      <c r="P19" s="453"/>
-      <c r="Q19" s="454"/>
-      <c r="R19" s="455"/>
-      <c r="S19" s="455"/>
-      <c r="T19" s="455"/>
-      <c r="U19" s="455"/>
-      <c r="V19" s="455"/>
-      <c r="W19" s="455"/>
-      <c r="X19" s="455"/>
-      <c r="Y19" s="455"/>
-      <c r="Z19" s="455"/>
-      <c r="AA19" s="455"/>
-      <c r="AB19" s="455"/>
-      <c r="AC19" s="455"/>
-      <c r="AD19" s="455"/>
-      <c r="AE19" s="456"/>
-      <c r="AF19" s="451"/>
-      <c r="AG19" s="452"/>
-      <c r="AH19" s="452"/>
-      <c r="AI19" s="453"/>
+      <c r="B19" s="407"/>
+      <c r="C19" s="408"/>
+      <c r="D19" s="409"/>
+      <c r="E19" s="410"/>
+      <c r="F19" s="411"/>
+      <c r="G19" s="407"/>
+      <c r="H19" s="412"/>
+      <c r="I19" s="408"/>
+      <c r="J19" s="413"/>
+      <c r="K19" s="414"/>
+      <c r="L19" s="414"/>
+      <c r="M19" s="414"/>
+      <c r="N19" s="414"/>
+      <c r="O19" s="414"/>
+      <c r="P19" s="415"/>
+      <c r="Q19" s="416"/>
+      <c r="R19" s="417"/>
+      <c r="S19" s="417"/>
+      <c r="T19" s="417"/>
+      <c r="U19" s="417"/>
+      <c r="V19" s="417"/>
+      <c r="W19" s="417"/>
+      <c r="X19" s="417"/>
+      <c r="Y19" s="417"/>
+      <c r="Z19" s="417"/>
+      <c r="AA19" s="417"/>
+      <c r="AB19" s="417"/>
+      <c r="AC19" s="417"/>
+      <c r="AD19" s="417"/>
+      <c r="AE19" s="418"/>
+      <c r="AF19" s="413"/>
+      <c r="AG19" s="414"/>
+      <c r="AH19" s="414"/>
+      <c r="AI19" s="415"/>
     </row>
     <row r="20" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="139"/>
-      <c r="B20" s="445"/>
-      <c r="C20" s="446"/>
-      <c r="D20" s="447"/>
-      <c r="E20" s="448"/>
-      <c r="F20" s="449"/>
-      <c r="G20" s="445"/>
-      <c r="H20" s="450"/>
-      <c r="I20" s="446"/>
-      <c r="J20" s="451"/>
-      <c r="K20" s="452"/>
-      <c r="L20" s="452"/>
-      <c r="M20" s="452"/>
-      <c r="N20" s="452"/>
-      <c r="O20" s="452"/>
-      <c r="P20" s="453"/>
-      <c r="Q20" s="454"/>
-      <c r="R20" s="455"/>
-      <c r="S20" s="455"/>
-      <c r="T20" s="455"/>
-      <c r="U20" s="455"/>
-      <c r="V20" s="455"/>
-      <c r="W20" s="455"/>
-      <c r="X20" s="455"/>
-      <c r="Y20" s="455"/>
-      <c r="Z20" s="455"/>
-      <c r="AA20" s="455"/>
-      <c r="AB20" s="455"/>
-      <c r="AC20" s="455"/>
-      <c r="AD20" s="455"/>
-      <c r="AE20" s="456"/>
-      <c r="AF20" s="451"/>
-      <c r="AG20" s="452"/>
-      <c r="AH20" s="452"/>
-      <c r="AI20" s="453"/>
+      <c r="B20" s="407"/>
+      <c r="C20" s="408"/>
+      <c r="D20" s="409"/>
+      <c r="E20" s="410"/>
+      <c r="F20" s="411"/>
+      <c r="G20" s="407"/>
+      <c r="H20" s="412"/>
+      <c r="I20" s="408"/>
+      <c r="J20" s="413"/>
+      <c r="K20" s="414"/>
+      <c r="L20" s="414"/>
+      <c r="M20" s="414"/>
+      <c r="N20" s="414"/>
+      <c r="O20" s="414"/>
+      <c r="P20" s="415"/>
+      <c r="Q20" s="416"/>
+      <c r="R20" s="417"/>
+      <c r="S20" s="417"/>
+      <c r="T20" s="417"/>
+      <c r="U20" s="417"/>
+      <c r="V20" s="417"/>
+      <c r="W20" s="417"/>
+      <c r="X20" s="417"/>
+      <c r="Y20" s="417"/>
+      <c r="Z20" s="417"/>
+      <c r="AA20" s="417"/>
+      <c r="AB20" s="417"/>
+      <c r="AC20" s="417"/>
+      <c r="AD20" s="417"/>
+      <c r="AE20" s="418"/>
+      <c r="AF20" s="413"/>
+      <c r="AG20" s="414"/>
+      <c r="AH20" s="414"/>
+      <c r="AI20" s="415"/>
     </row>
     <row r="21" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="139"/>
-      <c r="B21" s="445"/>
-      <c r="C21" s="446"/>
-      <c r="D21" s="447"/>
-      <c r="E21" s="448"/>
-      <c r="F21" s="449"/>
-      <c r="G21" s="445"/>
-      <c r="H21" s="450"/>
-      <c r="I21" s="446"/>
-      <c r="J21" s="451"/>
-      <c r="K21" s="452"/>
-      <c r="L21" s="452"/>
-      <c r="M21" s="452"/>
-      <c r="N21" s="452"/>
-      <c r="O21" s="452"/>
-      <c r="P21" s="453"/>
-      <c r="Q21" s="454"/>
-      <c r="R21" s="455"/>
-      <c r="S21" s="455"/>
-      <c r="T21" s="455"/>
-      <c r="U21" s="455"/>
-      <c r="V21" s="455"/>
-      <c r="W21" s="455"/>
-      <c r="X21" s="455"/>
-      <c r="Y21" s="455"/>
-      <c r="Z21" s="455"/>
-      <c r="AA21" s="455"/>
-      <c r="AB21" s="455"/>
-      <c r="AC21" s="455"/>
-      <c r="AD21" s="455"/>
-      <c r="AE21" s="456"/>
-      <c r="AF21" s="451"/>
-      <c r="AG21" s="452"/>
-      <c r="AH21" s="452"/>
-      <c r="AI21" s="453"/>
+      <c r="B21" s="407"/>
+      <c r="C21" s="408"/>
+      <c r="D21" s="409"/>
+      <c r="E21" s="410"/>
+      <c r="F21" s="411"/>
+      <c r="G21" s="407"/>
+      <c r="H21" s="412"/>
+      <c r="I21" s="408"/>
+      <c r="J21" s="413"/>
+      <c r="K21" s="414"/>
+      <c r="L21" s="414"/>
+      <c r="M21" s="414"/>
+      <c r="N21" s="414"/>
+      <c r="O21" s="414"/>
+      <c r="P21" s="415"/>
+      <c r="Q21" s="416"/>
+      <c r="R21" s="417"/>
+      <c r="S21" s="417"/>
+      <c r="T21" s="417"/>
+      <c r="U21" s="417"/>
+      <c r="V21" s="417"/>
+      <c r="W21" s="417"/>
+      <c r="X21" s="417"/>
+      <c r="Y21" s="417"/>
+      <c r="Z21" s="417"/>
+      <c r="AA21" s="417"/>
+      <c r="AB21" s="417"/>
+      <c r="AC21" s="417"/>
+      <c r="AD21" s="417"/>
+      <c r="AE21" s="418"/>
+      <c r="AF21" s="413"/>
+      <c r="AG21" s="414"/>
+      <c r="AH21" s="414"/>
+      <c r="AI21" s="415"/>
     </row>
     <row r="22" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="139"/>
-      <c r="B22" s="445"/>
-      <c r="C22" s="446"/>
-      <c r="D22" s="447"/>
-      <c r="E22" s="448"/>
-      <c r="F22" s="449"/>
-      <c r="G22" s="445"/>
-      <c r="H22" s="450"/>
-      <c r="I22" s="446"/>
-      <c r="J22" s="451"/>
-      <c r="K22" s="452"/>
-      <c r="L22" s="452"/>
-      <c r="M22" s="452"/>
-      <c r="N22" s="452"/>
-      <c r="O22" s="452"/>
-      <c r="P22" s="453"/>
-      <c r="Q22" s="454"/>
-      <c r="R22" s="455"/>
-      <c r="S22" s="455"/>
-      <c r="T22" s="455"/>
-      <c r="U22" s="455"/>
-      <c r="V22" s="455"/>
-      <c r="W22" s="455"/>
-      <c r="X22" s="455"/>
-      <c r="Y22" s="455"/>
-      <c r="Z22" s="455"/>
-      <c r="AA22" s="455"/>
-      <c r="AB22" s="455"/>
-      <c r="AC22" s="455"/>
-      <c r="AD22" s="455"/>
-      <c r="AE22" s="456"/>
-      <c r="AF22" s="451"/>
-      <c r="AG22" s="452"/>
-      <c r="AH22" s="452"/>
-      <c r="AI22" s="453"/>
+      <c r="B22" s="407"/>
+      <c r="C22" s="408"/>
+      <c r="D22" s="409"/>
+      <c r="E22" s="410"/>
+      <c r="F22" s="411"/>
+      <c r="G22" s="407"/>
+      <c r="H22" s="412"/>
+      <c r="I22" s="408"/>
+      <c r="J22" s="413"/>
+      <c r="K22" s="414"/>
+      <c r="L22" s="414"/>
+      <c r="M22" s="414"/>
+      <c r="N22" s="414"/>
+      <c r="O22" s="414"/>
+      <c r="P22" s="415"/>
+      <c r="Q22" s="416"/>
+      <c r="R22" s="417"/>
+      <c r="S22" s="417"/>
+      <c r="T22" s="417"/>
+      <c r="U22" s="417"/>
+      <c r="V22" s="417"/>
+      <c r="W22" s="417"/>
+      <c r="X22" s="417"/>
+      <c r="Y22" s="417"/>
+      <c r="Z22" s="417"/>
+      <c r="AA22" s="417"/>
+      <c r="AB22" s="417"/>
+      <c r="AC22" s="417"/>
+      <c r="AD22" s="417"/>
+      <c r="AE22" s="418"/>
+      <c r="AF22" s="413"/>
+      <c r="AG22" s="414"/>
+      <c r="AH22" s="414"/>
+      <c r="AI22" s="415"/>
     </row>
     <row r="23" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="139"/>
-      <c r="B23" s="445"/>
-      <c r="C23" s="446"/>
-      <c r="D23" s="447"/>
-      <c r="E23" s="448"/>
-      <c r="F23" s="449"/>
-      <c r="G23" s="445"/>
-      <c r="H23" s="450"/>
-      <c r="I23" s="446"/>
-      <c r="J23" s="451"/>
-      <c r="K23" s="452"/>
-      <c r="L23" s="452"/>
-      <c r="M23" s="452"/>
-      <c r="N23" s="452"/>
-      <c r="O23" s="452"/>
-      <c r="P23" s="453"/>
-      <c r="Q23" s="454"/>
-      <c r="R23" s="455"/>
-      <c r="S23" s="455"/>
-      <c r="T23" s="455"/>
-      <c r="U23" s="455"/>
-      <c r="V23" s="455"/>
-      <c r="W23" s="455"/>
-      <c r="X23" s="455"/>
-      <c r="Y23" s="455"/>
-      <c r="Z23" s="455"/>
-      <c r="AA23" s="455"/>
-      <c r="AB23" s="455"/>
-      <c r="AC23" s="455"/>
-      <c r="AD23" s="455"/>
-      <c r="AE23" s="456"/>
-      <c r="AF23" s="451"/>
-      <c r="AG23" s="452"/>
-      <c r="AH23" s="452"/>
-      <c r="AI23" s="453"/>
+      <c r="B23" s="407"/>
+      <c r="C23" s="408"/>
+      <c r="D23" s="409"/>
+      <c r="E23" s="410"/>
+      <c r="F23" s="411"/>
+      <c r="G23" s="407"/>
+      <c r="H23" s="412"/>
+      <c r="I23" s="408"/>
+      <c r="J23" s="413"/>
+      <c r="K23" s="414"/>
+      <c r="L23" s="414"/>
+      <c r="M23" s="414"/>
+      <c r="N23" s="414"/>
+      <c r="O23" s="414"/>
+      <c r="P23" s="415"/>
+      <c r="Q23" s="416"/>
+      <c r="R23" s="417"/>
+      <c r="S23" s="417"/>
+      <c r="T23" s="417"/>
+      <c r="U23" s="417"/>
+      <c r="V23" s="417"/>
+      <c r="W23" s="417"/>
+      <c r="X23" s="417"/>
+      <c r="Y23" s="417"/>
+      <c r="Z23" s="417"/>
+      <c r="AA23" s="417"/>
+      <c r="AB23" s="417"/>
+      <c r="AC23" s="417"/>
+      <c r="AD23" s="417"/>
+      <c r="AE23" s="418"/>
+      <c r="AF23" s="413"/>
+      <c r="AG23" s="414"/>
+      <c r="AH23" s="414"/>
+      <c r="AI23" s="415"/>
     </row>
     <row r="24" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="139"/>
-      <c r="B24" s="445"/>
-      <c r="C24" s="446"/>
-      <c r="D24" s="447"/>
-      <c r="E24" s="448"/>
-      <c r="F24" s="449"/>
-      <c r="G24" s="445"/>
-      <c r="H24" s="450"/>
-      <c r="I24" s="446"/>
-      <c r="J24" s="451"/>
-      <c r="K24" s="452"/>
-      <c r="L24" s="452"/>
-      <c r="M24" s="452"/>
-      <c r="N24" s="452"/>
-      <c r="O24" s="452"/>
-      <c r="P24" s="453"/>
-      <c r="Q24" s="454"/>
-      <c r="R24" s="455"/>
-      <c r="S24" s="455"/>
-      <c r="T24" s="455"/>
-      <c r="U24" s="455"/>
-      <c r="V24" s="455"/>
-      <c r="W24" s="455"/>
-      <c r="X24" s="455"/>
-      <c r="Y24" s="455"/>
-      <c r="Z24" s="455"/>
-      <c r="AA24" s="455"/>
-      <c r="AB24" s="455"/>
-      <c r="AC24" s="455"/>
-      <c r="AD24" s="455"/>
-      <c r="AE24" s="456"/>
-      <c r="AF24" s="451"/>
-      <c r="AG24" s="452"/>
-      <c r="AH24" s="452"/>
-      <c r="AI24" s="453"/>
+      <c r="B24" s="407"/>
+      <c r="C24" s="408"/>
+      <c r="D24" s="409"/>
+      <c r="E24" s="410"/>
+      <c r="F24" s="411"/>
+      <c r="G24" s="407"/>
+      <c r="H24" s="412"/>
+      <c r="I24" s="408"/>
+      <c r="J24" s="413"/>
+      <c r="K24" s="414"/>
+      <c r="L24" s="414"/>
+      <c r="M24" s="414"/>
+      <c r="N24" s="414"/>
+      <c r="O24" s="414"/>
+      <c r="P24" s="415"/>
+      <c r="Q24" s="416"/>
+      <c r="R24" s="417"/>
+      <c r="S24" s="417"/>
+      <c r="T24" s="417"/>
+      <c r="U24" s="417"/>
+      <c r="V24" s="417"/>
+      <c r="W24" s="417"/>
+      <c r="X24" s="417"/>
+      <c r="Y24" s="417"/>
+      <c r="Z24" s="417"/>
+      <c r="AA24" s="417"/>
+      <c r="AB24" s="417"/>
+      <c r="AC24" s="417"/>
+      <c r="AD24" s="417"/>
+      <c r="AE24" s="418"/>
+      <c r="AF24" s="413"/>
+      <c r="AG24" s="414"/>
+      <c r="AH24" s="414"/>
+      <c r="AI24" s="415"/>
     </row>
     <row r="25" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="139"/>
-      <c r="B25" s="445"/>
-      <c r="C25" s="446"/>
-      <c r="D25" s="447"/>
-      <c r="E25" s="448"/>
-      <c r="F25" s="449"/>
-      <c r="G25" s="445"/>
-      <c r="H25" s="450"/>
-      <c r="I25" s="446"/>
-      <c r="J25" s="451"/>
-      <c r="K25" s="452"/>
-      <c r="L25" s="452"/>
-      <c r="M25" s="452"/>
-      <c r="N25" s="452"/>
-      <c r="O25" s="452"/>
-      <c r="P25" s="453"/>
-      <c r="Q25" s="454"/>
-      <c r="R25" s="455"/>
-      <c r="S25" s="455"/>
-      <c r="T25" s="455"/>
-      <c r="U25" s="455"/>
-      <c r="V25" s="455"/>
-      <c r="W25" s="455"/>
-      <c r="X25" s="455"/>
-      <c r="Y25" s="455"/>
-      <c r="Z25" s="455"/>
-      <c r="AA25" s="455"/>
-      <c r="AB25" s="455"/>
-      <c r="AC25" s="455"/>
-      <c r="AD25" s="455"/>
-      <c r="AE25" s="456"/>
-      <c r="AF25" s="451"/>
-      <c r="AG25" s="452"/>
-      <c r="AH25" s="452"/>
-      <c r="AI25" s="453"/>
+      <c r="B25" s="407"/>
+      <c r="C25" s="408"/>
+      <c r="D25" s="409"/>
+      <c r="E25" s="410"/>
+      <c r="F25" s="411"/>
+      <c r="G25" s="407"/>
+      <c r="H25" s="412"/>
+      <c r="I25" s="408"/>
+      <c r="J25" s="413"/>
+      <c r="K25" s="414"/>
+      <c r="L25" s="414"/>
+      <c r="M25" s="414"/>
+      <c r="N25" s="414"/>
+      <c r="O25" s="414"/>
+      <c r="P25" s="415"/>
+      <c r="Q25" s="416"/>
+      <c r="R25" s="417"/>
+      <c r="S25" s="417"/>
+      <c r="T25" s="417"/>
+      <c r="U25" s="417"/>
+      <c r="V25" s="417"/>
+      <c r="W25" s="417"/>
+      <c r="X25" s="417"/>
+      <c r="Y25" s="417"/>
+      <c r="Z25" s="417"/>
+      <c r="AA25" s="417"/>
+      <c r="AB25" s="417"/>
+      <c r="AC25" s="417"/>
+      <c r="AD25" s="417"/>
+      <c r="AE25" s="418"/>
+      <c r="AF25" s="413"/>
+      <c r="AG25" s="414"/>
+      <c r="AH25" s="414"/>
+      <c r="AI25" s="415"/>
     </row>
     <row r="26" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="139"/>
-      <c r="B26" s="445"/>
-      <c r="C26" s="446"/>
-      <c r="D26" s="447"/>
-      <c r="E26" s="448"/>
-      <c r="F26" s="449"/>
-      <c r="G26" s="445"/>
-      <c r="H26" s="450"/>
-      <c r="I26" s="446"/>
-      <c r="J26" s="451"/>
-      <c r="K26" s="452"/>
-      <c r="L26" s="452"/>
-      <c r="M26" s="452"/>
-      <c r="N26" s="452"/>
-      <c r="O26" s="452"/>
-      <c r="P26" s="453"/>
-      <c r="Q26" s="454"/>
-      <c r="R26" s="455"/>
-      <c r="S26" s="455"/>
-      <c r="T26" s="455"/>
-      <c r="U26" s="455"/>
-      <c r="V26" s="455"/>
-      <c r="W26" s="455"/>
-      <c r="X26" s="455"/>
-      <c r="Y26" s="455"/>
-      <c r="Z26" s="455"/>
-      <c r="AA26" s="455"/>
-      <c r="AB26" s="455"/>
-      <c r="AC26" s="455"/>
-      <c r="AD26" s="455"/>
-      <c r="AE26" s="456"/>
-      <c r="AF26" s="451"/>
-      <c r="AG26" s="452"/>
-      <c r="AH26" s="452"/>
-      <c r="AI26" s="453"/>
+      <c r="B26" s="407"/>
+      <c r="C26" s="408"/>
+      <c r="D26" s="409"/>
+      <c r="E26" s="410"/>
+      <c r="F26" s="411"/>
+      <c r="G26" s="407"/>
+      <c r="H26" s="412"/>
+      <c r="I26" s="408"/>
+      <c r="J26" s="413"/>
+      <c r="K26" s="414"/>
+      <c r="L26" s="414"/>
+      <c r="M26" s="414"/>
+      <c r="N26" s="414"/>
+      <c r="O26" s="414"/>
+      <c r="P26" s="415"/>
+      <c r="Q26" s="416"/>
+      <c r="R26" s="417"/>
+      <c r="S26" s="417"/>
+      <c r="T26" s="417"/>
+      <c r="U26" s="417"/>
+      <c r="V26" s="417"/>
+      <c r="W26" s="417"/>
+      <c r="X26" s="417"/>
+      <c r="Y26" s="417"/>
+      <c r="Z26" s="417"/>
+      <c r="AA26" s="417"/>
+      <c r="AB26" s="417"/>
+      <c r="AC26" s="417"/>
+      <c r="AD26" s="417"/>
+      <c r="AE26" s="418"/>
+      <c r="AF26" s="413"/>
+      <c r="AG26" s="414"/>
+      <c r="AH26" s="414"/>
+      <c r="AI26" s="415"/>
     </row>
     <row r="27" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="139"/>
-      <c r="B27" s="445"/>
-      <c r="C27" s="446"/>
-      <c r="D27" s="447"/>
-      <c r="E27" s="448"/>
-      <c r="F27" s="449"/>
-      <c r="G27" s="445"/>
-      <c r="H27" s="450"/>
-      <c r="I27" s="446"/>
-      <c r="J27" s="451"/>
-      <c r="K27" s="452"/>
-      <c r="L27" s="452"/>
-      <c r="M27" s="452"/>
-      <c r="N27" s="452"/>
-      <c r="O27" s="452"/>
-      <c r="P27" s="453"/>
-      <c r="Q27" s="454"/>
-      <c r="R27" s="455"/>
-      <c r="S27" s="455"/>
-      <c r="T27" s="455"/>
-      <c r="U27" s="455"/>
-      <c r="V27" s="455"/>
-      <c r="W27" s="455"/>
-      <c r="X27" s="455"/>
-      <c r="Y27" s="455"/>
-      <c r="Z27" s="455"/>
-      <c r="AA27" s="455"/>
-      <c r="AB27" s="455"/>
-      <c r="AC27" s="455"/>
-      <c r="AD27" s="455"/>
-      <c r="AE27" s="456"/>
-      <c r="AF27" s="451"/>
-      <c r="AG27" s="452"/>
-      <c r="AH27" s="452"/>
-      <c r="AI27" s="453"/>
+      <c r="B27" s="407"/>
+      <c r="C27" s="408"/>
+      <c r="D27" s="409"/>
+      <c r="E27" s="410"/>
+      <c r="F27" s="411"/>
+      <c r="G27" s="407"/>
+      <c r="H27" s="412"/>
+      <c r="I27" s="408"/>
+      <c r="J27" s="413"/>
+      <c r="K27" s="414"/>
+      <c r="L27" s="414"/>
+      <c r="M27" s="414"/>
+      <c r="N27" s="414"/>
+      <c r="O27" s="414"/>
+      <c r="P27" s="415"/>
+      <c r="Q27" s="416"/>
+      <c r="R27" s="417"/>
+      <c r="S27" s="417"/>
+      <c r="T27" s="417"/>
+      <c r="U27" s="417"/>
+      <c r="V27" s="417"/>
+      <c r="W27" s="417"/>
+      <c r="X27" s="417"/>
+      <c r="Y27" s="417"/>
+      <c r="Z27" s="417"/>
+      <c r="AA27" s="417"/>
+      <c r="AB27" s="417"/>
+      <c r="AC27" s="417"/>
+      <c r="AD27" s="417"/>
+      <c r="AE27" s="418"/>
+      <c r="AF27" s="413"/>
+      <c r="AG27" s="414"/>
+      <c r="AH27" s="414"/>
+      <c r="AI27" s="415"/>
     </row>
     <row r="28" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="139"/>
-      <c r="B28" s="445"/>
-      <c r="C28" s="446"/>
-      <c r="D28" s="447"/>
-      <c r="E28" s="448"/>
-      <c r="F28" s="449"/>
-      <c r="G28" s="445"/>
-      <c r="H28" s="450"/>
-      <c r="I28" s="446"/>
-      <c r="J28" s="451"/>
-      <c r="K28" s="452"/>
-      <c r="L28" s="452"/>
-      <c r="M28" s="452"/>
-      <c r="N28" s="452"/>
-      <c r="O28" s="452"/>
-      <c r="P28" s="453"/>
-      <c r="Q28" s="454"/>
-      <c r="R28" s="455"/>
-      <c r="S28" s="455"/>
-      <c r="T28" s="455"/>
-      <c r="U28" s="455"/>
-      <c r="V28" s="455"/>
-      <c r="W28" s="455"/>
-      <c r="X28" s="455"/>
-      <c r="Y28" s="455"/>
-      <c r="Z28" s="455"/>
-      <c r="AA28" s="455"/>
-      <c r="AB28" s="455"/>
-      <c r="AC28" s="455"/>
-      <c r="AD28" s="455"/>
-      <c r="AE28" s="456"/>
-      <c r="AF28" s="451"/>
-      <c r="AG28" s="452"/>
-      <c r="AH28" s="452"/>
-      <c r="AI28" s="453"/>
+      <c r="B28" s="407"/>
+      <c r="C28" s="408"/>
+      <c r="D28" s="409"/>
+      <c r="E28" s="410"/>
+      <c r="F28" s="411"/>
+      <c r="G28" s="407"/>
+      <c r="H28" s="412"/>
+      <c r="I28" s="408"/>
+      <c r="J28" s="413"/>
+      <c r="K28" s="414"/>
+      <c r="L28" s="414"/>
+      <c r="M28" s="414"/>
+      <c r="N28" s="414"/>
+      <c r="O28" s="414"/>
+      <c r="P28" s="415"/>
+      <c r="Q28" s="416"/>
+      <c r="R28" s="417"/>
+      <c r="S28" s="417"/>
+      <c r="T28" s="417"/>
+      <c r="U28" s="417"/>
+      <c r="V28" s="417"/>
+      <c r="W28" s="417"/>
+      <c r="X28" s="417"/>
+      <c r="Y28" s="417"/>
+      <c r="Z28" s="417"/>
+      <c r="AA28" s="417"/>
+      <c r="AB28" s="417"/>
+      <c r="AC28" s="417"/>
+      <c r="AD28" s="417"/>
+      <c r="AE28" s="418"/>
+      <c r="AF28" s="413"/>
+      <c r="AG28" s="414"/>
+      <c r="AH28" s="414"/>
+      <c r="AI28" s="415"/>
     </row>
     <row r="29" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="139"/>
-      <c r="B29" s="445"/>
-      <c r="C29" s="446"/>
-      <c r="D29" s="447"/>
-      <c r="E29" s="448"/>
-      <c r="F29" s="449"/>
-      <c r="G29" s="445"/>
-      <c r="H29" s="450"/>
-      <c r="I29" s="446"/>
-      <c r="J29" s="451"/>
-      <c r="K29" s="452"/>
-      <c r="L29" s="452"/>
-      <c r="M29" s="452"/>
-      <c r="N29" s="452"/>
-      <c r="O29" s="452"/>
-      <c r="P29" s="453"/>
-      <c r="Q29" s="454"/>
-      <c r="R29" s="455"/>
-      <c r="S29" s="455"/>
-      <c r="T29" s="455"/>
-      <c r="U29" s="455"/>
-      <c r="V29" s="455"/>
-      <c r="W29" s="455"/>
-      <c r="X29" s="455"/>
-      <c r="Y29" s="455"/>
-      <c r="Z29" s="455"/>
-      <c r="AA29" s="455"/>
-      <c r="AB29" s="455"/>
-      <c r="AC29" s="455"/>
-      <c r="AD29" s="455"/>
-      <c r="AE29" s="456"/>
-      <c r="AF29" s="451"/>
-      <c r="AG29" s="452"/>
-      <c r="AH29" s="452"/>
-      <c r="AI29" s="453"/>
+      <c r="B29" s="407"/>
+      <c r="C29" s="408"/>
+      <c r="D29" s="409"/>
+      <c r="E29" s="410"/>
+      <c r="F29" s="411"/>
+      <c r="G29" s="407"/>
+      <c r="H29" s="412"/>
+      <c r="I29" s="408"/>
+      <c r="J29" s="413"/>
+      <c r="K29" s="414"/>
+      <c r="L29" s="414"/>
+      <c r="M29" s="414"/>
+      <c r="N29" s="414"/>
+      <c r="O29" s="414"/>
+      <c r="P29" s="415"/>
+      <c r="Q29" s="416"/>
+      <c r="R29" s="417"/>
+      <c r="S29" s="417"/>
+      <c r="T29" s="417"/>
+      <c r="U29" s="417"/>
+      <c r="V29" s="417"/>
+      <c r="W29" s="417"/>
+      <c r="X29" s="417"/>
+      <c r="Y29" s="417"/>
+      <c r="Z29" s="417"/>
+      <c r="AA29" s="417"/>
+      <c r="AB29" s="417"/>
+      <c r="AC29" s="417"/>
+      <c r="AD29" s="417"/>
+      <c r="AE29" s="418"/>
+      <c r="AF29" s="413"/>
+      <c r="AG29" s="414"/>
+      <c r="AH29" s="414"/>
+      <c r="AI29" s="415"/>
     </row>
     <row r="30" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="139"/>
-      <c r="B30" s="445"/>
-      <c r="C30" s="446"/>
-      <c r="D30" s="447"/>
-      <c r="E30" s="448"/>
-      <c r="F30" s="449"/>
-      <c r="G30" s="445"/>
-      <c r="H30" s="450"/>
-      <c r="I30" s="446"/>
-      <c r="J30" s="451"/>
-      <c r="K30" s="452"/>
-      <c r="L30" s="452"/>
-      <c r="M30" s="452"/>
-      <c r="N30" s="452"/>
-      <c r="O30" s="452"/>
-      <c r="P30" s="453"/>
-      <c r="Q30" s="454"/>
-      <c r="R30" s="455"/>
-      <c r="S30" s="455"/>
-      <c r="T30" s="455"/>
-      <c r="U30" s="455"/>
-      <c r="V30" s="455"/>
-      <c r="W30" s="455"/>
-      <c r="X30" s="455"/>
-      <c r="Y30" s="455"/>
-      <c r="Z30" s="455"/>
-      <c r="AA30" s="455"/>
-      <c r="AB30" s="455"/>
-      <c r="AC30" s="455"/>
-      <c r="AD30" s="455"/>
-      <c r="AE30" s="456"/>
-      <c r="AF30" s="451"/>
-      <c r="AG30" s="452"/>
-      <c r="AH30" s="452"/>
-      <c r="AI30" s="453"/>
+      <c r="B30" s="407"/>
+      <c r="C30" s="408"/>
+      <c r="D30" s="409"/>
+      <c r="E30" s="410"/>
+      <c r="F30" s="411"/>
+      <c r="G30" s="407"/>
+      <c r="H30" s="412"/>
+      <c r="I30" s="408"/>
+      <c r="J30" s="413"/>
+      <c r="K30" s="414"/>
+      <c r="L30" s="414"/>
+      <c r="M30" s="414"/>
+      <c r="N30" s="414"/>
+      <c r="O30" s="414"/>
+      <c r="P30" s="415"/>
+      <c r="Q30" s="416"/>
+      <c r="R30" s="417"/>
+      <c r="S30" s="417"/>
+      <c r="T30" s="417"/>
+      <c r="U30" s="417"/>
+      <c r="V30" s="417"/>
+      <c r="W30" s="417"/>
+      <c r="X30" s="417"/>
+      <c r="Y30" s="417"/>
+      <c r="Z30" s="417"/>
+      <c r="AA30" s="417"/>
+      <c r="AB30" s="417"/>
+      <c r="AC30" s="417"/>
+      <c r="AD30" s="417"/>
+      <c r="AE30" s="418"/>
+      <c r="AF30" s="413"/>
+      <c r="AG30" s="414"/>
+      <c r="AH30" s="414"/>
+      <c r="AI30" s="415"/>
     </row>
     <row r="31" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="139"/>
-      <c r="B31" s="445"/>
-      <c r="C31" s="446"/>
-      <c r="D31" s="447"/>
-      <c r="E31" s="448"/>
-      <c r="F31" s="449"/>
-      <c r="G31" s="445"/>
-      <c r="H31" s="450"/>
-      <c r="I31" s="446"/>
-      <c r="J31" s="451"/>
-      <c r="K31" s="452"/>
-      <c r="L31" s="452"/>
-      <c r="M31" s="452"/>
-      <c r="N31" s="452"/>
-      <c r="O31" s="452"/>
-      <c r="P31" s="453"/>
-      <c r="Q31" s="454"/>
-      <c r="R31" s="455"/>
-      <c r="S31" s="455"/>
-      <c r="T31" s="455"/>
-      <c r="U31" s="455"/>
-      <c r="V31" s="455"/>
-      <c r="W31" s="455"/>
-      <c r="X31" s="455"/>
-      <c r="Y31" s="455"/>
-      <c r="Z31" s="455"/>
-      <c r="AA31" s="455"/>
-      <c r="AB31" s="455"/>
-      <c r="AC31" s="455"/>
-      <c r="AD31" s="455"/>
-      <c r="AE31" s="456"/>
-      <c r="AF31" s="451"/>
-      <c r="AG31" s="452"/>
-      <c r="AH31" s="452"/>
-      <c r="AI31" s="453"/>
+      <c r="B31" s="407"/>
+      <c r="C31" s="408"/>
+      <c r="D31" s="409"/>
+      <c r="E31" s="410"/>
+      <c r="F31" s="411"/>
+      <c r="G31" s="407"/>
+      <c r="H31" s="412"/>
+      <c r="I31" s="408"/>
+      <c r="J31" s="413"/>
+      <c r="K31" s="414"/>
+      <c r="L31" s="414"/>
+      <c r="M31" s="414"/>
+      <c r="N31" s="414"/>
+      <c r="O31" s="414"/>
+      <c r="P31" s="415"/>
+      <c r="Q31" s="416"/>
+      <c r="R31" s="417"/>
+      <c r="S31" s="417"/>
+      <c r="T31" s="417"/>
+      <c r="U31" s="417"/>
+      <c r="V31" s="417"/>
+      <c r="W31" s="417"/>
+      <c r="X31" s="417"/>
+      <c r="Y31" s="417"/>
+      <c r="Z31" s="417"/>
+      <c r="AA31" s="417"/>
+      <c r="AB31" s="417"/>
+      <c r="AC31" s="417"/>
+      <c r="AD31" s="417"/>
+      <c r="AE31" s="418"/>
+      <c r="AF31" s="413"/>
+      <c r="AG31" s="414"/>
+      <c r="AH31" s="414"/>
+      <c r="AI31" s="415"/>
     </row>
     <row r="32" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="139"/>
-      <c r="B32" s="445"/>
-      <c r="C32" s="446"/>
-      <c r="D32" s="447"/>
-      <c r="E32" s="448"/>
-      <c r="F32" s="449"/>
-      <c r="G32" s="445"/>
-      <c r="H32" s="450"/>
-      <c r="I32" s="446"/>
-      <c r="J32" s="451"/>
-      <c r="K32" s="472"/>
-      <c r="L32" s="452"/>
-      <c r="M32" s="452"/>
-      <c r="N32" s="452"/>
-      <c r="O32" s="452"/>
-      <c r="P32" s="453"/>
-      <c r="Q32" s="454"/>
-      <c r="R32" s="455"/>
-      <c r="S32" s="455"/>
-      <c r="T32" s="455"/>
-      <c r="U32" s="455"/>
-      <c r="V32" s="455"/>
-      <c r="W32" s="455"/>
-      <c r="X32" s="455"/>
-      <c r="Y32" s="455"/>
-      <c r="Z32" s="455"/>
-      <c r="AA32" s="455"/>
-      <c r="AB32" s="455"/>
-      <c r="AC32" s="455"/>
-      <c r="AD32" s="455"/>
-      <c r="AE32" s="456"/>
-      <c r="AF32" s="451"/>
-      <c r="AG32" s="452"/>
-      <c r="AH32" s="452"/>
-      <c r="AI32" s="453"/>
+      <c r="B32" s="407"/>
+      <c r="C32" s="408"/>
+      <c r="D32" s="409"/>
+      <c r="E32" s="410"/>
+      <c r="F32" s="411"/>
+      <c r="G32" s="407"/>
+      <c r="H32" s="412"/>
+      <c r="I32" s="408"/>
+      <c r="J32" s="413"/>
+      <c r="K32" s="419"/>
+      <c r="L32" s="414"/>
+      <c r="M32" s="414"/>
+      <c r="N32" s="414"/>
+      <c r="O32" s="414"/>
+      <c r="P32" s="415"/>
+      <c r="Q32" s="416"/>
+      <c r="R32" s="417"/>
+      <c r="S32" s="417"/>
+      <c r="T32" s="417"/>
+      <c r="U32" s="417"/>
+      <c r="V32" s="417"/>
+      <c r="W32" s="417"/>
+      <c r="X32" s="417"/>
+      <c r="Y32" s="417"/>
+      <c r="Z32" s="417"/>
+      <c r="AA32" s="417"/>
+      <c r="AB32" s="417"/>
+      <c r="AC32" s="417"/>
+      <c r="AD32" s="417"/>
+      <c r="AE32" s="418"/>
+      <c r="AF32" s="413"/>
+      <c r="AG32" s="414"/>
+      <c r="AH32" s="414"/>
+      <c r="AI32" s="415"/>
     </row>
     <row r="33" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="139"/>
-      <c r="B33" s="445"/>
-      <c r="C33" s="446"/>
-      <c r="D33" s="447"/>
-      <c r="E33" s="448"/>
-      <c r="F33" s="449"/>
-      <c r="G33" s="445"/>
-      <c r="H33" s="450"/>
-      <c r="I33" s="446"/>
-      <c r="J33" s="451"/>
-      <c r="K33" s="452"/>
-      <c r="L33" s="452"/>
-      <c r="M33" s="452"/>
-      <c r="N33" s="452"/>
-      <c r="O33" s="452"/>
-      <c r="P33" s="453"/>
-      <c r="Q33" s="454"/>
-      <c r="R33" s="455"/>
-      <c r="S33" s="455"/>
-      <c r="T33" s="455"/>
-      <c r="U33" s="455"/>
-      <c r="V33" s="455"/>
-      <c r="W33" s="455"/>
-      <c r="X33" s="455"/>
-      <c r="Y33" s="455"/>
-      <c r="Z33" s="455"/>
-      <c r="AA33" s="455"/>
-      <c r="AB33" s="455"/>
-      <c r="AC33" s="455"/>
-      <c r="AD33" s="455"/>
-      <c r="AE33" s="456"/>
-      <c r="AF33" s="451"/>
-      <c r="AG33" s="452"/>
-      <c r="AH33" s="452"/>
-      <c r="AI33" s="453"/>
+      <c r="B33" s="407"/>
+      <c r="C33" s="408"/>
+      <c r="D33" s="409"/>
+      <c r="E33" s="410"/>
+      <c r="F33" s="411"/>
+      <c r="G33" s="407"/>
+      <c r="H33" s="412"/>
+      <c r="I33" s="408"/>
+      <c r="J33" s="413"/>
+      <c r="K33" s="414"/>
+      <c r="L33" s="414"/>
+      <c r="M33" s="414"/>
+      <c r="N33" s="414"/>
+      <c r="O33" s="414"/>
+      <c r="P33" s="415"/>
+      <c r="Q33" s="416"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
+      <c r="T33" s="417"/>
+      <c r="U33" s="417"/>
+      <c r="V33" s="417"/>
+      <c r="W33" s="417"/>
+      <c r="X33" s="417"/>
+      <c r="Y33" s="417"/>
+      <c r="Z33" s="417"/>
+      <c r="AA33" s="417"/>
+      <c r="AB33" s="417"/>
+      <c r="AC33" s="417"/>
+      <c r="AD33" s="417"/>
+      <c r="AE33" s="418"/>
+      <c r="AF33" s="413"/>
+      <c r="AG33" s="414"/>
+      <c r="AH33" s="414"/>
+      <c r="AI33" s="415"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -26234,6 +26078,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -26390,163 +26390,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="413" t="s">
+      <c r="A1" s="441" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="414"/>
-      <c r="C1" s="414"/>
-      <c r="D1" s="415"/>
-      <c r="E1" s="444" t="str">
+      <c r="B1" s="442"/>
+      <c r="C1" s="442"/>
+      <c r="D1" s="443"/>
+      <c r="E1" s="472" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="417"/>
-      <c r="G1" s="417"/>
-      <c r="H1" s="417"/>
-      <c r="I1" s="417"/>
-      <c r="J1" s="417"/>
-      <c r="K1" s="417"/>
-      <c r="L1" s="417"/>
-      <c r="M1" s="417"/>
-      <c r="N1" s="418"/>
-      <c r="O1" s="423" t="s">
+      <c r="F1" s="445"/>
+      <c r="G1" s="445"/>
+      <c r="H1" s="445"/>
+      <c r="I1" s="445"/>
+      <c r="J1" s="445"/>
+      <c r="K1" s="445"/>
+      <c r="L1" s="445"/>
+      <c r="M1" s="445"/>
+      <c r="N1" s="446"/>
+      <c r="O1" s="451" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="424"/>
-      <c r="Q1" s="424"/>
-      <c r="R1" s="425"/>
-      <c r="S1" s="478" t="str">
+      <c r="P1" s="452"/>
+      <c r="Q1" s="452"/>
+      <c r="R1" s="453"/>
+      <c r="S1" s="473" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="433"/>
-      <c r="U1" s="433"/>
-      <c r="V1" s="433"/>
-      <c r="W1" s="433"/>
-      <c r="X1" s="433"/>
-      <c r="Y1" s="433"/>
-      <c r="Z1" s="434"/>
-      <c r="AA1" s="476" t="s">
+      <c r="T1" s="461"/>
+      <c r="U1" s="461"/>
+      <c r="V1" s="461"/>
+      <c r="W1" s="461"/>
+      <c r="X1" s="461"/>
+      <c r="Y1" s="461"/>
+      <c r="Z1" s="462"/>
+      <c r="AA1" s="474" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="477"/>
-      <c r="AC1" s="441" t="str">
+      <c r="AB1" s="475"/>
+      <c r="AC1" s="469" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="442"/>
-      <c r="AE1" s="442"/>
-      <c r="AF1" s="443"/>
-      <c r="AG1" s="473">
+      <c r="AD1" s="470"/>
+      <c r="AE1" s="470"/>
+      <c r="AF1" s="471"/>
+      <c r="AG1" s="476">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="474"/>
-      <c r="AI1" s="475"/>
+      <c r="AH1" s="477"/>
+      <c r="AI1" s="478"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="141"/>
     </row>
     <row r="2" spans="1:53" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="413" t="s">
+      <c r="A2" s="441" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="414"/>
-      <c r="C2" s="414"/>
-      <c r="D2" s="415"/>
-      <c r="E2" s="444" t="str">
+      <c r="B2" s="442"/>
+      <c r="C2" s="442"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="472" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="417"/>
-      <c r="G2" s="417"/>
-      <c r="H2" s="417"/>
-      <c r="I2" s="417"/>
-      <c r="J2" s="417"/>
-      <c r="K2" s="417"/>
-      <c r="L2" s="417"/>
-      <c r="M2" s="417"/>
-      <c r="N2" s="418"/>
-      <c r="O2" s="426"/>
-      <c r="P2" s="427"/>
-      <c r="Q2" s="427"/>
-      <c r="R2" s="428"/>
-      <c r="S2" s="435"/>
-      <c r="T2" s="436"/>
-      <c r="U2" s="436"/>
-      <c r="V2" s="436"/>
-      <c r="W2" s="436"/>
-      <c r="X2" s="436"/>
-      <c r="Y2" s="436"/>
-      <c r="Z2" s="437"/>
-      <c r="AA2" s="476" t="s">
+      <c r="F2" s="445"/>
+      <c r="G2" s="445"/>
+      <c r="H2" s="445"/>
+      <c r="I2" s="445"/>
+      <c r="J2" s="445"/>
+      <c r="K2" s="445"/>
+      <c r="L2" s="445"/>
+      <c r="M2" s="445"/>
+      <c r="N2" s="446"/>
+      <c r="O2" s="454"/>
+      <c r="P2" s="455"/>
+      <c r="Q2" s="455"/>
+      <c r="R2" s="456"/>
+      <c r="S2" s="463"/>
+      <c r="T2" s="464"/>
+      <c r="U2" s="464"/>
+      <c r="V2" s="464"/>
+      <c r="W2" s="464"/>
+      <c r="X2" s="464"/>
+      <c r="Y2" s="464"/>
+      <c r="Z2" s="465"/>
+      <c r="AA2" s="474" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="477"/>
-      <c r="AC2" s="441" t="str">
+      <c r="AB2" s="475"/>
+      <c r="AC2" s="469" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="442"/>
-      <c r="AE2" s="442"/>
-      <c r="AF2" s="443"/>
-      <c r="AG2" s="473" t="str">
+      <c r="AD2" s="470"/>
+      <c r="AE2" s="470"/>
+      <c r="AF2" s="471"/>
+      <c r="AG2" s="476" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="474"/>
-      <c r="AI2" s="475"/>
+      <c r="AH2" s="477"/>
+      <c r="AI2" s="478"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
     </row>
     <row r="3" spans="1:53" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="413" t="s">
+      <c r="A3" s="441" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="414"/>
-      <c r="C3" s="414"/>
-      <c r="D3" s="415"/>
-      <c r="E3" s="444" t="str">
+      <c r="B3" s="442"/>
+      <c r="C3" s="442"/>
+      <c r="D3" s="443"/>
+      <c r="E3" s="472" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="417"/>
-      <c r="G3" s="417"/>
-      <c r="H3" s="417"/>
-      <c r="I3" s="417"/>
-      <c r="J3" s="417"/>
-      <c r="K3" s="417"/>
-      <c r="L3" s="417"/>
-      <c r="M3" s="417"/>
-      <c r="N3" s="418"/>
-      <c r="O3" s="429"/>
-      <c r="P3" s="430"/>
-      <c r="Q3" s="430"/>
-      <c r="R3" s="431"/>
-      <c r="S3" s="438"/>
-      <c r="T3" s="439"/>
-      <c r="U3" s="439"/>
-      <c r="V3" s="439"/>
-      <c r="W3" s="439"/>
-      <c r="X3" s="439"/>
-      <c r="Y3" s="439"/>
-      <c r="Z3" s="440"/>
-      <c r="AA3" s="476"/>
-      <c r="AB3" s="477"/>
-      <c r="AC3" s="441" t="str">
+      <c r="F3" s="445"/>
+      <c r="G3" s="445"/>
+      <c r="H3" s="445"/>
+      <c r="I3" s="445"/>
+      <c r="J3" s="445"/>
+      <c r="K3" s="445"/>
+      <c r="L3" s="445"/>
+      <c r="M3" s="445"/>
+      <c r="N3" s="446"/>
+      <c r="O3" s="457"/>
+      <c r="P3" s="458"/>
+      <c r="Q3" s="458"/>
+      <c r="R3" s="459"/>
+      <c r="S3" s="466"/>
+      <c r="T3" s="467"/>
+      <c r="U3" s="467"/>
+      <c r="V3" s="467"/>
+      <c r="W3" s="467"/>
+      <c r="X3" s="467"/>
+      <c r="Y3" s="467"/>
+      <c r="Z3" s="468"/>
+      <c r="AA3" s="474"/>
+      <c r="AB3" s="475"/>
+      <c r="AC3" s="469" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="442"/>
-      <c r="AE3" s="442"/>
-      <c r="AF3" s="443"/>
-      <c r="AG3" s="473" t="str">
+      <c r="AD3" s="470"/>
+      <c r="AE3" s="470"/>
+      <c r="AF3" s="471"/>
+      <c r="AG3" s="476" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="474"/>
-      <c r="AI3" s="475"/>
+      <c r="AH3" s="477"/>
+      <c r="AI3" s="478"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -29596,6 +29596,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -29605,14 +29613,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -29640,53 +29640,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="491" t="s">
+      <c r="A1" s="482" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="492"/>
-      <c r="C1" s="492"/>
-      <c r="D1" s="493"/>
-      <c r="E1" s="494" t="str">
+      <c r="B1" s="483"/>
+      <c r="C1" s="483"/>
+      <c r="D1" s="484"/>
+      <c r="E1" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="495"/>
-      <c r="G1" s="495"/>
-      <c r="H1" s="495"/>
-      <c r="I1" s="495"/>
-      <c r="J1" s="495"/>
-      <c r="K1" s="495"/>
-      <c r="L1" s="495"/>
-      <c r="M1" s="495"/>
-      <c r="N1" s="496"/>
-      <c r="O1" s="500" t="s">
+      <c r="F1" s="486"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="486"/>
+      <c r="I1" s="486"/>
+      <c r="J1" s="486"/>
+      <c r="K1" s="486"/>
+      <c r="L1" s="486"/>
+      <c r="M1" s="486"/>
+      <c r="N1" s="487"/>
+      <c r="O1" s="491" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="501"/>
-      <c r="Q1" s="501"/>
-      <c r="R1" s="502"/>
-      <c r="S1" s="509" t="str">
+      <c r="P1" s="492"/>
+      <c r="Q1" s="492"/>
+      <c r="R1" s="493"/>
+      <c r="S1" s="500" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="510"/>
-      <c r="U1" s="510"/>
-      <c r="V1" s="510"/>
-      <c r="W1" s="510"/>
-      <c r="X1" s="510"/>
-      <c r="Y1" s="510"/>
-      <c r="Z1" s="511"/>
-      <c r="AA1" s="491" t="s">
+      <c r="T1" s="501"/>
+      <c r="U1" s="501"/>
+      <c r="V1" s="501"/>
+      <c r="W1" s="501"/>
+      <c r="X1" s="501"/>
+      <c r="Y1" s="501"/>
+      <c r="Z1" s="502"/>
+      <c r="AA1" s="482" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="493"/>
-      <c r="AC1" s="497" t="str">
+      <c r="AB1" s="484"/>
+      <c r="AC1" s="488" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="498"/>
-      <c r="AE1" s="498"/>
-      <c r="AF1" s="499"/>
+      <c r="AD1" s="489"/>
+      <c r="AE1" s="489"/>
+      <c r="AF1" s="490"/>
       <c r="AG1" s="479">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
@@ -29699,48 +29699,48 @@
       <c r="AP1" s="18"/>
     </row>
     <row r="2" spans="1:42" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="491" t="s">
+      <c r="A2" s="482" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="492"/>
-      <c r="C2" s="492"/>
-      <c r="D2" s="493"/>
-      <c r="E2" s="494" t="str">
+      <c r="B2" s="483"/>
+      <c r="C2" s="483"/>
+      <c r="D2" s="484"/>
+      <c r="E2" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="495"/>
-      <c r="G2" s="495"/>
-      <c r="H2" s="495"/>
-      <c r="I2" s="495"/>
-      <c r="J2" s="495"/>
-      <c r="K2" s="495"/>
-      <c r="L2" s="495"/>
-      <c r="M2" s="495"/>
-      <c r="N2" s="496"/>
-      <c r="O2" s="503"/>
-      <c r="P2" s="504"/>
-      <c r="Q2" s="504"/>
-      <c r="R2" s="505"/>
-      <c r="S2" s="512"/>
-      <c r="T2" s="513"/>
-      <c r="U2" s="513"/>
-      <c r="V2" s="513"/>
-      <c r="W2" s="513"/>
-      <c r="X2" s="513"/>
-      <c r="Y2" s="513"/>
-      <c r="Z2" s="514"/>
-      <c r="AA2" s="491" t="s">
+      <c r="F2" s="486"/>
+      <c r="G2" s="486"/>
+      <c r="H2" s="486"/>
+      <c r="I2" s="486"/>
+      <c r="J2" s="486"/>
+      <c r="K2" s="486"/>
+      <c r="L2" s="486"/>
+      <c r="M2" s="486"/>
+      <c r="N2" s="487"/>
+      <c r="O2" s="494"/>
+      <c r="P2" s="495"/>
+      <c r="Q2" s="495"/>
+      <c r="R2" s="496"/>
+      <c r="S2" s="503"/>
+      <c r="T2" s="504"/>
+      <c r="U2" s="504"/>
+      <c r="V2" s="504"/>
+      <c r="W2" s="504"/>
+      <c r="X2" s="504"/>
+      <c r="Y2" s="504"/>
+      <c r="Z2" s="505"/>
+      <c r="AA2" s="482" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="493"/>
-      <c r="AC2" s="497" t="str">
+      <c r="AB2" s="484"/>
+      <c r="AC2" s="488" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="498"/>
-      <c r="AE2" s="498"/>
-      <c r="AF2" s="499"/>
+      <c r="AD2" s="489"/>
+      <c r="AE2" s="489"/>
+      <c r="AF2" s="490"/>
       <c r="AG2" s="479" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -29753,46 +29753,46 @@
       <c r="AP2" s="18"/>
     </row>
     <row r="3" spans="1:42" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="491" t="s">
+      <c r="A3" s="482" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="492"/>
-      <c r="C3" s="492"/>
-      <c r="D3" s="493"/>
-      <c r="E3" s="494" t="str">
+      <c r="B3" s="483"/>
+      <c r="C3" s="483"/>
+      <c r="D3" s="484"/>
+      <c r="E3" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="495"/>
-      <c r="G3" s="495"/>
-      <c r="H3" s="495"/>
-      <c r="I3" s="495"/>
-      <c r="J3" s="495"/>
-      <c r="K3" s="495"/>
-      <c r="L3" s="495"/>
-      <c r="M3" s="495"/>
-      <c r="N3" s="496"/>
-      <c r="O3" s="506"/>
-      <c r="P3" s="507"/>
-      <c r="Q3" s="507"/>
-      <c r="R3" s="508"/>
-      <c r="S3" s="515"/>
-      <c r="T3" s="516"/>
-      <c r="U3" s="516"/>
-      <c r="V3" s="516"/>
-      <c r="W3" s="516"/>
-      <c r="X3" s="516"/>
-      <c r="Y3" s="516"/>
-      <c r="Z3" s="517"/>
-      <c r="AA3" s="491"/>
-      <c r="AB3" s="493"/>
-      <c r="AC3" s="497" t="str">
+      <c r="F3" s="486"/>
+      <c r="G3" s="486"/>
+      <c r="H3" s="486"/>
+      <c r="I3" s="486"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="486"/>
+      <c r="L3" s="486"/>
+      <c r="M3" s="486"/>
+      <c r="N3" s="487"/>
+      <c r="O3" s="497"/>
+      <c r="P3" s="498"/>
+      <c r="Q3" s="498"/>
+      <c r="R3" s="499"/>
+      <c r="S3" s="506"/>
+      <c r="T3" s="507"/>
+      <c r="U3" s="507"/>
+      <c r="V3" s="507"/>
+      <c r="W3" s="507"/>
+      <c r="X3" s="507"/>
+      <c r="Y3" s="507"/>
+      <c r="Z3" s="508"/>
+      <c r="AA3" s="482"/>
+      <c r="AB3" s="484"/>
+      <c r="AC3" s="488" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="498"/>
-      <c r="AE3" s="498"/>
-      <c r="AF3" s="499"/>
+      <c r="AD3" s="489"/>
+      <c r="AE3" s="489"/>
+      <c r="AF3" s="490"/>
       <c r="AG3" s="479" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -29849,76 +29849,81 @@
       <c r="C14" s="138"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="D15" s="482" t="s">
+      <c r="D15" s="509" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="483"/>
-      <c r="F15" s="483"/>
-      <c r="G15" s="483"/>
-      <c r="H15" s="483"/>
-      <c r="I15" s="483"/>
-      <c r="J15" s="484"/>
-      <c r="K15" s="482" t="s">
+      <c r="E15" s="510"/>
+      <c r="F15" s="510"/>
+      <c r="G15" s="510"/>
+      <c r="H15" s="510"/>
+      <c r="I15" s="510"/>
+      <c r="J15" s="511"/>
+      <c r="K15" s="509" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="483"/>
-      <c r="M15" s="483"/>
-      <c r="N15" s="483"/>
-      <c r="O15" s="483"/>
-      <c r="P15" s="483"/>
-      <c r="Q15" s="483"/>
-      <c r="R15" s="483"/>
-      <c r="S15" s="483"/>
-      <c r="T15" s="483"/>
-      <c r="U15" s="483"/>
-      <c r="V15" s="483"/>
-      <c r="W15" s="483"/>
-      <c r="X15" s="483"/>
-      <c r="Y15" s="483"/>
-      <c r="Z15" s="483"/>
-      <c r="AA15" s="483"/>
-      <c r="AB15" s="483"/>
-      <c r="AC15" s="483"/>
-      <c r="AD15" s="484"/>
+      <c r="L15" s="510"/>
+      <c r="M15" s="510"/>
+      <c r="N15" s="510"/>
+      <c r="O15" s="510"/>
+      <c r="P15" s="510"/>
+      <c r="Q15" s="510"/>
+      <c r="R15" s="510"/>
+      <c r="S15" s="510"/>
+      <c r="T15" s="510"/>
+      <c r="U15" s="510"/>
+      <c r="V15" s="510"/>
+      <c r="W15" s="510"/>
+      <c r="X15" s="510"/>
+      <c r="Y15" s="510"/>
+      <c r="Z15" s="510"/>
+      <c r="AA15" s="510"/>
+      <c r="AB15" s="510"/>
+      <c r="AC15" s="510"/>
+      <c r="AD15" s="511"/>
     </row>
     <row r="16" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="488" t="s">
+      <c r="D16" s="515" t="s">
         <v>191</v>
       </c>
-      <c r="E16" s="489"/>
-      <c r="F16" s="489"/>
-      <c r="G16" s="489"/>
-      <c r="H16" s="489"/>
-      <c r="I16" s="489"/>
-      <c r="J16" s="490"/>
-      <c r="K16" s="485" t="s">
+      <c r="E16" s="516"/>
+      <c r="F16" s="516"/>
+      <c r="G16" s="516"/>
+      <c r="H16" s="516"/>
+      <c r="I16" s="516"/>
+      <c r="J16" s="517"/>
+      <c r="K16" s="512" t="s">
         <v>71</v>
       </c>
-      <c r="L16" s="486"/>
-      <c r="M16" s="486"/>
-      <c r="N16" s="486"/>
-      <c r="O16" s="486"/>
-      <c r="P16" s="486"/>
-      <c r="Q16" s="486"/>
-      <c r="R16" s="486"/>
-      <c r="S16" s="486"/>
-      <c r="T16" s="486"/>
-      <c r="U16" s="486"/>
-      <c r="V16" s="486"/>
-      <c r="W16" s="486"/>
-      <c r="X16" s="486"/>
-      <c r="Y16" s="486"/>
-      <c r="Z16" s="486"/>
-      <c r="AA16" s="486"/>
-      <c r="AB16" s="486"/>
-      <c r="AC16" s="486"/>
-      <c r="AD16" s="487"/>
+      <c r="L16" s="513"/>
+      <c r="M16" s="513"/>
+      <c r="N16" s="513"/>
+      <c r="O16" s="513"/>
+      <c r="P16" s="513"/>
+      <c r="Q16" s="513"/>
+      <c r="R16" s="513"/>
+      <c r="S16" s="513"/>
+      <c r="T16" s="513"/>
+      <c r="U16" s="513"/>
+      <c r="V16" s="513"/>
+      <c r="W16" s="513"/>
+      <c r="X16" s="513"/>
+      <c r="Y16" s="513"/>
+      <c r="Z16" s="513"/>
+      <c r="AA16" s="513"/>
+      <c r="AB16" s="513"/>
+      <c r="AC16" s="513"/>
+      <c r="AD16" s="514"/>
     </row>
     <row r="21" spans="3:3" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C21" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="K15:AD15"/>
+    <mergeCell ref="K16:AD16"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
@@ -29935,11 +29940,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="K15:AD15"/>
-    <mergeCell ref="K16:AD16"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D16:J16"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -29969,165 +29969,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="491" t="s">
+      <c r="A1" s="482" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="492"/>
-      <c r="C1" s="492"/>
-      <c r="D1" s="493"/>
-      <c r="E1" s="494" t="str">
+      <c r="B1" s="483"/>
+      <c r="C1" s="483"/>
+      <c r="D1" s="484"/>
+      <c r="E1" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="495"/>
-      <c r="G1" s="495"/>
-      <c r="H1" s="495"/>
-      <c r="I1" s="495"/>
-      <c r="J1" s="495"/>
-      <c r="K1" s="495"/>
-      <c r="L1" s="495"/>
-      <c r="M1" s="495"/>
-      <c r="N1" s="496"/>
-      <c r="O1" s="500" t="s">
+      <c r="F1" s="486"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="486"/>
+      <c r="I1" s="486"/>
+      <c r="J1" s="486"/>
+      <c r="K1" s="486"/>
+      <c r="L1" s="486"/>
+      <c r="M1" s="486"/>
+      <c r="N1" s="487"/>
+      <c r="O1" s="491" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="501"/>
-      <c r="Q1" s="501"/>
-      <c r="R1" s="502"/>
-      <c r="S1" s="509" t="str">
+      <c r="P1" s="492"/>
+      <c r="Q1" s="492"/>
+      <c r="R1" s="493"/>
+      <c r="S1" s="500" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="510"/>
-      <c r="U1" s="510"/>
-      <c r="V1" s="510"/>
-      <c r="W1" s="510"/>
-      <c r="X1" s="510"/>
-      <c r="Y1" s="510"/>
-      <c r="Z1" s="511"/>
-      <c r="AA1" s="491" t="s">
+      <c r="T1" s="501"/>
+      <c r="U1" s="501"/>
+      <c r="V1" s="501"/>
+      <c r="W1" s="501"/>
+      <c r="X1" s="501"/>
+      <c r="Y1" s="501"/>
+      <c r="Z1" s="502"/>
+      <c r="AA1" s="482" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="493"/>
-      <c r="AC1" s="497" t="str">
+      <c r="AB1" s="484"/>
+      <c r="AC1" s="488" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="498"/>
-      <c r="AE1" s="498"/>
-      <c r="AF1" s="499"/>
-      <c r="AG1" s="521">
+      <c r="AD1" s="489"/>
+      <c r="AE1" s="489"/>
+      <c r="AF1" s="490"/>
+      <c r="AG1" s="543">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="522"/>
-      <c r="AI1" s="523"/>
+      <c r="AH1" s="544"/>
+      <c r="AI1" s="545"/>
       <c r="AJ1" s="49"/>
       <c r="AN1" s="47"/>
       <c r="AO1" s="47"/>
       <c r="AP1" s="47"/>
     </row>
     <row r="2" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="491" t="s">
+      <c r="A2" s="482" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="492"/>
-      <c r="C2" s="492"/>
-      <c r="D2" s="493"/>
-      <c r="E2" s="494" t="str">
+      <c r="B2" s="483"/>
+      <c r="C2" s="483"/>
+      <c r="D2" s="484"/>
+      <c r="E2" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="495"/>
-      <c r="G2" s="495"/>
-      <c r="H2" s="495"/>
-      <c r="I2" s="495"/>
-      <c r="J2" s="495"/>
-      <c r="K2" s="495"/>
-      <c r="L2" s="495"/>
-      <c r="M2" s="495"/>
-      <c r="N2" s="496"/>
-      <c r="O2" s="503"/>
-      <c r="P2" s="504"/>
-      <c r="Q2" s="504"/>
-      <c r="R2" s="505"/>
-      <c r="S2" s="512"/>
-      <c r="T2" s="513"/>
-      <c r="U2" s="513"/>
-      <c r="V2" s="513"/>
-      <c r="W2" s="513"/>
-      <c r="X2" s="513"/>
-      <c r="Y2" s="513"/>
-      <c r="Z2" s="514"/>
-      <c r="AA2" s="491" t="s">
+      <c r="F2" s="486"/>
+      <c r="G2" s="486"/>
+      <c r="H2" s="486"/>
+      <c r="I2" s="486"/>
+      <c r="J2" s="486"/>
+      <c r="K2" s="486"/>
+      <c r="L2" s="486"/>
+      <c r="M2" s="486"/>
+      <c r="N2" s="487"/>
+      <c r="O2" s="494"/>
+      <c r="P2" s="495"/>
+      <c r="Q2" s="495"/>
+      <c r="R2" s="496"/>
+      <c r="S2" s="503"/>
+      <c r="T2" s="504"/>
+      <c r="U2" s="504"/>
+      <c r="V2" s="504"/>
+      <c r="W2" s="504"/>
+      <c r="X2" s="504"/>
+      <c r="Y2" s="504"/>
+      <c r="Z2" s="505"/>
+      <c r="AA2" s="482" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="493"/>
-      <c r="AC2" s="497" t="str">
+      <c r="AB2" s="484"/>
+      <c r="AC2" s="488" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="498"/>
-      <c r="AE2" s="498"/>
-      <c r="AF2" s="499"/>
-      <c r="AG2" s="521" t="str">
+      <c r="AD2" s="489"/>
+      <c r="AE2" s="489"/>
+      <c r="AF2" s="490"/>
+      <c r="AG2" s="543" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="522"/>
-      <c r="AI2" s="523"/>
+      <c r="AH2" s="544"/>
+      <c r="AI2" s="545"/>
       <c r="AJ2" s="49"/>
       <c r="AN2" s="47"/>
       <c r="AO2" s="47"/>
       <c r="AP2" s="47"/>
     </row>
     <row r="3" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="491" t="s">
+      <c r="A3" s="482" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="492"/>
-      <c r="C3" s="492"/>
-      <c r="D3" s="493"/>
-      <c r="E3" s="494" t="str">
+      <c r="B3" s="483"/>
+      <c r="C3" s="483"/>
+      <c r="D3" s="484"/>
+      <c r="E3" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="495"/>
-      <c r="G3" s="495"/>
-      <c r="H3" s="495"/>
-      <c r="I3" s="495"/>
-      <c r="J3" s="495"/>
-      <c r="K3" s="495"/>
-      <c r="L3" s="495"/>
-      <c r="M3" s="495"/>
-      <c r="N3" s="496"/>
-      <c r="O3" s="506"/>
-      <c r="P3" s="507"/>
-      <c r="Q3" s="507"/>
-      <c r="R3" s="508"/>
-      <c r="S3" s="515"/>
-      <c r="T3" s="516"/>
-      <c r="U3" s="516"/>
-      <c r="V3" s="516"/>
-      <c r="W3" s="516"/>
-      <c r="X3" s="516"/>
-      <c r="Y3" s="516"/>
-      <c r="Z3" s="517"/>
-      <c r="AA3" s="491"/>
-      <c r="AB3" s="493"/>
-      <c r="AC3" s="497" t="str">
+      <c r="F3" s="486"/>
+      <c r="G3" s="486"/>
+      <c r="H3" s="486"/>
+      <c r="I3" s="486"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="486"/>
+      <c r="L3" s="486"/>
+      <c r="M3" s="486"/>
+      <c r="N3" s="487"/>
+      <c r="O3" s="497"/>
+      <c r="P3" s="498"/>
+      <c r="Q3" s="498"/>
+      <c r="R3" s="499"/>
+      <c r="S3" s="506"/>
+      <c r="T3" s="507"/>
+      <c r="U3" s="507"/>
+      <c r="V3" s="507"/>
+      <c r="W3" s="507"/>
+      <c r="X3" s="507"/>
+      <c r="Y3" s="507"/>
+      <c r="Z3" s="508"/>
+      <c r="AA3" s="482"/>
+      <c r="AB3" s="484"/>
+      <c r="AC3" s="488" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="498"/>
-      <c r="AE3" s="498"/>
-      <c r="AF3" s="499"/>
-      <c r="AG3" s="521" t="str">
+      <c r="AD3" s="489"/>
+      <c r="AE3" s="489"/>
+      <c r="AF3" s="490"/>
+      <c r="AG3" s="543" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="522"/>
-      <c r="AI3" s="523"/>
+      <c r="AH3" s="544"/>
+      <c r="AI3" s="545"/>
       <c r="AJ3" s="49"/>
       <c r="AN3" s="47"/>
       <c r="AO3" s="47"/>
@@ -30327,12 +30327,12 @@
     </row>
     <row r="21" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D21" s="138"/>
-      <c r="F21" s="524" t="s">
+      <c r="F21" s="521" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="525"/>
-      <c r="H21" s="525"/>
-      <c r="I21" s="526"/>
+      <c r="G21" s="522"/>
+      <c r="H21" s="522"/>
+      <c r="I21" s="523"/>
       <c r="J21" s="101" t="s">
         <v>25</v>
       </c>
@@ -31896,11 +31896,11 @@
       <c r="H61" s="519"/>
       <c r="I61" s="519"/>
       <c r="J61" s="520"/>
-      <c r="K61" s="482" t="s">
+      <c r="K61" s="509" t="s">
         <v>67</v>
       </c>
-      <c r="L61" s="483"/>
-      <c r="M61" s="484"/>
+      <c r="L61" s="510"/>
+      <c r="M61" s="511"/>
       <c r="N61" s="101" t="s">
         <v>160</v>
       </c>
@@ -31943,17 +31943,17 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="32"/>
-      <c r="G62" s="527" t="s">
+      <c r="G62" s="524" t="s">
         <v>522</v>
       </c>
-      <c r="H62" s="528"/>
-      <c r="I62" s="528"/>
-      <c r="J62" s="529"/>
-      <c r="K62" s="527" t="s">
+      <c r="H62" s="525"/>
+      <c r="I62" s="525"/>
+      <c r="J62" s="526"/>
+      <c r="K62" s="524" t="s">
         <v>473</v>
       </c>
-      <c r="L62" s="528"/>
-      <c r="M62" s="529"/>
+      <c r="L62" s="525"/>
+      <c r="M62" s="526"/>
       <c r="N62" s="137" t="s">
         <v>286</v>
       </c>
@@ -31996,13 +31996,13 @@
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
       <c r="F63" s="32"/>
-      <c r="G63" s="530"/>
-      <c r="H63" s="531"/>
-      <c r="I63" s="531"/>
-      <c r="J63" s="532"/>
-      <c r="K63" s="536"/>
-      <c r="L63" s="531"/>
-      <c r="M63" s="532"/>
+      <c r="G63" s="527"/>
+      <c r="H63" s="528"/>
+      <c r="I63" s="528"/>
+      <c r="J63" s="529"/>
+      <c r="K63" s="533"/>
+      <c r="L63" s="528"/>
+      <c r="M63" s="529"/>
       <c r="N63" s="174" t="s">
         <v>287</v>
       </c>
@@ -32045,13 +32045,13 @@
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="32"/>
-      <c r="G64" s="530"/>
-      <c r="H64" s="531"/>
-      <c r="I64" s="531"/>
-      <c r="J64" s="532"/>
-      <c r="K64" s="530"/>
-      <c r="L64" s="531"/>
-      <c r="M64" s="532"/>
+      <c r="G64" s="527"/>
+      <c r="H64" s="528"/>
+      <c r="I64" s="528"/>
+      <c r="J64" s="529"/>
+      <c r="K64" s="527"/>
+      <c r="L64" s="528"/>
+      <c r="M64" s="529"/>
       <c r="N64" s="174" t="s">
         <v>274</v>
       </c>
@@ -32094,13 +32094,13 @@
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
       <c r="F65" s="32"/>
-      <c r="G65" s="530"/>
-      <c r="H65" s="531"/>
-      <c r="I65" s="531"/>
-      <c r="J65" s="532"/>
-      <c r="K65" s="530"/>
-      <c r="L65" s="531"/>
-      <c r="M65" s="532"/>
+      <c r="G65" s="527"/>
+      <c r="H65" s="528"/>
+      <c r="I65" s="528"/>
+      <c r="J65" s="529"/>
+      <c r="K65" s="527"/>
+      <c r="L65" s="528"/>
+      <c r="M65" s="529"/>
       <c r="N65" s="174" t="s">
         <v>275</v>
       </c>
@@ -32143,13 +32143,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="33"/>
-      <c r="G66" s="533"/>
-      <c r="H66" s="534"/>
-      <c r="I66" s="534"/>
-      <c r="J66" s="535"/>
-      <c r="K66" s="533"/>
-      <c r="L66" s="534"/>
-      <c r="M66" s="535"/>
+      <c r="G66" s="530"/>
+      <c r="H66" s="531"/>
+      <c r="I66" s="531"/>
+      <c r="J66" s="532"/>
+      <c r="K66" s="530"/>
+      <c r="L66" s="531"/>
+      <c r="M66" s="532"/>
       <c r="N66" s="176"/>
       <c r="O66" s="177"/>
       <c r="P66" s="177"/>
@@ -32190,17 +32190,17 @@
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="33"/>
-      <c r="G67" s="537" t="s">
+      <c r="G67" s="534" t="s">
         <v>523</v>
       </c>
-      <c r="H67" s="538"/>
-      <c r="I67" s="538"/>
-      <c r="J67" s="539"/>
-      <c r="K67" s="527" t="s">
+      <c r="H67" s="535"/>
+      <c r="I67" s="535"/>
+      <c r="J67" s="536"/>
+      <c r="K67" s="524" t="s">
         <v>524</v>
       </c>
-      <c r="L67" s="528"/>
-      <c r="M67" s="529"/>
+      <c r="L67" s="525"/>
+      <c r="M67" s="526"/>
       <c r="N67" s="291" t="s">
         <v>525</v>
       </c>
@@ -32242,13 +32242,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="33"/>
-      <c r="G68" s="540"/>
-      <c r="H68" s="541"/>
-      <c r="I68" s="541"/>
-      <c r="J68" s="542"/>
-      <c r="K68" s="536"/>
-      <c r="L68" s="531"/>
-      <c r="M68" s="532"/>
+      <c r="G68" s="537"/>
+      <c r="H68" s="538"/>
+      <c r="I68" s="538"/>
+      <c r="J68" s="539"/>
+      <c r="K68" s="533"/>
+      <c r="L68" s="528"/>
+      <c r="M68" s="529"/>
       <c r="N68" s="174" t="s">
         <v>526</v>
       </c>
@@ -32290,13 +32290,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="33"/>
-      <c r="G69" s="540"/>
-      <c r="H69" s="541"/>
-      <c r="I69" s="541"/>
-      <c r="J69" s="542"/>
-      <c r="K69" s="530"/>
-      <c r="L69" s="531"/>
-      <c r="M69" s="532"/>
+      <c r="G69" s="537"/>
+      <c r="H69" s="538"/>
+      <c r="I69" s="538"/>
+      <c r="J69" s="539"/>
+      <c r="K69" s="527"/>
+      <c r="L69" s="528"/>
+      <c r="M69" s="529"/>
       <c r="N69" s="174" t="s">
         <v>275</v>
       </c>
@@ -32338,13 +32338,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="33"/>
-      <c r="G70" s="543"/>
-      <c r="H70" s="544"/>
-      <c r="I70" s="544"/>
-      <c r="J70" s="545"/>
-      <c r="K70" s="533"/>
-      <c r="L70" s="534"/>
-      <c r="M70" s="535"/>
+      <c r="G70" s="540"/>
+      <c r="H70" s="541"/>
+      <c r="I70" s="541"/>
+      <c r="J70" s="542"/>
+      <c r="K70" s="530"/>
+      <c r="L70" s="531"/>
+      <c r="M70" s="532"/>
       <c r="N70" s="176"/>
       <c r="O70" s="177"/>
       <c r="P70" s="177"/>
@@ -32791,11 +32791,11 @@
       <c r="H85" s="519"/>
       <c r="I85" s="519"/>
       <c r="J85" s="520"/>
-      <c r="K85" s="482" t="s">
+      <c r="K85" s="509" t="s">
         <v>67</v>
       </c>
-      <c r="L85" s="483"/>
-      <c r="M85" s="484"/>
+      <c r="L85" s="510"/>
+      <c r="M85" s="511"/>
       <c r="N85" s="334" t="s">
         <v>160</v>
       </c>
@@ -33080,11 +33080,11 @@
       <c r="H99" s="519"/>
       <c r="I99" s="519"/>
       <c r="J99" s="520"/>
-      <c r="K99" s="482" t="s">
+      <c r="K99" s="509" t="s">
         <v>67</v>
       </c>
-      <c r="L99" s="483"/>
-      <c r="M99" s="484"/>
+      <c r="L99" s="510"/>
+      <c r="M99" s="511"/>
       <c r="N99" s="369" t="s">
         <v>160</v>
       </c>
@@ -33258,18 +33258,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="G62:J66"/>
-    <mergeCell ref="K62:M66"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="G67:J70"/>
-    <mergeCell ref="K67:M70"/>
     <mergeCell ref="G99:J99"/>
     <mergeCell ref="K99:M99"/>
     <mergeCell ref="AG3:AI3"/>
@@ -33286,6 +33274,18 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="G62:J66"/>
+    <mergeCell ref="K62:M66"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="G67:J70"/>
+    <mergeCell ref="K67:M70"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -33321,165 +33321,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="491" t="s">
+      <c r="A1" s="482" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="492"/>
-      <c r="C1" s="492"/>
-      <c r="D1" s="493"/>
-      <c r="E1" s="494" t="str">
+      <c r="B1" s="483"/>
+      <c r="C1" s="483"/>
+      <c r="D1" s="484"/>
+      <c r="E1" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="495"/>
-      <c r="G1" s="495"/>
-      <c r="H1" s="495"/>
-      <c r="I1" s="495"/>
-      <c r="J1" s="495"/>
-      <c r="K1" s="495"/>
-      <c r="L1" s="495"/>
-      <c r="M1" s="495"/>
-      <c r="N1" s="496"/>
+      <c r="F1" s="486"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="486"/>
+      <c r="I1" s="486"/>
+      <c r="J1" s="486"/>
+      <c r="K1" s="486"/>
+      <c r="L1" s="486"/>
+      <c r="M1" s="486"/>
+      <c r="N1" s="487"/>
       <c r="O1" s="546" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="501"/>
-      <c r="Q1" s="501"/>
+      <c r="P1" s="492"/>
+      <c r="Q1" s="492"/>
       <c r="R1" s="547"/>
       <c r="S1" s="548" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="510"/>
-      <c r="U1" s="510"/>
-      <c r="V1" s="510"/>
-      <c r="W1" s="510"/>
-      <c r="X1" s="510"/>
-      <c r="Y1" s="510"/>
+      <c r="T1" s="501"/>
+      <c r="U1" s="501"/>
+      <c r="V1" s="501"/>
+      <c r="W1" s="501"/>
+      <c r="X1" s="501"/>
+      <c r="Y1" s="501"/>
       <c r="Z1" s="549"/>
-      <c r="AA1" s="491" t="s">
+      <c r="AA1" s="482" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="493"/>
-      <c r="AC1" s="497" t="str">
+      <c r="AB1" s="484"/>
+      <c r="AC1" s="488" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="498"/>
-      <c r="AE1" s="498"/>
-      <c r="AF1" s="499"/>
-      <c r="AG1" s="521">
+      <c r="AD1" s="489"/>
+      <c r="AE1" s="489"/>
+      <c r="AF1" s="490"/>
+      <c r="AG1" s="543">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="522"/>
-      <c r="AI1" s="523"/>
+      <c r="AH1" s="544"/>
+      <c r="AI1" s="545"/>
       <c r="AJ1" s="49"/>
       <c r="AN1" s="47"/>
       <c r="AO1" s="47"/>
       <c r="AP1" s="47"/>
     </row>
     <row r="2" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="491" t="s">
+      <c r="A2" s="482" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="492"/>
-      <c r="C2" s="492"/>
-      <c r="D2" s="493"/>
-      <c r="E2" s="494" t="str">
+      <c r="B2" s="483"/>
+      <c r="C2" s="483"/>
+      <c r="D2" s="484"/>
+      <c r="E2" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="495"/>
-      <c r="G2" s="495"/>
-      <c r="H2" s="495"/>
-      <c r="I2" s="495"/>
-      <c r="J2" s="495"/>
-      <c r="K2" s="495"/>
-      <c r="L2" s="495"/>
-      <c r="M2" s="495"/>
-      <c r="N2" s="496"/>
-      <c r="O2" s="503"/>
-      <c r="P2" s="504"/>
-      <c r="Q2" s="504"/>
-      <c r="R2" s="505"/>
-      <c r="S2" s="512"/>
-      <c r="T2" s="513"/>
-      <c r="U2" s="513"/>
-      <c r="V2" s="513"/>
-      <c r="W2" s="513"/>
-      <c r="X2" s="513"/>
-      <c r="Y2" s="513"/>
-      <c r="Z2" s="514"/>
-      <c r="AA2" s="491" t="s">
+      <c r="F2" s="486"/>
+      <c r="G2" s="486"/>
+      <c r="H2" s="486"/>
+      <c r="I2" s="486"/>
+      <c r="J2" s="486"/>
+      <c r="K2" s="486"/>
+      <c r="L2" s="486"/>
+      <c r="M2" s="486"/>
+      <c r="N2" s="487"/>
+      <c r="O2" s="494"/>
+      <c r="P2" s="495"/>
+      <c r="Q2" s="495"/>
+      <c r="R2" s="496"/>
+      <c r="S2" s="503"/>
+      <c r="T2" s="504"/>
+      <c r="U2" s="504"/>
+      <c r="V2" s="504"/>
+      <c r="W2" s="504"/>
+      <c r="X2" s="504"/>
+      <c r="Y2" s="504"/>
+      <c r="Z2" s="505"/>
+      <c r="AA2" s="482" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="493"/>
-      <c r="AC2" s="497" t="str">
+      <c r="AB2" s="484"/>
+      <c r="AC2" s="488" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="498"/>
-      <c r="AE2" s="498"/>
-      <c r="AF2" s="499"/>
-      <c r="AG2" s="521" t="str">
+      <c r="AD2" s="489"/>
+      <c r="AE2" s="489"/>
+      <c r="AF2" s="490"/>
+      <c r="AG2" s="543" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="522"/>
-      <c r="AI2" s="523"/>
+      <c r="AH2" s="544"/>
+      <c r="AI2" s="545"/>
       <c r="AJ2" s="49"/>
       <c r="AN2" s="47"/>
       <c r="AO2" s="47"/>
       <c r="AP2" s="47"/>
     </row>
     <row r="3" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="491" t="s">
+      <c r="A3" s="482" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="492"/>
-      <c r="C3" s="492"/>
-      <c r="D3" s="493"/>
-      <c r="E3" s="494" t="str">
+      <c r="B3" s="483"/>
+      <c r="C3" s="483"/>
+      <c r="D3" s="484"/>
+      <c r="E3" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="495"/>
-      <c r="G3" s="495"/>
-      <c r="H3" s="495"/>
-      <c r="I3" s="495"/>
-      <c r="J3" s="495"/>
-      <c r="K3" s="495"/>
-      <c r="L3" s="495"/>
-      <c r="M3" s="495"/>
-      <c r="N3" s="496"/>
-      <c r="O3" s="506"/>
-      <c r="P3" s="507"/>
-      <c r="Q3" s="507"/>
-      <c r="R3" s="508"/>
-      <c r="S3" s="515"/>
-      <c r="T3" s="516"/>
-      <c r="U3" s="516"/>
-      <c r="V3" s="516"/>
-      <c r="W3" s="516"/>
-      <c r="X3" s="516"/>
-      <c r="Y3" s="516"/>
-      <c r="Z3" s="517"/>
-      <c r="AA3" s="491"/>
-      <c r="AB3" s="493"/>
-      <c r="AC3" s="497" t="str">
+      <c r="F3" s="486"/>
+      <c r="G3" s="486"/>
+      <c r="H3" s="486"/>
+      <c r="I3" s="486"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="486"/>
+      <c r="L3" s="486"/>
+      <c r="M3" s="486"/>
+      <c r="N3" s="487"/>
+      <c r="O3" s="497"/>
+      <c r="P3" s="498"/>
+      <c r="Q3" s="498"/>
+      <c r="R3" s="499"/>
+      <c r="S3" s="506"/>
+      <c r="T3" s="507"/>
+      <c r="U3" s="507"/>
+      <c r="V3" s="507"/>
+      <c r="W3" s="507"/>
+      <c r="X3" s="507"/>
+      <c r="Y3" s="507"/>
+      <c r="Z3" s="508"/>
+      <c r="AA3" s="482"/>
+      <c r="AB3" s="484"/>
+      <c r="AC3" s="488" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="498"/>
-      <c r="AE3" s="498"/>
-      <c r="AF3" s="499"/>
-      <c r="AG3" s="521" t="str">
+      <c r="AD3" s="489"/>
+      <c r="AE3" s="489"/>
+      <c r="AF3" s="490"/>
+      <c r="AG3" s="543" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="522"/>
-      <c r="AI3" s="523"/>
+      <c r="AH3" s="544"/>
+      <c r="AI3" s="545"/>
       <c r="AJ3" s="49"/>
       <c r="AN3" s="47"/>
       <c r="AO3" s="47"/>
@@ -33888,7 +33888,7 @@
     <row r="40" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C40" s="53"/>
       <c r="D40" s="43" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.15">
@@ -34445,7 +34445,7 @@
       <c r="C113" s="53"/>
       <c r="F113" s="34"/>
       <c r="G113" s="34" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="114" spans="3:40" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34856,7 +34856,7 @@
       <c r="C155" s="53"/>
       <c r="E155" s="34"/>
       <c r="F155" s="34" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="156" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34864,7 +34864,7 @@
       <c r="E156" s="34"/>
       <c r="F156" s="34"/>
       <c r="G156" s="34" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="157" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -35592,7 +35592,7 @@
     <row r="256" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C256" s="34"/>
       <c r="D256" s="34" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G256" s="34"/>
     </row>
@@ -36017,11 +36017,6 @@
     <row r="339" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T14:AG14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="K14:S14"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -36037,6 +36032,11 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="T14:AG14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:S14"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -36068,7 +36068,7 @@
   </sheetPr>
   <dimension ref="A1:BE202"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A109" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -36083,157 +36083,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="491" t="s">
+      <c r="A1" s="482" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="492"/>
-      <c r="C1" s="492"/>
-      <c r="D1" s="493"/>
-      <c r="E1" s="494" t="str">
+      <c r="B1" s="483"/>
+      <c r="C1" s="483"/>
+      <c r="D1" s="484"/>
+      <c r="E1" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="495"/>
-      <c r="G1" s="495"/>
-      <c r="H1" s="495"/>
-      <c r="I1" s="495"/>
-      <c r="J1" s="495"/>
-      <c r="K1" s="495"/>
-      <c r="L1" s="495"/>
-      <c r="M1" s="495"/>
-      <c r="N1" s="496"/>
-      <c r="O1" s="500" t="s">
+      <c r="F1" s="486"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="486"/>
+      <c r="I1" s="486"/>
+      <c r="J1" s="486"/>
+      <c r="K1" s="486"/>
+      <c r="L1" s="486"/>
+      <c r="M1" s="486"/>
+      <c r="N1" s="487"/>
+      <c r="O1" s="491" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="501"/>
-      <c r="Q1" s="501"/>
-      <c r="R1" s="502"/>
-      <c r="S1" s="509" t="str">
+      <c r="P1" s="492"/>
+      <c r="Q1" s="492"/>
+      <c r="R1" s="493"/>
+      <c r="S1" s="500" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="510"/>
-      <c r="U1" s="510"/>
-      <c r="V1" s="510"/>
-      <c r="W1" s="510"/>
-      <c r="X1" s="510"/>
-      <c r="Y1" s="510"/>
-      <c r="Z1" s="511"/>
-      <c r="AA1" s="491" t="s">
+      <c r="T1" s="501"/>
+      <c r="U1" s="501"/>
+      <c r="V1" s="501"/>
+      <c r="W1" s="501"/>
+      <c r="X1" s="501"/>
+      <c r="Y1" s="501"/>
+      <c r="Z1" s="502"/>
+      <c r="AA1" s="482" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="493"/>
-      <c r="AC1" s="497" t="str">
+      <c r="AB1" s="484"/>
+      <c r="AC1" s="488" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="498"/>
-      <c r="AE1" s="498"/>
-      <c r="AF1" s="499"/>
-      <c r="AG1" s="521">
+      <c r="AD1" s="489"/>
+      <c r="AE1" s="489"/>
+      <c r="AF1" s="490"/>
+      <c r="AG1" s="543">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="522"/>
-      <c r="AI1" s="523"/>
+      <c r="AH1" s="544"/>
+      <c r="AI1" s="545"/>
     </row>
     <row r="2" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="491" t="s">
+      <c r="A2" s="482" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="492"/>
-      <c r="C2" s="492"/>
-      <c r="D2" s="493"/>
-      <c r="E2" s="494" t="str">
+      <c r="B2" s="483"/>
+      <c r="C2" s="483"/>
+      <c r="D2" s="484"/>
+      <c r="E2" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="495"/>
-      <c r="G2" s="495"/>
-      <c r="H2" s="495"/>
-      <c r="I2" s="495"/>
-      <c r="J2" s="495"/>
-      <c r="K2" s="495"/>
-      <c r="L2" s="495"/>
-      <c r="M2" s="495"/>
-      <c r="N2" s="496"/>
-      <c r="O2" s="503"/>
-      <c r="P2" s="504"/>
-      <c r="Q2" s="504"/>
-      <c r="R2" s="505"/>
-      <c r="S2" s="512"/>
-      <c r="T2" s="513"/>
-      <c r="U2" s="513"/>
-      <c r="V2" s="513"/>
-      <c r="W2" s="513"/>
-      <c r="X2" s="513"/>
-      <c r="Y2" s="513"/>
-      <c r="Z2" s="514"/>
-      <c r="AA2" s="491" t="s">
+      <c r="F2" s="486"/>
+      <c r="G2" s="486"/>
+      <c r="H2" s="486"/>
+      <c r="I2" s="486"/>
+      <c r="J2" s="486"/>
+      <c r="K2" s="486"/>
+      <c r="L2" s="486"/>
+      <c r="M2" s="486"/>
+      <c r="N2" s="487"/>
+      <c r="O2" s="494"/>
+      <c r="P2" s="495"/>
+      <c r="Q2" s="495"/>
+      <c r="R2" s="496"/>
+      <c r="S2" s="503"/>
+      <c r="T2" s="504"/>
+      <c r="U2" s="504"/>
+      <c r="V2" s="504"/>
+      <c r="W2" s="504"/>
+      <c r="X2" s="504"/>
+      <c r="Y2" s="504"/>
+      <c r="Z2" s="505"/>
+      <c r="AA2" s="482" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="493"/>
-      <c r="AC2" s="497" t="str">
+      <c r="AB2" s="484"/>
+      <c r="AC2" s="488" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="498"/>
-      <c r="AE2" s="498"/>
-      <c r="AF2" s="499"/>
-      <c r="AG2" s="521" t="str">
+      <c r="AD2" s="489"/>
+      <c r="AE2" s="489"/>
+      <c r="AF2" s="490"/>
+      <c r="AG2" s="543" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="522"/>
-      <c r="AI2" s="523"/>
+      <c r="AH2" s="544"/>
+      <c r="AI2" s="545"/>
     </row>
     <row r="3" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="491" t="s">
+      <c r="A3" s="482" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="492"/>
-      <c r="C3" s="492"/>
-      <c r="D3" s="493"/>
-      <c r="E3" s="494" t="str">
+      <c r="B3" s="483"/>
+      <c r="C3" s="483"/>
+      <c r="D3" s="484"/>
+      <c r="E3" s="485" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="495"/>
-      <c r="G3" s="495"/>
-      <c r="H3" s="495"/>
-      <c r="I3" s="495"/>
-      <c r="J3" s="495"/>
-      <c r="K3" s="495"/>
-      <c r="L3" s="495"/>
-      <c r="M3" s="495"/>
-      <c r="N3" s="496"/>
-      <c r="O3" s="506"/>
-      <c r="P3" s="507"/>
-      <c r="Q3" s="507"/>
-      <c r="R3" s="508"/>
-      <c r="S3" s="515"/>
-      <c r="T3" s="516"/>
-      <c r="U3" s="516"/>
-      <c r="V3" s="516"/>
-      <c r="W3" s="516"/>
-      <c r="X3" s="516"/>
-      <c r="Y3" s="516"/>
-      <c r="Z3" s="517"/>
-      <c r="AA3" s="491"/>
-      <c r="AB3" s="493"/>
-      <c r="AC3" s="497" t="str">
+      <c r="F3" s="486"/>
+      <c r="G3" s="486"/>
+      <c r="H3" s="486"/>
+      <c r="I3" s="486"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="486"/>
+      <c r="L3" s="486"/>
+      <c r="M3" s="486"/>
+      <c r="N3" s="487"/>
+      <c r="O3" s="497"/>
+      <c r="P3" s="498"/>
+      <c r="Q3" s="498"/>
+      <c r="R3" s="499"/>
+      <c r="S3" s="506"/>
+      <c r="T3" s="507"/>
+      <c r="U3" s="507"/>
+      <c r="V3" s="507"/>
+      <c r="W3" s="507"/>
+      <c r="X3" s="507"/>
+      <c r="Y3" s="507"/>
+      <c r="Z3" s="508"/>
+      <c r="AA3" s="482"/>
+      <c r="AB3" s="484"/>
+      <c r="AC3" s="488" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="498"/>
-      <c r="AE3" s="498"/>
-      <c r="AF3" s="499"/>
-      <c r="AG3" s="521" t="str">
+      <c r="AD3" s="489"/>
+      <c r="AE3" s="489"/>
+      <c r="AF3" s="490"/>
+      <c r="AG3" s="543" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="522"/>
-      <c r="AI3" s="523"/>
+      <c r="AH3" s="544"/>
+      <c r="AI3" s="545"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B5" s="36" t="s">
@@ -38943,12 +38943,12 @@
     <row r="202" spans="2:35" s="67" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
@@ -38957,12 +38957,12 @@
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -38988,7 +38988,7 @@
   </sheetPr>
   <dimension ref="A1:AZ474"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A115" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -39003,165 +39003,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="413" t="s">
+      <c r="A1" s="441" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="414"/>
-      <c r="C1" s="414"/>
-      <c r="D1" s="415"/>
-      <c r="E1" s="444" t="str">
+      <c r="B1" s="442"/>
+      <c r="C1" s="442"/>
+      <c r="D1" s="443"/>
+      <c r="E1" s="472" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="417"/>
-      <c r="G1" s="417"/>
-      <c r="H1" s="417"/>
-      <c r="I1" s="417"/>
-      <c r="J1" s="417"/>
-      <c r="K1" s="417"/>
-      <c r="L1" s="417"/>
-      <c r="M1" s="417"/>
-      <c r="N1" s="418"/>
-      <c r="O1" s="500" t="s">
+      <c r="F1" s="445"/>
+      <c r="G1" s="445"/>
+      <c r="H1" s="445"/>
+      <c r="I1" s="445"/>
+      <c r="J1" s="445"/>
+      <c r="K1" s="445"/>
+      <c r="L1" s="445"/>
+      <c r="M1" s="445"/>
+      <c r="N1" s="446"/>
+      <c r="O1" s="491" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="501"/>
-      <c r="Q1" s="501"/>
-      <c r="R1" s="502"/>
-      <c r="S1" s="509" t="str">
+      <c r="P1" s="492"/>
+      <c r="Q1" s="492"/>
+      <c r="R1" s="493"/>
+      <c r="S1" s="500" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="510"/>
-      <c r="U1" s="510"/>
-      <c r="V1" s="510"/>
-      <c r="W1" s="510"/>
-      <c r="X1" s="510"/>
-      <c r="Y1" s="510"/>
-      <c r="Z1" s="511"/>
-      <c r="AA1" s="413" t="s">
+      <c r="T1" s="501"/>
+      <c r="U1" s="501"/>
+      <c r="V1" s="501"/>
+      <c r="W1" s="501"/>
+      <c r="X1" s="501"/>
+      <c r="Y1" s="501"/>
+      <c r="Z1" s="502"/>
+      <c r="AA1" s="441" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="415"/>
-      <c r="AC1" s="441" t="str">
+      <c r="AB1" s="443"/>
+      <c r="AC1" s="469" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="442"/>
-      <c r="AE1" s="442"/>
-      <c r="AF1" s="443"/>
-      <c r="AG1" s="604">
+      <c r="AD1" s="470"/>
+      <c r="AE1" s="470"/>
+      <c r="AF1" s="471"/>
+      <c r="AG1" s="605">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="605"/>
-      <c r="AI1" s="606"/>
+      <c r="AH1" s="606"/>
+      <c r="AI1" s="607"/>
       <c r="AJ1" s="49"/>
       <c r="AN1" s="85"/>
       <c r="AO1" s="85"/>
       <c r="AP1" s="85"/>
     </row>
     <row r="2" spans="1:42" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="413" t="s">
+      <c r="A2" s="441" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="414"/>
-      <c r="C2" s="414"/>
-      <c r="D2" s="415"/>
-      <c r="E2" s="444" t="str">
+      <c r="B2" s="442"/>
+      <c r="C2" s="442"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="472" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="417"/>
-      <c r="G2" s="417"/>
-      <c r="H2" s="417"/>
-      <c r="I2" s="417"/>
-      <c r="J2" s="417"/>
-      <c r="K2" s="417"/>
-      <c r="L2" s="417"/>
-      <c r="M2" s="417"/>
-      <c r="N2" s="418"/>
-      <c r="O2" s="503"/>
-      <c r="P2" s="504"/>
-      <c r="Q2" s="504"/>
-      <c r="R2" s="505"/>
-      <c r="S2" s="512"/>
-      <c r="T2" s="513"/>
-      <c r="U2" s="513"/>
-      <c r="V2" s="513"/>
-      <c r="W2" s="513"/>
-      <c r="X2" s="513"/>
-      <c r="Y2" s="513"/>
-      <c r="Z2" s="514"/>
-      <c r="AA2" s="413" t="s">
+      <c r="F2" s="445"/>
+      <c r="G2" s="445"/>
+      <c r="H2" s="445"/>
+      <c r="I2" s="445"/>
+      <c r="J2" s="445"/>
+      <c r="K2" s="445"/>
+      <c r="L2" s="445"/>
+      <c r="M2" s="445"/>
+      <c r="N2" s="446"/>
+      <c r="O2" s="494"/>
+      <c r="P2" s="495"/>
+      <c r="Q2" s="495"/>
+      <c r="R2" s="496"/>
+      <c r="S2" s="503"/>
+      <c r="T2" s="504"/>
+      <c r="U2" s="504"/>
+      <c r="V2" s="504"/>
+      <c r="W2" s="504"/>
+      <c r="X2" s="504"/>
+      <c r="Y2" s="504"/>
+      <c r="Z2" s="505"/>
+      <c r="AA2" s="441" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="415"/>
-      <c r="AC2" s="441" t="str">
+      <c r="AB2" s="443"/>
+      <c r="AC2" s="469" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="442"/>
-      <c r="AE2" s="442"/>
-      <c r="AF2" s="443"/>
-      <c r="AG2" s="604" t="str">
+      <c r="AD2" s="470"/>
+      <c r="AE2" s="470"/>
+      <c r="AF2" s="471"/>
+      <c r="AG2" s="605" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="605"/>
-      <c r="AI2" s="606"/>
+      <c r="AH2" s="606"/>
+      <c r="AI2" s="607"/>
       <c r="AJ2" s="49"/>
       <c r="AN2" s="85"/>
       <c r="AO2" s="85"/>
       <c r="AP2" s="85"/>
     </row>
     <row r="3" spans="1:42" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="413" t="s">
+      <c r="A3" s="441" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="414"/>
-      <c r="C3" s="414"/>
-      <c r="D3" s="415"/>
-      <c r="E3" s="444" t="str">
+      <c r="B3" s="442"/>
+      <c r="C3" s="442"/>
+      <c r="D3" s="443"/>
+      <c r="E3" s="472" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="417"/>
-      <c r="G3" s="417"/>
-      <c r="H3" s="417"/>
-      <c r="I3" s="417"/>
-      <c r="J3" s="417"/>
-      <c r="K3" s="417"/>
-      <c r="L3" s="417"/>
-      <c r="M3" s="417"/>
-      <c r="N3" s="418"/>
-      <c r="O3" s="506"/>
-      <c r="P3" s="507"/>
-      <c r="Q3" s="507"/>
-      <c r="R3" s="508"/>
-      <c r="S3" s="515"/>
-      <c r="T3" s="516"/>
-      <c r="U3" s="516"/>
-      <c r="V3" s="516"/>
-      <c r="W3" s="516"/>
-      <c r="X3" s="516"/>
-      <c r="Y3" s="516"/>
-      <c r="Z3" s="517"/>
-      <c r="AA3" s="413"/>
-      <c r="AB3" s="415"/>
-      <c r="AC3" s="441" t="str">
+      <c r="F3" s="445"/>
+      <c r="G3" s="445"/>
+      <c r="H3" s="445"/>
+      <c r="I3" s="445"/>
+      <c r="J3" s="445"/>
+      <c r="K3" s="445"/>
+      <c r="L3" s="445"/>
+      <c r="M3" s="445"/>
+      <c r="N3" s="446"/>
+      <c r="O3" s="497"/>
+      <c r="P3" s="498"/>
+      <c r="Q3" s="498"/>
+      <c r="R3" s="499"/>
+      <c r="S3" s="506"/>
+      <c r="T3" s="507"/>
+      <c r="U3" s="507"/>
+      <c r="V3" s="507"/>
+      <c r="W3" s="507"/>
+      <c r="X3" s="507"/>
+      <c r="Y3" s="507"/>
+      <c r="Z3" s="508"/>
+      <c r="AA3" s="441"/>
+      <c r="AB3" s="443"/>
+      <c r="AC3" s="469" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="442"/>
-      <c r="AE3" s="442"/>
-      <c r="AF3" s="443"/>
-      <c r="AG3" s="604" t="str">
+      <c r="AD3" s="470"/>
+      <c r="AE3" s="470"/>
+      <c r="AF3" s="471"/>
+      <c r="AG3" s="605" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="605"/>
-      <c r="AI3" s="606"/>
+      <c r="AH3" s="606"/>
+      <c r="AI3" s="607"/>
       <c r="AJ3" s="49"/>
       <c r="AN3" s="85"/>
       <c r="AO3" s="85"/>
@@ -39853,312 +39853,312 @@
     </row>
     <row r="150" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="151" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D151" s="482" t="s">
+      <c r="D151" s="509" t="s">
         <v>225</v>
       </c>
-      <c r="E151" s="560"/>
-      <c r="F151" s="560"/>
-      <c r="G151" s="560"/>
-      <c r="H151" s="560"/>
-      <c r="I151" s="560"/>
-      <c r="J151" s="561"/>
-      <c r="K151" s="581" t="s">
+      <c r="E151" s="590"/>
+      <c r="F151" s="590"/>
+      <c r="G151" s="590"/>
+      <c r="H151" s="590"/>
+      <c r="I151" s="590"/>
+      <c r="J151" s="591"/>
+      <c r="K151" s="598" t="s">
         <v>49</v>
       </c>
-      <c r="L151" s="582"/>
-      <c r="M151" s="582"/>
-      <c r="N151" s="582"/>
-      <c r="O151" s="582"/>
-      <c r="P151" s="582"/>
-      <c r="Q151" s="582"/>
-      <c r="R151" s="582"/>
-      <c r="S151" s="582"/>
-      <c r="T151" s="582"/>
-      <c r="U151" s="582"/>
-      <c r="V151" s="582"/>
-      <c r="W151" s="582"/>
-      <c r="X151" s="582"/>
-      <c r="Y151" s="582"/>
-      <c r="Z151" s="583"/>
-      <c r="AA151" s="579" t="s">
+      <c r="L151" s="636"/>
+      <c r="M151" s="636"/>
+      <c r="N151" s="636"/>
+      <c r="O151" s="636"/>
+      <c r="P151" s="636"/>
+      <c r="Q151" s="636"/>
+      <c r="R151" s="636"/>
+      <c r="S151" s="636"/>
+      <c r="T151" s="636"/>
+      <c r="U151" s="636"/>
+      <c r="V151" s="636"/>
+      <c r="W151" s="636"/>
+      <c r="X151" s="636"/>
+      <c r="Y151" s="636"/>
+      <c r="Z151" s="599"/>
+      <c r="AA151" s="634" t="s">
         <v>50</v>
       </c>
-      <c r="AB151" s="580"/>
-      <c r="AC151" s="580"/>
-      <c r="AD151" s="580"/>
-      <c r="AE151" s="580"/>
-      <c r="AF151" s="580"/>
-      <c r="AG151" s="580"/>
-      <c r="AH151" s="580"/>
+      <c r="AB151" s="635"/>
+      <c r="AC151" s="635"/>
+      <c r="AD151" s="635"/>
+      <c r="AE151" s="635"/>
+      <c r="AF151" s="635"/>
+      <c r="AG151" s="635"/>
+      <c r="AH151" s="635"/>
     </row>
     <row r="152" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D152" s="485" t="s">
+      <c r="D152" s="512" t="s">
         <v>51</v>
       </c>
-      <c r="E152" s="486"/>
-      <c r="F152" s="486"/>
-      <c r="G152" s="486"/>
-      <c r="H152" s="486"/>
-      <c r="I152" s="486"/>
-      <c r="J152" s="487"/>
-      <c r="K152" s="571" t="s">
+      <c r="E152" s="513"/>
+      <c r="F152" s="513"/>
+      <c r="G152" s="513"/>
+      <c r="H152" s="513"/>
+      <c r="I152" s="513"/>
+      <c r="J152" s="514"/>
+      <c r="K152" s="610" t="s">
         <v>587</v>
       </c>
-      <c r="L152" s="569"/>
-      <c r="M152" s="569"/>
-      <c r="N152" s="569"/>
-      <c r="O152" s="569"/>
-      <c r="P152" s="569"/>
-      <c r="Q152" s="569"/>
-      <c r="R152" s="569"/>
-      <c r="S152" s="569"/>
-      <c r="T152" s="569"/>
-      <c r="U152" s="569"/>
-      <c r="V152" s="569"/>
-      <c r="W152" s="569"/>
-      <c r="X152" s="569"/>
-      <c r="Y152" s="569"/>
-      <c r="Z152" s="570"/>
-      <c r="AA152" s="577" t="s">
+      <c r="L152" s="611"/>
+      <c r="M152" s="611"/>
+      <c r="N152" s="611"/>
+      <c r="O152" s="611"/>
+      <c r="P152" s="611"/>
+      <c r="Q152" s="611"/>
+      <c r="R152" s="611"/>
+      <c r="S152" s="611"/>
+      <c r="T152" s="611"/>
+      <c r="U152" s="611"/>
+      <c r="V152" s="611"/>
+      <c r="W152" s="611"/>
+      <c r="X152" s="611"/>
+      <c r="Y152" s="611"/>
+      <c r="Z152" s="612"/>
+      <c r="AA152" s="618" t="s">
         <v>72</v>
       </c>
-      <c r="AB152" s="578"/>
-      <c r="AC152" s="578"/>
-      <c r="AD152" s="578"/>
-      <c r="AE152" s="578"/>
-      <c r="AF152" s="578"/>
-      <c r="AG152" s="578"/>
-      <c r="AH152" s="578"/>
+      <c r="AB152" s="617"/>
+      <c r="AC152" s="617"/>
+      <c r="AD152" s="617"/>
+      <c r="AE152" s="617"/>
+      <c r="AF152" s="617"/>
+      <c r="AG152" s="617"/>
+      <c r="AH152" s="617"/>
     </row>
     <row r="153" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D153" s="562" t="s">
+      <c r="D153" s="576" t="s">
         <v>210</v>
       </c>
-      <c r="E153" s="563"/>
-      <c r="F153" s="563"/>
-      <c r="G153" s="563"/>
-      <c r="H153" s="563"/>
-      <c r="I153" s="563"/>
-      <c r="J153" s="564"/>
-      <c r="K153" s="571" t="s">
+      <c r="E153" s="625"/>
+      <c r="F153" s="625"/>
+      <c r="G153" s="625"/>
+      <c r="H153" s="625"/>
+      <c r="I153" s="625"/>
+      <c r="J153" s="626"/>
+      <c r="K153" s="610" t="s">
         <v>588</v>
       </c>
-      <c r="L153" s="569"/>
-      <c r="M153" s="569"/>
-      <c r="N153" s="569"/>
-      <c r="O153" s="569"/>
-      <c r="P153" s="569"/>
-      <c r="Q153" s="569"/>
-      <c r="R153" s="569"/>
-      <c r="S153" s="569"/>
-      <c r="T153" s="569"/>
-      <c r="U153" s="569"/>
-      <c r="V153" s="569"/>
-      <c r="W153" s="569"/>
-      <c r="X153" s="569"/>
-      <c r="Y153" s="569"/>
-      <c r="Z153" s="570"/>
-      <c r="AA153" s="577" t="s">
+      <c r="L153" s="611"/>
+      <c r="M153" s="611"/>
+      <c r="N153" s="611"/>
+      <c r="O153" s="611"/>
+      <c r="P153" s="611"/>
+      <c r="Q153" s="611"/>
+      <c r="R153" s="611"/>
+      <c r="S153" s="611"/>
+      <c r="T153" s="611"/>
+      <c r="U153" s="611"/>
+      <c r="V153" s="611"/>
+      <c r="W153" s="611"/>
+      <c r="X153" s="611"/>
+      <c r="Y153" s="611"/>
+      <c r="Z153" s="612"/>
+      <c r="AA153" s="618" t="s">
         <v>72</v>
       </c>
-      <c r="AB153" s="578"/>
-      <c r="AC153" s="578"/>
-      <c r="AD153" s="578"/>
-      <c r="AE153" s="578"/>
-      <c r="AF153" s="578"/>
-      <c r="AG153" s="578"/>
-      <c r="AH153" s="578"/>
+      <c r="AB153" s="617"/>
+      <c r="AC153" s="617"/>
+      <c r="AD153" s="617"/>
+      <c r="AE153" s="617"/>
+      <c r="AF153" s="617"/>
+      <c r="AG153" s="617"/>
+      <c r="AH153" s="617"/>
     </row>
     <row r="154" spans="3:34" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D154" s="556" t="s">
+      <c r="D154" s="624" t="s">
         <v>221</v>
       </c>
-      <c r="E154" s="489"/>
-      <c r="F154" s="489"/>
-      <c r="G154" s="489"/>
-      <c r="H154" s="489"/>
-      <c r="I154" s="489"/>
-      <c r="J154" s="490"/>
-      <c r="K154" s="568" t="s">
+      <c r="E154" s="516"/>
+      <c r="F154" s="516"/>
+      <c r="G154" s="516"/>
+      <c r="H154" s="516"/>
+      <c r="I154" s="516"/>
+      <c r="J154" s="517"/>
+      <c r="K154" s="630" t="s">
         <v>69</v>
       </c>
-      <c r="L154" s="569"/>
-      <c r="M154" s="569"/>
-      <c r="N154" s="569"/>
-      <c r="O154" s="569"/>
-      <c r="P154" s="569"/>
-      <c r="Q154" s="569"/>
-      <c r="R154" s="569"/>
-      <c r="S154" s="569"/>
-      <c r="T154" s="569"/>
-      <c r="U154" s="569"/>
-      <c r="V154" s="569"/>
-      <c r="W154" s="569"/>
-      <c r="X154" s="569"/>
-      <c r="Y154" s="569"/>
-      <c r="Z154" s="570"/>
-      <c r="AA154" s="565" t="s">
+      <c r="L154" s="611"/>
+      <c r="M154" s="611"/>
+      <c r="N154" s="611"/>
+      <c r="O154" s="611"/>
+      <c r="P154" s="611"/>
+      <c r="Q154" s="611"/>
+      <c r="R154" s="611"/>
+      <c r="S154" s="611"/>
+      <c r="T154" s="611"/>
+      <c r="U154" s="611"/>
+      <c r="V154" s="611"/>
+      <c r="W154" s="611"/>
+      <c r="X154" s="611"/>
+      <c r="Y154" s="611"/>
+      <c r="Z154" s="612"/>
+      <c r="AA154" s="627" t="s">
         <v>222</v>
       </c>
-      <c r="AB154" s="566"/>
-      <c r="AC154" s="566"/>
-      <c r="AD154" s="566"/>
-      <c r="AE154" s="566"/>
-      <c r="AF154" s="566"/>
-      <c r="AG154" s="566"/>
-      <c r="AH154" s="567"/>
+      <c r="AB154" s="628"/>
+      <c r="AC154" s="628"/>
+      <c r="AD154" s="628"/>
+      <c r="AE154" s="628"/>
+      <c r="AF154" s="628"/>
+      <c r="AG154" s="628"/>
+      <c r="AH154" s="629"/>
     </row>
     <row r="155" spans="3:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D155" s="554"/>
-      <c r="E155" s="557" t="s">
+      <c r="D155" s="622"/>
+      <c r="E155" s="554" t="s">
         <v>224</v>
       </c>
-      <c r="F155" s="558"/>
-      <c r="G155" s="558"/>
-      <c r="H155" s="558"/>
-      <c r="I155" s="558"/>
-      <c r="J155" s="559"/>
-      <c r="K155" s="571" t="s">
+      <c r="F155" s="555"/>
+      <c r="G155" s="555"/>
+      <c r="H155" s="555"/>
+      <c r="I155" s="555"/>
+      <c r="J155" s="556"/>
+      <c r="K155" s="610" t="s">
         <v>585</v>
       </c>
-      <c r="L155" s="569"/>
-      <c r="M155" s="569"/>
-      <c r="N155" s="569"/>
-      <c r="O155" s="569"/>
-      <c r="P155" s="569"/>
-      <c r="Q155" s="569"/>
-      <c r="R155" s="569"/>
-      <c r="S155" s="569"/>
-      <c r="T155" s="569"/>
-      <c r="U155" s="569"/>
-      <c r="V155" s="569"/>
-      <c r="W155" s="569"/>
-      <c r="X155" s="569"/>
-      <c r="Y155" s="569"/>
-      <c r="Z155" s="570"/>
-      <c r="AA155" s="607" t="s">
+      <c r="L155" s="611"/>
+      <c r="M155" s="611"/>
+      <c r="N155" s="611"/>
+      <c r="O155" s="611"/>
+      <c r="P155" s="611"/>
+      <c r="Q155" s="611"/>
+      <c r="R155" s="611"/>
+      <c r="S155" s="611"/>
+      <c r="T155" s="611"/>
+      <c r="U155" s="611"/>
+      <c r="V155" s="611"/>
+      <c r="W155" s="611"/>
+      <c r="X155" s="611"/>
+      <c r="Y155" s="611"/>
+      <c r="Z155" s="612"/>
+      <c r="AA155" s="608" t="s">
         <v>226</v>
       </c>
-      <c r="AB155" s="608"/>
-      <c r="AC155" s="608"/>
-      <c r="AD155" s="608"/>
-      <c r="AE155" s="608"/>
-      <c r="AF155" s="608"/>
-      <c r="AG155" s="608"/>
-      <c r="AH155" s="608"/>
+      <c r="AB155" s="609"/>
+      <c r="AC155" s="609"/>
+      <c r="AD155" s="609"/>
+      <c r="AE155" s="609"/>
+      <c r="AF155" s="609"/>
+      <c r="AG155" s="609"/>
+      <c r="AH155" s="609"/>
     </row>
     <row r="156" spans="3:34" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D156" s="554"/>
-      <c r="E156" s="557"/>
-      <c r="F156" s="558"/>
-      <c r="G156" s="558"/>
-      <c r="H156" s="558"/>
-      <c r="I156" s="558"/>
-      <c r="J156" s="559"/>
-      <c r="K156" s="572" t="s">
+      <c r="D156" s="622"/>
+      <c r="E156" s="554"/>
+      <c r="F156" s="555"/>
+      <c r="G156" s="555"/>
+      <c r="H156" s="555"/>
+      <c r="I156" s="555"/>
+      <c r="J156" s="556"/>
+      <c r="K156" s="577" t="s">
         <v>586</v>
       </c>
-      <c r="L156" s="573"/>
-      <c r="M156" s="573"/>
-      <c r="N156" s="573"/>
-      <c r="O156" s="573"/>
-      <c r="P156" s="573"/>
-      <c r="Q156" s="573"/>
-      <c r="R156" s="573"/>
-      <c r="S156" s="573"/>
-      <c r="T156" s="573"/>
-      <c r="U156" s="573"/>
-      <c r="V156" s="573"/>
-      <c r="W156" s="573"/>
-      <c r="X156" s="573"/>
-      <c r="Y156" s="573"/>
-      <c r="Z156" s="574"/>
-      <c r="AA156" s="571" t="s">
+      <c r="L156" s="631"/>
+      <c r="M156" s="631"/>
+      <c r="N156" s="631"/>
+      <c r="O156" s="631"/>
+      <c r="P156" s="631"/>
+      <c r="Q156" s="631"/>
+      <c r="R156" s="631"/>
+      <c r="S156" s="631"/>
+      <c r="T156" s="631"/>
+      <c r="U156" s="631"/>
+      <c r="V156" s="631"/>
+      <c r="W156" s="631"/>
+      <c r="X156" s="631"/>
+      <c r="Y156" s="631"/>
+      <c r="Z156" s="579"/>
+      <c r="AA156" s="610" t="s">
         <v>194</v>
       </c>
-      <c r="AB156" s="575"/>
-      <c r="AC156" s="575"/>
-      <c r="AD156" s="575"/>
-      <c r="AE156" s="575"/>
-      <c r="AF156" s="575"/>
-      <c r="AG156" s="575"/>
-      <c r="AH156" s="576"/>
+      <c r="AB156" s="632"/>
+      <c r="AC156" s="632"/>
+      <c r="AD156" s="632"/>
+      <c r="AE156" s="632"/>
+      <c r="AF156" s="632"/>
+      <c r="AG156" s="632"/>
+      <c r="AH156" s="633"/>
     </row>
     <row r="157" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D157" s="554"/>
-      <c r="E157" s="557"/>
-      <c r="F157" s="558"/>
-      <c r="G157" s="558"/>
-      <c r="H157" s="558"/>
-      <c r="I157" s="558"/>
-      <c r="J157" s="559"/>
-      <c r="K157" s="568" t="s">
+      <c r="D157" s="622"/>
+      <c r="E157" s="554"/>
+      <c r="F157" s="555"/>
+      <c r="G157" s="555"/>
+      <c r="H157" s="555"/>
+      <c r="I157" s="555"/>
+      <c r="J157" s="556"/>
+      <c r="K157" s="630" t="s">
         <v>589</v>
       </c>
-      <c r="L157" s="569"/>
-      <c r="M157" s="569"/>
-      <c r="N157" s="569"/>
-      <c r="O157" s="569"/>
-      <c r="P157" s="569"/>
-      <c r="Q157" s="569"/>
-      <c r="R157" s="569"/>
-      <c r="S157" s="569"/>
-      <c r="T157" s="569"/>
-      <c r="U157" s="569"/>
-      <c r="V157" s="569"/>
-      <c r="W157" s="569"/>
-      <c r="X157" s="569"/>
-      <c r="Y157" s="569"/>
-      <c r="Z157" s="570"/>
-      <c r="AA157" s="577" t="s">
+      <c r="L157" s="611"/>
+      <c r="M157" s="611"/>
+      <c r="N157" s="611"/>
+      <c r="O157" s="611"/>
+      <c r="P157" s="611"/>
+      <c r="Q157" s="611"/>
+      <c r="R157" s="611"/>
+      <c r="S157" s="611"/>
+      <c r="T157" s="611"/>
+      <c r="U157" s="611"/>
+      <c r="V157" s="611"/>
+      <c r="W157" s="611"/>
+      <c r="X157" s="611"/>
+      <c r="Y157" s="611"/>
+      <c r="Z157" s="612"/>
+      <c r="AA157" s="618" t="s">
         <v>72</v>
       </c>
-      <c r="AB157" s="578"/>
-      <c r="AC157" s="578"/>
-      <c r="AD157" s="578"/>
-      <c r="AE157" s="578"/>
-      <c r="AF157" s="578"/>
-      <c r="AG157" s="578"/>
-      <c r="AH157" s="578"/>
+      <c r="AB157" s="617"/>
+      <c r="AC157" s="617"/>
+      <c r="AD157" s="617"/>
+      <c r="AE157" s="617"/>
+      <c r="AF157" s="617"/>
+      <c r="AG157" s="617"/>
+      <c r="AH157" s="617"/>
     </row>
     <row r="158" spans="3:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D158" s="555"/>
-      <c r="E158" s="557" t="s">
+      <c r="D158" s="623"/>
+      <c r="E158" s="554" t="s">
         <v>223</v>
       </c>
-      <c r="F158" s="558"/>
-      <c r="G158" s="558"/>
-      <c r="H158" s="558"/>
-      <c r="I158" s="558"/>
-      <c r="J158" s="559"/>
-      <c r="K158" s="568" t="s">
+      <c r="F158" s="555"/>
+      <c r="G158" s="555"/>
+      <c r="H158" s="555"/>
+      <c r="I158" s="555"/>
+      <c r="J158" s="556"/>
+      <c r="K158" s="630" t="s">
         <v>584</v>
       </c>
-      <c r="L158" s="569"/>
-      <c r="M158" s="569"/>
-      <c r="N158" s="569"/>
-      <c r="O158" s="569"/>
-      <c r="P158" s="569"/>
-      <c r="Q158" s="569"/>
-      <c r="R158" s="569"/>
-      <c r="S158" s="569"/>
-      <c r="T158" s="569"/>
-      <c r="U158" s="569"/>
-      <c r="V158" s="569"/>
-      <c r="W158" s="569"/>
-      <c r="X158" s="569"/>
-      <c r="Y158" s="569"/>
-      <c r="Z158" s="570"/>
-      <c r="AA158" s="578" t="s">
+      <c r="L158" s="611"/>
+      <c r="M158" s="611"/>
+      <c r="N158" s="611"/>
+      <c r="O158" s="611"/>
+      <c r="P158" s="611"/>
+      <c r="Q158" s="611"/>
+      <c r="R158" s="611"/>
+      <c r="S158" s="611"/>
+      <c r="T158" s="611"/>
+      <c r="U158" s="611"/>
+      <c r="V158" s="611"/>
+      <c r="W158" s="611"/>
+      <c r="X158" s="611"/>
+      <c r="Y158" s="611"/>
+      <c r="Z158" s="612"/>
+      <c r="AA158" s="617" t="s">
         <v>68</v>
       </c>
-      <c r="AB158" s="578"/>
-      <c r="AC158" s="578"/>
-      <c r="AD158" s="578"/>
-      <c r="AE158" s="578"/>
-      <c r="AF158" s="578"/>
-      <c r="AG158" s="578"/>
-      <c r="AH158" s="578"/>
+      <c r="AB158" s="617"/>
+      <c r="AC158" s="617"/>
+      <c r="AD158" s="617"/>
+      <c r="AE158" s="617"/>
+      <c r="AF158" s="617"/>
+      <c r="AG158" s="617"/>
+      <c r="AH158" s="617"/>
     </row>
     <row r="159" spans="3:34" s="91" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D159" s="89"/>
@@ -40267,837 +40267,837 @@
     </row>
     <row r="169" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="50"/>
-      <c r="F169" s="482" t="s">
+      <c r="F169" s="509" t="s">
         <v>590</v>
       </c>
-      <c r="G169" s="560"/>
-      <c r="H169" s="560"/>
-      <c r="I169" s="560"/>
-      <c r="J169" s="561"/>
-      <c r="K169" s="581" t="s">
+      <c r="G169" s="590"/>
+      <c r="H169" s="590"/>
+      <c r="I169" s="590"/>
+      <c r="J169" s="591"/>
+      <c r="K169" s="598" t="s">
         <v>29</v>
       </c>
-      <c r="L169" s="583"/>
-      <c r="M169" s="581" t="s">
+      <c r="L169" s="599"/>
+      <c r="M169" s="598" t="s">
         <v>44</v>
       </c>
-      <c r="N169" s="583"/>
-      <c r="O169" s="594" t="s">
+      <c r="N169" s="599"/>
+      <c r="O169" s="619" t="s">
         <v>43</v>
       </c>
-      <c r="P169" s="560"/>
-      <c r="Q169" s="560"/>
-      <c r="R169" s="560"/>
-      <c r="S169" s="560"/>
-      <c r="T169" s="560"/>
-      <c r="U169" s="560"/>
-      <c r="V169" s="560"/>
-      <c r="W169" s="560"/>
-      <c r="X169" s="560"/>
-      <c r="Y169" s="560"/>
-      <c r="Z169" s="560"/>
-      <c r="AA169" s="560"/>
-      <c r="AB169" s="560"/>
-      <c r="AC169" s="560"/>
-      <c r="AD169" s="560"/>
-      <c r="AE169" s="560"/>
-      <c r="AF169" s="560"/>
-      <c r="AG169" s="560"/>
-      <c r="AH169" s="561"/>
+      <c r="P169" s="590"/>
+      <c r="Q169" s="590"/>
+      <c r="R169" s="590"/>
+      <c r="S169" s="590"/>
+      <c r="T169" s="590"/>
+      <c r="U169" s="590"/>
+      <c r="V169" s="590"/>
+      <c r="W169" s="590"/>
+      <c r="X169" s="590"/>
+      <c r="Y169" s="590"/>
+      <c r="Z169" s="590"/>
+      <c r="AA169" s="590"/>
+      <c r="AB169" s="590"/>
+      <c r="AC169" s="590"/>
+      <c r="AD169" s="590"/>
+      <c r="AE169" s="590"/>
+      <c r="AF169" s="590"/>
+      <c r="AG169" s="590"/>
+      <c r="AH169" s="591"/>
     </row>
     <row r="170" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="50"/>
-      <c r="F170" s="562" t="s">
+      <c r="F170" s="576" t="s">
         <v>196</v>
       </c>
-      <c r="G170" s="486"/>
-      <c r="H170" s="486"/>
-      <c r="I170" s="486"/>
-      <c r="J170" s="487"/>
-      <c r="K170" s="603" t="s">
+      <c r="G170" s="513"/>
+      <c r="H170" s="513"/>
+      <c r="I170" s="513"/>
+      <c r="J170" s="514"/>
+      <c r="K170" s="592" t="s">
         <v>31</v>
       </c>
-      <c r="L170" s="529"/>
-      <c r="M170" s="599" t="s">
+      <c r="L170" s="526"/>
+      <c r="M170" s="613" t="s">
         <v>208</v>
       </c>
-      <c r="N170" s="600"/>
-      <c r="O170" s="488" t="s">
+      <c r="N170" s="614"/>
+      <c r="O170" s="515" t="s">
         <v>213</v>
       </c>
-      <c r="P170" s="595"/>
-      <c r="Q170" s="595"/>
-      <c r="R170" s="595"/>
-      <c r="S170" s="595"/>
-      <c r="T170" s="595"/>
-      <c r="U170" s="595"/>
-      <c r="V170" s="595"/>
-      <c r="W170" s="595"/>
-      <c r="X170" s="595"/>
-      <c r="Y170" s="595"/>
-      <c r="Z170" s="595"/>
-      <c r="AA170" s="595"/>
-      <c r="AB170" s="595"/>
-      <c r="AC170" s="595"/>
-      <c r="AD170" s="595"/>
-      <c r="AE170" s="595"/>
-      <c r="AF170" s="595"/>
-      <c r="AG170" s="595"/>
-      <c r="AH170" s="596"/>
+      <c r="P170" s="620"/>
+      <c r="Q170" s="620"/>
+      <c r="R170" s="620"/>
+      <c r="S170" s="620"/>
+      <c r="T170" s="620"/>
+      <c r="U170" s="620"/>
+      <c r="V170" s="620"/>
+      <c r="W170" s="620"/>
+      <c r="X170" s="620"/>
+      <c r="Y170" s="620"/>
+      <c r="Z170" s="620"/>
+      <c r="AA170" s="620"/>
+      <c r="AB170" s="620"/>
+      <c r="AC170" s="620"/>
+      <c r="AD170" s="620"/>
+      <c r="AE170" s="620"/>
+      <c r="AF170" s="620"/>
+      <c r="AG170" s="620"/>
+      <c r="AH170" s="621"/>
     </row>
     <row r="171" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="50"/>
-      <c r="F171" s="527" t="s">
+      <c r="F171" s="524" t="s">
         <v>209</v>
       </c>
-      <c r="G171" s="528"/>
-      <c r="H171" s="528"/>
-      <c r="I171" s="528"/>
-      <c r="J171" s="529"/>
-      <c r="K171" s="603" t="s">
+      <c r="G171" s="525"/>
+      <c r="H171" s="525"/>
+      <c r="I171" s="525"/>
+      <c r="J171" s="526"/>
+      <c r="K171" s="592" t="s">
         <v>45</v>
       </c>
-      <c r="L171" s="529"/>
-      <c r="M171" s="537" t="s">
+      <c r="L171" s="526"/>
+      <c r="M171" s="534" t="s">
         <v>233</v>
       </c>
-      <c r="N171" s="601"/>
-      <c r="O171" s="527" t="s">
+      <c r="N171" s="615"/>
+      <c r="O171" s="524" t="s">
         <v>212</v>
       </c>
-      <c r="P171" s="528"/>
-      <c r="Q171" s="528"/>
-      <c r="R171" s="528"/>
-      <c r="S171" s="528"/>
-      <c r="T171" s="528"/>
-      <c r="U171" s="528"/>
-      <c r="V171" s="528"/>
-      <c r="W171" s="528"/>
-      <c r="X171" s="528"/>
-      <c r="Y171" s="528"/>
-      <c r="Z171" s="528"/>
-      <c r="AA171" s="528"/>
-      <c r="AB171" s="528"/>
-      <c r="AC171" s="528"/>
-      <c r="AD171" s="528"/>
-      <c r="AE171" s="528"/>
-      <c r="AF171" s="528"/>
-      <c r="AG171" s="528"/>
-      <c r="AH171" s="529"/>
+      <c r="P171" s="525"/>
+      <c r="Q171" s="525"/>
+      <c r="R171" s="525"/>
+      <c r="S171" s="525"/>
+      <c r="T171" s="525"/>
+      <c r="U171" s="525"/>
+      <c r="V171" s="525"/>
+      <c r="W171" s="525"/>
+      <c r="X171" s="525"/>
+      <c r="Y171" s="525"/>
+      <c r="Z171" s="525"/>
+      <c r="AA171" s="525"/>
+      <c r="AB171" s="525"/>
+      <c r="AC171" s="525"/>
+      <c r="AD171" s="525"/>
+      <c r="AE171" s="525"/>
+      <c r="AF171" s="525"/>
+      <c r="AG171" s="525"/>
+      <c r="AH171" s="526"/>
     </row>
     <row r="172" spans="1:34" s="94" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="50"/>
-      <c r="F172" s="536"/>
-      <c r="G172" s="531"/>
-      <c r="H172" s="531"/>
-      <c r="I172" s="531"/>
-      <c r="J172" s="532"/>
-      <c r="K172" s="530"/>
-      <c r="L172" s="532"/>
-      <c r="M172" s="602"/>
-      <c r="N172" s="588"/>
-      <c r="O172" s="536"/>
-      <c r="P172" s="531"/>
-      <c r="Q172" s="531"/>
-      <c r="R172" s="531"/>
-      <c r="S172" s="531"/>
-      <c r="T172" s="531"/>
-      <c r="U172" s="531"/>
-      <c r="V172" s="531"/>
-      <c r="W172" s="531"/>
-      <c r="X172" s="531"/>
-      <c r="Y172" s="531"/>
-      <c r="Z172" s="531"/>
-      <c r="AA172" s="531"/>
-      <c r="AB172" s="531"/>
-      <c r="AC172" s="531"/>
-      <c r="AD172" s="531"/>
-      <c r="AE172" s="531"/>
-      <c r="AF172" s="531"/>
-      <c r="AG172" s="531"/>
-      <c r="AH172" s="532"/>
+      <c r="F172" s="533"/>
+      <c r="G172" s="528"/>
+      <c r="H172" s="528"/>
+      <c r="I172" s="528"/>
+      <c r="J172" s="529"/>
+      <c r="K172" s="527"/>
+      <c r="L172" s="529"/>
+      <c r="M172" s="616"/>
+      <c r="N172" s="595"/>
+      <c r="O172" s="533"/>
+      <c r="P172" s="528"/>
+      <c r="Q172" s="528"/>
+      <c r="R172" s="528"/>
+      <c r="S172" s="528"/>
+      <c r="T172" s="528"/>
+      <c r="U172" s="528"/>
+      <c r="V172" s="528"/>
+      <c r="W172" s="528"/>
+      <c r="X172" s="528"/>
+      <c r="Y172" s="528"/>
+      <c r="Z172" s="528"/>
+      <c r="AA172" s="528"/>
+      <c r="AB172" s="528"/>
+      <c r="AC172" s="528"/>
+      <c r="AD172" s="528"/>
+      <c r="AE172" s="528"/>
+      <c r="AF172" s="528"/>
+      <c r="AG172" s="528"/>
+      <c r="AH172" s="529"/>
     </row>
     <row r="173" spans="1:34" s="94" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="50"/>
-      <c r="F173" s="536"/>
-      <c r="G173" s="531"/>
-      <c r="H173" s="531"/>
-      <c r="I173" s="531"/>
-      <c r="J173" s="532"/>
-      <c r="K173" s="530"/>
-      <c r="L173" s="532"/>
-      <c r="M173" s="602"/>
-      <c r="N173" s="588"/>
-      <c r="O173" s="536"/>
-      <c r="P173" s="531"/>
-      <c r="Q173" s="531"/>
-      <c r="R173" s="531"/>
-      <c r="S173" s="531"/>
-      <c r="T173" s="531"/>
-      <c r="U173" s="531"/>
-      <c r="V173" s="531"/>
-      <c r="W173" s="531"/>
-      <c r="X173" s="531"/>
-      <c r="Y173" s="531"/>
-      <c r="Z173" s="531"/>
-      <c r="AA173" s="531"/>
-      <c r="AB173" s="531"/>
-      <c r="AC173" s="531"/>
-      <c r="AD173" s="531"/>
-      <c r="AE173" s="531"/>
-      <c r="AF173" s="531"/>
-      <c r="AG173" s="531"/>
-      <c r="AH173" s="532"/>
+      <c r="F173" s="533"/>
+      <c r="G173" s="528"/>
+      <c r="H173" s="528"/>
+      <c r="I173" s="528"/>
+      <c r="J173" s="529"/>
+      <c r="K173" s="527"/>
+      <c r="L173" s="529"/>
+      <c r="M173" s="616"/>
+      <c r="N173" s="595"/>
+      <c r="O173" s="533"/>
+      <c r="P173" s="528"/>
+      <c r="Q173" s="528"/>
+      <c r="R173" s="528"/>
+      <c r="S173" s="528"/>
+      <c r="T173" s="528"/>
+      <c r="U173" s="528"/>
+      <c r="V173" s="528"/>
+      <c r="W173" s="528"/>
+      <c r="X173" s="528"/>
+      <c r="Y173" s="528"/>
+      <c r="Z173" s="528"/>
+      <c r="AA173" s="528"/>
+      <c r="AB173" s="528"/>
+      <c r="AC173" s="528"/>
+      <c r="AD173" s="528"/>
+      <c r="AE173" s="528"/>
+      <c r="AF173" s="528"/>
+      <c r="AG173" s="528"/>
+      <c r="AH173" s="529"/>
     </row>
     <row r="174" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="50"/>
-      <c r="F174" s="533"/>
-      <c r="G174" s="534"/>
-      <c r="H174" s="534"/>
-      <c r="I174" s="534"/>
-      <c r="J174" s="535"/>
-      <c r="K174" s="533"/>
-      <c r="L174" s="535"/>
-      <c r="M174" s="589"/>
-      <c r="N174" s="591"/>
-      <c r="O174" s="533"/>
-      <c r="P174" s="534"/>
-      <c r="Q174" s="534"/>
-      <c r="R174" s="534"/>
-      <c r="S174" s="534"/>
-      <c r="T174" s="534"/>
-      <c r="U174" s="534"/>
-      <c r="V174" s="534"/>
-      <c r="W174" s="534"/>
-      <c r="X174" s="534"/>
-      <c r="Y174" s="534"/>
-      <c r="Z174" s="534"/>
-      <c r="AA174" s="534"/>
-      <c r="AB174" s="534"/>
-      <c r="AC174" s="534"/>
-      <c r="AD174" s="534"/>
-      <c r="AE174" s="534"/>
-      <c r="AF174" s="534"/>
-      <c r="AG174" s="534"/>
-      <c r="AH174" s="535"/>
+      <c r="F174" s="530"/>
+      <c r="G174" s="531"/>
+      <c r="H174" s="531"/>
+      <c r="I174" s="531"/>
+      <c r="J174" s="532"/>
+      <c r="K174" s="530"/>
+      <c r="L174" s="532"/>
+      <c r="M174" s="573"/>
+      <c r="N174" s="575"/>
+      <c r="O174" s="530"/>
+      <c r="P174" s="531"/>
+      <c r="Q174" s="531"/>
+      <c r="R174" s="531"/>
+      <c r="S174" s="531"/>
+      <c r="T174" s="531"/>
+      <c r="U174" s="531"/>
+      <c r="V174" s="531"/>
+      <c r="W174" s="531"/>
+      <c r="X174" s="531"/>
+      <c r="Y174" s="531"/>
+      <c r="Z174" s="531"/>
+      <c r="AA174" s="531"/>
+      <c r="AB174" s="531"/>
+      <c r="AC174" s="531"/>
+      <c r="AD174" s="531"/>
+      <c r="AE174" s="531"/>
+      <c r="AF174" s="531"/>
+      <c r="AG174" s="531"/>
+      <c r="AH174" s="532"/>
     </row>
     <row r="175" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="50"/>
-      <c r="F175" s="603" t="s">
+      <c r="F175" s="592" t="s">
         <v>46</v>
       </c>
-      <c r="G175" s="528"/>
-      <c r="H175" s="528"/>
-      <c r="I175" s="528"/>
-      <c r="J175" s="529"/>
-      <c r="K175" s="603" t="s">
+      <c r="G175" s="525"/>
+      <c r="H175" s="525"/>
+      <c r="I175" s="525"/>
+      <c r="J175" s="526"/>
+      <c r="K175" s="592" t="s">
         <v>45</v>
       </c>
-      <c r="L175" s="529"/>
-      <c r="M175" s="603" t="s">
+      <c r="L175" s="526"/>
+      <c r="M175" s="592" t="s">
         <v>47</v>
       </c>
-      <c r="N175" s="601"/>
-      <c r="O175" s="537" t="s">
+      <c r="N175" s="615"/>
+      <c r="O175" s="534" t="s">
         <v>216</v>
       </c>
-      <c r="P175" s="584"/>
-      <c r="Q175" s="584"/>
-      <c r="R175" s="584"/>
-      <c r="S175" s="584"/>
-      <c r="T175" s="584"/>
-      <c r="U175" s="584"/>
-      <c r="V175" s="584"/>
-      <c r="W175" s="584"/>
-      <c r="X175" s="584"/>
-      <c r="Y175" s="584"/>
-      <c r="Z175" s="584"/>
-      <c r="AA175" s="584"/>
-      <c r="AB175" s="584"/>
-      <c r="AC175" s="584"/>
-      <c r="AD175" s="584"/>
-      <c r="AE175" s="584"/>
-      <c r="AF175" s="584"/>
-      <c r="AG175" s="584"/>
-      <c r="AH175" s="585"/>
+      <c r="P175" s="571"/>
+      <c r="Q175" s="571"/>
+      <c r="R175" s="571"/>
+      <c r="S175" s="571"/>
+      <c r="T175" s="571"/>
+      <c r="U175" s="571"/>
+      <c r="V175" s="571"/>
+      <c r="W175" s="571"/>
+      <c r="X175" s="571"/>
+      <c r="Y175" s="571"/>
+      <c r="Z175" s="571"/>
+      <c r="AA175" s="571"/>
+      <c r="AB175" s="571"/>
+      <c r="AC175" s="571"/>
+      <c r="AD175" s="571"/>
+      <c r="AE175" s="571"/>
+      <c r="AF175" s="571"/>
+      <c r="AG175" s="571"/>
+      <c r="AH175" s="572"/>
     </row>
     <row r="176" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="50"/>
-      <c r="F176" s="527" t="s">
+      <c r="F176" s="524" t="s">
         <v>197</v>
       </c>
-      <c r="G176" s="528"/>
-      <c r="H176" s="528"/>
-      <c r="I176" s="528"/>
-      <c r="J176" s="529"/>
-      <c r="K176" s="603" t="s">
+      <c r="G176" s="525"/>
+      <c r="H176" s="525"/>
+      <c r="I176" s="525"/>
+      <c r="J176" s="526"/>
+      <c r="K176" s="592" t="s">
         <v>45</v>
       </c>
-      <c r="L176" s="529"/>
-      <c r="M176" s="603" t="s">
+      <c r="L176" s="526"/>
+      <c r="M176" s="592" t="s">
         <v>73</v>
       </c>
-      <c r="N176" s="601"/>
-      <c r="O176" s="537" t="s">
+      <c r="N176" s="615"/>
+      <c r="O176" s="534" t="s">
         <v>217</v>
       </c>
-      <c r="P176" s="584"/>
-      <c r="Q176" s="584"/>
-      <c r="R176" s="584"/>
-      <c r="S176" s="584"/>
-      <c r="T176" s="584"/>
-      <c r="U176" s="584"/>
-      <c r="V176" s="584"/>
-      <c r="W176" s="584"/>
-      <c r="X176" s="584"/>
-      <c r="Y176" s="584"/>
-      <c r="Z176" s="584"/>
-      <c r="AA176" s="584"/>
-      <c r="AB176" s="584"/>
-      <c r="AC176" s="584"/>
-      <c r="AD176" s="584"/>
-      <c r="AE176" s="584"/>
-      <c r="AF176" s="584"/>
-      <c r="AG176" s="584"/>
-      <c r="AH176" s="585"/>
+      <c r="P176" s="571"/>
+      <c r="Q176" s="571"/>
+      <c r="R176" s="571"/>
+      <c r="S176" s="571"/>
+      <c r="T176" s="571"/>
+      <c r="U176" s="571"/>
+      <c r="V176" s="571"/>
+      <c r="W176" s="571"/>
+      <c r="X176" s="571"/>
+      <c r="Y176" s="571"/>
+      <c r="Z176" s="571"/>
+      <c r="AA176" s="571"/>
+      <c r="AB176" s="571"/>
+      <c r="AC176" s="571"/>
+      <c r="AD176" s="571"/>
+      <c r="AE176" s="571"/>
+      <c r="AF176" s="571"/>
+      <c r="AG176" s="571"/>
+      <c r="AH176" s="572"/>
     </row>
     <row r="177" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="50"/>
-      <c r="F177" s="586"/>
-      <c r="G177" s="587"/>
-      <c r="H177" s="587"/>
-      <c r="I177" s="587"/>
-      <c r="J177" s="588"/>
-      <c r="K177" s="530"/>
-      <c r="L177" s="532"/>
-      <c r="M177" s="586"/>
-      <c r="N177" s="588"/>
-      <c r="O177" s="586"/>
-      <c r="P177" s="587"/>
-      <c r="Q177" s="587"/>
-      <c r="R177" s="587"/>
-      <c r="S177" s="587"/>
-      <c r="T177" s="587"/>
-      <c r="U177" s="587"/>
-      <c r="V177" s="587"/>
-      <c r="W177" s="587"/>
-      <c r="X177" s="587"/>
-      <c r="Y177" s="587"/>
-      <c r="Z177" s="587"/>
-      <c r="AA177" s="587"/>
-      <c r="AB177" s="587"/>
-      <c r="AC177" s="587"/>
-      <c r="AD177" s="587"/>
-      <c r="AE177" s="587"/>
-      <c r="AF177" s="587"/>
-      <c r="AG177" s="587"/>
-      <c r="AH177" s="588"/>
+      <c r="F177" s="593"/>
+      <c r="G177" s="594"/>
+      <c r="H177" s="594"/>
+      <c r="I177" s="594"/>
+      <c r="J177" s="595"/>
+      <c r="K177" s="527"/>
+      <c r="L177" s="529"/>
+      <c r="M177" s="593"/>
+      <c r="N177" s="595"/>
+      <c r="O177" s="593"/>
+      <c r="P177" s="594"/>
+      <c r="Q177" s="594"/>
+      <c r="R177" s="594"/>
+      <c r="S177" s="594"/>
+      <c r="T177" s="594"/>
+      <c r="U177" s="594"/>
+      <c r="V177" s="594"/>
+      <c r="W177" s="594"/>
+      <c r="X177" s="594"/>
+      <c r="Y177" s="594"/>
+      <c r="Z177" s="594"/>
+      <c r="AA177" s="594"/>
+      <c r="AB177" s="594"/>
+      <c r="AC177" s="594"/>
+      <c r="AD177" s="594"/>
+      <c r="AE177" s="594"/>
+      <c r="AF177" s="594"/>
+      <c r="AG177" s="594"/>
+      <c r="AH177" s="595"/>
     </row>
     <row r="178" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="50"/>
-      <c r="F178" s="586"/>
-      <c r="G178" s="587"/>
-      <c r="H178" s="587"/>
-      <c r="I178" s="587"/>
-      <c r="J178" s="588"/>
-      <c r="K178" s="530"/>
-      <c r="L178" s="532"/>
-      <c r="M178" s="586"/>
-      <c r="N178" s="588"/>
-      <c r="O178" s="586"/>
-      <c r="P178" s="587"/>
-      <c r="Q178" s="587"/>
-      <c r="R178" s="587"/>
-      <c r="S178" s="587"/>
-      <c r="T178" s="587"/>
-      <c r="U178" s="587"/>
-      <c r="V178" s="587"/>
-      <c r="W178" s="587"/>
-      <c r="X178" s="587"/>
-      <c r="Y178" s="587"/>
-      <c r="Z178" s="587"/>
-      <c r="AA178" s="587"/>
-      <c r="AB178" s="587"/>
-      <c r="AC178" s="587"/>
-      <c r="AD178" s="587"/>
-      <c r="AE178" s="587"/>
-      <c r="AF178" s="587"/>
-      <c r="AG178" s="587"/>
-      <c r="AH178" s="588"/>
+      <c r="F178" s="593"/>
+      <c r="G178" s="594"/>
+      <c r="H178" s="594"/>
+      <c r="I178" s="594"/>
+      <c r="J178" s="595"/>
+      <c r="K178" s="527"/>
+      <c r="L178" s="529"/>
+      <c r="M178" s="593"/>
+      <c r="N178" s="595"/>
+      <c r="O178" s="593"/>
+      <c r="P178" s="594"/>
+      <c r="Q178" s="594"/>
+      <c r="R178" s="594"/>
+      <c r="S178" s="594"/>
+      <c r="T178" s="594"/>
+      <c r="U178" s="594"/>
+      <c r="V178" s="594"/>
+      <c r="W178" s="594"/>
+      <c r="X178" s="594"/>
+      <c r="Y178" s="594"/>
+      <c r="Z178" s="594"/>
+      <c r="AA178" s="594"/>
+      <c r="AB178" s="594"/>
+      <c r="AC178" s="594"/>
+      <c r="AD178" s="594"/>
+      <c r="AE178" s="594"/>
+      <c r="AF178" s="594"/>
+      <c r="AG178" s="594"/>
+      <c r="AH178" s="595"/>
     </row>
     <row r="179" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="50"/>
-      <c r="F179" s="589"/>
-      <c r="G179" s="590"/>
-      <c r="H179" s="590"/>
-      <c r="I179" s="590"/>
-      <c r="J179" s="591"/>
-      <c r="K179" s="533"/>
-      <c r="L179" s="535"/>
-      <c r="M179" s="589"/>
-      <c r="N179" s="591"/>
-      <c r="O179" s="589"/>
-      <c r="P179" s="590"/>
-      <c r="Q179" s="590"/>
-      <c r="R179" s="590"/>
-      <c r="S179" s="590"/>
-      <c r="T179" s="590"/>
-      <c r="U179" s="590"/>
-      <c r="V179" s="590"/>
-      <c r="W179" s="590"/>
-      <c r="X179" s="590"/>
-      <c r="Y179" s="590"/>
-      <c r="Z179" s="590"/>
-      <c r="AA179" s="590"/>
-      <c r="AB179" s="590"/>
-      <c r="AC179" s="590"/>
-      <c r="AD179" s="590"/>
-      <c r="AE179" s="590"/>
-      <c r="AF179" s="590"/>
-      <c r="AG179" s="590"/>
-      <c r="AH179" s="591"/>
+      <c r="F179" s="573"/>
+      <c r="G179" s="574"/>
+      <c r="H179" s="574"/>
+      <c r="I179" s="574"/>
+      <c r="J179" s="575"/>
+      <c r="K179" s="530"/>
+      <c r="L179" s="532"/>
+      <c r="M179" s="573"/>
+      <c r="N179" s="575"/>
+      <c r="O179" s="573"/>
+      <c r="P179" s="574"/>
+      <c r="Q179" s="574"/>
+      <c r="R179" s="574"/>
+      <c r="S179" s="574"/>
+      <c r="T179" s="574"/>
+      <c r="U179" s="574"/>
+      <c r="V179" s="574"/>
+      <c r="W179" s="574"/>
+      <c r="X179" s="574"/>
+      <c r="Y179" s="574"/>
+      <c r="Z179" s="574"/>
+      <c r="AA179" s="574"/>
+      <c r="AB179" s="574"/>
+      <c r="AC179" s="574"/>
+      <c r="AD179" s="574"/>
+      <c r="AE179" s="574"/>
+      <c r="AF179" s="574"/>
+      <c r="AG179" s="574"/>
+      <c r="AH179" s="575"/>
     </row>
     <row r="180" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="50"/>
-      <c r="F180" s="603" t="s">
+      <c r="F180" s="592" t="s">
         <v>37</v>
       </c>
-      <c r="G180" s="528"/>
-      <c r="H180" s="528"/>
-      <c r="I180" s="528"/>
-      <c r="J180" s="529"/>
-      <c r="K180" s="603" t="s">
+      <c r="G180" s="525"/>
+      <c r="H180" s="525"/>
+      <c r="I180" s="525"/>
+      <c r="J180" s="526"/>
+      <c r="K180" s="592" t="s">
         <v>34</v>
       </c>
-      <c r="L180" s="529"/>
-      <c r="M180" s="603" t="s">
+      <c r="L180" s="526"/>
+      <c r="M180" s="592" t="s">
         <v>47</v>
       </c>
-      <c r="N180" s="601"/>
-      <c r="O180" s="537" t="s">
+      <c r="N180" s="615"/>
+      <c r="O180" s="534" t="s">
         <v>356</v>
       </c>
-      <c r="P180" s="584"/>
-      <c r="Q180" s="584"/>
-      <c r="R180" s="584"/>
-      <c r="S180" s="584"/>
-      <c r="T180" s="584"/>
-      <c r="U180" s="584"/>
-      <c r="V180" s="584"/>
-      <c r="W180" s="584"/>
-      <c r="X180" s="584"/>
-      <c r="Y180" s="584"/>
-      <c r="Z180" s="584"/>
-      <c r="AA180" s="584"/>
-      <c r="AB180" s="584"/>
-      <c r="AC180" s="584"/>
-      <c r="AD180" s="584"/>
-      <c r="AE180" s="584"/>
-      <c r="AF180" s="584"/>
-      <c r="AG180" s="584"/>
-      <c r="AH180" s="585"/>
+      <c r="P180" s="571"/>
+      <c r="Q180" s="571"/>
+      <c r="R180" s="571"/>
+      <c r="S180" s="571"/>
+      <c r="T180" s="571"/>
+      <c r="U180" s="571"/>
+      <c r="V180" s="571"/>
+      <c r="W180" s="571"/>
+      <c r="X180" s="571"/>
+      <c r="Y180" s="571"/>
+      <c r="Z180" s="571"/>
+      <c r="AA180" s="571"/>
+      <c r="AB180" s="571"/>
+      <c r="AC180" s="571"/>
+      <c r="AD180" s="571"/>
+      <c r="AE180" s="571"/>
+      <c r="AF180" s="571"/>
+      <c r="AG180" s="571"/>
+      <c r="AH180" s="572"/>
     </row>
     <row r="181" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="50"/>
-      <c r="F181" s="589"/>
-      <c r="G181" s="590"/>
-      <c r="H181" s="590"/>
-      <c r="I181" s="590"/>
-      <c r="J181" s="591"/>
-      <c r="K181" s="533"/>
-      <c r="L181" s="535"/>
-      <c r="M181" s="589"/>
-      <c r="N181" s="591"/>
-      <c r="O181" s="589"/>
-      <c r="P181" s="590"/>
-      <c r="Q181" s="590"/>
-      <c r="R181" s="590"/>
-      <c r="S181" s="590"/>
-      <c r="T181" s="590"/>
-      <c r="U181" s="590"/>
-      <c r="V181" s="590"/>
-      <c r="W181" s="590"/>
-      <c r="X181" s="590"/>
-      <c r="Y181" s="590"/>
-      <c r="Z181" s="590"/>
-      <c r="AA181" s="590"/>
-      <c r="AB181" s="590"/>
-      <c r="AC181" s="590"/>
-      <c r="AD181" s="590"/>
-      <c r="AE181" s="590"/>
-      <c r="AF181" s="590"/>
-      <c r="AG181" s="590"/>
-      <c r="AH181" s="591"/>
+      <c r="F181" s="573"/>
+      <c r="G181" s="574"/>
+      <c r="H181" s="574"/>
+      <c r="I181" s="574"/>
+      <c r="J181" s="575"/>
+      <c r="K181" s="530"/>
+      <c r="L181" s="532"/>
+      <c r="M181" s="573"/>
+      <c r="N181" s="575"/>
+      <c r="O181" s="573"/>
+      <c r="P181" s="574"/>
+      <c r="Q181" s="574"/>
+      <c r="R181" s="574"/>
+      <c r="S181" s="574"/>
+      <c r="T181" s="574"/>
+      <c r="U181" s="574"/>
+      <c r="V181" s="574"/>
+      <c r="W181" s="574"/>
+      <c r="X181" s="574"/>
+      <c r="Y181" s="574"/>
+      <c r="Z181" s="574"/>
+      <c r="AA181" s="574"/>
+      <c r="AB181" s="574"/>
+      <c r="AC181" s="574"/>
+      <c r="AD181" s="574"/>
+      <c r="AE181" s="574"/>
+      <c r="AF181" s="574"/>
+      <c r="AG181" s="574"/>
+      <c r="AH181" s="575"/>
     </row>
     <row r="182" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="50"/>
-      <c r="F182" s="603" t="s">
+      <c r="F182" s="592" t="s">
         <v>38</v>
       </c>
-      <c r="G182" s="528"/>
-      <c r="H182" s="528"/>
-      <c r="I182" s="528"/>
-      <c r="J182" s="529"/>
-      <c r="K182" s="603" t="s">
+      <c r="G182" s="525"/>
+      <c r="H182" s="525"/>
+      <c r="I182" s="525"/>
+      <c r="J182" s="526"/>
+      <c r="K182" s="592" t="s">
         <v>34</v>
       </c>
-      <c r="L182" s="529"/>
-      <c r="M182" s="603" t="s">
+      <c r="L182" s="526"/>
+      <c r="M182" s="592" t="s">
         <v>76</v>
       </c>
-      <c r="N182" s="601"/>
-      <c r="O182" s="537" t="s">
+      <c r="N182" s="615"/>
+      <c r="O182" s="534" t="s">
         <v>355</v>
       </c>
-      <c r="P182" s="584"/>
-      <c r="Q182" s="584"/>
-      <c r="R182" s="584"/>
-      <c r="S182" s="584"/>
-      <c r="T182" s="584"/>
-      <c r="U182" s="584"/>
-      <c r="V182" s="584"/>
-      <c r="W182" s="584"/>
-      <c r="X182" s="584"/>
-      <c r="Y182" s="584"/>
-      <c r="Z182" s="584"/>
-      <c r="AA182" s="584"/>
-      <c r="AB182" s="584"/>
-      <c r="AC182" s="584"/>
-      <c r="AD182" s="584"/>
-      <c r="AE182" s="584"/>
-      <c r="AF182" s="584"/>
-      <c r="AG182" s="584"/>
-      <c r="AH182" s="585"/>
+      <c r="P182" s="571"/>
+      <c r="Q182" s="571"/>
+      <c r="R182" s="571"/>
+      <c r="S182" s="571"/>
+      <c r="T182" s="571"/>
+      <c r="U182" s="571"/>
+      <c r="V182" s="571"/>
+      <c r="W182" s="571"/>
+      <c r="X182" s="571"/>
+      <c r="Y182" s="571"/>
+      <c r="Z182" s="571"/>
+      <c r="AA182" s="571"/>
+      <c r="AB182" s="571"/>
+      <c r="AC182" s="571"/>
+      <c r="AD182" s="571"/>
+      <c r="AE182" s="571"/>
+      <c r="AF182" s="571"/>
+      <c r="AG182" s="571"/>
+      <c r="AH182" s="572"/>
     </row>
     <row r="183" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="50"/>
-      <c r="F183" s="589"/>
-      <c r="G183" s="590"/>
-      <c r="H183" s="590"/>
-      <c r="I183" s="590"/>
-      <c r="J183" s="591"/>
-      <c r="K183" s="533"/>
-      <c r="L183" s="535"/>
-      <c r="M183" s="589"/>
-      <c r="N183" s="591"/>
-      <c r="O183" s="589"/>
-      <c r="P183" s="590"/>
-      <c r="Q183" s="590"/>
-      <c r="R183" s="590"/>
-      <c r="S183" s="590"/>
-      <c r="T183" s="590"/>
-      <c r="U183" s="590"/>
-      <c r="V183" s="590"/>
-      <c r="W183" s="590"/>
-      <c r="X183" s="590"/>
-      <c r="Y183" s="590"/>
-      <c r="Z183" s="590"/>
-      <c r="AA183" s="590"/>
-      <c r="AB183" s="590"/>
-      <c r="AC183" s="590"/>
-      <c r="AD183" s="590"/>
-      <c r="AE183" s="590"/>
-      <c r="AF183" s="590"/>
-      <c r="AG183" s="590"/>
-      <c r="AH183" s="591"/>
+      <c r="F183" s="573"/>
+      <c r="G183" s="574"/>
+      <c r="H183" s="574"/>
+      <c r="I183" s="574"/>
+      <c r="J183" s="575"/>
+      <c r="K183" s="530"/>
+      <c r="L183" s="532"/>
+      <c r="M183" s="573"/>
+      <c r="N183" s="575"/>
+      <c r="O183" s="573"/>
+      <c r="P183" s="574"/>
+      <c r="Q183" s="574"/>
+      <c r="R183" s="574"/>
+      <c r="S183" s="574"/>
+      <c r="T183" s="574"/>
+      <c r="U183" s="574"/>
+      <c r="V183" s="574"/>
+      <c r="W183" s="574"/>
+      <c r="X183" s="574"/>
+      <c r="Y183" s="574"/>
+      <c r="Z183" s="574"/>
+      <c r="AA183" s="574"/>
+      <c r="AB183" s="574"/>
+      <c r="AC183" s="574"/>
+      <c r="AD183" s="574"/>
+      <c r="AE183" s="574"/>
+      <c r="AF183" s="574"/>
+      <c r="AG183" s="574"/>
+      <c r="AH183" s="575"/>
     </row>
     <row r="184" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="50"/>
-      <c r="F184" s="603" t="s">
+      <c r="F184" s="592" t="s">
         <v>118</v>
       </c>
-      <c r="G184" s="528"/>
-      <c r="H184" s="528"/>
-      <c r="I184" s="528"/>
-      <c r="J184" s="529"/>
-      <c r="K184" s="603" t="s">
+      <c r="G184" s="525"/>
+      <c r="H184" s="525"/>
+      <c r="I184" s="525"/>
+      <c r="J184" s="526"/>
+      <c r="K184" s="592" t="s">
         <v>45</v>
       </c>
-      <c r="L184" s="529"/>
-      <c r="M184" s="603" t="s">
+      <c r="L184" s="526"/>
+      <c r="M184" s="592" t="s">
         <v>69</v>
       </c>
-      <c r="N184" s="601"/>
-      <c r="O184" s="527" t="s">
+      <c r="N184" s="615"/>
+      <c r="O184" s="524" t="s">
         <v>214</v>
       </c>
-      <c r="P184" s="528"/>
-      <c r="Q184" s="528"/>
-      <c r="R184" s="528"/>
-      <c r="S184" s="528"/>
-      <c r="T184" s="528"/>
-      <c r="U184" s="528"/>
-      <c r="V184" s="528"/>
-      <c r="W184" s="528"/>
-      <c r="X184" s="528"/>
-      <c r="Y184" s="528"/>
-      <c r="Z184" s="528"/>
-      <c r="AA184" s="528"/>
-      <c r="AB184" s="528"/>
-      <c r="AC184" s="528"/>
-      <c r="AD184" s="528"/>
-      <c r="AE184" s="528"/>
-      <c r="AF184" s="528"/>
-      <c r="AG184" s="528"/>
-      <c r="AH184" s="529"/>
+      <c r="P184" s="525"/>
+      <c r="Q184" s="525"/>
+      <c r="R184" s="525"/>
+      <c r="S184" s="525"/>
+      <c r="T184" s="525"/>
+      <c r="U184" s="525"/>
+      <c r="V184" s="525"/>
+      <c r="W184" s="525"/>
+      <c r="X184" s="525"/>
+      <c r="Y184" s="525"/>
+      <c r="Z184" s="525"/>
+      <c r="AA184" s="525"/>
+      <c r="AB184" s="525"/>
+      <c r="AC184" s="525"/>
+      <c r="AD184" s="525"/>
+      <c r="AE184" s="525"/>
+      <c r="AF184" s="525"/>
+      <c r="AG184" s="525"/>
+      <c r="AH184" s="526"/>
     </row>
     <row r="185" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="50"/>
-      <c r="F185" s="589"/>
-      <c r="G185" s="590"/>
-      <c r="H185" s="590"/>
-      <c r="I185" s="590"/>
-      <c r="J185" s="591"/>
-      <c r="K185" s="533"/>
-      <c r="L185" s="535"/>
-      <c r="M185" s="589"/>
-      <c r="N185" s="591"/>
-      <c r="O185" s="589"/>
-      <c r="P185" s="590"/>
-      <c r="Q185" s="590"/>
-      <c r="R185" s="590"/>
-      <c r="S185" s="590"/>
-      <c r="T185" s="590"/>
-      <c r="U185" s="590"/>
-      <c r="V185" s="590"/>
-      <c r="W185" s="590"/>
-      <c r="X185" s="590"/>
-      <c r="Y185" s="590"/>
-      <c r="Z185" s="590"/>
-      <c r="AA185" s="590"/>
-      <c r="AB185" s="590"/>
-      <c r="AC185" s="590"/>
-      <c r="AD185" s="590"/>
-      <c r="AE185" s="590"/>
-      <c r="AF185" s="590"/>
-      <c r="AG185" s="590"/>
-      <c r="AH185" s="591"/>
+      <c r="F185" s="573"/>
+      <c r="G185" s="574"/>
+      <c r="H185" s="574"/>
+      <c r="I185" s="574"/>
+      <c r="J185" s="575"/>
+      <c r="K185" s="530"/>
+      <c r="L185" s="532"/>
+      <c r="M185" s="573"/>
+      <c r="N185" s="575"/>
+      <c r="O185" s="573"/>
+      <c r="P185" s="574"/>
+      <c r="Q185" s="574"/>
+      <c r="R185" s="574"/>
+      <c r="S185" s="574"/>
+      <c r="T185" s="574"/>
+      <c r="U185" s="574"/>
+      <c r="V185" s="574"/>
+      <c r="W185" s="574"/>
+      <c r="X185" s="574"/>
+      <c r="Y185" s="574"/>
+      <c r="Z185" s="574"/>
+      <c r="AA185" s="574"/>
+      <c r="AB185" s="574"/>
+      <c r="AC185" s="574"/>
+      <c r="AD185" s="574"/>
+      <c r="AE185" s="574"/>
+      <c r="AF185" s="574"/>
+      <c r="AG185" s="574"/>
+      <c r="AH185" s="575"/>
     </row>
     <row r="186" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="50"/>
-      <c r="F186" s="562" t="s">
+      <c r="F186" s="576" t="s">
         <v>119</v>
       </c>
-      <c r="G186" s="486"/>
-      <c r="H186" s="486"/>
-      <c r="I186" s="486"/>
-      <c r="J186" s="487"/>
-      <c r="K186" s="592" t="s">
+      <c r="G186" s="513"/>
+      <c r="H186" s="513"/>
+      <c r="I186" s="513"/>
+      <c r="J186" s="514"/>
+      <c r="K186" s="596" t="s">
         <v>45</v>
       </c>
-      <c r="L186" s="593"/>
-      <c r="M186" s="592" t="s">
+      <c r="L186" s="597"/>
+      <c r="M186" s="596" t="s">
         <v>69</v>
       </c>
-      <c r="N186" s="600"/>
-      <c r="O186" s="562" t="s">
+      <c r="N186" s="614"/>
+      <c r="O186" s="576" t="s">
         <v>215</v>
       </c>
-      <c r="P186" s="486"/>
-      <c r="Q186" s="486"/>
-      <c r="R186" s="486"/>
-      <c r="S186" s="486"/>
-      <c r="T186" s="486"/>
-      <c r="U186" s="486"/>
-      <c r="V186" s="486"/>
-      <c r="W186" s="486"/>
-      <c r="X186" s="486"/>
-      <c r="Y186" s="486"/>
-      <c r="Z186" s="486"/>
-      <c r="AA186" s="486"/>
-      <c r="AB186" s="486"/>
-      <c r="AC186" s="486"/>
-      <c r="AD186" s="486"/>
-      <c r="AE186" s="486"/>
-      <c r="AF186" s="486"/>
-      <c r="AG186" s="486"/>
-      <c r="AH186" s="487"/>
+      <c r="P186" s="513"/>
+      <c r="Q186" s="513"/>
+      <c r="R186" s="513"/>
+      <c r="S186" s="513"/>
+      <c r="T186" s="513"/>
+      <c r="U186" s="513"/>
+      <c r="V186" s="513"/>
+      <c r="W186" s="513"/>
+      <c r="X186" s="513"/>
+      <c r="Y186" s="513"/>
+      <c r="Z186" s="513"/>
+      <c r="AA186" s="513"/>
+      <c r="AB186" s="513"/>
+      <c r="AC186" s="513"/>
+      <c r="AD186" s="513"/>
+      <c r="AE186" s="513"/>
+      <c r="AF186" s="513"/>
+      <c r="AG186" s="513"/>
+      <c r="AH186" s="514"/>
     </row>
     <row r="187" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="50"/>
-      <c r="F187" s="603" t="s">
+      <c r="F187" s="592" t="s">
         <v>48</v>
       </c>
-      <c r="G187" s="528"/>
-      <c r="H187" s="528"/>
-      <c r="I187" s="528"/>
-      <c r="J187" s="529"/>
-      <c r="K187" s="603" t="s">
+      <c r="G187" s="525"/>
+      <c r="H187" s="525"/>
+      <c r="I187" s="525"/>
+      <c r="J187" s="526"/>
+      <c r="K187" s="592" t="s">
         <v>45</v>
       </c>
-      <c r="L187" s="529"/>
-      <c r="M187" s="603" t="s">
+      <c r="L187" s="526"/>
+      <c r="M187" s="592" t="s">
         <v>74</v>
       </c>
-      <c r="N187" s="601"/>
-      <c r="O187" s="527" t="s">
+      <c r="N187" s="615"/>
+      <c r="O187" s="524" t="s">
         <v>354</v>
       </c>
-      <c r="P187" s="584"/>
-      <c r="Q187" s="584"/>
-      <c r="R187" s="584"/>
-      <c r="S187" s="584"/>
-      <c r="T187" s="584"/>
-      <c r="U187" s="584"/>
-      <c r="V187" s="584"/>
-      <c r="W187" s="584"/>
-      <c r="X187" s="584"/>
-      <c r="Y187" s="584"/>
-      <c r="Z187" s="584"/>
-      <c r="AA187" s="584"/>
-      <c r="AB187" s="584"/>
-      <c r="AC187" s="584"/>
-      <c r="AD187" s="584"/>
-      <c r="AE187" s="584"/>
-      <c r="AF187" s="584"/>
-      <c r="AG187" s="584"/>
-      <c r="AH187" s="585"/>
+      <c r="P187" s="571"/>
+      <c r="Q187" s="571"/>
+      <c r="R187" s="571"/>
+      <c r="S187" s="571"/>
+      <c r="T187" s="571"/>
+      <c r="U187" s="571"/>
+      <c r="V187" s="571"/>
+      <c r="W187" s="571"/>
+      <c r="X187" s="571"/>
+      <c r="Y187" s="571"/>
+      <c r="Z187" s="571"/>
+      <c r="AA187" s="571"/>
+      <c r="AB187" s="571"/>
+      <c r="AC187" s="571"/>
+      <c r="AD187" s="571"/>
+      <c r="AE187" s="571"/>
+      <c r="AF187" s="571"/>
+      <c r="AG187" s="571"/>
+      <c r="AH187" s="572"/>
     </row>
     <row r="188" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="50"/>
-      <c r="F188" s="589"/>
-      <c r="G188" s="590"/>
-      <c r="H188" s="590"/>
-      <c r="I188" s="590"/>
-      <c r="J188" s="591"/>
-      <c r="K188" s="533"/>
-      <c r="L188" s="535"/>
-      <c r="M188" s="589"/>
-      <c r="N188" s="591"/>
-      <c r="O188" s="589"/>
-      <c r="P188" s="590"/>
-      <c r="Q188" s="590"/>
-      <c r="R188" s="590"/>
-      <c r="S188" s="590"/>
-      <c r="T188" s="590"/>
-      <c r="U188" s="590"/>
-      <c r="V188" s="590"/>
-      <c r="W188" s="590"/>
-      <c r="X188" s="590"/>
-      <c r="Y188" s="590"/>
-      <c r="Z188" s="590"/>
-      <c r="AA188" s="590"/>
-      <c r="AB188" s="590"/>
-      <c r="AC188" s="590"/>
-      <c r="AD188" s="590"/>
-      <c r="AE188" s="590"/>
-      <c r="AF188" s="590"/>
-      <c r="AG188" s="590"/>
-      <c r="AH188" s="591"/>
+      <c r="F188" s="573"/>
+      <c r="G188" s="574"/>
+      <c r="H188" s="574"/>
+      <c r="I188" s="574"/>
+      <c r="J188" s="575"/>
+      <c r="K188" s="530"/>
+      <c r="L188" s="532"/>
+      <c r="M188" s="573"/>
+      <c r="N188" s="575"/>
+      <c r="O188" s="573"/>
+      <c r="P188" s="574"/>
+      <c r="Q188" s="574"/>
+      <c r="R188" s="574"/>
+      <c r="S188" s="574"/>
+      <c r="T188" s="574"/>
+      <c r="U188" s="574"/>
+      <c r="V188" s="574"/>
+      <c r="W188" s="574"/>
+      <c r="X188" s="574"/>
+      <c r="Y188" s="574"/>
+      <c r="Z188" s="574"/>
+      <c r="AA188" s="574"/>
+      <c r="AB188" s="574"/>
+      <c r="AC188" s="574"/>
+      <c r="AD188" s="574"/>
+      <c r="AE188" s="574"/>
+      <c r="AF188" s="574"/>
+      <c r="AG188" s="574"/>
+      <c r="AH188" s="575"/>
     </row>
     <row r="189" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="50"/>
-      <c r="F189" s="485" t="s">
+      <c r="F189" s="512" t="s">
         <v>41</v>
       </c>
-      <c r="G189" s="486"/>
-      <c r="H189" s="486"/>
-      <c r="I189" s="486"/>
-      <c r="J189" s="487"/>
-      <c r="K189" s="592" t="s">
+      <c r="G189" s="513"/>
+      <c r="H189" s="513"/>
+      <c r="I189" s="513"/>
+      <c r="J189" s="514"/>
+      <c r="K189" s="596" t="s">
         <v>45</v>
       </c>
-      <c r="L189" s="593"/>
-      <c r="M189" s="592" t="s">
+      <c r="L189" s="597"/>
+      <c r="M189" s="596" t="s">
         <v>73</v>
       </c>
-      <c r="N189" s="600"/>
-      <c r="O189" s="562" t="s">
+      <c r="N189" s="614"/>
+      <c r="O189" s="576" t="s">
         <v>215</v>
       </c>
-      <c r="P189" s="486"/>
-      <c r="Q189" s="486"/>
-      <c r="R189" s="486"/>
-      <c r="S189" s="486"/>
-      <c r="T189" s="486"/>
-      <c r="U189" s="486"/>
-      <c r="V189" s="486"/>
-      <c r="W189" s="486"/>
-      <c r="X189" s="486"/>
-      <c r="Y189" s="486"/>
-      <c r="Z189" s="486"/>
-      <c r="AA189" s="486"/>
-      <c r="AB189" s="486"/>
-      <c r="AC189" s="486"/>
-      <c r="AD189" s="486"/>
-      <c r="AE189" s="486"/>
-      <c r="AF189" s="486"/>
-      <c r="AG189" s="486"/>
-      <c r="AH189" s="487"/>
+      <c r="P189" s="513"/>
+      <c r="Q189" s="513"/>
+      <c r="R189" s="513"/>
+      <c r="S189" s="513"/>
+      <c r="T189" s="513"/>
+      <c r="U189" s="513"/>
+      <c r="V189" s="513"/>
+      <c r="W189" s="513"/>
+      <c r="X189" s="513"/>
+      <c r="Y189" s="513"/>
+      <c r="Z189" s="513"/>
+      <c r="AA189" s="513"/>
+      <c r="AB189" s="513"/>
+      <c r="AC189" s="513"/>
+      <c r="AD189" s="513"/>
+      <c r="AE189" s="513"/>
+      <c r="AF189" s="513"/>
+      <c r="AG189" s="513"/>
+      <c r="AH189" s="514"/>
     </row>
     <row r="190" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="50"/>
       <c r="E190" s="80"/>
-      <c r="F190" s="537" t="s">
+      <c r="F190" s="534" t="s">
         <v>189</v>
       </c>
-      <c r="G190" s="584"/>
-      <c r="H190" s="584"/>
-      <c r="I190" s="584"/>
-      <c r="J190" s="585"/>
-      <c r="K190" s="616" t="s">
+      <c r="G190" s="571"/>
+      <c r="H190" s="571"/>
+      <c r="I190" s="571"/>
+      <c r="J190" s="572"/>
+      <c r="K190" s="562" t="s">
         <v>45</v>
       </c>
-      <c r="L190" s="539"/>
-      <c r="M190" s="603" t="s">
+      <c r="L190" s="536"/>
+      <c r="M190" s="592" t="s">
         <v>73</v>
       </c>
-      <c r="N190" s="601"/>
-      <c r="O190" s="527" t="s">
+      <c r="N190" s="615"/>
+      <c r="O190" s="524" t="s">
         <v>215</v>
       </c>
-      <c r="P190" s="528"/>
-      <c r="Q190" s="528"/>
-      <c r="R190" s="528"/>
-      <c r="S190" s="528"/>
-      <c r="T190" s="528"/>
-      <c r="U190" s="528"/>
-      <c r="V190" s="528"/>
-      <c r="W190" s="528"/>
-      <c r="X190" s="528"/>
-      <c r="Y190" s="528"/>
-      <c r="Z190" s="528"/>
-      <c r="AA190" s="528"/>
-      <c r="AB190" s="528"/>
-      <c r="AC190" s="528"/>
-      <c r="AD190" s="528"/>
-      <c r="AE190" s="528"/>
-      <c r="AF190" s="528"/>
-      <c r="AG190" s="528"/>
-      <c r="AH190" s="529"/>
+      <c r="P190" s="525"/>
+      <c r="Q190" s="525"/>
+      <c r="R190" s="525"/>
+      <c r="S190" s="525"/>
+      <c r="T190" s="525"/>
+      <c r="U190" s="525"/>
+      <c r="V190" s="525"/>
+      <c r="W190" s="525"/>
+      <c r="X190" s="525"/>
+      <c r="Y190" s="525"/>
+      <c r="Z190" s="525"/>
+      <c r="AA190" s="525"/>
+      <c r="AB190" s="525"/>
+      <c r="AC190" s="525"/>
+      <c r="AD190" s="525"/>
+      <c r="AE190" s="525"/>
+      <c r="AF190" s="525"/>
+      <c r="AG190" s="525"/>
+      <c r="AH190" s="526"/>
     </row>
     <row r="191" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="50"/>
       <c r="E191" s="80"/>
-      <c r="F191" s="589"/>
-      <c r="G191" s="590"/>
-      <c r="H191" s="590"/>
-      <c r="I191" s="590"/>
-      <c r="J191" s="591"/>
-      <c r="K191" s="619"/>
-      <c r="L191" s="620"/>
-      <c r="M191" s="589"/>
-      <c r="N191" s="591"/>
-      <c r="O191" s="589"/>
-      <c r="P191" s="590"/>
-      <c r="Q191" s="590"/>
-      <c r="R191" s="590"/>
-      <c r="S191" s="590"/>
-      <c r="T191" s="590"/>
-      <c r="U191" s="590"/>
-      <c r="V191" s="590"/>
-      <c r="W191" s="590"/>
-      <c r="X191" s="590"/>
-      <c r="Y191" s="590"/>
-      <c r="Z191" s="590"/>
-      <c r="AA191" s="590"/>
-      <c r="AB191" s="590"/>
-      <c r="AC191" s="590"/>
-      <c r="AD191" s="590"/>
-      <c r="AE191" s="590"/>
-      <c r="AF191" s="590"/>
-      <c r="AG191" s="590"/>
-      <c r="AH191" s="591"/>
+      <c r="F191" s="573"/>
+      <c r="G191" s="574"/>
+      <c r="H191" s="574"/>
+      <c r="I191" s="574"/>
+      <c r="J191" s="575"/>
+      <c r="K191" s="563"/>
+      <c r="L191" s="564"/>
+      <c r="M191" s="573"/>
+      <c r="N191" s="575"/>
+      <c r="O191" s="573"/>
+      <c r="P191" s="574"/>
+      <c r="Q191" s="574"/>
+      <c r="R191" s="574"/>
+      <c r="S191" s="574"/>
+      <c r="T191" s="574"/>
+      <c r="U191" s="574"/>
+      <c r="V191" s="574"/>
+      <c r="W191" s="574"/>
+      <c r="X191" s="574"/>
+      <c r="Y191" s="574"/>
+      <c r="Z191" s="574"/>
+      <c r="AA191" s="574"/>
+      <c r="AB191" s="574"/>
+      <c r="AC191" s="574"/>
+      <c r="AD191" s="574"/>
+      <c r="AE191" s="574"/>
+      <c r="AF191" s="574"/>
+      <c r="AG191" s="574"/>
+      <c r="AH191" s="575"/>
     </row>
     <row r="192" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="50"/>
@@ -41116,707 +41116,707 @@
     </row>
     <row r="196" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="50"/>
-      <c r="F196" s="627" t="s">
+      <c r="F196" s="568" t="s">
         <v>591</v>
       </c>
-      <c r="G196" s="628"/>
-      <c r="H196" s="628"/>
-      <c r="I196" s="628"/>
-      <c r="J196" s="629"/>
-      <c r="K196" s="597" t="s">
+      <c r="G196" s="569"/>
+      <c r="H196" s="569"/>
+      <c r="I196" s="569"/>
+      <c r="J196" s="570"/>
+      <c r="K196" s="603" t="s">
         <v>29</v>
       </c>
-      <c r="L196" s="598"/>
-      <c r="M196" s="597" t="s">
+      <c r="L196" s="604"/>
+      <c r="M196" s="603" t="s">
         <v>30</v>
       </c>
-      <c r="N196" s="598"/>
-      <c r="O196" s="482" t="s">
+      <c r="N196" s="604"/>
+      <c r="O196" s="509" t="s">
         <v>211</v>
       </c>
-      <c r="P196" s="483"/>
-      <c r="Q196" s="483"/>
-      <c r="R196" s="483"/>
-      <c r="S196" s="483"/>
-      <c r="T196" s="483"/>
-      <c r="U196" s="483"/>
-      <c r="V196" s="483"/>
-      <c r="W196" s="483"/>
-      <c r="X196" s="483"/>
-      <c r="Y196" s="483"/>
-      <c r="Z196" s="483"/>
-      <c r="AA196" s="483"/>
-      <c r="AB196" s="483"/>
-      <c r="AC196" s="483"/>
-      <c r="AD196" s="483"/>
-      <c r="AE196" s="483"/>
-      <c r="AF196" s="483"/>
-      <c r="AG196" s="483"/>
-      <c r="AH196" s="484"/>
+      <c r="P196" s="510"/>
+      <c r="Q196" s="510"/>
+      <c r="R196" s="510"/>
+      <c r="S196" s="510"/>
+      <c r="T196" s="510"/>
+      <c r="U196" s="510"/>
+      <c r="V196" s="510"/>
+      <c r="W196" s="510"/>
+      <c r="X196" s="510"/>
+      <c r="Y196" s="510"/>
+      <c r="Z196" s="510"/>
+      <c r="AA196" s="510"/>
+      <c r="AB196" s="510"/>
+      <c r="AC196" s="510"/>
+      <c r="AD196" s="510"/>
+      <c r="AE196" s="510"/>
+      <c r="AF196" s="510"/>
+      <c r="AG196" s="510"/>
+      <c r="AH196" s="511"/>
     </row>
     <row r="197" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="50"/>
-      <c r="F197" s="572" t="s">
+      <c r="F197" s="577" t="s">
         <v>196</v>
       </c>
-      <c r="G197" s="630"/>
-      <c r="H197" s="630"/>
-      <c r="I197" s="630"/>
-      <c r="J197" s="574"/>
-      <c r="K197" s="609" t="s">
+      <c r="G197" s="578"/>
+      <c r="H197" s="578"/>
+      <c r="I197" s="578"/>
+      <c r="J197" s="579"/>
+      <c r="K197" s="586" t="s">
         <v>31</v>
       </c>
-      <c r="L197" s="610"/>
-      <c r="M197" s="609" t="s">
+      <c r="L197" s="587"/>
+      <c r="M197" s="586" t="s">
         <v>32</v>
       </c>
-      <c r="N197" s="610"/>
-      <c r="O197" s="572" t="s">
+      <c r="N197" s="587"/>
+      <c r="O197" s="577" t="s">
         <v>198</v>
       </c>
-      <c r="P197" s="630"/>
-      <c r="Q197" s="630"/>
-      <c r="R197" s="630"/>
-      <c r="S197" s="630"/>
-      <c r="T197" s="630"/>
-      <c r="U197" s="630"/>
-      <c r="V197" s="630"/>
-      <c r="W197" s="630"/>
-      <c r="X197" s="630"/>
-      <c r="Y197" s="630"/>
-      <c r="Z197" s="630"/>
-      <c r="AA197" s="630"/>
-      <c r="AB197" s="630"/>
-      <c r="AC197" s="630"/>
-      <c r="AD197" s="630"/>
-      <c r="AE197" s="630"/>
-      <c r="AF197" s="630"/>
-      <c r="AG197" s="630"/>
-      <c r="AH197" s="574"/>
+      <c r="P197" s="578"/>
+      <c r="Q197" s="578"/>
+      <c r="R197" s="578"/>
+      <c r="S197" s="578"/>
+      <c r="T197" s="578"/>
+      <c r="U197" s="578"/>
+      <c r="V197" s="578"/>
+      <c r="W197" s="578"/>
+      <c r="X197" s="578"/>
+      <c r="Y197" s="578"/>
+      <c r="Z197" s="578"/>
+      <c r="AA197" s="578"/>
+      <c r="AB197" s="578"/>
+      <c r="AC197" s="578"/>
+      <c r="AD197" s="578"/>
+      <c r="AE197" s="578"/>
+      <c r="AF197" s="578"/>
+      <c r="AG197" s="578"/>
+      <c r="AH197" s="579"/>
     </row>
     <row r="198" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="50"/>
-      <c r="F198" s="631"/>
-      <c r="G198" s="632"/>
-      <c r="H198" s="632"/>
-      <c r="I198" s="632"/>
-      <c r="J198" s="633"/>
-      <c r="K198" s="533"/>
-      <c r="L198" s="535"/>
-      <c r="M198" s="533"/>
-      <c r="N198" s="535"/>
-      <c r="O198" s="631"/>
-      <c r="P198" s="632"/>
-      <c r="Q198" s="632"/>
-      <c r="R198" s="632"/>
-      <c r="S198" s="632"/>
-      <c r="T198" s="632"/>
-      <c r="U198" s="632"/>
-      <c r="V198" s="632"/>
-      <c r="W198" s="632"/>
-      <c r="X198" s="632"/>
-      <c r="Y198" s="632"/>
-      <c r="Z198" s="632"/>
-      <c r="AA198" s="632"/>
-      <c r="AB198" s="632"/>
-      <c r="AC198" s="632"/>
-      <c r="AD198" s="632"/>
-      <c r="AE198" s="632"/>
-      <c r="AF198" s="632"/>
-      <c r="AG198" s="632"/>
-      <c r="AH198" s="633"/>
+      <c r="F198" s="580"/>
+      <c r="G198" s="581"/>
+      <c r="H198" s="581"/>
+      <c r="I198" s="581"/>
+      <c r="J198" s="582"/>
+      <c r="K198" s="530"/>
+      <c r="L198" s="532"/>
+      <c r="M198" s="530"/>
+      <c r="N198" s="532"/>
+      <c r="O198" s="580"/>
+      <c r="P198" s="581"/>
+      <c r="Q198" s="581"/>
+      <c r="R198" s="581"/>
+      <c r="S198" s="581"/>
+      <c r="T198" s="581"/>
+      <c r="U198" s="581"/>
+      <c r="V198" s="581"/>
+      <c r="W198" s="581"/>
+      <c r="X198" s="581"/>
+      <c r="Y198" s="581"/>
+      <c r="Z198" s="581"/>
+      <c r="AA198" s="581"/>
+      <c r="AB198" s="581"/>
+      <c r="AC198" s="581"/>
+      <c r="AD198" s="581"/>
+      <c r="AE198" s="581"/>
+      <c r="AF198" s="581"/>
+      <c r="AG198" s="581"/>
+      <c r="AH198" s="582"/>
     </row>
     <row r="199" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="50"/>
-      <c r="F199" s="616" t="s">
+      <c r="F199" s="562" t="s">
         <v>39</v>
       </c>
-      <c r="G199" s="538"/>
-      <c r="H199" s="538"/>
-      <c r="I199" s="538"/>
-      <c r="J199" s="539"/>
-      <c r="K199" s="603" t="s">
+      <c r="G199" s="535"/>
+      <c r="H199" s="535"/>
+      <c r="I199" s="535"/>
+      <c r="J199" s="536"/>
+      <c r="K199" s="592" t="s">
         <v>34</v>
       </c>
-      <c r="L199" s="529"/>
-      <c r="M199" s="609" t="s">
+      <c r="L199" s="526"/>
+      <c r="M199" s="586" t="s">
         <v>32</v>
       </c>
-      <c r="N199" s="610"/>
-      <c r="O199" s="537" t="s">
+      <c r="N199" s="587"/>
+      <c r="O199" s="534" t="s">
         <v>349</v>
       </c>
-      <c r="P199" s="621"/>
-      <c r="Q199" s="621"/>
-      <c r="R199" s="621"/>
-      <c r="S199" s="621"/>
-      <c r="T199" s="621"/>
-      <c r="U199" s="621"/>
-      <c r="V199" s="621"/>
-      <c r="W199" s="621"/>
-      <c r="X199" s="621"/>
-      <c r="Y199" s="621"/>
-      <c r="Z199" s="621"/>
-      <c r="AA199" s="621"/>
-      <c r="AB199" s="621"/>
-      <c r="AC199" s="621"/>
-      <c r="AD199" s="621"/>
-      <c r="AE199" s="621"/>
-      <c r="AF199" s="621"/>
-      <c r="AG199" s="621"/>
-      <c r="AH199" s="622"/>
+      <c r="P199" s="557"/>
+      <c r="Q199" s="557"/>
+      <c r="R199" s="557"/>
+      <c r="S199" s="557"/>
+      <c r="T199" s="557"/>
+      <c r="U199" s="557"/>
+      <c r="V199" s="557"/>
+      <c r="W199" s="557"/>
+      <c r="X199" s="557"/>
+      <c r="Y199" s="557"/>
+      <c r="Z199" s="557"/>
+      <c r="AA199" s="557"/>
+      <c r="AB199" s="557"/>
+      <c r="AC199" s="557"/>
+      <c r="AD199" s="557"/>
+      <c r="AE199" s="557"/>
+      <c r="AF199" s="557"/>
+      <c r="AG199" s="557"/>
+      <c r="AH199" s="558"/>
     </row>
     <row r="200" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="50"/>
-      <c r="F200" s="619"/>
-      <c r="G200" s="626"/>
-      <c r="H200" s="626"/>
-      <c r="I200" s="626"/>
-      <c r="J200" s="620"/>
-      <c r="K200" s="533"/>
-      <c r="L200" s="535"/>
-      <c r="M200" s="533"/>
-      <c r="N200" s="535"/>
-      <c r="O200" s="619"/>
-      <c r="P200" s="626"/>
-      <c r="Q200" s="626"/>
-      <c r="R200" s="626"/>
-      <c r="S200" s="626"/>
-      <c r="T200" s="626"/>
-      <c r="U200" s="626"/>
-      <c r="V200" s="626"/>
-      <c r="W200" s="626"/>
-      <c r="X200" s="626"/>
-      <c r="Y200" s="626"/>
-      <c r="Z200" s="626"/>
-      <c r="AA200" s="626"/>
-      <c r="AB200" s="626"/>
-      <c r="AC200" s="626"/>
-      <c r="AD200" s="626"/>
-      <c r="AE200" s="626"/>
-      <c r="AF200" s="626"/>
-      <c r="AG200" s="626"/>
-      <c r="AH200" s="620"/>
+      <c r="F200" s="563"/>
+      <c r="G200" s="567"/>
+      <c r="H200" s="567"/>
+      <c r="I200" s="567"/>
+      <c r="J200" s="564"/>
+      <c r="K200" s="530"/>
+      <c r="L200" s="532"/>
+      <c r="M200" s="530"/>
+      <c r="N200" s="532"/>
+      <c r="O200" s="563"/>
+      <c r="P200" s="567"/>
+      <c r="Q200" s="567"/>
+      <c r="R200" s="567"/>
+      <c r="S200" s="567"/>
+      <c r="T200" s="567"/>
+      <c r="U200" s="567"/>
+      <c r="V200" s="567"/>
+      <c r="W200" s="567"/>
+      <c r="X200" s="567"/>
+      <c r="Y200" s="567"/>
+      <c r="Z200" s="567"/>
+      <c r="AA200" s="567"/>
+      <c r="AB200" s="567"/>
+      <c r="AC200" s="567"/>
+      <c r="AD200" s="567"/>
+      <c r="AE200" s="567"/>
+      <c r="AF200" s="567"/>
+      <c r="AG200" s="567"/>
+      <c r="AH200" s="564"/>
     </row>
     <row r="201" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="50"/>
-      <c r="F201" s="616" t="s">
+      <c r="F201" s="562" t="s">
         <v>40</v>
       </c>
-      <c r="G201" s="538"/>
-      <c r="H201" s="538"/>
-      <c r="I201" s="538"/>
-      <c r="J201" s="539"/>
-      <c r="K201" s="616" t="s">
+      <c r="G201" s="535"/>
+      <c r="H201" s="535"/>
+      <c r="I201" s="535"/>
+      <c r="J201" s="536"/>
+      <c r="K201" s="562" t="s">
         <v>34</v>
       </c>
-      <c r="L201" s="539"/>
-      <c r="M201" s="617" t="s">
+      <c r="L201" s="536"/>
+      <c r="M201" s="565" t="s">
         <v>32</v>
       </c>
-      <c r="N201" s="618"/>
-      <c r="O201" s="537" t="s">
+      <c r="N201" s="566"/>
+      <c r="O201" s="534" t="s">
         <v>350</v>
       </c>
-      <c r="P201" s="621"/>
-      <c r="Q201" s="621"/>
-      <c r="R201" s="621"/>
-      <c r="S201" s="621"/>
-      <c r="T201" s="621"/>
-      <c r="U201" s="621"/>
-      <c r="V201" s="621"/>
-      <c r="W201" s="621"/>
-      <c r="X201" s="621"/>
-      <c r="Y201" s="621"/>
-      <c r="Z201" s="621"/>
-      <c r="AA201" s="621"/>
-      <c r="AB201" s="621"/>
-      <c r="AC201" s="621"/>
-      <c r="AD201" s="621"/>
-      <c r="AE201" s="621"/>
-      <c r="AF201" s="621"/>
-      <c r="AG201" s="621"/>
-      <c r="AH201" s="622"/>
+      <c r="P201" s="557"/>
+      <c r="Q201" s="557"/>
+      <c r="R201" s="557"/>
+      <c r="S201" s="557"/>
+      <c r="T201" s="557"/>
+      <c r="U201" s="557"/>
+      <c r="V201" s="557"/>
+      <c r="W201" s="557"/>
+      <c r="X201" s="557"/>
+      <c r="Y201" s="557"/>
+      <c r="Z201" s="557"/>
+      <c r="AA201" s="557"/>
+      <c r="AB201" s="557"/>
+      <c r="AC201" s="557"/>
+      <c r="AD201" s="557"/>
+      <c r="AE201" s="557"/>
+      <c r="AF201" s="557"/>
+      <c r="AG201" s="557"/>
+      <c r="AH201" s="558"/>
     </row>
     <row r="202" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="50"/>
-      <c r="F202" s="619"/>
-      <c r="G202" s="626"/>
-      <c r="H202" s="626"/>
-      <c r="I202" s="626"/>
-      <c r="J202" s="620"/>
-      <c r="K202" s="543"/>
-      <c r="L202" s="545"/>
-      <c r="M202" s="543"/>
-      <c r="N202" s="545"/>
-      <c r="O202" s="619"/>
-      <c r="P202" s="626"/>
-      <c r="Q202" s="626"/>
-      <c r="R202" s="626"/>
-      <c r="S202" s="626"/>
-      <c r="T202" s="626"/>
-      <c r="U202" s="626"/>
-      <c r="V202" s="626"/>
-      <c r="W202" s="626"/>
-      <c r="X202" s="626"/>
-      <c r="Y202" s="626"/>
-      <c r="Z202" s="626"/>
-      <c r="AA202" s="626"/>
-      <c r="AB202" s="626"/>
-      <c r="AC202" s="626"/>
-      <c r="AD202" s="626"/>
-      <c r="AE202" s="626"/>
-      <c r="AF202" s="626"/>
-      <c r="AG202" s="626"/>
-      <c r="AH202" s="620"/>
+      <c r="F202" s="563"/>
+      <c r="G202" s="567"/>
+      <c r="H202" s="567"/>
+      <c r="I202" s="567"/>
+      <c r="J202" s="564"/>
+      <c r="K202" s="540"/>
+      <c r="L202" s="542"/>
+      <c r="M202" s="540"/>
+      <c r="N202" s="542"/>
+      <c r="O202" s="563"/>
+      <c r="P202" s="567"/>
+      <c r="Q202" s="567"/>
+      <c r="R202" s="567"/>
+      <c r="S202" s="567"/>
+      <c r="T202" s="567"/>
+      <c r="U202" s="567"/>
+      <c r="V202" s="567"/>
+      <c r="W202" s="567"/>
+      <c r="X202" s="567"/>
+      <c r="Y202" s="567"/>
+      <c r="Z202" s="567"/>
+      <c r="AA202" s="567"/>
+      <c r="AB202" s="567"/>
+      <c r="AC202" s="567"/>
+      <c r="AD202" s="567"/>
+      <c r="AE202" s="567"/>
+      <c r="AF202" s="567"/>
+      <c r="AG202" s="567"/>
+      <c r="AH202" s="564"/>
     </row>
     <row r="203" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="50"/>
-      <c r="F203" s="537" t="s">
+      <c r="F203" s="534" t="s">
         <v>197</v>
       </c>
-      <c r="G203" s="621"/>
-      <c r="H203" s="621"/>
-      <c r="I203" s="621"/>
-      <c r="J203" s="622"/>
-      <c r="K203" s="603" t="s">
+      <c r="G203" s="557"/>
+      <c r="H203" s="557"/>
+      <c r="I203" s="557"/>
+      <c r="J203" s="558"/>
+      <c r="K203" s="592" t="s">
         <v>34</v>
       </c>
-      <c r="L203" s="529"/>
-      <c r="M203" s="609" t="s">
+      <c r="L203" s="526"/>
+      <c r="M203" s="586" t="s">
         <v>32</v>
       </c>
-      <c r="N203" s="610"/>
-      <c r="O203" s="537" t="s">
+      <c r="N203" s="587"/>
+      <c r="O203" s="534" t="s">
         <v>351</v>
       </c>
-      <c r="P203" s="621"/>
-      <c r="Q203" s="621"/>
-      <c r="R203" s="621"/>
-      <c r="S203" s="621"/>
-      <c r="T203" s="621"/>
-      <c r="U203" s="621"/>
-      <c r="V203" s="621"/>
-      <c r="W203" s="621"/>
-      <c r="X203" s="621"/>
-      <c r="Y203" s="621"/>
-      <c r="Z203" s="621"/>
-      <c r="AA203" s="621"/>
-      <c r="AB203" s="621"/>
-      <c r="AC203" s="621"/>
-      <c r="AD203" s="621"/>
-      <c r="AE203" s="621"/>
-      <c r="AF203" s="621"/>
-      <c r="AG203" s="621"/>
-      <c r="AH203" s="622"/>
+      <c r="P203" s="557"/>
+      <c r="Q203" s="557"/>
+      <c r="R203" s="557"/>
+      <c r="S203" s="557"/>
+      <c r="T203" s="557"/>
+      <c r="U203" s="557"/>
+      <c r="V203" s="557"/>
+      <c r="W203" s="557"/>
+      <c r="X203" s="557"/>
+      <c r="Y203" s="557"/>
+      <c r="Z203" s="557"/>
+      <c r="AA203" s="557"/>
+      <c r="AB203" s="557"/>
+      <c r="AC203" s="557"/>
+      <c r="AD203" s="557"/>
+      <c r="AE203" s="557"/>
+      <c r="AF203" s="557"/>
+      <c r="AG203" s="557"/>
+      <c r="AH203" s="558"/>
     </row>
     <row r="204" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="50"/>
-      <c r="F204" s="619"/>
-      <c r="G204" s="626"/>
-      <c r="H204" s="626"/>
-      <c r="I204" s="626"/>
-      <c r="J204" s="620"/>
-      <c r="K204" s="533"/>
-      <c r="L204" s="535"/>
-      <c r="M204" s="533"/>
-      <c r="N204" s="535"/>
-      <c r="O204" s="619"/>
-      <c r="P204" s="626"/>
-      <c r="Q204" s="626"/>
-      <c r="R204" s="626"/>
-      <c r="S204" s="626"/>
-      <c r="T204" s="626"/>
-      <c r="U204" s="626"/>
-      <c r="V204" s="626"/>
-      <c r="W204" s="626"/>
-      <c r="X204" s="626"/>
-      <c r="Y204" s="626"/>
-      <c r="Z204" s="626"/>
-      <c r="AA204" s="626"/>
-      <c r="AB204" s="626"/>
-      <c r="AC204" s="626"/>
-      <c r="AD204" s="626"/>
-      <c r="AE204" s="626"/>
-      <c r="AF204" s="626"/>
-      <c r="AG204" s="626"/>
-      <c r="AH204" s="620"/>
+      <c r="F204" s="563"/>
+      <c r="G204" s="567"/>
+      <c r="H204" s="567"/>
+      <c r="I204" s="567"/>
+      <c r="J204" s="564"/>
+      <c r="K204" s="530"/>
+      <c r="L204" s="532"/>
+      <c r="M204" s="530"/>
+      <c r="N204" s="532"/>
+      <c r="O204" s="563"/>
+      <c r="P204" s="567"/>
+      <c r="Q204" s="567"/>
+      <c r="R204" s="567"/>
+      <c r="S204" s="567"/>
+      <c r="T204" s="567"/>
+      <c r="U204" s="567"/>
+      <c r="V204" s="567"/>
+      <c r="W204" s="567"/>
+      <c r="X204" s="567"/>
+      <c r="Y204" s="567"/>
+      <c r="Z204" s="567"/>
+      <c r="AA204" s="567"/>
+      <c r="AB204" s="567"/>
+      <c r="AC204" s="567"/>
+      <c r="AD204" s="567"/>
+      <c r="AE204" s="567"/>
+      <c r="AF204" s="567"/>
+      <c r="AG204" s="567"/>
+      <c r="AH204" s="564"/>
     </row>
     <row r="205" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="50"/>
-      <c r="F205" s="485" t="s">
+      <c r="F205" s="512" t="s">
         <v>37</v>
       </c>
-      <c r="G205" s="486"/>
-      <c r="H205" s="486"/>
-      <c r="I205" s="486"/>
-      <c r="J205" s="487"/>
-      <c r="K205" s="451" t="s">
+      <c r="G205" s="513"/>
+      <c r="H205" s="513"/>
+      <c r="I205" s="513"/>
+      <c r="J205" s="514"/>
+      <c r="K205" s="413" t="s">
         <v>34</v>
       </c>
-      <c r="L205" s="453"/>
-      <c r="M205" s="611" t="s">
+      <c r="L205" s="415"/>
+      <c r="M205" s="600" t="s">
         <v>32</v>
       </c>
-      <c r="N205" s="612"/>
-      <c r="O205" s="557" t="s">
+      <c r="N205" s="601"/>
+      <c r="O205" s="554" t="s">
         <v>234</v>
       </c>
-      <c r="P205" s="614"/>
-      <c r="Q205" s="614"/>
-      <c r="R205" s="614"/>
-      <c r="S205" s="614"/>
-      <c r="T205" s="614"/>
-      <c r="U205" s="614"/>
-      <c r="V205" s="614"/>
-      <c r="W205" s="614"/>
-      <c r="X205" s="614"/>
-      <c r="Y205" s="614"/>
-      <c r="Z205" s="614"/>
-      <c r="AA205" s="614"/>
-      <c r="AB205" s="614"/>
-      <c r="AC205" s="614"/>
-      <c r="AD205" s="614"/>
-      <c r="AE205" s="614"/>
-      <c r="AF205" s="614"/>
-      <c r="AG205" s="614"/>
-      <c r="AH205" s="615"/>
+      <c r="P205" s="588"/>
+      <c r="Q205" s="588"/>
+      <c r="R205" s="588"/>
+      <c r="S205" s="588"/>
+      <c r="T205" s="588"/>
+      <c r="U205" s="588"/>
+      <c r="V205" s="588"/>
+      <c r="W205" s="588"/>
+      <c r="X205" s="588"/>
+      <c r="Y205" s="588"/>
+      <c r="Z205" s="588"/>
+      <c r="AA205" s="588"/>
+      <c r="AB205" s="588"/>
+      <c r="AC205" s="588"/>
+      <c r="AD205" s="588"/>
+      <c r="AE205" s="588"/>
+      <c r="AF205" s="588"/>
+      <c r="AG205" s="588"/>
+      <c r="AH205" s="589"/>
     </row>
     <row r="206" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="50"/>
-      <c r="F206" s="485" t="s">
+      <c r="F206" s="512" t="s">
         <v>38</v>
       </c>
-      <c r="G206" s="486"/>
-      <c r="H206" s="486"/>
-      <c r="I206" s="486"/>
-      <c r="J206" s="487"/>
-      <c r="K206" s="451" t="s">
+      <c r="G206" s="513"/>
+      <c r="H206" s="513"/>
+      <c r="I206" s="513"/>
+      <c r="J206" s="514"/>
+      <c r="K206" s="413" t="s">
         <v>34</v>
       </c>
-      <c r="L206" s="453"/>
-      <c r="M206" s="611" t="s">
+      <c r="L206" s="415"/>
+      <c r="M206" s="600" t="s">
         <v>32</v>
       </c>
-      <c r="N206" s="612"/>
-      <c r="O206" s="557" t="s">
+      <c r="N206" s="601"/>
+      <c r="O206" s="554" t="s">
         <v>195</v>
       </c>
-      <c r="P206" s="558"/>
-      <c r="Q206" s="558"/>
-      <c r="R206" s="558"/>
-      <c r="S206" s="558"/>
-      <c r="T206" s="558"/>
-      <c r="U206" s="558"/>
-      <c r="V206" s="558"/>
-      <c r="W206" s="558"/>
-      <c r="X206" s="558"/>
-      <c r="Y206" s="558"/>
-      <c r="Z206" s="558"/>
-      <c r="AA206" s="558"/>
-      <c r="AB206" s="558"/>
-      <c r="AC206" s="558"/>
-      <c r="AD206" s="558"/>
-      <c r="AE206" s="558"/>
-      <c r="AF206" s="558"/>
-      <c r="AG206" s="558"/>
-      <c r="AH206" s="559"/>
+      <c r="P206" s="555"/>
+      <c r="Q206" s="555"/>
+      <c r="R206" s="555"/>
+      <c r="S206" s="555"/>
+      <c r="T206" s="555"/>
+      <c r="U206" s="555"/>
+      <c r="V206" s="555"/>
+      <c r="W206" s="555"/>
+      <c r="X206" s="555"/>
+      <c r="Y206" s="555"/>
+      <c r="Z206" s="555"/>
+      <c r="AA206" s="555"/>
+      <c r="AB206" s="555"/>
+      <c r="AC206" s="555"/>
+      <c r="AD206" s="555"/>
+      <c r="AE206" s="555"/>
+      <c r="AF206" s="555"/>
+      <c r="AG206" s="555"/>
+      <c r="AH206" s="556"/>
     </row>
     <row r="207" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="50"/>
-      <c r="F207" s="616" t="s">
+      <c r="F207" s="562" t="s">
         <v>33</v>
       </c>
-      <c r="G207" s="538"/>
-      <c r="H207" s="538"/>
-      <c r="I207" s="538"/>
-      <c r="J207" s="539"/>
-      <c r="K207" s="603" t="s">
+      <c r="G207" s="535"/>
+      <c r="H207" s="535"/>
+      <c r="I207" s="535"/>
+      <c r="J207" s="536"/>
+      <c r="K207" s="592" t="s">
         <v>34</v>
       </c>
-      <c r="L207" s="529"/>
-      <c r="M207" s="609" t="s">
+      <c r="L207" s="526"/>
+      <c r="M207" s="586" t="s">
         <v>32</v>
       </c>
-      <c r="N207" s="610"/>
-      <c r="O207" s="537" t="s">
+      <c r="N207" s="587"/>
+      <c r="O207" s="534" t="s">
         <v>352</v>
       </c>
-      <c r="P207" s="621"/>
-      <c r="Q207" s="621"/>
-      <c r="R207" s="621"/>
-      <c r="S207" s="621"/>
-      <c r="T207" s="621"/>
-      <c r="U207" s="621"/>
-      <c r="V207" s="621"/>
-      <c r="W207" s="621"/>
-      <c r="X207" s="621"/>
-      <c r="Y207" s="621"/>
-      <c r="Z207" s="621"/>
-      <c r="AA207" s="621"/>
-      <c r="AB207" s="621"/>
-      <c r="AC207" s="621"/>
-      <c r="AD207" s="621"/>
-      <c r="AE207" s="621"/>
-      <c r="AF207" s="621"/>
-      <c r="AG207" s="621"/>
-      <c r="AH207" s="622"/>
+      <c r="P207" s="557"/>
+      <c r="Q207" s="557"/>
+      <c r="R207" s="557"/>
+      <c r="S207" s="557"/>
+      <c r="T207" s="557"/>
+      <c r="U207" s="557"/>
+      <c r="V207" s="557"/>
+      <c r="W207" s="557"/>
+      <c r="X207" s="557"/>
+      <c r="Y207" s="557"/>
+      <c r="Z207" s="557"/>
+      <c r="AA207" s="557"/>
+      <c r="AB207" s="557"/>
+      <c r="AC207" s="557"/>
+      <c r="AD207" s="557"/>
+      <c r="AE207" s="557"/>
+      <c r="AF207" s="557"/>
+      <c r="AG207" s="557"/>
+      <c r="AH207" s="558"/>
     </row>
     <row r="208" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="50"/>
-      <c r="F208" s="634"/>
-      <c r="G208" s="635"/>
-      <c r="H208" s="635"/>
-      <c r="I208" s="635"/>
-      <c r="J208" s="636"/>
-      <c r="K208" s="530"/>
-      <c r="L208" s="532"/>
-      <c r="M208" s="530"/>
-      <c r="N208" s="532"/>
-      <c r="O208" s="634"/>
-      <c r="P208" s="635"/>
-      <c r="Q208" s="635"/>
-      <c r="R208" s="635"/>
-      <c r="S208" s="635"/>
-      <c r="T208" s="635"/>
-      <c r="U208" s="635"/>
-      <c r="V208" s="635"/>
-      <c r="W208" s="635"/>
-      <c r="X208" s="635"/>
-      <c r="Y208" s="635"/>
-      <c r="Z208" s="635"/>
-      <c r="AA208" s="635"/>
-      <c r="AB208" s="635"/>
-      <c r="AC208" s="635"/>
-      <c r="AD208" s="635"/>
-      <c r="AE208" s="635"/>
-      <c r="AF208" s="635"/>
-      <c r="AG208" s="635"/>
-      <c r="AH208" s="636"/>
+      <c r="F208" s="583"/>
+      <c r="G208" s="584"/>
+      <c r="H208" s="584"/>
+      <c r="I208" s="584"/>
+      <c r="J208" s="585"/>
+      <c r="K208" s="527"/>
+      <c r="L208" s="529"/>
+      <c r="M208" s="527"/>
+      <c r="N208" s="529"/>
+      <c r="O208" s="583"/>
+      <c r="P208" s="584"/>
+      <c r="Q208" s="584"/>
+      <c r="R208" s="584"/>
+      <c r="S208" s="584"/>
+      <c r="T208" s="584"/>
+      <c r="U208" s="584"/>
+      <c r="V208" s="584"/>
+      <c r="W208" s="584"/>
+      <c r="X208" s="584"/>
+      <c r="Y208" s="584"/>
+      <c r="Z208" s="584"/>
+      <c r="AA208" s="584"/>
+      <c r="AB208" s="584"/>
+      <c r="AC208" s="584"/>
+      <c r="AD208" s="584"/>
+      <c r="AE208" s="584"/>
+      <c r="AF208" s="584"/>
+      <c r="AG208" s="584"/>
+      <c r="AH208" s="585"/>
     </row>
     <row r="209" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="50"/>
-      <c r="F209" s="619"/>
-      <c r="G209" s="626"/>
-      <c r="H209" s="626"/>
-      <c r="I209" s="626"/>
-      <c r="J209" s="620"/>
-      <c r="K209" s="533"/>
-      <c r="L209" s="535"/>
-      <c r="M209" s="533"/>
-      <c r="N209" s="535"/>
-      <c r="O209" s="619"/>
-      <c r="P209" s="626"/>
-      <c r="Q209" s="626"/>
-      <c r="R209" s="626"/>
-      <c r="S209" s="626"/>
-      <c r="T209" s="626"/>
-      <c r="U209" s="626"/>
-      <c r="V209" s="626"/>
-      <c r="W209" s="626"/>
-      <c r="X209" s="626"/>
-      <c r="Y209" s="626"/>
-      <c r="Z209" s="626"/>
-      <c r="AA209" s="626"/>
-      <c r="AB209" s="626"/>
-      <c r="AC209" s="626"/>
-      <c r="AD209" s="626"/>
-      <c r="AE209" s="626"/>
-      <c r="AF209" s="626"/>
-      <c r="AG209" s="626"/>
-      <c r="AH209" s="620"/>
+      <c r="F209" s="563"/>
+      <c r="G209" s="567"/>
+      <c r="H209" s="567"/>
+      <c r="I209" s="567"/>
+      <c r="J209" s="564"/>
+      <c r="K209" s="530"/>
+      <c r="L209" s="532"/>
+      <c r="M209" s="530"/>
+      <c r="N209" s="532"/>
+      <c r="O209" s="563"/>
+      <c r="P209" s="567"/>
+      <c r="Q209" s="567"/>
+      <c r="R209" s="567"/>
+      <c r="S209" s="567"/>
+      <c r="T209" s="567"/>
+      <c r="U209" s="567"/>
+      <c r="V209" s="567"/>
+      <c r="W209" s="567"/>
+      <c r="X209" s="567"/>
+      <c r="Y209" s="567"/>
+      <c r="Z209" s="567"/>
+      <c r="AA209" s="567"/>
+      <c r="AB209" s="567"/>
+      <c r="AC209" s="567"/>
+      <c r="AD209" s="567"/>
+      <c r="AE209" s="567"/>
+      <c r="AF209" s="567"/>
+      <c r="AG209" s="567"/>
+      <c r="AH209" s="564"/>
     </row>
     <row r="210" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="50"/>
-      <c r="F210" s="485" t="s">
+      <c r="F210" s="512" t="s">
         <v>184</v>
       </c>
-      <c r="G210" s="486"/>
-      <c r="H210" s="486"/>
-      <c r="I210" s="486"/>
-      <c r="J210" s="487"/>
-      <c r="K210" s="451" t="s">
+      <c r="G210" s="513"/>
+      <c r="H210" s="513"/>
+      <c r="I210" s="513"/>
+      <c r="J210" s="514"/>
+      <c r="K210" s="413" t="s">
         <v>34</v>
       </c>
-      <c r="L210" s="453"/>
-      <c r="M210" s="451" t="s">
+      <c r="L210" s="415"/>
+      <c r="M210" s="413" t="s">
         <v>35</v>
       </c>
-      <c r="N210" s="453"/>
-      <c r="O210" s="613" t="s">
+      <c r="N210" s="415"/>
+      <c r="O210" s="602" t="s">
         <v>36</v>
       </c>
-      <c r="P210" s="614"/>
-      <c r="Q210" s="614"/>
-      <c r="R210" s="614"/>
-      <c r="S210" s="614"/>
-      <c r="T210" s="614"/>
-      <c r="U210" s="614"/>
-      <c r="V210" s="614"/>
-      <c r="W210" s="614"/>
-      <c r="X210" s="614"/>
-      <c r="Y210" s="614"/>
-      <c r="Z210" s="614"/>
-      <c r="AA210" s="614"/>
-      <c r="AB210" s="614"/>
-      <c r="AC210" s="614"/>
-      <c r="AD210" s="614"/>
-      <c r="AE210" s="614"/>
-      <c r="AF210" s="614"/>
-      <c r="AG210" s="614"/>
-      <c r="AH210" s="615"/>
+      <c r="P210" s="588"/>
+      <c r="Q210" s="588"/>
+      <c r="R210" s="588"/>
+      <c r="S210" s="588"/>
+      <c r="T210" s="588"/>
+      <c r="U210" s="588"/>
+      <c r="V210" s="588"/>
+      <c r="W210" s="588"/>
+      <c r="X210" s="588"/>
+      <c r="Y210" s="588"/>
+      <c r="Z210" s="588"/>
+      <c r="AA210" s="588"/>
+      <c r="AB210" s="588"/>
+      <c r="AC210" s="588"/>
+      <c r="AD210" s="588"/>
+      <c r="AE210" s="588"/>
+      <c r="AF210" s="588"/>
+      <c r="AG210" s="588"/>
+      <c r="AH210" s="589"/>
     </row>
     <row r="211" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="50"/>
-      <c r="F211" s="485" t="s">
+      <c r="F211" s="512" t="s">
         <v>120</v>
       </c>
-      <c r="G211" s="486"/>
-      <c r="H211" s="486"/>
-      <c r="I211" s="486"/>
-      <c r="J211" s="487"/>
-      <c r="K211" s="451" t="s">
+      <c r="G211" s="513"/>
+      <c r="H211" s="513"/>
+      <c r="I211" s="513"/>
+      <c r="J211" s="514"/>
+      <c r="K211" s="413" t="s">
         <v>34</v>
       </c>
-      <c r="L211" s="453"/>
-      <c r="M211" s="611" t="s">
+      <c r="L211" s="415"/>
+      <c r="M211" s="600" t="s">
         <v>32</v>
       </c>
-      <c r="N211" s="612"/>
-      <c r="O211" s="557" t="s">
+      <c r="N211" s="601"/>
+      <c r="O211" s="554" t="s">
         <v>353</v>
       </c>
-      <c r="P211" s="614"/>
-      <c r="Q211" s="614"/>
-      <c r="R211" s="614"/>
-      <c r="S211" s="614"/>
-      <c r="T211" s="614"/>
-      <c r="U211" s="614"/>
-      <c r="V211" s="614"/>
-      <c r="W211" s="614"/>
-      <c r="X211" s="614"/>
-      <c r="Y211" s="614"/>
-      <c r="Z211" s="614"/>
-      <c r="AA211" s="614"/>
-      <c r="AB211" s="614"/>
-      <c r="AC211" s="614"/>
-      <c r="AD211" s="614"/>
-      <c r="AE211" s="614"/>
-      <c r="AF211" s="614"/>
-      <c r="AG211" s="614"/>
-      <c r="AH211" s="615"/>
+      <c r="P211" s="588"/>
+      <c r="Q211" s="588"/>
+      <c r="R211" s="588"/>
+      <c r="S211" s="588"/>
+      <c r="T211" s="588"/>
+      <c r="U211" s="588"/>
+      <c r="V211" s="588"/>
+      <c r="W211" s="588"/>
+      <c r="X211" s="588"/>
+      <c r="Y211" s="588"/>
+      <c r="Z211" s="588"/>
+      <c r="AA211" s="588"/>
+      <c r="AB211" s="588"/>
+      <c r="AC211" s="588"/>
+      <c r="AD211" s="588"/>
+      <c r="AE211" s="588"/>
+      <c r="AF211" s="588"/>
+      <c r="AG211" s="588"/>
+      <c r="AH211" s="589"/>
     </row>
     <row r="212" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="50"/>
-      <c r="F212" s="485" t="s">
+      <c r="F212" s="512" t="s">
         <v>41</v>
       </c>
-      <c r="G212" s="486"/>
-      <c r="H212" s="486"/>
-      <c r="I212" s="486"/>
-      <c r="J212" s="487"/>
-      <c r="K212" s="451" t="s">
+      <c r="G212" s="513"/>
+      <c r="H212" s="513"/>
+      <c r="I212" s="513"/>
+      <c r="J212" s="514"/>
+      <c r="K212" s="413" t="s">
         <v>34</v>
       </c>
-      <c r="L212" s="453"/>
-      <c r="M212" s="611" t="s">
+      <c r="L212" s="415"/>
+      <c r="M212" s="600" t="s">
         <v>32</v>
       </c>
-      <c r="N212" s="612"/>
-      <c r="O212" s="557" t="s">
+      <c r="N212" s="601"/>
+      <c r="O212" s="554" t="s">
         <v>348</v>
       </c>
-      <c r="P212" s="614"/>
-      <c r="Q212" s="614"/>
-      <c r="R212" s="614"/>
-      <c r="S212" s="614"/>
-      <c r="T212" s="614"/>
-      <c r="U212" s="614"/>
-      <c r="V212" s="614"/>
-      <c r="W212" s="614"/>
-      <c r="X212" s="614"/>
-      <c r="Y212" s="614"/>
-      <c r="Z212" s="614"/>
-      <c r="AA212" s="614"/>
-      <c r="AB212" s="614"/>
-      <c r="AC212" s="614"/>
-      <c r="AD212" s="614"/>
-      <c r="AE212" s="614"/>
-      <c r="AF212" s="614"/>
-      <c r="AG212" s="614"/>
-      <c r="AH212" s="615"/>
+      <c r="P212" s="588"/>
+      <c r="Q212" s="588"/>
+      <c r="R212" s="588"/>
+      <c r="S212" s="588"/>
+      <c r="T212" s="588"/>
+      <c r="U212" s="588"/>
+      <c r="V212" s="588"/>
+      <c r="W212" s="588"/>
+      <c r="X212" s="588"/>
+      <c r="Y212" s="588"/>
+      <c r="Z212" s="588"/>
+      <c r="AA212" s="588"/>
+      <c r="AB212" s="588"/>
+      <c r="AC212" s="588"/>
+      <c r="AD212" s="588"/>
+      <c r="AE212" s="588"/>
+      <c r="AF212" s="588"/>
+      <c r="AG212" s="588"/>
+      <c r="AH212" s="589"/>
     </row>
     <row r="213" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="50"/>
-      <c r="F213" s="537" t="s">
+      <c r="F213" s="534" t="s">
         <v>189</v>
       </c>
-      <c r="G213" s="621"/>
-      <c r="H213" s="621"/>
-      <c r="I213" s="621"/>
-      <c r="J213" s="622"/>
-      <c r="K213" s="616" t="s">
+      <c r="G213" s="557"/>
+      <c r="H213" s="557"/>
+      <c r="I213" s="557"/>
+      <c r="J213" s="558"/>
+      <c r="K213" s="562" t="s">
         <v>34</v>
       </c>
-      <c r="L213" s="539"/>
-      <c r="M213" s="617" t="s">
+      <c r="L213" s="536"/>
+      <c r="M213" s="565" t="s">
         <v>35</v>
       </c>
-      <c r="N213" s="618"/>
-      <c r="O213" s="616" t="s">
+      <c r="N213" s="566"/>
+      <c r="O213" s="562" t="s">
         <v>42</v>
       </c>
-      <c r="P213" s="538"/>
-      <c r="Q213" s="538"/>
-      <c r="R213" s="538"/>
-      <c r="S213" s="538"/>
-      <c r="T213" s="538"/>
-      <c r="U213" s="538"/>
-      <c r="V213" s="538"/>
-      <c r="W213" s="538"/>
-      <c r="X213" s="538"/>
-      <c r="Y213" s="538"/>
-      <c r="Z213" s="538"/>
-      <c r="AA213" s="538"/>
-      <c r="AB213" s="538"/>
-      <c r="AC213" s="538"/>
-      <c r="AD213" s="538"/>
-      <c r="AE213" s="538"/>
-      <c r="AF213" s="538"/>
-      <c r="AG213" s="538"/>
-      <c r="AH213" s="539"/>
+      <c r="P213" s="535"/>
+      <c r="Q213" s="535"/>
+      <c r="R213" s="535"/>
+      <c r="S213" s="535"/>
+      <c r="T213" s="535"/>
+      <c r="U213" s="535"/>
+      <c r="V213" s="535"/>
+      <c r="W213" s="535"/>
+      <c r="X213" s="535"/>
+      <c r="Y213" s="535"/>
+      <c r="Z213" s="535"/>
+      <c r="AA213" s="535"/>
+      <c r="AB213" s="535"/>
+      <c r="AC213" s="535"/>
+      <c r="AD213" s="535"/>
+      <c r="AE213" s="535"/>
+      <c r="AF213" s="535"/>
+      <c r="AG213" s="535"/>
+      <c r="AH213" s="536"/>
     </row>
     <row r="214" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="50"/>
-      <c r="F214" s="623"/>
-      <c r="G214" s="624"/>
-      <c r="H214" s="624"/>
-      <c r="I214" s="624"/>
-      <c r="J214" s="625"/>
-      <c r="K214" s="619"/>
-      <c r="L214" s="620"/>
-      <c r="M214" s="619"/>
-      <c r="N214" s="620"/>
-      <c r="O214" s="619"/>
-      <c r="P214" s="626"/>
-      <c r="Q214" s="626"/>
-      <c r="R214" s="626"/>
-      <c r="S214" s="626"/>
-      <c r="T214" s="626"/>
-      <c r="U214" s="626"/>
-      <c r="V214" s="626"/>
-      <c r="W214" s="626"/>
-      <c r="X214" s="626"/>
-      <c r="Y214" s="626"/>
-      <c r="Z214" s="626"/>
-      <c r="AA214" s="626"/>
-      <c r="AB214" s="626"/>
-      <c r="AC214" s="626"/>
-      <c r="AD214" s="626"/>
-      <c r="AE214" s="626"/>
-      <c r="AF214" s="626"/>
-      <c r="AG214" s="626"/>
-      <c r="AH214" s="620"/>
+      <c r="F214" s="559"/>
+      <c r="G214" s="560"/>
+      <c r="H214" s="560"/>
+      <c r="I214" s="560"/>
+      <c r="J214" s="561"/>
+      <c r="K214" s="563"/>
+      <c r="L214" s="564"/>
+      <c r="M214" s="563"/>
+      <c r="N214" s="564"/>
+      <c r="O214" s="563"/>
+      <c r="P214" s="567"/>
+      <c r="Q214" s="567"/>
+      <c r="R214" s="567"/>
+      <c r="S214" s="567"/>
+      <c r="T214" s="567"/>
+      <c r="U214" s="567"/>
+      <c r="V214" s="567"/>
+      <c r="W214" s="567"/>
+      <c r="X214" s="567"/>
+      <c r="Y214" s="567"/>
+      <c r="Z214" s="567"/>
+      <c r="AA214" s="567"/>
+      <c r="AB214" s="567"/>
+      <c r="AC214" s="567"/>
+      <c r="AD214" s="567"/>
+      <c r="AE214" s="567"/>
+      <c r="AF214" s="567"/>
+      <c r="AG214" s="567"/>
+      <c r="AH214" s="564"/>
     </row>
     <row r="215" spans="1:34" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="50"/>
@@ -42003,7 +42003,7 @@
     <row r="239" spans="3:5" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C239" s="289"/>
       <c r="E239" s="54" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="240" spans="3:5" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -43058,6 +43058,118 @@
     </row>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="D155:D158"/>
+    <mergeCell ref="D154:J154"/>
+    <mergeCell ref="E155:J157"/>
+    <mergeCell ref="D151:J151"/>
+    <mergeCell ref="D152:J152"/>
+    <mergeCell ref="D153:J153"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AA154:AH154"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="K154:Z154"/>
+    <mergeCell ref="K155:Z155"/>
+    <mergeCell ref="K156:Z156"/>
+    <mergeCell ref="K157:Z157"/>
+    <mergeCell ref="K158:Z158"/>
+    <mergeCell ref="AA156:AH156"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA153:AH153"/>
+    <mergeCell ref="AA151:AH151"/>
+    <mergeCell ref="AA152:AH152"/>
+    <mergeCell ref="K151:Z151"/>
+    <mergeCell ref="AA158:AH158"/>
+    <mergeCell ref="AA157:AH157"/>
+    <mergeCell ref="O171:AH174"/>
+    <mergeCell ref="O175:AH175"/>
+    <mergeCell ref="O176:AH179"/>
+    <mergeCell ref="O190:AH191"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="O180:AH181"/>
+    <mergeCell ref="O182:AH183"/>
+    <mergeCell ref="O184:AH185"/>
+    <mergeCell ref="O186:AH186"/>
+    <mergeCell ref="O169:AH169"/>
+    <mergeCell ref="O170:AH170"/>
+    <mergeCell ref="K196:L196"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="M171:N174"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M176:N179"/>
+    <mergeCell ref="M180:N181"/>
+    <mergeCell ref="M182:N183"/>
+    <mergeCell ref="M184:N185"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="M187:N188"/>
+    <mergeCell ref="M189:N189"/>
+    <mergeCell ref="M190:N191"/>
+    <mergeCell ref="K180:L181"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA155:AH155"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="K152:Z152"/>
+    <mergeCell ref="K153:Z153"/>
+    <mergeCell ref="M203:N204"/>
+    <mergeCell ref="M212:N212"/>
+    <mergeCell ref="O210:AH210"/>
+    <mergeCell ref="O211:AH211"/>
+    <mergeCell ref="O212:AH212"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="F212:J212"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="K187:L188"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="K212:L212"/>
+    <mergeCell ref="K199:L200"/>
+    <mergeCell ref="K201:L202"/>
+    <mergeCell ref="K206:L206"/>
+    <mergeCell ref="K205:L205"/>
+    <mergeCell ref="K197:L198"/>
+    <mergeCell ref="K207:L209"/>
+    <mergeCell ref="K211:L211"/>
+    <mergeCell ref="M211:N211"/>
+    <mergeCell ref="K203:L204"/>
+    <mergeCell ref="M201:N202"/>
+    <mergeCell ref="M206:N206"/>
+    <mergeCell ref="M205:N205"/>
+    <mergeCell ref="M197:N198"/>
+    <mergeCell ref="M207:N209"/>
+    <mergeCell ref="O206:AH206"/>
+    <mergeCell ref="F205:J205"/>
+    <mergeCell ref="F206:J206"/>
+    <mergeCell ref="F210:J210"/>
+    <mergeCell ref="F169:J169"/>
+    <mergeCell ref="F170:J170"/>
+    <mergeCell ref="F171:J174"/>
+    <mergeCell ref="F175:J175"/>
+    <mergeCell ref="F176:J179"/>
+    <mergeCell ref="K190:L191"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="F186:J186"/>
+    <mergeCell ref="F189:J189"/>
+    <mergeCell ref="F184:J185"/>
+    <mergeCell ref="F187:J188"/>
+    <mergeCell ref="F190:J191"/>
+    <mergeCell ref="F180:J181"/>
+    <mergeCell ref="F182:J183"/>
+    <mergeCell ref="K182:L183"/>
+    <mergeCell ref="K184:L185"/>
+    <mergeCell ref="K176:L179"/>
+    <mergeCell ref="K171:L174"/>
+    <mergeCell ref="K169:L169"/>
     <mergeCell ref="E158:J158"/>
     <mergeCell ref="F213:J214"/>
     <mergeCell ref="K213:L214"/>
@@ -43082,118 +43194,6 @@
     <mergeCell ref="F203:J204"/>
     <mergeCell ref="F207:J209"/>
     <mergeCell ref="O205:AH205"/>
-    <mergeCell ref="M207:N209"/>
-    <mergeCell ref="O206:AH206"/>
-    <mergeCell ref="F205:J205"/>
-    <mergeCell ref="F206:J206"/>
-    <mergeCell ref="F210:J210"/>
-    <mergeCell ref="F169:J169"/>
-    <mergeCell ref="F170:J170"/>
-    <mergeCell ref="F171:J174"/>
-    <mergeCell ref="F175:J175"/>
-    <mergeCell ref="F176:J179"/>
-    <mergeCell ref="K190:L191"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="F186:J186"/>
-    <mergeCell ref="F189:J189"/>
-    <mergeCell ref="F184:J185"/>
-    <mergeCell ref="F187:J188"/>
-    <mergeCell ref="F190:J191"/>
-    <mergeCell ref="F180:J181"/>
-    <mergeCell ref="F182:J183"/>
-    <mergeCell ref="K182:L183"/>
-    <mergeCell ref="K184:L185"/>
-    <mergeCell ref="K176:L179"/>
-    <mergeCell ref="K171:L174"/>
-    <mergeCell ref="K169:L169"/>
-    <mergeCell ref="M203:N204"/>
-    <mergeCell ref="M212:N212"/>
-    <mergeCell ref="O210:AH210"/>
-    <mergeCell ref="O211:AH211"/>
-    <mergeCell ref="O212:AH212"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="F212:J212"/>
-    <mergeCell ref="K175:L175"/>
-    <mergeCell ref="K187:L188"/>
-    <mergeCell ref="M196:N196"/>
-    <mergeCell ref="K212:L212"/>
-    <mergeCell ref="K199:L200"/>
-    <mergeCell ref="K201:L202"/>
-    <mergeCell ref="K206:L206"/>
-    <mergeCell ref="K205:L205"/>
-    <mergeCell ref="K197:L198"/>
-    <mergeCell ref="K207:L209"/>
-    <mergeCell ref="K211:L211"/>
-    <mergeCell ref="M211:N211"/>
-    <mergeCell ref="K203:L204"/>
-    <mergeCell ref="M201:N202"/>
-    <mergeCell ref="M206:N206"/>
-    <mergeCell ref="M205:N205"/>
-    <mergeCell ref="M197:N198"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA155:AH155"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="K152:Z152"/>
-    <mergeCell ref="K153:Z153"/>
-    <mergeCell ref="K196:L196"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="M171:N174"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M176:N179"/>
-    <mergeCell ref="M180:N181"/>
-    <mergeCell ref="M182:N183"/>
-    <mergeCell ref="M184:N185"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="M187:N188"/>
-    <mergeCell ref="M189:N189"/>
-    <mergeCell ref="M190:N191"/>
-    <mergeCell ref="K180:L181"/>
-    <mergeCell ref="K170:L170"/>
-    <mergeCell ref="AA158:AH158"/>
-    <mergeCell ref="AA157:AH157"/>
-    <mergeCell ref="O171:AH174"/>
-    <mergeCell ref="O175:AH175"/>
-    <mergeCell ref="O176:AH179"/>
-    <mergeCell ref="O190:AH191"/>
-    <mergeCell ref="K189:L189"/>
-    <mergeCell ref="O180:AH181"/>
-    <mergeCell ref="O182:AH183"/>
-    <mergeCell ref="O184:AH185"/>
-    <mergeCell ref="O186:AH186"/>
-    <mergeCell ref="O169:AH169"/>
-    <mergeCell ref="O170:AH170"/>
-    <mergeCell ref="D155:D158"/>
-    <mergeCell ref="D154:J154"/>
-    <mergeCell ref="E155:J157"/>
-    <mergeCell ref="D151:J151"/>
-    <mergeCell ref="D152:J152"/>
-    <mergeCell ref="D153:J153"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AA154:AH154"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="K154:Z154"/>
-    <mergeCell ref="K155:Z155"/>
-    <mergeCell ref="K156:Z156"/>
-    <mergeCell ref="K157:Z157"/>
-    <mergeCell ref="K158:Z158"/>
-    <mergeCell ref="AA156:AH156"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA153:AH153"/>
-    <mergeCell ref="AA151:AH151"/>
-    <mergeCell ref="AA152:AH152"/>
-    <mergeCell ref="K151:Z151"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/010_設計標準/UI標準(画面).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/010_設計標準/UI標準(画面).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2460A0C6-DB94-4C45-A065-250E9A965561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43A5F25-EEC1-4DA4-AA32-5ACEFF65B622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1835,13 +1835,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>ブラウザの戻るボタンを用いた画面遷移(いわゆるブラウザバック)については、許容する。</t>
-    <rPh sb="14" eb="18">
-      <t>ガメンセンイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>(複数ユーザで同じ端末を使用するような環境において、ブラウザ操作による個人情報や機密情報の漏洩を防ぐため。)</t>
     <rPh sb="1" eb="3">
       <t>フクスウ</t>
@@ -1872,25 +1865,6 @@
     </rPh>
     <rPh sb="48" eb="49">
       <t>フセ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>(ただし前提として、ブラウザキャッシュは行わないこと、データに不整合が発生しないように設計していることとする。)</t>
-    <rPh sb="4" eb="6">
-      <t>ゼンテイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>フセイゴウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -7072,6 +7046,26 @@
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ブラウザの戻るボタンを用いた画面遷移(いわゆるブラウザバック)については、動作保証対象外とする。</t>
+    <rPh sb="14" eb="18">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ホショウ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>前画面に戻る要件がある場合は、ブラウザの戻るボタンではなく画面の機能として戻るボタンを作成することで対応する。</t>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
@@ -24921,7 +24915,7 @@
       <c r="C2" s="414"/>
       <c r="D2" s="415"/>
       <c r="E2" s="416" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F2" s="417"/>
       <c r="G2" s="417"/>
@@ -25133,7 +25127,7 @@
       <c r="AD8" s="469"/>
       <c r="AE8" s="470"/>
       <c r="AF8" s="471" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AG8" s="466"/>
       <c r="AH8" s="466"/>
@@ -26622,7 +26616,7 @@
     <row r="7" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="147"/>
       <c r="B7" s="320" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C7" s="320"/>
       <c r="D7" s="321"/>
@@ -26642,7 +26636,7 @@
       <c r="R7" s="159"/>
       <c r="S7" s="159"/>
       <c r="T7" s="323" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="U7" s="323"/>
       <c r="V7" s="159"/>
@@ -26689,7 +26683,7 @@
       <c r="S8" s="159"/>
       <c r="T8" s="323"/>
       <c r="U8" s="324" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="V8" s="159"/>
       <c r="W8" s="159"/>
@@ -26829,7 +26823,7 @@
       <c r="S11" s="159"/>
       <c r="T11" s="323"/>
       <c r="U11" s="324" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="V11" s="159"/>
       <c r="W11" s="159"/>
@@ -26925,7 +26919,7 @@
       <c r="S13" s="159"/>
       <c r="T13" s="323"/>
       <c r="U13" s="324" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="V13" s="159"/>
       <c r="W13" s="159"/>
@@ -26971,7 +26965,7 @@
       <c r="S14" s="159"/>
       <c r="T14" s="323"/>
       <c r="U14" s="324" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V14" s="159"/>
       <c r="W14" s="159"/>
@@ -26998,7 +26992,7 @@
     <row r="15" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="147"/>
       <c r="B15" s="320" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C15" s="320"/>
       <c r="D15" s="320"/>
@@ -27019,7 +27013,7 @@
       <c r="S15" s="159"/>
       <c r="T15" s="323"/>
       <c r="U15" s="324" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="V15" s="159"/>
       <c r="W15" s="159"/>
@@ -27047,7 +27041,7 @@
       <c r="A16" s="147"/>
       <c r="B16" s="320"/>
       <c r="C16" s="320" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D16" s="320"/>
       <c r="E16" s="320"/>
@@ -27067,7 +27061,7 @@
       <c r="S16" s="159"/>
       <c r="T16" s="323"/>
       <c r="U16" s="324" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="V16" s="159"/>
       <c r="W16" s="159"/>
@@ -27095,7 +27089,7 @@
       <c r="A17" s="147"/>
       <c r="B17" s="320"/>
       <c r="C17" s="320" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D17" s="320"/>
       <c r="E17" s="320"/>
@@ -27115,7 +27109,7 @@
       <c r="S17" s="159"/>
       <c r="T17" s="323"/>
       <c r="U17" s="324" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="V17" s="159"/>
       <c r="W17" s="159"/>
@@ -27143,7 +27137,7 @@
       <c r="A18" s="147"/>
       <c r="B18" s="320"/>
       <c r="C18" s="320" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D18" s="320"/>
       <c r="E18" s="320"/>
@@ -27163,7 +27157,7 @@
       <c r="S18" s="159"/>
       <c r="T18" s="323"/>
       <c r="U18" s="324" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="V18" s="159"/>
       <c r="W18" s="159"/>
@@ -27209,7 +27203,7 @@
       <c r="S19" s="159"/>
       <c r="T19" s="159"/>
       <c r="U19" s="324" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="V19" s="159"/>
       <c r="W19" s="159"/>
@@ -27236,7 +27230,7 @@
     <row r="20" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="147"/>
       <c r="B20" s="320" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C20" s="320"/>
       <c r="D20" s="320"/>
@@ -27257,7 +27251,7 @@
       <c r="S20" s="159"/>
       <c r="T20" s="159"/>
       <c r="U20" s="324" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="V20" s="159"/>
       <c r="W20" s="159"/>
@@ -27286,7 +27280,7 @@
       <c r="A21" s="147"/>
       <c r="B21" s="320"/>
       <c r="C21" s="320" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D21" s="320"/>
       <c r="E21" s="320"/>
@@ -27306,7 +27300,7 @@
       <c r="S21" s="159"/>
       <c r="T21" s="159"/>
       <c r="U21" s="324" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="V21" s="159"/>
       <c r="W21" s="159"/>
@@ -27334,7 +27328,7 @@
       <c r="A22" s="147"/>
       <c r="B22" s="320"/>
       <c r="C22" s="320" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D22" s="320"/>
       <c r="E22" s="320"/>
@@ -29820,7 +29814,7 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B5" s="145" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C5" s="138"/>
       <c r="D5" s="138"/>
@@ -29835,7 +29829,7 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.15">
       <c r="D8" s="34" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.15">
@@ -30159,7 +30153,7 @@
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.15">
       <c r="D7" s="123" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.15">
@@ -30168,7 +30162,7 @@
     <row r="9" spans="1:42" s="138" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D9" s="111"/>
       <c r="E9" s="34" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:42" s="138" customFormat="1" x14ac:dyDescent="0.15">
@@ -30177,14 +30171,14 @@
     <row r="11" spans="1:42" s="138" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D11" s="111"/>
       <c r="F11" s="101" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G11" s="136"/>
       <c r="H11" s="136"/>
       <c r="I11" s="136"/>
       <c r="J11" s="135"/>
       <c r="K11" s="128" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L11" s="126"/>
       <c r="M11" s="126"/>
@@ -30211,14 +30205,14 @@
     <row r="12" spans="1:42" s="138" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D12" s="111"/>
       <c r="F12" s="101" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G12" s="136"/>
       <c r="H12" s="136"/>
       <c r="I12" s="136"/>
       <c r="J12" s="135"/>
       <c r="K12" s="128" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L12" s="126"/>
       <c r="M12" s="126"/>
@@ -30248,7 +30242,7 @@
     <row r="14" spans="1:42" s="138" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D14" s="111"/>
       <c r="E14" s="34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.15">
@@ -30260,7 +30254,7 @@
     </row>
     <row r="17" spans="4:35" s="73" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D17" s="34" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
@@ -30295,7 +30289,7 @@
     </row>
     <row r="19" spans="4:35" s="73" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E19" s="34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G19" s="72"/>
       <c r="T19" s="79"/>
@@ -30361,7 +30355,7 @@
       <c r="Q21" s="102"/>
       <c r="R21" s="103"/>
       <c r="S21" s="101" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="T21" s="102"/>
       <c r="U21" s="102"/>
@@ -30383,26 +30377,26 @@
     <row r="22" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D22" s="138"/>
       <c r="F22" s="341" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G22" s="133"/>
       <c r="H22" s="133"/>
       <c r="I22" s="134"/>
       <c r="J22" s="327" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K22" s="114"/>
       <c r="L22" s="114"/>
       <c r="M22" s="114"/>
       <c r="N22" s="115"/>
       <c r="O22" s="128" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="P22" s="126"/>
       <c r="Q22" s="126"/>
       <c r="R22" s="127"/>
       <c r="S22" s="129" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="T22" s="126"/>
       <c r="U22" s="126"/>
@@ -30430,7 +30424,7 @@
       <c r="H23" s="130"/>
       <c r="I23" s="131"/>
       <c r="J23" s="179" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K23" s="180"/>
       <c r="L23" s="180"/>
@@ -30630,28 +30624,28 @@
     </row>
     <row r="30" spans="4:35" s="79" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F30" s="81" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G30" s="78"/>
     </row>
     <row r="31" spans="4:35" s="79" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F31" s="62"/>
       <c r="G31" s="81" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="4:35" s="91" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D32" s="87"/>
       <c r="E32" s="34"/>
       <c r="G32" s="34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="3:49" s="79" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D33" s="78"/>
       <c r="E33" s="34"/>
       <c r="G33" s="34" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="3:49" x14ac:dyDescent="0.15">
@@ -30697,7 +30691,7 @@
     <row r="36" spans="3:49" x14ac:dyDescent="0.15">
       <c r="C36" s="17"/>
       <c r="D36" s="32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
@@ -30782,7 +30776,7 @@
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -30937,13 +30931,13 @@
       <c r="H41" s="108"/>
       <c r="I41" s="109"/>
       <c r="J41" s="171" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K41" s="108"/>
       <c r="L41" s="108"/>
       <c r="M41" s="109"/>
       <c r="N41" s="137" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O41" s="172"/>
       <c r="P41" s="172"/>
@@ -30991,7 +30985,7 @@
       <c r="L42" s="111"/>
       <c r="M42" s="112"/>
       <c r="N42" s="174" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O42" s="42"/>
       <c r="P42" s="42"/>
@@ -31089,7 +31083,7 @@
       <c r="L44" s="108"/>
       <c r="M44" s="109"/>
       <c r="N44" s="137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O44" s="172"/>
       <c r="P44" s="172"/>
@@ -31137,7 +31131,7 @@
       <c r="L45" s="111"/>
       <c r="M45" s="112"/>
       <c r="N45" s="132" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O45" s="133"/>
       <c r="P45" s="133"/>
@@ -31185,7 +31179,7 @@
       <c r="L46" s="119"/>
       <c r="M46" s="120"/>
       <c r="N46" s="118" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O46" s="119"/>
       <c r="P46" s="119"/>
@@ -31231,13 +31225,13 @@
       <c r="H47" s="121"/>
       <c r="I47" s="122"/>
       <c r="J47" s="107" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K47" s="121"/>
       <c r="L47" s="121"/>
       <c r="M47" s="122"/>
       <c r="N47" s="137" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O47" s="172"/>
       <c r="P47" s="172"/>
@@ -31285,7 +31279,7 @@
       <c r="L48" s="123"/>
       <c r="M48" s="124"/>
       <c r="N48" s="132" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O48" s="133"/>
       <c r="P48" s="133"/>
@@ -31333,7 +31327,7 @@
       <c r="L49" s="123"/>
       <c r="M49" s="124"/>
       <c r="N49" s="118" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O49" s="119"/>
       <c r="P49" s="119"/>
@@ -31385,7 +31379,7 @@
       <c r="L50" s="125"/>
       <c r="M50" s="109"/>
       <c r="N50" s="137" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O50" s="172"/>
       <c r="P50" s="172"/>
@@ -31433,7 +31427,7 @@
       <c r="L51" s="111"/>
       <c r="M51" s="112"/>
       <c r="N51" s="132" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O51" s="133"/>
       <c r="P51" s="133"/>
@@ -31481,7 +31475,7 @@
       <c r="L52" s="111"/>
       <c r="M52" s="112"/>
       <c r="N52" s="132" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O52" s="133"/>
       <c r="P52" s="133"/>
@@ -31529,7 +31523,7 @@
       <c r="L53" s="119"/>
       <c r="M53" s="120"/>
       <c r="N53" s="118" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O53" s="119"/>
       <c r="P53" s="119"/>
@@ -31661,7 +31655,7 @@
     <row r="56" spans="3:49" s="79" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C56" s="17"/>
       <c r="D56" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="43"/>
@@ -31808,7 +31802,7 @@
       <c r="D59" s="17"/>
       <c r="E59" s="43"/>
       <c r="F59" s="43" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G59" s="43"/>
       <c r="H59" s="43"/>
@@ -31958,18 +31952,18 @@
       <c r="E62" s="17"/>
       <c r="F62" s="32"/>
       <c r="G62" s="527" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H62" s="528"/>
       <c r="I62" s="528"/>
       <c r="J62" s="529"/>
       <c r="K62" s="527" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L62" s="528"/>
       <c r="M62" s="529"/>
       <c r="N62" s="137" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O62" s="172"/>
       <c r="P62" s="172"/>
@@ -32018,7 +32012,7 @@
       <c r="L63" s="531"/>
       <c r="M63" s="532"/>
       <c r="N63" s="174" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O63" s="42"/>
       <c r="P63" s="42"/>
@@ -32067,7 +32061,7 @@
       <c r="L64" s="531"/>
       <c r="M64" s="532"/>
       <c r="N64" s="174" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O64" s="42"/>
       <c r="P64" s="42"/>
@@ -32116,7 +32110,7 @@
       <c r="L65" s="531"/>
       <c r="M65" s="532"/>
       <c r="N65" s="174" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O65" s="42"/>
       <c r="P65" s="42"/>
@@ -32205,18 +32199,18 @@
       <c r="E67" s="15"/>
       <c r="F67" s="33"/>
       <c r="G67" s="537" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H67" s="538"/>
       <c r="I67" s="538"/>
       <c r="J67" s="539"/>
       <c r="K67" s="527" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L67" s="528"/>
       <c r="M67" s="529"/>
       <c r="N67" s="291" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="O67" s="172"/>
       <c r="P67" s="172"/>
@@ -32264,7 +32258,7 @@
       <c r="L68" s="531"/>
       <c r="M68" s="532"/>
       <c r="N68" s="174" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="O68" s="42"/>
       <c r="P68" s="42"/>
@@ -32312,7 +32306,7 @@
       <c r="L69" s="531"/>
       <c r="M69" s="532"/>
       <c r="N69" s="174" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O69" s="42"/>
       <c r="P69" s="42"/>
@@ -32516,7 +32510,7 @@
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="33" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
@@ -32553,7 +32547,7 @@
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
       <c r="F75" s="33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
@@ -32590,7 +32584,7 @@
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
       <c r="F76" s="33" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
@@ -32661,12 +32655,12 @@
     </row>
     <row r="80" spans="3:49" x14ac:dyDescent="0.15">
       <c r="D80" s="32" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="81" spans="4:34" x14ac:dyDescent="0.15">
       <c r="E81" s="123" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F81" s="123"/>
       <c r="G81" s="123"/>
@@ -32733,7 +32727,7 @@
     <row r="83" spans="4:34" x14ac:dyDescent="0.15">
       <c r="E83" s="123"/>
       <c r="F83" s="123" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G83" s="123"/>
       <c r="H83" s="123"/>
@@ -32800,7 +32794,7 @@
       <c r="E85" s="17"/>
       <c r="F85" s="123"/>
       <c r="G85" s="518" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H85" s="519"/>
       <c r="I85" s="519"/>
@@ -32838,18 +32832,18 @@
       <c r="E86" s="15"/>
       <c r="F86" s="33"/>
       <c r="G86" s="327" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H86" s="328"/>
       <c r="I86" s="328"/>
       <c r="J86" s="329"/>
       <c r="K86" s="327" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L86" s="328"/>
       <c r="M86" s="329"/>
       <c r="N86" s="291" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O86" s="292"/>
       <c r="P86" s="292"/>
@@ -32883,7 +32877,7 @@
       <c r="L87" s="331"/>
       <c r="M87" s="332"/>
       <c r="N87" s="176" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O87" s="177"/>
       <c r="P87" s="177"/>
@@ -32908,7 +32902,7 @@
     </row>
     <row r="89" spans="4:34" x14ac:dyDescent="0.15">
       <c r="E89" s="33" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
@@ -32963,7 +32957,7 @@
     <row r="91" spans="4:34" x14ac:dyDescent="0.15">
       <c r="E91" s="15"/>
       <c r="F91" s="33" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G91" s="15"/>
       <c r="H91" s="15"/>
@@ -33042,7 +33036,7 @@
     </row>
     <row r="94" spans="4:34" x14ac:dyDescent="0.15">
       <c r="D94" s="32" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E94" s="15"/>
       <c r="F94" s="33"/>
@@ -33071,7 +33065,7 @@
     </row>
     <row r="95" spans="4:34" x14ac:dyDescent="0.15">
       <c r="E95" s="123" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96" spans="4:34" x14ac:dyDescent="0.15">
@@ -33080,7 +33074,7 @@
     <row r="97" spans="5:34" x14ac:dyDescent="0.15">
       <c r="E97" s="123"/>
       <c r="F97" s="123" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="98" spans="5:34" x14ac:dyDescent="0.15">
@@ -33126,18 +33120,18 @@
     <row r="100" spans="5:34" x14ac:dyDescent="0.15">
       <c r="E100" s="15"/>
       <c r="G100" s="372" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H100" s="373"/>
       <c r="I100" s="373"/>
       <c r="J100" s="374"/>
       <c r="K100" s="372" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L100" s="373"/>
       <c r="M100" s="374"/>
       <c r="N100" s="291" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="O100" s="292"/>
       <c r="P100" s="292"/>
@@ -33170,7 +33164,7 @@
       <c r="L101" s="375"/>
       <c r="M101" s="376"/>
       <c r="N101" s="174" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="O101" s="42"/>
       <c r="P101" s="42"/>
@@ -33203,7 +33197,7 @@
       <c r="L102" s="375"/>
       <c r="M102" s="376"/>
       <c r="N102" s="174" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="O102" s="42"/>
       <c r="P102" s="42"/>
@@ -33262,12 +33256,12 @@
     </row>
     <row r="105" spans="5:34" x14ac:dyDescent="0.15">
       <c r="E105" s="33" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="107" spans="5:34" x14ac:dyDescent="0.15">
       <c r="F107" s="33" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -33501,7 +33495,7 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B5" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.15">
@@ -33511,7 +33505,7 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.15">
       <c r="C8" s="34" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:42" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -33519,13 +33513,13 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.15">
       <c r="C10" s="36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:42" s="77" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:42" x14ac:dyDescent="0.15">
       <c r="D12" s="34" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.15">
@@ -33586,7 +33580,7 @@
       <c r="R15" s="205"/>
       <c r="S15" s="206"/>
       <c r="T15" s="198" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="U15" s="205"/>
       <c r="V15" s="205"/>
@@ -33624,7 +33618,7 @@
       <c r="R16" s="205"/>
       <c r="S16" s="206"/>
       <c r="T16" s="198" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="U16" s="205"/>
       <c r="V16" s="205"/>
@@ -33642,7 +33636,7 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="E17" s="186" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F17" s="212"/>
       <c r="G17" s="212"/>
@@ -33650,7 +33644,7 @@
       <c r="I17" s="212"/>
       <c r="J17" s="200"/>
       <c r="K17" s="198" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L17" s="205"/>
       <c r="M17" s="205"/>
@@ -33661,7 +33655,7 @@
       <c r="R17" s="205"/>
       <c r="S17" s="206"/>
       <c r="T17" s="198" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="U17" s="205"/>
       <c r="V17" s="205"/>
@@ -33685,7 +33679,7 @@
       <c r="I18" s="202"/>
       <c r="J18" s="203"/>
       <c r="K18" s="198" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L18" s="205"/>
       <c r="M18" s="205"/>
@@ -33696,7 +33690,7 @@
       <c r="R18" s="205"/>
       <c r="S18" s="206"/>
       <c r="T18" s="198" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="U18" s="205"/>
       <c r="V18" s="205"/>
@@ -33758,7 +33752,7 @@
       <c r="I20" s="190"/>
       <c r="J20" s="191"/>
       <c r="K20" s="186" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L20" s="212"/>
       <c r="M20" s="212"/>
@@ -33769,7 +33763,7 @@
       <c r="R20" s="212"/>
       <c r="S20" s="200"/>
       <c r="T20" s="186" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="U20" s="199"/>
       <c r="V20" s="199"/>
@@ -33803,7 +33797,7 @@
       <c r="R21" s="202"/>
       <c r="S21" s="203"/>
       <c r="T21" s="195" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="U21" s="196"/>
       <c r="V21" s="196"/>
@@ -33853,12 +33847,12 @@
     </row>
     <row r="23" spans="1:33" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D23" s="34" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:33" s="213" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D24" s="34" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="T24" s="34"/>
     </row>
@@ -33893,7 +33887,7 @@
     <row r="36" spans="3:5" s="100" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C38" s="36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="3:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -33902,7 +33896,7 @@
     <row r="40" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C40" s="53"/>
       <c r="D40" s="43" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.15">
@@ -33993,7 +33987,7 @@
       <c r="J55" s="232"/>
       <c r="K55" s="218"/>
       <c r="L55" s="217" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M55" s="235"/>
       <c r="N55" s="235"/>
@@ -34024,7 +34018,7 @@
       <c r="J56" s="223"/>
       <c r="K56" s="224"/>
       <c r="L56" s="222" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M56" s="223"/>
       <c r="N56" s="223"/>
@@ -34055,7 +34049,7 @@
       <c r="J57" s="226"/>
       <c r="K57" s="227"/>
       <c r="L57" s="225" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M57" s="226"/>
       <c r="N57" s="226"/>
@@ -34085,7 +34079,7 @@
     <row r="60" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C60" s="53"/>
       <c r="E60" s="34" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F60" s="34"/>
     </row>
@@ -34106,7 +34100,7 @@
       <c r="E63" s="34"/>
       <c r="F63" s="34"/>
       <c r="G63" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="64" spans="3:29" x14ac:dyDescent="0.15">
@@ -34114,7 +34108,7 @@
       <c r="E64" s="34"/>
       <c r="F64" s="34"/>
       <c r="G64" s="34" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="3:7" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -34132,13 +34126,13 @@
     <row r="67" spans="3:7" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C67" s="53"/>
       <c r="G67" s="42" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="68" spans="3:7" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C68" s="53"/>
       <c r="G68" s="34" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.15">
@@ -34161,13 +34155,13 @@
     <row r="72" spans="3:7" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C72" s="53"/>
       <c r="G72" s="34" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="73" spans="3:7" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C73" s="53"/>
       <c r="G73" s="34" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.15">
@@ -34183,13 +34177,13 @@
     <row r="76" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C76" s="53"/>
       <c r="G76" s="34" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77" spans="3:7" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C77" s="53"/>
       <c r="G77" s="34" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.15">
@@ -34201,19 +34195,19 @@
     <row r="80" spans="3:7" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C80" s="53"/>
       <c r="D80" s="34" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="81" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C81" s="53"/>
       <c r="E81" s="34" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="82" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C82" s="53"/>
       <c r="E82" s="34" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="83" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34222,7 +34216,7 @@
     <row r="84" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C84" s="53"/>
       <c r="E84" s="34" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="85" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34252,7 +34246,7 @@
     <row r="93" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C93" s="53"/>
       <c r="N93" s="34" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="94" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34292,7 +34286,7 @@
     <row r="96" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C96" s="53"/>
       <c r="F96" s="387" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G96" s="388"/>
       <c r="H96" s="388"/>
@@ -34300,7 +34294,7 @@
       <c r="J96" s="388"/>
       <c r="K96" s="389"/>
       <c r="L96" s="387" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="M96" s="388"/>
       <c r="N96" s="388"/>
@@ -34323,7 +34317,7 @@
     <row r="97" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C97" s="53"/>
       <c r="F97" s="387" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G97" s="388"/>
       <c r="H97" s="388"/>
@@ -34331,7 +34325,7 @@
       <c r="J97" s="388"/>
       <c r="K97" s="389"/>
       <c r="L97" s="387" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="M97" s="388"/>
       <c r="N97" s="388"/>
@@ -34354,7 +34348,7 @@
     <row r="98" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C98" s="53"/>
       <c r="F98" s="384" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G98" s="385"/>
       <c r="H98" s="385"/>
@@ -34362,7 +34356,7 @@
       <c r="J98" s="385"/>
       <c r="K98" s="386"/>
       <c r="L98" s="384" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M98" s="385"/>
       <c r="N98" s="385"/>
@@ -34388,7 +34382,7 @@
     <row r="100" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C100" s="53"/>
       <c r="F100" s="34" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="101" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34400,7 +34394,7 @@
     <row r="103" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C103" s="53"/>
       <c r="E103" s="34" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F103" s="34"/>
     </row>
@@ -34413,13 +34407,13 @@
     <row r="105" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C105" s="53"/>
       <c r="F105" s="34" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="106" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C106" s="53"/>
       <c r="G106" s="34" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="107" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34429,20 +34423,20 @@
     <row r="108" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C108" s="53"/>
       <c r="F108" s="34" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G108" s="42"/>
     </row>
     <row r="109" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C109" s="53"/>
       <c r="G109" s="34" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="110" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C110" s="53"/>
       <c r="G110" s="34" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="111" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34452,20 +34446,20 @@
     <row r="112" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C112" s="53"/>
       <c r="F112" s="34" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="113" spans="3:40" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C113" s="53"/>
       <c r="F113" s="34"/>
       <c r="G113" s="34" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="114" spans="3:40" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C114" s="53"/>
       <c r="G114" s="34" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="115" spans="3:40" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34477,13 +34471,13 @@
     <row r="117" spans="3:40" x14ac:dyDescent="0.15">
       <c r="C117" s="53"/>
       <c r="D117" s="34" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="118" spans="3:40" x14ac:dyDescent="0.15">
       <c r="C118" s="53"/>
       <c r="E118" s="34" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="119" spans="3:40" x14ac:dyDescent="0.15">
@@ -34646,7 +34640,7 @@
     <row r="133" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C133" s="53"/>
       <c r="D133" s="43" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="134" spans="3:29" x14ac:dyDescent="0.15">
@@ -34733,7 +34727,7 @@
       <c r="J147" s="356"/>
       <c r="K147" s="357"/>
       <c r="L147" s="355" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M147" s="356"/>
       <c r="N147" s="356"/>
@@ -34756,7 +34750,7 @@
     <row r="148" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C148" s="53"/>
       <c r="F148" s="225" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G148" s="226"/>
       <c r="H148" s="226"/>
@@ -34764,7 +34758,7 @@
       <c r="J148" s="226"/>
       <c r="K148" s="227"/>
       <c r="L148" s="225" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M148" s="226"/>
       <c r="N148" s="226"/>
@@ -34787,7 +34781,7 @@
     <row r="149" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C149" s="53"/>
       <c r="F149" s="225" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G149" s="226"/>
       <c r="H149" s="226"/>
@@ -34795,7 +34789,7 @@
       <c r="J149" s="226"/>
       <c r="K149" s="227"/>
       <c r="L149" s="225" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M149" s="226"/>
       <c r="N149" s="226"/>
@@ -34818,7 +34812,7 @@
     <row r="150" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C150" s="53"/>
       <c r="F150" s="355" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G150" s="356"/>
       <c r="H150" s="356"/>
@@ -34826,7 +34820,7 @@
       <c r="J150" s="356"/>
       <c r="K150" s="357"/>
       <c r="L150" s="355" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M150" s="356"/>
       <c r="N150" s="356"/>
@@ -34857,7 +34851,7 @@
     <row r="153" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C153" s="53"/>
       <c r="E153" s="34" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F153" s="34"/>
     </row>
@@ -34870,7 +34864,7 @@
       <c r="C155" s="53"/>
       <c r="E155" s="34"/>
       <c r="F155" s="34" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="156" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34878,7 +34872,7 @@
       <c r="E156" s="34"/>
       <c r="F156" s="34"/>
       <c r="G156" s="34" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="157" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34889,7 +34883,7 @@
     <row r="158" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C158" s="53"/>
       <c r="F158" s="34" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="159" spans="3:29" x14ac:dyDescent="0.15">
@@ -34901,13 +34895,13 @@
     <row r="160" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C160" s="53"/>
       <c r="G160" s="34" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="161" spans="3:21" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C161" s="53"/>
       <c r="G161" s="34" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="162" spans="3:21" x14ac:dyDescent="0.15">
@@ -34919,7 +34913,7 @@
     <row r="164" spans="3:21" x14ac:dyDescent="0.15">
       <c r="C164" s="53"/>
       <c r="D164" s="43" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="165" spans="3:21" x14ac:dyDescent="0.15">
@@ -35007,7 +35001,7 @@
       <c r="J178" s="223"/>
       <c r="K178" s="224"/>
       <c r="L178" s="222" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M178" s="223"/>
       <c r="N178" s="223"/>
@@ -35030,7 +35024,7 @@
     <row r="179" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C179" s="53"/>
       <c r="F179" s="222" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G179" s="223"/>
       <c r="H179" s="223"/>
@@ -35038,7 +35032,7 @@
       <c r="J179" s="223"/>
       <c r="K179" s="224"/>
       <c r="L179" s="222" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="M179" s="223"/>
       <c r="N179" s="223"/>
@@ -35061,7 +35055,7 @@
     <row r="180" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C180" s="53"/>
       <c r="F180" s="225" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G180" s="226"/>
       <c r="H180" s="226"/>
@@ -35092,7 +35086,7 @@
     <row r="181" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C181" s="53"/>
       <c r="F181" s="225" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G181" s="226"/>
       <c r="H181" s="226"/>
@@ -35100,7 +35094,7 @@
       <c r="J181" s="226"/>
       <c r="K181" s="227"/>
       <c r="L181" s="225" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M181" s="226"/>
       <c r="N181" s="226"/>
@@ -35130,7 +35124,7 @@
     <row r="184" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C184" s="53"/>
       <c r="E184" s="34" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F184" s="34"/>
     </row>
@@ -35159,7 +35153,7 @@
       <c r="E188" s="34"/>
       <c r="F188" s="34"/>
       <c r="G188" s="34" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="189" spans="3:29" x14ac:dyDescent="0.15">
@@ -35167,7 +35161,7 @@
       <c r="E189" s="34"/>
       <c r="F189" s="34"/>
       <c r="G189" s="34" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="190" spans="3:29" x14ac:dyDescent="0.15">
@@ -35185,7 +35179,7 @@
     <row r="192" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C192" s="53"/>
       <c r="G192" s="34" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="193" spans="3:7" x14ac:dyDescent="0.15">
@@ -35195,7 +35189,7 @@
     <row r="194" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C194" s="53"/>
       <c r="F194" s="34" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G194" s="34"/>
     </row>
@@ -35208,7 +35202,7 @@
     <row r="196" spans="3:7" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C196" s="53"/>
       <c r="G196" s="34" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="197" spans="3:7" x14ac:dyDescent="0.15">
@@ -35220,13 +35214,13 @@
     <row r="198" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C198" s="53"/>
       <c r="G198" s="34" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="199" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C199" s="53"/>
       <c r="G199" s="34" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="200" spans="3:7" x14ac:dyDescent="0.15">
@@ -35236,14 +35230,14 @@
     <row r="201" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C201" s="53"/>
       <c r="F201" s="34" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="202" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C202" s="53"/>
       <c r="F202" s="34"/>
       <c r="G202" s="34" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="203" spans="3:7" x14ac:dyDescent="0.15">
@@ -35254,7 +35248,7 @@
     <row r="204" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C204" s="53"/>
       <c r="F204" s="34" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="205" spans="3:7" x14ac:dyDescent="0.15">
@@ -35272,14 +35266,14 @@
     <row r="208" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C208" s="53"/>
       <c r="D208" s="43" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="209" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C209" s="53"/>
       <c r="D209" s="43"/>
       <c r="E209" s="34" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="210" spans="3:29" x14ac:dyDescent="0.15">
@@ -35383,7 +35377,7 @@
       <c r="J221" s="223"/>
       <c r="K221" s="224"/>
       <c r="L221" s="228" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M221" s="229"/>
       <c r="N221" s="229"/>
@@ -35413,7 +35407,7 @@
     <row r="224" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C224" s="53"/>
       <c r="E224" s="34" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F224" s="34"/>
     </row>
@@ -35432,13 +35426,13 @@
     <row r="227" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C227" s="53"/>
       <c r="G227" s="34" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="228" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C228" s="53"/>
       <c r="G228" s="34" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="229" spans="3:7" x14ac:dyDescent="0.15">
@@ -35447,13 +35441,13 @@
     <row r="230" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C230" s="53"/>
       <c r="D230" s="34" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="231" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C231" s="53"/>
       <c r="E231" s="34" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="232" spans="3:7" x14ac:dyDescent="0.15">
@@ -35541,7 +35535,7 @@
       <c r="J243" s="223"/>
       <c r="K243" s="224"/>
       <c r="L243" s="222" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M243" s="223"/>
       <c r="N243" s="223"/>
@@ -35563,19 +35557,19 @@
     </row>
     <row r="246" spans="3:29" x14ac:dyDescent="0.15">
       <c r="E246" s="34" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="248" spans="3:29" x14ac:dyDescent="0.15">
       <c r="F248" s="94" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G248" s="34"/>
     </row>
     <row r="249" spans="3:29" x14ac:dyDescent="0.15">
       <c r="F249" s="94"/>
       <c r="G249" s="34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="250" spans="3:29" s="94" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -35588,7 +35582,7 @@
     <row r="252" spans="3:29" s="94" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F252" s="47"/>
       <c r="G252" s="34" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="253" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -35599,21 +35593,21 @@
     </row>
     <row r="255" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C255" s="34" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G255" s="34"/>
     </row>
     <row r="256" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C256" s="34"/>
       <c r="D256" s="34" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G256" s="34"/>
     </row>
     <row r="257" spans="3:7" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C257" s="34"/>
       <c r="D257" s="34" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G257" s="34"/>
     </row>
@@ -35624,7 +35618,7 @@
     <row r="259" spans="3:7" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C259" s="34"/>
       <c r="D259" s="34" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G259" s="34"/>
     </row>
@@ -35668,7 +35662,7 @@
     </row>
     <row r="272" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C272" s="36" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="273" spans="4:5" x14ac:dyDescent="0.15">
@@ -35676,7 +35670,7 @@
     </row>
     <row r="274" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D274" s="34" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="275" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -35684,17 +35678,17 @@
     </row>
     <row r="276" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D276" s="34" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="277" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D277" s="34" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="278" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D278" s="34" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="279" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -35702,25 +35696,25 @@
     </row>
     <row r="280" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D280" s="366" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="281" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D281" s="34"/>
       <c r="E281" s="34" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="282" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D282" s="34"/>
       <c r="E282" s="34" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="283" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D283" s="34"/>
       <c r="E283" s="34" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="284" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -35758,19 +35752,19 @@
     </row>
     <row r="295" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D295" s="366" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="296" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D296" s="34"/>
       <c r="E296" s="34" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="297" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D297" s="34"/>
       <c r="E297" s="34" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="298" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -35818,19 +35812,19 @@
     </row>
     <row r="309" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D309" s="366" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="310" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D310" s="34"/>
       <c r="E310" s="34" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="311" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D311" s="34"/>
       <c r="E311" s="34" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="312" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -35862,7 +35856,7 @@
     </row>
     <row r="321" spans="4:37" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D321" s="34" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="322" spans="4:37" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -35870,7 +35864,7 @@
     </row>
     <row r="323" spans="4:37" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E323" s="358" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F323" s="359"/>
       <c r="G323" s="359"/>
@@ -35879,7 +35873,7 @@
       <c r="J323" s="359"/>
       <c r="K323" s="359"/>
       <c r="L323" s="358" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M323" s="359"/>
       <c r="N323" s="359"/>
@@ -35906,7 +35900,7 @@
     </row>
     <row r="324" spans="4:37" s="77" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E324" s="363" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F324" s="362"/>
       <c r="G324" s="362"/>
@@ -35915,7 +35909,7 @@
       <c r="J324" s="362"/>
       <c r="K324" s="362"/>
       <c r="L324" s="363" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M324" s="362"/>
       <c r="N324" s="362"/>
@@ -35942,7 +35936,7 @@
     </row>
     <row r="325" spans="4:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E325" s="363" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F325" s="362"/>
       <c r="G325" s="362"/>
@@ -35978,7 +35972,7 @@
     </row>
     <row r="326" spans="4:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E326" s="363" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F326" s="362"/>
       <c r="G326" s="362"/>
@@ -35987,7 +35981,7 @@
       <c r="J326" s="362"/>
       <c r="K326" s="362"/>
       <c r="L326" s="363" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M326" s="362"/>
       <c r="N326" s="362"/>
@@ -36016,12 +36010,12 @@
     <row r="327" spans="4:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="328" spans="4:37" x14ac:dyDescent="0.15">
       <c r="E328" s="34" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="329" spans="4:37" x14ac:dyDescent="0.15">
       <c r="E329" s="34" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="331" spans="4:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -36251,7 +36245,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B5" s="36" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.15">
@@ -36266,7 +36260,7 @@
     <row r="8" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A8" s="36"/>
       <c r="C8" s="34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:35" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -36274,7 +36268,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C10" s="36" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.15">
@@ -36288,7 +36282,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="E13" s="34" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.15">
@@ -36339,7 +36333,7 @@
       </c>
       <c r="G16" s="255"/>
       <c r="H16" s="238" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I16" s="254"/>
       <c r="J16" s="254"/>
@@ -36351,7 +36345,7 @@
       <c r="N16" s="294"/>
       <c r="O16" s="295"/>
       <c r="P16" s="265" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="292"/>
       <c r="R16" s="292"/>
@@ -36437,19 +36431,19 @@
       </c>
       <c r="G19" s="255"/>
       <c r="H19" s="238" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I19" s="254"/>
       <c r="J19" s="254"/>
       <c r="K19" s="255"/>
       <c r="L19" s="171" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M19" s="296"/>
       <c r="N19" s="296"/>
       <c r="O19" s="297"/>
       <c r="P19" s="333" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="Q19" s="239"/>
       <c r="R19" s="239"/>
@@ -36536,19 +36530,19 @@
       <c r="F22" s="333"/>
       <c r="G22" s="124"/>
       <c r="H22" s="327" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I22" s="80"/>
       <c r="J22" s="80"/>
       <c r="K22" s="342"/>
       <c r="L22" s="353" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M22" s="80"/>
       <c r="N22" s="80"/>
       <c r="O22" s="342"/>
       <c r="P22" s="327" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q22" s="80"/>
       <c r="R22" s="80"/>
@@ -36633,19 +36627,19 @@
       <c r="F25" s="333"/>
       <c r="G25" s="124"/>
       <c r="H25" s="327" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I25" s="284"/>
       <c r="J25" s="284"/>
       <c r="K25" s="337"/>
       <c r="L25" s="354" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M25" s="284"/>
       <c r="N25" s="284"/>
       <c r="O25" s="337"/>
       <c r="P25" s="352" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="Q25" s="284"/>
       <c r="R25" s="284"/>
@@ -36729,19 +36723,19 @@
       <c r="F28" s="333"/>
       <c r="G28" s="124"/>
       <c r="H28" s="327" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I28" s="284"/>
       <c r="J28" s="284"/>
       <c r="K28" s="337"/>
       <c r="L28" s="354" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M28" s="284"/>
       <c r="N28" s="284"/>
       <c r="O28" s="337"/>
       <c r="P28" s="352" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Q28" s="284"/>
       <c r="R28" s="284"/>
@@ -36825,19 +36819,19 @@
       <c r="F31" s="333"/>
       <c r="G31" s="124"/>
       <c r="H31" s="327" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I31" s="346"/>
       <c r="J31" s="346"/>
       <c r="K31" s="347"/>
       <c r="L31" s="171" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M31" s="296"/>
       <c r="N31" s="296"/>
       <c r="O31" s="297"/>
       <c r="P31" s="327" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q31" s="328"/>
       <c r="R31" s="328"/>
@@ -36921,19 +36915,19 @@
       <c r="F34" s="241"/>
       <c r="G34" s="124"/>
       <c r="H34" s="238" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I34" s="254"/>
       <c r="J34" s="254"/>
       <c r="K34" s="255"/>
       <c r="L34" s="171" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M34" s="296"/>
       <c r="N34" s="296"/>
       <c r="O34" s="297"/>
       <c r="P34" s="238" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Q34" s="239"/>
       <c r="R34" s="239"/>
@@ -37017,14 +37011,14 @@
     </row>
     <row r="37" spans="1:39" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F37" s="34" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:39" s="289" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="1:39" s="289" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="1:39" s="266" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E40" s="34" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.15">
@@ -37088,7 +37082,7 @@
       <c r="N43" s="296"/>
       <c r="O43" s="297"/>
       <c r="P43" s="265" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Q43" s="292"/>
       <c r="R43" s="292"/>
@@ -37265,7 +37259,7 @@
     </row>
     <row r="49" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" s="238" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G49" s="254"/>
       <c r="H49" s="254"/>
@@ -37273,7 +37267,7 @@
       <c r="J49" s="264"/>
       <c r="K49" s="245"/>
       <c r="L49" s="171" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M49" s="296"/>
       <c r="N49" s="296"/>
@@ -37365,7 +37359,7 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.15">
       <c r="D53" s="34" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.15">
@@ -37374,7 +37368,7 @@
     <row r="55" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A55" s="48"/>
       <c r="E55" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="X55" s="34"/>
     </row>
@@ -37395,13 +37389,13 @@
     <row r="59" spans="1:34" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E59" s="34"/>
       <c r="F59" s="34" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" spans="1:34" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E60" s="34"/>
       <c r="F60" s="34" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="61" spans="1:34" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -37417,7 +37411,7 @@
     <row r="63" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A63" s="34"/>
       <c r="E63" s="34" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AA63" s="34"/>
       <c r="AE63" s="34"/>
@@ -37432,7 +37426,7 @@
       <c r="A65" s="34"/>
       <c r="E65" s="34"/>
       <c r="F65" s="34" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AD65" s="34"/>
       <c r="AE65" s="34"/>
@@ -37458,7 +37452,7 @@
       <c r="A69" s="34"/>
       <c r="E69" s="34"/>
       <c r="F69" s="34" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AE69" s="34"/>
     </row>
@@ -37482,7 +37476,7 @@
       <c r="A73" s="34"/>
       <c r="E73" s="34"/>
       <c r="F73" s="55" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G73" s="47"/>
       <c r="H73" s="47"/>
@@ -37497,7 +37491,7 @@
       <c r="A74" s="34"/>
       <c r="E74" s="34"/>
       <c r="F74" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AE74" s="34"/>
     </row>
@@ -37507,7 +37501,7 @@
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.15">
       <c r="C76" s="36" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:31" s="67" customFormat="1" x14ac:dyDescent="0.15">
@@ -37690,7 +37684,7 @@
     </row>
     <row r="121" spans="3:57" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E121" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="3:57" s="75" customFormat="1" x14ac:dyDescent="0.15">
@@ -37788,7 +37782,7 @@
       <c r="L124" s="199"/>
       <c r="M124" s="199"/>
       <c r="N124" s="394" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O124" s="199"/>
       <c r="P124" s="199"/>
@@ -37928,7 +37922,7 @@
       <c r="L127" s="349"/>
       <c r="M127" s="349"/>
       <c r="N127" s="66" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O127" s="307"/>
       <c r="P127" s="307"/>
@@ -37955,7 +37949,7 @@
         <v>3</v>
       </c>
       <c r="G128" s="403" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H128" s="404"/>
       <c r="I128" s="404"/>
@@ -37964,7 +37958,7 @@
       <c r="L128" s="199"/>
       <c r="M128" s="199"/>
       <c r="N128" s="309" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O128" s="402"/>
       <c r="P128" s="402"/>
@@ -38021,7 +38015,7 @@
         <v>4</v>
       </c>
       <c r="G130" s="238" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H130" s="254"/>
       <c r="I130" s="254"/>
@@ -38030,7 +38024,7 @@
       <c r="L130" s="199"/>
       <c r="M130" s="199"/>
       <c r="N130" s="309" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O130" s="402"/>
       <c r="P130" s="402"/>
@@ -38117,7 +38111,7 @@
       <c r="L132" s="123"/>
       <c r="M132" s="123"/>
       <c r="N132" s="394" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O132" s="199"/>
       <c r="P132" s="199"/>
@@ -38225,7 +38219,7 @@
       <c r="L134" s="199"/>
       <c r="M134" s="199"/>
       <c r="N134" s="394" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O134" s="199"/>
       <c r="P134" s="199"/>
@@ -38421,7 +38415,7 @@
     <row r="140" spans="1:57" x14ac:dyDescent="0.15">
       <c r="D140" s="34"/>
       <c r="E140" s="34" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="T140" s="34"/>
       <c r="AK140" s="266"/>
@@ -38535,7 +38529,7 @@
       <c r="L144" s="397"/>
       <c r="M144" s="398"/>
       <c r="N144" s="259" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O144" s="260"/>
       <c r="P144" s="351"/>
@@ -38567,7 +38561,7 @@
       <c r="L145" s="397"/>
       <c r="M145" s="398"/>
       <c r="N145" s="259" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="O145" s="260"/>
       <c r="P145" s="351"/>
@@ -38580,7 +38574,7 @@
         <v>3</v>
       </c>
       <c r="G146" s="405" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H146" s="253"/>
       <c r="I146" s="253"/>
@@ -38589,7 +38583,7 @@
       <c r="L146" s="397"/>
       <c r="M146" s="398"/>
       <c r="N146" s="259" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O146" s="260"/>
       <c r="P146" s="351"/>
@@ -38611,7 +38605,7 @@
         <v>4</v>
       </c>
       <c r="G147" s="289" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H147" s="397"/>
       <c r="I147" s="397"/>
@@ -38620,7 +38614,7 @@
       <c r="L147" s="397"/>
       <c r="M147" s="398"/>
       <c r="N147" s="259" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O147" s="260"/>
       <c r="P147" s="401"/>
@@ -38651,7 +38645,7 @@
       <c r="L148" s="397"/>
       <c r="M148" s="398"/>
       <c r="N148" s="259" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O148" s="260"/>
       <c r="P148" s="401"/>
@@ -38672,7 +38666,7 @@
       <c r="L149" s="397"/>
       <c r="M149" s="398"/>
       <c r="N149" s="259" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O149" s="260"/>
       <c r="P149" s="401"/>
@@ -38705,7 +38699,7 @@
     <row r="156" spans="4:32" s="71" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="157" spans="4:32" s="71" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F157" s="43" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G157" s="43"/>
       <c r="H157" s="43"/>
@@ -39184,18 +39178,18 @@
     <row r="4" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="92" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:42" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="315"/>
       <c r="D7" s="54" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:42" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39206,14 +39200,14 @@
       <c r="A9" s="316"/>
       <c r="C9" s="315"/>
       <c r="E9" s="54" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:42" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="316"/>
       <c r="C10" s="315"/>
       <c r="E10" s="54" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:42" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39230,7 +39224,7 @@
       <c r="A13" s="316"/>
       <c r="C13" s="56"/>
       <c r="D13" s="34" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="S13" s="94"/>
     </row>
@@ -39242,21 +39236,21 @@
       <c r="A15" s="316"/>
       <c r="C15" s="56"/>
       <c r="E15" s="34" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="316"/>
       <c r="C16" s="56"/>
       <c r="E16" s="34" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="316"/>
       <c r="C17" s="56"/>
       <c r="E17" s="34" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39272,7 +39266,7 @@
       <c r="C19" s="56"/>
       <c r="E19" s="34"/>
       <c r="F19" s="34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39298,14 +39292,14 @@
       <c r="A24" s="316"/>
       <c r="C24" s="56"/>
       <c r="E24" s="34" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="316"/>
       <c r="C25" s="56"/>
       <c r="E25" s="34" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:52" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39340,7 +39334,7 @@
     <row r="30" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E31" s="34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -39391,7 +39385,7 @@
     </row>
     <row r="37" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E37" s="84" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AQ37" s="83"/>
       <c r="AR37" s="83"/>
@@ -39405,7 +39399,7 @@
     </row>
     <row r="38" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E38" s="34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AQ38" s="83"/>
       <c r="AR38" s="83"/>
@@ -39419,7 +39413,7 @@
     </row>
     <row r="39" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E39" s="123" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AQ39" s="83"/>
       <c r="AR39" s="83"/>
@@ -39433,7 +39427,7 @@
     </row>
     <row r="40" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E40" s="84" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AQ40" s="83"/>
       <c r="AR40" s="83"/>
@@ -39482,7 +39476,7 @@
     <row r="45" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E46" s="93" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -39530,7 +39524,7 @@
     <row r="61" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="83"/>
       <c r="E61" s="34" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="62" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39539,7 +39533,7 @@
     <row r="63" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="64" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="92" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39555,7 +39549,7 @@
     <row r="67" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="86"/>
       <c r="E67" s="34" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39585,14 +39579,14 @@
       <c r="C73" s="86"/>
       <c r="D73" s="34"/>
       <c r="E73" s="34" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="86"/>
       <c r="D74" s="34"/>
       <c r="E74" s="34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39606,7 +39600,7 @@
       <c r="C76" s="86"/>
       <c r="D76" s="34"/>
       <c r="F76" s="55" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39630,7 +39624,7 @@
     <row r="81" spans="4:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="82" spans="4:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E82" s="34" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="83" spans="4:24" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39659,12 +39653,12 @@
     <row r="91" spans="4:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="92" spans="4:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E92" s="84" t="s">
-        <v>217</v>
+        <v>596</v>
       </c>
     </row>
     <row r="93" spans="4:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E93" s="34" t="s">
-        <v>219</v>
+        <v>597</v>
       </c>
     </row>
     <row r="94" spans="4:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -39683,13 +39677,13 @@
     </row>
     <row r="98" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E98" s="56" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="N98" s="83"/>
     </row>
     <row r="99" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E99" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N99" s="83"/>
     </row>
@@ -39710,7 +39704,7 @@
     </row>
     <row r="104" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E104" s="34" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AQ104" s="83"/>
       <c r="AR104" s="83"/>
@@ -39725,7 +39719,7 @@
     </row>
     <row r="105" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E105" s="34" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="W105" s="58"/>
       <c r="AQ105" s="83"/>
@@ -39745,7 +39739,7 @@
     <row r="107" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="108" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C108" s="92" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="109" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39753,7 +39747,7 @@
     </row>
     <row r="110" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D110" s="34" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="111" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -39769,7 +39763,7 @@
     <row r="115" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D115" s="83"/>
       <c r="E115" s="34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" spans="4:5" s="99" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39827,7 +39821,7 @@
     <row r="135" spans="4:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="136" spans="4:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D136" s="123" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="137" spans="4:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39836,7 +39830,7 @@
     <row r="138" spans="4:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D138" s="83"/>
       <c r="E138" s="34" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="139" spans="4:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39854,7 +39848,7 @@
     <row r="146" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="147" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C147" s="92" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="148" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39862,13 +39856,13 @@
     </row>
     <row r="149" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D149" s="34" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="150" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="151" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D151" s="482" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E151" s="560"/>
       <c r="F151" s="560"/>
@@ -39916,7 +39910,7 @@
       <c r="I152" s="486"/>
       <c r="J152" s="487"/>
       <c r="K152" s="571" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="L152" s="569"/>
       <c r="M152" s="569"/>
@@ -39955,7 +39949,7 @@
       <c r="I153" s="563"/>
       <c r="J153" s="564"/>
       <c r="K153" s="571" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L153" s="569"/>
       <c r="M153" s="569"/>
@@ -39985,7 +39979,7 @@
     </row>
     <row r="154" spans="3:34" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D154" s="556" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E154" s="489"/>
       <c r="F154" s="489"/>
@@ -40012,7 +40006,7 @@
       <c r="Y154" s="569"/>
       <c r="Z154" s="570"/>
       <c r="AA154" s="565" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AB154" s="566"/>
       <c r="AC154" s="566"/>
@@ -40025,7 +40019,7 @@
     <row r="155" spans="3:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D155" s="554"/>
       <c r="E155" s="557" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F155" s="558"/>
       <c r="G155" s="558"/>
@@ -40033,7 +40027,7 @@
       <c r="I155" s="558"/>
       <c r="J155" s="559"/>
       <c r="K155" s="571" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L155" s="569"/>
       <c r="M155" s="569"/>
@@ -40051,7 +40045,7 @@
       <c r="Y155" s="569"/>
       <c r="Z155" s="570"/>
       <c r="AA155" s="607" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AB155" s="608"/>
       <c r="AC155" s="608"/>
@@ -40070,7 +40064,7 @@
       <c r="I156" s="558"/>
       <c r="J156" s="559"/>
       <c r="K156" s="572" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L156" s="573"/>
       <c r="M156" s="573"/>
@@ -40107,7 +40101,7 @@
       <c r="I157" s="558"/>
       <c r="J157" s="559"/>
       <c r="K157" s="568" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L157" s="569"/>
       <c r="M157" s="569"/>
@@ -40138,7 +40132,7 @@
     <row r="158" spans="3:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D158" s="555"/>
       <c r="E158" s="557" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F158" s="558"/>
       <c r="G158" s="558"/>
@@ -40146,7 +40140,7 @@
       <c r="I158" s="558"/>
       <c r="J158" s="559"/>
       <c r="K158" s="568" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L158" s="569"/>
       <c r="M158" s="569"/>
@@ -40239,13 +40233,13 @@
     </row>
     <row r="161" spans="1:34" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C161" s="92" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="162" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="50"/>
       <c r="D162" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="163" spans="1:34" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -40256,14 +40250,14 @@
       <c r="A164" s="50"/>
       <c r="D164" s="34"/>
       <c r="E164" s="34" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="165" spans="1:34" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="50"/>
       <c r="D165" s="34"/>
       <c r="E165" s="34" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="166" spans="1:34" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -40273,7 +40267,7 @@
     <row r="167" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="50"/>
       <c r="E167" s="34" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="168" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -40282,7 +40276,7 @@
     <row r="169" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="50"/>
       <c r="F169" s="482" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G169" s="560"/>
       <c r="H169" s="560"/>
@@ -40373,7 +40367,7 @@
       </c>
       <c r="L171" s="529"/>
       <c r="M171" s="537" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N171" s="601"/>
       <c r="O171" s="527" t="s">
@@ -40689,7 +40683,7 @@
       </c>
       <c r="N180" s="601"/>
       <c r="O180" s="537" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="P180" s="584"/>
       <c r="Q180" s="584"/>
@@ -40761,7 +40755,7 @@
       </c>
       <c r="N182" s="601"/>
       <c r="O182" s="537" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P182" s="584"/>
       <c r="Q182" s="584"/>
@@ -40945,7 +40939,7 @@
       </c>
       <c r="N187" s="601"/>
       <c r="O187" s="527" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="P187" s="584"/>
       <c r="Q187" s="584"/>
@@ -41122,7 +41116,7 @@
     <row r="194" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="50"/>
       <c r="E194" s="34" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="195" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -41131,7 +41125,7 @@
     <row r="196" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="50"/>
       <c r="F196" s="627" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G196" s="628"/>
       <c r="H196" s="628"/>
@@ -41258,7 +41252,7 @@
       </c>
       <c r="N199" s="610"/>
       <c r="O199" s="537" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P199" s="621"/>
       <c r="Q199" s="621"/>
@@ -41330,7 +41324,7 @@
       </c>
       <c r="N201" s="618"/>
       <c r="O201" s="537" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P201" s="621"/>
       <c r="Q201" s="621"/>
@@ -41402,7 +41396,7 @@
       </c>
       <c r="N203" s="610"/>
       <c r="O203" s="537" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P203" s="621"/>
       <c r="Q203" s="621"/>
@@ -41474,7 +41468,7 @@
       </c>
       <c r="N205" s="612"/>
       <c r="O205" s="557" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P205" s="614"/>
       <c r="Q205" s="614"/>
@@ -41554,7 +41548,7 @@
       </c>
       <c r="N207" s="610"/>
       <c r="O207" s="537" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="P207" s="621"/>
       <c r="Q207" s="621"/>
@@ -41698,7 +41692,7 @@
       </c>
       <c r="N211" s="612"/>
       <c r="O211" s="557" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P211" s="614"/>
       <c r="Q211" s="614"/>
@@ -41738,7 +41732,7 @@
       </c>
       <c r="N212" s="612"/>
       <c r="O212" s="557" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P212" s="614"/>
       <c r="Q212" s="614"/>
@@ -41898,7 +41892,7 @@
     </row>
     <row r="217" spans="1:34" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C217" s="34" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D217" s="54"/>
     </row>
@@ -41908,7 +41902,7 @@
     <row r="219" spans="1:34" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C219" s="85"/>
       <c r="D219" s="42" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="220" spans="1:34" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -41918,14 +41912,14 @@
     <row r="221" spans="1:34" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C221" s="85"/>
       <c r="D221" s="123" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="222" spans="1:34" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C222" s="85"/>
       <c r="D222" s="86"/>
       <c r="E222" s="84" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="223" spans="1:34" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -41950,7 +41944,7 @@
       <c r="C226" s="85"/>
       <c r="D226" s="86"/>
       <c r="E226" s="318" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="227" spans="3:5" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -41976,7 +41970,7 @@
       <c r="C231" s="85"/>
       <c r="D231" s="86"/>
       <c r="E231" s="318" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="232" spans="3:5" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42005,19 +41999,19 @@
     <row r="237" spans="3:5" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C237" s="85"/>
       <c r="D237" s="54" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="238" spans="3:5" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C238" s="85"/>
       <c r="E238" s="54" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="239" spans="3:5" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C239" s="289"/>
       <c r="E239" s="54" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="240" spans="3:5" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42026,7 +42020,7 @@
     <row r="241" spans="3:37" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C241" s="85"/>
       <c r="E241" s="274" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F241" s="287"/>
       <c r="G241" s="287"/>
@@ -42070,7 +42064,7 @@
       <c r="G242" s="284"/>
       <c r="H242" s="275"/>
       <c r="I242" s="291" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J242" s="284"/>
       <c r="K242" s="284"/>
@@ -42078,7 +42072,7 @@
       <c r="M242" s="284"/>
       <c r="N242" s="275"/>
       <c r="O242" s="291" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P242" s="285"/>
       <c r="Q242" s="285"/>
@@ -42106,7 +42100,7 @@
       <c r="G243" s="280"/>
       <c r="H243" s="281"/>
       <c r="I243" s="279" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J243" s="280"/>
       <c r="K243" s="280"/>
@@ -42114,7 +42108,7 @@
       <c r="M243" s="280"/>
       <c r="N243" s="281"/>
       <c r="O243" s="312" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P243" s="269"/>
       <c r="Q243" s="269"/>
@@ -42142,7 +42136,7 @@
       <c r="G244" s="280"/>
       <c r="H244" s="281"/>
       <c r="I244" s="279" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J244" s="280"/>
       <c r="K244" s="280"/>
@@ -42150,7 +42144,7 @@
       <c r="M244" s="280"/>
       <c r="N244" s="281"/>
       <c r="O244" s="312" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="P244" s="269"/>
       <c r="Q244" s="269"/>
@@ -42178,7 +42172,7 @@
       <c r="G245" s="280"/>
       <c r="H245" s="281"/>
       <c r="I245" s="279" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J245" s="280"/>
       <c r="K245" s="280"/>
@@ -42213,7 +42207,7 @@
       <c r="G246" s="280"/>
       <c r="H246" s="281"/>
       <c r="I246" s="279" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J246" s="280"/>
       <c r="K246" s="280"/>
@@ -42248,7 +42242,7 @@
       <c r="G247" s="280"/>
       <c r="H247" s="281"/>
       <c r="I247" s="279" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J247" s="280"/>
       <c r="K247" s="280"/>
@@ -42318,7 +42312,7 @@
       <c r="G249" s="284"/>
       <c r="H249" s="275"/>
       <c r="I249" s="291" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J249" s="284"/>
       <c r="K249" s="284"/>
@@ -42326,7 +42320,7 @@
       <c r="M249" s="284"/>
       <c r="N249" s="275"/>
       <c r="O249" s="298" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P249" s="285"/>
       <c r="Q249" s="285"/>
@@ -42354,7 +42348,7 @@
       <c r="G250" s="280"/>
       <c r="H250" s="281"/>
       <c r="I250" s="279" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J250" s="280"/>
       <c r="K250" s="280"/>
@@ -42362,7 +42356,7 @@
       <c r="M250" s="280"/>
       <c r="N250" s="281"/>
       <c r="O250" s="313" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P250" s="269"/>
       <c r="Q250" s="269"/>
@@ -42390,7 +42384,7 @@
       <c r="G251" s="280"/>
       <c r="H251" s="281"/>
       <c r="I251" s="279" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J251" s="280"/>
       <c r="K251" s="280"/>
@@ -42398,7 +42392,7 @@
       <c r="M251" s="280"/>
       <c r="N251" s="281"/>
       <c r="O251" s="314" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P251" s="269"/>
       <c r="Q251" s="269"/>
@@ -42432,7 +42426,7 @@
       <c r="M252" s="277"/>
       <c r="N252" s="278"/>
       <c r="O252" s="283" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P252" s="272"/>
       <c r="Q252" s="272"/>
@@ -42497,7 +42491,7 @@
     <row r="262" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="50"/>
       <c r="C262" s="92" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="263" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42508,7 +42502,7 @@
       <c r="A264" s="50"/>
       <c r="C264" s="269"/>
       <c r="D264" s="34" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="265" spans="1:52" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42519,35 +42513,35 @@
       <c r="A266" s="50"/>
       <c r="C266" s="269"/>
       <c r="D266" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="267" spans="1:52" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="50"/>
       <c r="C267" s="269"/>
       <c r="D267" s="34" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="268" spans="1:52" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="50"/>
       <c r="C268" s="269"/>
       <c r="D268" s="34" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="269" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="50"/>
       <c r="C269" s="83"/>
       <c r="D269" s="34" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="270" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="50"/>
       <c r="C270" s="83"/>
       <c r="D270" s="34" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AM270" s="83"/>
       <c r="AQ270" s="83"/>
@@ -42564,7 +42558,7 @@
     <row r="271" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="50"/>
       <c r="D271" s="34" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AM271" s="83"/>
       <c r="AQ271" s="83"/>
@@ -42581,7 +42575,7 @@
     <row r="272" spans="1:52" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="50"/>
       <c r="D272" s="34" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AM272" s="269"/>
       <c r="AQ272" s="269"/>
@@ -42598,7 +42592,7 @@
     <row r="273" spans="1:52" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="50"/>
       <c r="D273" s="34" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AM273" s="269"/>
       <c r="AQ273" s="269"/>
@@ -42643,7 +42637,7 @@
       <c r="A276" s="50"/>
       <c r="B276" s="50"/>
       <c r="C276" s="92" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="277" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42652,7 +42646,7 @@
     <row r="278" spans="1:52" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="50"/>
       <c r="D278" s="55" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="279" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42665,7 +42659,7 @@
     <row r="281" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="50"/>
       <c r="C281" s="92" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="282" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42681,7 +42675,7 @@
     <row r="284" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="50"/>
       <c r="D284" s="34" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="285" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42705,7 +42699,7 @@
     <row r="289" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="50"/>
       <c r="C289" s="92" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D289" s="50"/>
       <c r="E289" s="50"/>
@@ -42714,7 +42708,7 @@
     <row r="290" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="50"/>
       <c r="D290" s="123" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="291" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42725,14 +42719,14 @@
       <c r="A292" s="50"/>
       <c r="D292" s="269"/>
       <c r="E292" s="34" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="293" spans="1:40" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="50"/>
       <c r="D293" s="269"/>
       <c r="E293" s="34" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="294" spans="1:40" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42744,21 +42738,21 @@
       <c r="A295" s="50"/>
       <c r="D295" s="269"/>
       <c r="E295" s="34" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="296" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="50"/>
       <c r="D296" s="83"/>
       <c r="E296" s="34" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="297" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="50"/>
       <c r="D297" s="83"/>
       <c r="E297" s="34" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="298" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42774,7 +42768,7 @@
     <row r="300" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="50"/>
       <c r="D300" s="123" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AN300" s="83"/>
     </row>
@@ -42799,7 +42793,7 @@
     <row r="304" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="50"/>
       <c r="E304" s="34" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42811,7 +42805,7 @@
     <row r="307" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="50"/>
       <c r="D307" s="42" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E307" s="50"/>
       <c r="F307" s="50"/>
@@ -42828,7 +42822,7 @@
       <c r="A309" s="50"/>
       <c r="D309" s="42"/>
       <c r="E309" s="34" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F309" s="50"/>
       <c r="G309" s="50"/>
@@ -42850,7 +42844,7 @@
     <row r="312" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="50"/>
       <c r="C312" s="92" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42861,7 +42855,7 @@
       <c r="A314" s="50"/>
       <c r="C314" s="83"/>
       <c r="D314" s="34" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42870,7 +42864,7 @@
     <row r="316" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="50"/>
       <c r="D316" s="84" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42879,13 +42873,13 @@
     <row r="318" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="50"/>
       <c r="E318" s="34" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="319" spans="1:7" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="50"/>
       <c r="E319" s="34" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="320" spans="1:7" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42898,7 +42892,7 @@
     <row r="322" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="50"/>
       <c r="D322" s="84" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="323" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42909,21 +42903,21 @@
       <c r="A324" s="50"/>
       <c r="D324" s="83"/>
       <c r="E324" s="34" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="325" spans="1:52" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="50"/>
       <c r="D325" s="269"/>
       <c r="E325" s="34" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="326" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="50"/>
       <c r="D326" s="83"/>
       <c r="E326" s="34" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="327" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/010_設計標準/UI標準(画面).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/010_設計標準/UI標準(画面).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E8F83E-19B0-4C60-88D1-7E092CB5D79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55991DBB-8445-46B7-A1EE-226988A3874D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="1245" windowWidth="31395" windowHeight="18960" tabRatio="822" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="1245" windowWidth="31395" windowHeight="18960" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="28" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="599">
   <si>
     <t>システム名</t>
   </si>
@@ -7059,6 +7059,10 @@
   </si>
   <si>
     <t>3.3. PRGパターン</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ・ライセンス[MIT licence]</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -8814,6 +8818,120 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -8850,186 +8968,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -9039,6 +9043,33 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9121,33 +9152,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9156,6 +9160,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9222,15 +9235,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9255,6 +9259,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9264,6 +9277,189 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9279,21 +9475,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9306,33 +9487,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9350,159 +9507,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -24187,7 +24191,7 @@
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -24844,57 +24848,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="450" t="s">
+      <c r="A1" s="422" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="442"/>
-      <c r="C1" s="442"/>
-      <c r="D1" s="443"/>
-      <c r="E1" s="444" t="s">
+      <c r="B1" s="414"/>
+      <c r="C1" s="414"/>
+      <c r="D1" s="415"/>
+      <c r="E1" s="416" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="445"/>
-      <c r="G1" s="445"/>
-      <c r="H1" s="445"/>
-      <c r="I1" s="445"/>
-      <c r="J1" s="445"/>
-      <c r="K1" s="445"/>
-      <c r="L1" s="445"/>
-      <c r="M1" s="445"/>
-      <c r="N1" s="446"/>
-      <c r="O1" s="451" t="s">
+      <c r="F1" s="417"/>
+      <c r="G1" s="417"/>
+      <c r="H1" s="417"/>
+      <c r="I1" s="417"/>
+      <c r="J1" s="417"/>
+      <c r="K1" s="417"/>
+      <c r="L1" s="417"/>
+      <c r="M1" s="417"/>
+      <c r="N1" s="418"/>
+      <c r="O1" s="423" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="452"/>
-      <c r="Q1" s="452"/>
-      <c r="R1" s="453"/>
-      <c r="S1" s="460" t="s">
+      <c r="P1" s="424"/>
+      <c r="Q1" s="424"/>
+      <c r="R1" s="425"/>
+      <c r="S1" s="432" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="461"/>
-      <c r="U1" s="461"/>
-      <c r="V1" s="461"/>
-      <c r="W1" s="461"/>
-      <c r="X1" s="461"/>
-      <c r="Y1" s="461"/>
-      <c r="Z1" s="462"/>
-      <c r="AA1" s="441" t="s">
+      <c r="T1" s="433"/>
+      <c r="U1" s="433"/>
+      <c r="V1" s="433"/>
+      <c r="W1" s="433"/>
+      <c r="X1" s="433"/>
+      <c r="Y1" s="433"/>
+      <c r="Z1" s="434"/>
+      <c r="AA1" s="413" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="443"/>
-      <c r="AC1" s="469" t="str">
+      <c r="AB1" s="415"/>
+      <c r="AC1" s="441" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="470"/>
-      <c r="AE1" s="470"/>
-      <c r="AF1" s="471"/>
-      <c r="AG1" s="435">
+      <c r="AD1" s="442"/>
+      <c r="AE1" s="442"/>
+      <c r="AF1" s="443"/>
+      <c r="AG1" s="407">
         <f>IF(D8="","",D8)</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="436"/>
-      <c r="AI1" s="437"/>
+      <c r="AH1" s="408"/>
+      <c r="AI1" s="409"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -24902,53 +24906,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="441" t="s">
+      <c r="A2" s="413" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="442"/>
-      <c r="C2" s="442"/>
-      <c r="D2" s="443"/>
-      <c r="E2" s="444" t="s">
+      <c r="B2" s="414"/>
+      <c r="C2" s="414"/>
+      <c r="D2" s="415"/>
+      <c r="E2" s="416" t="s">
         <v>247</v>
       </c>
-      <c r="F2" s="445"/>
-      <c r="G2" s="445"/>
-      <c r="H2" s="445"/>
-      <c r="I2" s="445"/>
-      <c r="J2" s="445"/>
-      <c r="K2" s="445"/>
-      <c r="L2" s="445"/>
-      <c r="M2" s="445"/>
-      <c r="N2" s="446"/>
-      <c r="O2" s="454"/>
-      <c r="P2" s="455"/>
-      <c r="Q2" s="455"/>
-      <c r="R2" s="456"/>
-      <c r="S2" s="463"/>
-      <c r="T2" s="464"/>
-      <c r="U2" s="464"/>
-      <c r="V2" s="464"/>
-      <c r="W2" s="464"/>
-      <c r="X2" s="464"/>
-      <c r="Y2" s="464"/>
-      <c r="Z2" s="465"/>
-      <c r="AA2" s="441" t="s">
+      <c r="F2" s="417"/>
+      <c r="G2" s="417"/>
+      <c r="H2" s="417"/>
+      <c r="I2" s="417"/>
+      <c r="J2" s="417"/>
+      <c r="K2" s="417"/>
+      <c r="L2" s="417"/>
+      <c r="M2" s="417"/>
+      <c r="N2" s="418"/>
+      <c r="O2" s="426"/>
+      <c r="P2" s="427"/>
+      <c r="Q2" s="427"/>
+      <c r="R2" s="428"/>
+      <c r="S2" s="435"/>
+      <c r="T2" s="436"/>
+      <c r="U2" s="436"/>
+      <c r="V2" s="436"/>
+      <c r="W2" s="436"/>
+      <c r="X2" s="436"/>
+      <c r="Y2" s="436"/>
+      <c r="Z2" s="437"/>
+      <c r="AA2" s="413" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="443"/>
-      <c r="AC2" s="447" t="str">
+      <c r="AB2" s="415"/>
+      <c r="AC2" s="419" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="448"/>
-      <c r="AE2" s="448"/>
-      <c r="AF2" s="449"/>
-      <c r="AG2" s="435" t="str">
+      <c r="AD2" s="420"/>
+      <c r="AE2" s="420"/>
+      <c r="AF2" s="421"/>
+      <c r="AG2" s="407" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="436"/>
-      <c r="AI2" s="437"/>
+      <c r="AH2" s="408"/>
+      <c r="AI2" s="409"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -24956,43 +24960,43 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="441" t="s">
+      <c r="A3" s="413" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="442"/>
-      <c r="C3" s="442"/>
-      <c r="D3" s="443"/>
-      <c r="E3" s="472"/>
-      <c r="F3" s="445"/>
-      <c r="G3" s="445"/>
-      <c r="H3" s="445"/>
-      <c r="I3" s="445"/>
-      <c r="J3" s="445"/>
-      <c r="K3" s="445"/>
-      <c r="L3" s="445"/>
-      <c r="M3" s="445"/>
-      <c r="N3" s="446"/>
-      <c r="O3" s="457"/>
-      <c r="P3" s="458"/>
-      <c r="Q3" s="458"/>
-      <c r="R3" s="459"/>
-      <c r="S3" s="466"/>
-      <c r="T3" s="467"/>
-      <c r="U3" s="467"/>
-      <c r="V3" s="467"/>
-      <c r="W3" s="467"/>
-      <c r="X3" s="467"/>
-      <c r="Y3" s="467"/>
-      <c r="Z3" s="468"/>
-      <c r="AA3" s="441"/>
-      <c r="AB3" s="443"/>
-      <c r="AC3" s="469"/>
-      <c r="AD3" s="470"/>
-      <c r="AE3" s="470"/>
-      <c r="AF3" s="471"/>
-      <c r="AG3" s="435"/>
-      <c r="AH3" s="436"/>
-      <c r="AI3" s="437"/>
+      <c r="B3" s="414"/>
+      <c r="C3" s="414"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="444"/>
+      <c r="F3" s="417"/>
+      <c r="G3" s="417"/>
+      <c r="H3" s="417"/>
+      <c r="I3" s="417"/>
+      <c r="J3" s="417"/>
+      <c r="K3" s="417"/>
+      <c r="L3" s="417"/>
+      <c r="M3" s="417"/>
+      <c r="N3" s="418"/>
+      <c r="O3" s="429"/>
+      <c r="P3" s="430"/>
+      <c r="Q3" s="430"/>
+      <c r="R3" s="431"/>
+      <c r="S3" s="438"/>
+      <c r="T3" s="439"/>
+      <c r="U3" s="439"/>
+      <c r="V3" s="439"/>
+      <c r="W3" s="439"/>
+      <c r="X3" s="439"/>
+      <c r="Y3" s="439"/>
+      <c r="Z3" s="440"/>
+      <c r="AA3" s="413"/>
+      <c r="AB3" s="415"/>
+      <c r="AC3" s="441"/>
+      <c r="AD3" s="442"/>
+      <c r="AE3" s="442"/>
+      <c r="AF3" s="443"/>
+      <c r="AG3" s="407"/>
+      <c r="AH3" s="408"/>
+      <c r="AI3" s="409"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -25029,1034 +25033,1190 @@
       <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="438" t="s">
+      <c r="B7" s="410" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="439"/>
-      <c r="D7" s="438" t="s">
+      <c r="C7" s="411"/>
+      <c r="D7" s="410" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="440"/>
-      <c r="F7" s="439"/>
-      <c r="G7" s="438" t="s">
+      <c r="E7" s="412"/>
+      <c r="F7" s="411"/>
+      <c r="G7" s="410" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="440"/>
-      <c r="I7" s="439"/>
-      <c r="J7" s="438" t="s">
+      <c r="H7" s="412"/>
+      <c r="I7" s="411"/>
+      <c r="J7" s="410" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="440"/>
-      <c r="L7" s="440"/>
-      <c r="M7" s="440"/>
-      <c r="N7" s="440"/>
-      <c r="O7" s="440"/>
-      <c r="P7" s="439"/>
-      <c r="Q7" s="438" t="s">
+      <c r="K7" s="412"/>
+      <c r="L7" s="412"/>
+      <c r="M7" s="412"/>
+      <c r="N7" s="412"/>
+      <c r="O7" s="412"/>
+      <c r="P7" s="411"/>
+      <c r="Q7" s="410" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="440"/>
-      <c r="S7" s="440"/>
-      <c r="T7" s="440"/>
-      <c r="U7" s="440"/>
-      <c r="V7" s="440"/>
-      <c r="W7" s="440"/>
-      <c r="X7" s="440"/>
-      <c r="Y7" s="440"/>
-      <c r="Z7" s="440"/>
-      <c r="AA7" s="440"/>
-      <c r="AB7" s="440"/>
-      <c r="AC7" s="440"/>
-      <c r="AD7" s="440"/>
-      <c r="AE7" s="439"/>
-      <c r="AF7" s="438" t="s">
+      <c r="R7" s="412"/>
+      <c r="S7" s="412"/>
+      <c r="T7" s="412"/>
+      <c r="U7" s="412"/>
+      <c r="V7" s="412"/>
+      <c r="W7" s="412"/>
+      <c r="X7" s="412"/>
+      <c r="Y7" s="412"/>
+      <c r="Z7" s="412"/>
+      <c r="AA7" s="412"/>
+      <c r="AB7" s="412"/>
+      <c r="AC7" s="412"/>
+      <c r="AD7" s="412"/>
+      <c r="AE7" s="411"/>
+      <c r="AF7" s="410" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="440"/>
-      <c r="AH7" s="440"/>
-      <c r="AI7" s="439"/>
+      <c r="AG7" s="412"/>
+      <c r="AH7" s="412"/>
+      <c r="AI7" s="411"/>
     </row>
     <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="140">
         <v>1</v>
       </c>
-      <c r="B8" s="420" t="s">
+      <c r="B8" s="457" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="421"/>
-      <c r="D8" s="422">
+      <c r="C8" s="458"/>
+      <c r="D8" s="459">
         <v>43620</v>
       </c>
-      <c r="E8" s="423"/>
-      <c r="F8" s="424"/>
-      <c r="G8" s="425" t="s">
+      <c r="E8" s="460"/>
+      <c r="F8" s="461"/>
+      <c r="G8" s="462" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="426"/>
-      <c r="I8" s="427"/>
-      <c r="J8" s="428" t="s">
+      <c r="H8" s="463"/>
+      <c r="I8" s="464"/>
+      <c r="J8" s="465" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="429"/>
-      <c r="L8" s="429"/>
-      <c r="M8" s="429"/>
-      <c r="N8" s="429"/>
-      <c r="O8" s="429"/>
-      <c r="P8" s="430"/>
-      <c r="Q8" s="431" t="s">
+      <c r="K8" s="466"/>
+      <c r="L8" s="466"/>
+      <c r="M8" s="466"/>
+      <c r="N8" s="466"/>
+      <c r="O8" s="466"/>
+      <c r="P8" s="467"/>
+      <c r="Q8" s="468" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="432"/>
-      <c r="S8" s="432"/>
-      <c r="T8" s="432"/>
-      <c r="U8" s="432"/>
-      <c r="V8" s="432"/>
-      <c r="W8" s="432"/>
-      <c r="X8" s="432"/>
-      <c r="Y8" s="432"/>
-      <c r="Z8" s="432"/>
-      <c r="AA8" s="432"/>
-      <c r="AB8" s="432"/>
-      <c r="AC8" s="432"/>
-      <c r="AD8" s="432"/>
-      <c r="AE8" s="433"/>
-      <c r="AF8" s="434" t="s">
+      <c r="R8" s="469"/>
+      <c r="S8" s="469"/>
+      <c r="T8" s="469"/>
+      <c r="U8" s="469"/>
+      <c r="V8" s="469"/>
+      <c r="W8" s="469"/>
+      <c r="X8" s="469"/>
+      <c r="Y8" s="469"/>
+      <c r="Z8" s="469"/>
+      <c r="AA8" s="469"/>
+      <c r="AB8" s="469"/>
+      <c r="AC8" s="469"/>
+      <c r="AD8" s="469"/>
+      <c r="AE8" s="470"/>
+      <c r="AF8" s="471" t="s">
         <v>467</v>
       </c>
-      <c r="AG8" s="429"/>
-      <c r="AH8" s="429"/>
-      <c r="AI8" s="430"/>
+      <c r="AG8" s="466"/>
+      <c r="AH8" s="466"/>
+      <c r="AI8" s="467"/>
     </row>
     <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="139"/>
-      <c r="B9" s="407"/>
-      <c r="C9" s="408"/>
-      <c r="D9" s="409"/>
-      <c r="E9" s="410"/>
-      <c r="F9" s="411"/>
-      <c r="G9" s="409"/>
-      <c r="H9" s="412"/>
-      <c r="I9" s="408"/>
-      <c r="J9" s="413"/>
-      <c r="K9" s="414"/>
-      <c r="L9" s="414"/>
-      <c r="M9" s="414"/>
-      <c r="N9" s="414"/>
-      <c r="O9" s="414"/>
-      <c r="P9" s="415"/>
-      <c r="Q9" s="416"/>
-      <c r="R9" s="417"/>
-      <c r="S9" s="417"/>
-      <c r="T9" s="417"/>
-      <c r="U9" s="417"/>
-      <c r="V9" s="417"/>
-      <c r="W9" s="417"/>
-      <c r="X9" s="417"/>
-      <c r="Y9" s="417"/>
-      <c r="Z9" s="417"/>
-      <c r="AA9" s="417"/>
-      <c r="AB9" s="417"/>
-      <c r="AC9" s="417"/>
-      <c r="AD9" s="417"/>
-      <c r="AE9" s="418"/>
-      <c r="AF9" s="413"/>
-      <c r="AG9" s="414"/>
-      <c r="AH9" s="414"/>
-      <c r="AI9" s="415"/>
+      <c r="B9" s="445"/>
+      <c r="C9" s="446"/>
+      <c r="D9" s="447"/>
+      <c r="E9" s="448"/>
+      <c r="F9" s="449"/>
+      <c r="G9" s="447"/>
+      <c r="H9" s="450"/>
+      <c r="I9" s="446"/>
+      <c r="J9" s="451"/>
+      <c r="K9" s="452"/>
+      <c r="L9" s="452"/>
+      <c r="M9" s="452"/>
+      <c r="N9" s="452"/>
+      <c r="O9" s="452"/>
+      <c r="P9" s="453"/>
+      <c r="Q9" s="454"/>
+      <c r="R9" s="455"/>
+      <c r="S9" s="455"/>
+      <c r="T9" s="455"/>
+      <c r="U9" s="455"/>
+      <c r="V9" s="455"/>
+      <c r="W9" s="455"/>
+      <c r="X9" s="455"/>
+      <c r="Y9" s="455"/>
+      <c r="Z9" s="455"/>
+      <c r="AA9" s="455"/>
+      <c r="AB9" s="455"/>
+      <c r="AC9" s="455"/>
+      <c r="AD9" s="455"/>
+      <c r="AE9" s="456"/>
+      <c r="AF9" s="451"/>
+      <c r="AG9" s="452"/>
+      <c r="AH9" s="452"/>
+      <c r="AI9" s="453"/>
     </row>
     <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="139"/>
-      <c r="B10" s="407"/>
-      <c r="C10" s="408"/>
-      <c r="D10" s="409"/>
-      <c r="E10" s="410"/>
-      <c r="F10" s="411"/>
-      <c r="G10" s="407"/>
-      <c r="H10" s="412"/>
-      <c r="I10" s="408"/>
-      <c r="J10" s="413"/>
-      <c r="K10" s="414"/>
-      <c r="L10" s="414"/>
-      <c r="M10" s="414"/>
-      <c r="N10" s="414"/>
-      <c r="O10" s="414"/>
-      <c r="P10" s="415"/>
-      <c r="Q10" s="416"/>
-      <c r="R10" s="417"/>
-      <c r="S10" s="417"/>
-      <c r="T10" s="417"/>
-      <c r="U10" s="417"/>
-      <c r="V10" s="417"/>
-      <c r="W10" s="417"/>
-      <c r="X10" s="417"/>
-      <c r="Y10" s="417"/>
-      <c r="Z10" s="417"/>
-      <c r="AA10" s="417"/>
-      <c r="AB10" s="417"/>
-      <c r="AC10" s="417"/>
-      <c r="AD10" s="417"/>
-      <c r="AE10" s="418"/>
-      <c r="AF10" s="413"/>
-      <c r="AG10" s="414"/>
-      <c r="AH10" s="414"/>
-      <c r="AI10" s="415"/>
+      <c r="B10" s="445"/>
+      <c r="C10" s="446"/>
+      <c r="D10" s="447"/>
+      <c r="E10" s="448"/>
+      <c r="F10" s="449"/>
+      <c r="G10" s="445"/>
+      <c r="H10" s="450"/>
+      <c r="I10" s="446"/>
+      <c r="J10" s="451"/>
+      <c r="K10" s="452"/>
+      <c r="L10" s="452"/>
+      <c r="M10" s="452"/>
+      <c r="N10" s="452"/>
+      <c r="O10" s="452"/>
+      <c r="P10" s="453"/>
+      <c r="Q10" s="454"/>
+      <c r="R10" s="455"/>
+      <c r="S10" s="455"/>
+      <c r="T10" s="455"/>
+      <c r="U10" s="455"/>
+      <c r="V10" s="455"/>
+      <c r="W10" s="455"/>
+      <c r="X10" s="455"/>
+      <c r="Y10" s="455"/>
+      <c r="Z10" s="455"/>
+      <c r="AA10" s="455"/>
+      <c r="AB10" s="455"/>
+      <c r="AC10" s="455"/>
+      <c r="AD10" s="455"/>
+      <c r="AE10" s="456"/>
+      <c r="AF10" s="451"/>
+      <c r="AG10" s="452"/>
+      <c r="AH10" s="452"/>
+      <c r="AI10" s="453"/>
     </row>
     <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="139"/>
-      <c r="B11" s="407"/>
-      <c r="C11" s="408"/>
-      <c r="D11" s="409"/>
-      <c r="E11" s="410"/>
-      <c r="F11" s="411"/>
-      <c r="G11" s="407"/>
-      <c r="H11" s="412"/>
-      <c r="I11" s="408"/>
-      <c r="J11" s="413"/>
-      <c r="K11" s="414"/>
-      <c r="L11" s="414"/>
-      <c r="M11" s="414"/>
-      <c r="N11" s="414"/>
-      <c r="O11" s="414"/>
-      <c r="P11" s="415"/>
-      <c r="Q11" s="416"/>
-      <c r="R11" s="417"/>
-      <c r="S11" s="417"/>
-      <c r="T11" s="417"/>
-      <c r="U11" s="417"/>
-      <c r="V11" s="417"/>
-      <c r="W11" s="417"/>
-      <c r="X11" s="417"/>
-      <c r="Y11" s="417"/>
-      <c r="Z11" s="417"/>
-      <c r="AA11" s="417"/>
-      <c r="AB11" s="417"/>
-      <c r="AC11" s="417"/>
-      <c r="AD11" s="417"/>
-      <c r="AE11" s="418"/>
-      <c r="AF11" s="413"/>
-      <c r="AG11" s="414"/>
-      <c r="AH11" s="414"/>
-      <c r="AI11" s="415"/>
+      <c r="B11" s="445"/>
+      <c r="C11" s="446"/>
+      <c r="D11" s="447"/>
+      <c r="E11" s="448"/>
+      <c r="F11" s="449"/>
+      <c r="G11" s="445"/>
+      <c r="H11" s="450"/>
+      <c r="I11" s="446"/>
+      <c r="J11" s="451"/>
+      <c r="K11" s="452"/>
+      <c r="L11" s="452"/>
+      <c r="M11" s="452"/>
+      <c r="N11" s="452"/>
+      <c r="O11" s="452"/>
+      <c r="P11" s="453"/>
+      <c r="Q11" s="454"/>
+      <c r="R11" s="455"/>
+      <c r="S11" s="455"/>
+      <c r="T11" s="455"/>
+      <c r="U11" s="455"/>
+      <c r="V11" s="455"/>
+      <c r="W11" s="455"/>
+      <c r="X11" s="455"/>
+      <c r="Y11" s="455"/>
+      <c r="Z11" s="455"/>
+      <c r="AA11" s="455"/>
+      <c r="AB11" s="455"/>
+      <c r="AC11" s="455"/>
+      <c r="AD11" s="455"/>
+      <c r="AE11" s="456"/>
+      <c r="AF11" s="451"/>
+      <c r="AG11" s="452"/>
+      <c r="AH11" s="452"/>
+      <c r="AI11" s="453"/>
     </row>
     <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="139"/>
-      <c r="B12" s="407"/>
-      <c r="C12" s="408"/>
-      <c r="D12" s="409"/>
-      <c r="E12" s="410"/>
-      <c r="F12" s="411"/>
-      <c r="G12" s="407"/>
-      <c r="H12" s="412"/>
-      <c r="I12" s="408"/>
-      <c r="J12" s="413"/>
-      <c r="K12" s="414"/>
-      <c r="L12" s="414"/>
-      <c r="M12" s="414"/>
-      <c r="N12" s="414"/>
-      <c r="O12" s="414"/>
-      <c r="P12" s="415"/>
-      <c r="Q12" s="416"/>
-      <c r="R12" s="417"/>
-      <c r="S12" s="417"/>
-      <c r="T12" s="417"/>
-      <c r="U12" s="417"/>
-      <c r="V12" s="417"/>
-      <c r="W12" s="417"/>
-      <c r="X12" s="417"/>
-      <c r="Y12" s="417"/>
-      <c r="Z12" s="417"/>
-      <c r="AA12" s="417"/>
-      <c r="AB12" s="417"/>
-      <c r="AC12" s="417"/>
-      <c r="AD12" s="417"/>
-      <c r="AE12" s="418"/>
-      <c r="AF12" s="413"/>
-      <c r="AG12" s="414"/>
-      <c r="AH12" s="414"/>
-      <c r="AI12" s="415"/>
+      <c r="B12" s="445"/>
+      <c r="C12" s="446"/>
+      <c r="D12" s="447"/>
+      <c r="E12" s="448"/>
+      <c r="F12" s="449"/>
+      <c r="G12" s="445"/>
+      <c r="H12" s="450"/>
+      <c r="I12" s="446"/>
+      <c r="J12" s="451"/>
+      <c r="K12" s="452"/>
+      <c r="L12" s="452"/>
+      <c r="M12" s="452"/>
+      <c r="N12" s="452"/>
+      <c r="O12" s="452"/>
+      <c r="P12" s="453"/>
+      <c r="Q12" s="454"/>
+      <c r="R12" s="455"/>
+      <c r="S12" s="455"/>
+      <c r="T12" s="455"/>
+      <c r="U12" s="455"/>
+      <c r="V12" s="455"/>
+      <c r="W12" s="455"/>
+      <c r="X12" s="455"/>
+      <c r="Y12" s="455"/>
+      <c r="Z12" s="455"/>
+      <c r="AA12" s="455"/>
+      <c r="AB12" s="455"/>
+      <c r="AC12" s="455"/>
+      <c r="AD12" s="455"/>
+      <c r="AE12" s="456"/>
+      <c r="AF12" s="451"/>
+      <c r="AG12" s="452"/>
+      <c r="AH12" s="452"/>
+      <c r="AI12" s="453"/>
     </row>
     <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="139"/>
-      <c r="B13" s="407"/>
-      <c r="C13" s="408"/>
-      <c r="D13" s="409"/>
-      <c r="E13" s="410"/>
-      <c r="F13" s="411"/>
-      <c r="G13" s="407"/>
-      <c r="H13" s="412"/>
-      <c r="I13" s="408"/>
-      <c r="J13" s="413"/>
-      <c r="K13" s="414"/>
-      <c r="L13" s="414"/>
-      <c r="M13" s="414"/>
-      <c r="N13" s="414"/>
-      <c r="O13" s="414"/>
-      <c r="P13" s="415"/>
-      <c r="Q13" s="416"/>
-      <c r="R13" s="417"/>
-      <c r="S13" s="417"/>
-      <c r="T13" s="417"/>
-      <c r="U13" s="417"/>
-      <c r="V13" s="417"/>
-      <c r="W13" s="417"/>
-      <c r="X13" s="417"/>
-      <c r="Y13" s="417"/>
-      <c r="Z13" s="417"/>
-      <c r="AA13" s="417"/>
-      <c r="AB13" s="417"/>
-      <c r="AC13" s="417"/>
-      <c r="AD13" s="417"/>
-      <c r="AE13" s="418"/>
-      <c r="AF13" s="413"/>
-      <c r="AG13" s="414"/>
-      <c r="AH13" s="414"/>
-      <c r="AI13" s="415"/>
+      <c r="B13" s="445"/>
+      <c r="C13" s="446"/>
+      <c r="D13" s="447"/>
+      <c r="E13" s="448"/>
+      <c r="F13" s="449"/>
+      <c r="G13" s="445"/>
+      <c r="H13" s="450"/>
+      <c r="I13" s="446"/>
+      <c r="J13" s="451"/>
+      <c r="K13" s="452"/>
+      <c r="L13" s="452"/>
+      <c r="M13" s="452"/>
+      <c r="N13" s="452"/>
+      <c r="O13" s="452"/>
+      <c r="P13" s="453"/>
+      <c r="Q13" s="454"/>
+      <c r="R13" s="455"/>
+      <c r="S13" s="455"/>
+      <c r="T13" s="455"/>
+      <c r="U13" s="455"/>
+      <c r="V13" s="455"/>
+      <c r="W13" s="455"/>
+      <c r="X13" s="455"/>
+      <c r="Y13" s="455"/>
+      <c r="Z13" s="455"/>
+      <c r="AA13" s="455"/>
+      <c r="AB13" s="455"/>
+      <c r="AC13" s="455"/>
+      <c r="AD13" s="455"/>
+      <c r="AE13" s="456"/>
+      <c r="AF13" s="451"/>
+      <c r="AG13" s="452"/>
+      <c r="AH13" s="452"/>
+      <c r="AI13" s="453"/>
     </row>
     <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="139"/>
-      <c r="B14" s="407"/>
-      <c r="C14" s="408"/>
-      <c r="D14" s="409"/>
-      <c r="E14" s="410"/>
-      <c r="F14" s="411"/>
-      <c r="G14" s="407"/>
-      <c r="H14" s="412"/>
-      <c r="I14" s="408"/>
-      <c r="J14" s="413"/>
-      <c r="K14" s="414"/>
-      <c r="L14" s="414"/>
-      <c r="M14" s="414"/>
-      <c r="N14" s="414"/>
-      <c r="O14" s="414"/>
-      <c r="P14" s="415"/>
-      <c r="Q14" s="416"/>
-      <c r="R14" s="417"/>
-      <c r="S14" s="417"/>
-      <c r="T14" s="417"/>
-      <c r="U14" s="417"/>
-      <c r="V14" s="417"/>
-      <c r="W14" s="417"/>
-      <c r="X14" s="417"/>
-      <c r="Y14" s="417"/>
-      <c r="Z14" s="417"/>
-      <c r="AA14" s="417"/>
-      <c r="AB14" s="417"/>
-      <c r="AC14" s="417"/>
-      <c r="AD14" s="417"/>
-      <c r="AE14" s="418"/>
-      <c r="AF14" s="413"/>
-      <c r="AG14" s="414"/>
-      <c r="AH14" s="414"/>
-      <c r="AI14" s="415"/>
+      <c r="B14" s="445"/>
+      <c r="C14" s="446"/>
+      <c r="D14" s="447"/>
+      <c r="E14" s="448"/>
+      <c r="F14" s="449"/>
+      <c r="G14" s="445"/>
+      <c r="H14" s="450"/>
+      <c r="I14" s="446"/>
+      <c r="J14" s="451"/>
+      <c r="K14" s="452"/>
+      <c r="L14" s="452"/>
+      <c r="M14" s="452"/>
+      <c r="N14" s="452"/>
+      <c r="O14" s="452"/>
+      <c r="P14" s="453"/>
+      <c r="Q14" s="454"/>
+      <c r="R14" s="455"/>
+      <c r="S14" s="455"/>
+      <c r="T14" s="455"/>
+      <c r="U14" s="455"/>
+      <c r="V14" s="455"/>
+      <c r="W14" s="455"/>
+      <c r="X14" s="455"/>
+      <c r="Y14" s="455"/>
+      <c r="Z14" s="455"/>
+      <c r="AA14" s="455"/>
+      <c r="AB14" s="455"/>
+      <c r="AC14" s="455"/>
+      <c r="AD14" s="455"/>
+      <c r="AE14" s="456"/>
+      <c r="AF14" s="451"/>
+      <c r="AG14" s="452"/>
+      <c r="AH14" s="452"/>
+      <c r="AI14" s="453"/>
     </row>
     <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="139"/>
-      <c r="B15" s="407"/>
-      <c r="C15" s="408"/>
-      <c r="D15" s="409"/>
-      <c r="E15" s="410"/>
-      <c r="F15" s="411"/>
-      <c r="G15" s="407"/>
-      <c r="H15" s="412"/>
-      <c r="I15" s="408"/>
-      <c r="J15" s="413"/>
-      <c r="K15" s="414"/>
-      <c r="L15" s="414"/>
-      <c r="M15" s="414"/>
-      <c r="N15" s="414"/>
-      <c r="O15" s="414"/>
-      <c r="P15" s="415"/>
-      <c r="Q15" s="416"/>
-      <c r="R15" s="417"/>
-      <c r="S15" s="417"/>
-      <c r="T15" s="417"/>
-      <c r="U15" s="417"/>
-      <c r="V15" s="417"/>
-      <c r="W15" s="417"/>
-      <c r="X15" s="417"/>
-      <c r="Y15" s="417"/>
-      <c r="Z15" s="417"/>
-      <c r="AA15" s="417"/>
-      <c r="AB15" s="417"/>
-      <c r="AC15" s="417"/>
-      <c r="AD15" s="417"/>
-      <c r="AE15" s="418"/>
-      <c r="AF15" s="413"/>
-      <c r="AG15" s="414"/>
-      <c r="AH15" s="414"/>
-      <c r="AI15" s="415"/>
+      <c r="B15" s="445"/>
+      <c r="C15" s="446"/>
+      <c r="D15" s="447"/>
+      <c r="E15" s="448"/>
+      <c r="F15" s="449"/>
+      <c r="G15" s="445"/>
+      <c r="H15" s="450"/>
+      <c r="I15" s="446"/>
+      <c r="J15" s="451"/>
+      <c r="K15" s="452"/>
+      <c r="L15" s="452"/>
+      <c r="M15" s="452"/>
+      <c r="N15" s="452"/>
+      <c r="O15" s="452"/>
+      <c r="P15" s="453"/>
+      <c r="Q15" s="454"/>
+      <c r="R15" s="455"/>
+      <c r="S15" s="455"/>
+      <c r="T15" s="455"/>
+      <c r="U15" s="455"/>
+      <c r="V15" s="455"/>
+      <c r="W15" s="455"/>
+      <c r="X15" s="455"/>
+      <c r="Y15" s="455"/>
+      <c r="Z15" s="455"/>
+      <c r="AA15" s="455"/>
+      <c r="AB15" s="455"/>
+      <c r="AC15" s="455"/>
+      <c r="AD15" s="455"/>
+      <c r="AE15" s="456"/>
+      <c r="AF15" s="451"/>
+      <c r="AG15" s="452"/>
+      <c r="AH15" s="452"/>
+      <c r="AI15" s="453"/>
     </row>
     <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="139"/>
-      <c r="B16" s="407"/>
-      <c r="C16" s="408"/>
-      <c r="D16" s="409"/>
-      <c r="E16" s="410"/>
-      <c r="F16" s="411"/>
-      <c r="G16" s="407"/>
-      <c r="H16" s="412"/>
-      <c r="I16" s="408"/>
-      <c r="J16" s="413"/>
-      <c r="K16" s="414"/>
-      <c r="L16" s="414"/>
-      <c r="M16" s="414"/>
-      <c r="N16" s="414"/>
-      <c r="O16" s="414"/>
-      <c r="P16" s="415"/>
-      <c r="Q16" s="416"/>
-      <c r="R16" s="417"/>
-      <c r="S16" s="417"/>
-      <c r="T16" s="417"/>
-      <c r="U16" s="417"/>
-      <c r="V16" s="417"/>
-      <c r="W16" s="417"/>
-      <c r="X16" s="417"/>
-      <c r="Y16" s="417"/>
-      <c r="Z16" s="417"/>
-      <c r="AA16" s="417"/>
-      <c r="AB16" s="417"/>
-      <c r="AC16" s="417"/>
-      <c r="AD16" s="417"/>
-      <c r="AE16" s="418"/>
-      <c r="AF16" s="413"/>
-      <c r="AG16" s="414"/>
-      <c r="AH16" s="414"/>
-      <c r="AI16" s="415"/>
+      <c r="B16" s="445"/>
+      <c r="C16" s="446"/>
+      <c r="D16" s="447"/>
+      <c r="E16" s="448"/>
+      <c r="F16" s="449"/>
+      <c r="G16" s="445"/>
+      <c r="H16" s="450"/>
+      <c r="I16" s="446"/>
+      <c r="J16" s="451"/>
+      <c r="K16" s="452"/>
+      <c r="L16" s="452"/>
+      <c r="M16" s="452"/>
+      <c r="N16" s="452"/>
+      <c r="O16" s="452"/>
+      <c r="P16" s="453"/>
+      <c r="Q16" s="454"/>
+      <c r="R16" s="455"/>
+      <c r="S16" s="455"/>
+      <c r="T16" s="455"/>
+      <c r="U16" s="455"/>
+      <c r="V16" s="455"/>
+      <c r="W16" s="455"/>
+      <c r="X16" s="455"/>
+      <c r="Y16" s="455"/>
+      <c r="Z16" s="455"/>
+      <c r="AA16" s="455"/>
+      <c r="AB16" s="455"/>
+      <c r="AC16" s="455"/>
+      <c r="AD16" s="455"/>
+      <c r="AE16" s="456"/>
+      <c r="AF16" s="451"/>
+      <c r="AG16" s="452"/>
+      <c r="AH16" s="452"/>
+      <c r="AI16" s="453"/>
     </row>
     <row r="17" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="139"/>
-      <c r="B17" s="407"/>
-      <c r="C17" s="408"/>
-      <c r="D17" s="409"/>
-      <c r="E17" s="410"/>
-      <c r="F17" s="411"/>
-      <c r="G17" s="407"/>
-      <c r="H17" s="412"/>
-      <c r="I17" s="408"/>
-      <c r="J17" s="413"/>
-      <c r="K17" s="414"/>
-      <c r="L17" s="414"/>
-      <c r="M17" s="414"/>
-      <c r="N17" s="414"/>
-      <c r="O17" s="414"/>
-      <c r="P17" s="415"/>
-      <c r="Q17" s="416"/>
-      <c r="R17" s="417"/>
-      <c r="S17" s="417"/>
-      <c r="T17" s="417"/>
-      <c r="U17" s="417"/>
-      <c r="V17" s="417"/>
-      <c r="W17" s="417"/>
-      <c r="X17" s="417"/>
-      <c r="Y17" s="417"/>
-      <c r="Z17" s="417"/>
-      <c r="AA17" s="417"/>
-      <c r="AB17" s="417"/>
-      <c r="AC17" s="417"/>
-      <c r="AD17" s="417"/>
-      <c r="AE17" s="418"/>
-      <c r="AF17" s="413"/>
-      <c r="AG17" s="414"/>
-      <c r="AH17" s="414"/>
-      <c r="AI17" s="415"/>
+      <c r="B17" s="445"/>
+      <c r="C17" s="446"/>
+      <c r="D17" s="447"/>
+      <c r="E17" s="448"/>
+      <c r="F17" s="449"/>
+      <c r="G17" s="445"/>
+      <c r="H17" s="450"/>
+      <c r="I17" s="446"/>
+      <c r="J17" s="451"/>
+      <c r="K17" s="452"/>
+      <c r="L17" s="452"/>
+      <c r="M17" s="452"/>
+      <c r="N17" s="452"/>
+      <c r="O17" s="452"/>
+      <c r="P17" s="453"/>
+      <c r="Q17" s="454"/>
+      <c r="R17" s="455"/>
+      <c r="S17" s="455"/>
+      <c r="T17" s="455"/>
+      <c r="U17" s="455"/>
+      <c r="V17" s="455"/>
+      <c r="W17" s="455"/>
+      <c r="X17" s="455"/>
+      <c r="Y17" s="455"/>
+      <c r="Z17" s="455"/>
+      <c r="AA17" s="455"/>
+      <c r="AB17" s="455"/>
+      <c r="AC17" s="455"/>
+      <c r="AD17" s="455"/>
+      <c r="AE17" s="456"/>
+      <c r="AF17" s="451"/>
+      <c r="AG17" s="452"/>
+      <c r="AH17" s="452"/>
+      <c r="AI17" s="453"/>
     </row>
     <row r="18" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="139"/>
-      <c r="B18" s="407"/>
-      <c r="C18" s="408"/>
-      <c r="D18" s="409"/>
-      <c r="E18" s="410"/>
-      <c r="F18" s="411"/>
-      <c r="G18" s="407"/>
-      <c r="H18" s="412"/>
-      <c r="I18" s="408"/>
-      <c r="J18" s="413"/>
-      <c r="K18" s="414"/>
-      <c r="L18" s="414"/>
-      <c r="M18" s="414"/>
-      <c r="N18" s="414"/>
-      <c r="O18" s="414"/>
-      <c r="P18" s="415"/>
-      <c r="Q18" s="416"/>
-      <c r="R18" s="417"/>
-      <c r="S18" s="417"/>
-      <c r="T18" s="417"/>
-      <c r="U18" s="417"/>
-      <c r="V18" s="417"/>
-      <c r="W18" s="417"/>
-      <c r="X18" s="417"/>
-      <c r="Y18" s="417"/>
-      <c r="Z18" s="417"/>
-      <c r="AA18" s="417"/>
-      <c r="AB18" s="417"/>
-      <c r="AC18" s="417"/>
-      <c r="AD18" s="417"/>
-      <c r="AE18" s="418"/>
-      <c r="AF18" s="413"/>
-      <c r="AG18" s="414"/>
-      <c r="AH18" s="414"/>
-      <c r="AI18" s="415"/>
+      <c r="B18" s="445"/>
+      <c r="C18" s="446"/>
+      <c r="D18" s="447"/>
+      <c r="E18" s="448"/>
+      <c r="F18" s="449"/>
+      <c r="G18" s="445"/>
+      <c r="H18" s="450"/>
+      <c r="I18" s="446"/>
+      <c r="J18" s="451"/>
+      <c r="K18" s="452"/>
+      <c r="L18" s="452"/>
+      <c r="M18" s="452"/>
+      <c r="N18" s="452"/>
+      <c r="O18" s="452"/>
+      <c r="P18" s="453"/>
+      <c r="Q18" s="454"/>
+      <c r="R18" s="455"/>
+      <c r="S18" s="455"/>
+      <c r="T18" s="455"/>
+      <c r="U18" s="455"/>
+      <c r="V18" s="455"/>
+      <c r="W18" s="455"/>
+      <c r="X18" s="455"/>
+      <c r="Y18" s="455"/>
+      <c r="Z18" s="455"/>
+      <c r="AA18" s="455"/>
+      <c r="AB18" s="455"/>
+      <c r="AC18" s="455"/>
+      <c r="AD18" s="455"/>
+      <c r="AE18" s="456"/>
+      <c r="AF18" s="451"/>
+      <c r="AG18" s="452"/>
+      <c r="AH18" s="452"/>
+      <c r="AI18" s="453"/>
     </row>
     <row r="19" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="139"/>
-      <c r="B19" s="407"/>
-      <c r="C19" s="408"/>
-      <c r="D19" s="409"/>
-      <c r="E19" s="410"/>
-      <c r="F19" s="411"/>
-      <c r="G19" s="407"/>
-      <c r="H19" s="412"/>
-      <c r="I19" s="408"/>
-      <c r="J19" s="413"/>
-      <c r="K19" s="414"/>
-      <c r="L19" s="414"/>
-      <c r="M19" s="414"/>
-      <c r="N19" s="414"/>
-      <c r="O19" s="414"/>
-      <c r="P19" s="415"/>
-      <c r="Q19" s="416"/>
-      <c r="R19" s="417"/>
-      <c r="S19" s="417"/>
-      <c r="T19" s="417"/>
-      <c r="U19" s="417"/>
-      <c r="V19" s="417"/>
-      <c r="W19" s="417"/>
-      <c r="X19" s="417"/>
-      <c r="Y19" s="417"/>
-      <c r="Z19" s="417"/>
-      <c r="AA19" s="417"/>
-      <c r="AB19" s="417"/>
-      <c r="AC19" s="417"/>
-      <c r="AD19" s="417"/>
-      <c r="AE19" s="418"/>
-      <c r="AF19" s="413"/>
-      <c r="AG19" s="414"/>
-      <c r="AH19" s="414"/>
-      <c r="AI19" s="415"/>
+      <c r="B19" s="445"/>
+      <c r="C19" s="446"/>
+      <c r="D19" s="447"/>
+      <c r="E19" s="448"/>
+      <c r="F19" s="449"/>
+      <c r="G19" s="445"/>
+      <c r="H19" s="450"/>
+      <c r="I19" s="446"/>
+      <c r="J19" s="451"/>
+      <c r="K19" s="452"/>
+      <c r="L19" s="452"/>
+      <c r="M19" s="452"/>
+      <c r="N19" s="452"/>
+      <c r="O19" s="452"/>
+      <c r="P19" s="453"/>
+      <c r="Q19" s="454"/>
+      <c r="R19" s="455"/>
+      <c r="S19" s="455"/>
+      <c r="T19" s="455"/>
+      <c r="U19" s="455"/>
+      <c r="V19" s="455"/>
+      <c r="W19" s="455"/>
+      <c r="X19" s="455"/>
+      <c r="Y19" s="455"/>
+      <c r="Z19" s="455"/>
+      <c r="AA19" s="455"/>
+      <c r="AB19" s="455"/>
+      <c r="AC19" s="455"/>
+      <c r="AD19" s="455"/>
+      <c r="AE19" s="456"/>
+      <c r="AF19" s="451"/>
+      <c r="AG19" s="452"/>
+      <c r="AH19" s="452"/>
+      <c r="AI19" s="453"/>
     </row>
     <row r="20" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="139"/>
-      <c r="B20" s="407"/>
-      <c r="C20" s="408"/>
-      <c r="D20" s="409"/>
-      <c r="E20" s="410"/>
-      <c r="F20" s="411"/>
-      <c r="G20" s="407"/>
-      <c r="H20" s="412"/>
-      <c r="I20" s="408"/>
-      <c r="J20" s="413"/>
-      <c r="K20" s="414"/>
-      <c r="L20" s="414"/>
-      <c r="M20" s="414"/>
-      <c r="N20" s="414"/>
-      <c r="O20" s="414"/>
-      <c r="P20" s="415"/>
-      <c r="Q20" s="416"/>
-      <c r="R20" s="417"/>
-      <c r="S20" s="417"/>
-      <c r="T20" s="417"/>
-      <c r="U20" s="417"/>
-      <c r="V20" s="417"/>
-      <c r="W20" s="417"/>
-      <c r="X20" s="417"/>
-      <c r="Y20" s="417"/>
-      <c r="Z20" s="417"/>
-      <c r="AA20" s="417"/>
-      <c r="AB20" s="417"/>
-      <c r="AC20" s="417"/>
-      <c r="AD20" s="417"/>
-      <c r="AE20" s="418"/>
-      <c r="AF20" s="413"/>
-      <c r="AG20" s="414"/>
-      <c r="AH20" s="414"/>
-      <c r="AI20" s="415"/>
+      <c r="B20" s="445"/>
+      <c r="C20" s="446"/>
+      <c r="D20" s="447"/>
+      <c r="E20" s="448"/>
+      <c r="F20" s="449"/>
+      <c r="G20" s="445"/>
+      <c r="H20" s="450"/>
+      <c r="I20" s="446"/>
+      <c r="J20" s="451"/>
+      <c r="K20" s="452"/>
+      <c r="L20" s="452"/>
+      <c r="M20" s="452"/>
+      <c r="N20" s="452"/>
+      <c r="O20" s="452"/>
+      <c r="P20" s="453"/>
+      <c r="Q20" s="454"/>
+      <c r="R20" s="455"/>
+      <c r="S20" s="455"/>
+      <c r="T20" s="455"/>
+      <c r="U20" s="455"/>
+      <c r="V20" s="455"/>
+      <c r="W20" s="455"/>
+      <c r="X20" s="455"/>
+      <c r="Y20" s="455"/>
+      <c r="Z20" s="455"/>
+      <c r="AA20" s="455"/>
+      <c r="AB20" s="455"/>
+      <c r="AC20" s="455"/>
+      <c r="AD20" s="455"/>
+      <c r="AE20" s="456"/>
+      <c r="AF20" s="451"/>
+      <c r="AG20" s="452"/>
+      <c r="AH20" s="452"/>
+      <c r="AI20" s="453"/>
     </row>
     <row r="21" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="139"/>
-      <c r="B21" s="407"/>
-      <c r="C21" s="408"/>
-      <c r="D21" s="409"/>
-      <c r="E21" s="410"/>
-      <c r="F21" s="411"/>
-      <c r="G21" s="407"/>
-      <c r="H21" s="412"/>
-      <c r="I21" s="408"/>
-      <c r="J21" s="413"/>
-      <c r="K21" s="414"/>
-      <c r="L21" s="414"/>
-      <c r="M21" s="414"/>
-      <c r="N21" s="414"/>
-      <c r="O21" s="414"/>
-      <c r="P21" s="415"/>
-      <c r="Q21" s="416"/>
-      <c r="R21" s="417"/>
-      <c r="S21" s="417"/>
-      <c r="T21" s="417"/>
-      <c r="U21" s="417"/>
-      <c r="V21" s="417"/>
-      <c r="W21" s="417"/>
-      <c r="X21" s="417"/>
-      <c r="Y21" s="417"/>
-      <c r="Z21" s="417"/>
-      <c r="AA21" s="417"/>
-      <c r="AB21" s="417"/>
-      <c r="AC21" s="417"/>
-      <c r="AD21" s="417"/>
-      <c r="AE21" s="418"/>
-      <c r="AF21" s="413"/>
-      <c r="AG21" s="414"/>
-      <c r="AH21" s="414"/>
-      <c r="AI21" s="415"/>
+      <c r="B21" s="445"/>
+      <c r="C21" s="446"/>
+      <c r="D21" s="447"/>
+      <c r="E21" s="448"/>
+      <c r="F21" s="449"/>
+      <c r="G21" s="445"/>
+      <c r="H21" s="450"/>
+      <c r="I21" s="446"/>
+      <c r="J21" s="451"/>
+      <c r="K21" s="452"/>
+      <c r="L21" s="452"/>
+      <c r="M21" s="452"/>
+      <c r="N21" s="452"/>
+      <c r="O21" s="452"/>
+      <c r="P21" s="453"/>
+      <c r="Q21" s="454"/>
+      <c r="R21" s="455"/>
+      <c r="S21" s="455"/>
+      <c r="T21" s="455"/>
+      <c r="U21" s="455"/>
+      <c r="V21" s="455"/>
+      <c r="W21" s="455"/>
+      <c r="X21" s="455"/>
+      <c r="Y21" s="455"/>
+      <c r="Z21" s="455"/>
+      <c r="AA21" s="455"/>
+      <c r="AB21" s="455"/>
+      <c r="AC21" s="455"/>
+      <c r="AD21" s="455"/>
+      <c r="AE21" s="456"/>
+      <c r="AF21" s="451"/>
+      <c r="AG21" s="452"/>
+      <c r="AH21" s="452"/>
+      <c r="AI21" s="453"/>
     </row>
     <row r="22" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="139"/>
-      <c r="B22" s="407"/>
-      <c r="C22" s="408"/>
-      <c r="D22" s="409"/>
-      <c r="E22" s="410"/>
-      <c r="F22" s="411"/>
-      <c r="G22" s="407"/>
-      <c r="H22" s="412"/>
-      <c r="I22" s="408"/>
-      <c r="J22" s="413"/>
-      <c r="K22" s="414"/>
-      <c r="L22" s="414"/>
-      <c r="M22" s="414"/>
-      <c r="N22" s="414"/>
-      <c r="O22" s="414"/>
-      <c r="P22" s="415"/>
-      <c r="Q22" s="416"/>
-      <c r="R22" s="417"/>
-      <c r="S22" s="417"/>
-      <c r="T22" s="417"/>
-      <c r="U22" s="417"/>
-      <c r="V22" s="417"/>
-      <c r="W22" s="417"/>
-      <c r="X22" s="417"/>
-      <c r="Y22" s="417"/>
-      <c r="Z22" s="417"/>
-      <c r="AA22" s="417"/>
-      <c r="AB22" s="417"/>
-      <c r="AC22" s="417"/>
-      <c r="AD22" s="417"/>
-      <c r="AE22" s="418"/>
-      <c r="AF22" s="413"/>
-      <c r="AG22" s="414"/>
-      <c r="AH22" s="414"/>
-      <c r="AI22" s="415"/>
+      <c r="B22" s="445"/>
+      <c r="C22" s="446"/>
+      <c r="D22" s="447"/>
+      <c r="E22" s="448"/>
+      <c r="F22" s="449"/>
+      <c r="G22" s="445"/>
+      <c r="H22" s="450"/>
+      <c r="I22" s="446"/>
+      <c r="J22" s="451"/>
+      <c r="K22" s="452"/>
+      <c r="L22" s="452"/>
+      <c r="M22" s="452"/>
+      <c r="N22" s="452"/>
+      <c r="O22" s="452"/>
+      <c r="P22" s="453"/>
+      <c r="Q22" s="454"/>
+      <c r="R22" s="455"/>
+      <c r="S22" s="455"/>
+      <c r="T22" s="455"/>
+      <c r="U22" s="455"/>
+      <c r="V22" s="455"/>
+      <c r="W22" s="455"/>
+      <c r="X22" s="455"/>
+      <c r="Y22" s="455"/>
+      <c r="Z22" s="455"/>
+      <c r="AA22" s="455"/>
+      <c r="AB22" s="455"/>
+      <c r="AC22" s="455"/>
+      <c r="AD22" s="455"/>
+      <c r="AE22" s="456"/>
+      <c r="AF22" s="451"/>
+      <c r="AG22" s="452"/>
+      <c r="AH22" s="452"/>
+      <c r="AI22" s="453"/>
     </row>
     <row r="23" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="139"/>
-      <c r="B23" s="407"/>
-      <c r="C23" s="408"/>
-      <c r="D23" s="409"/>
-      <c r="E23" s="410"/>
-      <c r="F23" s="411"/>
-      <c r="G23" s="407"/>
-      <c r="H23" s="412"/>
-      <c r="I23" s="408"/>
-      <c r="J23" s="413"/>
-      <c r="K23" s="414"/>
-      <c r="L23" s="414"/>
-      <c r="M23" s="414"/>
-      <c r="N23" s="414"/>
-      <c r="O23" s="414"/>
-      <c r="P23" s="415"/>
-      <c r="Q23" s="416"/>
-      <c r="R23" s="417"/>
-      <c r="S23" s="417"/>
-      <c r="T23" s="417"/>
-      <c r="U23" s="417"/>
-      <c r="V23" s="417"/>
-      <c r="W23" s="417"/>
-      <c r="X23" s="417"/>
-      <c r="Y23" s="417"/>
-      <c r="Z23" s="417"/>
-      <c r="AA23" s="417"/>
-      <c r="AB23" s="417"/>
-      <c r="AC23" s="417"/>
-      <c r="AD23" s="417"/>
-      <c r="AE23" s="418"/>
-      <c r="AF23" s="413"/>
-      <c r="AG23" s="414"/>
-      <c r="AH23" s="414"/>
-      <c r="AI23" s="415"/>
+      <c r="B23" s="445"/>
+      <c r="C23" s="446"/>
+      <c r="D23" s="447"/>
+      <c r="E23" s="448"/>
+      <c r="F23" s="449"/>
+      <c r="G23" s="445"/>
+      <c r="H23" s="450"/>
+      <c r="I23" s="446"/>
+      <c r="J23" s="451"/>
+      <c r="K23" s="452"/>
+      <c r="L23" s="452"/>
+      <c r="M23" s="452"/>
+      <c r="N23" s="452"/>
+      <c r="O23" s="452"/>
+      <c r="P23" s="453"/>
+      <c r="Q23" s="454"/>
+      <c r="R23" s="455"/>
+      <c r="S23" s="455"/>
+      <c r="T23" s="455"/>
+      <c r="U23" s="455"/>
+      <c r="V23" s="455"/>
+      <c r="W23" s="455"/>
+      <c r="X23" s="455"/>
+      <c r="Y23" s="455"/>
+      <c r="Z23" s="455"/>
+      <c r="AA23" s="455"/>
+      <c r="AB23" s="455"/>
+      <c r="AC23" s="455"/>
+      <c r="AD23" s="455"/>
+      <c r="AE23" s="456"/>
+      <c r="AF23" s="451"/>
+      <c r="AG23" s="452"/>
+      <c r="AH23" s="452"/>
+      <c r="AI23" s="453"/>
     </row>
     <row r="24" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="139"/>
-      <c r="B24" s="407"/>
-      <c r="C24" s="408"/>
-      <c r="D24" s="409"/>
-      <c r="E24" s="410"/>
-      <c r="F24" s="411"/>
-      <c r="G24" s="407"/>
-      <c r="H24" s="412"/>
-      <c r="I24" s="408"/>
-      <c r="J24" s="413"/>
-      <c r="K24" s="414"/>
-      <c r="L24" s="414"/>
-      <c r="M24" s="414"/>
-      <c r="N24" s="414"/>
-      <c r="O24" s="414"/>
-      <c r="P24" s="415"/>
-      <c r="Q24" s="416"/>
-      <c r="R24" s="417"/>
-      <c r="S24" s="417"/>
-      <c r="T24" s="417"/>
-      <c r="U24" s="417"/>
-      <c r="V24" s="417"/>
-      <c r="W24" s="417"/>
-      <c r="X24" s="417"/>
-      <c r="Y24" s="417"/>
-      <c r="Z24" s="417"/>
-      <c r="AA24" s="417"/>
-      <c r="AB24" s="417"/>
-      <c r="AC24" s="417"/>
-      <c r="AD24" s="417"/>
-      <c r="AE24" s="418"/>
-      <c r="AF24" s="413"/>
-      <c r="AG24" s="414"/>
-      <c r="AH24" s="414"/>
-      <c r="AI24" s="415"/>
+      <c r="B24" s="445"/>
+      <c r="C24" s="446"/>
+      <c r="D24" s="447"/>
+      <c r="E24" s="448"/>
+      <c r="F24" s="449"/>
+      <c r="G24" s="445"/>
+      <c r="H24" s="450"/>
+      <c r="I24" s="446"/>
+      <c r="J24" s="451"/>
+      <c r="K24" s="452"/>
+      <c r="L24" s="452"/>
+      <c r="M24" s="452"/>
+      <c r="N24" s="452"/>
+      <c r="O24" s="452"/>
+      <c r="P24" s="453"/>
+      <c r="Q24" s="454"/>
+      <c r="R24" s="455"/>
+      <c r="S24" s="455"/>
+      <c r="T24" s="455"/>
+      <c r="U24" s="455"/>
+      <c r="V24" s="455"/>
+      <c r="W24" s="455"/>
+      <c r="X24" s="455"/>
+      <c r="Y24" s="455"/>
+      <c r="Z24" s="455"/>
+      <c r="AA24" s="455"/>
+      <c r="AB24" s="455"/>
+      <c r="AC24" s="455"/>
+      <c r="AD24" s="455"/>
+      <c r="AE24" s="456"/>
+      <c r="AF24" s="451"/>
+      <c r="AG24" s="452"/>
+      <c r="AH24" s="452"/>
+      <c r="AI24" s="453"/>
     </row>
     <row r="25" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="139"/>
-      <c r="B25" s="407"/>
-      <c r="C25" s="408"/>
-      <c r="D25" s="409"/>
-      <c r="E25" s="410"/>
-      <c r="F25" s="411"/>
-      <c r="G25" s="407"/>
-      <c r="H25" s="412"/>
-      <c r="I25" s="408"/>
-      <c r="J25" s="413"/>
-      <c r="K25" s="414"/>
-      <c r="L25" s="414"/>
-      <c r="M25" s="414"/>
-      <c r="N25" s="414"/>
-      <c r="O25" s="414"/>
-      <c r="P25" s="415"/>
-      <c r="Q25" s="416"/>
-      <c r="R25" s="417"/>
-      <c r="S25" s="417"/>
-      <c r="T25" s="417"/>
-      <c r="U25" s="417"/>
-      <c r="V25" s="417"/>
-      <c r="W25" s="417"/>
-      <c r="X25" s="417"/>
-      <c r="Y25" s="417"/>
-      <c r="Z25" s="417"/>
-      <c r="AA25" s="417"/>
-      <c r="AB25" s="417"/>
-      <c r="AC25" s="417"/>
-      <c r="AD25" s="417"/>
-      <c r="AE25" s="418"/>
-      <c r="AF25" s="413"/>
-      <c r="AG25" s="414"/>
-      <c r="AH25" s="414"/>
-      <c r="AI25" s="415"/>
+      <c r="B25" s="445"/>
+      <c r="C25" s="446"/>
+      <c r="D25" s="447"/>
+      <c r="E25" s="448"/>
+      <c r="F25" s="449"/>
+      <c r="G25" s="445"/>
+      <c r="H25" s="450"/>
+      <c r="I25" s="446"/>
+      <c r="J25" s="451"/>
+      <c r="K25" s="452"/>
+      <c r="L25" s="452"/>
+      <c r="M25" s="452"/>
+      <c r="N25" s="452"/>
+      <c r="O25" s="452"/>
+      <c r="P25" s="453"/>
+      <c r="Q25" s="454"/>
+      <c r="R25" s="455"/>
+      <c r="S25" s="455"/>
+      <c r="T25" s="455"/>
+      <c r="U25" s="455"/>
+      <c r="V25" s="455"/>
+      <c r="W25" s="455"/>
+      <c r="X25" s="455"/>
+      <c r="Y25" s="455"/>
+      <c r="Z25" s="455"/>
+      <c r="AA25" s="455"/>
+      <c r="AB25" s="455"/>
+      <c r="AC25" s="455"/>
+      <c r="AD25" s="455"/>
+      <c r="AE25" s="456"/>
+      <c r="AF25" s="451"/>
+      <c r="AG25" s="452"/>
+      <c r="AH25" s="452"/>
+      <c r="AI25" s="453"/>
     </row>
     <row r="26" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="139"/>
-      <c r="B26" s="407"/>
-      <c r="C26" s="408"/>
-      <c r="D26" s="409"/>
-      <c r="E26" s="410"/>
-      <c r="F26" s="411"/>
-      <c r="G26" s="407"/>
-      <c r="H26" s="412"/>
-      <c r="I26" s="408"/>
-      <c r="J26" s="413"/>
-      <c r="K26" s="414"/>
-      <c r="L26" s="414"/>
-      <c r="M26" s="414"/>
-      <c r="N26" s="414"/>
-      <c r="O26" s="414"/>
-      <c r="P26" s="415"/>
-      <c r="Q26" s="416"/>
-      <c r="R26" s="417"/>
-      <c r="S26" s="417"/>
-      <c r="T26" s="417"/>
-      <c r="U26" s="417"/>
-      <c r="V26" s="417"/>
-      <c r="W26" s="417"/>
-      <c r="X26" s="417"/>
-      <c r="Y26" s="417"/>
-      <c r="Z26" s="417"/>
-      <c r="AA26" s="417"/>
-      <c r="AB26" s="417"/>
-      <c r="AC26" s="417"/>
-      <c r="AD26" s="417"/>
-      <c r="AE26" s="418"/>
-      <c r="AF26" s="413"/>
-      <c r="AG26" s="414"/>
-      <c r="AH26" s="414"/>
-      <c r="AI26" s="415"/>
+      <c r="B26" s="445"/>
+      <c r="C26" s="446"/>
+      <c r="D26" s="447"/>
+      <c r="E26" s="448"/>
+      <c r="F26" s="449"/>
+      <c r="G26" s="445"/>
+      <c r="H26" s="450"/>
+      <c r="I26" s="446"/>
+      <c r="J26" s="451"/>
+      <c r="K26" s="452"/>
+      <c r="L26" s="452"/>
+      <c r="M26" s="452"/>
+      <c r="N26" s="452"/>
+      <c r="O26" s="452"/>
+      <c r="P26" s="453"/>
+      <c r="Q26" s="454"/>
+      <c r="R26" s="455"/>
+      <c r="S26" s="455"/>
+      <c r="T26" s="455"/>
+      <c r="U26" s="455"/>
+      <c r="V26" s="455"/>
+      <c r="W26" s="455"/>
+      <c r="X26" s="455"/>
+      <c r="Y26" s="455"/>
+      <c r="Z26" s="455"/>
+      <c r="AA26" s="455"/>
+      <c r="AB26" s="455"/>
+      <c r="AC26" s="455"/>
+      <c r="AD26" s="455"/>
+      <c r="AE26" s="456"/>
+      <c r="AF26" s="451"/>
+      <c r="AG26" s="452"/>
+      <c r="AH26" s="452"/>
+      <c r="AI26" s="453"/>
     </row>
     <row r="27" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="139"/>
-      <c r="B27" s="407"/>
-      <c r="C27" s="408"/>
-      <c r="D27" s="409"/>
-      <c r="E27" s="410"/>
-      <c r="F27" s="411"/>
-      <c r="G27" s="407"/>
-      <c r="H27" s="412"/>
-      <c r="I27" s="408"/>
-      <c r="J27" s="413"/>
-      <c r="K27" s="414"/>
-      <c r="L27" s="414"/>
-      <c r="M27" s="414"/>
-      <c r="N27" s="414"/>
-      <c r="O27" s="414"/>
-      <c r="P27" s="415"/>
-      <c r="Q27" s="416"/>
-      <c r="R27" s="417"/>
-      <c r="S27" s="417"/>
-      <c r="T27" s="417"/>
-      <c r="U27" s="417"/>
-      <c r="V27" s="417"/>
-      <c r="W27" s="417"/>
-      <c r="X27" s="417"/>
-      <c r="Y27" s="417"/>
-      <c r="Z27" s="417"/>
-      <c r="AA27" s="417"/>
-      <c r="AB27" s="417"/>
-      <c r="AC27" s="417"/>
-      <c r="AD27" s="417"/>
-      <c r="AE27" s="418"/>
-      <c r="AF27" s="413"/>
-      <c r="AG27" s="414"/>
-      <c r="AH27" s="414"/>
-      <c r="AI27" s="415"/>
+      <c r="B27" s="445"/>
+      <c r="C27" s="446"/>
+      <c r="D27" s="447"/>
+      <c r="E27" s="448"/>
+      <c r="F27" s="449"/>
+      <c r="G27" s="445"/>
+      <c r="H27" s="450"/>
+      <c r="I27" s="446"/>
+      <c r="J27" s="451"/>
+      <c r="K27" s="452"/>
+      <c r="L27" s="452"/>
+      <c r="M27" s="452"/>
+      <c r="N27" s="452"/>
+      <c r="O27" s="452"/>
+      <c r="P27" s="453"/>
+      <c r="Q27" s="454"/>
+      <c r="R27" s="455"/>
+      <c r="S27" s="455"/>
+      <c r="T27" s="455"/>
+      <c r="U27" s="455"/>
+      <c r="V27" s="455"/>
+      <c r="W27" s="455"/>
+      <c r="X27" s="455"/>
+      <c r="Y27" s="455"/>
+      <c r="Z27" s="455"/>
+      <c r="AA27" s="455"/>
+      <c r="AB27" s="455"/>
+      <c r="AC27" s="455"/>
+      <c r="AD27" s="455"/>
+      <c r="AE27" s="456"/>
+      <c r="AF27" s="451"/>
+      <c r="AG27" s="452"/>
+      <c r="AH27" s="452"/>
+      <c r="AI27" s="453"/>
     </row>
     <row r="28" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="139"/>
-      <c r="B28" s="407"/>
-      <c r="C28" s="408"/>
-      <c r="D28" s="409"/>
-      <c r="E28" s="410"/>
-      <c r="F28" s="411"/>
-      <c r="G28" s="407"/>
-      <c r="H28" s="412"/>
-      <c r="I28" s="408"/>
-      <c r="J28" s="413"/>
-      <c r="K28" s="414"/>
-      <c r="L28" s="414"/>
-      <c r="M28" s="414"/>
-      <c r="N28" s="414"/>
-      <c r="O28" s="414"/>
-      <c r="P28" s="415"/>
-      <c r="Q28" s="416"/>
-      <c r="R28" s="417"/>
-      <c r="S28" s="417"/>
-      <c r="T28" s="417"/>
-      <c r="U28" s="417"/>
-      <c r="V28" s="417"/>
-      <c r="W28" s="417"/>
-      <c r="X28" s="417"/>
-      <c r="Y28" s="417"/>
-      <c r="Z28" s="417"/>
-      <c r="AA28" s="417"/>
-      <c r="AB28" s="417"/>
-      <c r="AC28" s="417"/>
-      <c r="AD28" s="417"/>
-      <c r="AE28" s="418"/>
-      <c r="AF28" s="413"/>
-      <c r="AG28" s="414"/>
-      <c r="AH28" s="414"/>
-      <c r="AI28" s="415"/>
+      <c r="B28" s="445"/>
+      <c r="C28" s="446"/>
+      <c r="D28" s="447"/>
+      <c r="E28" s="448"/>
+      <c r="F28" s="449"/>
+      <c r="G28" s="445"/>
+      <c r="H28" s="450"/>
+      <c r="I28" s="446"/>
+      <c r="J28" s="451"/>
+      <c r="K28" s="452"/>
+      <c r="L28" s="452"/>
+      <c r="M28" s="452"/>
+      <c r="N28" s="452"/>
+      <c r="O28" s="452"/>
+      <c r="P28" s="453"/>
+      <c r="Q28" s="454"/>
+      <c r="R28" s="455"/>
+      <c r="S28" s="455"/>
+      <c r="T28" s="455"/>
+      <c r="U28" s="455"/>
+      <c r="V28" s="455"/>
+      <c r="W28" s="455"/>
+      <c r="X28" s="455"/>
+      <c r="Y28" s="455"/>
+      <c r="Z28" s="455"/>
+      <c r="AA28" s="455"/>
+      <c r="AB28" s="455"/>
+      <c r="AC28" s="455"/>
+      <c r="AD28" s="455"/>
+      <c r="AE28" s="456"/>
+      <c r="AF28" s="451"/>
+      <c r="AG28" s="452"/>
+      <c r="AH28" s="452"/>
+      <c r="AI28" s="453"/>
     </row>
     <row r="29" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="139"/>
-      <c r="B29" s="407"/>
-      <c r="C29" s="408"/>
-      <c r="D29" s="409"/>
-      <c r="E29" s="410"/>
-      <c r="F29" s="411"/>
-      <c r="G29" s="407"/>
-      <c r="H29" s="412"/>
-      <c r="I29" s="408"/>
-      <c r="J29" s="413"/>
-      <c r="K29" s="414"/>
-      <c r="L29" s="414"/>
-      <c r="M29" s="414"/>
-      <c r="N29" s="414"/>
-      <c r="O29" s="414"/>
-      <c r="P29" s="415"/>
-      <c r="Q29" s="416"/>
-      <c r="R29" s="417"/>
-      <c r="S29" s="417"/>
-      <c r="T29" s="417"/>
-      <c r="U29" s="417"/>
-      <c r="V29" s="417"/>
-      <c r="W29" s="417"/>
-      <c r="X29" s="417"/>
-      <c r="Y29" s="417"/>
-      <c r="Z29" s="417"/>
-      <c r="AA29" s="417"/>
-      <c r="AB29" s="417"/>
-      <c r="AC29" s="417"/>
-      <c r="AD29" s="417"/>
-      <c r="AE29" s="418"/>
-      <c r="AF29" s="413"/>
-      <c r="AG29" s="414"/>
-      <c r="AH29" s="414"/>
-      <c r="AI29" s="415"/>
+      <c r="B29" s="445"/>
+      <c r="C29" s="446"/>
+      <c r="D29" s="447"/>
+      <c r="E29" s="448"/>
+      <c r="F29" s="449"/>
+      <c r="G29" s="445"/>
+      <c r="H29" s="450"/>
+      <c r="I29" s="446"/>
+      <c r="J29" s="451"/>
+      <c r="K29" s="452"/>
+      <c r="L29" s="452"/>
+      <c r="M29" s="452"/>
+      <c r="N29" s="452"/>
+      <c r="O29" s="452"/>
+      <c r="P29" s="453"/>
+      <c r="Q29" s="454"/>
+      <c r="R29" s="455"/>
+      <c r="S29" s="455"/>
+      <c r="T29" s="455"/>
+      <c r="U29" s="455"/>
+      <c r="V29" s="455"/>
+      <c r="W29" s="455"/>
+      <c r="X29" s="455"/>
+      <c r="Y29" s="455"/>
+      <c r="Z29" s="455"/>
+      <c r="AA29" s="455"/>
+      <c r="AB29" s="455"/>
+      <c r="AC29" s="455"/>
+      <c r="AD29" s="455"/>
+      <c r="AE29" s="456"/>
+      <c r="AF29" s="451"/>
+      <c r="AG29" s="452"/>
+      <c r="AH29" s="452"/>
+      <c r="AI29" s="453"/>
     </row>
     <row r="30" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="139"/>
-      <c r="B30" s="407"/>
-      <c r="C30" s="408"/>
-      <c r="D30" s="409"/>
-      <c r="E30" s="410"/>
-      <c r="F30" s="411"/>
-      <c r="G30" s="407"/>
-      <c r="H30" s="412"/>
-      <c r="I30" s="408"/>
-      <c r="J30" s="413"/>
-      <c r="K30" s="414"/>
-      <c r="L30" s="414"/>
-      <c r="M30" s="414"/>
-      <c r="N30" s="414"/>
-      <c r="O30" s="414"/>
-      <c r="P30" s="415"/>
-      <c r="Q30" s="416"/>
-      <c r="R30" s="417"/>
-      <c r="S30" s="417"/>
-      <c r="T30" s="417"/>
-      <c r="U30" s="417"/>
-      <c r="V30" s="417"/>
-      <c r="W30" s="417"/>
-      <c r="X30" s="417"/>
-      <c r="Y30" s="417"/>
-      <c r="Z30" s="417"/>
-      <c r="AA30" s="417"/>
-      <c r="AB30" s="417"/>
-      <c r="AC30" s="417"/>
-      <c r="AD30" s="417"/>
-      <c r="AE30" s="418"/>
-      <c r="AF30" s="413"/>
-      <c r="AG30" s="414"/>
-      <c r="AH30" s="414"/>
-      <c r="AI30" s="415"/>
+      <c r="B30" s="445"/>
+      <c r="C30" s="446"/>
+      <c r="D30" s="447"/>
+      <c r="E30" s="448"/>
+      <c r="F30" s="449"/>
+      <c r="G30" s="445"/>
+      <c r="H30" s="450"/>
+      <c r="I30" s="446"/>
+      <c r="J30" s="451"/>
+      <c r="K30" s="452"/>
+      <c r="L30" s="452"/>
+      <c r="M30" s="452"/>
+      <c r="N30" s="452"/>
+      <c r="O30" s="452"/>
+      <c r="P30" s="453"/>
+      <c r="Q30" s="454"/>
+      <c r="R30" s="455"/>
+      <c r="S30" s="455"/>
+      <c r="T30" s="455"/>
+      <c r="U30" s="455"/>
+      <c r="V30" s="455"/>
+      <c r="W30" s="455"/>
+      <c r="X30" s="455"/>
+      <c r="Y30" s="455"/>
+      <c r="Z30" s="455"/>
+      <c r="AA30" s="455"/>
+      <c r="AB30" s="455"/>
+      <c r="AC30" s="455"/>
+      <c r="AD30" s="455"/>
+      <c r="AE30" s="456"/>
+      <c r="AF30" s="451"/>
+      <c r="AG30" s="452"/>
+      <c r="AH30" s="452"/>
+      <c r="AI30" s="453"/>
     </row>
     <row r="31" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="139"/>
-      <c r="B31" s="407"/>
-      <c r="C31" s="408"/>
-      <c r="D31" s="409"/>
-      <c r="E31" s="410"/>
-      <c r="F31" s="411"/>
-      <c r="G31" s="407"/>
-      <c r="H31" s="412"/>
-      <c r="I31" s="408"/>
-      <c r="J31" s="413"/>
-      <c r="K31" s="414"/>
-      <c r="L31" s="414"/>
-      <c r="M31" s="414"/>
-      <c r="N31" s="414"/>
-      <c r="O31" s="414"/>
-      <c r="P31" s="415"/>
-      <c r="Q31" s="416"/>
-      <c r="R31" s="417"/>
-      <c r="S31" s="417"/>
-      <c r="T31" s="417"/>
-      <c r="U31" s="417"/>
-      <c r="V31" s="417"/>
-      <c r="W31" s="417"/>
-      <c r="X31" s="417"/>
-      <c r="Y31" s="417"/>
-      <c r="Z31" s="417"/>
-      <c r="AA31" s="417"/>
-      <c r="AB31" s="417"/>
-      <c r="AC31" s="417"/>
-      <c r="AD31" s="417"/>
-      <c r="AE31" s="418"/>
-      <c r="AF31" s="413"/>
-      <c r="AG31" s="414"/>
-      <c r="AH31" s="414"/>
-      <c r="AI31" s="415"/>
+      <c r="B31" s="445"/>
+      <c r="C31" s="446"/>
+      <c r="D31" s="447"/>
+      <c r="E31" s="448"/>
+      <c r="F31" s="449"/>
+      <c r="G31" s="445"/>
+      <c r="H31" s="450"/>
+      <c r="I31" s="446"/>
+      <c r="J31" s="451"/>
+      <c r="K31" s="452"/>
+      <c r="L31" s="452"/>
+      <c r="M31" s="452"/>
+      <c r="N31" s="452"/>
+      <c r="O31" s="452"/>
+      <c r="P31" s="453"/>
+      <c r="Q31" s="454"/>
+      <c r="R31" s="455"/>
+      <c r="S31" s="455"/>
+      <c r="T31" s="455"/>
+      <c r="U31" s="455"/>
+      <c r="V31" s="455"/>
+      <c r="W31" s="455"/>
+      <c r="X31" s="455"/>
+      <c r="Y31" s="455"/>
+      <c r="Z31" s="455"/>
+      <c r="AA31" s="455"/>
+      <c r="AB31" s="455"/>
+      <c r="AC31" s="455"/>
+      <c r="AD31" s="455"/>
+      <c r="AE31" s="456"/>
+      <c r="AF31" s="451"/>
+      <c r="AG31" s="452"/>
+      <c r="AH31" s="452"/>
+      <c r="AI31" s="453"/>
     </row>
     <row r="32" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="139"/>
-      <c r="B32" s="407"/>
-      <c r="C32" s="408"/>
-      <c r="D32" s="409"/>
-      <c r="E32" s="410"/>
-      <c r="F32" s="411"/>
-      <c r="G32" s="407"/>
-      <c r="H32" s="412"/>
-      <c r="I32" s="408"/>
-      <c r="J32" s="413"/>
-      <c r="K32" s="419"/>
-      <c r="L32" s="414"/>
-      <c r="M32" s="414"/>
-      <c r="N32" s="414"/>
-      <c r="O32" s="414"/>
-      <c r="P32" s="415"/>
-      <c r="Q32" s="416"/>
-      <c r="R32" s="417"/>
-      <c r="S32" s="417"/>
-      <c r="T32" s="417"/>
-      <c r="U32" s="417"/>
-      <c r="V32" s="417"/>
-      <c r="W32" s="417"/>
-      <c r="X32" s="417"/>
-      <c r="Y32" s="417"/>
-      <c r="Z32" s="417"/>
-      <c r="AA32" s="417"/>
-      <c r="AB32" s="417"/>
-      <c r="AC32" s="417"/>
-      <c r="AD32" s="417"/>
-      <c r="AE32" s="418"/>
-      <c r="AF32" s="413"/>
-      <c r="AG32" s="414"/>
-      <c r="AH32" s="414"/>
-      <c r="AI32" s="415"/>
+      <c r="B32" s="445"/>
+      <c r="C32" s="446"/>
+      <c r="D32" s="447"/>
+      <c r="E32" s="448"/>
+      <c r="F32" s="449"/>
+      <c r="G32" s="445"/>
+      <c r="H32" s="450"/>
+      <c r="I32" s="446"/>
+      <c r="J32" s="451"/>
+      <c r="K32" s="472"/>
+      <c r="L32" s="452"/>
+      <c r="M32" s="452"/>
+      <c r="N32" s="452"/>
+      <c r="O32" s="452"/>
+      <c r="P32" s="453"/>
+      <c r="Q32" s="454"/>
+      <c r="R32" s="455"/>
+      <c r="S32" s="455"/>
+      <c r="T32" s="455"/>
+      <c r="U32" s="455"/>
+      <c r="V32" s="455"/>
+      <c r="W32" s="455"/>
+      <c r="X32" s="455"/>
+      <c r="Y32" s="455"/>
+      <c r="Z32" s="455"/>
+      <c r="AA32" s="455"/>
+      <c r="AB32" s="455"/>
+      <c r="AC32" s="455"/>
+      <c r="AD32" s="455"/>
+      <c r="AE32" s="456"/>
+      <c r="AF32" s="451"/>
+      <c r="AG32" s="452"/>
+      <c r="AH32" s="452"/>
+      <c r="AI32" s="453"/>
     </row>
     <row r="33" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="139"/>
-      <c r="B33" s="407"/>
-      <c r="C33" s="408"/>
-      <c r="D33" s="409"/>
-      <c r="E33" s="410"/>
-      <c r="F33" s="411"/>
-      <c r="G33" s="407"/>
-      <c r="H33" s="412"/>
-      <c r="I33" s="408"/>
-      <c r="J33" s="413"/>
-      <c r="K33" s="414"/>
-      <c r="L33" s="414"/>
-      <c r="M33" s="414"/>
-      <c r="N33" s="414"/>
-      <c r="O33" s="414"/>
-      <c r="P33" s="415"/>
-      <c r="Q33" s="416"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
-      <c r="T33" s="417"/>
-      <c r="U33" s="417"/>
-      <c r="V33" s="417"/>
-      <c r="W33" s="417"/>
-      <c r="X33" s="417"/>
-      <c r="Y33" s="417"/>
-      <c r="Z33" s="417"/>
-      <c r="AA33" s="417"/>
-      <c r="AB33" s="417"/>
-      <c r="AC33" s="417"/>
-      <c r="AD33" s="417"/>
-      <c r="AE33" s="418"/>
-      <c r="AF33" s="413"/>
-      <c r="AG33" s="414"/>
-      <c r="AH33" s="414"/>
-      <c r="AI33" s="415"/>
+      <c r="B33" s="445"/>
+      <c r="C33" s="446"/>
+      <c r="D33" s="447"/>
+      <c r="E33" s="448"/>
+      <c r="F33" s="449"/>
+      <c r="G33" s="445"/>
+      <c r="H33" s="450"/>
+      <c r="I33" s="446"/>
+      <c r="J33" s="451"/>
+      <c r="K33" s="452"/>
+      <c r="L33" s="452"/>
+      <c r="M33" s="452"/>
+      <c r="N33" s="452"/>
+      <c r="O33" s="452"/>
+      <c r="P33" s="453"/>
+      <c r="Q33" s="454"/>
+      <c r="R33" s="455"/>
+      <c r="S33" s="455"/>
+      <c r="T33" s="455"/>
+      <c r="U33" s="455"/>
+      <c r="V33" s="455"/>
+      <c r="W33" s="455"/>
+      <c r="X33" s="455"/>
+      <c r="Y33" s="455"/>
+      <c r="Z33" s="455"/>
+      <c r="AA33" s="455"/>
+      <c r="AB33" s="455"/>
+      <c r="AC33" s="455"/>
+      <c r="AD33" s="455"/>
+      <c r="AE33" s="456"/>
+      <c r="AF33" s="451"/>
+      <c r="AG33" s="452"/>
+      <c r="AH33" s="452"/>
+      <c r="AI33" s="453"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -26080,162 +26240,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -26252,7 +26256,7 @@
   </sheetPr>
   <dimension ref="A1:BA222"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -26392,163 +26396,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="441" t="s">
+      <c r="A1" s="413" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="442"/>
-      <c r="C1" s="442"/>
-      <c r="D1" s="443"/>
-      <c r="E1" s="472" t="str">
+      <c r="B1" s="414"/>
+      <c r="C1" s="414"/>
+      <c r="D1" s="415"/>
+      <c r="E1" s="444" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="445"/>
-      <c r="G1" s="445"/>
-      <c r="H1" s="445"/>
-      <c r="I1" s="445"/>
-      <c r="J1" s="445"/>
-      <c r="K1" s="445"/>
-      <c r="L1" s="445"/>
-      <c r="M1" s="445"/>
-      <c r="N1" s="446"/>
-      <c r="O1" s="451" t="s">
+      <c r="F1" s="417"/>
+      <c r="G1" s="417"/>
+      <c r="H1" s="417"/>
+      <c r="I1" s="417"/>
+      <c r="J1" s="417"/>
+      <c r="K1" s="417"/>
+      <c r="L1" s="417"/>
+      <c r="M1" s="417"/>
+      <c r="N1" s="418"/>
+      <c r="O1" s="423" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="452"/>
-      <c r="Q1" s="452"/>
-      <c r="R1" s="453"/>
-      <c r="S1" s="473" t="str">
+      <c r="P1" s="424"/>
+      <c r="Q1" s="424"/>
+      <c r="R1" s="425"/>
+      <c r="S1" s="478" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="461"/>
-      <c r="U1" s="461"/>
-      <c r="V1" s="461"/>
-      <c r="W1" s="461"/>
-      <c r="X1" s="461"/>
-      <c r="Y1" s="461"/>
-      <c r="Z1" s="462"/>
-      <c r="AA1" s="474" t="s">
+      <c r="T1" s="433"/>
+      <c r="U1" s="433"/>
+      <c r="V1" s="433"/>
+      <c r="W1" s="433"/>
+      <c r="X1" s="433"/>
+      <c r="Y1" s="433"/>
+      <c r="Z1" s="434"/>
+      <c r="AA1" s="476" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="475"/>
-      <c r="AC1" s="469" t="str">
+      <c r="AB1" s="477"/>
+      <c r="AC1" s="441" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="470"/>
-      <c r="AE1" s="470"/>
-      <c r="AF1" s="471"/>
-      <c r="AG1" s="476">
+      <c r="AD1" s="442"/>
+      <c r="AE1" s="442"/>
+      <c r="AF1" s="443"/>
+      <c r="AG1" s="473">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="477"/>
-      <c r="AI1" s="478"/>
+      <c r="AH1" s="474"/>
+      <c r="AI1" s="475"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="141"/>
     </row>
     <row r="2" spans="1:53" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="441" t="s">
+      <c r="A2" s="413" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="442"/>
-      <c r="C2" s="442"/>
-      <c r="D2" s="443"/>
-      <c r="E2" s="472" t="str">
+      <c r="B2" s="414"/>
+      <c r="C2" s="414"/>
+      <c r="D2" s="415"/>
+      <c r="E2" s="444" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="445"/>
-      <c r="G2" s="445"/>
-      <c r="H2" s="445"/>
-      <c r="I2" s="445"/>
-      <c r="J2" s="445"/>
-      <c r="K2" s="445"/>
-      <c r="L2" s="445"/>
-      <c r="M2" s="445"/>
-      <c r="N2" s="446"/>
-      <c r="O2" s="454"/>
-      <c r="P2" s="455"/>
-      <c r="Q2" s="455"/>
-      <c r="R2" s="456"/>
-      <c r="S2" s="463"/>
-      <c r="T2" s="464"/>
-      <c r="U2" s="464"/>
-      <c r="V2" s="464"/>
-      <c r="W2" s="464"/>
-      <c r="X2" s="464"/>
-      <c r="Y2" s="464"/>
-      <c r="Z2" s="465"/>
-      <c r="AA2" s="474" t="s">
+      <c r="F2" s="417"/>
+      <c r="G2" s="417"/>
+      <c r="H2" s="417"/>
+      <c r="I2" s="417"/>
+      <c r="J2" s="417"/>
+      <c r="K2" s="417"/>
+      <c r="L2" s="417"/>
+      <c r="M2" s="417"/>
+      <c r="N2" s="418"/>
+      <c r="O2" s="426"/>
+      <c r="P2" s="427"/>
+      <c r="Q2" s="427"/>
+      <c r="R2" s="428"/>
+      <c r="S2" s="435"/>
+      <c r="T2" s="436"/>
+      <c r="U2" s="436"/>
+      <c r="V2" s="436"/>
+      <c r="W2" s="436"/>
+      <c r="X2" s="436"/>
+      <c r="Y2" s="436"/>
+      <c r="Z2" s="437"/>
+      <c r="AA2" s="476" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="475"/>
-      <c r="AC2" s="469" t="str">
+      <c r="AB2" s="477"/>
+      <c r="AC2" s="441" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="470"/>
-      <c r="AE2" s="470"/>
-      <c r="AF2" s="471"/>
-      <c r="AG2" s="476" t="str">
+      <c r="AD2" s="442"/>
+      <c r="AE2" s="442"/>
+      <c r="AF2" s="443"/>
+      <c r="AG2" s="473" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="477"/>
-      <c r="AI2" s="478"/>
+      <c r="AH2" s="474"/>
+      <c r="AI2" s="475"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
     </row>
     <row r="3" spans="1:53" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="441" t="s">
+      <c r="A3" s="413" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="442"/>
-      <c r="C3" s="442"/>
-      <c r="D3" s="443"/>
-      <c r="E3" s="472" t="str">
+      <c r="B3" s="414"/>
+      <c r="C3" s="414"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="444" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="445"/>
-      <c r="G3" s="445"/>
-      <c r="H3" s="445"/>
-      <c r="I3" s="445"/>
-      <c r="J3" s="445"/>
-      <c r="K3" s="445"/>
-      <c r="L3" s="445"/>
-      <c r="M3" s="445"/>
-      <c r="N3" s="446"/>
-      <c r="O3" s="457"/>
-      <c r="P3" s="458"/>
-      <c r="Q3" s="458"/>
-      <c r="R3" s="459"/>
-      <c r="S3" s="466"/>
-      <c r="T3" s="467"/>
-      <c r="U3" s="467"/>
-      <c r="V3" s="467"/>
-      <c r="W3" s="467"/>
-      <c r="X3" s="467"/>
-      <c r="Y3" s="467"/>
-      <c r="Z3" s="468"/>
-      <c r="AA3" s="474"/>
-      <c r="AB3" s="475"/>
-      <c r="AC3" s="469" t="str">
+      <c r="F3" s="417"/>
+      <c r="G3" s="417"/>
+      <c r="H3" s="417"/>
+      <c r="I3" s="417"/>
+      <c r="J3" s="417"/>
+      <c r="K3" s="417"/>
+      <c r="L3" s="417"/>
+      <c r="M3" s="417"/>
+      <c r="N3" s="418"/>
+      <c r="O3" s="429"/>
+      <c r="P3" s="430"/>
+      <c r="Q3" s="430"/>
+      <c r="R3" s="431"/>
+      <c r="S3" s="438"/>
+      <c r="T3" s="439"/>
+      <c r="U3" s="439"/>
+      <c r="V3" s="439"/>
+      <c r="W3" s="439"/>
+      <c r="X3" s="439"/>
+      <c r="Y3" s="439"/>
+      <c r="Z3" s="440"/>
+      <c r="AA3" s="476"/>
+      <c r="AB3" s="477"/>
+      <c r="AC3" s="441" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="470"/>
-      <c r="AE3" s="470"/>
-      <c r="AF3" s="471"/>
-      <c r="AG3" s="476" t="str">
+      <c r="AD3" s="442"/>
+      <c r="AE3" s="442"/>
+      <c r="AF3" s="443"/>
+      <c r="AG3" s="473" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="477"/>
-      <c r="AI3" s="478"/>
+      <c r="AH3" s="474"/>
+      <c r="AI3" s="475"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -29600,14 +29604,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -29617,6 +29613,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -29644,53 +29648,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="482" t="s">
+      <c r="A1" s="491" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="483"/>
-      <c r="C1" s="483"/>
-      <c r="D1" s="484"/>
-      <c r="E1" s="485" t="str">
+      <c r="B1" s="492"/>
+      <c r="C1" s="492"/>
+      <c r="D1" s="493"/>
+      <c r="E1" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="486"/>
-      <c r="G1" s="486"/>
-      <c r="H1" s="486"/>
-      <c r="I1" s="486"/>
-      <c r="J1" s="486"/>
-      <c r="K1" s="486"/>
-      <c r="L1" s="486"/>
-      <c r="M1" s="486"/>
-      <c r="N1" s="487"/>
-      <c r="O1" s="491" t="s">
+      <c r="F1" s="495"/>
+      <c r="G1" s="495"/>
+      <c r="H1" s="495"/>
+      <c r="I1" s="495"/>
+      <c r="J1" s="495"/>
+      <c r="K1" s="495"/>
+      <c r="L1" s="495"/>
+      <c r="M1" s="495"/>
+      <c r="N1" s="496"/>
+      <c r="O1" s="500" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="492"/>
-      <c r="Q1" s="492"/>
-      <c r="R1" s="493"/>
-      <c r="S1" s="500" t="str">
+      <c r="P1" s="501"/>
+      <c r="Q1" s="501"/>
+      <c r="R1" s="502"/>
+      <c r="S1" s="509" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="501"/>
-      <c r="U1" s="501"/>
-      <c r="V1" s="501"/>
-      <c r="W1" s="501"/>
-      <c r="X1" s="501"/>
-      <c r="Y1" s="501"/>
-      <c r="Z1" s="502"/>
-      <c r="AA1" s="482" t="s">
+      <c r="T1" s="510"/>
+      <c r="U1" s="510"/>
+      <c r="V1" s="510"/>
+      <c r="W1" s="510"/>
+      <c r="X1" s="510"/>
+      <c r="Y1" s="510"/>
+      <c r="Z1" s="511"/>
+      <c r="AA1" s="491" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="484"/>
-      <c r="AC1" s="488" t="str">
+      <c r="AB1" s="493"/>
+      <c r="AC1" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="489"/>
-      <c r="AE1" s="489"/>
-      <c r="AF1" s="490"/>
+      <c r="AD1" s="498"/>
+      <c r="AE1" s="498"/>
+      <c r="AF1" s="499"/>
       <c r="AG1" s="479">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
@@ -29703,48 +29707,48 @@
       <c r="AP1" s="18"/>
     </row>
     <row r="2" spans="1:42" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="482" t="s">
+      <c r="A2" s="491" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="483"/>
-      <c r="C2" s="483"/>
-      <c r="D2" s="484"/>
-      <c r="E2" s="485" t="str">
+      <c r="B2" s="492"/>
+      <c r="C2" s="492"/>
+      <c r="D2" s="493"/>
+      <c r="E2" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="486"/>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="486"/>
-      <c r="K2" s="486"/>
-      <c r="L2" s="486"/>
-      <c r="M2" s="486"/>
-      <c r="N2" s="487"/>
-      <c r="O2" s="494"/>
-      <c r="P2" s="495"/>
-      <c r="Q2" s="495"/>
-      <c r="R2" s="496"/>
-      <c r="S2" s="503"/>
-      <c r="T2" s="504"/>
-      <c r="U2" s="504"/>
-      <c r="V2" s="504"/>
-      <c r="W2" s="504"/>
-      <c r="X2" s="504"/>
-      <c r="Y2" s="504"/>
-      <c r="Z2" s="505"/>
-      <c r="AA2" s="482" t="s">
+      <c r="F2" s="495"/>
+      <c r="G2" s="495"/>
+      <c r="H2" s="495"/>
+      <c r="I2" s="495"/>
+      <c r="J2" s="495"/>
+      <c r="K2" s="495"/>
+      <c r="L2" s="495"/>
+      <c r="M2" s="495"/>
+      <c r="N2" s="496"/>
+      <c r="O2" s="503"/>
+      <c r="P2" s="504"/>
+      <c r="Q2" s="504"/>
+      <c r="R2" s="505"/>
+      <c r="S2" s="512"/>
+      <c r="T2" s="513"/>
+      <c r="U2" s="513"/>
+      <c r="V2" s="513"/>
+      <c r="W2" s="513"/>
+      <c r="X2" s="513"/>
+      <c r="Y2" s="513"/>
+      <c r="Z2" s="514"/>
+      <c r="AA2" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="484"/>
-      <c r="AC2" s="488" t="str">
+      <c r="AB2" s="493"/>
+      <c r="AC2" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="489"/>
-      <c r="AE2" s="489"/>
-      <c r="AF2" s="490"/>
+      <c r="AD2" s="498"/>
+      <c r="AE2" s="498"/>
+      <c r="AF2" s="499"/>
       <c r="AG2" s="479" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -29757,46 +29761,46 @@
       <c r="AP2" s="18"/>
     </row>
     <row r="3" spans="1:42" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="482" t="s">
+      <c r="A3" s="491" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="483"/>
-      <c r="C3" s="483"/>
-      <c r="D3" s="484"/>
-      <c r="E3" s="485" t="str">
+      <c r="B3" s="492"/>
+      <c r="C3" s="492"/>
+      <c r="D3" s="493"/>
+      <c r="E3" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="486"/>
-      <c r="G3" s="486"/>
-      <c r="H3" s="486"/>
-      <c r="I3" s="486"/>
-      <c r="J3" s="486"/>
-      <c r="K3" s="486"/>
-      <c r="L3" s="486"/>
-      <c r="M3" s="486"/>
-      <c r="N3" s="487"/>
-      <c r="O3" s="497"/>
-      <c r="P3" s="498"/>
-      <c r="Q3" s="498"/>
-      <c r="R3" s="499"/>
-      <c r="S3" s="506"/>
-      <c r="T3" s="507"/>
-      <c r="U3" s="507"/>
-      <c r="V3" s="507"/>
-      <c r="W3" s="507"/>
-      <c r="X3" s="507"/>
-      <c r="Y3" s="507"/>
-      <c r="Z3" s="508"/>
-      <c r="AA3" s="482"/>
-      <c r="AB3" s="484"/>
-      <c r="AC3" s="488" t="str">
+      <c r="F3" s="495"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="495"/>
+      <c r="I3" s="495"/>
+      <c r="J3" s="495"/>
+      <c r="K3" s="495"/>
+      <c r="L3" s="495"/>
+      <c r="M3" s="495"/>
+      <c r="N3" s="496"/>
+      <c r="O3" s="506"/>
+      <c r="P3" s="507"/>
+      <c r="Q3" s="507"/>
+      <c r="R3" s="508"/>
+      <c r="S3" s="515"/>
+      <c r="T3" s="516"/>
+      <c r="U3" s="516"/>
+      <c r="V3" s="516"/>
+      <c r="W3" s="516"/>
+      <c r="X3" s="516"/>
+      <c r="Y3" s="516"/>
+      <c r="Z3" s="517"/>
+      <c r="AA3" s="491"/>
+      <c r="AB3" s="493"/>
+      <c r="AC3" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="489"/>
-      <c r="AE3" s="489"/>
-      <c r="AF3" s="490"/>
+      <c r="AD3" s="498"/>
+      <c r="AE3" s="498"/>
+      <c r="AF3" s="499"/>
       <c r="AG3" s="479" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -29853,81 +29857,76 @@
       <c r="C14" s="138"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="D15" s="509" t="s">
+      <c r="D15" s="482" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="510"/>
-      <c r="F15" s="510"/>
-      <c r="G15" s="510"/>
-      <c r="H15" s="510"/>
-      <c r="I15" s="510"/>
-      <c r="J15" s="511"/>
-      <c r="K15" s="509" t="s">
+      <c r="E15" s="483"/>
+      <c r="F15" s="483"/>
+      <c r="G15" s="483"/>
+      <c r="H15" s="483"/>
+      <c r="I15" s="483"/>
+      <c r="J15" s="484"/>
+      <c r="K15" s="482" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="510"/>
-      <c r="M15" s="510"/>
-      <c r="N15" s="510"/>
-      <c r="O15" s="510"/>
-      <c r="P15" s="510"/>
-      <c r="Q15" s="510"/>
-      <c r="R15" s="510"/>
-      <c r="S15" s="510"/>
-      <c r="T15" s="510"/>
-      <c r="U15" s="510"/>
-      <c r="V15" s="510"/>
-      <c r="W15" s="510"/>
-      <c r="X15" s="510"/>
-      <c r="Y15" s="510"/>
-      <c r="Z15" s="510"/>
-      <c r="AA15" s="510"/>
-      <c r="AB15" s="510"/>
-      <c r="AC15" s="510"/>
-      <c r="AD15" s="511"/>
+      <c r="L15" s="483"/>
+      <c r="M15" s="483"/>
+      <c r="N15" s="483"/>
+      <c r="O15" s="483"/>
+      <c r="P15" s="483"/>
+      <c r="Q15" s="483"/>
+      <c r="R15" s="483"/>
+      <c r="S15" s="483"/>
+      <c r="T15" s="483"/>
+      <c r="U15" s="483"/>
+      <c r="V15" s="483"/>
+      <c r="W15" s="483"/>
+      <c r="X15" s="483"/>
+      <c r="Y15" s="483"/>
+      <c r="Z15" s="483"/>
+      <c r="AA15" s="483"/>
+      <c r="AB15" s="483"/>
+      <c r="AC15" s="483"/>
+      <c r="AD15" s="484"/>
     </row>
     <row r="16" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="515" t="s">
+      <c r="D16" s="488" t="s">
         <v>190</v>
       </c>
-      <c r="E16" s="516"/>
-      <c r="F16" s="516"/>
-      <c r="G16" s="516"/>
-      <c r="H16" s="516"/>
-      <c r="I16" s="516"/>
-      <c r="J16" s="517"/>
-      <c r="K16" s="512" t="s">
+      <c r="E16" s="489"/>
+      <c r="F16" s="489"/>
+      <c r="G16" s="489"/>
+      <c r="H16" s="489"/>
+      <c r="I16" s="489"/>
+      <c r="J16" s="490"/>
+      <c r="K16" s="485" t="s">
         <v>71</v>
       </c>
-      <c r="L16" s="513"/>
-      <c r="M16" s="513"/>
-      <c r="N16" s="513"/>
-      <c r="O16" s="513"/>
-      <c r="P16" s="513"/>
-      <c r="Q16" s="513"/>
-      <c r="R16" s="513"/>
-      <c r="S16" s="513"/>
-      <c r="T16" s="513"/>
-      <c r="U16" s="513"/>
-      <c r="V16" s="513"/>
-      <c r="W16" s="513"/>
-      <c r="X16" s="513"/>
-      <c r="Y16" s="513"/>
-      <c r="Z16" s="513"/>
-      <c r="AA16" s="513"/>
-      <c r="AB16" s="513"/>
-      <c r="AC16" s="513"/>
-      <c r="AD16" s="514"/>
+      <c r="L16" s="486"/>
+      <c r="M16" s="486"/>
+      <c r="N16" s="486"/>
+      <c r="O16" s="486"/>
+      <c r="P16" s="486"/>
+      <c r="Q16" s="486"/>
+      <c r="R16" s="486"/>
+      <c r="S16" s="486"/>
+      <c r="T16" s="486"/>
+      <c r="U16" s="486"/>
+      <c r="V16" s="486"/>
+      <c r="W16" s="486"/>
+      <c r="X16" s="486"/>
+      <c r="Y16" s="486"/>
+      <c r="Z16" s="486"/>
+      <c r="AA16" s="486"/>
+      <c r="AB16" s="486"/>
+      <c r="AC16" s="486"/>
+      <c r="AD16" s="487"/>
     </row>
     <row r="21" spans="3:3" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C21" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="K15:AD15"/>
-    <mergeCell ref="K16:AD16"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D16:J16"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
@@ -29944,6 +29943,11 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="K15:AD15"/>
+    <mergeCell ref="K16:AD16"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -29962,7 +29966,7 @@
   </sheetPr>
   <dimension ref="A1:AW107"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -29973,165 +29977,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="482" t="s">
+      <c r="A1" s="491" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="483"/>
-      <c r="C1" s="483"/>
-      <c r="D1" s="484"/>
-      <c r="E1" s="485" t="str">
+      <c r="B1" s="492"/>
+      <c r="C1" s="492"/>
+      <c r="D1" s="493"/>
+      <c r="E1" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="486"/>
-      <c r="G1" s="486"/>
-      <c r="H1" s="486"/>
-      <c r="I1" s="486"/>
-      <c r="J1" s="486"/>
-      <c r="K1" s="486"/>
-      <c r="L1" s="486"/>
-      <c r="M1" s="486"/>
-      <c r="N1" s="487"/>
-      <c r="O1" s="491" t="s">
+      <c r="F1" s="495"/>
+      <c r="G1" s="495"/>
+      <c r="H1" s="495"/>
+      <c r="I1" s="495"/>
+      <c r="J1" s="495"/>
+      <c r="K1" s="495"/>
+      <c r="L1" s="495"/>
+      <c r="M1" s="495"/>
+      <c r="N1" s="496"/>
+      <c r="O1" s="500" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="492"/>
-      <c r="Q1" s="492"/>
-      <c r="R1" s="493"/>
-      <c r="S1" s="500" t="str">
+      <c r="P1" s="501"/>
+      <c r="Q1" s="501"/>
+      <c r="R1" s="502"/>
+      <c r="S1" s="509" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="501"/>
-      <c r="U1" s="501"/>
-      <c r="V1" s="501"/>
-      <c r="W1" s="501"/>
-      <c r="X1" s="501"/>
-      <c r="Y1" s="501"/>
-      <c r="Z1" s="502"/>
-      <c r="AA1" s="482" t="s">
+      <c r="T1" s="510"/>
+      <c r="U1" s="510"/>
+      <c r="V1" s="510"/>
+      <c r="W1" s="510"/>
+      <c r="X1" s="510"/>
+      <c r="Y1" s="510"/>
+      <c r="Z1" s="511"/>
+      <c r="AA1" s="491" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="484"/>
-      <c r="AC1" s="488" t="str">
+      <c r="AB1" s="493"/>
+      <c r="AC1" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="489"/>
-      <c r="AE1" s="489"/>
-      <c r="AF1" s="490"/>
-      <c r="AG1" s="543">
+      <c r="AD1" s="498"/>
+      <c r="AE1" s="498"/>
+      <c r="AF1" s="499"/>
+      <c r="AG1" s="521">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="544"/>
-      <c r="AI1" s="545"/>
+      <c r="AH1" s="522"/>
+      <c r="AI1" s="523"/>
       <c r="AJ1" s="49"/>
       <c r="AN1" s="47"/>
       <c r="AO1" s="47"/>
       <c r="AP1" s="47"/>
     </row>
     <row r="2" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="482" t="s">
+      <c r="A2" s="491" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="483"/>
-      <c r="C2" s="483"/>
-      <c r="D2" s="484"/>
-      <c r="E2" s="485" t="str">
+      <c r="B2" s="492"/>
+      <c r="C2" s="492"/>
+      <c r="D2" s="493"/>
+      <c r="E2" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="486"/>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="486"/>
-      <c r="K2" s="486"/>
-      <c r="L2" s="486"/>
-      <c r="M2" s="486"/>
-      <c r="N2" s="487"/>
-      <c r="O2" s="494"/>
-      <c r="P2" s="495"/>
-      <c r="Q2" s="495"/>
-      <c r="R2" s="496"/>
-      <c r="S2" s="503"/>
-      <c r="T2" s="504"/>
-      <c r="U2" s="504"/>
-      <c r="V2" s="504"/>
-      <c r="W2" s="504"/>
-      <c r="X2" s="504"/>
-      <c r="Y2" s="504"/>
-      <c r="Z2" s="505"/>
-      <c r="AA2" s="482" t="s">
+      <c r="F2" s="495"/>
+      <c r="G2" s="495"/>
+      <c r="H2" s="495"/>
+      <c r="I2" s="495"/>
+      <c r="J2" s="495"/>
+      <c r="K2" s="495"/>
+      <c r="L2" s="495"/>
+      <c r="M2" s="495"/>
+      <c r="N2" s="496"/>
+      <c r="O2" s="503"/>
+      <c r="P2" s="504"/>
+      <c r="Q2" s="504"/>
+      <c r="R2" s="505"/>
+      <c r="S2" s="512"/>
+      <c r="T2" s="513"/>
+      <c r="U2" s="513"/>
+      <c r="V2" s="513"/>
+      <c r="W2" s="513"/>
+      <c r="X2" s="513"/>
+      <c r="Y2" s="513"/>
+      <c r="Z2" s="514"/>
+      <c r="AA2" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="484"/>
-      <c r="AC2" s="488" t="str">
+      <c r="AB2" s="493"/>
+      <c r="AC2" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="489"/>
-      <c r="AE2" s="489"/>
-      <c r="AF2" s="490"/>
-      <c r="AG2" s="543" t="str">
+      <c r="AD2" s="498"/>
+      <c r="AE2" s="498"/>
+      <c r="AF2" s="499"/>
+      <c r="AG2" s="521" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="544"/>
-      <c r="AI2" s="545"/>
+      <c r="AH2" s="522"/>
+      <c r="AI2" s="523"/>
       <c r="AJ2" s="49"/>
       <c r="AN2" s="47"/>
       <c r="AO2" s="47"/>
       <c r="AP2" s="47"/>
     </row>
     <row r="3" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="482" t="s">
+      <c r="A3" s="491" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="483"/>
-      <c r="C3" s="483"/>
-      <c r="D3" s="484"/>
-      <c r="E3" s="485" t="str">
+      <c r="B3" s="492"/>
+      <c r="C3" s="492"/>
+      <c r="D3" s="493"/>
+      <c r="E3" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="486"/>
-      <c r="G3" s="486"/>
-      <c r="H3" s="486"/>
-      <c r="I3" s="486"/>
-      <c r="J3" s="486"/>
-      <c r="K3" s="486"/>
-      <c r="L3" s="486"/>
-      <c r="M3" s="486"/>
-      <c r="N3" s="487"/>
-      <c r="O3" s="497"/>
-      <c r="P3" s="498"/>
-      <c r="Q3" s="498"/>
-      <c r="R3" s="499"/>
-      <c r="S3" s="506"/>
-      <c r="T3" s="507"/>
-      <c r="U3" s="507"/>
-      <c r="V3" s="507"/>
-      <c r="W3" s="507"/>
-      <c r="X3" s="507"/>
-      <c r="Y3" s="507"/>
-      <c r="Z3" s="508"/>
-      <c r="AA3" s="482"/>
-      <c r="AB3" s="484"/>
-      <c r="AC3" s="488" t="str">
+      <c r="F3" s="495"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="495"/>
+      <c r="I3" s="495"/>
+      <c r="J3" s="495"/>
+      <c r="K3" s="495"/>
+      <c r="L3" s="495"/>
+      <c r="M3" s="495"/>
+      <c r="N3" s="496"/>
+      <c r="O3" s="506"/>
+      <c r="P3" s="507"/>
+      <c r="Q3" s="507"/>
+      <c r="R3" s="508"/>
+      <c r="S3" s="515"/>
+      <c r="T3" s="516"/>
+      <c r="U3" s="516"/>
+      <c r="V3" s="516"/>
+      <c r="W3" s="516"/>
+      <c r="X3" s="516"/>
+      <c r="Y3" s="516"/>
+      <c r="Z3" s="517"/>
+      <c r="AA3" s="491"/>
+      <c r="AB3" s="493"/>
+      <c r="AC3" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="489"/>
-      <c r="AE3" s="489"/>
-      <c r="AF3" s="490"/>
-      <c r="AG3" s="543" t="str">
+      <c r="AD3" s="498"/>
+      <c r="AE3" s="498"/>
+      <c r="AF3" s="499"/>
+      <c r="AG3" s="521" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="544"/>
-      <c r="AI3" s="545"/>
+      <c r="AH3" s="522"/>
+      <c r="AI3" s="523"/>
       <c r="AJ3" s="49"/>
       <c r="AN3" s="47"/>
       <c r="AO3" s="47"/>
@@ -30331,12 +30335,12 @@
     </row>
     <row r="21" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D21" s="138"/>
-      <c r="F21" s="521" t="s">
+      <c r="F21" s="524" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="522"/>
-      <c r="H21" s="522"/>
-      <c r="I21" s="523"/>
+      <c r="G21" s="525"/>
+      <c r="H21" s="525"/>
+      <c r="I21" s="526"/>
       <c r="J21" s="101" t="s">
         <v>25</v>
       </c>
@@ -31900,11 +31904,11 @@
       <c r="H61" s="519"/>
       <c r="I61" s="519"/>
       <c r="J61" s="520"/>
-      <c r="K61" s="509" t="s">
+      <c r="K61" s="482" t="s">
         <v>67</v>
       </c>
-      <c r="L61" s="510"/>
-      <c r="M61" s="511"/>
+      <c r="L61" s="483"/>
+      <c r="M61" s="484"/>
       <c r="N61" s="101" t="s">
         <v>159</v>
       </c>
@@ -31947,17 +31951,17 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="32"/>
-      <c r="G62" s="524" t="s">
+      <c r="G62" s="527" t="s">
         <v>516</v>
       </c>
-      <c r="H62" s="525"/>
-      <c r="I62" s="525"/>
-      <c r="J62" s="526"/>
-      <c r="K62" s="524" t="s">
+      <c r="H62" s="528"/>
+      <c r="I62" s="528"/>
+      <c r="J62" s="529"/>
+      <c r="K62" s="527" t="s">
         <v>469</v>
       </c>
-      <c r="L62" s="525"/>
-      <c r="M62" s="526"/>
+      <c r="L62" s="528"/>
+      <c r="M62" s="529"/>
       <c r="N62" s="137" t="s">
         <v>282</v>
       </c>
@@ -32000,13 +32004,13 @@
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
       <c r="F63" s="32"/>
-      <c r="G63" s="527"/>
-      <c r="H63" s="528"/>
-      <c r="I63" s="528"/>
-      <c r="J63" s="529"/>
-      <c r="K63" s="533"/>
-      <c r="L63" s="528"/>
-      <c r="M63" s="529"/>
+      <c r="G63" s="530"/>
+      <c r="H63" s="531"/>
+      <c r="I63" s="531"/>
+      <c r="J63" s="532"/>
+      <c r="K63" s="536"/>
+      <c r="L63" s="531"/>
+      <c r="M63" s="532"/>
       <c r="N63" s="174" t="s">
         <v>283</v>
       </c>
@@ -32049,13 +32053,13 @@
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="32"/>
-      <c r="G64" s="527"/>
-      <c r="H64" s="528"/>
-      <c r="I64" s="528"/>
-      <c r="J64" s="529"/>
-      <c r="K64" s="527"/>
-      <c r="L64" s="528"/>
-      <c r="M64" s="529"/>
+      <c r="G64" s="530"/>
+      <c r="H64" s="531"/>
+      <c r="I64" s="531"/>
+      <c r="J64" s="532"/>
+      <c r="K64" s="530"/>
+      <c r="L64" s="531"/>
+      <c r="M64" s="532"/>
       <c r="N64" s="174" t="s">
         <v>270</v>
       </c>
@@ -32098,13 +32102,13 @@
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
       <c r="F65" s="32"/>
-      <c r="G65" s="527"/>
-      <c r="H65" s="528"/>
-      <c r="I65" s="528"/>
-      <c r="J65" s="529"/>
-      <c r="K65" s="527"/>
-      <c r="L65" s="528"/>
-      <c r="M65" s="529"/>
+      <c r="G65" s="530"/>
+      <c r="H65" s="531"/>
+      <c r="I65" s="531"/>
+      <c r="J65" s="532"/>
+      <c r="K65" s="530"/>
+      <c r="L65" s="531"/>
+      <c r="M65" s="532"/>
       <c r="N65" s="174" t="s">
         <v>271</v>
       </c>
@@ -32147,13 +32151,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="33"/>
-      <c r="G66" s="530"/>
-      <c r="H66" s="531"/>
-      <c r="I66" s="531"/>
-      <c r="J66" s="532"/>
-      <c r="K66" s="530"/>
-      <c r="L66" s="531"/>
-      <c r="M66" s="532"/>
+      <c r="G66" s="533"/>
+      <c r="H66" s="534"/>
+      <c r="I66" s="534"/>
+      <c r="J66" s="535"/>
+      <c r="K66" s="533"/>
+      <c r="L66" s="534"/>
+      <c r="M66" s="535"/>
       <c r="N66" s="176"/>
       <c r="O66" s="177"/>
       <c r="P66" s="177"/>
@@ -32194,17 +32198,17 @@
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="33"/>
-      <c r="G67" s="534" t="s">
+      <c r="G67" s="537" t="s">
         <v>517</v>
       </c>
-      <c r="H67" s="535"/>
-      <c r="I67" s="535"/>
-      <c r="J67" s="536"/>
-      <c r="K67" s="524" t="s">
+      <c r="H67" s="538"/>
+      <c r="I67" s="538"/>
+      <c r="J67" s="539"/>
+      <c r="K67" s="527" t="s">
         <v>518</v>
       </c>
-      <c r="L67" s="525"/>
-      <c r="M67" s="526"/>
+      <c r="L67" s="528"/>
+      <c r="M67" s="529"/>
       <c r="N67" s="291" t="s">
         <v>519</v>
       </c>
@@ -32246,13 +32250,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="33"/>
-      <c r="G68" s="537"/>
-      <c r="H68" s="538"/>
-      <c r="I68" s="538"/>
-      <c r="J68" s="539"/>
-      <c r="K68" s="533"/>
-      <c r="L68" s="528"/>
-      <c r="M68" s="529"/>
+      <c r="G68" s="540"/>
+      <c r="H68" s="541"/>
+      <c r="I68" s="541"/>
+      <c r="J68" s="542"/>
+      <c r="K68" s="536"/>
+      <c r="L68" s="531"/>
+      <c r="M68" s="532"/>
       <c r="N68" s="174" t="s">
         <v>520</v>
       </c>
@@ -32294,15 +32298,15 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="33"/>
-      <c r="G69" s="537"/>
-      <c r="H69" s="538"/>
-      <c r="I69" s="538"/>
-      <c r="J69" s="539"/>
-      <c r="K69" s="527"/>
-      <c r="L69" s="528"/>
-      <c r="M69" s="529"/>
+      <c r="G69" s="540"/>
+      <c r="H69" s="541"/>
+      <c r="I69" s="541"/>
+      <c r="J69" s="542"/>
+      <c r="K69" s="530"/>
+      <c r="L69" s="531"/>
+      <c r="M69" s="532"/>
       <c r="N69" s="174" t="s">
-        <v>271</v>
+        <v>598</v>
       </c>
       <c r="O69" s="42"/>
       <c r="P69" s="42"/>
@@ -32342,13 +32346,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="33"/>
-      <c r="G70" s="540"/>
-      <c r="H70" s="541"/>
-      <c r="I70" s="541"/>
-      <c r="J70" s="542"/>
-      <c r="K70" s="530"/>
-      <c r="L70" s="531"/>
-      <c r="M70" s="532"/>
+      <c r="G70" s="543"/>
+      <c r="H70" s="544"/>
+      <c r="I70" s="544"/>
+      <c r="J70" s="545"/>
+      <c r="K70" s="533"/>
+      <c r="L70" s="534"/>
+      <c r="M70" s="535"/>
       <c r="N70" s="176"/>
       <c r="O70" s="177"/>
       <c r="P70" s="177"/>
@@ -32795,11 +32799,11 @@
       <c r="H85" s="519"/>
       <c r="I85" s="519"/>
       <c r="J85" s="520"/>
-      <c r="K85" s="509" t="s">
+      <c r="K85" s="482" t="s">
         <v>67</v>
       </c>
-      <c r="L85" s="510"/>
-      <c r="M85" s="511"/>
+      <c r="L85" s="483"/>
+      <c r="M85" s="484"/>
       <c r="N85" s="334" t="s">
         <v>159</v>
       </c>
@@ -33084,11 +33088,11 @@
       <c r="H99" s="519"/>
       <c r="I99" s="519"/>
       <c r="J99" s="520"/>
-      <c r="K99" s="509" t="s">
+      <c r="K99" s="482" t="s">
         <v>67</v>
       </c>
-      <c r="L99" s="510"/>
-      <c r="M99" s="511"/>
+      <c r="L99" s="483"/>
+      <c r="M99" s="484"/>
       <c r="N99" s="369" t="s">
         <v>159</v>
       </c>
@@ -33262,6 +33266,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="G62:J66"/>
+    <mergeCell ref="K62:M66"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="G67:J70"/>
+    <mergeCell ref="K67:M70"/>
     <mergeCell ref="G99:J99"/>
     <mergeCell ref="K99:M99"/>
     <mergeCell ref="AG3:AI3"/>
@@ -33278,18 +33294,6 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="G62:J66"/>
-    <mergeCell ref="K62:M66"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="G67:J70"/>
-    <mergeCell ref="K67:M70"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -33325,165 +33329,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="482" t="s">
+      <c r="A1" s="491" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="483"/>
-      <c r="C1" s="483"/>
-      <c r="D1" s="484"/>
-      <c r="E1" s="485" t="str">
+      <c r="B1" s="492"/>
+      <c r="C1" s="492"/>
+      <c r="D1" s="493"/>
+      <c r="E1" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="486"/>
-      <c r="G1" s="486"/>
-      <c r="H1" s="486"/>
-      <c r="I1" s="486"/>
-      <c r="J1" s="486"/>
-      <c r="K1" s="486"/>
-      <c r="L1" s="486"/>
-      <c r="M1" s="486"/>
-      <c r="N1" s="487"/>
+      <c r="F1" s="495"/>
+      <c r="G1" s="495"/>
+      <c r="H1" s="495"/>
+      <c r="I1" s="495"/>
+      <c r="J1" s="495"/>
+      <c r="K1" s="495"/>
+      <c r="L1" s="495"/>
+      <c r="M1" s="495"/>
+      <c r="N1" s="496"/>
       <c r="O1" s="546" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="492"/>
-      <c r="Q1" s="492"/>
+      <c r="P1" s="501"/>
+      <c r="Q1" s="501"/>
       <c r="R1" s="547"/>
       <c r="S1" s="548" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="501"/>
-      <c r="U1" s="501"/>
-      <c r="V1" s="501"/>
-      <c r="W1" s="501"/>
-      <c r="X1" s="501"/>
-      <c r="Y1" s="501"/>
+      <c r="T1" s="510"/>
+      <c r="U1" s="510"/>
+      <c r="V1" s="510"/>
+      <c r="W1" s="510"/>
+      <c r="X1" s="510"/>
+      <c r="Y1" s="510"/>
       <c r="Z1" s="549"/>
-      <c r="AA1" s="482" t="s">
+      <c r="AA1" s="491" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="484"/>
-      <c r="AC1" s="488" t="str">
+      <c r="AB1" s="493"/>
+      <c r="AC1" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="489"/>
-      <c r="AE1" s="489"/>
-      <c r="AF1" s="490"/>
-      <c r="AG1" s="543">
+      <c r="AD1" s="498"/>
+      <c r="AE1" s="498"/>
+      <c r="AF1" s="499"/>
+      <c r="AG1" s="521">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="544"/>
-      <c r="AI1" s="545"/>
+      <c r="AH1" s="522"/>
+      <c r="AI1" s="523"/>
       <c r="AJ1" s="49"/>
       <c r="AN1" s="47"/>
       <c r="AO1" s="47"/>
       <c r="AP1" s="47"/>
     </row>
     <row r="2" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="482" t="s">
+      <c r="A2" s="491" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="483"/>
-      <c r="C2" s="483"/>
-      <c r="D2" s="484"/>
-      <c r="E2" s="485" t="str">
+      <c r="B2" s="492"/>
+      <c r="C2" s="492"/>
+      <c r="D2" s="493"/>
+      <c r="E2" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="486"/>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="486"/>
-      <c r="K2" s="486"/>
-      <c r="L2" s="486"/>
-      <c r="M2" s="486"/>
-      <c r="N2" s="487"/>
-      <c r="O2" s="494"/>
-      <c r="P2" s="495"/>
-      <c r="Q2" s="495"/>
-      <c r="R2" s="496"/>
-      <c r="S2" s="503"/>
-      <c r="T2" s="504"/>
-      <c r="U2" s="504"/>
-      <c r="V2" s="504"/>
-      <c r="W2" s="504"/>
-      <c r="X2" s="504"/>
-      <c r="Y2" s="504"/>
-      <c r="Z2" s="505"/>
-      <c r="AA2" s="482" t="s">
+      <c r="F2" s="495"/>
+      <c r="G2" s="495"/>
+      <c r="H2" s="495"/>
+      <c r="I2" s="495"/>
+      <c r="J2" s="495"/>
+      <c r="K2" s="495"/>
+      <c r="L2" s="495"/>
+      <c r="M2" s="495"/>
+      <c r="N2" s="496"/>
+      <c r="O2" s="503"/>
+      <c r="P2" s="504"/>
+      <c r="Q2" s="504"/>
+      <c r="R2" s="505"/>
+      <c r="S2" s="512"/>
+      <c r="T2" s="513"/>
+      <c r="U2" s="513"/>
+      <c r="V2" s="513"/>
+      <c r="W2" s="513"/>
+      <c r="X2" s="513"/>
+      <c r="Y2" s="513"/>
+      <c r="Z2" s="514"/>
+      <c r="AA2" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="484"/>
-      <c r="AC2" s="488" t="str">
+      <c r="AB2" s="493"/>
+      <c r="AC2" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="489"/>
-      <c r="AE2" s="489"/>
-      <c r="AF2" s="490"/>
-      <c r="AG2" s="543" t="str">
+      <c r="AD2" s="498"/>
+      <c r="AE2" s="498"/>
+      <c r="AF2" s="499"/>
+      <c r="AG2" s="521" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="544"/>
-      <c r="AI2" s="545"/>
+      <c r="AH2" s="522"/>
+      <c r="AI2" s="523"/>
       <c r="AJ2" s="49"/>
       <c r="AN2" s="47"/>
       <c r="AO2" s="47"/>
       <c r="AP2" s="47"/>
     </row>
     <row r="3" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="482" t="s">
+      <c r="A3" s="491" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="483"/>
-      <c r="C3" s="483"/>
-      <c r="D3" s="484"/>
-      <c r="E3" s="485" t="str">
+      <c r="B3" s="492"/>
+      <c r="C3" s="492"/>
+      <c r="D3" s="493"/>
+      <c r="E3" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="486"/>
-      <c r="G3" s="486"/>
-      <c r="H3" s="486"/>
-      <c r="I3" s="486"/>
-      <c r="J3" s="486"/>
-      <c r="K3" s="486"/>
-      <c r="L3" s="486"/>
-      <c r="M3" s="486"/>
-      <c r="N3" s="487"/>
-      <c r="O3" s="497"/>
-      <c r="P3" s="498"/>
-      <c r="Q3" s="498"/>
-      <c r="R3" s="499"/>
-      <c r="S3" s="506"/>
-      <c r="T3" s="507"/>
-      <c r="U3" s="507"/>
-      <c r="V3" s="507"/>
-      <c r="W3" s="507"/>
-      <c r="X3" s="507"/>
-      <c r="Y3" s="507"/>
-      <c r="Z3" s="508"/>
-      <c r="AA3" s="482"/>
-      <c r="AB3" s="484"/>
-      <c r="AC3" s="488" t="str">
+      <c r="F3" s="495"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="495"/>
+      <c r="I3" s="495"/>
+      <c r="J3" s="495"/>
+      <c r="K3" s="495"/>
+      <c r="L3" s="495"/>
+      <c r="M3" s="495"/>
+      <c r="N3" s="496"/>
+      <c r="O3" s="506"/>
+      <c r="P3" s="507"/>
+      <c r="Q3" s="507"/>
+      <c r="R3" s="508"/>
+      <c r="S3" s="515"/>
+      <c r="T3" s="516"/>
+      <c r="U3" s="516"/>
+      <c r="V3" s="516"/>
+      <c r="W3" s="516"/>
+      <c r="X3" s="516"/>
+      <c r="Y3" s="516"/>
+      <c r="Z3" s="517"/>
+      <c r="AA3" s="491"/>
+      <c r="AB3" s="493"/>
+      <c r="AC3" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="489"/>
-      <c r="AE3" s="489"/>
-      <c r="AF3" s="490"/>
-      <c r="AG3" s="543" t="str">
+      <c r="AD3" s="498"/>
+      <c r="AE3" s="498"/>
+      <c r="AF3" s="499"/>
+      <c r="AG3" s="521" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="544"/>
-      <c r="AI3" s="545"/>
+      <c r="AH3" s="522"/>
+      <c r="AI3" s="523"/>
       <c r="AJ3" s="49"/>
       <c r="AN3" s="47"/>
       <c r="AO3" s="47"/>
@@ -36021,6 +36025,11 @@
     <row r="339" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T14:AG14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:S14"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -36036,11 +36045,6 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="T14:AG14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="K14:S14"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -36087,157 +36091,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="482" t="s">
+      <c r="A1" s="491" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="483"/>
-      <c r="C1" s="483"/>
-      <c r="D1" s="484"/>
-      <c r="E1" s="485" t="str">
+      <c r="B1" s="492"/>
+      <c r="C1" s="492"/>
+      <c r="D1" s="493"/>
+      <c r="E1" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="486"/>
-      <c r="G1" s="486"/>
-      <c r="H1" s="486"/>
-      <c r="I1" s="486"/>
-      <c r="J1" s="486"/>
-      <c r="K1" s="486"/>
-      <c r="L1" s="486"/>
-      <c r="M1" s="486"/>
-      <c r="N1" s="487"/>
-      <c r="O1" s="491" t="s">
+      <c r="F1" s="495"/>
+      <c r="G1" s="495"/>
+      <c r="H1" s="495"/>
+      <c r="I1" s="495"/>
+      <c r="J1" s="495"/>
+      <c r="K1" s="495"/>
+      <c r="L1" s="495"/>
+      <c r="M1" s="495"/>
+      <c r="N1" s="496"/>
+      <c r="O1" s="500" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="492"/>
-      <c r="Q1" s="492"/>
-      <c r="R1" s="493"/>
-      <c r="S1" s="500" t="str">
+      <c r="P1" s="501"/>
+      <c r="Q1" s="501"/>
+      <c r="R1" s="502"/>
+      <c r="S1" s="509" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="501"/>
-      <c r="U1" s="501"/>
-      <c r="V1" s="501"/>
-      <c r="W1" s="501"/>
-      <c r="X1" s="501"/>
-      <c r="Y1" s="501"/>
-      <c r="Z1" s="502"/>
-      <c r="AA1" s="482" t="s">
+      <c r="T1" s="510"/>
+      <c r="U1" s="510"/>
+      <c r="V1" s="510"/>
+      <c r="W1" s="510"/>
+      <c r="X1" s="510"/>
+      <c r="Y1" s="510"/>
+      <c r="Z1" s="511"/>
+      <c r="AA1" s="491" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="484"/>
-      <c r="AC1" s="488" t="str">
+      <c r="AB1" s="493"/>
+      <c r="AC1" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="489"/>
-      <c r="AE1" s="489"/>
-      <c r="AF1" s="490"/>
-      <c r="AG1" s="543">
+      <c r="AD1" s="498"/>
+      <c r="AE1" s="498"/>
+      <c r="AF1" s="499"/>
+      <c r="AG1" s="521">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="544"/>
-      <c r="AI1" s="545"/>
+      <c r="AH1" s="522"/>
+      <c r="AI1" s="523"/>
     </row>
     <row r="2" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="482" t="s">
+      <c r="A2" s="491" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="483"/>
-      <c r="C2" s="483"/>
-      <c r="D2" s="484"/>
-      <c r="E2" s="485" t="str">
+      <c r="B2" s="492"/>
+      <c r="C2" s="492"/>
+      <c r="D2" s="493"/>
+      <c r="E2" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="486"/>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="486"/>
-      <c r="K2" s="486"/>
-      <c r="L2" s="486"/>
-      <c r="M2" s="486"/>
-      <c r="N2" s="487"/>
-      <c r="O2" s="494"/>
-      <c r="P2" s="495"/>
-      <c r="Q2" s="495"/>
-      <c r="R2" s="496"/>
-      <c r="S2" s="503"/>
-      <c r="T2" s="504"/>
-      <c r="U2" s="504"/>
-      <c r="V2" s="504"/>
-      <c r="W2" s="504"/>
-      <c r="X2" s="504"/>
-      <c r="Y2" s="504"/>
-      <c r="Z2" s="505"/>
-      <c r="AA2" s="482" t="s">
+      <c r="F2" s="495"/>
+      <c r="G2" s="495"/>
+      <c r="H2" s="495"/>
+      <c r="I2" s="495"/>
+      <c r="J2" s="495"/>
+      <c r="K2" s="495"/>
+      <c r="L2" s="495"/>
+      <c r="M2" s="495"/>
+      <c r="N2" s="496"/>
+      <c r="O2" s="503"/>
+      <c r="P2" s="504"/>
+      <c r="Q2" s="504"/>
+      <c r="R2" s="505"/>
+      <c r="S2" s="512"/>
+      <c r="T2" s="513"/>
+      <c r="U2" s="513"/>
+      <c r="V2" s="513"/>
+      <c r="W2" s="513"/>
+      <c r="X2" s="513"/>
+      <c r="Y2" s="513"/>
+      <c r="Z2" s="514"/>
+      <c r="AA2" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="484"/>
-      <c r="AC2" s="488" t="str">
+      <c r="AB2" s="493"/>
+      <c r="AC2" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="489"/>
-      <c r="AE2" s="489"/>
-      <c r="AF2" s="490"/>
-      <c r="AG2" s="543" t="str">
+      <c r="AD2" s="498"/>
+      <c r="AE2" s="498"/>
+      <c r="AF2" s="499"/>
+      <c r="AG2" s="521" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="544"/>
-      <c r="AI2" s="545"/>
+      <c r="AH2" s="522"/>
+      <c r="AI2" s="523"/>
     </row>
     <row r="3" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="482" t="s">
+      <c r="A3" s="491" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="483"/>
-      <c r="C3" s="483"/>
-      <c r="D3" s="484"/>
-      <c r="E3" s="485" t="str">
+      <c r="B3" s="492"/>
+      <c r="C3" s="492"/>
+      <c r="D3" s="493"/>
+      <c r="E3" s="494" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="486"/>
-      <c r="G3" s="486"/>
-      <c r="H3" s="486"/>
-      <c r="I3" s="486"/>
-      <c r="J3" s="486"/>
-      <c r="K3" s="486"/>
-      <c r="L3" s="486"/>
-      <c r="M3" s="486"/>
-      <c r="N3" s="487"/>
-      <c r="O3" s="497"/>
-      <c r="P3" s="498"/>
-      <c r="Q3" s="498"/>
-      <c r="R3" s="499"/>
-      <c r="S3" s="506"/>
-      <c r="T3" s="507"/>
-      <c r="U3" s="507"/>
-      <c r="V3" s="507"/>
-      <c r="W3" s="507"/>
-      <c r="X3" s="507"/>
-      <c r="Y3" s="507"/>
-      <c r="Z3" s="508"/>
-      <c r="AA3" s="482"/>
-      <c r="AB3" s="484"/>
-      <c r="AC3" s="488" t="str">
+      <c r="F3" s="495"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="495"/>
+      <c r="I3" s="495"/>
+      <c r="J3" s="495"/>
+      <c r="K3" s="495"/>
+      <c r="L3" s="495"/>
+      <c r="M3" s="495"/>
+      <c r="N3" s="496"/>
+      <c r="O3" s="506"/>
+      <c r="P3" s="507"/>
+      <c r="Q3" s="507"/>
+      <c r="R3" s="508"/>
+      <c r="S3" s="515"/>
+      <c r="T3" s="516"/>
+      <c r="U3" s="516"/>
+      <c r="V3" s="516"/>
+      <c r="W3" s="516"/>
+      <c r="X3" s="516"/>
+      <c r="Y3" s="516"/>
+      <c r="Z3" s="517"/>
+      <c r="AA3" s="491"/>
+      <c r="AB3" s="493"/>
+      <c r="AC3" s="497" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="489"/>
-      <c r="AE3" s="489"/>
-      <c r="AF3" s="490"/>
-      <c r="AG3" s="543" t="str">
+      <c r="AD3" s="498"/>
+      <c r="AE3" s="498"/>
+      <c r="AF3" s="499"/>
+      <c r="AG3" s="521" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="544"/>
-      <c r="AI3" s="545"/>
+      <c r="AH3" s="522"/>
+      <c r="AI3" s="523"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B5" s="36" t="s">
@@ -38947,12 +38951,12 @@
     <row r="202" spans="2:35" s="67" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
@@ -38961,12 +38965,12 @@
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -39007,165 +39011,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="441" t="s">
+      <c r="A1" s="413" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="442"/>
-      <c r="C1" s="442"/>
-      <c r="D1" s="443"/>
-      <c r="E1" s="472" t="str">
+      <c r="B1" s="414"/>
+      <c r="C1" s="414"/>
+      <c r="D1" s="415"/>
+      <c r="E1" s="444" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="445"/>
-      <c r="G1" s="445"/>
-      <c r="H1" s="445"/>
-      <c r="I1" s="445"/>
-      <c r="J1" s="445"/>
-      <c r="K1" s="445"/>
-      <c r="L1" s="445"/>
-      <c r="M1" s="445"/>
-      <c r="N1" s="446"/>
-      <c r="O1" s="491" t="s">
+      <c r="F1" s="417"/>
+      <c r="G1" s="417"/>
+      <c r="H1" s="417"/>
+      <c r="I1" s="417"/>
+      <c r="J1" s="417"/>
+      <c r="K1" s="417"/>
+      <c r="L1" s="417"/>
+      <c r="M1" s="417"/>
+      <c r="N1" s="418"/>
+      <c r="O1" s="500" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="492"/>
-      <c r="Q1" s="492"/>
-      <c r="R1" s="493"/>
-      <c r="S1" s="500" t="str">
+      <c r="P1" s="501"/>
+      <c r="Q1" s="501"/>
+      <c r="R1" s="502"/>
+      <c r="S1" s="509" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="501"/>
-      <c r="U1" s="501"/>
-      <c r="V1" s="501"/>
-      <c r="W1" s="501"/>
-      <c r="X1" s="501"/>
-      <c r="Y1" s="501"/>
-      <c r="Z1" s="502"/>
-      <c r="AA1" s="441" t="s">
+      <c r="T1" s="510"/>
+      <c r="U1" s="510"/>
+      <c r="V1" s="510"/>
+      <c r="W1" s="510"/>
+      <c r="X1" s="510"/>
+      <c r="Y1" s="510"/>
+      <c r="Z1" s="511"/>
+      <c r="AA1" s="413" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="443"/>
-      <c r="AC1" s="469" t="str">
+      <c r="AB1" s="415"/>
+      <c r="AC1" s="441" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="470"/>
-      <c r="AE1" s="470"/>
-      <c r="AF1" s="471"/>
-      <c r="AG1" s="605">
+      <c r="AD1" s="442"/>
+      <c r="AE1" s="442"/>
+      <c r="AF1" s="443"/>
+      <c r="AG1" s="604">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43620</v>
       </c>
-      <c r="AH1" s="606"/>
-      <c r="AI1" s="607"/>
+      <c r="AH1" s="605"/>
+      <c r="AI1" s="606"/>
       <c r="AJ1" s="49"/>
       <c r="AN1" s="85"/>
       <c r="AO1" s="85"/>
       <c r="AP1" s="85"/>
     </row>
     <row r="2" spans="1:42" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="441" t="s">
+      <c r="A2" s="413" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="442"/>
-      <c r="C2" s="442"/>
-      <c r="D2" s="443"/>
-      <c r="E2" s="472" t="str">
+      <c r="B2" s="414"/>
+      <c r="C2" s="414"/>
+      <c r="D2" s="415"/>
+      <c r="E2" s="444" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="445"/>
-      <c r="G2" s="445"/>
-      <c r="H2" s="445"/>
-      <c r="I2" s="445"/>
-      <c r="J2" s="445"/>
-      <c r="K2" s="445"/>
-      <c r="L2" s="445"/>
-      <c r="M2" s="445"/>
-      <c r="N2" s="446"/>
-      <c r="O2" s="494"/>
-      <c r="P2" s="495"/>
-      <c r="Q2" s="495"/>
-      <c r="R2" s="496"/>
-      <c r="S2" s="503"/>
-      <c r="T2" s="504"/>
-      <c r="U2" s="504"/>
-      <c r="V2" s="504"/>
-      <c r="W2" s="504"/>
-      <c r="X2" s="504"/>
-      <c r="Y2" s="504"/>
-      <c r="Z2" s="505"/>
-      <c r="AA2" s="441" t="s">
+      <c r="F2" s="417"/>
+      <c r="G2" s="417"/>
+      <c r="H2" s="417"/>
+      <c r="I2" s="417"/>
+      <c r="J2" s="417"/>
+      <c r="K2" s="417"/>
+      <c r="L2" s="417"/>
+      <c r="M2" s="417"/>
+      <c r="N2" s="418"/>
+      <c r="O2" s="503"/>
+      <c r="P2" s="504"/>
+      <c r="Q2" s="504"/>
+      <c r="R2" s="505"/>
+      <c r="S2" s="512"/>
+      <c r="T2" s="513"/>
+      <c r="U2" s="513"/>
+      <c r="V2" s="513"/>
+      <c r="W2" s="513"/>
+      <c r="X2" s="513"/>
+      <c r="Y2" s="513"/>
+      <c r="Z2" s="514"/>
+      <c r="AA2" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="443"/>
-      <c r="AC2" s="469" t="str">
+      <c r="AB2" s="415"/>
+      <c r="AC2" s="441" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="470"/>
-      <c r="AE2" s="470"/>
-      <c r="AF2" s="471"/>
-      <c r="AG2" s="605" t="str">
+      <c r="AD2" s="442"/>
+      <c r="AE2" s="442"/>
+      <c r="AF2" s="443"/>
+      <c r="AG2" s="604" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="606"/>
-      <c r="AI2" s="607"/>
+      <c r="AH2" s="605"/>
+      <c r="AI2" s="606"/>
       <c r="AJ2" s="49"/>
       <c r="AN2" s="85"/>
       <c r="AO2" s="85"/>
       <c r="AP2" s="85"/>
     </row>
     <row r="3" spans="1:42" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="441" t="s">
+      <c r="A3" s="413" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="442"/>
-      <c r="C3" s="442"/>
-      <c r="D3" s="443"/>
-      <c r="E3" s="472" t="str">
+      <c r="B3" s="414"/>
+      <c r="C3" s="414"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="444" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="445"/>
-      <c r="G3" s="445"/>
-      <c r="H3" s="445"/>
-      <c r="I3" s="445"/>
-      <c r="J3" s="445"/>
-      <c r="K3" s="445"/>
-      <c r="L3" s="445"/>
-      <c r="M3" s="445"/>
-      <c r="N3" s="446"/>
-      <c r="O3" s="497"/>
-      <c r="P3" s="498"/>
-      <c r="Q3" s="498"/>
-      <c r="R3" s="499"/>
-      <c r="S3" s="506"/>
-      <c r="T3" s="507"/>
-      <c r="U3" s="507"/>
-      <c r="V3" s="507"/>
-      <c r="W3" s="507"/>
-      <c r="X3" s="507"/>
-      <c r="Y3" s="507"/>
-      <c r="Z3" s="508"/>
-      <c r="AA3" s="441"/>
-      <c r="AB3" s="443"/>
-      <c r="AC3" s="469" t="str">
+      <c r="F3" s="417"/>
+      <c r="G3" s="417"/>
+      <c r="H3" s="417"/>
+      <c r="I3" s="417"/>
+      <c r="J3" s="417"/>
+      <c r="K3" s="417"/>
+      <c r="L3" s="417"/>
+      <c r="M3" s="417"/>
+      <c r="N3" s="418"/>
+      <c r="O3" s="506"/>
+      <c r="P3" s="507"/>
+      <c r="Q3" s="507"/>
+      <c r="R3" s="508"/>
+      <c r="S3" s="515"/>
+      <c r="T3" s="516"/>
+      <c r="U3" s="516"/>
+      <c r="V3" s="516"/>
+      <c r="W3" s="516"/>
+      <c r="X3" s="516"/>
+      <c r="Y3" s="516"/>
+      <c r="Z3" s="517"/>
+      <c r="AA3" s="413"/>
+      <c r="AB3" s="415"/>
+      <c r="AC3" s="441" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="470"/>
-      <c r="AE3" s="470"/>
-      <c r="AF3" s="471"/>
-      <c r="AG3" s="605" t="str">
+      <c r="AD3" s="442"/>
+      <c r="AE3" s="442"/>
+      <c r="AF3" s="443"/>
+      <c r="AG3" s="604" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="606"/>
-      <c r="AI3" s="607"/>
+      <c r="AH3" s="605"/>
+      <c r="AI3" s="606"/>
       <c r="AJ3" s="49"/>
       <c r="AN3" s="85"/>
       <c r="AO3" s="85"/>
@@ -39857,312 +39861,312 @@
     </row>
     <row r="150" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="151" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D151" s="509" t="s">
+      <c r="D151" s="482" t="s">
         <v>222</v>
       </c>
-      <c r="E151" s="590"/>
-      <c r="F151" s="590"/>
-      <c r="G151" s="590"/>
-      <c r="H151" s="590"/>
-      <c r="I151" s="590"/>
-      <c r="J151" s="591"/>
-      <c r="K151" s="598" t="s">
+      <c r="E151" s="560"/>
+      <c r="F151" s="560"/>
+      <c r="G151" s="560"/>
+      <c r="H151" s="560"/>
+      <c r="I151" s="560"/>
+      <c r="J151" s="561"/>
+      <c r="K151" s="581" t="s">
         <v>49</v>
       </c>
-      <c r="L151" s="636"/>
-      <c r="M151" s="636"/>
-      <c r="N151" s="636"/>
-      <c r="O151" s="636"/>
-      <c r="P151" s="636"/>
-      <c r="Q151" s="636"/>
-      <c r="R151" s="636"/>
-      <c r="S151" s="636"/>
-      <c r="T151" s="636"/>
-      <c r="U151" s="636"/>
-      <c r="V151" s="636"/>
-      <c r="W151" s="636"/>
-      <c r="X151" s="636"/>
-      <c r="Y151" s="636"/>
-      <c r="Z151" s="599"/>
-      <c r="AA151" s="634" t="s">
+      <c r="L151" s="582"/>
+      <c r="M151" s="582"/>
+      <c r="N151" s="582"/>
+      <c r="O151" s="582"/>
+      <c r="P151" s="582"/>
+      <c r="Q151" s="582"/>
+      <c r="R151" s="582"/>
+      <c r="S151" s="582"/>
+      <c r="T151" s="582"/>
+      <c r="U151" s="582"/>
+      <c r="V151" s="582"/>
+      <c r="W151" s="582"/>
+      <c r="X151" s="582"/>
+      <c r="Y151" s="582"/>
+      <c r="Z151" s="583"/>
+      <c r="AA151" s="579" t="s">
         <v>50</v>
       </c>
-      <c r="AB151" s="635"/>
-      <c r="AC151" s="635"/>
-      <c r="AD151" s="635"/>
-      <c r="AE151" s="635"/>
-      <c r="AF151" s="635"/>
-      <c r="AG151" s="635"/>
-      <c r="AH151" s="635"/>
+      <c r="AB151" s="580"/>
+      <c r="AC151" s="580"/>
+      <c r="AD151" s="580"/>
+      <c r="AE151" s="580"/>
+      <c r="AF151" s="580"/>
+      <c r="AG151" s="580"/>
+      <c r="AH151" s="580"/>
     </row>
     <row r="152" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D152" s="512" t="s">
+      <c r="D152" s="485" t="s">
         <v>51</v>
       </c>
-      <c r="E152" s="513"/>
-      <c r="F152" s="513"/>
-      <c r="G152" s="513"/>
-      <c r="H152" s="513"/>
-      <c r="I152" s="513"/>
-      <c r="J152" s="514"/>
-      <c r="K152" s="610" t="s">
+      <c r="E152" s="486"/>
+      <c r="F152" s="486"/>
+      <c r="G152" s="486"/>
+      <c r="H152" s="486"/>
+      <c r="I152" s="486"/>
+      <c r="J152" s="487"/>
+      <c r="K152" s="571" t="s">
         <v>581</v>
       </c>
-      <c r="L152" s="611"/>
-      <c r="M152" s="611"/>
-      <c r="N152" s="611"/>
-      <c r="O152" s="611"/>
-      <c r="P152" s="611"/>
-      <c r="Q152" s="611"/>
-      <c r="R152" s="611"/>
-      <c r="S152" s="611"/>
-      <c r="T152" s="611"/>
-      <c r="U152" s="611"/>
-      <c r="V152" s="611"/>
-      <c r="W152" s="611"/>
-      <c r="X152" s="611"/>
-      <c r="Y152" s="611"/>
-      <c r="Z152" s="612"/>
-      <c r="AA152" s="618" t="s">
+      <c r="L152" s="569"/>
+      <c r="M152" s="569"/>
+      <c r="N152" s="569"/>
+      <c r="O152" s="569"/>
+      <c r="P152" s="569"/>
+      <c r="Q152" s="569"/>
+      <c r="R152" s="569"/>
+      <c r="S152" s="569"/>
+      <c r="T152" s="569"/>
+      <c r="U152" s="569"/>
+      <c r="V152" s="569"/>
+      <c r="W152" s="569"/>
+      <c r="X152" s="569"/>
+      <c r="Y152" s="569"/>
+      <c r="Z152" s="570"/>
+      <c r="AA152" s="577" t="s">
         <v>72</v>
       </c>
-      <c r="AB152" s="617"/>
-      <c r="AC152" s="617"/>
-      <c r="AD152" s="617"/>
-      <c r="AE152" s="617"/>
-      <c r="AF152" s="617"/>
-      <c r="AG152" s="617"/>
-      <c r="AH152" s="617"/>
+      <c r="AB152" s="578"/>
+      <c r="AC152" s="578"/>
+      <c r="AD152" s="578"/>
+      <c r="AE152" s="578"/>
+      <c r="AF152" s="578"/>
+      <c r="AG152" s="578"/>
+      <c r="AH152" s="578"/>
     </row>
     <row r="153" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D153" s="576" t="s">
+      <c r="D153" s="562" t="s">
         <v>209</v>
       </c>
-      <c r="E153" s="625"/>
-      <c r="F153" s="625"/>
-      <c r="G153" s="625"/>
-      <c r="H153" s="625"/>
-      <c r="I153" s="625"/>
-      <c r="J153" s="626"/>
-      <c r="K153" s="610" t="s">
+      <c r="E153" s="563"/>
+      <c r="F153" s="563"/>
+      <c r="G153" s="563"/>
+      <c r="H153" s="563"/>
+      <c r="I153" s="563"/>
+      <c r="J153" s="564"/>
+      <c r="K153" s="571" t="s">
         <v>582</v>
       </c>
-      <c r="L153" s="611"/>
-      <c r="M153" s="611"/>
-      <c r="N153" s="611"/>
-      <c r="O153" s="611"/>
-      <c r="P153" s="611"/>
-      <c r="Q153" s="611"/>
-      <c r="R153" s="611"/>
-      <c r="S153" s="611"/>
-      <c r="T153" s="611"/>
-      <c r="U153" s="611"/>
-      <c r="V153" s="611"/>
-      <c r="W153" s="611"/>
-      <c r="X153" s="611"/>
-      <c r="Y153" s="611"/>
-      <c r="Z153" s="612"/>
-      <c r="AA153" s="618" t="s">
+      <c r="L153" s="569"/>
+      <c r="M153" s="569"/>
+      <c r="N153" s="569"/>
+      <c r="O153" s="569"/>
+      <c r="P153" s="569"/>
+      <c r="Q153" s="569"/>
+      <c r="R153" s="569"/>
+      <c r="S153" s="569"/>
+      <c r="T153" s="569"/>
+      <c r="U153" s="569"/>
+      <c r="V153" s="569"/>
+      <c r="W153" s="569"/>
+      <c r="X153" s="569"/>
+      <c r="Y153" s="569"/>
+      <c r="Z153" s="570"/>
+      <c r="AA153" s="577" t="s">
         <v>72</v>
       </c>
-      <c r="AB153" s="617"/>
-      <c r="AC153" s="617"/>
-      <c r="AD153" s="617"/>
-      <c r="AE153" s="617"/>
-      <c r="AF153" s="617"/>
-      <c r="AG153" s="617"/>
-      <c r="AH153" s="617"/>
+      <c r="AB153" s="578"/>
+      <c r="AC153" s="578"/>
+      <c r="AD153" s="578"/>
+      <c r="AE153" s="578"/>
+      <c r="AF153" s="578"/>
+      <c r="AG153" s="578"/>
+      <c r="AH153" s="578"/>
     </row>
     <row r="154" spans="3:34" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D154" s="624" t="s">
+      <c r="D154" s="556" t="s">
         <v>218</v>
       </c>
-      <c r="E154" s="516"/>
-      <c r="F154" s="516"/>
-      <c r="G154" s="516"/>
-      <c r="H154" s="516"/>
-      <c r="I154" s="516"/>
-      <c r="J154" s="517"/>
-      <c r="K154" s="630" t="s">
+      <c r="E154" s="489"/>
+      <c r="F154" s="489"/>
+      <c r="G154" s="489"/>
+      <c r="H154" s="489"/>
+      <c r="I154" s="489"/>
+      <c r="J154" s="490"/>
+      <c r="K154" s="568" t="s">
         <v>69</v>
       </c>
-      <c r="L154" s="611"/>
-      <c r="M154" s="611"/>
-      <c r="N154" s="611"/>
-      <c r="O154" s="611"/>
-      <c r="P154" s="611"/>
-      <c r="Q154" s="611"/>
-      <c r="R154" s="611"/>
-      <c r="S154" s="611"/>
-      <c r="T154" s="611"/>
-      <c r="U154" s="611"/>
-      <c r="V154" s="611"/>
-      <c r="W154" s="611"/>
-      <c r="X154" s="611"/>
-      <c r="Y154" s="611"/>
-      <c r="Z154" s="612"/>
-      <c r="AA154" s="627" t="s">
+      <c r="L154" s="569"/>
+      <c r="M154" s="569"/>
+      <c r="N154" s="569"/>
+      <c r="O154" s="569"/>
+      <c r="P154" s="569"/>
+      <c r="Q154" s="569"/>
+      <c r="R154" s="569"/>
+      <c r="S154" s="569"/>
+      <c r="T154" s="569"/>
+      <c r="U154" s="569"/>
+      <c r="V154" s="569"/>
+      <c r="W154" s="569"/>
+      <c r="X154" s="569"/>
+      <c r="Y154" s="569"/>
+      <c r="Z154" s="570"/>
+      <c r="AA154" s="565" t="s">
         <v>219</v>
       </c>
-      <c r="AB154" s="628"/>
-      <c r="AC154" s="628"/>
-      <c r="AD154" s="628"/>
-      <c r="AE154" s="628"/>
-      <c r="AF154" s="628"/>
-      <c r="AG154" s="628"/>
-      <c r="AH154" s="629"/>
+      <c r="AB154" s="566"/>
+      <c r="AC154" s="566"/>
+      <c r="AD154" s="566"/>
+      <c r="AE154" s="566"/>
+      <c r="AF154" s="566"/>
+      <c r="AG154" s="566"/>
+      <c r="AH154" s="567"/>
     </row>
     <row r="155" spans="3:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D155" s="622"/>
-      <c r="E155" s="554" t="s">
+      <c r="D155" s="554"/>
+      <c r="E155" s="557" t="s">
         <v>221</v>
       </c>
-      <c r="F155" s="555"/>
-      <c r="G155" s="555"/>
-      <c r="H155" s="555"/>
-      <c r="I155" s="555"/>
-      <c r="J155" s="556"/>
-      <c r="K155" s="610" t="s">
+      <c r="F155" s="558"/>
+      <c r="G155" s="558"/>
+      <c r="H155" s="558"/>
+      <c r="I155" s="558"/>
+      <c r="J155" s="559"/>
+      <c r="K155" s="571" t="s">
         <v>579</v>
       </c>
-      <c r="L155" s="611"/>
-      <c r="M155" s="611"/>
-      <c r="N155" s="611"/>
-      <c r="O155" s="611"/>
-      <c r="P155" s="611"/>
-      <c r="Q155" s="611"/>
-      <c r="R155" s="611"/>
-      <c r="S155" s="611"/>
-      <c r="T155" s="611"/>
-      <c r="U155" s="611"/>
-      <c r="V155" s="611"/>
-      <c r="W155" s="611"/>
-      <c r="X155" s="611"/>
-      <c r="Y155" s="611"/>
-      <c r="Z155" s="612"/>
-      <c r="AA155" s="608" t="s">
+      <c r="L155" s="569"/>
+      <c r="M155" s="569"/>
+      <c r="N155" s="569"/>
+      <c r="O155" s="569"/>
+      <c r="P155" s="569"/>
+      <c r="Q155" s="569"/>
+      <c r="R155" s="569"/>
+      <c r="S155" s="569"/>
+      <c r="T155" s="569"/>
+      <c r="U155" s="569"/>
+      <c r="V155" s="569"/>
+      <c r="W155" s="569"/>
+      <c r="X155" s="569"/>
+      <c r="Y155" s="569"/>
+      <c r="Z155" s="570"/>
+      <c r="AA155" s="607" t="s">
         <v>223</v>
       </c>
-      <c r="AB155" s="609"/>
-      <c r="AC155" s="609"/>
-      <c r="AD155" s="609"/>
-      <c r="AE155" s="609"/>
-      <c r="AF155" s="609"/>
-      <c r="AG155" s="609"/>
-      <c r="AH155" s="609"/>
+      <c r="AB155" s="608"/>
+      <c r="AC155" s="608"/>
+      <c r="AD155" s="608"/>
+      <c r="AE155" s="608"/>
+      <c r="AF155" s="608"/>
+      <c r="AG155" s="608"/>
+      <c r="AH155" s="608"/>
     </row>
     <row r="156" spans="3:34" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D156" s="622"/>
-      <c r="E156" s="554"/>
-      <c r="F156" s="555"/>
-      <c r="G156" s="555"/>
-      <c r="H156" s="555"/>
-      <c r="I156" s="555"/>
-      <c r="J156" s="556"/>
-      <c r="K156" s="577" t="s">
+      <c r="D156" s="554"/>
+      <c r="E156" s="557"/>
+      <c r="F156" s="558"/>
+      <c r="G156" s="558"/>
+      <c r="H156" s="558"/>
+      <c r="I156" s="558"/>
+      <c r="J156" s="559"/>
+      <c r="K156" s="572" t="s">
         <v>580</v>
       </c>
-      <c r="L156" s="631"/>
-      <c r="M156" s="631"/>
-      <c r="N156" s="631"/>
-      <c r="O156" s="631"/>
-      <c r="P156" s="631"/>
-      <c r="Q156" s="631"/>
-      <c r="R156" s="631"/>
-      <c r="S156" s="631"/>
-      <c r="T156" s="631"/>
-      <c r="U156" s="631"/>
-      <c r="V156" s="631"/>
-      <c r="W156" s="631"/>
-      <c r="X156" s="631"/>
-      <c r="Y156" s="631"/>
-      <c r="Z156" s="579"/>
-      <c r="AA156" s="610" t="s">
+      <c r="L156" s="573"/>
+      <c r="M156" s="573"/>
+      <c r="N156" s="573"/>
+      <c r="O156" s="573"/>
+      <c r="P156" s="573"/>
+      <c r="Q156" s="573"/>
+      <c r="R156" s="573"/>
+      <c r="S156" s="573"/>
+      <c r="T156" s="573"/>
+      <c r="U156" s="573"/>
+      <c r="V156" s="573"/>
+      <c r="W156" s="573"/>
+      <c r="X156" s="573"/>
+      <c r="Y156" s="573"/>
+      <c r="Z156" s="574"/>
+      <c r="AA156" s="571" t="s">
         <v>193</v>
       </c>
-      <c r="AB156" s="632"/>
-      <c r="AC156" s="632"/>
-      <c r="AD156" s="632"/>
-      <c r="AE156" s="632"/>
-      <c r="AF156" s="632"/>
-      <c r="AG156" s="632"/>
-      <c r="AH156" s="633"/>
+      <c r="AB156" s="575"/>
+      <c r="AC156" s="575"/>
+      <c r="AD156" s="575"/>
+      <c r="AE156" s="575"/>
+      <c r="AF156" s="575"/>
+      <c r="AG156" s="575"/>
+      <c r="AH156" s="576"/>
     </row>
     <row r="157" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D157" s="622"/>
-      <c r="E157" s="554"/>
-      <c r="F157" s="555"/>
-      <c r="G157" s="555"/>
-      <c r="H157" s="555"/>
-      <c r="I157" s="555"/>
-      <c r="J157" s="556"/>
-      <c r="K157" s="630" t="s">
+      <c r="D157" s="554"/>
+      <c r="E157" s="557"/>
+      <c r="F157" s="558"/>
+      <c r="G157" s="558"/>
+      <c r="H157" s="558"/>
+      <c r="I157" s="558"/>
+      <c r="J157" s="559"/>
+      <c r="K157" s="568" t="s">
         <v>583</v>
       </c>
-      <c r="L157" s="611"/>
-      <c r="M157" s="611"/>
-      <c r="N157" s="611"/>
-      <c r="O157" s="611"/>
-      <c r="P157" s="611"/>
-      <c r="Q157" s="611"/>
-      <c r="R157" s="611"/>
-      <c r="S157" s="611"/>
-      <c r="T157" s="611"/>
-      <c r="U157" s="611"/>
-      <c r="V157" s="611"/>
-      <c r="W157" s="611"/>
-      <c r="X157" s="611"/>
-      <c r="Y157" s="611"/>
-      <c r="Z157" s="612"/>
-      <c r="AA157" s="618" t="s">
+      <c r="L157" s="569"/>
+      <c r="M157" s="569"/>
+      <c r="N157" s="569"/>
+      <c r="O157" s="569"/>
+      <c r="P157" s="569"/>
+      <c r="Q157" s="569"/>
+      <c r="R157" s="569"/>
+      <c r="S157" s="569"/>
+      <c r="T157" s="569"/>
+      <c r="U157" s="569"/>
+      <c r="V157" s="569"/>
+      <c r="W157" s="569"/>
+      <c r="X157" s="569"/>
+      <c r="Y157" s="569"/>
+      <c r="Z157" s="570"/>
+      <c r="AA157" s="577" t="s">
         <v>72</v>
       </c>
-      <c r="AB157" s="617"/>
-      <c r="AC157" s="617"/>
-      <c r="AD157" s="617"/>
-      <c r="AE157" s="617"/>
-      <c r="AF157" s="617"/>
-      <c r="AG157" s="617"/>
-      <c r="AH157" s="617"/>
+      <c r="AB157" s="578"/>
+      <c r="AC157" s="578"/>
+      <c r="AD157" s="578"/>
+      <c r="AE157" s="578"/>
+      <c r="AF157" s="578"/>
+      <c r="AG157" s="578"/>
+      <c r="AH157" s="578"/>
     </row>
     <row r="158" spans="3:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D158" s="623"/>
-      <c r="E158" s="554" t="s">
+      <c r="D158" s="555"/>
+      <c r="E158" s="557" t="s">
         <v>220</v>
       </c>
-      <c r="F158" s="555"/>
-      <c r="G158" s="555"/>
-      <c r="H158" s="555"/>
-      <c r="I158" s="555"/>
-      <c r="J158" s="556"/>
-      <c r="K158" s="630" t="s">
+      <c r="F158" s="558"/>
+      <c r="G158" s="558"/>
+      <c r="H158" s="558"/>
+      <c r="I158" s="558"/>
+      <c r="J158" s="559"/>
+      <c r="K158" s="568" t="s">
         <v>578</v>
       </c>
-      <c r="L158" s="611"/>
-      <c r="M158" s="611"/>
-      <c r="N158" s="611"/>
-      <c r="O158" s="611"/>
-      <c r="P158" s="611"/>
-      <c r="Q158" s="611"/>
-      <c r="R158" s="611"/>
-      <c r="S158" s="611"/>
-      <c r="T158" s="611"/>
-      <c r="U158" s="611"/>
-      <c r="V158" s="611"/>
-      <c r="W158" s="611"/>
-      <c r="X158" s="611"/>
-      <c r="Y158" s="611"/>
-      <c r="Z158" s="612"/>
-      <c r="AA158" s="617" t="s">
+      <c r="L158" s="569"/>
+      <c r="M158" s="569"/>
+      <c r="N158" s="569"/>
+      <c r="O158" s="569"/>
+      <c r="P158" s="569"/>
+      <c r="Q158" s="569"/>
+      <c r="R158" s="569"/>
+      <c r="S158" s="569"/>
+      <c r="T158" s="569"/>
+      <c r="U158" s="569"/>
+      <c r="V158" s="569"/>
+      <c r="W158" s="569"/>
+      <c r="X158" s="569"/>
+      <c r="Y158" s="569"/>
+      <c r="Z158" s="570"/>
+      <c r="AA158" s="578" t="s">
         <v>68</v>
       </c>
-      <c r="AB158" s="617"/>
-      <c r="AC158" s="617"/>
-      <c r="AD158" s="617"/>
-      <c r="AE158" s="617"/>
-      <c r="AF158" s="617"/>
-      <c r="AG158" s="617"/>
-      <c r="AH158" s="617"/>
+      <c r="AB158" s="578"/>
+      <c r="AC158" s="578"/>
+      <c r="AD158" s="578"/>
+      <c r="AE158" s="578"/>
+      <c r="AF158" s="578"/>
+      <c r="AG158" s="578"/>
+      <c r="AH158" s="578"/>
     </row>
     <row r="159" spans="3:34" s="91" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D159" s="89"/>
@@ -40271,837 +40275,837 @@
     </row>
     <row r="169" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="50"/>
-      <c r="F169" s="509" t="s">
+      <c r="F169" s="482" t="s">
         <v>584</v>
       </c>
-      <c r="G169" s="590"/>
-      <c r="H169" s="590"/>
-      <c r="I169" s="590"/>
-      <c r="J169" s="591"/>
-      <c r="K169" s="598" t="s">
+      <c r="G169" s="560"/>
+      <c r="H169" s="560"/>
+      <c r="I169" s="560"/>
+      <c r="J169" s="561"/>
+      <c r="K169" s="581" t="s">
         <v>29</v>
       </c>
-      <c r="L169" s="599"/>
-      <c r="M169" s="598" t="s">
+      <c r="L169" s="583"/>
+      <c r="M169" s="581" t="s">
         <v>44</v>
       </c>
-      <c r="N169" s="599"/>
-      <c r="O169" s="619" t="s">
+      <c r="N169" s="583"/>
+      <c r="O169" s="594" t="s">
         <v>43</v>
       </c>
-      <c r="P169" s="590"/>
-      <c r="Q169" s="590"/>
-      <c r="R169" s="590"/>
-      <c r="S169" s="590"/>
-      <c r="T169" s="590"/>
-      <c r="U169" s="590"/>
-      <c r="V169" s="590"/>
-      <c r="W169" s="590"/>
-      <c r="X169" s="590"/>
-      <c r="Y169" s="590"/>
-      <c r="Z169" s="590"/>
-      <c r="AA169" s="590"/>
-      <c r="AB169" s="590"/>
-      <c r="AC169" s="590"/>
-      <c r="AD169" s="590"/>
-      <c r="AE169" s="590"/>
-      <c r="AF169" s="590"/>
-      <c r="AG169" s="590"/>
-      <c r="AH169" s="591"/>
+      <c r="P169" s="560"/>
+      <c r="Q169" s="560"/>
+      <c r="R169" s="560"/>
+      <c r="S169" s="560"/>
+      <c r="T169" s="560"/>
+      <c r="U169" s="560"/>
+      <c r="V169" s="560"/>
+      <c r="W169" s="560"/>
+      <c r="X169" s="560"/>
+      <c r="Y169" s="560"/>
+      <c r="Z169" s="560"/>
+      <c r="AA169" s="560"/>
+      <c r="AB169" s="560"/>
+      <c r="AC169" s="560"/>
+      <c r="AD169" s="560"/>
+      <c r="AE169" s="560"/>
+      <c r="AF169" s="560"/>
+      <c r="AG169" s="560"/>
+      <c r="AH169" s="561"/>
     </row>
     <row r="170" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="50"/>
-      <c r="F170" s="576" t="s">
+      <c r="F170" s="562" t="s">
         <v>195</v>
       </c>
-      <c r="G170" s="513"/>
-      <c r="H170" s="513"/>
-      <c r="I170" s="513"/>
-      <c r="J170" s="514"/>
-      <c r="K170" s="592" t="s">
+      <c r="G170" s="486"/>
+      <c r="H170" s="486"/>
+      <c r="I170" s="486"/>
+      <c r="J170" s="487"/>
+      <c r="K170" s="603" t="s">
         <v>31</v>
       </c>
-      <c r="L170" s="526"/>
-      <c r="M170" s="613" t="s">
+      <c r="L170" s="529"/>
+      <c r="M170" s="599" t="s">
         <v>207</v>
       </c>
-      <c r="N170" s="614"/>
-      <c r="O170" s="515" t="s">
+      <c r="N170" s="600"/>
+      <c r="O170" s="488" t="s">
         <v>212</v>
       </c>
-      <c r="P170" s="620"/>
-      <c r="Q170" s="620"/>
-      <c r="R170" s="620"/>
-      <c r="S170" s="620"/>
-      <c r="T170" s="620"/>
-      <c r="U170" s="620"/>
-      <c r="V170" s="620"/>
-      <c r="W170" s="620"/>
-      <c r="X170" s="620"/>
-      <c r="Y170" s="620"/>
-      <c r="Z170" s="620"/>
-      <c r="AA170" s="620"/>
-      <c r="AB170" s="620"/>
-      <c r="AC170" s="620"/>
-      <c r="AD170" s="620"/>
-      <c r="AE170" s="620"/>
-      <c r="AF170" s="620"/>
-      <c r="AG170" s="620"/>
-      <c r="AH170" s="621"/>
+      <c r="P170" s="595"/>
+      <c r="Q170" s="595"/>
+      <c r="R170" s="595"/>
+      <c r="S170" s="595"/>
+      <c r="T170" s="595"/>
+      <c r="U170" s="595"/>
+      <c r="V170" s="595"/>
+      <c r="W170" s="595"/>
+      <c r="X170" s="595"/>
+      <c r="Y170" s="595"/>
+      <c r="Z170" s="595"/>
+      <c r="AA170" s="595"/>
+      <c r="AB170" s="595"/>
+      <c r="AC170" s="595"/>
+      <c r="AD170" s="595"/>
+      <c r="AE170" s="595"/>
+      <c r="AF170" s="595"/>
+      <c r="AG170" s="595"/>
+      <c r="AH170" s="596"/>
     </row>
     <row r="171" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="50"/>
-      <c r="F171" s="524" t="s">
+      <c r="F171" s="527" t="s">
         <v>208</v>
       </c>
-      <c r="G171" s="525"/>
-      <c r="H171" s="525"/>
-      <c r="I171" s="525"/>
-      <c r="J171" s="526"/>
-      <c r="K171" s="592" t="s">
+      <c r="G171" s="528"/>
+      <c r="H171" s="528"/>
+      <c r="I171" s="528"/>
+      <c r="J171" s="529"/>
+      <c r="K171" s="603" t="s">
         <v>45</v>
       </c>
-      <c r="L171" s="526"/>
-      <c r="M171" s="534" t="s">
+      <c r="L171" s="529"/>
+      <c r="M171" s="537" t="s">
         <v>230</v>
       </c>
-      <c r="N171" s="615"/>
-      <c r="O171" s="524" t="s">
+      <c r="N171" s="601"/>
+      <c r="O171" s="527" t="s">
         <v>211</v>
       </c>
-      <c r="P171" s="525"/>
-      <c r="Q171" s="525"/>
-      <c r="R171" s="525"/>
-      <c r="S171" s="525"/>
-      <c r="T171" s="525"/>
-      <c r="U171" s="525"/>
-      <c r="V171" s="525"/>
-      <c r="W171" s="525"/>
-      <c r="X171" s="525"/>
-      <c r="Y171" s="525"/>
-      <c r="Z171" s="525"/>
-      <c r="AA171" s="525"/>
-      <c r="AB171" s="525"/>
-      <c r="AC171" s="525"/>
-      <c r="AD171" s="525"/>
-      <c r="AE171" s="525"/>
-      <c r="AF171" s="525"/>
-      <c r="AG171" s="525"/>
-      <c r="AH171" s="526"/>
+      <c r="P171" s="528"/>
+      <c r="Q171" s="528"/>
+      <c r="R171" s="528"/>
+      <c r="S171" s="528"/>
+      <c r="T171" s="528"/>
+      <c r="U171" s="528"/>
+      <c r="V171" s="528"/>
+      <c r="W171" s="528"/>
+      <c r="X171" s="528"/>
+      <c r="Y171" s="528"/>
+      <c r="Z171" s="528"/>
+      <c r="AA171" s="528"/>
+      <c r="AB171" s="528"/>
+      <c r="AC171" s="528"/>
+      <c r="AD171" s="528"/>
+      <c r="AE171" s="528"/>
+      <c r="AF171" s="528"/>
+      <c r="AG171" s="528"/>
+      <c r="AH171" s="529"/>
     </row>
     <row r="172" spans="1:34" s="94" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="50"/>
-      <c r="F172" s="533"/>
-      <c r="G172" s="528"/>
-      <c r="H172" s="528"/>
-      <c r="I172" s="528"/>
-      <c r="J172" s="529"/>
-      <c r="K172" s="527"/>
-      <c r="L172" s="529"/>
-      <c r="M172" s="616"/>
-      <c r="N172" s="595"/>
-      <c r="O172" s="533"/>
-      <c r="P172" s="528"/>
-      <c r="Q172" s="528"/>
-      <c r="R172" s="528"/>
-      <c r="S172" s="528"/>
-      <c r="T172" s="528"/>
-      <c r="U172" s="528"/>
-      <c r="V172" s="528"/>
-      <c r="W172" s="528"/>
-      <c r="X172" s="528"/>
-      <c r="Y172" s="528"/>
-      <c r="Z172" s="528"/>
-      <c r="AA172" s="528"/>
-      <c r="AB172" s="528"/>
-      <c r="AC172" s="528"/>
-      <c r="AD172" s="528"/>
-      <c r="AE172" s="528"/>
-      <c r="AF172" s="528"/>
-      <c r="AG172" s="528"/>
-      <c r="AH172" s="529"/>
+      <c r="F172" s="536"/>
+      <c r="G172" s="531"/>
+      <c r="H172" s="531"/>
+      <c r="I172" s="531"/>
+      <c r="J172" s="532"/>
+      <c r="K172" s="530"/>
+      <c r="L172" s="532"/>
+      <c r="M172" s="602"/>
+      <c r="N172" s="588"/>
+      <c r="O172" s="536"/>
+      <c r="P172" s="531"/>
+      <c r="Q172" s="531"/>
+      <c r="R172" s="531"/>
+      <c r="S172" s="531"/>
+      <c r="T172" s="531"/>
+      <c r="U172" s="531"/>
+      <c r="V172" s="531"/>
+      <c r="W172" s="531"/>
+      <c r="X172" s="531"/>
+      <c r="Y172" s="531"/>
+      <c r="Z172" s="531"/>
+      <c r="AA172" s="531"/>
+      <c r="AB172" s="531"/>
+      <c r="AC172" s="531"/>
+      <c r="AD172" s="531"/>
+      <c r="AE172" s="531"/>
+      <c r="AF172" s="531"/>
+      <c r="AG172" s="531"/>
+      <c r="AH172" s="532"/>
     </row>
     <row r="173" spans="1:34" s="94" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="50"/>
-      <c r="F173" s="533"/>
-      <c r="G173" s="528"/>
-      <c r="H173" s="528"/>
-      <c r="I173" s="528"/>
-      <c r="J173" s="529"/>
-      <c r="K173" s="527"/>
-      <c r="L173" s="529"/>
-      <c r="M173" s="616"/>
-      <c r="N173" s="595"/>
-      <c r="O173" s="533"/>
-      <c r="P173" s="528"/>
-      <c r="Q173" s="528"/>
-      <c r="R173" s="528"/>
-      <c r="S173" s="528"/>
-      <c r="T173" s="528"/>
-      <c r="U173" s="528"/>
-      <c r="V173" s="528"/>
-      <c r="W173" s="528"/>
-      <c r="X173" s="528"/>
-      <c r="Y173" s="528"/>
-      <c r="Z173" s="528"/>
-      <c r="AA173" s="528"/>
-      <c r="AB173" s="528"/>
-      <c r="AC173" s="528"/>
-      <c r="AD173" s="528"/>
-      <c r="AE173" s="528"/>
-      <c r="AF173" s="528"/>
-      <c r="AG173" s="528"/>
-      <c r="AH173" s="529"/>
+      <c r="F173" s="536"/>
+      <c r="G173" s="531"/>
+      <c r="H173" s="531"/>
+      <c r="I173" s="531"/>
+      <c r="J173" s="532"/>
+      <c r="K173" s="530"/>
+      <c r="L173" s="532"/>
+      <c r="M173" s="602"/>
+      <c r="N173" s="588"/>
+      <c r="O173" s="536"/>
+      <c r="P173" s="531"/>
+      <c r="Q173" s="531"/>
+      <c r="R173" s="531"/>
+      <c r="S173" s="531"/>
+      <c r="T173" s="531"/>
+      <c r="U173" s="531"/>
+      <c r="V173" s="531"/>
+      <c r="W173" s="531"/>
+      <c r="X173" s="531"/>
+      <c r="Y173" s="531"/>
+      <c r="Z173" s="531"/>
+      <c r="AA173" s="531"/>
+      <c r="AB173" s="531"/>
+      <c r="AC173" s="531"/>
+      <c r="AD173" s="531"/>
+      <c r="AE173" s="531"/>
+      <c r="AF173" s="531"/>
+      <c r="AG173" s="531"/>
+      <c r="AH173" s="532"/>
     </row>
     <row r="174" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="50"/>
-      <c r="F174" s="530"/>
-      <c r="G174" s="531"/>
-      <c r="H174" s="531"/>
-      <c r="I174" s="531"/>
-      <c r="J174" s="532"/>
-      <c r="K174" s="530"/>
-      <c r="L174" s="532"/>
-      <c r="M174" s="573"/>
-      <c r="N174" s="575"/>
-      <c r="O174" s="530"/>
-      <c r="P174" s="531"/>
-      <c r="Q174" s="531"/>
-      <c r="R174" s="531"/>
-      <c r="S174" s="531"/>
-      <c r="T174" s="531"/>
-      <c r="U174" s="531"/>
-      <c r="V174" s="531"/>
-      <c r="W174" s="531"/>
-      <c r="X174" s="531"/>
-      <c r="Y174" s="531"/>
-      <c r="Z174" s="531"/>
-      <c r="AA174" s="531"/>
-      <c r="AB174" s="531"/>
-      <c r="AC174" s="531"/>
-      <c r="AD174" s="531"/>
-      <c r="AE174" s="531"/>
-      <c r="AF174" s="531"/>
-      <c r="AG174" s="531"/>
-      <c r="AH174" s="532"/>
+      <c r="F174" s="533"/>
+      <c r="G174" s="534"/>
+      <c r="H174" s="534"/>
+      <c r="I174" s="534"/>
+      <c r="J174" s="535"/>
+      <c r="K174" s="533"/>
+      <c r="L174" s="535"/>
+      <c r="M174" s="589"/>
+      <c r="N174" s="591"/>
+      <c r="O174" s="533"/>
+      <c r="P174" s="534"/>
+      <c r="Q174" s="534"/>
+      <c r="R174" s="534"/>
+      <c r="S174" s="534"/>
+      <c r="T174" s="534"/>
+      <c r="U174" s="534"/>
+      <c r="V174" s="534"/>
+      <c r="W174" s="534"/>
+      <c r="X174" s="534"/>
+      <c r="Y174" s="534"/>
+      <c r="Z174" s="534"/>
+      <c r="AA174" s="534"/>
+      <c r="AB174" s="534"/>
+      <c r="AC174" s="534"/>
+      <c r="AD174" s="534"/>
+      <c r="AE174" s="534"/>
+      <c r="AF174" s="534"/>
+      <c r="AG174" s="534"/>
+      <c r="AH174" s="535"/>
     </row>
     <row r="175" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="50"/>
-      <c r="F175" s="592" t="s">
+      <c r="F175" s="603" t="s">
         <v>46</v>
       </c>
-      <c r="G175" s="525"/>
-      <c r="H175" s="525"/>
-      <c r="I175" s="525"/>
-      <c r="J175" s="526"/>
-      <c r="K175" s="592" t="s">
+      <c r="G175" s="528"/>
+      <c r="H175" s="528"/>
+      <c r="I175" s="528"/>
+      <c r="J175" s="529"/>
+      <c r="K175" s="603" t="s">
         <v>45</v>
       </c>
-      <c r="L175" s="526"/>
-      <c r="M175" s="592" t="s">
+      <c r="L175" s="529"/>
+      <c r="M175" s="603" t="s">
         <v>47</v>
       </c>
-      <c r="N175" s="615"/>
-      <c r="O175" s="534" t="s">
+      <c r="N175" s="601"/>
+      <c r="O175" s="537" t="s">
         <v>215</v>
       </c>
-      <c r="P175" s="571"/>
-      <c r="Q175" s="571"/>
-      <c r="R175" s="571"/>
-      <c r="S175" s="571"/>
-      <c r="T175" s="571"/>
-      <c r="U175" s="571"/>
-      <c r="V175" s="571"/>
-      <c r="W175" s="571"/>
-      <c r="X175" s="571"/>
-      <c r="Y175" s="571"/>
-      <c r="Z175" s="571"/>
-      <c r="AA175" s="571"/>
-      <c r="AB175" s="571"/>
-      <c r="AC175" s="571"/>
-      <c r="AD175" s="571"/>
-      <c r="AE175" s="571"/>
-      <c r="AF175" s="571"/>
-      <c r="AG175" s="571"/>
-      <c r="AH175" s="572"/>
+      <c r="P175" s="584"/>
+      <c r="Q175" s="584"/>
+      <c r="R175" s="584"/>
+      <c r="S175" s="584"/>
+      <c r="T175" s="584"/>
+      <c r="U175" s="584"/>
+      <c r="V175" s="584"/>
+      <c r="W175" s="584"/>
+      <c r="X175" s="584"/>
+      <c r="Y175" s="584"/>
+      <c r="Z175" s="584"/>
+      <c r="AA175" s="584"/>
+      <c r="AB175" s="584"/>
+      <c r="AC175" s="584"/>
+      <c r="AD175" s="584"/>
+      <c r="AE175" s="584"/>
+      <c r="AF175" s="584"/>
+      <c r="AG175" s="584"/>
+      <c r="AH175" s="585"/>
     </row>
     <row r="176" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="50"/>
-      <c r="F176" s="524" t="s">
+      <c r="F176" s="527" t="s">
         <v>196</v>
       </c>
-      <c r="G176" s="525"/>
-      <c r="H176" s="525"/>
-      <c r="I176" s="525"/>
-      <c r="J176" s="526"/>
-      <c r="K176" s="592" t="s">
+      <c r="G176" s="528"/>
+      <c r="H176" s="528"/>
+      <c r="I176" s="528"/>
+      <c r="J176" s="529"/>
+      <c r="K176" s="603" t="s">
         <v>45</v>
       </c>
-      <c r="L176" s="526"/>
-      <c r="M176" s="592" t="s">
+      <c r="L176" s="529"/>
+      <c r="M176" s="603" t="s">
         <v>73</v>
       </c>
-      <c r="N176" s="615"/>
-      <c r="O176" s="534" t="s">
+      <c r="N176" s="601"/>
+      <c r="O176" s="537" t="s">
         <v>216</v>
       </c>
-      <c r="P176" s="571"/>
-      <c r="Q176" s="571"/>
-      <c r="R176" s="571"/>
-      <c r="S176" s="571"/>
-      <c r="T176" s="571"/>
-      <c r="U176" s="571"/>
-      <c r="V176" s="571"/>
-      <c r="W176" s="571"/>
-      <c r="X176" s="571"/>
-      <c r="Y176" s="571"/>
-      <c r="Z176" s="571"/>
-      <c r="AA176" s="571"/>
-      <c r="AB176" s="571"/>
-      <c r="AC176" s="571"/>
-      <c r="AD176" s="571"/>
-      <c r="AE176" s="571"/>
-      <c r="AF176" s="571"/>
-      <c r="AG176" s="571"/>
-      <c r="AH176" s="572"/>
+      <c r="P176" s="584"/>
+      <c r="Q176" s="584"/>
+      <c r="R176" s="584"/>
+      <c r="S176" s="584"/>
+      <c r="T176" s="584"/>
+      <c r="U176" s="584"/>
+      <c r="V176" s="584"/>
+      <c r="W176" s="584"/>
+      <c r="X176" s="584"/>
+      <c r="Y176" s="584"/>
+      <c r="Z176" s="584"/>
+      <c r="AA176" s="584"/>
+      <c r="AB176" s="584"/>
+      <c r="AC176" s="584"/>
+      <c r="AD176" s="584"/>
+      <c r="AE176" s="584"/>
+      <c r="AF176" s="584"/>
+      <c r="AG176" s="584"/>
+      <c r="AH176" s="585"/>
     </row>
     <row r="177" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="50"/>
-      <c r="F177" s="593"/>
-      <c r="G177" s="594"/>
-      <c r="H177" s="594"/>
-      <c r="I177" s="594"/>
-      <c r="J177" s="595"/>
-      <c r="K177" s="527"/>
-      <c r="L177" s="529"/>
-      <c r="M177" s="593"/>
-      <c r="N177" s="595"/>
-      <c r="O177" s="593"/>
-      <c r="P177" s="594"/>
-      <c r="Q177" s="594"/>
-      <c r="R177" s="594"/>
-      <c r="S177" s="594"/>
-      <c r="T177" s="594"/>
-      <c r="U177" s="594"/>
-      <c r="V177" s="594"/>
-      <c r="W177" s="594"/>
-      <c r="X177" s="594"/>
-      <c r="Y177" s="594"/>
-      <c r="Z177" s="594"/>
-      <c r="AA177" s="594"/>
-      <c r="AB177" s="594"/>
-      <c r="AC177" s="594"/>
-      <c r="AD177" s="594"/>
-      <c r="AE177" s="594"/>
-      <c r="AF177" s="594"/>
-      <c r="AG177" s="594"/>
-      <c r="AH177" s="595"/>
+      <c r="F177" s="586"/>
+      <c r="G177" s="587"/>
+      <c r="H177" s="587"/>
+      <c r="I177" s="587"/>
+      <c r="J177" s="588"/>
+      <c r="K177" s="530"/>
+      <c r="L177" s="532"/>
+      <c r="M177" s="586"/>
+      <c r="N177" s="588"/>
+      <c r="O177" s="586"/>
+      <c r="P177" s="587"/>
+      <c r="Q177" s="587"/>
+      <c r="R177" s="587"/>
+      <c r="S177" s="587"/>
+      <c r="T177" s="587"/>
+      <c r="U177" s="587"/>
+      <c r="V177" s="587"/>
+      <c r="W177" s="587"/>
+      <c r="X177" s="587"/>
+      <c r="Y177" s="587"/>
+      <c r="Z177" s="587"/>
+      <c r="AA177" s="587"/>
+      <c r="AB177" s="587"/>
+      <c r="AC177" s="587"/>
+      <c r="AD177" s="587"/>
+      <c r="AE177" s="587"/>
+      <c r="AF177" s="587"/>
+      <c r="AG177" s="587"/>
+      <c r="AH177" s="588"/>
     </row>
     <row r="178" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="50"/>
-      <c r="F178" s="593"/>
-      <c r="G178" s="594"/>
-      <c r="H178" s="594"/>
-      <c r="I178" s="594"/>
-      <c r="J178" s="595"/>
-      <c r="K178" s="527"/>
-      <c r="L178" s="529"/>
-      <c r="M178" s="593"/>
-      <c r="N178" s="595"/>
-      <c r="O178" s="593"/>
-      <c r="P178" s="594"/>
-      <c r="Q178" s="594"/>
-      <c r="R178" s="594"/>
-      <c r="S178" s="594"/>
-      <c r="T178" s="594"/>
-      <c r="U178" s="594"/>
-      <c r="V178" s="594"/>
-      <c r="W178" s="594"/>
-      <c r="X178" s="594"/>
-      <c r="Y178" s="594"/>
-      <c r="Z178" s="594"/>
-      <c r="AA178" s="594"/>
-      <c r="AB178" s="594"/>
-      <c r="AC178" s="594"/>
-      <c r="AD178" s="594"/>
-      <c r="AE178" s="594"/>
-      <c r="AF178" s="594"/>
-      <c r="AG178" s="594"/>
-      <c r="AH178" s="595"/>
+      <c r="F178" s="586"/>
+      <c r="G178" s="587"/>
+      <c r="H178" s="587"/>
+      <c r="I178" s="587"/>
+      <c r="J178" s="588"/>
+      <c r="K178" s="530"/>
+      <c r="L178" s="532"/>
+      <c r="M178" s="586"/>
+      <c r="N178" s="588"/>
+      <c r="O178" s="586"/>
+      <c r="P178" s="587"/>
+      <c r="Q178" s="587"/>
+      <c r="R178" s="587"/>
+      <c r="S178" s="587"/>
+      <c r="T178" s="587"/>
+      <c r="U178" s="587"/>
+      <c r="V178" s="587"/>
+      <c r="W178" s="587"/>
+      <c r="X178" s="587"/>
+      <c r="Y178" s="587"/>
+      <c r="Z178" s="587"/>
+      <c r="AA178" s="587"/>
+      <c r="AB178" s="587"/>
+      <c r="AC178" s="587"/>
+      <c r="AD178" s="587"/>
+      <c r="AE178" s="587"/>
+      <c r="AF178" s="587"/>
+      <c r="AG178" s="587"/>
+      <c r="AH178" s="588"/>
     </row>
     <row r="179" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="50"/>
-      <c r="F179" s="573"/>
-      <c r="G179" s="574"/>
-      <c r="H179" s="574"/>
-      <c r="I179" s="574"/>
-      <c r="J179" s="575"/>
-      <c r="K179" s="530"/>
-      <c r="L179" s="532"/>
-      <c r="M179" s="573"/>
-      <c r="N179" s="575"/>
-      <c r="O179" s="573"/>
-      <c r="P179" s="574"/>
-      <c r="Q179" s="574"/>
-      <c r="R179" s="574"/>
-      <c r="S179" s="574"/>
-      <c r="T179" s="574"/>
-      <c r="U179" s="574"/>
-      <c r="V179" s="574"/>
-      <c r="W179" s="574"/>
-      <c r="X179" s="574"/>
-      <c r="Y179" s="574"/>
-      <c r="Z179" s="574"/>
-      <c r="AA179" s="574"/>
-      <c r="AB179" s="574"/>
-      <c r="AC179" s="574"/>
-      <c r="AD179" s="574"/>
-      <c r="AE179" s="574"/>
-      <c r="AF179" s="574"/>
-      <c r="AG179" s="574"/>
-      <c r="AH179" s="575"/>
+      <c r="F179" s="589"/>
+      <c r="G179" s="590"/>
+      <c r="H179" s="590"/>
+      <c r="I179" s="590"/>
+      <c r="J179" s="591"/>
+      <c r="K179" s="533"/>
+      <c r="L179" s="535"/>
+      <c r="M179" s="589"/>
+      <c r="N179" s="591"/>
+      <c r="O179" s="589"/>
+      <c r="P179" s="590"/>
+      <c r="Q179" s="590"/>
+      <c r="R179" s="590"/>
+      <c r="S179" s="590"/>
+      <c r="T179" s="590"/>
+      <c r="U179" s="590"/>
+      <c r="V179" s="590"/>
+      <c r="W179" s="590"/>
+      <c r="X179" s="590"/>
+      <c r="Y179" s="590"/>
+      <c r="Z179" s="590"/>
+      <c r="AA179" s="590"/>
+      <c r="AB179" s="590"/>
+      <c r="AC179" s="590"/>
+      <c r="AD179" s="590"/>
+      <c r="AE179" s="590"/>
+      <c r="AF179" s="590"/>
+      <c r="AG179" s="590"/>
+      <c r="AH179" s="591"/>
     </row>
     <row r="180" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="50"/>
-      <c r="F180" s="592" t="s">
+      <c r="F180" s="603" t="s">
         <v>37</v>
       </c>
-      <c r="G180" s="525"/>
-      <c r="H180" s="525"/>
-      <c r="I180" s="525"/>
-      <c r="J180" s="526"/>
-      <c r="K180" s="592" t="s">
+      <c r="G180" s="528"/>
+      <c r="H180" s="528"/>
+      <c r="I180" s="528"/>
+      <c r="J180" s="529"/>
+      <c r="K180" s="603" t="s">
         <v>34</v>
       </c>
-      <c r="L180" s="526"/>
-      <c r="M180" s="592" t="s">
+      <c r="L180" s="529"/>
+      <c r="M180" s="603" t="s">
         <v>47</v>
       </c>
-      <c r="N180" s="615"/>
-      <c r="O180" s="534" t="s">
+      <c r="N180" s="601"/>
+      <c r="O180" s="537" t="s">
         <v>352</v>
       </c>
-      <c r="P180" s="571"/>
-      <c r="Q180" s="571"/>
-      <c r="R180" s="571"/>
-      <c r="S180" s="571"/>
-      <c r="T180" s="571"/>
-      <c r="U180" s="571"/>
-      <c r="V180" s="571"/>
-      <c r="W180" s="571"/>
-      <c r="X180" s="571"/>
-      <c r="Y180" s="571"/>
-      <c r="Z180" s="571"/>
-      <c r="AA180" s="571"/>
-      <c r="AB180" s="571"/>
-      <c r="AC180" s="571"/>
-      <c r="AD180" s="571"/>
-      <c r="AE180" s="571"/>
-      <c r="AF180" s="571"/>
-      <c r="AG180" s="571"/>
-      <c r="AH180" s="572"/>
+      <c r="P180" s="584"/>
+      <c r="Q180" s="584"/>
+      <c r="R180" s="584"/>
+      <c r="S180" s="584"/>
+      <c r="T180" s="584"/>
+      <c r="U180" s="584"/>
+      <c r="V180" s="584"/>
+      <c r="W180" s="584"/>
+      <c r="X180" s="584"/>
+      <c r="Y180" s="584"/>
+      <c r="Z180" s="584"/>
+      <c r="AA180" s="584"/>
+      <c r="AB180" s="584"/>
+      <c r="AC180" s="584"/>
+      <c r="AD180" s="584"/>
+      <c r="AE180" s="584"/>
+      <c r="AF180" s="584"/>
+      <c r="AG180" s="584"/>
+      <c r="AH180" s="585"/>
     </row>
     <row r="181" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="50"/>
-      <c r="F181" s="573"/>
-      <c r="G181" s="574"/>
-      <c r="H181" s="574"/>
-      <c r="I181" s="574"/>
-      <c r="J181" s="575"/>
-      <c r="K181" s="530"/>
-      <c r="L181" s="532"/>
-      <c r="M181" s="573"/>
-      <c r="N181" s="575"/>
-      <c r="O181" s="573"/>
-      <c r="P181" s="574"/>
-      <c r="Q181" s="574"/>
-      <c r="R181" s="574"/>
-      <c r="S181" s="574"/>
-      <c r="T181" s="574"/>
-      <c r="U181" s="574"/>
-      <c r="V181" s="574"/>
-      <c r="W181" s="574"/>
-      <c r="X181" s="574"/>
-      <c r="Y181" s="574"/>
-      <c r="Z181" s="574"/>
-      <c r="AA181" s="574"/>
-      <c r="AB181" s="574"/>
-      <c r="AC181" s="574"/>
-      <c r="AD181" s="574"/>
-      <c r="AE181" s="574"/>
-      <c r="AF181" s="574"/>
-      <c r="AG181" s="574"/>
-      <c r="AH181" s="575"/>
+      <c r="F181" s="589"/>
+      <c r="G181" s="590"/>
+      <c r="H181" s="590"/>
+      <c r="I181" s="590"/>
+      <c r="J181" s="591"/>
+      <c r="K181" s="533"/>
+      <c r="L181" s="535"/>
+      <c r="M181" s="589"/>
+      <c r="N181" s="591"/>
+      <c r="O181" s="589"/>
+      <c r="P181" s="590"/>
+      <c r="Q181" s="590"/>
+      <c r="R181" s="590"/>
+      <c r="S181" s="590"/>
+      <c r="T181" s="590"/>
+      <c r="U181" s="590"/>
+      <c r="V181" s="590"/>
+      <c r="W181" s="590"/>
+      <c r="X181" s="590"/>
+      <c r="Y181" s="590"/>
+      <c r="Z181" s="590"/>
+      <c r="AA181" s="590"/>
+      <c r="AB181" s="590"/>
+      <c r="AC181" s="590"/>
+      <c r="AD181" s="590"/>
+      <c r="AE181" s="590"/>
+      <c r="AF181" s="590"/>
+      <c r="AG181" s="590"/>
+      <c r="AH181" s="591"/>
     </row>
     <row r="182" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="50"/>
-      <c r="F182" s="592" t="s">
+      <c r="F182" s="603" t="s">
         <v>38</v>
       </c>
-      <c r="G182" s="525"/>
-      <c r="H182" s="525"/>
-      <c r="I182" s="525"/>
-      <c r="J182" s="526"/>
-      <c r="K182" s="592" t="s">
+      <c r="G182" s="528"/>
+      <c r="H182" s="528"/>
+      <c r="I182" s="528"/>
+      <c r="J182" s="529"/>
+      <c r="K182" s="603" t="s">
         <v>34</v>
       </c>
-      <c r="L182" s="526"/>
-      <c r="M182" s="592" t="s">
+      <c r="L182" s="529"/>
+      <c r="M182" s="603" t="s">
         <v>76</v>
       </c>
-      <c r="N182" s="615"/>
-      <c r="O182" s="534" t="s">
+      <c r="N182" s="601"/>
+      <c r="O182" s="537" t="s">
         <v>351</v>
       </c>
-      <c r="P182" s="571"/>
-      <c r="Q182" s="571"/>
-      <c r="R182" s="571"/>
-      <c r="S182" s="571"/>
-      <c r="T182" s="571"/>
-      <c r="U182" s="571"/>
-      <c r="V182" s="571"/>
-      <c r="W182" s="571"/>
-      <c r="X182" s="571"/>
-      <c r="Y182" s="571"/>
-      <c r="Z182" s="571"/>
-      <c r="AA182" s="571"/>
-      <c r="AB182" s="571"/>
-      <c r="AC182" s="571"/>
-      <c r="AD182" s="571"/>
-      <c r="AE182" s="571"/>
-      <c r="AF182" s="571"/>
-      <c r="AG182" s="571"/>
-      <c r="AH182" s="572"/>
+      <c r="P182" s="584"/>
+      <c r="Q182" s="584"/>
+      <c r="R182" s="584"/>
+      <c r="S182" s="584"/>
+      <c r="T182" s="584"/>
+      <c r="U182" s="584"/>
+      <c r="V182" s="584"/>
+      <c r="W182" s="584"/>
+      <c r="X182" s="584"/>
+      <c r="Y182" s="584"/>
+      <c r="Z182" s="584"/>
+      <c r="AA182" s="584"/>
+      <c r="AB182" s="584"/>
+      <c r="AC182" s="584"/>
+      <c r="AD182" s="584"/>
+      <c r="AE182" s="584"/>
+      <c r="AF182" s="584"/>
+      <c r="AG182" s="584"/>
+      <c r="AH182" s="585"/>
     </row>
     <row r="183" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="50"/>
-      <c r="F183" s="573"/>
-      <c r="G183" s="574"/>
-      <c r="H183" s="574"/>
-      <c r="I183" s="574"/>
-      <c r="J183" s="575"/>
-      <c r="K183" s="530"/>
-      <c r="L183" s="532"/>
-      <c r="M183" s="573"/>
-      <c r="N183" s="575"/>
-      <c r="O183" s="573"/>
-      <c r="P183" s="574"/>
-      <c r="Q183" s="574"/>
-      <c r="R183" s="574"/>
-      <c r="S183" s="574"/>
-      <c r="T183" s="574"/>
-      <c r="U183" s="574"/>
-      <c r="V183" s="574"/>
-      <c r="W183" s="574"/>
-      <c r="X183" s="574"/>
-      <c r="Y183" s="574"/>
-      <c r="Z183" s="574"/>
-      <c r="AA183" s="574"/>
-      <c r="AB183" s="574"/>
-      <c r="AC183" s="574"/>
-      <c r="AD183" s="574"/>
-      <c r="AE183" s="574"/>
-      <c r="AF183" s="574"/>
-      <c r="AG183" s="574"/>
-      <c r="AH183" s="575"/>
+      <c r="F183" s="589"/>
+      <c r="G183" s="590"/>
+      <c r="H183" s="590"/>
+      <c r="I183" s="590"/>
+      <c r="J183" s="591"/>
+      <c r="K183" s="533"/>
+      <c r="L183" s="535"/>
+      <c r="M183" s="589"/>
+      <c r="N183" s="591"/>
+      <c r="O183" s="589"/>
+      <c r="P183" s="590"/>
+      <c r="Q183" s="590"/>
+      <c r="R183" s="590"/>
+      <c r="S183" s="590"/>
+      <c r="T183" s="590"/>
+      <c r="U183" s="590"/>
+      <c r="V183" s="590"/>
+      <c r="W183" s="590"/>
+      <c r="X183" s="590"/>
+      <c r="Y183" s="590"/>
+      <c r="Z183" s="590"/>
+      <c r="AA183" s="590"/>
+      <c r="AB183" s="590"/>
+      <c r="AC183" s="590"/>
+      <c r="AD183" s="590"/>
+      <c r="AE183" s="590"/>
+      <c r="AF183" s="590"/>
+      <c r="AG183" s="590"/>
+      <c r="AH183" s="591"/>
     </row>
     <row r="184" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="50"/>
-      <c r="F184" s="592" t="s">
+      <c r="F184" s="603" t="s">
         <v>118</v>
       </c>
-      <c r="G184" s="525"/>
-      <c r="H184" s="525"/>
-      <c r="I184" s="525"/>
-      <c r="J184" s="526"/>
-      <c r="K184" s="592" t="s">
+      <c r="G184" s="528"/>
+      <c r="H184" s="528"/>
+      <c r="I184" s="528"/>
+      <c r="J184" s="529"/>
+      <c r="K184" s="603" t="s">
         <v>45</v>
       </c>
-      <c r="L184" s="526"/>
-      <c r="M184" s="592" t="s">
+      <c r="L184" s="529"/>
+      <c r="M184" s="603" t="s">
         <v>69</v>
       </c>
-      <c r="N184" s="615"/>
-      <c r="O184" s="524" t="s">
+      <c r="N184" s="601"/>
+      <c r="O184" s="527" t="s">
         <v>213</v>
       </c>
-      <c r="P184" s="525"/>
-      <c r="Q184" s="525"/>
-      <c r="R184" s="525"/>
-      <c r="S184" s="525"/>
-      <c r="T184" s="525"/>
-      <c r="U184" s="525"/>
-      <c r="V184" s="525"/>
-      <c r="W184" s="525"/>
-      <c r="X184" s="525"/>
-      <c r="Y184" s="525"/>
-      <c r="Z184" s="525"/>
-      <c r="AA184" s="525"/>
-      <c r="AB184" s="525"/>
-      <c r="AC184" s="525"/>
-      <c r="AD184" s="525"/>
-      <c r="AE184" s="525"/>
-      <c r="AF184" s="525"/>
-      <c r="AG184" s="525"/>
-      <c r="AH184" s="526"/>
+      <c r="P184" s="528"/>
+      <c r="Q184" s="528"/>
+      <c r="R184" s="528"/>
+      <c r="S184" s="528"/>
+      <c r="T184" s="528"/>
+      <c r="U184" s="528"/>
+      <c r="V184" s="528"/>
+      <c r="W184" s="528"/>
+      <c r="X184" s="528"/>
+      <c r="Y184" s="528"/>
+      <c r="Z184" s="528"/>
+      <c r="AA184" s="528"/>
+      <c r="AB184" s="528"/>
+      <c r="AC184" s="528"/>
+      <c r="AD184" s="528"/>
+      <c r="AE184" s="528"/>
+      <c r="AF184" s="528"/>
+      <c r="AG184" s="528"/>
+      <c r="AH184" s="529"/>
     </row>
     <row r="185" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="50"/>
-      <c r="F185" s="573"/>
-      <c r="G185" s="574"/>
-      <c r="H185" s="574"/>
-      <c r="I185" s="574"/>
-      <c r="J185" s="575"/>
-      <c r="K185" s="530"/>
-      <c r="L185" s="532"/>
-      <c r="M185" s="573"/>
-      <c r="N185" s="575"/>
-      <c r="O185" s="573"/>
-      <c r="P185" s="574"/>
-      <c r="Q185" s="574"/>
-      <c r="R185" s="574"/>
-      <c r="S185" s="574"/>
-      <c r="T185" s="574"/>
-      <c r="U185" s="574"/>
-      <c r="V185" s="574"/>
-      <c r="W185" s="574"/>
-      <c r="X185" s="574"/>
-      <c r="Y185" s="574"/>
-      <c r="Z185" s="574"/>
-      <c r="AA185" s="574"/>
-      <c r="AB185" s="574"/>
-      <c r="AC185" s="574"/>
-      <c r="AD185" s="574"/>
-      <c r="AE185" s="574"/>
-      <c r="AF185" s="574"/>
-      <c r="AG185" s="574"/>
-      <c r="AH185" s="575"/>
+      <c r="F185" s="589"/>
+      <c r="G185" s="590"/>
+      <c r="H185" s="590"/>
+      <c r="I185" s="590"/>
+      <c r="J185" s="591"/>
+      <c r="K185" s="533"/>
+      <c r="L185" s="535"/>
+      <c r="M185" s="589"/>
+      <c r="N185" s="591"/>
+      <c r="O185" s="589"/>
+      <c r="P185" s="590"/>
+      <c r="Q185" s="590"/>
+      <c r="R185" s="590"/>
+      <c r="S185" s="590"/>
+      <c r="T185" s="590"/>
+      <c r="U185" s="590"/>
+      <c r="V185" s="590"/>
+      <c r="W185" s="590"/>
+      <c r="X185" s="590"/>
+      <c r="Y185" s="590"/>
+      <c r="Z185" s="590"/>
+      <c r="AA185" s="590"/>
+      <c r="AB185" s="590"/>
+      <c r="AC185" s="590"/>
+      <c r="AD185" s="590"/>
+      <c r="AE185" s="590"/>
+      <c r="AF185" s="590"/>
+      <c r="AG185" s="590"/>
+      <c r="AH185" s="591"/>
     </row>
     <row r="186" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="50"/>
-      <c r="F186" s="576" t="s">
+      <c r="F186" s="562" t="s">
         <v>119</v>
       </c>
-      <c r="G186" s="513"/>
-      <c r="H186" s="513"/>
-      <c r="I186" s="513"/>
-      <c r="J186" s="514"/>
-      <c r="K186" s="596" t="s">
+      <c r="G186" s="486"/>
+      <c r="H186" s="486"/>
+      <c r="I186" s="486"/>
+      <c r="J186" s="487"/>
+      <c r="K186" s="592" t="s">
         <v>45</v>
       </c>
-      <c r="L186" s="597"/>
-      <c r="M186" s="596" t="s">
+      <c r="L186" s="593"/>
+      <c r="M186" s="592" t="s">
         <v>69</v>
       </c>
-      <c r="N186" s="614"/>
-      <c r="O186" s="576" t="s">
+      <c r="N186" s="600"/>
+      <c r="O186" s="562" t="s">
         <v>214</v>
       </c>
-      <c r="P186" s="513"/>
-      <c r="Q186" s="513"/>
-      <c r="R186" s="513"/>
-      <c r="S186" s="513"/>
-      <c r="T186" s="513"/>
-      <c r="U186" s="513"/>
-      <c r="V186" s="513"/>
-      <c r="W186" s="513"/>
-      <c r="X186" s="513"/>
-      <c r="Y186" s="513"/>
-      <c r="Z186" s="513"/>
-      <c r="AA186" s="513"/>
-      <c r="AB186" s="513"/>
-      <c r="AC186" s="513"/>
-      <c r="AD186" s="513"/>
-      <c r="AE186" s="513"/>
-      <c r="AF186" s="513"/>
-      <c r="AG186" s="513"/>
-      <c r="AH186" s="514"/>
+      <c r="P186" s="486"/>
+      <c r="Q186" s="486"/>
+      <c r="R186" s="486"/>
+      <c r="S186" s="486"/>
+      <c r="T186" s="486"/>
+      <c r="U186" s="486"/>
+      <c r="V186" s="486"/>
+      <c r="W186" s="486"/>
+      <c r="X186" s="486"/>
+      <c r="Y186" s="486"/>
+      <c r="Z186" s="486"/>
+      <c r="AA186" s="486"/>
+      <c r="AB186" s="486"/>
+      <c r="AC186" s="486"/>
+      <c r="AD186" s="486"/>
+      <c r="AE186" s="486"/>
+      <c r="AF186" s="486"/>
+      <c r="AG186" s="486"/>
+      <c r="AH186" s="487"/>
     </row>
     <row r="187" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="50"/>
-      <c r="F187" s="592" t="s">
+      <c r="F187" s="603" t="s">
         <v>48</v>
       </c>
-      <c r="G187" s="525"/>
-      <c r="H187" s="525"/>
-      <c r="I187" s="525"/>
-      <c r="J187" s="526"/>
-      <c r="K187" s="592" t="s">
+      <c r="G187" s="528"/>
+      <c r="H187" s="528"/>
+      <c r="I187" s="528"/>
+      <c r="J187" s="529"/>
+      <c r="K187" s="603" t="s">
         <v>45</v>
       </c>
-      <c r="L187" s="526"/>
-      <c r="M187" s="592" t="s">
+      <c r="L187" s="529"/>
+      <c r="M187" s="603" t="s">
         <v>74</v>
       </c>
-      <c r="N187" s="615"/>
-      <c r="O187" s="524" t="s">
+      <c r="N187" s="601"/>
+      <c r="O187" s="527" t="s">
         <v>350</v>
       </c>
-      <c r="P187" s="571"/>
-      <c r="Q187" s="571"/>
-      <c r="R187" s="571"/>
-      <c r="S187" s="571"/>
-      <c r="T187" s="571"/>
-      <c r="U187" s="571"/>
-      <c r="V187" s="571"/>
-      <c r="W187" s="571"/>
-      <c r="X187" s="571"/>
-      <c r="Y187" s="571"/>
-      <c r="Z187" s="571"/>
-      <c r="AA187" s="571"/>
-      <c r="AB187" s="571"/>
-      <c r="AC187" s="571"/>
-      <c r="AD187" s="571"/>
-      <c r="AE187" s="571"/>
-      <c r="AF187" s="571"/>
-      <c r="AG187" s="571"/>
-      <c r="AH187" s="572"/>
+      <c r="P187" s="584"/>
+      <c r="Q187" s="584"/>
+      <c r="R187" s="584"/>
+      <c r="S187" s="584"/>
+      <c r="T187" s="584"/>
+      <c r="U187" s="584"/>
+      <c r="V187" s="584"/>
+      <c r="W187" s="584"/>
+      <c r="X187" s="584"/>
+      <c r="Y187" s="584"/>
+      <c r="Z187" s="584"/>
+      <c r="AA187" s="584"/>
+      <c r="AB187" s="584"/>
+      <c r="AC187" s="584"/>
+      <c r="AD187" s="584"/>
+      <c r="AE187" s="584"/>
+      <c r="AF187" s="584"/>
+      <c r="AG187" s="584"/>
+      <c r="AH187" s="585"/>
     </row>
     <row r="188" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="50"/>
-      <c r="F188" s="573"/>
-      <c r="G188" s="574"/>
-      <c r="H188" s="574"/>
-      <c r="I188" s="574"/>
-      <c r="J188" s="575"/>
-      <c r="K188" s="530"/>
-      <c r="L188" s="532"/>
-      <c r="M188" s="573"/>
-      <c r="N188" s="575"/>
-      <c r="O188" s="573"/>
-      <c r="P188" s="574"/>
-      <c r="Q188" s="574"/>
-      <c r="R188" s="574"/>
-      <c r="S188" s="574"/>
-      <c r="T188" s="574"/>
-      <c r="U188" s="574"/>
-      <c r="V188" s="574"/>
-      <c r="W188" s="574"/>
-      <c r="X188" s="574"/>
-      <c r="Y188" s="574"/>
-      <c r="Z188" s="574"/>
-      <c r="AA188" s="574"/>
-      <c r="AB188" s="574"/>
-      <c r="AC188" s="574"/>
-      <c r="AD188" s="574"/>
-      <c r="AE188" s="574"/>
-      <c r="AF188" s="574"/>
-      <c r="AG188" s="574"/>
-      <c r="AH188" s="575"/>
+      <c r="F188" s="589"/>
+      <c r="G188" s="590"/>
+      <c r="H188" s="590"/>
+      <c r="I188" s="590"/>
+      <c r="J188" s="591"/>
+      <c r="K188" s="533"/>
+      <c r="L188" s="535"/>
+      <c r="M188" s="589"/>
+      <c r="N188" s="591"/>
+      <c r="O188" s="589"/>
+      <c r="P188" s="590"/>
+      <c r="Q188" s="590"/>
+      <c r="R188" s="590"/>
+      <c r="S188" s="590"/>
+      <c r="T188" s="590"/>
+      <c r="U188" s="590"/>
+      <c r="V188" s="590"/>
+      <c r="W188" s="590"/>
+      <c r="X188" s="590"/>
+      <c r="Y188" s="590"/>
+      <c r="Z188" s="590"/>
+      <c r="AA188" s="590"/>
+      <c r="AB188" s="590"/>
+      <c r="AC188" s="590"/>
+      <c r="AD188" s="590"/>
+      <c r="AE188" s="590"/>
+      <c r="AF188" s="590"/>
+      <c r="AG188" s="590"/>
+      <c r="AH188" s="591"/>
     </row>
     <row r="189" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="50"/>
-      <c r="F189" s="512" t="s">
+      <c r="F189" s="485" t="s">
         <v>41</v>
       </c>
-      <c r="G189" s="513"/>
-      <c r="H189" s="513"/>
-      <c r="I189" s="513"/>
-      <c r="J189" s="514"/>
-      <c r="K189" s="596" t="s">
+      <c r="G189" s="486"/>
+      <c r="H189" s="486"/>
+      <c r="I189" s="486"/>
+      <c r="J189" s="487"/>
+      <c r="K189" s="592" t="s">
         <v>45</v>
       </c>
-      <c r="L189" s="597"/>
-      <c r="M189" s="596" t="s">
+      <c r="L189" s="593"/>
+      <c r="M189" s="592" t="s">
         <v>73</v>
       </c>
-      <c r="N189" s="614"/>
-      <c r="O189" s="576" t="s">
+      <c r="N189" s="600"/>
+      <c r="O189" s="562" t="s">
         <v>214</v>
       </c>
-      <c r="P189" s="513"/>
-      <c r="Q189" s="513"/>
-      <c r="R189" s="513"/>
-      <c r="S189" s="513"/>
-      <c r="T189" s="513"/>
-      <c r="U189" s="513"/>
-      <c r="V189" s="513"/>
-      <c r="W189" s="513"/>
-      <c r="X189" s="513"/>
-      <c r="Y189" s="513"/>
-      <c r="Z189" s="513"/>
-      <c r="AA189" s="513"/>
-      <c r="AB189" s="513"/>
-      <c r="AC189" s="513"/>
-      <c r="AD189" s="513"/>
-      <c r="AE189" s="513"/>
-      <c r="AF189" s="513"/>
-      <c r="AG189" s="513"/>
-      <c r="AH189" s="514"/>
+      <c r="P189" s="486"/>
+      <c r="Q189" s="486"/>
+      <c r="R189" s="486"/>
+      <c r="S189" s="486"/>
+      <c r="T189" s="486"/>
+      <c r="U189" s="486"/>
+      <c r="V189" s="486"/>
+      <c r="W189" s="486"/>
+      <c r="X189" s="486"/>
+      <c r="Y189" s="486"/>
+      <c r="Z189" s="486"/>
+      <c r="AA189" s="486"/>
+      <c r="AB189" s="486"/>
+      <c r="AC189" s="486"/>
+      <c r="AD189" s="486"/>
+      <c r="AE189" s="486"/>
+      <c r="AF189" s="486"/>
+      <c r="AG189" s="486"/>
+      <c r="AH189" s="487"/>
     </row>
     <row r="190" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="50"/>
       <c r="E190" s="80"/>
-      <c r="F190" s="534" t="s">
+      <c r="F190" s="537" t="s">
         <v>188</v>
       </c>
-      <c r="G190" s="571"/>
-      <c r="H190" s="571"/>
-      <c r="I190" s="571"/>
-      <c r="J190" s="572"/>
-      <c r="K190" s="562" t="s">
+      <c r="G190" s="584"/>
+      <c r="H190" s="584"/>
+      <c r="I190" s="584"/>
+      <c r="J190" s="585"/>
+      <c r="K190" s="616" t="s">
         <v>45</v>
       </c>
-      <c r="L190" s="536"/>
-      <c r="M190" s="592" t="s">
+      <c r="L190" s="539"/>
+      <c r="M190" s="603" t="s">
         <v>73</v>
       </c>
-      <c r="N190" s="615"/>
-      <c r="O190" s="524" t="s">
+      <c r="N190" s="601"/>
+      <c r="O190" s="527" t="s">
         <v>214</v>
       </c>
-      <c r="P190" s="525"/>
-      <c r="Q190" s="525"/>
-      <c r="R190" s="525"/>
-      <c r="S190" s="525"/>
-      <c r="T190" s="525"/>
-      <c r="U190" s="525"/>
-      <c r="V190" s="525"/>
-      <c r="W190" s="525"/>
-      <c r="X190" s="525"/>
-      <c r="Y190" s="525"/>
-      <c r="Z190" s="525"/>
-      <c r="AA190" s="525"/>
-      <c r="AB190" s="525"/>
-      <c r="AC190" s="525"/>
-      <c r="AD190" s="525"/>
-      <c r="AE190" s="525"/>
-      <c r="AF190" s="525"/>
-      <c r="AG190" s="525"/>
-      <c r="AH190" s="526"/>
+      <c r="P190" s="528"/>
+      <c r="Q190" s="528"/>
+      <c r="R190" s="528"/>
+      <c r="S190" s="528"/>
+      <c r="T190" s="528"/>
+      <c r="U190" s="528"/>
+      <c r="V190" s="528"/>
+      <c r="W190" s="528"/>
+      <c r="X190" s="528"/>
+      <c r="Y190" s="528"/>
+      <c r="Z190" s="528"/>
+      <c r="AA190" s="528"/>
+      <c r="AB190" s="528"/>
+      <c r="AC190" s="528"/>
+      <c r="AD190" s="528"/>
+      <c r="AE190" s="528"/>
+      <c r="AF190" s="528"/>
+      <c r="AG190" s="528"/>
+      <c r="AH190" s="529"/>
     </row>
     <row r="191" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="50"/>
       <c r="E191" s="80"/>
-      <c r="F191" s="573"/>
-      <c r="G191" s="574"/>
-      <c r="H191" s="574"/>
-      <c r="I191" s="574"/>
-      <c r="J191" s="575"/>
-      <c r="K191" s="563"/>
-      <c r="L191" s="564"/>
-      <c r="M191" s="573"/>
-      <c r="N191" s="575"/>
-      <c r="O191" s="573"/>
-      <c r="P191" s="574"/>
-      <c r="Q191" s="574"/>
-      <c r="R191" s="574"/>
-      <c r="S191" s="574"/>
-      <c r="T191" s="574"/>
-      <c r="U191" s="574"/>
-      <c r="V191" s="574"/>
-      <c r="W191" s="574"/>
-      <c r="X191" s="574"/>
-      <c r="Y191" s="574"/>
-      <c r="Z191" s="574"/>
-      <c r="AA191" s="574"/>
-      <c r="AB191" s="574"/>
-      <c r="AC191" s="574"/>
-      <c r="AD191" s="574"/>
-      <c r="AE191" s="574"/>
-      <c r="AF191" s="574"/>
-      <c r="AG191" s="574"/>
-      <c r="AH191" s="575"/>
+      <c r="F191" s="589"/>
+      <c r="G191" s="590"/>
+      <c r="H191" s="590"/>
+      <c r="I191" s="590"/>
+      <c r="J191" s="591"/>
+      <c r="K191" s="619"/>
+      <c r="L191" s="620"/>
+      <c r="M191" s="589"/>
+      <c r="N191" s="591"/>
+      <c r="O191" s="589"/>
+      <c r="P191" s="590"/>
+      <c r="Q191" s="590"/>
+      <c r="R191" s="590"/>
+      <c r="S191" s="590"/>
+      <c r="T191" s="590"/>
+      <c r="U191" s="590"/>
+      <c r="V191" s="590"/>
+      <c r="W191" s="590"/>
+      <c r="X191" s="590"/>
+      <c r="Y191" s="590"/>
+      <c r="Z191" s="590"/>
+      <c r="AA191" s="590"/>
+      <c r="AB191" s="590"/>
+      <c r="AC191" s="590"/>
+      <c r="AD191" s="590"/>
+      <c r="AE191" s="590"/>
+      <c r="AF191" s="590"/>
+      <c r="AG191" s="590"/>
+      <c r="AH191" s="591"/>
     </row>
     <row r="192" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="50"/>
@@ -41120,707 +41124,707 @@
     </row>
     <row r="196" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="50"/>
-      <c r="F196" s="568" t="s">
+      <c r="F196" s="627" t="s">
         <v>585</v>
       </c>
-      <c r="G196" s="569"/>
-      <c r="H196" s="569"/>
-      <c r="I196" s="569"/>
-      <c r="J196" s="570"/>
-      <c r="K196" s="603" t="s">
+      <c r="G196" s="628"/>
+      <c r="H196" s="628"/>
+      <c r="I196" s="628"/>
+      <c r="J196" s="629"/>
+      <c r="K196" s="597" t="s">
         <v>29</v>
       </c>
-      <c r="L196" s="604"/>
-      <c r="M196" s="603" t="s">
+      <c r="L196" s="598"/>
+      <c r="M196" s="597" t="s">
         <v>30</v>
       </c>
-      <c r="N196" s="604"/>
-      <c r="O196" s="509" t="s">
+      <c r="N196" s="598"/>
+      <c r="O196" s="482" t="s">
         <v>210</v>
       </c>
-      <c r="P196" s="510"/>
-      <c r="Q196" s="510"/>
-      <c r="R196" s="510"/>
-      <c r="S196" s="510"/>
-      <c r="T196" s="510"/>
-      <c r="U196" s="510"/>
-      <c r="V196" s="510"/>
-      <c r="W196" s="510"/>
-      <c r="X196" s="510"/>
-      <c r="Y196" s="510"/>
-      <c r="Z196" s="510"/>
-      <c r="AA196" s="510"/>
-      <c r="AB196" s="510"/>
-      <c r="AC196" s="510"/>
-      <c r="AD196" s="510"/>
-      <c r="AE196" s="510"/>
-      <c r="AF196" s="510"/>
-      <c r="AG196" s="510"/>
-      <c r="AH196" s="511"/>
+      <c r="P196" s="483"/>
+      <c r="Q196" s="483"/>
+      <c r="R196" s="483"/>
+      <c r="S196" s="483"/>
+      <c r="T196" s="483"/>
+      <c r="U196" s="483"/>
+      <c r="V196" s="483"/>
+      <c r="W196" s="483"/>
+      <c r="X196" s="483"/>
+      <c r="Y196" s="483"/>
+      <c r="Z196" s="483"/>
+      <c r="AA196" s="483"/>
+      <c r="AB196" s="483"/>
+      <c r="AC196" s="483"/>
+      <c r="AD196" s="483"/>
+      <c r="AE196" s="483"/>
+      <c r="AF196" s="483"/>
+      <c r="AG196" s="483"/>
+      <c r="AH196" s="484"/>
     </row>
     <row r="197" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="50"/>
-      <c r="F197" s="577" t="s">
+      <c r="F197" s="572" t="s">
         <v>195</v>
       </c>
-      <c r="G197" s="578"/>
-      <c r="H197" s="578"/>
-      <c r="I197" s="578"/>
-      <c r="J197" s="579"/>
-      <c r="K197" s="586" t="s">
+      <c r="G197" s="630"/>
+      <c r="H197" s="630"/>
+      <c r="I197" s="630"/>
+      <c r="J197" s="574"/>
+      <c r="K197" s="609" t="s">
         <v>31</v>
       </c>
-      <c r="L197" s="587"/>
-      <c r="M197" s="586" t="s">
+      <c r="L197" s="610"/>
+      <c r="M197" s="609" t="s">
         <v>32</v>
       </c>
-      <c r="N197" s="587"/>
-      <c r="O197" s="577" t="s">
+      <c r="N197" s="610"/>
+      <c r="O197" s="572" t="s">
         <v>197</v>
       </c>
-      <c r="P197" s="578"/>
-      <c r="Q197" s="578"/>
-      <c r="R197" s="578"/>
-      <c r="S197" s="578"/>
-      <c r="T197" s="578"/>
-      <c r="U197" s="578"/>
-      <c r="V197" s="578"/>
-      <c r="W197" s="578"/>
-      <c r="X197" s="578"/>
-      <c r="Y197" s="578"/>
-      <c r="Z197" s="578"/>
-      <c r="AA197" s="578"/>
-      <c r="AB197" s="578"/>
-      <c r="AC197" s="578"/>
-      <c r="AD197" s="578"/>
-      <c r="AE197" s="578"/>
-      <c r="AF197" s="578"/>
-      <c r="AG197" s="578"/>
-      <c r="AH197" s="579"/>
+      <c r="P197" s="630"/>
+      <c r="Q197" s="630"/>
+      <c r="R197" s="630"/>
+      <c r="S197" s="630"/>
+      <c r="T197" s="630"/>
+      <c r="U197" s="630"/>
+      <c r="V197" s="630"/>
+      <c r="W197" s="630"/>
+      <c r="X197" s="630"/>
+      <c r="Y197" s="630"/>
+      <c r="Z197" s="630"/>
+      <c r="AA197" s="630"/>
+      <c r="AB197" s="630"/>
+      <c r="AC197" s="630"/>
+      <c r="AD197" s="630"/>
+      <c r="AE197" s="630"/>
+      <c r="AF197" s="630"/>
+      <c r="AG197" s="630"/>
+      <c r="AH197" s="574"/>
     </row>
     <row r="198" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="50"/>
-      <c r="F198" s="580"/>
-      <c r="G198" s="581"/>
-      <c r="H198" s="581"/>
-      <c r="I198" s="581"/>
-      <c r="J198" s="582"/>
-      <c r="K198" s="530"/>
-      <c r="L198" s="532"/>
-      <c r="M198" s="530"/>
-      <c r="N198" s="532"/>
-      <c r="O198" s="580"/>
-      <c r="P198" s="581"/>
-      <c r="Q198" s="581"/>
-      <c r="R198" s="581"/>
-      <c r="S198" s="581"/>
-      <c r="T198" s="581"/>
-      <c r="U198" s="581"/>
-      <c r="V198" s="581"/>
-      <c r="W198" s="581"/>
-      <c r="X198" s="581"/>
-      <c r="Y198" s="581"/>
-      <c r="Z198" s="581"/>
-      <c r="AA198" s="581"/>
-      <c r="AB198" s="581"/>
-      <c r="AC198" s="581"/>
-      <c r="AD198" s="581"/>
-      <c r="AE198" s="581"/>
-      <c r="AF198" s="581"/>
-      <c r="AG198" s="581"/>
-      <c r="AH198" s="582"/>
+      <c r="F198" s="631"/>
+      <c r="G198" s="632"/>
+      <c r="H198" s="632"/>
+      <c r="I198" s="632"/>
+      <c r="J198" s="633"/>
+      <c r="K198" s="533"/>
+      <c r="L198" s="535"/>
+      <c r="M198" s="533"/>
+      <c r="N198" s="535"/>
+      <c r="O198" s="631"/>
+      <c r="P198" s="632"/>
+      <c r="Q198" s="632"/>
+      <c r="R198" s="632"/>
+      <c r="S198" s="632"/>
+      <c r="T198" s="632"/>
+      <c r="U198" s="632"/>
+      <c r="V198" s="632"/>
+      <c r="W198" s="632"/>
+      <c r="X198" s="632"/>
+      <c r="Y198" s="632"/>
+      <c r="Z198" s="632"/>
+      <c r="AA198" s="632"/>
+      <c r="AB198" s="632"/>
+      <c r="AC198" s="632"/>
+      <c r="AD198" s="632"/>
+      <c r="AE198" s="632"/>
+      <c r="AF198" s="632"/>
+      <c r="AG198" s="632"/>
+      <c r="AH198" s="633"/>
     </row>
     <row r="199" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="50"/>
-      <c r="F199" s="562" t="s">
+      <c r="F199" s="616" t="s">
         <v>39</v>
       </c>
-      <c r="G199" s="535"/>
-      <c r="H199" s="535"/>
-      <c r="I199" s="535"/>
-      <c r="J199" s="536"/>
-      <c r="K199" s="592" t="s">
+      <c r="G199" s="538"/>
+      <c r="H199" s="538"/>
+      <c r="I199" s="538"/>
+      <c r="J199" s="539"/>
+      <c r="K199" s="603" t="s">
         <v>34</v>
       </c>
-      <c r="L199" s="526"/>
-      <c r="M199" s="586" t="s">
+      <c r="L199" s="529"/>
+      <c r="M199" s="609" t="s">
         <v>32</v>
       </c>
-      <c r="N199" s="587"/>
-      <c r="O199" s="534" t="s">
+      <c r="N199" s="610"/>
+      <c r="O199" s="537" t="s">
         <v>345</v>
       </c>
-      <c r="P199" s="557"/>
-      <c r="Q199" s="557"/>
-      <c r="R199" s="557"/>
-      <c r="S199" s="557"/>
-      <c r="T199" s="557"/>
-      <c r="U199" s="557"/>
-      <c r="V199" s="557"/>
-      <c r="W199" s="557"/>
-      <c r="X199" s="557"/>
-      <c r="Y199" s="557"/>
-      <c r="Z199" s="557"/>
-      <c r="AA199" s="557"/>
-      <c r="AB199" s="557"/>
-      <c r="AC199" s="557"/>
-      <c r="AD199" s="557"/>
-      <c r="AE199" s="557"/>
-      <c r="AF199" s="557"/>
-      <c r="AG199" s="557"/>
-      <c r="AH199" s="558"/>
+      <c r="P199" s="621"/>
+      <c r="Q199" s="621"/>
+      <c r="R199" s="621"/>
+      <c r="S199" s="621"/>
+      <c r="T199" s="621"/>
+      <c r="U199" s="621"/>
+      <c r="V199" s="621"/>
+      <c r="W199" s="621"/>
+      <c r="X199" s="621"/>
+      <c r="Y199" s="621"/>
+      <c r="Z199" s="621"/>
+      <c r="AA199" s="621"/>
+      <c r="AB199" s="621"/>
+      <c r="AC199" s="621"/>
+      <c r="AD199" s="621"/>
+      <c r="AE199" s="621"/>
+      <c r="AF199" s="621"/>
+      <c r="AG199" s="621"/>
+      <c r="AH199" s="622"/>
     </row>
     <row r="200" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="50"/>
-      <c r="F200" s="563"/>
-      <c r="G200" s="567"/>
-      <c r="H200" s="567"/>
-      <c r="I200" s="567"/>
-      <c r="J200" s="564"/>
-      <c r="K200" s="530"/>
-      <c r="L200" s="532"/>
-      <c r="M200" s="530"/>
-      <c r="N200" s="532"/>
-      <c r="O200" s="563"/>
-      <c r="P200" s="567"/>
-      <c r="Q200" s="567"/>
-      <c r="R200" s="567"/>
-      <c r="S200" s="567"/>
-      <c r="T200" s="567"/>
-      <c r="U200" s="567"/>
-      <c r="V200" s="567"/>
-      <c r="W200" s="567"/>
-      <c r="X200" s="567"/>
-      <c r="Y200" s="567"/>
-      <c r="Z200" s="567"/>
-      <c r="AA200" s="567"/>
-      <c r="AB200" s="567"/>
-      <c r="AC200" s="567"/>
-      <c r="AD200" s="567"/>
-      <c r="AE200" s="567"/>
-      <c r="AF200" s="567"/>
-      <c r="AG200" s="567"/>
-      <c r="AH200" s="564"/>
+      <c r="F200" s="619"/>
+      <c r="G200" s="626"/>
+      <c r="H200" s="626"/>
+      <c r="I200" s="626"/>
+      <c r="J200" s="620"/>
+      <c r="K200" s="533"/>
+      <c r="L200" s="535"/>
+      <c r="M200" s="533"/>
+      <c r="N200" s="535"/>
+      <c r="O200" s="619"/>
+      <c r="P200" s="626"/>
+      <c r="Q200" s="626"/>
+      <c r="R200" s="626"/>
+      <c r="S200" s="626"/>
+      <c r="T200" s="626"/>
+      <c r="U200" s="626"/>
+      <c r="V200" s="626"/>
+      <c r="W200" s="626"/>
+      <c r="X200" s="626"/>
+      <c r="Y200" s="626"/>
+      <c r="Z200" s="626"/>
+      <c r="AA200" s="626"/>
+      <c r="AB200" s="626"/>
+      <c r="AC200" s="626"/>
+      <c r="AD200" s="626"/>
+      <c r="AE200" s="626"/>
+      <c r="AF200" s="626"/>
+      <c r="AG200" s="626"/>
+      <c r="AH200" s="620"/>
     </row>
     <row r="201" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="50"/>
-      <c r="F201" s="562" t="s">
+      <c r="F201" s="616" t="s">
         <v>40</v>
       </c>
-      <c r="G201" s="535"/>
-      <c r="H201" s="535"/>
-      <c r="I201" s="535"/>
-      <c r="J201" s="536"/>
-      <c r="K201" s="562" t="s">
+      <c r="G201" s="538"/>
+      <c r="H201" s="538"/>
+      <c r="I201" s="538"/>
+      <c r="J201" s="539"/>
+      <c r="K201" s="616" t="s">
         <v>34</v>
       </c>
-      <c r="L201" s="536"/>
-      <c r="M201" s="565" t="s">
+      <c r="L201" s="539"/>
+      <c r="M201" s="617" t="s">
         <v>32</v>
       </c>
-      <c r="N201" s="566"/>
-      <c r="O201" s="534" t="s">
+      <c r="N201" s="618"/>
+      <c r="O201" s="537" t="s">
         <v>346</v>
       </c>
-      <c r="P201" s="557"/>
-      <c r="Q201" s="557"/>
-      <c r="R201" s="557"/>
-      <c r="S201" s="557"/>
-      <c r="T201" s="557"/>
-      <c r="U201" s="557"/>
-      <c r="V201" s="557"/>
-      <c r="W201" s="557"/>
-      <c r="X201" s="557"/>
-      <c r="Y201" s="557"/>
-      <c r="Z201" s="557"/>
-      <c r="AA201" s="557"/>
-      <c r="AB201" s="557"/>
-      <c r="AC201" s="557"/>
-      <c r="AD201" s="557"/>
-      <c r="AE201" s="557"/>
-      <c r="AF201" s="557"/>
-      <c r="AG201" s="557"/>
-      <c r="AH201" s="558"/>
+      <c r="P201" s="621"/>
+      <c r="Q201" s="621"/>
+      <c r="R201" s="621"/>
+      <c r="S201" s="621"/>
+      <c r="T201" s="621"/>
+      <c r="U201" s="621"/>
+      <c r="V201" s="621"/>
+      <c r="W201" s="621"/>
+      <c r="X201" s="621"/>
+      <c r="Y201" s="621"/>
+      <c r="Z201" s="621"/>
+      <c r="AA201" s="621"/>
+      <c r="AB201" s="621"/>
+      <c r="AC201" s="621"/>
+      <c r="AD201" s="621"/>
+      <c r="AE201" s="621"/>
+      <c r="AF201" s="621"/>
+      <c r="AG201" s="621"/>
+      <c r="AH201" s="622"/>
     </row>
     <row r="202" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="50"/>
-      <c r="F202" s="563"/>
-      <c r="G202" s="567"/>
-      <c r="H202" s="567"/>
-      <c r="I202" s="567"/>
-      <c r="J202" s="564"/>
-      <c r="K202" s="540"/>
-      <c r="L202" s="542"/>
-      <c r="M202" s="540"/>
-      <c r="N202" s="542"/>
-      <c r="O202" s="563"/>
-      <c r="P202" s="567"/>
-      <c r="Q202" s="567"/>
-      <c r="R202" s="567"/>
-      <c r="S202" s="567"/>
-      <c r="T202" s="567"/>
-      <c r="U202" s="567"/>
-      <c r="V202" s="567"/>
-      <c r="W202" s="567"/>
-      <c r="X202" s="567"/>
-      <c r="Y202" s="567"/>
-      <c r="Z202" s="567"/>
-      <c r="AA202" s="567"/>
-      <c r="AB202" s="567"/>
-      <c r="AC202" s="567"/>
-      <c r="AD202" s="567"/>
-      <c r="AE202" s="567"/>
-      <c r="AF202" s="567"/>
-      <c r="AG202" s="567"/>
-      <c r="AH202" s="564"/>
+      <c r="F202" s="619"/>
+      <c r="G202" s="626"/>
+      <c r="H202" s="626"/>
+      <c r="I202" s="626"/>
+      <c r="J202" s="620"/>
+      <c r="K202" s="543"/>
+      <c r="L202" s="545"/>
+      <c r="M202" s="543"/>
+      <c r="N202" s="545"/>
+      <c r="O202" s="619"/>
+      <c r="P202" s="626"/>
+      <c r="Q202" s="626"/>
+      <c r="R202" s="626"/>
+      <c r="S202" s="626"/>
+      <c r="T202" s="626"/>
+      <c r="U202" s="626"/>
+      <c r="V202" s="626"/>
+      <c r="W202" s="626"/>
+      <c r="X202" s="626"/>
+      <c r="Y202" s="626"/>
+      <c r="Z202" s="626"/>
+      <c r="AA202" s="626"/>
+      <c r="AB202" s="626"/>
+      <c r="AC202" s="626"/>
+      <c r="AD202" s="626"/>
+      <c r="AE202" s="626"/>
+      <c r="AF202" s="626"/>
+      <c r="AG202" s="626"/>
+      <c r="AH202" s="620"/>
     </row>
     <row r="203" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="50"/>
-      <c r="F203" s="534" t="s">
+      <c r="F203" s="537" t="s">
         <v>196</v>
       </c>
-      <c r="G203" s="557"/>
-      <c r="H203" s="557"/>
-      <c r="I203" s="557"/>
-      <c r="J203" s="558"/>
-      <c r="K203" s="592" t="s">
+      <c r="G203" s="621"/>
+      <c r="H203" s="621"/>
+      <c r="I203" s="621"/>
+      <c r="J203" s="622"/>
+      <c r="K203" s="603" t="s">
         <v>34</v>
       </c>
-      <c r="L203" s="526"/>
-      <c r="M203" s="586" t="s">
+      <c r="L203" s="529"/>
+      <c r="M203" s="609" t="s">
         <v>32</v>
       </c>
-      <c r="N203" s="587"/>
-      <c r="O203" s="534" t="s">
+      <c r="N203" s="610"/>
+      <c r="O203" s="537" t="s">
         <v>347</v>
       </c>
-      <c r="P203" s="557"/>
-      <c r="Q203" s="557"/>
-      <c r="R203" s="557"/>
-      <c r="S203" s="557"/>
-      <c r="T203" s="557"/>
-      <c r="U203" s="557"/>
-      <c r="V203" s="557"/>
-      <c r="W203" s="557"/>
-      <c r="X203" s="557"/>
-      <c r="Y203" s="557"/>
-      <c r="Z203" s="557"/>
-      <c r="AA203" s="557"/>
-      <c r="AB203" s="557"/>
-      <c r="AC203" s="557"/>
-      <c r="AD203" s="557"/>
-      <c r="AE203" s="557"/>
-      <c r="AF203" s="557"/>
-      <c r="AG203" s="557"/>
-      <c r="AH203" s="558"/>
+      <c r="P203" s="621"/>
+      <c r="Q203" s="621"/>
+      <c r="R203" s="621"/>
+      <c r="S203" s="621"/>
+      <c r="T203" s="621"/>
+      <c r="U203" s="621"/>
+      <c r="V203" s="621"/>
+      <c r="W203" s="621"/>
+      <c r="X203" s="621"/>
+      <c r="Y203" s="621"/>
+      <c r="Z203" s="621"/>
+      <c r="AA203" s="621"/>
+      <c r="AB203" s="621"/>
+      <c r="AC203" s="621"/>
+      <c r="AD203" s="621"/>
+      <c r="AE203" s="621"/>
+      <c r="AF203" s="621"/>
+      <c r="AG203" s="621"/>
+      <c r="AH203" s="622"/>
     </row>
     <row r="204" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="50"/>
-      <c r="F204" s="563"/>
-      <c r="G204" s="567"/>
-      <c r="H204" s="567"/>
-      <c r="I204" s="567"/>
-      <c r="J204" s="564"/>
-      <c r="K204" s="530"/>
-      <c r="L204" s="532"/>
-      <c r="M204" s="530"/>
-      <c r="N204" s="532"/>
-      <c r="O204" s="563"/>
-      <c r="P204" s="567"/>
-      <c r="Q204" s="567"/>
-      <c r="R204" s="567"/>
-      <c r="S204" s="567"/>
-      <c r="T204" s="567"/>
-      <c r="U204" s="567"/>
-      <c r="V204" s="567"/>
-      <c r="W204" s="567"/>
-      <c r="X204" s="567"/>
-      <c r="Y204" s="567"/>
-      <c r="Z204" s="567"/>
-      <c r="AA204" s="567"/>
-      <c r="AB204" s="567"/>
-      <c r="AC204" s="567"/>
-      <c r="AD204" s="567"/>
-      <c r="AE204" s="567"/>
-      <c r="AF204" s="567"/>
-      <c r="AG204" s="567"/>
-      <c r="AH204" s="564"/>
+      <c r="F204" s="619"/>
+      <c r="G204" s="626"/>
+      <c r="H204" s="626"/>
+      <c r="I204" s="626"/>
+      <c r="J204" s="620"/>
+      <c r="K204" s="533"/>
+      <c r="L204" s="535"/>
+      <c r="M204" s="533"/>
+      <c r="N204" s="535"/>
+      <c r="O204" s="619"/>
+      <c r="P204" s="626"/>
+      <c r="Q204" s="626"/>
+      <c r="R204" s="626"/>
+      <c r="S204" s="626"/>
+      <c r="T204" s="626"/>
+      <c r="U204" s="626"/>
+      <c r="V204" s="626"/>
+      <c r="W204" s="626"/>
+      <c r="X204" s="626"/>
+      <c r="Y204" s="626"/>
+      <c r="Z204" s="626"/>
+      <c r="AA204" s="626"/>
+      <c r="AB204" s="626"/>
+      <c r="AC204" s="626"/>
+      <c r="AD204" s="626"/>
+      <c r="AE204" s="626"/>
+      <c r="AF204" s="626"/>
+      <c r="AG204" s="626"/>
+      <c r="AH204" s="620"/>
     </row>
     <row r="205" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="50"/>
-      <c r="F205" s="512" t="s">
+      <c r="F205" s="485" t="s">
         <v>37</v>
       </c>
-      <c r="G205" s="513"/>
-      <c r="H205" s="513"/>
-      <c r="I205" s="513"/>
-      <c r="J205" s="514"/>
-      <c r="K205" s="413" t="s">
+      <c r="G205" s="486"/>
+      <c r="H205" s="486"/>
+      <c r="I205" s="486"/>
+      <c r="J205" s="487"/>
+      <c r="K205" s="451" t="s">
         <v>34</v>
       </c>
-      <c r="L205" s="415"/>
-      <c r="M205" s="600" t="s">
+      <c r="L205" s="453"/>
+      <c r="M205" s="611" t="s">
         <v>32</v>
       </c>
-      <c r="N205" s="601"/>
-      <c r="O205" s="554" t="s">
+      <c r="N205" s="612"/>
+      <c r="O205" s="557" t="s">
         <v>231</v>
       </c>
-      <c r="P205" s="588"/>
-      <c r="Q205" s="588"/>
-      <c r="R205" s="588"/>
-      <c r="S205" s="588"/>
-      <c r="T205" s="588"/>
-      <c r="U205" s="588"/>
-      <c r="V205" s="588"/>
-      <c r="W205" s="588"/>
-      <c r="X205" s="588"/>
-      <c r="Y205" s="588"/>
-      <c r="Z205" s="588"/>
-      <c r="AA205" s="588"/>
-      <c r="AB205" s="588"/>
-      <c r="AC205" s="588"/>
-      <c r="AD205" s="588"/>
-      <c r="AE205" s="588"/>
-      <c r="AF205" s="588"/>
-      <c r="AG205" s="588"/>
-      <c r="AH205" s="589"/>
+      <c r="P205" s="614"/>
+      <c r="Q205" s="614"/>
+      <c r="R205" s="614"/>
+      <c r="S205" s="614"/>
+      <c r="T205" s="614"/>
+      <c r="U205" s="614"/>
+      <c r="V205" s="614"/>
+      <c r="W205" s="614"/>
+      <c r="X205" s="614"/>
+      <c r="Y205" s="614"/>
+      <c r="Z205" s="614"/>
+      <c r="AA205" s="614"/>
+      <c r="AB205" s="614"/>
+      <c r="AC205" s="614"/>
+      <c r="AD205" s="614"/>
+      <c r="AE205" s="614"/>
+      <c r="AF205" s="614"/>
+      <c r="AG205" s="614"/>
+      <c r="AH205" s="615"/>
     </row>
     <row r="206" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="50"/>
-      <c r="F206" s="512" t="s">
+      <c r="F206" s="485" t="s">
         <v>38</v>
       </c>
-      <c r="G206" s="513"/>
-      <c r="H206" s="513"/>
-      <c r="I206" s="513"/>
-      <c r="J206" s="514"/>
-      <c r="K206" s="413" t="s">
+      <c r="G206" s="486"/>
+      <c r="H206" s="486"/>
+      <c r="I206" s="486"/>
+      <c r="J206" s="487"/>
+      <c r="K206" s="451" t="s">
         <v>34</v>
       </c>
-      <c r="L206" s="415"/>
-      <c r="M206" s="600" t="s">
+      <c r="L206" s="453"/>
+      <c r="M206" s="611" t="s">
         <v>32</v>
       </c>
-      <c r="N206" s="601"/>
-      <c r="O206" s="554" t="s">
+      <c r="N206" s="612"/>
+      <c r="O206" s="557" t="s">
         <v>194</v>
       </c>
-      <c r="P206" s="555"/>
-      <c r="Q206" s="555"/>
-      <c r="R206" s="555"/>
-      <c r="S206" s="555"/>
-      <c r="T206" s="555"/>
-      <c r="U206" s="555"/>
-      <c r="V206" s="555"/>
-      <c r="W206" s="555"/>
-      <c r="X206" s="555"/>
-      <c r="Y206" s="555"/>
-      <c r="Z206" s="555"/>
-      <c r="AA206" s="555"/>
-      <c r="AB206" s="555"/>
-      <c r="AC206" s="555"/>
-      <c r="AD206" s="555"/>
-      <c r="AE206" s="555"/>
-      <c r="AF206" s="555"/>
-      <c r="AG206" s="555"/>
-      <c r="AH206" s="556"/>
+      <c r="P206" s="558"/>
+      <c r="Q206" s="558"/>
+      <c r="R206" s="558"/>
+      <c r="S206" s="558"/>
+      <c r="T206" s="558"/>
+      <c r="U206" s="558"/>
+      <c r="V206" s="558"/>
+      <c r="W206" s="558"/>
+      <c r="X206" s="558"/>
+      <c r="Y206" s="558"/>
+      <c r="Z206" s="558"/>
+      <c r="AA206" s="558"/>
+      <c r="AB206" s="558"/>
+      <c r="AC206" s="558"/>
+      <c r="AD206" s="558"/>
+      <c r="AE206" s="558"/>
+      <c r="AF206" s="558"/>
+      <c r="AG206" s="558"/>
+      <c r="AH206" s="559"/>
     </row>
     <row r="207" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="50"/>
-      <c r="F207" s="562" t="s">
+      <c r="F207" s="616" t="s">
         <v>33</v>
       </c>
-      <c r="G207" s="535"/>
-      <c r="H207" s="535"/>
-      <c r="I207" s="535"/>
-      <c r="J207" s="536"/>
-      <c r="K207" s="592" t="s">
+      <c r="G207" s="538"/>
+      <c r="H207" s="538"/>
+      <c r="I207" s="538"/>
+      <c r="J207" s="539"/>
+      <c r="K207" s="603" t="s">
         <v>34</v>
       </c>
-      <c r="L207" s="526"/>
-      <c r="M207" s="586" t="s">
+      <c r="L207" s="529"/>
+      <c r="M207" s="609" t="s">
         <v>32</v>
       </c>
-      <c r="N207" s="587"/>
-      <c r="O207" s="534" t="s">
+      <c r="N207" s="610"/>
+      <c r="O207" s="537" t="s">
         <v>348</v>
       </c>
-      <c r="P207" s="557"/>
-      <c r="Q207" s="557"/>
-      <c r="R207" s="557"/>
-      <c r="S207" s="557"/>
-      <c r="T207" s="557"/>
-      <c r="U207" s="557"/>
-      <c r="V207" s="557"/>
-      <c r="W207" s="557"/>
-      <c r="X207" s="557"/>
-      <c r="Y207" s="557"/>
-      <c r="Z207" s="557"/>
-      <c r="AA207" s="557"/>
-      <c r="AB207" s="557"/>
-      <c r="AC207" s="557"/>
-      <c r="AD207" s="557"/>
-      <c r="AE207" s="557"/>
-      <c r="AF207" s="557"/>
-      <c r="AG207" s="557"/>
-      <c r="AH207" s="558"/>
+      <c r="P207" s="621"/>
+      <c r="Q207" s="621"/>
+      <c r="R207" s="621"/>
+      <c r="S207" s="621"/>
+      <c r="T207" s="621"/>
+      <c r="U207" s="621"/>
+      <c r="V207" s="621"/>
+      <c r="W207" s="621"/>
+      <c r="X207" s="621"/>
+      <c r="Y207" s="621"/>
+      <c r="Z207" s="621"/>
+      <c r="AA207" s="621"/>
+      <c r="AB207" s="621"/>
+      <c r="AC207" s="621"/>
+      <c r="AD207" s="621"/>
+      <c r="AE207" s="621"/>
+      <c r="AF207" s="621"/>
+      <c r="AG207" s="621"/>
+      <c r="AH207" s="622"/>
     </row>
     <row r="208" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="50"/>
-      <c r="F208" s="583"/>
-      <c r="G208" s="584"/>
-      <c r="H208" s="584"/>
-      <c r="I208" s="584"/>
-      <c r="J208" s="585"/>
-      <c r="K208" s="527"/>
-      <c r="L208" s="529"/>
-      <c r="M208" s="527"/>
-      <c r="N208" s="529"/>
-      <c r="O208" s="583"/>
-      <c r="P208" s="584"/>
-      <c r="Q208" s="584"/>
-      <c r="R208" s="584"/>
-      <c r="S208" s="584"/>
-      <c r="T208" s="584"/>
-      <c r="U208" s="584"/>
-      <c r="V208" s="584"/>
-      <c r="W208" s="584"/>
-      <c r="X208" s="584"/>
-      <c r="Y208" s="584"/>
-      <c r="Z208" s="584"/>
-      <c r="AA208" s="584"/>
-      <c r="AB208" s="584"/>
-      <c r="AC208" s="584"/>
-      <c r="AD208" s="584"/>
-      <c r="AE208" s="584"/>
-      <c r="AF208" s="584"/>
-      <c r="AG208" s="584"/>
-      <c r="AH208" s="585"/>
+      <c r="F208" s="634"/>
+      <c r="G208" s="635"/>
+      <c r="H208" s="635"/>
+      <c r="I208" s="635"/>
+      <c r="J208" s="636"/>
+      <c r="K208" s="530"/>
+      <c r="L208" s="532"/>
+      <c r="M208" s="530"/>
+      <c r="N208" s="532"/>
+      <c r="O208" s="634"/>
+      <c r="P208" s="635"/>
+      <c r="Q208" s="635"/>
+      <c r="R208" s="635"/>
+      <c r="S208" s="635"/>
+      <c r="T208" s="635"/>
+      <c r="U208" s="635"/>
+      <c r="V208" s="635"/>
+      <c r="W208" s="635"/>
+      <c r="X208" s="635"/>
+      <c r="Y208" s="635"/>
+      <c r="Z208" s="635"/>
+      <c r="AA208" s="635"/>
+      <c r="AB208" s="635"/>
+      <c r="AC208" s="635"/>
+      <c r="AD208" s="635"/>
+      <c r="AE208" s="635"/>
+      <c r="AF208" s="635"/>
+      <c r="AG208" s="635"/>
+      <c r="AH208" s="636"/>
     </row>
     <row r="209" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="50"/>
-      <c r="F209" s="563"/>
-      <c r="G209" s="567"/>
-      <c r="H209" s="567"/>
-      <c r="I209" s="567"/>
-      <c r="J209" s="564"/>
-      <c r="K209" s="530"/>
-      <c r="L209" s="532"/>
-      <c r="M209" s="530"/>
-      <c r="N209" s="532"/>
-      <c r="O209" s="563"/>
-      <c r="P209" s="567"/>
-      <c r="Q209" s="567"/>
-      <c r="R209" s="567"/>
-      <c r="S209" s="567"/>
-      <c r="T209" s="567"/>
-      <c r="U209" s="567"/>
-      <c r="V209" s="567"/>
-      <c r="W209" s="567"/>
-      <c r="X209" s="567"/>
-      <c r="Y209" s="567"/>
-      <c r="Z209" s="567"/>
-      <c r="AA209" s="567"/>
-      <c r="AB209" s="567"/>
-      <c r="AC209" s="567"/>
-      <c r="AD209" s="567"/>
-      <c r="AE209" s="567"/>
-      <c r="AF209" s="567"/>
-      <c r="AG209" s="567"/>
-      <c r="AH209" s="564"/>
+      <c r="F209" s="619"/>
+      <c r="G209" s="626"/>
+      <c r="H209" s="626"/>
+      <c r="I209" s="626"/>
+      <c r="J209" s="620"/>
+      <c r="K209" s="533"/>
+      <c r="L209" s="535"/>
+      <c r="M209" s="533"/>
+      <c r="N209" s="535"/>
+      <c r="O209" s="619"/>
+      <c r="P209" s="626"/>
+      <c r="Q209" s="626"/>
+      <c r="R209" s="626"/>
+      <c r="S209" s="626"/>
+      <c r="T209" s="626"/>
+      <c r="U209" s="626"/>
+      <c r="V209" s="626"/>
+      <c r="W209" s="626"/>
+      <c r="X209" s="626"/>
+      <c r="Y209" s="626"/>
+      <c r="Z209" s="626"/>
+      <c r="AA209" s="626"/>
+      <c r="AB209" s="626"/>
+      <c r="AC209" s="626"/>
+      <c r="AD209" s="626"/>
+      <c r="AE209" s="626"/>
+      <c r="AF209" s="626"/>
+      <c r="AG209" s="626"/>
+      <c r="AH209" s="620"/>
     </row>
     <row r="210" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="50"/>
-      <c r="F210" s="512" t="s">
+      <c r="F210" s="485" t="s">
         <v>183</v>
       </c>
-      <c r="G210" s="513"/>
-      <c r="H210" s="513"/>
-      <c r="I210" s="513"/>
-      <c r="J210" s="514"/>
-      <c r="K210" s="413" t="s">
+      <c r="G210" s="486"/>
+      <c r="H210" s="486"/>
+      <c r="I210" s="486"/>
+      <c r="J210" s="487"/>
+      <c r="K210" s="451" t="s">
         <v>34</v>
       </c>
-      <c r="L210" s="415"/>
-      <c r="M210" s="413" t="s">
+      <c r="L210" s="453"/>
+      <c r="M210" s="451" t="s">
         <v>35</v>
       </c>
-      <c r="N210" s="415"/>
-      <c r="O210" s="602" t="s">
+      <c r="N210" s="453"/>
+      <c r="O210" s="613" t="s">
         <v>36</v>
       </c>
-      <c r="P210" s="588"/>
-      <c r="Q210" s="588"/>
-      <c r="R210" s="588"/>
-      <c r="S210" s="588"/>
-      <c r="T210" s="588"/>
-      <c r="U210" s="588"/>
-      <c r="V210" s="588"/>
-      <c r="W210" s="588"/>
-      <c r="X210" s="588"/>
-      <c r="Y210" s="588"/>
-      <c r="Z210" s="588"/>
-      <c r="AA210" s="588"/>
-      <c r="AB210" s="588"/>
-      <c r="AC210" s="588"/>
-      <c r="AD210" s="588"/>
-      <c r="AE210" s="588"/>
-      <c r="AF210" s="588"/>
-      <c r="AG210" s="588"/>
-      <c r="AH210" s="589"/>
+      <c r="P210" s="614"/>
+      <c r="Q210" s="614"/>
+      <c r="R210" s="614"/>
+      <c r="S210" s="614"/>
+      <c r="T210" s="614"/>
+      <c r="U210" s="614"/>
+      <c r="V210" s="614"/>
+      <c r="W210" s="614"/>
+      <c r="X210" s="614"/>
+      <c r="Y210" s="614"/>
+      <c r="Z210" s="614"/>
+      <c r="AA210" s="614"/>
+      <c r="AB210" s="614"/>
+      <c r="AC210" s="614"/>
+      <c r="AD210" s="614"/>
+      <c r="AE210" s="614"/>
+      <c r="AF210" s="614"/>
+      <c r="AG210" s="614"/>
+      <c r="AH210" s="615"/>
     </row>
     <row r="211" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="50"/>
-      <c r="F211" s="512" t="s">
+      <c r="F211" s="485" t="s">
         <v>120</v>
       </c>
-      <c r="G211" s="513"/>
-      <c r="H211" s="513"/>
-      <c r="I211" s="513"/>
-      <c r="J211" s="514"/>
-      <c r="K211" s="413" t="s">
+      <c r="G211" s="486"/>
+      <c r="H211" s="486"/>
+      <c r="I211" s="486"/>
+      <c r="J211" s="487"/>
+      <c r="K211" s="451" t="s">
         <v>34</v>
       </c>
-      <c r="L211" s="415"/>
-      <c r="M211" s="600" t="s">
+      <c r="L211" s="453"/>
+      <c r="M211" s="611" t="s">
         <v>32</v>
       </c>
-      <c r="N211" s="601"/>
-      <c r="O211" s="554" t="s">
+      <c r="N211" s="612"/>
+      <c r="O211" s="557" t="s">
         <v>349</v>
       </c>
-      <c r="P211" s="588"/>
-      <c r="Q211" s="588"/>
-      <c r="R211" s="588"/>
-      <c r="S211" s="588"/>
-      <c r="T211" s="588"/>
-      <c r="U211" s="588"/>
-      <c r="V211" s="588"/>
-      <c r="W211" s="588"/>
-      <c r="X211" s="588"/>
-      <c r="Y211" s="588"/>
-      <c r="Z211" s="588"/>
-      <c r="AA211" s="588"/>
-      <c r="AB211" s="588"/>
-      <c r="AC211" s="588"/>
-      <c r="AD211" s="588"/>
-      <c r="AE211" s="588"/>
-      <c r="AF211" s="588"/>
-      <c r="AG211" s="588"/>
-      <c r="AH211" s="589"/>
+      <c r="P211" s="614"/>
+      <c r="Q211" s="614"/>
+      <c r="R211" s="614"/>
+      <c r="S211" s="614"/>
+      <c r="T211" s="614"/>
+      <c r="U211" s="614"/>
+      <c r="V211" s="614"/>
+      <c r="W211" s="614"/>
+      <c r="X211" s="614"/>
+      <c r="Y211" s="614"/>
+      <c r="Z211" s="614"/>
+      <c r="AA211" s="614"/>
+      <c r="AB211" s="614"/>
+      <c r="AC211" s="614"/>
+      <c r="AD211" s="614"/>
+      <c r="AE211" s="614"/>
+      <c r="AF211" s="614"/>
+      <c r="AG211" s="614"/>
+      <c r="AH211" s="615"/>
     </row>
     <row r="212" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="50"/>
-      <c r="F212" s="512" t="s">
+      <c r="F212" s="485" t="s">
         <v>41</v>
       </c>
-      <c r="G212" s="513"/>
-      <c r="H212" s="513"/>
-      <c r="I212" s="513"/>
-      <c r="J212" s="514"/>
-      <c r="K212" s="413" t="s">
+      <c r="G212" s="486"/>
+      <c r="H212" s="486"/>
+      <c r="I212" s="486"/>
+      <c r="J212" s="487"/>
+      <c r="K212" s="451" t="s">
         <v>34</v>
       </c>
-      <c r="L212" s="415"/>
-      <c r="M212" s="600" t="s">
+      <c r="L212" s="453"/>
+      <c r="M212" s="611" t="s">
         <v>32</v>
       </c>
-      <c r="N212" s="601"/>
-      <c r="O212" s="554" t="s">
+      <c r="N212" s="612"/>
+      <c r="O212" s="557" t="s">
         <v>344</v>
       </c>
-      <c r="P212" s="588"/>
-      <c r="Q212" s="588"/>
-      <c r="R212" s="588"/>
-      <c r="S212" s="588"/>
-      <c r="T212" s="588"/>
-      <c r="U212" s="588"/>
-      <c r="V212" s="588"/>
-      <c r="W212" s="588"/>
-      <c r="X212" s="588"/>
-      <c r="Y212" s="588"/>
-      <c r="Z212" s="588"/>
-      <c r="AA212" s="588"/>
-      <c r="AB212" s="588"/>
-      <c r="AC212" s="588"/>
-      <c r="AD212" s="588"/>
-      <c r="AE212" s="588"/>
-      <c r="AF212" s="588"/>
-      <c r="AG212" s="588"/>
-      <c r="AH212" s="589"/>
+      <c r="P212" s="614"/>
+      <c r="Q212" s="614"/>
+      <c r="R212" s="614"/>
+      <c r="S212" s="614"/>
+      <c r="T212" s="614"/>
+      <c r="U212" s="614"/>
+      <c r="V212" s="614"/>
+      <c r="W212" s="614"/>
+      <c r="X212" s="614"/>
+      <c r="Y212" s="614"/>
+      <c r="Z212" s="614"/>
+      <c r="AA212" s="614"/>
+      <c r="AB212" s="614"/>
+      <c r="AC212" s="614"/>
+      <c r="AD212" s="614"/>
+      <c r="AE212" s="614"/>
+      <c r="AF212" s="614"/>
+      <c r="AG212" s="614"/>
+      <c r="AH212" s="615"/>
     </row>
     <row r="213" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="50"/>
-      <c r="F213" s="534" t="s">
+      <c r="F213" s="537" t="s">
         <v>188</v>
       </c>
-      <c r="G213" s="557"/>
-      <c r="H213" s="557"/>
-      <c r="I213" s="557"/>
-      <c r="J213" s="558"/>
-      <c r="K213" s="562" t="s">
+      <c r="G213" s="621"/>
+      <c r="H213" s="621"/>
+      <c r="I213" s="621"/>
+      <c r="J213" s="622"/>
+      <c r="K213" s="616" t="s">
         <v>34</v>
       </c>
-      <c r="L213" s="536"/>
-      <c r="M213" s="565" t="s">
+      <c r="L213" s="539"/>
+      <c r="M213" s="617" t="s">
         <v>35</v>
       </c>
-      <c r="N213" s="566"/>
-      <c r="O213" s="562" t="s">
+      <c r="N213" s="618"/>
+      <c r="O213" s="616" t="s">
         <v>42</v>
       </c>
-      <c r="P213" s="535"/>
-      <c r="Q213" s="535"/>
-      <c r="R213" s="535"/>
-      <c r="S213" s="535"/>
-      <c r="T213" s="535"/>
-      <c r="U213" s="535"/>
-      <c r="V213" s="535"/>
-      <c r="W213" s="535"/>
-      <c r="X213" s="535"/>
-      <c r="Y213" s="535"/>
-      <c r="Z213" s="535"/>
-      <c r="AA213" s="535"/>
-      <c r="AB213" s="535"/>
-      <c r="AC213" s="535"/>
-      <c r="AD213" s="535"/>
-      <c r="AE213" s="535"/>
-      <c r="AF213" s="535"/>
-      <c r="AG213" s="535"/>
-      <c r="AH213" s="536"/>
+      <c r="P213" s="538"/>
+      <c r="Q213" s="538"/>
+      <c r="R213" s="538"/>
+      <c r="S213" s="538"/>
+      <c r="T213" s="538"/>
+      <c r="U213" s="538"/>
+      <c r="V213" s="538"/>
+      <c r="W213" s="538"/>
+      <c r="X213" s="538"/>
+      <c r="Y213" s="538"/>
+      <c r="Z213" s="538"/>
+      <c r="AA213" s="538"/>
+      <c r="AB213" s="538"/>
+      <c r="AC213" s="538"/>
+      <c r="AD213" s="538"/>
+      <c r="AE213" s="538"/>
+      <c r="AF213" s="538"/>
+      <c r="AG213" s="538"/>
+      <c r="AH213" s="539"/>
     </row>
     <row r="214" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="50"/>
-      <c r="F214" s="559"/>
-      <c r="G214" s="560"/>
-      <c r="H214" s="560"/>
-      <c r="I214" s="560"/>
-      <c r="J214" s="561"/>
-      <c r="K214" s="563"/>
-      <c r="L214" s="564"/>
-      <c r="M214" s="563"/>
-      <c r="N214" s="564"/>
-      <c r="O214" s="563"/>
-      <c r="P214" s="567"/>
-      <c r="Q214" s="567"/>
-      <c r="R214" s="567"/>
-      <c r="S214" s="567"/>
-      <c r="T214" s="567"/>
-      <c r="U214" s="567"/>
-      <c r="V214" s="567"/>
-      <c r="W214" s="567"/>
-      <c r="X214" s="567"/>
-      <c r="Y214" s="567"/>
-      <c r="Z214" s="567"/>
-      <c r="AA214" s="567"/>
-      <c r="AB214" s="567"/>
-      <c r="AC214" s="567"/>
-      <c r="AD214" s="567"/>
-      <c r="AE214" s="567"/>
-      <c r="AF214" s="567"/>
-      <c r="AG214" s="567"/>
-      <c r="AH214" s="564"/>
+      <c r="F214" s="623"/>
+      <c r="G214" s="624"/>
+      <c r="H214" s="624"/>
+      <c r="I214" s="624"/>
+      <c r="J214" s="625"/>
+      <c r="K214" s="619"/>
+      <c r="L214" s="620"/>
+      <c r="M214" s="619"/>
+      <c r="N214" s="620"/>
+      <c r="O214" s="619"/>
+      <c r="P214" s="626"/>
+      <c r="Q214" s="626"/>
+      <c r="R214" s="626"/>
+      <c r="S214" s="626"/>
+      <c r="T214" s="626"/>
+      <c r="U214" s="626"/>
+      <c r="V214" s="626"/>
+      <c r="W214" s="626"/>
+      <c r="X214" s="626"/>
+      <c r="Y214" s="626"/>
+      <c r="Z214" s="626"/>
+      <c r="AA214" s="626"/>
+      <c r="AB214" s="626"/>
+      <c r="AC214" s="626"/>
+      <c r="AD214" s="626"/>
+      <c r="AE214" s="626"/>
+      <c r="AF214" s="626"/>
+      <c r="AG214" s="626"/>
+      <c r="AH214" s="620"/>
     </row>
     <row r="215" spans="1:34" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="50"/>
@@ -43062,6 +43066,118 @@
     </row>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="E158:J158"/>
+    <mergeCell ref="F213:J214"/>
+    <mergeCell ref="K213:L214"/>
+    <mergeCell ref="M213:N214"/>
+    <mergeCell ref="F211:J211"/>
+    <mergeCell ref="O213:AH214"/>
+    <mergeCell ref="F196:J196"/>
+    <mergeCell ref="O187:AH188"/>
+    <mergeCell ref="K210:L210"/>
+    <mergeCell ref="M210:N210"/>
+    <mergeCell ref="O196:AH196"/>
+    <mergeCell ref="O189:AH189"/>
+    <mergeCell ref="O197:AH198"/>
+    <mergeCell ref="O199:AH200"/>
+    <mergeCell ref="O201:AH202"/>
+    <mergeCell ref="O203:AH204"/>
+    <mergeCell ref="O207:AH209"/>
+    <mergeCell ref="M199:N200"/>
+    <mergeCell ref="F197:J198"/>
+    <mergeCell ref="F199:J200"/>
+    <mergeCell ref="F201:J202"/>
+    <mergeCell ref="F203:J204"/>
+    <mergeCell ref="F207:J209"/>
+    <mergeCell ref="O205:AH205"/>
+    <mergeCell ref="M207:N209"/>
+    <mergeCell ref="O206:AH206"/>
+    <mergeCell ref="F205:J205"/>
+    <mergeCell ref="F206:J206"/>
+    <mergeCell ref="F210:J210"/>
+    <mergeCell ref="F169:J169"/>
+    <mergeCell ref="F170:J170"/>
+    <mergeCell ref="F171:J174"/>
+    <mergeCell ref="F175:J175"/>
+    <mergeCell ref="F176:J179"/>
+    <mergeCell ref="K190:L191"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="F186:J186"/>
+    <mergeCell ref="F189:J189"/>
+    <mergeCell ref="F184:J185"/>
+    <mergeCell ref="F187:J188"/>
+    <mergeCell ref="F190:J191"/>
+    <mergeCell ref="F180:J181"/>
+    <mergeCell ref="F182:J183"/>
+    <mergeCell ref="K182:L183"/>
+    <mergeCell ref="K184:L185"/>
+    <mergeCell ref="K176:L179"/>
+    <mergeCell ref="K171:L174"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="M203:N204"/>
+    <mergeCell ref="M212:N212"/>
+    <mergeCell ref="O210:AH210"/>
+    <mergeCell ref="O211:AH211"/>
+    <mergeCell ref="O212:AH212"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="F212:J212"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="K187:L188"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="K212:L212"/>
+    <mergeCell ref="K199:L200"/>
+    <mergeCell ref="K201:L202"/>
+    <mergeCell ref="K206:L206"/>
+    <mergeCell ref="K205:L205"/>
+    <mergeCell ref="K197:L198"/>
+    <mergeCell ref="K207:L209"/>
+    <mergeCell ref="K211:L211"/>
+    <mergeCell ref="M211:N211"/>
+    <mergeCell ref="K203:L204"/>
+    <mergeCell ref="M201:N202"/>
+    <mergeCell ref="M206:N206"/>
+    <mergeCell ref="M205:N205"/>
+    <mergeCell ref="M197:N198"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA155:AH155"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="K152:Z152"/>
+    <mergeCell ref="K153:Z153"/>
+    <mergeCell ref="K196:L196"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="M171:N174"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M176:N179"/>
+    <mergeCell ref="M180:N181"/>
+    <mergeCell ref="M182:N183"/>
+    <mergeCell ref="M184:N185"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="M187:N188"/>
+    <mergeCell ref="M189:N189"/>
+    <mergeCell ref="M190:N191"/>
+    <mergeCell ref="K180:L181"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="AA158:AH158"/>
+    <mergeCell ref="AA157:AH157"/>
+    <mergeCell ref="O171:AH174"/>
+    <mergeCell ref="O175:AH175"/>
+    <mergeCell ref="O176:AH179"/>
+    <mergeCell ref="O190:AH191"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="O180:AH181"/>
+    <mergeCell ref="O182:AH183"/>
+    <mergeCell ref="O184:AH185"/>
+    <mergeCell ref="O186:AH186"/>
+    <mergeCell ref="O169:AH169"/>
+    <mergeCell ref="O170:AH170"/>
     <mergeCell ref="D155:D158"/>
     <mergeCell ref="D154:J154"/>
     <mergeCell ref="E155:J157"/>
@@ -43086,118 +43202,6 @@
     <mergeCell ref="AA151:AH151"/>
     <mergeCell ref="AA152:AH152"/>
     <mergeCell ref="K151:Z151"/>
-    <mergeCell ref="AA158:AH158"/>
-    <mergeCell ref="AA157:AH157"/>
-    <mergeCell ref="O171:AH174"/>
-    <mergeCell ref="O175:AH175"/>
-    <mergeCell ref="O176:AH179"/>
-    <mergeCell ref="O190:AH191"/>
-    <mergeCell ref="K189:L189"/>
-    <mergeCell ref="O180:AH181"/>
-    <mergeCell ref="O182:AH183"/>
-    <mergeCell ref="O184:AH185"/>
-    <mergeCell ref="O186:AH186"/>
-    <mergeCell ref="O169:AH169"/>
-    <mergeCell ref="O170:AH170"/>
-    <mergeCell ref="K196:L196"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="M171:N174"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M176:N179"/>
-    <mergeCell ref="M180:N181"/>
-    <mergeCell ref="M182:N183"/>
-    <mergeCell ref="M184:N185"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="M187:N188"/>
-    <mergeCell ref="M189:N189"/>
-    <mergeCell ref="M190:N191"/>
-    <mergeCell ref="K180:L181"/>
-    <mergeCell ref="K170:L170"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA155:AH155"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="K152:Z152"/>
-    <mergeCell ref="K153:Z153"/>
-    <mergeCell ref="M203:N204"/>
-    <mergeCell ref="M212:N212"/>
-    <mergeCell ref="O210:AH210"/>
-    <mergeCell ref="O211:AH211"/>
-    <mergeCell ref="O212:AH212"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="F212:J212"/>
-    <mergeCell ref="K175:L175"/>
-    <mergeCell ref="K187:L188"/>
-    <mergeCell ref="M196:N196"/>
-    <mergeCell ref="K212:L212"/>
-    <mergeCell ref="K199:L200"/>
-    <mergeCell ref="K201:L202"/>
-    <mergeCell ref="K206:L206"/>
-    <mergeCell ref="K205:L205"/>
-    <mergeCell ref="K197:L198"/>
-    <mergeCell ref="K207:L209"/>
-    <mergeCell ref="K211:L211"/>
-    <mergeCell ref="M211:N211"/>
-    <mergeCell ref="K203:L204"/>
-    <mergeCell ref="M201:N202"/>
-    <mergeCell ref="M206:N206"/>
-    <mergeCell ref="M205:N205"/>
-    <mergeCell ref="M197:N198"/>
-    <mergeCell ref="M207:N209"/>
-    <mergeCell ref="O206:AH206"/>
-    <mergeCell ref="F205:J205"/>
-    <mergeCell ref="F206:J206"/>
-    <mergeCell ref="F210:J210"/>
-    <mergeCell ref="F169:J169"/>
-    <mergeCell ref="F170:J170"/>
-    <mergeCell ref="F171:J174"/>
-    <mergeCell ref="F175:J175"/>
-    <mergeCell ref="F176:J179"/>
-    <mergeCell ref="K190:L191"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="F186:J186"/>
-    <mergeCell ref="F189:J189"/>
-    <mergeCell ref="F184:J185"/>
-    <mergeCell ref="F187:J188"/>
-    <mergeCell ref="F190:J191"/>
-    <mergeCell ref="F180:J181"/>
-    <mergeCell ref="F182:J183"/>
-    <mergeCell ref="K182:L183"/>
-    <mergeCell ref="K184:L185"/>
-    <mergeCell ref="K176:L179"/>
-    <mergeCell ref="K171:L174"/>
-    <mergeCell ref="K169:L169"/>
-    <mergeCell ref="E158:J158"/>
-    <mergeCell ref="F213:J214"/>
-    <mergeCell ref="K213:L214"/>
-    <mergeCell ref="M213:N214"/>
-    <mergeCell ref="F211:J211"/>
-    <mergeCell ref="O213:AH214"/>
-    <mergeCell ref="F196:J196"/>
-    <mergeCell ref="O187:AH188"/>
-    <mergeCell ref="K210:L210"/>
-    <mergeCell ref="M210:N210"/>
-    <mergeCell ref="O196:AH196"/>
-    <mergeCell ref="O189:AH189"/>
-    <mergeCell ref="O197:AH198"/>
-    <mergeCell ref="O199:AH200"/>
-    <mergeCell ref="O201:AH202"/>
-    <mergeCell ref="O203:AH204"/>
-    <mergeCell ref="O207:AH209"/>
-    <mergeCell ref="M199:N200"/>
-    <mergeCell ref="F197:J198"/>
-    <mergeCell ref="F199:J200"/>
-    <mergeCell ref="F201:J202"/>
-    <mergeCell ref="F203:J204"/>
-    <mergeCell ref="F207:J209"/>
-    <mergeCell ref="O205:AH205"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/010_設計標準/UI標準(画面).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/010_設計標準/UI標準(画面).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43A5F25-EEC1-4DA4-AA32-5ACEFF65B622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA28870B-9FF4-4BCB-9EBF-B3036C87E2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="1245" windowWidth="31395" windowHeight="18960" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="28" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="598">
   <si>
     <t>システム名</t>
   </si>
@@ -2015,16 +2015,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>3.3. エラー時の画面遷移</t>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>5.1. ウインドウ</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -2484,9 +2474,6 @@
   </si>
   <si>
     <t xml:space="preserve">  ・公式サイト[https://jquery.com/]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ・ライセンス[MIT lisence]</t>
   </si>
   <si>
     <t>従来のCSSと互換性を持ち、角丸、グラデ―ション等の機能が追加されたCSS3を採用する。</t>
@@ -5598,40 +5585,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>・システムが想定している形式で入力されている場合、一括更新/削除確認画面を表示する。</t>
-    <rPh sb="6" eb="8">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>イッカツ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>3.2.4.2. 補足説明</t>
     <rPh sb="9" eb="11">
       <t>ホソク</t>
@@ -7066,6 +7019,48 @@
   <si>
     <t>前画面に戻る要件がある場合は、ブラウザの戻るボタンではなく画面の機能として戻るボタンを作成することで対応する。</t>
     <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>3.3. PRGパターン</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ・ライセンス[MIT licence]</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>・入力精査エラーが無い場合、一括更新/削除確認画面を表示する。</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -24915,7 +24910,7 @@
       <c r="C2" s="414"/>
       <c r="D2" s="415"/>
       <c r="E2" s="416" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F2" s="417"/>
       <c r="G2" s="417"/>
@@ -25127,7 +25122,7 @@
       <c r="AD8" s="469"/>
       <c r="AE8" s="470"/>
       <c r="AF8" s="471" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AG8" s="466"/>
       <c r="AH8" s="466"/>
@@ -26683,7 +26678,7 @@
       <c r="S8" s="159"/>
       <c r="T8" s="323"/>
       <c r="U8" s="324" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="V8" s="159"/>
       <c r="W8" s="159"/>
@@ -26823,7 +26818,7 @@
       <c r="S11" s="159"/>
       <c r="T11" s="323"/>
       <c r="U11" s="324" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V11" s="159"/>
       <c r="W11" s="159"/>
@@ -26919,7 +26914,7 @@
       <c r="S13" s="159"/>
       <c r="T13" s="323"/>
       <c r="U13" s="324" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="V13" s="159"/>
       <c r="W13" s="159"/>
@@ -26965,7 +26960,7 @@
       <c r="S14" s="159"/>
       <c r="T14" s="323"/>
       <c r="U14" s="324" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V14" s="159"/>
       <c r="W14" s="159"/>
@@ -27013,7 +27008,7 @@
       <c r="S15" s="159"/>
       <c r="T15" s="323"/>
       <c r="U15" s="324" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="V15" s="159"/>
       <c r="W15" s="159"/>
@@ -27041,7 +27036,7 @@
       <c r="A16" s="147"/>
       <c r="B16" s="320"/>
       <c r="C16" s="320" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D16" s="320"/>
       <c r="E16" s="320"/>
@@ -27061,7 +27056,7 @@
       <c r="S16" s="159"/>
       <c r="T16" s="323"/>
       <c r="U16" s="324" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="V16" s="159"/>
       <c r="W16" s="159"/>
@@ -27089,7 +27084,7 @@
       <c r="A17" s="147"/>
       <c r="B17" s="320"/>
       <c r="C17" s="320" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D17" s="320"/>
       <c r="E17" s="320"/>
@@ -27109,7 +27104,7 @@
       <c r="S17" s="159"/>
       <c r="T17" s="323"/>
       <c r="U17" s="324" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="V17" s="159"/>
       <c r="W17" s="159"/>
@@ -27137,7 +27132,7 @@
       <c r="A18" s="147"/>
       <c r="B18" s="320"/>
       <c r="C18" s="320" t="s">
-        <v>237</v>
+        <v>595</v>
       </c>
       <c r="D18" s="320"/>
       <c r="E18" s="320"/>
@@ -27157,7 +27152,7 @@
       <c r="S18" s="159"/>
       <c r="T18" s="323"/>
       <c r="U18" s="324" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="V18" s="159"/>
       <c r="W18" s="159"/>
@@ -27184,7 +27179,9 @@
     <row r="19" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="147"/>
       <c r="B19" s="320"/>
-      <c r="C19" s="320"/>
+      <c r="C19" s="320" t="s">
+        <v>531</v>
+      </c>
       <c r="D19" s="320"/>
       <c r="E19" s="320"/>
       <c r="F19" s="320"/>
@@ -27203,7 +27200,7 @@
       <c r="S19" s="159"/>
       <c r="T19" s="159"/>
       <c r="U19" s="324" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="V19" s="159"/>
       <c r="W19" s="159"/>
@@ -27229,9 +27226,7 @@
     </row>
     <row r="20" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="147"/>
-      <c r="B20" s="320" t="s">
-        <v>233</v>
-      </c>
+      <c r="B20" s="320"/>
       <c r="C20" s="320"/>
       <c r="D20" s="320"/>
       <c r="E20" s="320"/>
@@ -27251,7 +27246,7 @@
       <c r="S20" s="159"/>
       <c r="T20" s="159"/>
       <c r="U20" s="324" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="V20" s="159"/>
       <c r="W20" s="159"/>
@@ -27278,10 +27273,10 @@
     </row>
     <row r="21" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="147"/>
-      <c r="B21" s="320"/>
-      <c r="C21" s="320" t="s">
-        <v>384</v>
-      </c>
+      <c r="B21" s="320" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="320"/>
       <c r="D21" s="320"/>
       <c r="E21" s="320"/>
       <c r="F21" s="320"/>
@@ -27300,7 +27295,7 @@
       <c r="S21" s="159"/>
       <c r="T21" s="159"/>
       <c r="U21" s="324" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="V21" s="159"/>
       <c r="W21" s="159"/>
@@ -27328,7 +27323,7 @@
       <c r="A22" s="147"/>
       <c r="B22" s="320"/>
       <c r="C22" s="320" t="s">
-        <v>235</v>
+        <v>382</v>
       </c>
       <c r="D22" s="320"/>
       <c r="E22" s="320"/>
@@ -27373,7 +27368,9 @@
     <row r="23" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="147"/>
       <c r="B23" s="320"/>
-      <c r="C23" s="320"/>
+      <c r="C23" s="320" t="s">
+        <v>235</v>
+      </c>
       <c r="D23" s="320"/>
       <c r="E23" s="320"/>
       <c r="F23" s="320"/>
@@ -29829,7 +29826,7 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.15">
       <c r="D8" s="34" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.15">
@@ -29966,7 +29963,7 @@
   </sheetPr>
   <dimension ref="A1:AW107"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -30153,7 +30150,7 @@
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.15">
       <c r="D7" s="123" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.15">
@@ -30162,7 +30159,7 @@
     <row r="9" spans="1:42" s="138" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D9" s="111"/>
       <c r="E9" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:42" s="138" customFormat="1" x14ac:dyDescent="0.15">
@@ -30171,14 +30168,14 @@
     <row r="11" spans="1:42" s="138" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D11" s="111"/>
       <c r="F11" s="101" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G11" s="136"/>
       <c r="H11" s="136"/>
       <c r="I11" s="136"/>
       <c r="J11" s="135"/>
       <c r="K11" s="128" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L11" s="126"/>
       <c r="M11" s="126"/>
@@ -30205,14 +30202,14 @@
     <row r="12" spans="1:42" s="138" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D12" s="111"/>
       <c r="F12" s="101" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G12" s="136"/>
       <c r="H12" s="136"/>
       <c r="I12" s="136"/>
       <c r="J12" s="135"/>
       <c r="K12" s="128" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L12" s="126"/>
       <c r="M12" s="126"/>
@@ -30242,7 +30239,7 @@
     <row r="14" spans="1:42" s="138" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D14" s="111"/>
       <c r="E14" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.15">
@@ -30254,7 +30251,7 @@
     </row>
     <row r="17" spans="4:35" s="73" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D17" s="34" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
@@ -30289,7 +30286,7 @@
     </row>
     <row r="19" spans="4:35" s="73" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E19" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G19" s="72"/>
       <c r="T19" s="79"/>
@@ -30355,7 +30352,7 @@
       <c r="Q21" s="102"/>
       <c r="R21" s="103"/>
       <c r="S21" s="101" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T21" s="102"/>
       <c r="U21" s="102"/>
@@ -30377,26 +30374,26 @@
     <row r="22" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D22" s="138"/>
       <c r="F22" s="341" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G22" s="133"/>
       <c r="H22" s="133"/>
       <c r="I22" s="134"/>
       <c r="J22" s="327" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K22" s="114"/>
       <c r="L22" s="114"/>
       <c r="M22" s="114"/>
       <c r="N22" s="115"/>
       <c r="O22" s="128" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="P22" s="126"/>
       <c r="Q22" s="126"/>
       <c r="R22" s="127"/>
       <c r="S22" s="129" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T22" s="126"/>
       <c r="U22" s="126"/>
@@ -30424,7 +30421,7 @@
       <c r="H23" s="130"/>
       <c r="I23" s="131"/>
       <c r="J23" s="179" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K23" s="180"/>
       <c r="L23" s="180"/>
@@ -30624,28 +30621,28 @@
     </row>
     <row r="30" spans="4:35" s="79" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F30" s="81" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G30" s="78"/>
     </row>
     <row r="31" spans="4:35" s="79" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F31" s="62"/>
       <c r="G31" s="81" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="4:35" s="91" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D32" s="87"/>
       <c r="E32" s="34"/>
       <c r="G32" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="3:49" s="79" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D33" s="78"/>
       <c r="E33" s="34"/>
       <c r="G33" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="3:49" x14ac:dyDescent="0.15">
@@ -30776,7 +30773,7 @@
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -30931,13 +30928,13 @@
       <c r="H41" s="108"/>
       <c r="I41" s="109"/>
       <c r="J41" s="171" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K41" s="108"/>
       <c r="L41" s="108"/>
       <c r="M41" s="109"/>
       <c r="N41" s="137" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O41" s="172"/>
       <c r="P41" s="172"/>
@@ -30985,7 +30982,7 @@
       <c r="L42" s="111"/>
       <c r="M42" s="112"/>
       <c r="N42" s="174" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O42" s="42"/>
       <c r="P42" s="42"/>
@@ -31083,7 +31080,7 @@
       <c r="L44" s="108"/>
       <c r="M44" s="109"/>
       <c r="N44" s="137" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O44" s="172"/>
       <c r="P44" s="172"/>
@@ -31131,7 +31128,7 @@
       <c r="L45" s="111"/>
       <c r="M45" s="112"/>
       <c r="N45" s="132" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O45" s="133"/>
       <c r="P45" s="133"/>
@@ -31179,7 +31176,7 @@
       <c r="L46" s="119"/>
       <c r="M46" s="120"/>
       <c r="N46" s="118" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O46" s="119"/>
       <c r="P46" s="119"/>
@@ -31225,13 +31222,13 @@
       <c r="H47" s="121"/>
       <c r="I47" s="122"/>
       <c r="J47" s="107" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K47" s="121"/>
       <c r="L47" s="121"/>
       <c r="M47" s="122"/>
       <c r="N47" s="137" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O47" s="172"/>
       <c r="P47" s="172"/>
@@ -31279,7 +31276,7 @@
       <c r="L48" s="123"/>
       <c r="M48" s="124"/>
       <c r="N48" s="132" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O48" s="133"/>
       <c r="P48" s="133"/>
@@ -31327,7 +31324,7 @@
       <c r="L49" s="123"/>
       <c r="M49" s="124"/>
       <c r="N49" s="118" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O49" s="119"/>
       <c r="P49" s="119"/>
@@ -31379,7 +31376,7 @@
       <c r="L50" s="125"/>
       <c r="M50" s="109"/>
       <c r="N50" s="137" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O50" s="172"/>
       <c r="P50" s="172"/>
@@ -31427,7 +31424,7 @@
       <c r="L51" s="111"/>
       <c r="M51" s="112"/>
       <c r="N51" s="132" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O51" s="133"/>
       <c r="P51" s="133"/>
@@ -31475,7 +31472,7 @@
       <c r="L52" s="111"/>
       <c r="M52" s="112"/>
       <c r="N52" s="132" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O52" s="133"/>
       <c r="P52" s="133"/>
@@ -31523,7 +31520,7 @@
       <c r="L53" s="119"/>
       <c r="M53" s="120"/>
       <c r="N53" s="118" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O53" s="119"/>
       <c r="P53" s="119"/>
@@ -31655,7 +31652,7 @@
     <row r="56" spans="3:49" s="79" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C56" s="17"/>
       <c r="D56" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="43"/>
@@ -31802,7 +31799,7 @@
       <c r="D59" s="17"/>
       <c r="E59" s="43"/>
       <c r="F59" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G59" s="43"/>
       <c r="H59" s="43"/>
@@ -31952,18 +31949,18 @@
       <c r="E62" s="17"/>
       <c r="F62" s="32"/>
       <c r="G62" s="527" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H62" s="528"/>
       <c r="I62" s="528"/>
       <c r="J62" s="529"/>
       <c r="K62" s="527" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L62" s="528"/>
       <c r="M62" s="529"/>
       <c r="N62" s="137" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O62" s="172"/>
       <c r="P62" s="172"/>
@@ -32012,7 +32009,7 @@
       <c r="L63" s="531"/>
       <c r="M63" s="532"/>
       <c r="N63" s="174" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O63" s="42"/>
       <c r="P63" s="42"/>
@@ -32061,7 +32058,7 @@
       <c r="L64" s="531"/>
       <c r="M64" s="532"/>
       <c r="N64" s="174" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O64" s="42"/>
       <c r="P64" s="42"/>
@@ -32110,7 +32107,7 @@
       <c r="L65" s="531"/>
       <c r="M65" s="532"/>
       <c r="N65" s="174" t="s">
-        <v>272</v>
+        <v>596</v>
       </c>
       <c r="O65" s="42"/>
       <c r="P65" s="42"/>
@@ -32199,18 +32196,18 @@
       <c r="E67" s="15"/>
       <c r="F67" s="33"/>
       <c r="G67" s="537" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H67" s="538"/>
       <c r="I67" s="538"/>
       <c r="J67" s="539"/>
       <c r="K67" s="527" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="L67" s="528"/>
       <c r="M67" s="529"/>
       <c r="N67" s="291" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O67" s="172"/>
       <c r="P67" s="172"/>
@@ -32258,7 +32255,7 @@
       <c r="L68" s="531"/>
       <c r="M68" s="532"/>
       <c r="N68" s="174" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="O68" s="42"/>
       <c r="P68" s="42"/>
@@ -32306,7 +32303,7 @@
       <c r="L69" s="531"/>
       <c r="M69" s="532"/>
       <c r="N69" s="174" t="s">
-        <v>272</v>
+        <v>596</v>
       </c>
       <c r="O69" s="42"/>
       <c r="P69" s="42"/>
@@ -32510,7 +32507,7 @@
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
@@ -32547,7 +32544,7 @@
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
       <c r="F75" s="33" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
@@ -32584,7 +32581,7 @@
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
       <c r="F76" s="33" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
@@ -32655,12 +32652,12 @@
     </row>
     <row r="80" spans="3:49" x14ac:dyDescent="0.15">
       <c r="D80" s="32" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="81" spans="4:34" x14ac:dyDescent="0.15">
       <c r="E81" s="123" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F81" s="123"/>
       <c r="G81" s="123"/>
@@ -32727,7 +32724,7 @@
     <row r="83" spans="4:34" x14ac:dyDescent="0.15">
       <c r="E83" s="123"/>
       <c r="F83" s="123" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G83" s="123"/>
       <c r="H83" s="123"/>
@@ -32794,7 +32791,7 @@
       <c r="E85" s="17"/>
       <c r="F85" s="123"/>
       <c r="G85" s="518" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H85" s="519"/>
       <c r="I85" s="519"/>
@@ -32832,18 +32829,18 @@
       <c r="E86" s="15"/>
       <c r="F86" s="33"/>
       <c r="G86" s="327" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H86" s="328"/>
       <c r="I86" s="328"/>
       <c r="J86" s="329"/>
       <c r="K86" s="327" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L86" s="328"/>
       <c r="M86" s="329"/>
       <c r="N86" s="291" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="O86" s="292"/>
       <c r="P86" s="292"/>
@@ -32877,7 +32874,7 @@
       <c r="L87" s="331"/>
       <c r="M87" s="332"/>
       <c r="N87" s="176" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O87" s="177"/>
       <c r="P87" s="177"/>
@@ -32902,7 +32899,7 @@
     </row>
     <row r="89" spans="4:34" x14ac:dyDescent="0.15">
       <c r="E89" s="33" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
@@ -32957,7 +32954,7 @@
     <row r="91" spans="4:34" x14ac:dyDescent="0.15">
       <c r="E91" s="15"/>
       <c r="F91" s="33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G91" s="15"/>
       <c r="H91" s="15"/>
@@ -33036,7 +33033,7 @@
     </row>
     <row r="94" spans="4:34" x14ac:dyDescent="0.15">
       <c r="D94" s="32" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E94" s="15"/>
       <c r="F94" s="33"/>
@@ -33065,7 +33062,7 @@
     </row>
     <row r="95" spans="4:34" x14ac:dyDescent="0.15">
       <c r="E95" s="123" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="96" spans="4:34" x14ac:dyDescent="0.15">
@@ -33074,7 +33071,7 @@
     <row r="97" spans="5:34" x14ac:dyDescent="0.15">
       <c r="E97" s="123"/>
       <c r="F97" s="123" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="98" spans="5:34" x14ac:dyDescent="0.15">
@@ -33120,18 +33117,18 @@
     <row r="100" spans="5:34" x14ac:dyDescent="0.15">
       <c r="E100" s="15"/>
       <c r="G100" s="372" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H100" s="373"/>
       <c r="I100" s="373"/>
       <c r="J100" s="374"/>
       <c r="K100" s="372" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L100" s="373"/>
       <c r="M100" s="374"/>
       <c r="N100" s="291" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="O100" s="292"/>
       <c r="P100" s="292"/>
@@ -33164,7 +33161,7 @@
       <c r="L101" s="375"/>
       <c r="M101" s="376"/>
       <c r="N101" s="174" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="O101" s="42"/>
       <c r="P101" s="42"/>
@@ -33197,7 +33194,7 @@
       <c r="L102" s="375"/>
       <c r="M102" s="376"/>
       <c r="N102" s="174" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="O102" s="42"/>
       <c r="P102" s="42"/>
@@ -33256,12 +33253,12 @@
     </row>
     <row r="105" spans="5:34" x14ac:dyDescent="0.15">
       <c r="E105" s="33" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="107" spans="5:34" x14ac:dyDescent="0.15">
       <c r="F107" s="33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -33505,7 +33502,7 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.15">
       <c r="C8" s="34" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:42" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -33513,13 +33510,13 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.15">
       <c r="C10" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:42" s="77" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:42" x14ac:dyDescent="0.15">
       <c r="D12" s="34" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.15">
@@ -33580,7 +33577,7 @@
       <c r="R15" s="205"/>
       <c r="S15" s="206"/>
       <c r="T15" s="198" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="U15" s="205"/>
       <c r="V15" s="205"/>
@@ -33618,7 +33615,7 @@
       <c r="R16" s="205"/>
       <c r="S16" s="206"/>
       <c r="T16" s="198" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="U16" s="205"/>
       <c r="V16" s="205"/>
@@ -33636,7 +33633,7 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="E17" s="186" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F17" s="212"/>
       <c r="G17" s="212"/>
@@ -33644,7 +33641,7 @@
       <c r="I17" s="212"/>
       <c r="J17" s="200"/>
       <c r="K17" s="198" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L17" s="205"/>
       <c r="M17" s="205"/>
@@ -33655,7 +33652,7 @@
       <c r="R17" s="205"/>
       <c r="S17" s="206"/>
       <c r="T17" s="198" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="U17" s="205"/>
       <c r="V17" s="205"/>
@@ -33679,7 +33676,7 @@
       <c r="I18" s="202"/>
       <c r="J18" s="203"/>
       <c r="K18" s="198" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L18" s="205"/>
       <c r="M18" s="205"/>
@@ -33690,7 +33687,7 @@
       <c r="R18" s="205"/>
       <c r="S18" s="206"/>
       <c r="T18" s="198" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="U18" s="205"/>
       <c r="V18" s="205"/>
@@ -33752,7 +33749,7 @@
       <c r="I20" s="190"/>
       <c r="J20" s="191"/>
       <c r="K20" s="186" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L20" s="212"/>
       <c r="M20" s="212"/>
@@ -33763,7 +33760,7 @@
       <c r="R20" s="212"/>
       <c r="S20" s="200"/>
       <c r="T20" s="186" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="U20" s="199"/>
       <c r="V20" s="199"/>
@@ -33797,7 +33794,7 @@
       <c r="R21" s="202"/>
       <c r="S21" s="203"/>
       <c r="T21" s="195" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="U21" s="196"/>
       <c r="V21" s="196"/>
@@ -33847,12 +33844,12 @@
     </row>
     <row r="23" spans="1:33" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D23" s="34" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:33" s="213" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D24" s="34" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="T24" s="34"/>
     </row>
@@ -33887,7 +33884,7 @@
     <row r="36" spans="3:5" s="100" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C38" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="3:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -33896,7 +33893,7 @@
     <row r="40" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C40" s="53"/>
       <c r="D40" s="43" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.15">
@@ -33987,7 +33984,7 @@
       <c r="J55" s="232"/>
       <c r="K55" s="218"/>
       <c r="L55" s="217" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M55" s="235"/>
       <c r="N55" s="235"/>
@@ -34018,7 +34015,7 @@
       <c r="J56" s="223"/>
       <c r="K56" s="224"/>
       <c r="L56" s="222" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M56" s="223"/>
       <c r="N56" s="223"/>
@@ -34049,7 +34046,7 @@
       <c r="J57" s="226"/>
       <c r="K57" s="227"/>
       <c r="L57" s="225" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M57" s="226"/>
       <c r="N57" s="226"/>
@@ -34079,7 +34076,7 @@
     <row r="60" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C60" s="53"/>
       <c r="E60" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F60" s="34"/>
     </row>
@@ -34100,7 +34097,7 @@
       <c r="E63" s="34"/>
       <c r="F63" s="34"/>
       <c r="G63" s="34" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" spans="3:29" x14ac:dyDescent="0.15">
@@ -34108,7 +34105,7 @@
       <c r="E64" s="34"/>
       <c r="F64" s="34"/>
       <c r="G64" s="34" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="65" spans="3:7" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -34126,13 +34123,13 @@
     <row r="67" spans="3:7" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C67" s="53"/>
       <c r="G67" s="42" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="68" spans="3:7" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C68" s="53"/>
       <c r="G68" s="34" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.15">
@@ -34155,13 +34152,13 @@
     <row r="72" spans="3:7" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C72" s="53"/>
       <c r="G72" s="34" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="73" spans="3:7" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C73" s="53"/>
       <c r="G73" s="34" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.15">
@@ -34177,13 +34174,13 @@
     <row r="76" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C76" s="53"/>
       <c r="G76" s="34" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="77" spans="3:7" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C77" s="53"/>
       <c r="G77" s="34" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.15">
@@ -34195,19 +34192,19 @@
     <row r="80" spans="3:7" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C80" s="53"/>
       <c r="D80" s="34" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="81" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C81" s="53"/>
       <c r="E81" s="34" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="82" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C82" s="53"/>
       <c r="E82" s="34" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="83" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34216,7 +34213,7 @@
     <row r="84" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C84" s="53"/>
       <c r="E84" s="34" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="85" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34246,7 +34243,7 @@
     <row r="93" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C93" s="53"/>
       <c r="N93" s="34" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="94" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34286,7 +34283,7 @@
     <row r="96" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C96" s="53"/>
       <c r="F96" s="387" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G96" s="388"/>
       <c r="H96" s="388"/>
@@ -34294,7 +34291,7 @@
       <c r="J96" s="388"/>
       <c r="K96" s="389"/>
       <c r="L96" s="387" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M96" s="388"/>
       <c r="N96" s="388"/>
@@ -34317,7 +34314,7 @@
     <row r="97" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C97" s="53"/>
       <c r="F97" s="387" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G97" s="388"/>
       <c r="H97" s="388"/>
@@ -34325,7 +34322,7 @@
       <c r="J97" s="388"/>
       <c r="K97" s="389"/>
       <c r="L97" s="387" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="M97" s="388"/>
       <c r="N97" s="388"/>
@@ -34348,7 +34345,7 @@
     <row r="98" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C98" s="53"/>
       <c r="F98" s="384" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G98" s="385"/>
       <c r="H98" s="385"/>
@@ -34356,7 +34353,7 @@
       <c r="J98" s="385"/>
       <c r="K98" s="386"/>
       <c r="L98" s="384" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="M98" s="385"/>
       <c r="N98" s="385"/>
@@ -34382,7 +34379,7 @@
     <row r="100" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C100" s="53"/>
       <c r="F100" s="34" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="101" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34394,7 +34391,7 @@
     <row r="103" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C103" s="53"/>
       <c r="E103" s="34" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F103" s="34"/>
     </row>
@@ -34407,13 +34404,13 @@
     <row r="105" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C105" s="53"/>
       <c r="F105" s="34" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="106" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C106" s="53"/>
       <c r="G106" s="34" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="107" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34423,20 +34420,20 @@
     <row r="108" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C108" s="53"/>
       <c r="F108" s="34" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="G108" s="42"/>
     </row>
     <row r="109" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C109" s="53"/>
       <c r="G109" s="34" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="110" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C110" s="53"/>
       <c r="G110" s="34" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34446,20 +34443,20 @@
     <row r="112" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C112" s="53"/>
       <c r="F112" s="34" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="113" spans="3:40" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C113" s="53"/>
       <c r="F113" s="34"/>
       <c r="G113" s="34" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="114" spans="3:40" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C114" s="53"/>
       <c r="G114" s="34" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="115" spans="3:40" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34471,13 +34468,13 @@
     <row r="117" spans="3:40" x14ac:dyDescent="0.15">
       <c r="C117" s="53"/>
       <c r="D117" s="34" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="118" spans="3:40" x14ac:dyDescent="0.15">
       <c r="C118" s="53"/>
       <c r="E118" s="34" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="119" spans="3:40" x14ac:dyDescent="0.15">
@@ -34640,7 +34637,7 @@
     <row r="133" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C133" s="53"/>
       <c r="D133" s="43" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="134" spans="3:29" x14ac:dyDescent="0.15">
@@ -34727,7 +34724,7 @@
       <c r="J147" s="356"/>
       <c r="K147" s="357"/>
       <c r="L147" s="355" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M147" s="356"/>
       <c r="N147" s="356"/>
@@ -34750,7 +34747,7 @@
     <row r="148" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C148" s="53"/>
       <c r="F148" s="225" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G148" s="226"/>
       <c r="H148" s="226"/>
@@ -34758,7 +34755,7 @@
       <c r="J148" s="226"/>
       <c r="K148" s="227"/>
       <c r="L148" s="225" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M148" s="226"/>
       <c r="N148" s="226"/>
@@ -34781,7 +34778,7 @@
     <row r="149" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C149" s="53"/>
       <c r="F149" s="225" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G149" s="226"/>
       <c r="H149" s="226"/>
@@ -34789,7 +34786,7 @@
       <c r="J149" s="226"/>
       <c r="K149" s="227"/>
       <c r="L149" s="225" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M149" s="226"/>
       <c r="N149" s="226"/>
@@ -34812,7 +34809,7 @@
     <row r="150" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C150" s="53"/>
       <c r="F150" s="355" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G150" s="356"/>
       <c r="H150" s="356"/>
@@ -34820,7 +34817,7 @@
       <c r="J150" s="356"/>
       <c r="K150" s="357"/>
       <c r="L150" s="355" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M150" s="356"/>
       <c r="N150" s="356"/>
@@ -34851,7 +34848,7 @@
     <row r="153" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C153" s="53"/>
       <c r="E153" s="34" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F153" s="34"/>
     </row>
@@ -34864,7 +34861,7 @@
       <c r="C155" s="53"/>
       <c r="E155" s="34"/>
       <c r="F155" s="34" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="156" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34872,7 +34869,7 @@
       <c r="E156" s="34"/>
       <c r="F156" s="34"/>
       <c r="G156" s="34" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="157" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -34883,7 +34880,7 @@
     <row r="158" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C158" s="53"/>
       <c r="F158" s="34" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="159" spans="3:29" x14ac:dyDescent="0.15">
@@ -34895,13 +34892,13 @@
     <row r="160" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C160" s="53"/>
       <c r="G160" s="34" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="161" spans="3:21" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C161" s="53"/>
       <c r="G161" s="34" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="162" spans="3:21" x14ac:dyDescent="0.15">
@@ -34913,7 +34910,7 @@
     <row r="164" spans="3:21" x14ac:dyDescent="0.15">
       <c r="C164" s="53"/>
       <c r="D164" s="43" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="165" spans="3:21" x14ac:dyDescent="0.15">
@@ -35001,7 +34998,7 @@
       <c r="J178" s="223"/>
       <c r="K178" s="224"/>
       <c r="L178" s="222" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M178" s="223"/>
       <c r="N178" s="223"/>
@@ -35024,7 +35021,7 @@
     <row r="179" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C179" s="53"/>
       <c r="F179" s="222" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G179" s="223"/>
       <c r="H179" s="223"/>
@@ -35032,7 +35029,7 @@
       <c r="J179" s="223"/>
       <c r="K179" s="224"/>
       <c r="L179" s="222" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M179" s="223"/>
       <c r="N179" s="223"/>
@@ -35055,7 +35052,7 @@
     <row r="180" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C180" s="53"/>
       <c r="F180" s="225" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G180" s="226"/>
       <c r="H180" s="226"/>
@@ -35086,7 +35083,7 @@
     <row r="181" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C181" s="53"/>
       <c r="F181" s="225" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G181" s="226"/>
       <c r="H181" s="226"/>
@@ -35094,7 +35091,7 @@
       <c r="J181" s="226"/>
       <c r="K181" s="227"/>
       <c r="L181" s="225" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M181" s="226"/>
       <c r="N181" s="226"/>
@@ -35124,7 +35121,7 @@
     <row r="184" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C184" s="53"/>
       <c r="E184" s="34" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F184" s="34"/>
     </row>
@@ -35153,7 +35150,7 @@
       <c r="E188" s="34"/>
       <c r="F188" s="34"/>
       <c r="G188" s="34" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="189" spans="3:29" x14ac:dyDescent="0.15">
@@ -35161,7 +35158,7 @@
       <c r="E189" s="34"/>
       <c r="F189" s="34"/>
       <c r="G189" s="34" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="190" spans="3:29" x14ac:dyDescent="0.15">
@@ -35179,7 +35176,7 @@
     <row r="192" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C192" s="53"/>
       <c r="G192" s="34" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="193" spans="3:7" x14ac:dyDescent="0.15">
@@ -35189,7 +35186,7 @@
     <row r="194" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C194" s="53"/>
       <c r="F194" s="34" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G194" s="34"/>
     </row>
@@ -35202,7 +35199,7 @@
     <row r="196" spans="3:7" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C196" s="53"/>
       <c r="G196" s="34" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="197" spans="3:7" x14ac:dyDescent="0.15">
@@ -35214,13 +35211,13 @@
     <row r="198" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C198" s="53"/>
       <c r="G198" s="34" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="199" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C199" s="53"/>
       <c r="G199" s="34" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="200" spans="3:7" x14ac:dyDescent="0.15">
@@ -35230,14 +35227,14 @@
     <row r="201" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C201" s="53"/>
       <c r="F201" s="34" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="202" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C202" s="53"/>
       <c r="F202" s="34"/>
       <c r="G202" s="34" t="s">
-        <v>492</v>
+        <v>597</v>
       </c>
     </row>
     <row r="203" spans="3:7" x14ac:dyDescent="0.15">
@@ -35248,7 +35245,7 @@
     <row r="204" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C204" s="53"/>
       <c r="F204" s="34" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="205" spans="3:7" x14ac:dyDescent="0.15">
@@ -35266,14 +35263,14 @@
     <row r="208" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C208" s="53"/>
       <c r="D208" s="43" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="209" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C209" s="53"/>
       <c r="D209" s="43"/>
       <c r="E209" s="34" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="210" spans="3:29" x14ac:dyDescent="0.15">
@@ -35377,7 +35374,7 @@
       <c r="J221" s="223"/>
       <c r="K221" s="224"/>
       <c r="L221" s="228" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M221" s="229"/>
       <c r="N221" s="229"/>
@@ -35407,7 +35404,7 @@
     <row r="224" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C224" s="53"/>
       <c r="E224" s="34" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F224" s="34"/>
     </row>
@@ -35426,13 +35423,13 @@
     <row r="227" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C227" s="53"/>
       <c r="G227" s="34" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="228" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C228" s="53"/>
       <c r="G228" s="34" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="229" spans="3:7" x14ac:dyDescent="0.15">
@@ -35441,13 +35438,13 @@
     <row r="230" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C230" s="53"/>
       <c r="D230" s="34" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="231" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C231" s="53"/>
       <c r="E231" s="34" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="232" spans="3:7" x14ac:dyDescent="0.15">
@@ -35535,7 +35532,7 @@
       <c r="J243" s="223"/>
       <c r="K243" s="224"/>
       <c r="L243" s="222" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M243" s="223"/>
       <c r="N243" s="223"/>
@@ -35557,7 +35554,7 @@
     </row>
     <row r="246" spans="3:29" x14ac:dyDescent="0.15">
       <c r="E246" s="34" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="248" spans="3:29" x14ac:dyDescent="0.15">
@@ -35582,7 +35579,7 @@
     <row r="252" spans="3:29" s="94" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F252" s="47"/>
       <c r="G252" s="34" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="253" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -35593,21 +35590,21 @@
     </row>
     <row r="255" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C255" s="34" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G255" s="34"/>
     </row>
     <row r="256" spans="3:29" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C256" s="34"/>
       <c r="D256" s="34" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G256" s="34"/>
     </row>
     <row r="257" spans="3:7" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C257" s="34"/>
       <c r="D257" s="34" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G257" s="34"/>
     </row>
@@ -35618,7 +35615,7 @@
     <row r="259" spans="3:7" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C259" s="34"/>
       <c r="D259" s="34" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G259" s="34"/>
     </row>
@@ -35662,7 +35659,7 @@
     </row>
     <row r="272" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C272" s="36" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="273" spans="4:5" x14ac:dyDescent="0.15">
@@ -35670,7 +35667,7 @@
     </row>
     <row r="274" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D274" s="34" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="275" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -35678,17 +35675,17 @@
     </row>
     <row r="276" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D276" s="34" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="277" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D277" s="34" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="278" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D278" s="34" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="279" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -35696,25 +35693,25 @@
     </row>
     <row r="280" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D280" s="366" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="281" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D281" s="34"/>
       <c r="E281" s="34" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="282" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D282" s="34"/>
       <c r="E282" s="34" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="283" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D283" s="34"/>
       <c r="E283" s="34" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="284" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -35752,19 +35749,19 @@
     </row>
     <row r="295" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D295" s="366" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="296" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D296" s="34"/>
       <c r="E296" s="34" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="297" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D297" s="34"/>
       <c r="E297" s="34" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="298" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -35812,19 +35809,19 @@
     </row>
     <row r="309" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D309" s="366" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="310" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D310" s="34"/>
       <c r="E310" s="34" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="311" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D311" s="34"/>
       <c r="E311" s="34" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="312" spans="4:5" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -35856,7 +35853,7 @@
     </row>
     <row r="321" spans="4:37" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D321" s="34" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="322" spans="4:37" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -35864,7 +35861,7 @@
     </row>
     <row r="323" spans="4:37" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E323" s="358" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F323" s="359"/>
       <c r="G323" s="359"/>
@@ -35873,7 +35870,7 @@
       <c r="J323" s="359"/>
       <c r="K323" s="359"/>
       <c r="L323" s="358" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M323" s="359"/>
       <c r="N323" s="359"/>
@@ -35900,7 +35897,7 @@
     </row>
     <row r="324" spans="4:37" s="77" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E324" s="363" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F324" s="362"/>
       <c r="G324" s="362"/>
@@ -35909,7 +35906,7 @@
       <c r="J324" s="362"/>
       <c r="K324" s="362"/>
       <c r="L324" s="363" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="M324" s="362"/>
       <c r="N324" s="362"/>
@@ -35936,7 +35933,7 @@
     </row>
     <row r="325" spans="4:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E325" s="363" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F325" s="362"/>
       <c r="G325" s="362"/>
@@ -35972,7 +35969,7 @@
     </row>
     <row r="326" spans="4:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E326" s="363" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F326" s="362"/>
       <c r="G326" s="362"/>
@@ -35981,7 +35978,7 @@
       <c r="J326" s="362"/>
       <c r="K326" s="362"/>
       <c r="L326" s="363" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M326" s="362"/>
       <c r="N326" s="362"/>
@@ -36010,12 +36007,12 @@
     <row r="327" spans="4:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="328" spans="4:37" x14ac:dyDescent="0.15">
       <c r="E328" s="34" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="329" spans="4:37" x14ac:dyDescent="0.15">
       <c r="E329" s="34" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="331" spans="4:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -36260,7 +36257,7 @@
     <row r="8" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A8" s="36"/>
       <c r="C8" s="34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:35" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -36268,7 +36265,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C10" s="36" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.15">
@@ -36282,7 +36279,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="E13" s="34" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.15">
@@ -36333,7 +36330,7 @@
       </c>
       <c r="G16" s="255"/>
       <c r="H16" s="238" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I16" s="254"/>
       <c r="J16" s="254"/>
@@ -36345,7 +36342,7 @@
       <c r="N16" s="294"/>
       <c r="O16" s="295"/>
       <c r="P16" s="265" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="292"/>
       <c r="R16" s="292"/>
@@ -36431,19 +36428,19 @@
       </c>
       <c r="G19" s="255"/>
       <c r="H19" s="238" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I19" s="254"/>
       <c r="J19" s="254"/>
       <c r="K19" s="255"/>
       <c r="L19" s="171" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M19" s="296"/>
       <c r="N19" s="296"/>
       <c r="O19" s="297"/>
       <c r="P19" s="333" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="Q19" s="239"/>
       <c r="R19" s="239"/>
@@ -36530,19 +36527,19 @@
       <c r="F22" s="333"/>
       <c r="G22" s="124"/>
       <c r="H22" s="327" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I22" s="80"/>
       <c r="J22" s="80"/>
       <c r="K22" s="342"/>
       <c r="L22" s="353" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M22" s="80"/>
       <c r="N22" s="80"/>
       <c r="O22" s="342"/>
       <c r="P22" s="327" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q22" s="80"/>
       <c r="R22" s="80"/>
@@ -36627,19 +36624,19 @@
       <c r="F25" s="333"/>
       <c r="G25" s="124"/>
       <c r="H25" s="327" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I25" s="284"/>
       <c r="J25" s="284"/>
       <c r="K25" s="337"/>
       <c r="L25" s="354" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M25" s="284"/>
       <c r="N25" s="284"/>
       <c r="O25" s="337"/>
       <c r="P25" s="352" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="Q25" s="284"/>
       <c r="R25" s="284"/>
@@ -36723,19 +36720,19 @@
       <c r="F28" s="333"/>
       <c r="G28" s="124"/>
       <c r="H28" s="327" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I28" s="284"/>
       <c r="J28" s="284"/>
       <c r="K28" s="337"/>
       <c r="L28" s="354" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M28" s="284"/>
       <c r="N28" s="284"/>
       <c r="O28" s="337"/>
       <c r="P28" s="352" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="Q28" s="284"/>
       <c r="R28" s="284"/>
@@ -36819,19 +36816,19 @@
       <c r="F31" s="333"/>
       <c r="G31" s="124"/>
       <c r="H31" s="327" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I31" s="346"/>
       <c r="J31" s="346"/>
       <c r="K31" s="347"/>
       <c r="L31" s="171" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M31" s="296"/>
       <c r="N31" s="296"/>
       <c r="O31" s="297"/>
       <c r="P31" s="327" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Q31" s="328"/>
       <c r="R31" s="328"/>
@@ -36915,19 +36912,19 @@
       <c r="F34" s="241"/>
       <c r="G34" s="124"/>
       <c r="H34" s="238" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I34" s="254"/>
       <c r="J34" s="254"/>
       <c r="K34" s="255"/>
       <c r="L34" s="171" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M34" s="296"/>
       <c r="N34" s="296"/>
       <c r="O34" s="297"/>
       <c r="P34" s="238" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q34" s="239"/>
       <c r="R34" s="239"/>
@@ -37011,14 +37008,14 @@
     </row>
     <row r="37" spans="1:39" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F37" s="34" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:39" s="289" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="1:39" s="289" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="1:39" s="266" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E40" s="34" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.15">
@@ -37082,7 +37079,7 @@
       <c r="N43" s="296"/>
       <c r="O43" s="297"/>
       <c r="P43" s="265" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Q43" s="292"/>
       <c r="R43" s="292"/>
@@ -37259,7 +37256,7 @@
     </row>
     <row r="49" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" s="238" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G49" s="254"/>
       <c r="H49" s="254"/>
@@ -37359,7 +37356,7 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.15">
       <c r="D53" s="34" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.15">
@@ -37368,7 +37365,7 @@
     <row r="55" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A55" s="48"/>
       <c r="E55" s="34" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="X55" s="34"/>
     </row>
@@ -37389,13 +37386,13 @@
     <row r="59" spans="1:34" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E59" s="34"/>
       <c r="F59" s="34" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="60" spans="1:34" s="289" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E60" s="34"/>
       <c r="F60" s="34" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" spans="1:34" s="289" customFormat="1" x14ac:dyDescent="0.15">
@@ -37411,7 +37408,7 @@
     <row r="63" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A63" s="34"/>
       <c r="E63" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AA63" s="34"/>
       <c r="AE63" s="34"/>
@@ -37426,7 +37423,7 @@
       <c r="A65" s="34"/>
       <c r="E65" s="34"/>
       <c r="F65" s="34" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AD65" s="34"/>
       <c r="AE65" s="34"/>
@@ -37452,7 +37449,7 @@
       <c r="A69" s="34"/>
       <c r="E69" s="34"/>
       <c r="F69" s="34" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AE69" s="34"/>
     </row>
@@ -37476,7 +37473,7 @@
       <c r="A73" s="34"/>
       <c r="E73" s="34"/>
       <c r="F73" s="55" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G73" s="47"/>
       <c r="H73" s="47"/>
@@ -37491,7 +37488,7 @@
       <c r="A74" s="34"/>
       <c r="E74" s="34"/>
       <c r="F74" s="55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AE74" s="34"/>
     </row>
@@ -37684,7 +37681,7 @@
     </row>
     <row r="121" spans="3:57" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E121" s="34" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="122" spans="3:57" s="75" customFormat="1" x14ac:dyDescent="0.15">
@@ -37782,7 +37779,7 @@
       <c r="L124" s="199"/>
       <c r="M124" s="199"/>
       <c r="N124" s="394" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="O124" s="199"/>
       <c r="P124" s="199"/>
@@ -37922,7 +37919,7 @@
       <c r="L127" s="349"/>
       <c r="M127" s="349"/>
       <c r="N127" s="66" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="O127" s="307"/>
       <c r="P127" s="307"/>
@@ -37949,7 +37946,7 @@
         <v>3</v>
       </c>
       <c r="G128" s="403" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H128" s="404"/>
       <c r="I128" s="404"/>
@@ -37958,7 +37955,7 @@
       <c r="L128" s="199"/>
       <c r="M128" s="199"/>
       <c r="N128" s="309" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="O128" s="402"/>
       <c r="P128" s="402"/>
@@ -38015,7 +38012,7 @@
         <v>4</v>
       </c>
       <c r="G130" s="238" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H130" s="254"/>
       <c r="I130" s="254"/>
@@ -38024,7 +38021,7 @@
       <c r="L130" s="199"/>
       <c r="M130" s="199"/>
       <c r="N130" s="309" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="O130" s="402"/>
       <c r="P130" s="402"/>
@@ -38111,7 +38108,7 @@
       <c r="L132" s="123"/>
       <c r="M132" s="123"/>
       <c r="N132" s="394" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O132" s="199"/>
       <c r="P132" s="199"/>
@@ -38219,7 +38216,7 @@
       <c r="L134" s="199"/>
       <c r="M134" s="199"/>
       <c r="N134" s="394" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O134" s="199"/>
       <c r="P134" s="199"/>
@@ -38415,7 +38412,7 @@
     <row r="140" spans="1:57" x14ac:dyDescent="0.15">
       <c r="D140" s="34"/>
       <c r="E140" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="T140" s="34"/>
       <c r="AK140" s="266"/>
@@ -38529,7 +38526,7 @@
       <c r="L144" s="397"/>
       <c r="M144" s="398"/>
       <c r="N144" s="259" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="O144" s="260"/>
       <c r="P144" s="351"/>
@@ -38561,7 +38558,7 @@
       <c r="L145" s="397"/>
       <c r="M145" s="398"/>
       <c r="N145" s="259" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="O145" s="260"/>
       <c r="P145" s="351"/>
@@ -38574,7 +38571,7 @@
         <v>3</v>
       </c>
       <c r="G146" s="405" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H146" s="253"/>
       <c r="I146" s="253"/>
@@ -38583,7 +38580,7 @@
       <c r="L146" s="397"/>
       <c r="M146" s="398"/>
       <c r="N146" s="259" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O146" s="260"/>
       <c r="P146" s="351"/>
@@ -38605,7 +38602,7 @@
         <v>4</v>
       </c>
       <c r="G147" s="289" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H147" s="397"/>
       <c r="I147" s="397"/>
@@ -38614,7 +38611,7 @@
       <c r="L147" s="397"/>
       <c r="M147" s="398"/>
       <c r="N147" s="259" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O147" s="260"/>
       <c r="P147" s="401"/>
@@ -38645,7 +38642,7 @@
       <c r="L148" s="397"/>
       <c r="M148" s="398"/>
       <c r="N148" s="259" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O148" s="260"/>
       <c r="P148" s="401"/>
@@ -38666,7 +38663,7 @@
       <c r="L149" s="397"/>
       <c r="M149" s="398"/>
       <c r="N149" s="259" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="O149" s="260"/>
       <c r="P149" s="401"/>
@@ -38699,7 +38696,7 @@
     <row r="156" spans="4:32" s="71" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="157" spans="4:32" s="71" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F157" s="43" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G157" s="43"/>
       <c r="H157" s="43"/>
@@ -39183,13 +39180,13 @@
     </row>
     <row r="6" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="92" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:42" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="315"/>
       <c r="D7" s="54" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:42" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39200,14 +39197,14 @@
       <c r="A9" s="316"/>
       <c r="C9" s="315"/>
       <c r="E9" s="54" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:42" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="316"/>
       <c r="C10" s="315"/>
       <c r="E10" s="54" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:42" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39224,7 +39221,7 @@
       <c r="A13" s="316"/>
       <c r="C13" s="56"/>
       <c r="D13" s="34" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="S13" s="94"/>
     </row>
@@ -39236,21 +39233,21 @@
       <c r="A15" s="316"/>
       <c r="C15" s="56"/>
       <c r="E15" s="34" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="316"/>
       <c r="C16" s="56"/>
       <c r="E16" s="34" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="316"/>
       <c r="C17" s="56"/>
       <c r="E17" s="34" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39292,14 +39289,14 @@
       <c r="A24" s="316"/>
       <c r="C24" s="56"/>
       <c r="E24" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="316"/>
       <c r="C25" s="56"/>
       <c r="E25" s="34" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:52" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39334,7 +39331,7 @@
     <row r="30" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E31" s="34" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -39385,7 +39382,7 @@
     </row>
     <row r="37" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E37" s="84" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AQ37" s="83"/>
       <c r="AR37" s="83"/>
@@ -39399,7 +39396,7 @@
     </row>
     <row r="38" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E38" s="34" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AQ38" s="83"/>
       <c r="AR38" s="83"/>
@@ -39413,7 +39410,7 @@
     </row>
     <row r="39" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E39" s="123" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AQ39" s="83"/>
       <c r="AR39" s="83"/>
@@ -39427,7 +39424,7 @@
     </row>
     <row r="40" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E40" s="84" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AQ40" s="83"/>
       <c r="AR40" s="83"/>
@@ -39524,7 +39521,7 @@
     <row r="61" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="83"/>
       <c r="E61" s="34" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="62" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39533,7 +39530,7 @@
     <row r="63" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="64" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="92" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39549,7 +39546,7 @@
     <row r="67" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="86"/>
       <c r="E67" s="34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39579,14 +39576,14 @@
       <c r="C73" s="86"/>
       <c r="D73" s="34"/>
       <c r="E73" s="34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="86"/>
       <c r="D74" s="34"/>
       <c r="E74" s="34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="75" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39600,7 +39597,7 @@
       <c r="C76" s="86"/>
       <c r="D76" s="34"/>
       <c r="F76" s="55" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39624,7 +39621,7 @@
     <row r="81" spans="4:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="82" spans="4:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E82" s="34" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="83" spans="4:24" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39653,12 +39650,12 @@
     <row r="91" spans="4:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="92" spans="4:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E92" s="84" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="93" spans="4:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E93" s="34" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="94" spans="4:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -39677,7 +39674,7 @@
     </row>
     <row r="98" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E98" s="56" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="N98" s="83"/>
     </row>
@@ -39704,7 +39701,7 @@
     </row>
     <row r="104" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E104" s="34" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AQ104" s="83"/>
       <c r="AR104" s="83"/>
@@ -39719,7 +39716,7 @@
     </row>
     <row r="105" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E105" s="34" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="W105" s="58"/>
       <c r="AQ105" s="83"/>
@@ -39739,7 +39736,7 @@
     <row r="107" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="108" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C108" s="92" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="109" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39747,7 +39744,7 @@
     </row>
     <row r="110" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D110" s="34" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="111" spans="3:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -39763,7 +39760,7 @@
     <row r="115" spans="4:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D115" s="83"/>
       <c r="E115" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="4:5" s="99" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39821,7 +39818,7 @@
     <row r="135" spans="4:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="136" spans="4:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D136" s="123" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="137" spans="4:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39830,7 +39827,7 @@
     <row r="138" spans="4:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D138" s="83"/>
       <c r="E138" s="34" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="139" spans="4:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39848,7 +39845,7 @@
     <row r="146" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="147" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C147" s="92" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="148" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -39856,7 +39853,7 @@
     </row>
     <row r="149" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D149" s="34" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="150" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -39910,7 +39907,7 @@
       <c r="I152" s="486"/>
       <c r="J152" s="487"/>
       <c r="K152" s="571" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="L152" s="569"/>
       <c r="M152" s="569"/>
@@ -39949,7 +39946,7 @@
       <c r="I153" s="563"/>
       <c r="J153" s="564"/>
       <c r="K153" s="571" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L153" s="569"/>
       <c r="M153" s="569"/>
@@ -40027,7 +40024,7 @@
       <c r="I155" s="558"/>
       <c r="J155" s="559"/>
       <c r="K155" s="571" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="L155" s="569"/>
       <c r="M155" s="569"/>
@@ -40064,7 +40061,7 @@
       <c r="I156" s="558"/>
       <c r="J156" s="559"/>
       <c r="K156" s="572" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="L156" s="573"/>
       <c r="M156" s="573"/>
@@ -40101,7 +40098,7 @@
       <c r="I157" s="558"/>
       <c r="J157" s="559"/>
       <c r="K157" s="568" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="L157" s="569"/>
       <c r="M157" s="569"/>
@@ -40140,7 +40137,7 @@
       <c r="I158" s="558"/>
       <c r="J158" s="559"/>
       <c r="K158" s="568" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L158" s="569"/>
       <c r="M158" s="569"/>
@@ -40233,13 +40230,13 @@
     </row>
     <row r="161" spans="1:34" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C161" s="92" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="162" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="50"/>
       <c r="D162" s="34" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="163" spans="1:34" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -40250,14 +40247,14 @@
       <c r="A164" s="50"/>
       <c r="D164" s="34"/>
       <c r="E164" s="34" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="165" spans="1:34" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="50"/>
       <c r="D165" s="34"/>
       <c r="E165" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="166" spans="1:34" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -40267,7 +40264,7 @@
     <row r="167" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="50"/>
       <c r="E167" s="34" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="168" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -40276,7 +40273,7 @@
     <row r="169" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="50"/>
       <c r="F169" s="482" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G169" s="560"/>
       <c r="H169" s="560"/>
@@ -40683,7 +40680,7 @@
       </c>
       <c r="N180" s="601"/>
       <c r="O180" s="537" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="P180" s="584"/>
       <c r="Q180" s="584"/>
@@ -40755,7 +40752,7 @@
       </c>
       <c r="N182" s="601"/>
       <c r="O182" s="537" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P182" s="584"/>
       <c r="Q182" s="584"/>
@@ -40939,7 +40936,7 @@
       </c>
       <c r="N187" s="601"/>
       <c r="O187" s="527" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="P187" s="584"/>
       <c r="Q187" s="584"/>
@@ -41116,7 +41113,7 @@
     <row r="194" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="50"/>
       <c r="E194" s="34" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="195" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -41125,7 +41122,7 @@
     <row r="196" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="50"/>
       <c r="F196" s="627" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G196" s="628"/>
       <c r="H196" s="628"/>
@@ -41252,7 +41249,7 @@
       </c>
       <c r="N199" s="610"/>
       <c r="O199" s="537" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P199" s="621"/>
       <c r="Q199" s="621"/>
@@ -41324,7 +41321,7 @@
       </c>
       <c r="N201" s="618"/>
       <c r="O201" s="537" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P201" s="621"/>
       <c r="Q201" s="621"/>
@@ -41396,7 +41393,7 @@
       </c>
       <c r="N203" s="610"/>
       <c r="O203" s="537" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P203" s="621"/>
       <c r="Q203" s="621"/>
@@ -41548,7 +41545,7 @@
       </c>
       <c r="N207" s="610"/>
       <c r="O207" s="537" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P207" s="621"/>
       <c r="Q207" s="621"/>
@@ -41692,7 +41689,7 @@
       </c>
       <c r="N211" s="612"/>
       <c r="O211" s="557" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P211" s="614"/>
       <c r="Q211" s="614"/>
@@ -41732,7 +41729,7 @@
       </c>
       <c r="N212" s="612"/>
       <c r="O212" s="557" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P212" s="614"/>
       <c r="Q212" s="614"/>
@@ -41892,7 +41889,7 @@
     </row>
     <row r="217" spans="1:34" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C217" s="34" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D217" s="54"/>
     </row>
@@ -41902,7 +41899,7 @@
     <row r="219" spans="1:34" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C219" s="85"/>
       <c r="D219" s="42" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="220" spans="1:34" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -41912,14 +41909,14 @@
     <row r="221" spans="1:34" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C221" s="85"/>
       <c r="D221" s="123" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="222" spans="1:34" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C222" s="85"/>
       <c r="D222" s="86"/>
       <c r="E222" s="84" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="223" spans="1:34" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -41944,7 +41941,7 @@
       <c r="C226" s="85"/>
       <c r="D226" s="86"/>
       <c r="E226" s="318" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="227" spans="3:5" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -41970,7 +41967,7 @@
       <c r="C231" s="85"/>
       <c r="D231" s="86"/>
       <c r="E231" s="318" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="232" spans="3:5" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -41999,19 +41996,19 @@
     <row r="237" spans="3:5" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C237" s="85"/>
       <c r="D237" s="54" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="238" spans="3:5" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C238" s="85"/>
       <c r="E238" s="54" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="239" spans="3:5" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C239" s="289"/>
       <c r="E239" s="54" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="240" spans="3:5" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42020,7 +42017,7 @@
     <row r="241" spans="3:37" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C241" s="85"/>
       <c r="E241" s="274" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F241" s="287"/>
       <c r="G241" s="287"/>
@@ -42064,7 +42061,7 @@
       <c r="G242" s="284"/>
       <c r="H242" s="275"/>
       <c r="I242" s="291" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J242" s="284"/>
       <c r="K242" s="284"/>
@@ -42072,7 +42069,7 @@
       <c r="M242" s="284"/>
       <c r="N242" s="275"/>
       <c r="O242" s="291" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P242" s="285"/>
       <c r="Q242" s="285"/>
@@ -42100,7 +42097,7 @@
       <c r="G243" s="280"/>
       <c r="H243" s="281"/>
       <c r="I243" s="279" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J243" s="280"/>
       <c r="K243" s="280"/>
@@ -42108,7 +42105,7 @@
       <c r="M243" s="280"/>
       <c r="N243" s="281"/>
       <c r="O243" s="312" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P243" s="269"/>
       <c r="Q243" s="269"/>
@@ -42136,7 +42133,7 @@
       <c r="G244" s="280"/>
       <c r="H244" s="281"/>
       <c r="I244" s="279" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J244" s="280"/>
       <c r="K244" s="280"/>
@@ -42144,7 +42141,7 @@
       <c r="M244" s="280"/>
       <c r="N244" s="281"/>
       <c r="O244" s="312" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P244" s="269"/>
       <c r="Q244" s="269"/>
@@ -42172,7 +42169,7 @@
       <c r="G245" s="280"/>
       <c r="H245" s="281"/>
       <c r="I245" s="279" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J245" s="280"/>
       <c r="K245" s="280"/>
@@ -42207,7 +42204,7 @@
       <c r="G246" s="280"/>
       <c r="H246" s="281"/>
       <c r="I246" s="279" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J246" s="280"/>
       <c r="K246" s="280"/>
@@ -42242,7 +42239,7 @@
       <c r="G247" s="280"/>
       <c r="H247" s="281"/>
       <c r="I247" s="279" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J247" s="280"/>
       <c r="K247" s="280"/>
@@ -42312,7 +42309,7 @@
       <c r="G249" s="284"/>
       <c r="H249" s="275"/>
       <c r="I249" s="291" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J249" s="284"/>
       <c r="K249" s="284"/>
@@ -42320,7 +42317,7 @@
       <c r="M249" s="284"/>
       <c r="N249" s="275"/>
       <c r="O249" s="298" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P249" s="285"/>
       <c r="Q249" s="285"/>
@@ -42348,7 +42345,7 @@
       <c r="G250" s="280"/>
       <c r="H250" s="281"/>
       <c r="I250" s="279" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J250" s="280"/>
       <c r="K250" s="280"/>
@@ -42356,7 +42353,7 @@
       <c r="M250" s="280"/>
       <c r="N250" s="281"/>
       <c r="O250" s="313" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P250" s="269"/>
       <c r="Q250" s="269"/>
@@ -42384,7 +42381,7 @@
       <c r="G251" s="280"/>
       <c r="H251" s="281"/>
       <c r="I251" s="279" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J251" s="280"/>
       <c r="K251" s="280"/>
@@ -42392,7 +42389,7 @@
       <c r="M251" s="280"/>
       <c r="N251" s="281"/>
       <c r="O251" s="314" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P251" s="269"/>
       <c r="Q251" s="269"/>
@@ -42426,7 +42423,7 @@
       <c r="M252" s="277"/>
       <c r="N252" s="278"/>
       <c r="O252" s="283" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="P252" s="272"/>
       <c r="Q252" s="272"/>
@@ -42491,7 +42488,7 @@
     <row r="262" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="50"/>
       <c r="C262" s="92" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="263" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42502,7 +42499,7 @@
       <c r="A264" s="50"/>
       <c r="C264" s="269"/>
       <c r="D264" s="34" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="265" spans="1:52" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42513,35 +42510,35 @@
       <c r="A266" s="50"/>
       <c r="C266" s="269"/>
       <c r="D266" s="34" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="267" spans="1:52" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="50"/>
       <c r="C267" s="269"/>
       <c r="D267" s="34" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="268" spans="1:52" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="50"/>
       <c r="C268" s="269"/>
       <c r="D268" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="269" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="50"/>
       <c r="C269" s="83"/>
       <c r="D269" s="34" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="270" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="50"/>
       <c r="C270" s="83"/>
       <c r="D270" s="34" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AM270" s="83"/>
       <c r="AQ270" s="83"/>
@@ -42558,7 +42555,7 @@
     <row r="271" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="50"/>
       <c r="D271" s="34" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AM271" s="83"/>
       <c r="AQ271" s="83"/>
@@ -42575,7 +42572,7 @@
     <row r="272" spans="1:52" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="50"/>
       <c r="D272" s="34" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AM272" s="269"/>
       <c r="AQ272" s="269"/>
@@ -42592,7 +42589,7 @@
     <row r="273" spans="1:52" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="50"/>
       <c r="D273" s="34" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AM273" s="269"/>
       <c r="AQ273" s="269"/>
@@ -42637,7 +42634,7 @@
       <c r="A276" s="50"/>
       <c r="B276" s="50"/>
       <c r="C276" s="92" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="277" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42646,7 +42643,7 @@
     <row r="278" spans="1:52" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="50"/>
       <c r="D278" s="55" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="279" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42659,7 +42656,7 @@
     <row r="281" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="50"/>
       <c r="C281" s="92" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="282" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42675,7 +42672,7 @@
     <row r="284" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="50"/>
       <c r="D284" s="34" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="285" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42699,7 +42696,7 @@
     <row r="289" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="50"/>
       <c r="C289" s="92" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D289" s="50"/>
       <c r="E289" s="50"/>
@@ -42708,7 +42705,7 @@
     <row r="290" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="50"/>
       <c r="D290" s="123" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="291" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42719,14 +42716,14 @@
       <c r="A292" s="50"/>
       <c r="D292" s="269"/>
       <c r="E292" s="34" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="293" spans="1:40" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="50"/>
       <c r="D293" s="269"/>
       <c r="E293" s="34" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="294" spans="1:40" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42738,21 +42735,21 @@
       <c r="A295" s="50"/>
       <c r="D295" s="269"/>
       <c r="E295" s="34" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="296" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="50"/>
       <c r="D296" s="83"/>
       <c r="E296" s="34" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="297" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="50"/>
       <c r="D297" s="83"/>
       <c r="E297" s="34" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="298" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42768,7 +42765,7 @@
     <row r="300" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="50"/>
       <c r="D300" s="123" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AN300" s="83"/>
     </row>
@@ -42793,7 +42790,7 @@
     <row r="304" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="50"/>
       <c r="E304" s="34" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42805,7 +42802,7 @@
     <row r="307" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="50"/>
       <c r="D307" s="42" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E307" s="50"/>
       <c r="F307" s="50"/>
@@ -42822,7 +42819,7 @@
       <c r="A309" s="50"/>
       <c r="D309" s="42"/>
       <c r="E309" s="34" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F309" s="50"/>
       <c r="G309" s="50"/>
@@ -42844,7 +42841,7 @@
     <row r="312" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="50"/>
       <c r="C312" s="92" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42855,7 +42852,7 @@
       <c r="A314" s="50"/>
       <c r="C314" s="83"/>
       <c r="D314" s="34" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42864,7 +42861,7 @@
     <row r="316" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="50"/>
       <c r="D316" s="84" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42873,13 +42870,13 @@
     <row r="318" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="50"/>
       <c r="E318" s="34" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="319" spans="1:7" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="50"/>
       <c r="E319" s="34" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="320" spans="1:7" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42892,7 +42889,7 @@
     <row r="322" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="50"/>
       <c r="D322" s="84" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="323" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -42903,21 +42900,21 @@
       <c r="A324" s="50"/>
       <c r="D324" s="83"/>
       <c r="E324" s="34" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="325" spans="1:52" s="289" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="50"/>
       <c r="D325" s="269"/>
       <c r="E325" s="34" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="326" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="50"/>
       <c r="D326" s="83"/>
       <c r="E326" s="34" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="327" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
